--- a/SharePoint/Docs/MS-SITESS/MS-SITESS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-SITESS/MS-SITESS_RequirementSpecification.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="120" windowWidth="15405" windowHeight="6840" tabRatio="570"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3461" uniqueCount="1146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3461" uniqueCount="1147">
   <si>
     <t>Req ID</t>
   </si>
@@ -3245,7 +3245,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3255,7 +3255,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3267,7 +3267,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3277,7 +3277,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3289,7 +3289,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3299,7 +3299,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3406,7 +3406,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3418,7 +3418,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3428,7 +3428,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3440,7 +3440,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3450,7 +3450,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3462,7 +3462,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3472,7 +3472,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3484,7 +3484,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3501,7 +3501,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3511,7 +3511,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3875,7 +3875,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4169,9 +4169,6 @@
     <t>[In Appendix B: Product Behavior] &lt;7&gt; Section 3.1.4.5.2.2: Implementation does not return the SOAP fault. It returns a successful GetSiteTemplatesResponse with an empty TemplateList element.(Microsoft SharePoint Foundation 2010 and SharePoint Foundation 2013 follow this behavior.)</t>
   </si>
   <si>
-    <t>[In GetSiteTemplatesResponse] [TemplateList:] In case the LCID included in the request message indicates a language that is not installed on the server, Implementation does return a SOAP fault with the error code [0x81070209] specified in the following table.&lt;7&gt; (Windows SharePoint Services 3.0, Office SharePoint Server 2007 and SharePoint Server 2016 follow this behavior.)</t>
-  </si>
-  <si>
     <t>[In Appendix B: Product Behavior] Implementation does support this method [IsScriptSafeUrl]. &lt;19&gt; Section 3.1.4.11:  Only SharePoint Foundation 2013 supports this method.</t>
   </si>
   <si>
@@ -4251,20 +4248,28 @@
   </si>
   <si>
     <t>MS-SITESS_R433001</t>
+  </si>
+  <si>
+    <t>[In GetSiteTemplatesResponse] [TemplateList:] In case the LCID included in the request message indicates a language that is not installed on the server, Implementation does return a SOAP fault with the error code [0x81070209] specified in the following table.&lt;7&gt; (Windows SharePoint Services 3.0, and Office SharePoint Server 2007 follow this behavior.)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4291,7 +4296,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4299,19 +4304,19 @@
       <b/>
       <sz val="16"/>
       <color theme="3" tint="0.39997558519241921"/>
-      <name val="Cambria"/>
+      <name val="宋体"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4319,7 +4324,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4656,7 +4661,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -4677,12 +4682,33 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4746,27 +4772,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13187,7 +13192,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -13220,9 +13225,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -13255,6 +13277,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -13434,26 +13473,24 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M497"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B447" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A456" sqref="A456:XFD456"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="85" style="5" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.625" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" customWidth="1"/>
+    <col min="9" max="9" width="28.75" customWidth="1"/>
     <col min="10" max="10" width="9" style="2" customWidth="1"/>
     <col min="11" max="12" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="40" t="s">
         <v>900</v>
       </c>
@@ -13469,7 +13506,7 @@
       <c r="I1" s="43"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="44" t="s">
         <v>901</v>
       </c>
@@ -13483,13 +13520,13 @@
       <c r="I2" s="43"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="49"/>
       <c r="B3" s="48" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>99</v>
+        <v>1146</v>
       </c>
       <c r="E3" s="48" t="s">
         <v>1001</v>
@@ -13502,137 +13539,137 @@
       <c r="I3" s="43"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="20.25">
-      <c r="A4" s="80" t="s">
+    <row r="4" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="81"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="60"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="84"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="64" t="s">
         <v>912</v>
       </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
       <c r="J6" s="47"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="65" t="s">
         <v>913</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
       <c r="J8" s="47"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="75.75" customHeight="1">
+    <row r="9" spans="1:11" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="72" t="s">
         <v>919</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="67"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="74"/>
       <c r="J9" s="47"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="62.25" customHeight="1">
+    <row r="10" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="75" t="s">
         <v>920</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="70"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="77"/>
       <c r="J10" s="47"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="71" t="s">
         <v>914</v>
       </c>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="30" t="s">
         <v>9</v>
       </c>
@@ -13642,16 +13679,16 @@
       <c r="C12" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="71"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="73"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="80"/>
       <c r="J12" s="47"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="26.25" customHeight="1">
+    <row r="13" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="32" t="s">
         <v>7</v>
       </c>
@@ -13661,15 +13698,15 @@
       <c r="C13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="74"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="76"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="83"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="33" t="s">
         <v>8</v>
       </c>
@@ -13679,16 +13716,16 @@
       <c r="C14" s="9" t="s">
         <v>916</v>
       </c>
-      <c r="D14" s="74"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="76"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="83"/>
       <c r="J14" s="47"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="34" t="s">
         <v>4</v>
       </c>
@@ -13698,66 +13735,66 @@
       <c r="C15" s="9" t="s">
         <v>917</v>
       </c>
-      <c r="D15" s="77"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="79"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="86"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="30" customHeight="1">
+    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="66" t="s">
         <v>921</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
       <c r="J16" s="47"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:13" ht="69" customHeight="1">
+    <row r="17" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="68" t="s">
         <v>922</v>
       </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="63"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="70"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:13" ht="30" customHeight="1">
+    <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="71" t="s">
         <v>918</v>
       </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
       <c r="J18" s="47"/>
       <c r="K18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" ht="30">
+    <row r="19" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -13786,7 +13823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>30</v>
       </c>
@@ -13811,7 +13848,7 @@
       </c>
       <c r="I20" s="16"/>
     </row>
-    <row r="21" spans="1:13" ht="30">
+    <row r="21" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -13838,7 +13875,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="45">
+    <row r="22" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -13867,7 +13904,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="30">
+    <row r="23" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -13892,7 +13929,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:13" ht="45">
+    <row r="24" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>38</v>
       </c>
@@ -13917,7 +13954,7 @@
       </c>
       <c r="I24" s="16"/>
     </row>
-    <row r="25" spans="1:13" ht="30">
+    <row r="25" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>40</v>
       </c>
@@ -13944,7 +13981,7 @@
       </c>
       <c r="I25" s="16"/>
     </row>
-    <row r="26" spans="1:13" ht="30">
+    <row r="26" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>43</v>
       </c>
@@ -13971,7 +14008,7 @@
       </c>
       <c r="I26" s="16"/>
     </row>
-    <row r="27" spans="1:13" ht="30">
+    <row r="27" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>45</v>
       </c>
@@ -13996,7 +14033,7 @@
       </c>
       <c r="I27" s="16"/>
     </row>
-    <row r="28" spans="1:13" ht="30">
+    <row r="28" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>48</v>
       </c>
@@ -14021,7 +14058,7 @@
       </c>
       <c r="I28" s="16"/>
     </row>
-    <row r="29" spans="1:13" ht="30">
+    <row r="29" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
         <v>50</v>
       </c>
@@ -14046,7 +14083,7 @@
       </c>
       <c r="I29" s="16"/>
     </row>
-    <row r="30" spans="1:13" ht="45">
+    <row r="30" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
         <v>53</v>
       </c>
@@ -14071,7 +14108,7 @@
       </c>
       <c r="I30" s="16"/>
     </row>
-    <row r="31" spans="1:13" ht="30">
+    <row r="31" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
         <v>55</v>
       </c>
@@ -14096,7 +14133,7 @@
       </c>
       <c r="I31" s="16"/>
     </row>
-    <row r="32" spans="1:13" ht="30">
+    <row r="32" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
         <v>57</v>
       </c>
@@ -14121,7 +14158,7 @@
       </c>
       <c r="I32" s="16"/>
     </row>
-    <row r="33" spans="1:9" ht="30">
+    <row r="33" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
         <v>59</v>
       </c>
@@ -14146,7 +14183,7 @@
       </c>
       <c r="I33" s="16"/>
     </row>
-    <row r="34" spans="1:9" ht="45">
+    <row r="34" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
         <v>61</v>
       </c>
@@ -14171,7 +14208,7 @@
       </c>
       <c r="I34" s="16"/>
     </row>
-    <row r="35" spans="1:9" ht="30">
+    <row r="35" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>63</v>
       </c>
@@ -14196,7 +14233,7 @@
       </c>
       <c r="I35" s="16"/>
     </row>
-    <row r="36" spans="1:9" ht="30">
+    <row r="36" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
         <v>65</v>
       </c>
@@ -14221,7 +14258,7 @@
       </c>
       <c r="I36" s="16"/>
     </row>
-    <row r="37" spans="1:9" ht="30">
+    <row r="37" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
         <v>67</v>
       </c>
@@ -14246,7 +14283,7 @@
       </c>
       <c r="I37" s="16"/>
     </row>
-    <row r="38" spans="1:9" ht="45">
+    <row r="38" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
         <v>68</v>
       </c>
@@ -14271,7 +14308,7 @@
       </c>
       <c r="I38" s="16"/>
     </row>
-    <row r="39" spans="1:9" ht="30">
+    <row r="39" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="7" t="s">
         <v>70</v>
       </c>
@@ -14296,7 +14333,7 @@
       </c>
       <c r="I39" s="16"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
         <v>72</v>
       </c>
@@ -14321,7 +14358,7 @@
       </c>
       <c r="I40" s="16"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
         <v>1005</v>
       </c>
@@ -14346,7 +14383,7 @@
       </c>
       <c r="I41" s="54"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
         <v>73</v>
       </c>
@@ -14371,7 +14408,7 @@
       </c>
       <c r="I42" s="16"/>
     </row>
-    <row r="43" spans="1:9" ht="150">
+    <row r="43" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
         <v>76</v>
       </c>
@@ -14396,7 +14433,7 @@
       </c>
       <c r="I43" s="16"/>
     </row>
-    <row r="44" spans="1:9" ht="30">
+    <row r="44" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="7" t="s">
         <v>78</v>
       </c>
@@ -14421,7 +14458,7 @@
       </c>
       <c r="I44" s="16"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="7" t="s">
         <v>80</v>
       </c>
@@ -14446,7 +14483,7 @@
       </c>
       <c r="I45" s="16"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
         <v>82</v>
       </c>
@@ -14471,7 +14508,7 @@
       </c>
       <c r="I46" s="16"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
         <v>1010</v>
       </c>
@@ -14496,7 +14533,7 @@
       </c>
       <c r="I47" s="54"/>
     </row>
-    <row r="48" spans="1:9" ht="105">
+    <row r="48" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A48" s="7" t="s">
         <v>1011</v>
       </c>
@@ -14521,7 +14558,7 @@
       </c>
       <c r="I48" s="54"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="7" t="s">
         <v>1012</v>
       </c>
@@ -14546,7 +14583,7 @@
       </c>
       <c r="I49" s="54"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A50" s="7" t="s">
         <v>84</v>
       </c>
@@ -14571,7 +14608,7 @@
       </c>
       <c r="I50" s="16"/>
     </row>
-    <row r="51" spans="1:9" ht="30">
+    <row r="51" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" s="7" t="s">
         <v>86</v>
       </c>
@@ -14596,7 +14633,7 @@
       </c>
       <c r="I51" s="16"/>
     </row>
-    <row r="52" spans="1:9" ht="45">
+    <row r="52" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A52" s="7" t="s">
         <v>88</v>
       </c>
@@ -14621,7 +14658,7 @@
       </c>
       <c r="I52" s="16"/>
     </row>
-    <row r="53" spans="1:9" ht="30">
+    <row r="53" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="7" t="s">
         <v>90</v>
       </c>
@@ -14646,7 +14683,7 @@
       </c>
       <c r="I53" s="16"/>
     </row>
-    <row r="54" spans="1:9" ht="30">
+    <row r="54" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="7" t="s">
         <v>92</v>
       </c>
@@ -14671,7 +14708,7 @@
       </c>
       <c r="I54" s="16"/>
     </row>
-    <row r="55" spans="1:9" ht="60">
+    <row r="55" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A55" s="7" t="s">
         <v>94</v>
       </c>
@@ -14696,7 +14733,7 @@
       </c>
       <c r="I55" s="16"/>
     </row>
-    <row r="56" spans="1:9" ht="45">
+    <row r="56" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A56" s="7" t="s">
         <v>96</v>
       </c>
@@ -14721,7 +14758,7 @@
       </c>
       <c r="I56" s="16"/>
     </row>
-    <row r="57" spans="1:9" ht="60">
+    <row r="57" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A57" s="7" t="s">
         <v>98</v>
       </c>
@@ -14746,7 +14783,7 @@
       </c>
       <c r="I57" s="16"/>
     </row>
-    <row r="58" spans="1:9" ht="90">
+    <row r="58" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A58" s="7" t="s">
         <v>101</v>
       </c>
@@ -14771,7 +14808,7 @@
       </c>
       <c r="I58" s="16"/>
     </row>
-    <row r="59" spans="1:9" ht="30">
+    <row r="59" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="7" t="s">
         <v>104</v>
       </c>
@@ -14796,7 +14833,7 @@
       </c>
       <c r="I59" s="16"/>
     </row>
-    <row r="60" spans="1:9" ht="30">
+    <row r="60" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="7" t="s">
         <v>106</v>
       </c>
@@ -14821,7 +14858,7 @@
       </c>
       <c r="I60" s="16"/>
     </row>
-    <row r="61" spans="1:9" ht="30">
+    <row r="61" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="7" t="s">
         <v>108</v>
       </c>
@@ -14846,7 +14883,7 @@
       </c>
       <c r="I61" s="16"/>
     </row>
-    <row r="62" spans="1:9" ht="30">
+    <row r="62" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A62" s="7" t="s">
         <v>110</v>
       </c>
@@ -14871,7 +14908,7 @@
       </c>
       <c r="I62" s="16"/>
     </row>
-    <row r="63" spans="1:9" ht="30">
+    <row r="63" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="7" t="s">
         <v>111</v>
       </c>
@@ -14896,7 +14933,7 @@
       </c>
       <c r="I63" s="16"/>
     </row>
-    <row r="64" spans="1:9" ht="30">
+    <row r="64" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="7" t="s">
         <v>113</v>
       </c>
@@ -14921,7 +14958,7 @@
       </c>
       <c r="I64" s="16"/>
     </row>
-    <row r="65" spans="1:9" ht="30">
+    <row r="65" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="7" t="s">
         <v>115</v>
       </c>
@@ -14946,7 +14983,7 @@
       </c>
       <c r="I65" s="16"/>
     </row>
-    <row r="66" spans="1:9" ht="30">
+    <row r="66" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="7" t="s">
         <v>117</v>
       </c>
@@ -14971,7 +15008,7 @@
       </c>
       <c r="I66" s="16"/>
     </row>
-    <row r="67" spans="1:9" ht="45">
+    <row r="67" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A67" s="7" t="s">
         <v>119</v>
       </c>
@@ -14996,7 +15033,7 @@
       </c>
       <c r="I67" s="16"/>
     </row>
-    <row r="68" spans="1:9" ht="30">
+    <row r="68" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="7" t="s">
         <v>121</v>
       </c>
@@ -15021,7 +15058,7 @@
       </c>
       <c r="I68" s="16"/>
     </row>
-    <row r="69" spans="1:9" ht="45">
+    <row r="69" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A69" s="7" t="s">
         <v>122</v>
       </c>
@@ -15048,7 +15085,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="75">
+    <row r="70" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A70" s="7" t="s">
         <v>124</v>
       </c>
@@ -15073,7 +15110,7 @@
       </c>
       <c r="I70" s="16"/>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="7" t="s">
         <v>126</v>
       </c>
@@ -15098,7 +15135,7 @@
       </c>
       <c r="I71" s="16"/>
     </row>
-    <row r="72" spans="1:9" ht="30">
+    <row r="72" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A72" s="7" t="s">
         <v>128</v>
       </c>
@@ -15123,7 +15160,7 @@
       </c>
       <c r="I72" s="16"/>
     </row>
-    <row r="73" spans="1:9" ht="30">
+    <row r="73" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A73" s="7" t="s">
         <v>130</v>
       </c>
@@ -15148,7 +15185,7 @@
       </c>
       <c r="I73" s="16"/>
     </row>
-    <row r="74" spans="1:9" ht="30">
+    <row r="74" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A74" s="7" t="s">
         <v>133</v>
       </c>
@@ -15173,7 +15210,7 @@
       </c>
       <c r="I74" s="16"/>
     </row>
-    <row r="75" spans="1:9" ht="30">
+    <row r="75" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A75" s="7" t="s">
         <v>136</v>
       </c>
@@ -15198,7 +15235,7 @@
       </c>
       <c r="I75" s="16"/>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76" s="7" t="s">
         <v>138</v>
       </c>
@@ -15223,7 +15260,7 @@
       </c>
       <c r="I76" s="16"/>
     </row>
-    <row r="77" spans="1:9" ht="30">
+    <row r="77" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A77" s="7" t="s">
         <v>140</v>
       </c>
@@ -15248,7 +15285,7 @@
       </c>
       <c r="I77" s="16"/>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A78" s="7" t="s">
         <v>143</v>
       </c>
@@ -15273,7 +15310,7 @@
       </c>
       <c r="I78" s="16"/>
     </row>
-    <row r="79" spans="1:9" ht="30">
+    <row r="79" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A79" s="7" t="s">
         <v>145</v>
       </c>
@@ -15298,7 +15335,7 @@
       </c>
       <c r="I79" s="16"/>
     </row>
-    <row r="80" spans="1:9" ht="30">
+    <row r="80" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A80" s="7" t="s">
         <v>147</v>
       </c>
@@ -15323,7 +15360,7 @@
       </c>
       <c r="I80" s="16"/>
     </row>
-    <row r="81" spans="1:9" ht="225">
+    <row r="81" spans="1:9" ht="216" x14ac:dyDescent="0.15">
       <c r="A81" s="7" t="s">
         <v>150</v>
       </c>
@@ -15348,7 +15385,7 @@
       </c>
       <c r="I81" s="16"/>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A82" s="7" t="s">
         <v>152</v>
       </c>
@@ -15373,7 +15410,7 @@
       </c>
       <c r="I82" s="16"/>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" s="7" t="s">
         <v>154</v>
       </c>
@@ -15398,7 +15435,7 @@
       </c>
       <c r="I83" s="16"/>
     </row>
-    <row r="84" spans="1:9" ht="60">
+    <row r="84" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A84" s="7" t="s">
         <v>156</v>
       </c>
@@ -15425,7 +15462,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="45">
+    <row r="85" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A85" s="7" t="s">
         <v>158</v>
       </c>
@@ -15452,7 +15489,7 @@
       </c>
       <c r="I85" s="16"/>
     </row>
-    <row r="86" spans="1:9" ht="30">
+    <row r="86" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A86" s="7" t="s">
         <v>161</v>
       </c>
@@ -15477,7 +15514,7 @@
       </c>
       <c r="I86" s="16"/>
     </row>
-    <row r="87" spans="1:9" ht="30">
+    <row r="87" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A87" s="7" t="s">
         <v>163</v>
       </c>
@@ -15502,7 +15539,7 @@
       </c>
       <c r="I87" s="13"/>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A88" s="7" t="s">
         <v>165</v>
       </c>
@@ -15527,7 +15564,7 @@
       </c>
       <c r="I88" s="16"/>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A89" s="7" t="s">
         <v>167</v>
       </c>
@@ -15552,7 +15589,7 @@
       </c>
       <c r="I89" s="16"/>
     </row>
-    <row r="90" spans="1:9" ht="30">
+    <row r="90" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A90" s="7" t="s">
         <v>169</v>
       </c>
@@ -15577,7 +15614,7 @@
       </c>
       <c r="I90" s="16"/>
     </row>
-    <row r="91" spans="1:9" ht="45">
+    <row r="91" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A91" s="7" t="s">
         <v>171</v>
       </c>
@@ -15602,7 +15639,7 @@
       </c>
       <c r="I91" s="16"/>
     </row>
-    <row r="92" spans="1:9" ht="45">
+    <row r="92" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A92" s="7" t="s">
         <v>173</v>
       </c>
@@ -15627,7 +15664,7 @@
       </c>
       <c r="I92" s="16"/>
     </row>
-    <row r="93" spans="1:9" ht="60">
+    <row r="93" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A93" s="7" t="s">
         <v>175</v>
       </c>
@@ -15652,7 +15689,7 @@
       </c>
       <c r="I93" s="16"/>
     </row>
-    <row r="94" spans="1:9" ht="45">
+    <row r="94" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A94" s="7" t="s">
         <v>177</v>
       </c>
@@ -15677,7 +15714,7 @@
       </c>
       <c r="I94" s="16"/>
     </row>
-    <row r="95" spans="1:9" ht="30">
+    <row r="95" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A95" s="7" t="s">
         <v>180</v>
       </c>
@@ -15702,7 +15739,7 @@
       </c>
       <c r="I95" s="16"/>
     </row>
-    <row r="96" spans="1:9" ht="30">
+    <row r="96" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A96" s="7" t="s">
         <v>182</v>
       </c>
@@ -15727,7 +15764,7 @@
       </c>
       <c r="I96" s="16"/>
     </row>
-    <row r="97" spans="1:9" ht="30">
+    <row r="97" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A97" s="7" t="s">
         <v>183</v>
       </c>
@@ -15752,7 +15789,7 @@
       </c>
       <c r="I97" s="16"/>
     </row>
-    <row r="98" spans="1:9" ht="135">
+    <row r="98" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A98" s="7" t="s">
         <v>179</v>
       </c>
@@ -15777,7 +15814,7 @@
       </c>
       <c r="I98" s="16"/>
     </row>
-    <row r="99" spans="1:9" ht="30">
+    <row r="99" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A99" s="7" t="s">
         <v>187</v>
       </c>
@@ -15802,7 +15839,7 @@
       </c>
       <c r="I99" s="16"/>
     </row>
-    <row r="100" spans="1:9" ht="45">
+    <row r="100" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A100" s="7" t="s">
         <v>189</v>
       </c>
@@ -15829,7 +15866,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="30">
+    <row r="101" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A101" s="7" t="s">
         <v>192</v>
       </c>
@@ -15854,7 +15891,7 @@
       </c>
       <c r="I101" s="16"/>
     </row>
-    <row r="102" spans="1:9" ht="75">
+    <row r="102" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A102" s="7" t="s">
         <v>193</v>
       </c>
@@ -15879,7 +15916,7 @@
       </c>
       <c r="I102" s="16"/>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A103" s="7" t="s">
         <v>195</v>
       </c>
@@ -15904,7 +15941,7 @@
       </c>
       <c r="I103" s="16"/>
     </row>
-    <row r="104" spans="1:9" ht="30">
+    <row r="104" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A104" s="7" t="s">
         <v>197</v>
       </c>
@@ -15929,7 +15966,7 @@
       </c>
       <c r="I104" s="16"/>
     </row>
-    <row r="105" spans="1:9" ht="45">
+    <row r="105" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A105" s="7" t="s">
         <v>199</v>
       </c>
@@ -15954,7 +15991,7 @@
       </c>
       <c r="I105" s="16"/>
     </row>
-    <row r="106" spans="1:9" ht="30">
+    <row r="106" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A106" s="7" t="s">
         <v>201</v>
       </c>
@@ -15979,7 +16016,7 @@
       </c>
       <c r="I106" s="16"/>
     </row>
-    <row r="107" spans="1:9" ht="60">
+    <row r="107" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A107" s="7" t="s">
         <v>203</v>
       </c>
@@ -16003,10 +16040,10 @@
         <v>18</v>
       </c>
       <c r="I107" s="16" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="45">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A108" s="7" t="s">
         <v>205</v>
       </c>
@@ -16031,7 +16068,7 @@
       </c>
       <c r="I108" s="16"/>
     </row>
-    <row r="109" spans="1:9" ht="30">
+    <row r="109" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A109" s="7" t="s">
         <v>207</v>
       </c>
@@ -16056,7 +16093,7 @@
       </c>
       <c r="I109" s="16"/>
     </row>
-    <row r="110" spans="1:9" ht="30">
+    <row r="110" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A110" s="7" t="s">
         <v>210</v>
       </c>
@@ -16081,7 +16118,7 @@
       </c>
       <c r="I110" s="16"/>
     </row>
-    <row r="111" spans="1:9" ht="30">
+    <row r="111" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A111" s="7" t="s">
         <v>213</v>
       </c>
@@ -16106,7 +16143,7 @@
       </c>
       <c r="I111" s="16"/>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A112" s="7" t="s">
         <v>215</v>
       </c>
@@ -16131,7 +16168,7 @@
       </c>
       <c r="I112" s="16"/>
     </row>
-    <row r="113" spans="1:9" ht="30">
+    <row r="113" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A113" s="7" t="s">
         <v>217</v>
       </c>
@@ -16156,7 +16193,7 @@
       </c>
       <c r="I113" s="16"/>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A114" s="7" t="s">
         <v>220</v>
       </c>
@@ -16181,7 +16218,7 @@
       </c>
       <c r="I114" s="16"/>
     </row>
-    <row r="115" spans="1:9" ht="30">
+    <row r="115" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A115" s="7" t="s">
         <v>999</v>
       </c>
@@ -16206,7 +16243,7 @@
       </c>
       <c r="I115" s="16"/>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A116" s="7" t="s">
         <v>223</v>
       </c>
@@ -16231,7 +16268,7 @@
       </c>
       <c r="I116" s="16"/>
     </row>
-    <row r="117" spans="1:9" ht="225">
+    <row r="117" spans="1:9" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A117" s="7" t="s">
         <v>226</v>
       </c>
@@ -16256,7 +16293,7 @@
       </c>
       <c r="I117" s="16"/>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A118" s="7" t="s">
         <v>229</v>
       </c>
@@ -16281,7 +16318,7 @@
       </c>
       <c r="I118" s="16"/>
     </row>
-    <row r="119" spans="1:9" ht="60">
+    <row r="119" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A119" s="7" t="s">
         <v>231</v>
       </c>
@@ -16306,7 +16343,7 @@
       </c>
       <c r="I119" s="16"/>
     </row>
-    <row r="120" spans="1:9" ht="30">
+    <row r="120" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A120" s="7" t="s">
         <v>233</v>
       </c>
@@ -16331,7 +16368,7 @@
       </c>
       <c r="I120" s="16"/>
     </row>
-    <row r="121" spans="1:9" ht="45">
+    <row r="121" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A121" s="7" t="s">
         <v>235</v>
       </c>
@@ -16356,7 +16393,7 @@
       </c>
       <c r="I121" s="16"/>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A122" s="7" t="s">
         <v>237</v>
       </c>
@@ -16381,7 +16418,7 @@
       </c>
       <c r="I122" s="16"/>
     </row>
-    <row r="123" spans="1:9" ht="45">
+    <row r="123" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A123" s="7" t="s">
         <v>927</v>
       </c>
@@ -16408,7 +16445,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="45">
+    <row r="124" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A124" s="7" t="s">
         <v>930</v>
       </c>
@@ -16437,7 +16474,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A125" s="7" t="s">
         <v>239</v>
       </c>
@@ -16462,7 +16499,7 @@
       </c>
       <c r="I125" s="16"/>
     </row>
-    <row r="126" spans="1:9" ht="30">
+    <row r="126" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A126" s="7" t="s">
         <v>241</v>
       </c>
@@ -16487,7 +16524,7 @@
       </c>
       <c r="I126" s="16"/>
     </row>
-    <row r="127" spans="1:9" ht="30">
+    <row r="127" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A127" s="7" t="s">
         <v>243</v>
       </c>
@@ -16512,7 +16549,7 @@
       </c>
       <c r="I127" s="16"/>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A128" s="7" t="s">
         <v>244</v>
       </c>
@@ -16537,7 +16574,7 @@
       </c>
       <c r="I128" s="16"/>
     </row>
-    <row r="129" spans="1:9" ht="30">
+    <row r="129" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A129" s="7" t="s">
         <v>246</v>
       </c>
@@ -16562,7 +16599,7 @@
       </c>
       <c r="I129" s="13"/>
     </row>
-    <row r="130" spans="1:9" ht="30">
+    <row r="130" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A130" s="7" t="s">
         <v>248</v>
       </c>
@@ -16587,7 +16624,7 @@
       </c>
       <c r="I130" s="16"/>
     </row>
-    <row r="131" spans="1:9" ht="30">
+    <row r="131" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A131" s="7" t="s">
         <v>250</v>
       </c>
@@ -16612,7 +16649,7 @@
       </c>
       <c r="I131" s="13"/>
     </row>
-    <row r="132" spans="1:9" ht="30">
+    <row r="132" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A132" s="7" t="s">
         <v>252</v>
       </c>
@@ -16637,7 +16674,7 @@
       </c>
       <c r="I132" s="16"/>
     </row>
-    <row r="133" spans="1:9" ht="30">
+    <row r="133" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A133" s="7" t="s">
         <v>254</v>
       </c>
@@ -16662,7 +16699,7 @@
       </c>
       <c r="I133" s="16"/>
     </row>
-    <row r="134" spans="1:9" ht="30">
+    <row r="134" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A134" s="7" t="s">
         <v>256</v>
       </c>
@@ -16687,7 +16724,7 @@
       </c>
       <c r="I134" s="16"/>
     </row>
-    <row r="135" spans="1:9" ht="30">
+    <row r="135" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A135" s="7" t="s">
         <v>258</v>
       </c>
@@ -16712,7 +16749,7 @@
       </c>
       <c r="I135" s="16"/>
     </row>
-    <row r="136" spans="1:9" ht="60">
+    <row r="136" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A136" s="7" t="s">
         <v>260</v>
       </c>
@@ -16736,10 +16773,10 @@
         <v>18</v>
       </c>
       <c r="I136" s="13" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="135">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A137" s="7" t="s">
         <v>262</v>
       </c>
@@ -16764,7 +16801,7 @@
       </c>
       <c r="I137" s="16"/>
     </row>
-    <row r="138" spans="1:9" ht="30">
+    <row r="138" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A138" s="7" t="s">
         <v>263</v>
       </c>
@@ -16789,7 +16826,7 @@
       </c>
       <c r="I138" s="16"/>
     </row>
-    <row r="139" spans="1:9" ht="120">
+    <row r="139" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A139" s="7" t="s">
         <v>228</v>
       </c>
@@ -16814,7 +16851,7 @@
       </c>
       <c r="I139" s="16"/>
     </row>
-    <row r="140" spans="1:9" ht="30">
+    <row r="140" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A140" s="7" t="s">
         <v>267</v>
       </c>
@@ -16839,7 +16876,7 @@
       </c>
       <c r="I140" s="16"/>
     </row>
-    <row r="141" spans="1:9" ht="30">
+    <row r="141" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A141" s="7" t="s">
         <v>268</v>
       </c>
@@ -16864,7 +16901,7 @@
       </c>
       <c r="I141" s="16"/>
     </row>
-    <row r="142" spans="1:9" ht="30">
+    <row r="142" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A142" s="7" t="s">
         <v>270</v>
       </c>
@@ -16889,7 +16926,7 @@
       </c>
       <c r="I142" s="16"/>
     </row>
-    <row r="143" spans="1:9" ht="30">
+    <row r="143" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A143" s="7" t="s">
         <v>272</v>
       </c>
@@ -16914,7 +16951,7 @@
       </c>
       <c r="I143" s="16"/>
     </row>
-    <row r="144" spans="1:9" ht="45">
+    <row r="144" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A144" s="7" t="s">
         <v>274</v>
       </c>
@@ -16939,7 +16976,7 @@
       </c>
       <c r="I144" s="16"/>
     </row>
-    <row r="145" spans="1:9" ht="45">
+    <row r="145" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A145" s="7" t="s">
         <v>276</v>
       </c>
@@ -16964,7 +17001,7 @@
       </c>
       <c r="I145" s="13"/>
     </row>
-    <row r="146" spans="1:9" ht="30">
+    <row r="146" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A146" s="7" t="s">
         <v>277</v>
       </c>
@@ -16989,7 +17026,7 @@
       </c>
       <c r="I146" s="13"/>
     </row>
-    <row r="147" spans="1:9" ht="30">
+    <row r="147" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A147" s="7" t="s">
         <v>278</v>
       </c>
@@ -17014,7 +17051,7 @@
       </c>
       <c r="I147" s="16"/>
     </row>
-    <row r="148" spans="1:9" ht="30">
+    <row r="148" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A148" s="7" t="s">
         <v>279</v>
       </c>
@@ -17039,7 +17076,7 @@
       </c>
       <c r="I148" s="16"/>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A149" s="7" t="s">
         <v>281</v>
       </c>
@@ -17064,7 +17101,7 @@
       </c>
       <c r="I149" s="16"/>
     </row>
-    <row r="150" spans="1:9" ht="45">
+    <row r="150" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A150" s="7" t="s">
         <v>282</v>
       </c>
@@ -17091,7 +17128,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="75">
+    <row r="151" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A151" s="7" t="s">
         <v>285</v>
       </c>
@@ -17116,7 +17153,7 @@
       </c>
       <c r="I151" s="16"/>
     </row>
-    <row r="152" spans="1:9" ht="30">
+    <row r="152" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A152" s="7" t="s">
         <v>287</v>
       </c>
@@ -17141,7 +17178,7 @@
       </c>
       <c r="I152" s="16"/>
     </row>
-    <row r="153" spans="1:9" ht="45">
+    <row r="153" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A153" s="7" t="s">
         <v>289</v>
       </c>
@@ -17166,7 +17203,7 @@
       </c>
       <c r="I153" s="16"/>
     </row>
-    <row r="154" spans="1:9" ht="45">
+    <row r="154" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A154" s="7" t="s">
         <v>291</v>
       </c>
@@ -17191,7 +17228,7 @@
       </c>
       <c r="I154" s="16"/>
     </row>
-    <row r="155" spans="1:9" ht="30">
+    <row r="155" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A155" s="7" t="s">
         <v>294</v>
       </c>
@@ -17216,7 +17253,7 @@
       </c>
       <c r="I155" s="16"/>
     </row>
-    <row r="156" spans="1:9" ht="45">
+    <row r="156" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A156" s="7" t="s">
         <v>297</v>
       </c>
@@ -17241,7 +17278,7 @@
       </c>
       <c r="I156" s="16"/>
     </row>
-    <row r="157" spans="1:9" ht="30">
+    <row r="157" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A157" s="7" t="s">
         <v>299</v>
       </c>
@@ -17266,7 +17303,7 @@
       </c>
       <c r="I157" s="16"/>
     </row>
-    <row r="158" spans="1:9" ht="30">
+    <row r="158" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A158" s="7" t="s">
         <v>301</v>
       </c>
@@ -17291,7 +17328,7 @@
       </c>
       <c r="I158" s="16"/>
     </row>
-    <row r="159" spans="1:9" ht="30">
+    <row r="159" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A159" s="7" t="s">
         <v>304</v>
       </c>
@@ -17316,7 +17353,7 @@
       </c>
       <c r="I159" s="16"/>
     </row>
-    <row r="160" spans="1:9" ht="45">
+    <row r="160" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A160" s="7" t="s">
         <v>306</v>
       </c>
@@ -17341,7 +17378,7 @@
       </c>
       <c r="I160" s="16"/>
     </row>
-    <row r="161" spans="1:9" ht="30">
+    <row r="161" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A161" s="7" t="s">
         <v>308</v>
       </c>
@@ -17366,7 +17403,7 @@
       </c>
       <c r="I161" s="16"/>
     </row>
-    <row r="162" spans="1:9" ht="225">
+    <row r="162" spans="1:9" ht="216" x14ac:dyDescent="0.15">
       <c r="A162" s="7" t="s">
         <v>311</v>
       </c>
@@ -17391,7 +17428,7 @@
       </c>
       <c r="I162" s="16"/>
     </row>
-    <row r="163" spans="1:9" ht="30">
+    <row r="163" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A163" s="7" t="s">
         <v>314</v>
       </c>
@@ -17416,7 +17453,7 @@
       </c>
       <c r="I163" s="16"/>
     </row>
-    <row r="164" spans="1:9" ht="30">
+    <row r="164" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A164" s="7" t="s">
         <v>316</v>
       </c>
@@ -17441,7 +17478,7 @@
       </c>
       <c r="I164" s="16"/>
     </row>
-    <row r="165" spans="1:9" ht="75">
+    <row r="165" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A165" s="7" t="s">
         <v>318</v>
       </c>
@@ -17468,7 +17505,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="60">
+    <row r="166" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A166" s="7" t="s">
         <v>319</v>
       </c>
@@ -17495,7 +17532,7 @@
       </c>
       <c r="I166" s="16"/>
     </row>
-    <row r="167" spans="1:9" ht="45">
+    <row r="167" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A167" s="7" t="s">
         <v>320</v>
       </c>
@@ -17520,7 +17557,7 @@
       </c>
       <c r="I167" s="16"/>
     </row>
-    <row r="168" spans="1:9" ht="30">
+    <row r="168" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A168" s="7" t="s">
         <v>322</v>
       </c>
@@ -17545,7 +17582,7 @@
       </c>
       <c r="I168" s="13"/>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A169" s="7" t="s">
         <v>324</v>
       </c>
@@ -17570,7 +17607,7 @@
       </c>
       <c r="I169" s="16"/>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A170" s="7" t="s">
         <v>326</v>
       </c>
@@ -17595,7 +17632,7 @@
       </c>
       <c r="I170" s="16"/>
     </row>
-    <row r="171" spans="1:9" ht="30">
+    <row r="171" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A171" s="7" t="s">
         <v>328</v>
       </c>
@@ -17620,7 +17657,7 @@
       </c>
       <c r="I171" s="16"/>
     </row>
-    <row r="172" spans="1:9" ht="30">
+    <row r="172" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A172" s="7" t="s">
         <v>330</v>
       </c>
@@ -17645,7 +17682,7 @@
       </c>
       <c r="I172" s="16"/>
     </row>
-    <row r="173" spans="1:9" ht="45">
+    <row r="173" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A173" s="7" t="s">
         <v>332</v>
       </c>
@@ -17670,7 +17707,7 @@
       </c>
       <c r="I173" s="13"/>
     </row>
-    <row r="174" spans="1:9" ht="45">
+    <row r="174" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A174" s="7" t="s">
         <v>984</v>
       </c>
@@ -17695,7 +17732,7 @@
       </c>
       <c r="I174" s="13"/>
     </row>
-    <row r="175" spans="1:9" ht="30">
+    <row r="175" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A175" s="7" t="s">
         <v>333</v>
       </c>
@@ -17720,7 +17757,7 @@
       </c>
       <c r="I175" s="16"/>
     </row>
-    <row r="176" spans="1:9" ht="30">
+    <row r="176" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A176" s="7" t="s">
         <v>335</v>
       </c>
@@ -17745,7 +17782,7 @@
       </c>
       <c r="I176" s="16"/>
     </row>
-    <row r="177" spans="1:9" ht="30">
+    <row r="177" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A177" s="7" t="s">
         <v>337</v>
       </c>
@@ -17770,7 +17807,7 @@
       </c>
       <c r="I177" s="16"/>
     </row>
-    <row r="178" spans="1:9" ht="30">
+    <row r="178" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A178" s="7" t="s">
         <v>339</v>
       </c>
@@ -17795,7 +17832,7 @@
       </c>
       <c r="I178" s="16"/>
     </row>
-    <row r="179" spans="1:9" ht="135">
+    <row r="179" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A179" s="7" t="s">
         <v>313</v>
       </c>
@@ -17820,7 +17857,7 @@
       </c>
       <c r="I179" s="16"/>
     </row>
-    <row r="180" spans="1:9" ht="30">
+    <row r="180" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A180" s="7" t="s">
         <v>343</v>
       </c>
@@ -17845,7 +17882,7 @@
       </c>
       <c r="I180" s="16"/>
     </row>
-    <row r="181" spans="1:9" ht="45">
+    <row r="181" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A181" s="7" t="s">
         <v>345</v>
       </c>
@@ -17872,7 +17909,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="60">
+    <row r="182" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A182" s="7" t="s">
         <v>348</v>
       </c>
@@ -17897,7 +17934,7 @@
       </c>
       <c r="I182" s="16"/>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A183" s="7" t="s">
         <v>350</v>
       </c>
@@ -17922,7 +17959,7 @@
       </c>
       <c r="I183" s="16"/>
     </row>
-    <row r="184" spans="1:9" ht="30">
+    <row r="184" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A184" s="7" t="s">
         <v>352</v>
       </c>
@@ -17947,7 +17984,7 @@
       </c>
       <c r="I184" s="16"/>
     </row>
-    <row r="185" spans="1:9" ht="30">
+    <row r="185" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A185" s="7" t="s">
         <v>354</v>
       </c>
@@ -17972,7 +18009,7 @@
       </c>
       <c r="I185" s="16"/>
     </row>
-    <row r="186" spans="1:9" ht="30">
+    <row r="186" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A186" s="7" t="s">
         <v>357</v>
       </c>
@@ -17997,7 +18034,7 @@
       </c>
       <c r="I186" s="16"/>
     </row>
-    <row r="187" spans="1:9" ht="30">
+    <row r="187" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A187" s="7" t="s">
         <v>360</v>
       </c>
@@ -18022,7 +18059,7 @@
       </c>
       <c r="I187" s="16"/>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A188" s="7" t="s">
         <v>362</v>
       </c>
@@ -18047,7 +18084,7 @@
       </c>
       <c r="I188" s="16"/>
     </row>
-    <row r="189" spans="1:9" ht="30">
+    <row r="189" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A189" s="7" t="s">
         <v>364</v>
       </c>
@@ -18072,7 +18109,7 @@
       </c>
       <c r="I189" s="16"/>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A190" s="7" t="s">
         <v>367</v>
       </c>
@@ -18097,7 +18134,7 @@
       </c>
       <c r="I190" s="16"/>
     </row>
-    <row r="191" spans="1:9" ht="30">
+    <row r="191" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A191" s="7" t="s">
         <v>369</v>
       </c>
@@ -18122,7 +18159,7 @@
       </c>
       <c r="I191" s="16"/>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A192" s="7" t="s">
         <v>371</v>
       </c>
@@ -18147,7 +18184,7 @@
       </c>
       <c r="I192" s="16"/>
     </row>
-    <row r="193" spans="1:9" ht="105">
+    <row r="193" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A193" s="7" t="s">
         <v>374</v>
       </c>
@@ -18172,7 +18209,7 @@
       </c>
       <c r="I193" s="16"/>
     </row>
-    <row r="194" spans="1:9" ht="30">
+    <row r="194" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A194" s="7" t="s">
         <v>376</v>
       </c>
@@ -18197,7 +18234,7 @@
       </c>
       <c r="I194" s="16"/>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A195" s="7" t="s">
         <v>378</v>
       </c>
@@ -18222,7 +18259,7 @@
       </c>
       <c r="I195" s="16"/>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A196" s="7" t="s">
         <v>380</v>
       </c>
@@ -18247,7 +18284,7 @@
       </c>
       <c r="I196" s="16"/>
     </row>
-    <row r="197" spans="1:9" ht="135">
+    <row r="197" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A197" s="7" t="s">
         <v>375</v>
       </c>
@@ -18272,7 +18309,7 @@
       </c>
       <c r="I197" s="16"/>
     </row>
-    <row r="198" spans="1:9" ht="30">
+    <row r="198" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A198" s="7" t="s">
         <v>383</v>
       </c>
@@ -18297,7 +18334,7 @@
       </c>
       <c r="I198" s="16"/>
     </row>
-    <row r="199" spans="1:9" ht="30">
+    <row r="199" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A199" s="7" t="s">
         <v>385</v>
       </c>
@@ -18322,7 +18359,7 @@
       </c>
       <c r="I199" s="16"/>
     </row>
-    <row r="200" spans="1:9" ht="30">
+    <row r="200" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A200" s="7" t="s">
         <v>387</v>
       </c>
@@ -18347,7 +18384,7 @@
       </c>
       <c r="I200" s="16"/>
     </row>
-    <row r="201" spans="1:9" ht="30">
+    <row r="201" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A201" s="7" t="s">
         <v>389</v>
       </c>
@@ -18372,7 +18409,7 @@
       </c>
       <c r="I201" s="16"/>
     </row>
-    <row r="202" spans="1:9" ht="30">
+    <row r="202" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A202" s="7" t="s">
         <v>391</v>
       </c>
@@ -18397,7 +18434,7 @@
       </c>
       <c r="I202" s="16"/>
     </row>
-    <row r="203" spans="1:9" ht="30">
+    <row r="203" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A203" s="7" t="s">
         <v>393</v>
       </c>
@@ -18422,7 +18459,7 @@
       </c>
       <c r="I203" s="16"/>
     </row>
-    <row r="204" spans="1:9" ht="30">
+    <row r="204" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A204" s="7" t="s">
         <v>395</v>
       </c>
@@ -18447,7 +18484,7 @@
       </c>
       <c r="I204" s="16"/>
     </row>
-    <row r="205" spans="1:9" ht="60">
+    <row r="205" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A205" s="7" t="s">
         <v>397</v>
       </c>
@@ -18472,7 +18509,7 @@
       </c>
       <c r="I205" s="16"/>
     </row>
-    <row r="206" spans="1:9" ht="75">
+    <row r="206" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A206" s="7" t="s">
         <v>400</v>
       </c>
@@ -18497,7 +18534,7 @@
       </c>
       <c r="I206" s="16"/>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A207" s="7" t="s">
         <v>402</v>
       </c>
@@ -18522,7 +18559,7 @@
       </c>
       <c r="I207" s="16"/>
     </row>
-    <row r="208" spans="1:9" ht="30">
+    <row r="208" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A208" s="7" t="s">
         <v>404</v>
       </c>
@@ -18547,7 +18584,7 @@
       </c>
       <c r="I208" s="16"/>
     </row>
-    <row r="209" spans="1:9" ht="45">
+    <row r="209" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A209" s="7" t="s">
         <v>406</v>
       </c>
@@ -18572,7 +18609,7 @@
       </c>
       <c r="I209" s="16"/>
     </row>
-    <row r="210" spans="1:9" ht="30">
+    <row r="210" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A210" s="7" t="s">
         <v>409</v>
       </c>
@@ -18597,7 +18634,7 @@
       </c>
       <c r="I210" s="16"/>
     </row>
-    <row r="211" spans="1:9" ht="30">
+    <row r="211" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A211" s="7" t="s">
         <v>412</v>
       </c>
@@ -18622,7 +18659,7 @@
       </c>
       <c r="I211" s="16"/>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A212" s="7" t="s">
         <v>414</v>
       </c>
@@ -18647,7 +18684,7 @@
       </c>
       <c r="I212" s="16"/>
     </row>
-    <row r="213" spans="1:9" ht="30">
+    <row r="213" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A213" s="7" t="s">
         <v>416</v>
       </c>
@@ -18672,7 +18709,7 @@
       </c>
       <c r="I213" s="16"/>
     </row>
-    <row r="214" spans="1:9" ht="30">
+    <row r="214" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A214" s="7" t="s">
         <v>419</v>
       </c>
@@ -18697,7 +18734,7 @@
       </c>
       <c r="I214" s="16"/>
     </row>
-    <row r="215" spans="1:9" ht="30">
+    <row r="215" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A215" s="7" t="s">
         <v>421</v>
       </c>
@@ -18722,7 +18759,7 @@
       </c>
       <c r="I215" s="16"/>
     </row>
-    <row r="216" spans="1:9" ht="30">
+    <row r="216" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A216" s="7" t="s">
         <v>423</v>
       </c>
@@ -18747,7 +18784,7 @@
       </c>
       <c r="I216" s="16"/>
     </row>
-    <row r="217" spans="1:9" ht="120">
+    <row r="217" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A217" s="7" t="s">
         <v>426</v>
       </c>
@@ -18772,7 +18809,7 @@
       </c>
       <c r="I217" s="16"/>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A218" s="7" t="s">
         <v>429</v>
       </c>
@@ -18797,7 +18834,7 @@
       </c>
       <c r="I218" s="16"/>
     </row>
-    <row r="219" spans="1:9" ht="30">
+    <row r="219" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A219" s="7" t="s">
         <v>431</v>
       </c>
@@ -18822,7 +18859,7 @@
       </c>
       <c r="I219" s="16"/>
     </row>
-    <row r="220" spans="1:9" ht="165">
+    <row r="220" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A220" s="7" t="s">
         <v>428</v>
       </c>
@@ -18847,7 +18884,7 @@
       </c>
       <c r="I220" s="16"/>
     </row>
-    <row r="221" spans="1:9" ht="30">
+    <row r="221" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A221" s="7" t="s">
         <v>434</v>
       </c>
@@ -18872,7 +18909,7 @@
       </c>
       <c r="I221" s="16"/>
     </row>
-    <row r="222" spans="1:9" ht="30">
+    <row r="222" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A222" s="7" t="s">
         <v>436</v>
       </c>
@@ -18897,7 +18934,7 @@
       </c>
       <c r="I222" s="16"/>
     </row>
-    <row r="223" spans="1:9" ht="30">
+    <row r="223" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A223" s="7" t="s">
         <v>438</v>
       </c>
@@ -18922,7 +18959,7 @@
       </c>
       <c r="I223" s="16"/>
     </row>
-    <row r="224" spans="1:9" ht="30">
+    <row r="224" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A224" s="7" t="s">
         <v>440</v>
       </c>
@@ -18947,7 +18984,7 @@
       </c>
       <c r="I224" s="16"/>
     </row>
-    <row r="225" spans="1:9" ht="60">
+    <row r="225" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A225" s="7" t="s">
         <v>442</v>
       </c>
@@ -18974,7 +19011,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="30">
+    <row r="226" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A226" s="7" t="s">
         <v>444</v>
       </c>
@@ -18999,7 +19036,7 @@
       </c>
       <c r="I226" s="13"/>
     </row>
-    <row r="227" spans="1:9" ht="30">
+    <row r="227" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A227" s="7" t="s">
         <v>446</v>
       </c>
@@ -19024,7 +19061,7 @@
       </c>
       <c r="I227" s="16"/>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A228" s="7" t="s">
         <v>449</v>
       </c>
@@ -19049,7 +19086,7 @@
       </c>
       <c r="I228" s="16"/>
     </row>
-    <row r="229" spans="1:9" ht="30">
+    <row r="229" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A229" s="7" t="s">
         <v>452</v>
       </c>
@@ -19074,7 +19111,7 @@
       </c>
       <c r="I229" s="16"/>
     </row>
-    <row r="230" spans="1:9" ht="120">
+    <row r="230" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A230" s="7" t="s">
         <v>454</v>
       </c>
@@ -19099,7 +19136,7 @@
       </c>
       <c r="I230" s="16"/>
     </row>
-    <row r="231" spans="1:9" ht="30">
+    <row r="231" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A231" s="7" t="s">
         <v>456</v>
       </c>
@@ -19124,7 +19161,7 @@
       </c>
       <c r="I231" s="16"/>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A232" s="7" t="s">
         <v>458</v>
       </c>
@@ -19149,7 +19186,7 @@
       </c>
       <c r="I232" s="16"/>
     </row>
-    <row r="233" spans="1:9" ht="30">
+    <row r="233" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A233" s="7" t="s">
         <v>461</v>
       </c>
@@ -19174,7 +19211,7 @@
       </c>
       <c r="I233" s="16"/>
     </row>
-    <row r="234" spans="1:9" ht="240">
+    <row r="234" spans="1:9" ht="229.5" x14ac:dyDescent="0.15">
       <c r="A234" s="7" t="s">
         <v>463</v>
       </c>
@@ -19199,7 +19236,7 @@
       </c>
       <c r="I234" s="16"/>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A235" s="7" t="s">
         <v>465</v>
       </c>
@@ -19224,7 +19261,7 @@
       </c>
       <c r="I235" s="16"/>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A236" s="7" t="s">
         <v>467</v>
       </c>
@@ -19249,7 +19286,7 @@
       </c>
       <c r="I236" s="16"/>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A237" s="7" t="s">
         <v>469</v>
       </c>
@@ -19274,7 +19311,7 @@
       </c>
       <c r="I237" s="16"/>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A238" s="7" t="s">
         <v>471</v>
       </c>
@@ -19299,7 +19336,7 @@
       </c>
       <c r="I238" s="16"/>
     </row>
-    <row r="239" spans="1:9" ht="30">
+    <row r="239" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A239" s="7" t="s">
         <v>473</v>
       </c>
@@ -19324,7 +19361,7 @@
       </c>
       <c r="I239" s="16"/>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A240" s="7" t="s">
         <v>475</v>
       </c>
@@ -19349,7 +19386,7 @@
       </c>
       <c r="I240" s="16"/>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A241" s="7" t="s">
         <v>477</v>
       </c>
@@ -19374,7 +19411,7 @@
       </c>
       <c r="I241" s="16"/>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A242" s="7" t="s">
         <v>479</v>
       </c>
@@ -19399,7 +19436,7 @@
       </c>
       <c r="I242" s="16"/>
     </row>
-    <row r="243" spans="1:9" ht="30">
+    <row r="243" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A243" s="7" t="s">
         <v>481</v>
       </c>
@@ -19424,7 +19461,7 @@
       </c>
       <c r="I243" s="16"/>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A244" s="7" t="s">
         <v>483</v>
       </c>
@@ -19449,7 +19486,7 @@
       </c>
       <c r="I244" s="16"/>
     </row>
-    <row r="245" spans="1:9" ht="30">
+    <row r="245" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A245" s="7" t="s">
         <v>485</v>
       </c>
@@ -19474,7 +19511,7 @@
       </c>
       <c r="I245" s="16"/>
     </row>
-    <row r="246" spans="1:9" ht="30">
+    <row r="246" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A246" s="7" t="s">
         <v>487</v>
       </c>
@@ -19499,7 +19536,7 @@
       </c>
       <c r="I246" s="16"/>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A247" s="7" t="s">
         <v>489</v>
       </c>
@@ -19524,7 +19561,7 @@
       </c>
       <c r="I247" s="16"/>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A248" s="7" t="s">
         <v>491</v>
       </c>
@@ -19549,7 +19586,7 @@
       </c>
       <c r="I248" s="16"/>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A249" s="7" t="s">
         <v>493</v>
       </c>
@@ -19574,7 +19611,7 @@
       </c>
       <c r="I249" s="16"/>
     </row>
-    <row r="250" spans="1:9" ht="30">
+    <row r="250" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A250" s="7" t="s">
         <v>495</v>
       </c>
@@ -19599,7 +19636,7 @@
       </c>
       <c r="I250" s="16"/>
     </row>
-    <row r="251" spans="1:9" ht="30">
+    <row r="251" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A251" s="7" t="s">
         <v>497</v>
       </c>
@@ -19624,7 +19661,7 @@
       </c>
       <c r="I251" s="16"/>
     </row>
-    <row r="252" spans="1:9" ht="30">
+    <row r="252" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A252" s="7" t="s">
         <v>499</v>
       </c>
@@ -19649,7 +19686,7 @@
       </c>
       <c r="I252" s="16"/>
     </row>
-    <row r="253" spans="1:9" ht="30">
+    <row r="253" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A253" s="7" t="s">
         <v>501</v>
       </c>
@@ -19674,7 +19711,7 @@
       </c>
       <c r="I253" s="16"/>
     </row>
-    <row r="254" spans="1:9" ht="45">
+    <row r="254" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A254" s="7" t="s">
         <v>503</v>
       </c>
@@ -19698,10 +19735,10 @@
         <v>18</v>
       </c>
       <c r="I254" s="13" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" ht="30">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A255" s="7" t="s">
         <v>505</v>
       </c>
@@ -19726,7 +19763,7 @@
       </c>
       <c r="I255" s="13"/>
     </row>
-    <row r="256" spans="1:9" ht="30">
+    <row r="256" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A256" s="7" t="s">
         <v>507</v>
       </c>
@@ -19751,7 +19788,7 @@
       </c>
       <c r="I256" s="16"/>
     </row>
-    <row r="257" spans="1:9" ht="45">
+    <row r="257" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A257" s="7" t="s">
         <v>509</v>
       </c>
@@ -19778,7 +19815,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="45">
+    <row r="258" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A258" s="7" t="s">
         <v>512</v>
       </c>
@@ -19803,7 +19840,7 @@
       </c>
       <c r="I258" s="16"/>
     </row>
-    <row r="259" spans="1:9" ht="30">
+    <row r="259" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A259" s="7" t="s">
         <v>514</v>
       </c>
@@ -19828,7 +19865,7 @@
       </c>
       <c r="I259" s="16"/>
     </row>
-    <row r="260" spans="1:9" ht="30">
+    <row r="260" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A260" s="7" t="s">
         <v>515</v>
       </c>
@@ -19853,7 +19890,7 @@
       </c>
       <c r="I260" s="20"/>
     </row>
-    <row r="261" spans="1:9" ht="45">
+    <row r="261" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A261" s="7" t="s">
         <v>517</v>
       </c>
@@ -19878,7 +19915,7 @@
       </c>
       <c r="I261" s="16"/>
     </row>
-    <row r="262" spans="1:9" ht="30">
+    <row r="262" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A262" s="7" t="s">
         <v>519</v>
       </c>
@@ -19903,7 +19940,7 @@
       </c>
       <c r="I262" s="16"/>
     </row>
-    <row r="263" spans="1:9" ht="45">
+    <row r="263" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A263" s="7" t="s">
         <v>521</v>
       </c>
@@ -19928,7 +19965,7 @@
       </c>
       <c r="I263" s="16"/>
     </row>
-    <row r="264" spans="1:9" ht="30">
+    <row r="264" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A264" s="7" t="s">
         <v>523</v>
       </c>
@@ -19953,7 +19990,7 @@
       </c>
       <c r="I264" s="16"/>
     </row>
-    <row r="265" spans="1:9" ht="45">
+    <row r="265" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A265" s="7" t="s">
         <v>525</v>
       </c>
@@ -19978,7 +20015,7 @@
       </c>
       <c r="I265" s="16"/>
     </row>
-    <row r="266" spans="1:9" ht="45">
+    <row r="266" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A266" s="7" t="s">
         <v>527</v>
       </c>
@@ -20003,7 +20040,7 @@
       </c>
       <c r="I266" s="16"/>
     </row>
-    <row r="267" spans="1:9" ht="30">
+    <row r="267" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A267" s="7" t="s">
         <v>529</v>
       </c>
@@ -20028,7 +20065,7 @@
       </c>
       <c r="I267" s="16"/>
     </row>
-    <row r="268" spans="1:9" ht="30">
+    <row r="268" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A268" s="7" t="s">
         <v>531</v>
       </c>
@@ -20053,7 +20090,7 @@
       </c>
       <c r="I268" s="16"/>
     </row>
-    <row r="269" spans="1:9" ht="45">
+    <row r="269" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A269" s="7" t="s">
         <v>533</v>
       </c>
@@ -20078,7 +20115,7 @@
       </c>
       <c r="I269" s="16"/>
     </row>
-    <row r="270" spans="1:9" ht="30">
+    <row r="270" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A270" s="7" t="s">
         <v>535</v>
       </c>
@@ -20103,7 +20140,7 @@
       </c>
       <c r="I270" s="16"/>
     </row>
-    <row r="271" spans="1:9" ht="30">
+    <row r="271" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A271" s="7" t="s">
         <v>537</v>
       </c>
@@ -20128,7 +20165,7 @@
       </c>
       <c r="I271" s="16"/>
     </row>
-    <row r="272" spans="1:9" ht="75">
+    <row r="272" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A272" s="7" t="s">
         <v>539</v>
       </c>
@@ -20153,7 +20190,7 @@
       </c>
       <c r="I272" s="16"/>
     </row>
-    <row r="273" spans="1:9" ht="30">
+    <row r="273" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A273" s="7" t="s">
         <v>541</v>
       </c>
@@ -20178,7 +20215,7 @@
       </c>
       <c r="I273" s="16"/>
     </row>
-    <row r="274" spans="1:9" ht="45">
+    <row r="274" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A274" s="7" t="s">
         <v>543</v>
       </c>
@@ -20203,7 +20240,7 @@
       </c>
       <c r="I274" s="16"/>
     </row>
-    <row r="275" spans="1:9" ht="45">
+    <row r="275" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A275" s="7" t="s">
         <v>545</v>
       </c>
@@ -20228,7 +20265,7 @@
       </c>
       <c r="I275" s="16"/>
     </row>
-    <row r="276" spans="1:9" ht="30">
+    <row r="276" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A276" s="7" t="s">
         <v>548</v>
       </c>
@@ -20253,7 +20290,7 @@
       </c>
       <c r="I276" s="16"/>
     </row>
-    <row r="277" spans="1:9" ht="30">
+    <row r="277" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A277" s="7" t="s">
         <v>551</v>
       </c>
@@ -20278,7 +20315,7 @@
       </c>
       <c r="I277" s="16"/>
     </row>
-    <row r="278" spans="1:9" ht="30">
+    <row r="278" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A278" s="7" t="s">
         <v>553</v>
       </c>
@@ -20303,7 +20340,7 @@
       </c>
       <c r="I278" s="16"/>
     </row>
-    <row r="279" spans="1:9" ht="30">
+    <row r="279" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A279" s="7" t="s">
         <v>555</v>
       </c>
@@ -20328,7 +20365,7 @@
       </c>
       <c r="I279" s="16"/>
     </row>
-    <row r="280" spans="1:9" ht="30">
+    <row r="280" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A280" s="7" t="s">
         <v>558</v>
       </c>
@@ -20353,7 +20390,7 @@
       </c>
       <c r="I280" s="16"/>
     </row>
-    <row r="281" spans="1:9" ht="30">
+    <row r="281" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A281" s="7" t="s">
         <v>560</v>
       </c>
@@ -20378,7 +20415,7 @@
       </c>
       <c r="I281" s="16"/>
     </row>
-    <row r="282" spans="1:9" ht="30">
+    <row r="282" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A282" s="7" t="s">
         <v>562</v>
       </c>
@@ -20403,7 +20440,7 @@
       </c>
       <c r="I282" s="16"/>
     </row>
-    <row r="283" spans="1:9" ht="60">
+    <row r="283" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A283" s="7" t="s">
         <v>565</v>
       </c>
@@ -20428,7 +20465,7 @@
       </c>
       <c r="I283" s="16"/>
     </row>
-    <row r="284" spans="1:9" ht="30">
+    <row r="284" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A284" s="7" t="s">
         <v>568</v>
       </c>
@@ -20453,7 +20490,7 @@
       </c>
       <c r="I284" s="16"/>
     </row>
-    <row r="285" spans="1:9" ht="135">
+    <row r="285" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A285" s="7" t="s">
         <v>567</v>
       </c>
@@ -20478,7 +20515,7 @@
       </c>
       <c r="I285" s="16"/>
     </row>
-    <row r="286" spans="1:9" ht="45">
+    <row r="286" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A286" s="7" t="s">
         <v>955</v>
       </c>
@@ -20505,7 +20542,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="287" spans="1:9" ht="45">
+    <row r="287" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A287" s="7" t="s">
         <v>573</v>
       </c>
@@ -20532,7 +20569,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="288" spans="1:9" ht="30">
+    <row r="288" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A288" s="7" t="s">
         <v>576</v>
       </c>
@@ -20557,7 +20594,7 @@
       </c>
       <c r="I288" s="16"/>
     </row>
-    <row r="289" spans="1:9" ht="45">
+    <row r="289" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A289" s="7" t="s">
         <v>578</v>
       </c>
@@ -20582,7 +20619,7 @@
       </c>
       <c r="I289" s="16"/>
     </row>
-    <row r="290" spans="1:9" ht="75">
+    <row r="290" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A290" s="7" t="s">
         <v>580</v>
       </c>
@@ -20607,7 +20644,7 @@
       </c>
       <c r="I290" s="16"/>
     </row>
-    <row r="291" spans="1:9" ht="30">
+    <row r="291" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A291" s="7" t="s">
         <v>582</v>
       </c>
@@ -20632,7 +20669,7 @@
       </c>
       <c r="I291" s="16"/>
     </row>
-    <row r="292" spans="1:9" ht="45">
+    <row r="292" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A292" s="7" t="s">
         <v>584</v>
       </c>
@@ -20657,7 +20694,7 @@
       </c>
       <c r="I292" s="16"/>
     </row>
-    <row r="293" spans="1:9" ht="45">
+    <row r="293" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A293" s="7" t="s">
         <v>586</v>
       </c>
@@ -20682,7 +20719,7 @@
       </c>
       <c r="I293" s="16"/>
     </row>
-    <row r="294" spans="1:9" ht="45">
+    <row r="294" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A294" s="7" t="s">
         <v>589</v>
       </c>
@@ -20707,7 +20744,7 @@
       </c>
       <c r="I294" s="16"/>
     </row>
-    <row r="295" spans="1:9" ht="45">
+    <row r="295" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A295" s="7" t="s">
         <v>592</v>
       </c>
@@ -20732,7 +20769,7 @@
       </c>
       <c r="I295" s="16"/>
     </row>
-    <row r="296" spans="1:9" ht="30">
+    <row r="296" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A296" s="7" t="s">
         <v>594</v>
       </c>
@@ -20757,7 +20794,7 @@
       </c>
       <c r="I296" s="16"/>
     </row>
-    <row r="297" spans="1:9" ht="45">
+    <row r="297" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A297" s="7" t="s">
         <v>596</v>
       </c>
@@ -20782,7 +20819,7 @@
       </c>
       <c r="I297" s="16"/>
     </row>
-    <row r="298" spans="1:9" ht="30">
+    <row r="298" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A298" s="7" t="s">
         <v>599</v>
       </c>
@@ -20807,7 +20844,7 @@
       </c>
       <c r="I298" s="16"/>
     </row>
-    <row r="299" spans="1:9" ht="45">
+    <row r="299" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A299" s="7" t="s">
         <v>601</v>
       </c>
@@ -20832,7 +20869,7 @@
       </c>
       <c r="I299" s="16"/>
     </row>
-    <row r="300" spans="1:9" ht="30">
+    <row r="300" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A300" s="7" t="s">
         <v>603</v>
       </c>
@@ -20857,7 +20894,7 @@
       </c>
       <c r="I300" s="16"/>
     </row>
-    <row r="301" spans="1:9" ht="120">
+    <row r="301" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A301" s="7" t="s">
         <v>606</v>
       </c>
@@ -20882,7 +20919,7 @@
       </c>
       <c r="I301" s="16"/>
     </row>
-    <row r="302" spans="1:9">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A302" s="7" t="s">
         <v>609</v>
       </c>
@@ -20907,7 +20944,7 @@
       </c>
       <c r="I302" s="16"/>
     </row>
-    <row r="303" spans="1:9" ht="45">
+    <row r="303" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A303" s="7" t="s">
         <v>611</v>
       </c>
@@ -20932,7 +20969,7 @@
       </c>
       <c r="I303" s="16"/>
     </row>
-    <row r="304" spans="1:9" ht="30">
+    <row r="304" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A304" s="7" t="s">
         <v>613</v>
       </c>
@@ -20959,7 +20996,7 @@
       </c>
       <c r="I304" s="16"/>
     </row>
-    <row r="305" spans="1:9" ht="45">
+    <row r="305" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A305" s="7" t="s">
         <v>616</v>
       </c>
@@ -20986,7 +21023,7 @@
       </c>
       <c r="I305" s="16"/>
     </row>
-    <row r="306" spans="1:9" ht="45">
+    <row r="306" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A306" s="7" t="s">
         <v>618</v>
       </c>
@@ -21011,7 +21048,7 @@
       </c>
       <c r="I306" s="16"/>
     </row>
-    <row r="307" spans="1:9" ht="45">
+    <row r="307" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A307" s="7" t="s">
         <v>619</v>
       </c>
@@ -21036,7 +21073,7 @@
       </c>
       <c r="I307" s="16"/>
     </row>
-    <row r="308" spans="1:9" ht="165">
+    <row r="308" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A308" s="7" t="s">
         <v>608</v>
       </c>
@@ -21061,7 +21098,7 @@
       </c>
       <c r="I308" s="16"/>
     </row>
-    <row r="309" spans="1:9" ht="75">
+    <row r="309" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A309" s="7" t="s">
         <v>623</v>
       </c>
@@ -21086,7 +21123,7 @@
       </c>
       <c r="I309" s="16"/>
     </row>
-    <row r="310" spans="1:9" ht="45">
+    <row r="310" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A310" s="7" t="s">
         <v>625</v>
       </c>
@@ -21111,7 +21148,7 @@
       </c>
       <c r="I310" s="16"/>
     </row>
-    <row r="311" spans="1:9" ht="45">
+    <row r="311" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A311" s="7" t="s">
         <v>628</v>
       </c>
@@ -21136,7 +21173,7 @@
       </c>
       <c r="I311" s="16"/>
     </row>
-    <row r="312" spans="1:9" ht="165">
+    <row r="312" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A312" s="7" t="s">
         <v>631</v>
       </c>
@@ -21161,7 +21198,7 @@
       </c>
       <c r="I312" s="16"/>
     </row>
-    <row r="313" spans="1:9" ht="30">
+    <row r="313" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A313" s="7" t="s">
         <v>632</v>
       </c>
@@ -21186,7 +21223,7 @@
       </c>
       <c r="I313" s="16"/>
     </row>
-    <row r="314" spans="1:9" ht="45">
+    <row r="314" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A314" s="7" t="s">
         <v>634</v>
       </c>
@@ -21211,7 +21248,7 @@
       </c>
       <c r="I314" s="16"/>
     </row>
-    <row r="315" spans="1:9">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A315" s="7" t="s">
         <v>636</v>
       </c>
@@ -21236,7 +21273,7 @@
       </c>
       <c r="I315" s="16"/>
     </row>
-    <row r="316" spans="1:9" ht="30">
+    <row r="316" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A316" s="7" t="s">
         <v>638</v>
       </c>
@@ -21261,7 +21298,7 @@
       </c>
       <c r="I316" s="16"/>
     </row>
-    <row r="317" spans="1:9" ht="45">
+    <row r="317" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A317" s="7" t="s">
         <v>639</v>
       </c>
@@ -21286,7 +21323,7 @@
       </c>
       <c r="I317" s="16"/>
     </row>
-    <row r="318" spans="1:9" ht="45">
+    <row r="318" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A318" s="7" t="s">
         <v>640</v>
       </c>
@@ -21313,7 +21350,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="75">
+    <row r="319" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A319" s="7" t="s">
         <v>643</v>
       </c>
@@ -21338,7 +21375,7 @@
       </c>
       <c r="I319" s="16"/>
     </row>
-    <row r="320" spans="1:9">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A320" s="7" t="s">
         <v>645</v>
       </c>
@@ -21363,7 +21400,7 @@
       </c>
       <c r="I320" s="16"/>
     </row>
-    <row r="321" spans="1:9" ht="30">
+    <row r="321" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A321" s="7" t="s">
         <v>647</v>
       </c>
@@ -21388,7 +21425,7 @@
       </c>
       <c r="I321" s="16"/>
     </row>
-    <row r="322" spans="1:9" ht="45">
+    <row r="322" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A322" s="7" t="s">
         <v>649</v>
       </c>
@@ -21413,7 +21450,7 @@
       </c>
       <c r="I322" s="16"/>
     </row>
-    <row r="323" spans="1:9" ht="30">
+    <row r="323" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A323" s="7" t="s">
         <v>651</v>
       </c>
@@ -21438,7 +21475,7 @@
       </c>
       <c r="I323" s="16"/>
     </row>
-    <row r="324" spans="1:9" ht="45">
+    <row r="324" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A324" s="7" t="s">
         <v>653</v>
       </c>
@@ -21465,7 +21502,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="325" spans="1:9" ht="30">
+    <row r="325" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A325" s="7" t="s">
         <v>655</v>
       </c>
@@ -21490,7 +21527,7 @@
       </c>
       <c r="I325" s="13"/>
     </row>
-    <row r="326" spans="1:9" ht="30">
+    <row r="326" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A326" s="7" t="s">
         <v>656</v>
       </c>
@@ -21515,7 +21552,7 @@
       </c>
       <c r="I326" s="16"/>
     </row>
-    <row r="327" spans="1:9" ht="30">
+    <row r="327" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A327" s="7" t="s">
         <v>659</v>
       </c>
@@ -21540,7 +21577,7 @@
       </c>
       <c r="I327" s="16"/>
     </row>
-    <row r="328" spans="1:9" ht="30">
+    <row r="328" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A328" s="7" t="s">
         <v>662</v>
       </c>
@@ -21565,7 +21602,7 @@
       </c>
       <c r="I328" s="16"/>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A329" s="7" t="s">
         <v>664</v>
       </c>
@@ -21590,7 +21627,7 @@
       </c>
       <c r="I329" s="16"/>
     </row>
-    <row r="330" spans="1:9" ht="30">
+    <row r="330" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A330" s="7" t="s">
         <v>666</v>
       </c>
@@ -21615,7 +21652,7 @@
       </c>
       <c r="I330" s="16"/>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A331" s="7" t="s">
         <v>669</v>
       </c>
@@ -21640,7 +21677,7 @@
       </c>
       <c r="I331" s="16"/>
     </row>
-    <row r="332" spans="1:9" ht="30">
+    <row r="332" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A332" s="7" t="s">
         <v>671</v>
       </c>
@@ -21665,7 +21702,7 @@
       </c>
       <c r="I332" s="16"/>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A333" s="7" t="s">
         <v>673</v>
       </c>
@@ -21690,7 +21727,7 @@
       </c>
       <c r="I333" s="16"/>
     </row>
-    <row r="334" spans="1:9" ht="210">
+    <row r="334" spans="1:9" ht="243" x14ac:dyDescent="0.15">
       <c r="A334" s="7" t="s">
         <v>676</v>
       </c>
@@ -21715,7 +21752,7 @@
       </c>
       <c r="I334" s="16"/>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A335" s="7" t="s">
         <v>679</v>
       </c>
@@ -21740,7 +21777,7 @@
       </c>
       <c r="I335" s="16"/>
     </row>
-    <row r="336" spans="1:9" ht="45">
+    <row r="336" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A336" s="7" t="s">
         <v>681</v>
       </c>
@@ -21765,7 +21802,7 @@
       </c>
       <c r="I336" s="16"/>
     </row>
-    <row r="337" spans="1:9">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A337" s="7" t="s">
         <v>683</v>
       </c>
@@ -21790,7 +21827,7 @@
       </c>
       <c r="I337" s="16"/>
     </row>
-    <row r="338" spans="1:9" ht="30">
+    <row r="338" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A338" s="7" t="s">
         <v>684</v>
       </c>
@@ -21815,7 +21852,7 @@
       </c>
       <c r="I338" s="16"/>
     </row>
-    <row r="339" spans="1:9" ht="30">
+    <row r="339" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A339" s="7" t="s">
         <v>686</v>
       </c>
@@ -21840,7 +21877,7 @@
       </c>
       <c r="I339" s="16"/>
     </row>
-    <row r="340" spans="1:9" ht="30">
+    <row r="340" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A340" s="7" t="s">
         <v>688</v>
       </c>
@@ -21865,7 +21902,7 @@
       </c>
       <c r="I340" s="16"/>
     </row>
-    <row r="341" spans="1:9" ht="30">
+    <row r="341" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A341" s="7" t="s">
         <v>690</v>
       </c>
@@ -21890,7 +21927,7 @@
       </c>
       <c r="I341" s="16"/>
     </row>
-    <row r="342" spans="1:9" ht="45">
+    <row r="342" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A342" s="7" t="s">
         <v>691</v>
       </c>
@@ -21915,7 +21952,7 @@
       </c>
       <c r="I342" s="16"/>
     </row>
-    <row r="343" spans="1:9" ht="30">
+    <row r="343" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A343" s="7" t="s">
         <v>693</v>
       </c>
@@ -21939,10 +21976,10 @@
         <v>18</v>
       </c>
       <c r="I343" s="16" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="344" spans="1:9">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A344" s="7" t="s">
         <v>695</v>
       </c>
@@ -21967,7 +22004,7 @@
       </c>
       <c r="I344" s="16"/>
     </row>
-    <row r="345" spans="1:9" ht="30">
+    <row r="345" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A345" s="7" t="s">
         <v>697</v>
       </c>
@@ -21992,7 +22029,7 @@
       </c>
       <c r="I345" s="13"/>
     </row>
-    <row r="346" spans="1:9" ht="30">
+    <row r="346" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A346" s="7" t="s">
         <v>698</v>
       </c>
@@ -22017,7 +22054,7 @@
       </c>
       <c r="I346" s="16"/>
     </row>
-    <row r="347" spans="1:9" ht="45">
+    <row r="347" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A347" s="7" t="s">
         <v>700</v>
       </c>
@@ -22042,7 +22079,7 @@
       </c>
       <c r="I347" s="13"/>
     </row>
-    <row r="348" spans="1:9" ht="30">
+    <row r="348" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A348" s="7" t="s">
         <v>702</v>
       </c>
@@ -22067,7 +22104,7 @@
       </c>
       <c r="I348" s="16"/>
     </row>
-    <row r="349" spans="1:9" ht="30">
+    <row r="349" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A349" s="7" t="s">
         <v>704</v>
       </c>
@@ -22092,7 +22129,7 @@
       </c>
       <c r="I349" s="16"/>
     </row>
-    <row r="350" spans="1:9" ht="30">
+    <row r="350" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A350" s="7" t="s">
         <v>705</v>
       </c>
@@ -22117,7 +22154,7 @@
       </c>
       <c r="I350" s="16"/>
     </row>
-    <row r="351" spans="1:9" ht="30">
+    <row r="351" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A351" s="7" t="s">
         <v>707</v>
       </c>
@@ -22142,7 +22179,7 @@
       </c>
       <c r="I351" s="16"/>
     </row>
-    <row r="352" spans="1:9" ht="120">
+    <row r="352" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A352" s="7" t="s">
         <v>678</v>
       </c>
@@ -22167,7 +22204,7 @@
       </c>
       <c r="I352" s="16"/>
     </row>
-    <row r="353" spans="1:9" ht="30">
+    <row r="353" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A353" s="7" t="s">
         <v>711</v>
       </c>
@@ -22192,7 +22229,7 @@
       </c>
       <c r="I353" s="16"/>
     </row>
-    <row r="354" spans="1:9" ht="30">
+    <row r="354" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A354" s="7" t="s">
         <v>712</v>
       </c>
@@ -22217,7 +22254,7 @@
       </c>
       <c r="I354" s="16"/>
     </row>
-    <row r="355" spans="1:9" ht="45">
+    <row r="355" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A355" s="7" t="s">
         <v>714</v>
       </c>
@@ -22242,7 +22279,7 @@
       </c>
       <c r="I355" s="13"/>
     </row>
-    <row r="356" spans="1:9" ht="30">
+    <row r="356" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A356" s="7" t="s">
         <v>716</v>
       </c>
@@ -22267,7 +22304,7 @@
       </c>
       <c r="I356" s="16"/>
     </row>
-    <row r="357" spans="1:9" ht="30">
+    <row r="357" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A357" s="7" t="s">
         <v>718</v>
       </c>
@@ -22292,7 +22329,7 @@
       </c>
       <c r="I357" s="16"/>
     </row>
-    <row r="358" spans="1:9" ht="45">
+    <row r="358" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A358" s="21" t="s">
         <v>720</v>
       </c>
@@ -22317,7 +22354,7 @@
       </c>
       <c r="I358" s="23"/>
     </row>
-    <row r="359" spans="1:9" ht="45">
+    <row r="359" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A359" s="7" t="s">
         <v>722</v>
       </c>
@@ -22342,7 +22379,7 @@
       </c>
       <c r="I359" s="16"/>
     </row>
-    <row r="360" spans="1:9" ht="30">
+    <row r="360" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A360" s="7" t="s">
         <v>724</v>
       </c>
@@ -22367,7 +22404,7 @@
       </c>
       <c r="I360" s="16"/>
     </row>
-    <row r="361" spans="1:9" ht="45">
+    <row r="361" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A361" s="7" t="s">
         <v>726</v>
       </c>
@@ -22394,7 +22431,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="362" spans="1:9" ht="75">
+    <row r="362" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A362" s="7" t="s">
         <v>728</v>
       </c>
@@ -22419,7 +22456,7 @@
       </c>
       <c r="I362" s="16"/>
     </row>
-    <row r="363" spans="1:9">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A363" s="7" t="s">
         <v>730</v>
       </c>
@@ -22444,7 +22481,7 @@
       </c>
       <c r="I363" s="16"/>
     </row>
-    <row r="364" spans="1:9" ht="45">
+    <row r="364" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A364" s="7" t="s">
         <v>732</v>
       </c>
@@ -22469,7 +22506,7 @@
       </c>
       <c r="I364" s="16"/>
     </row>
-    <row r="365" spans="1:9" ht="45">
+    <row r="365" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A365" s="7" t="s">
         <v>734</v>
       </c>
@@ -22494,7 +22531,7 @@
       </c>
       <c r="I365" s="16"/>
     </row>
-    <row r="366" spans="1:9" ht="30">
+    <row r="366" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A366" s="7" t="s">
         <v>736</v>
       </c>
@@ -22519,7 +22556,7 @@
       </c>
       <c r="I366" s="16"/>
     </row>
-    <row r="367" spans="1:9" ht="30">
+    <row r="367" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A367" s="7" t="s">
         <v>738</v>
       </c>
@@ -22544,7 +22581,7 @@
       </c>
       <c r="I367" s="16"/>
     </row>
-    <row r="368" spans="1:9" ht="30">
+    <row r="368" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A368" s="7" t="s">
         <v>740</v>
       </c>
@@ -22569,7 +22606,7 @@
       </c>
       <c r="I368" s="16"/>
     </row>
-    <row r="369" spans="1:9" ht="30">
+    <row r="369" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A369" s="7" t="s">
         <v>743</v>
       </c>
@@ -22594,7 +22631,7 @@
       </c>
       <c r="I369" s="16"/>
     </row>
-    <row r="370" spans="1:9" ht="30">
+    <row r="370" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A370" s="7" t="s">
         <v>745</v>
       </c>
@@ -22619,7 +22656,7 @@
       </c>
       <c r="I370" s="16"/>
     </row>
-    <row r="371" spans="1:9">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A371" s="7" t="s">
         <v>747</v>
       </c>
@@ -22644,7 +22681,7 @@
       </c>
       <c r="I371" s="16"/>
     </row>
-    <row r="372" spans="1:9" ht="30">
+    <row r="372" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A372" s="7" t="s">
         <v>749</v>
       </c>
@@ -22669,7 +22706,7 @@
       </c>
       <c r="I372" s="16"/>
     </row>
-    <row r="373" spans="1:9">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A373" s="7" t="s">
         <v>751</v>
       </c>
@@ -22694,7 +22731,7 @@
       </c>
       <c r="I373" s="16"/>
     </row>
-    <row r="374" spans="1:9" ht="30">
+    <row r="374" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A374" s="7" t="s">
         <v>753</v>
       </c>
@@ -22719,7 +22756,7 @@
       </c>
       <c r="I374" s="16"/>
     </row>
-    <row r="375" spans="1:9">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A375" s="7" t="s">
         <v>755</v>
       </c>
@@ -22744,7 +22781,7 @@
       </c>
       <c r="I375" s="16"/>
     </row>
-    <row r="376" spans="1:9" ht="270">
+    <row r="376" spans="1:9" ht="324" x14ac:dyDescent="0.15">
       <c r="A376" s="7" t="s">
         <v>758</v>
       </c>
@@ -22769,7 +22806,7 @@
       </c>
       <c r="I376" s="16"/>
     </row>
-    <row r="377" spans="1:9">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A377" s="7" t="s">
         <v>761</v>
       </c>
@@ -22794,7 +22831,7 @@
       </c>
       <c r="I377" s="16"/>
     </row>
-    <row r="378" spans="1:9">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A378" s="7" t="s">
         <v>763</v>
       </c>
@@ -22819,7 +22856,7 @@
       </c>
       <c r="I378" s="16"/>
     </row>
-    <row r="379" spans="1:9">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A379" s="7" t="s">
         <v>765</v>
       </c>
@@ -22844,7 +22881,7 @@
       </c>
       <c r="I379" s="16"/>
     </row>
-    <row r="380" spans="1:9">
+    <row r="380" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A380" s="7" t="s">
         <v>767</v>
       </c>
@@ -22869,7 +22906,7 @@
       </c>
       <c r="I380" s="16"/>
     </row>
-    <row r="381" spans="1:9" ht="30">
+    <row r="381" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A381" s="7" t="s">
         <v>769</v>
       </c>
@@ -22894,7 +22931,7 @@
       </c>
       <c r="I381" s="16"/>
     </row>
-    <row r="382" spans="1:9" ht="45">
+    <row r="382" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A382" s="7" t="s">
         <v>771</v>
       </c>
@@ -22919,7 +22956,7 @@
       </c>
       <c r="I382" s="16"/>
     </row>
-    <row r="383" spans="1:9" ht="30">
+    <row r="383" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A383" s="7" t="s">
         <v>773</v>
       </c>
@@ -22944,7 +22981,7 @@
       </c>
       <c r="I383" s="16"/>
     </row>
-    <row r="384" spans="1:9" ht="30">
+    <row r="384" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A384" s="7" t="s">
         <v>775</v>
       </c>
@@ -22969,7 +23006,7 @@
       </c>
       <c r="I384" s="16"/>
     </row>
-    <row r="385" spans="1:9" ht="30">
+    <row r="385" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A385" s="7" t="s">
         <v>777</v>
       </c>
@@ -22994,7 +23031,7 @@
       </c>
       <c r="I385" s="16"/>
     </row>
-    <row r="386" spans="1:9" ht="30">
+    <row r="386" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A386" s="7" t="s">
         <v>779</v>
       </c>
@@ -23019,7 +23056,7 @@
       </c>
       <c r="I386" s="16"/>
     </row>
-    <row r="387" spans="1:9" ht="30">
+    <row r="387" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A387" s="7" t="s">
         <v>781</v>
       </c>
@@ -23044,7 +23081,7 @@
       </c>
       <c r="I387" s="16"/>
     </row>
-    <row r="388" spans="1:9" ht="30">
+    <row r="388" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A388" s="7" t="s">
         <v>783</v>
       </c>
@@ -23069,7 +23106,7 @@
       </c>
       <c r="I388" s="16"/>
     </row>
-    <row r="389" spans="1:9" ht="30">
+    <row r="389" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A389" s="7" t="s">
         <v>785</v>
       </c>
@@ -23094,7 +23131,7 @@
       </c>
       <c r="I389" s="16"/>
     </row>
-    <row r="390" spans="1:9" ht="30">
+    <row r="390" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A390" s="7" t="s">
         <v>787</v>
       </c>
@@ -23119,7 +23156,7 @@
       </c>
       <c r="I390" s="13"/>
     </row>
-    <row r="391" spans="1:9" ht="30">
+    <row r="391" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A391" s="7" t="s">
         <v>789</v>
       </c>
@@ -23144,7 +23181,7 @@
       </c>
       <c r="I391" s="13"/>
     </row>
-    <row r="392" spans="1:9" ht="45">
+    <row r="392" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A392" s="7" t="s">
         <v>791</v>
       </c>
@@ -23169,7 +23206,7 @@
       </c>
       <c r="I392" s="16"/>
     </row>
-    <row r="393" spans="1:9" ht="30">
+    <row r="393" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A393" s="7" t="s">
         <v>793</v>
       </c>
@@ -23194,7 +23231,7 @@
       </c>
       <c r="I393" s="16"/>
     </row>
-    <row r="394" spans="1:9" ht="30">
+    <row r="394" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A394" s="7" t="s">
         <v>795</v>
       </c>
@@ -23219,7 +23256,7 @@
       </c>
       <c r="I394" s="16"/>
     </row>
-    <row r="395" spans="1:9" ht="30">
+    <row r="395" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A395" s="7" t="s">
         <v>797</v>
       </c>
@@ -23244,7 +23281,7 @@
       </c>
       <c r="I395" s="16"/>
     </row>
-    <row r="396" spans="1:9" ht="30">
+    <row r="396" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A396" s="7" t="s">
         <v>799</v>
       </c>
@@ -23269,7 +23306,7 @@
       </c>
       <c r="I396" s="16"/>
     </row>
-    <row r="397" spans="1:9" ht="30">
+    <row r="397" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A397" s="7" t="s">
         <v>801</v>
       </c>
@@ -23294,7 +23331,7 @@
       </c>
       <c r="I397" s="16"/>
     </row>
-    <row r="398" spans="1:9" ht="30">
+    <row r="398" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A398" s="7" t="s">
         <v>803</v>
       </c>
@@ -23319,7 +23356,7 @@
       </c>
       <c r="I398" s="13"/>
     </row>
-    <row r="399" spans="1:9" ht="60">
+    <row r="399" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A399" s="7" t="s">
         <v>804</v>
       </c>
@@ -23343,10 +23380,10 @@
         <v>18</v>
       </c>
       <c r="I399" s="13" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="400" spans="1:9" ht="60">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A400" s="7" t="s">
         <v>805</v>
       </c>
@@ -23370,10 +23407,10 @@
         <v>18</v>
       </c>
       <c r="I400" s="13" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="401" spans="1:9" ht="30">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A401" s="7" t="s">
         <v>806</v>
       </c>
@@ -23398,7 +23435,7 @@
       </c>
       <c r="I401" s="16"/>
     </row>
-    <row r="402" spans="1:9" ht="270">
+    <row r="402" spans="1:9" ht="243" x14ac:dyDescent="0.15">
       <c r="A402" s="7" t="s">
         <v>760</v>
       </c>
@@ -23423,7 +23460,7 @@
       </c>
       <c r="I402" s="16"/>
     </row>
-    <row r="403" spans="1:9" ht="30">
+    <row r="403" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A403" s="7" t="s">
         <v>810</v>
       </c>
@@ -23448,7 +23485,7 @@
       </c>
       <c r="I403" s="16"/>
     </row>
-    <row r="404" spans="1:9" ht="45">
+    <row r="404" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A404" s="7" t="s">
         <v>812</v>
       </c>
@@ -23475,7 +23512,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="405" spans="1:9" ht="75">
+    <row r="405" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A405" s="7" t="s">
         <v>814</v>
       </c>
@@ -23500,7 +23537,7 @@
       </c>
       <c r="I405" s="16"/>
     </row>
-    <row r="406" spans="1:9">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A406" s="7" t="s">
         <v>816</v>
       </c>
@@ -23525,7 +23562,7 @@
       </c>
       <c r="I406" s="16"/>
     </row>
-    <row r="407" spans="1:9" ht="45">
+    <row r="407" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A407" s="7" t="s">
         <v>818</v>
       </c>
@@ -23550,7 +23587,7 @@
       </c>
       <c r="I407" s="16"/>
     </row>
-    <row r="408" spans="1:9" ht="45">
+    <row r="408" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A408" s="7" t="s">
         <v>820</v>
       </c>
@@ -23575,7 +23612,7 @@
       </c>
       <c r="I408" s="16"/>
     </row>
-    <row r="409" spans="1:9" ht="30">
+    <row r="409" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A409" s="7" t="s">
         <v>822</v>
       </c>
@@ -23600,7 +23637,7 @@
       </c>
       <c r="I409" s="16"/>
     </row>
-    <row r="410" spans="1:9" ht="30">
+    <row r="410" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A410" s="7" t="s">
         <v>825</v>
       </c>
@@ -23625,7 +23662,7 @@
       </c>
       <c r="I410" s="16"/>
     </row>
-    <row r="411" spans="1:9" ht="30">
+    <row r="411" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A411" s="7" t="s">
         <v>827</v>
       </c>
@@ -23650,7 +23687,7 @@
       </c>
       <c r="I411" s="16"/>
     </row>
-    <row r="412" spans="1:9">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A412" s="7" t="s">
         <v>829</v>
       </c>
@@ -23675,7 +23712,7 @@
       </c>
       <c r="I412" s="16"/>
     </row>
-    <row r="413" spans="1:9" ht="30">
+    <row r="413" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A413" s="7" t="s">
         <v>831</v>
       </c>
@@ -23700,7 +23737,7 @@
       </c>
       <c r="I413" s="16"/>
     </row>
-    <row r="414" spans="1:9">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A414" s="7" t="s">
         <v>833</v>
       </c>
@@ -23725,7 +23762,7 @@
       </c>
       <c r="I414" s="16"/>
     </row>
-    <row r="415" spans="1:9" ht="30">
+    <row r="415" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A415" s="7" t="s">
         <v>982</v>
       </c>
@@ -23750,7 +23787,7 @@
       </c>
       <c r="I415" s="16"/>
     </row>
-    <row r="416" spans="1:9">
+    <row r="416" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A416" s="7" t="s">
         <v>836</v>
       </c>
@@ -23775,7 +23812,7 @@
       </c>
       <c r="I416" s="16"/>
     </row>
-    <row r="417" spans="1:9" ht="105">
+    <row r="417" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A417" s="7" t="s">
         <v>839</v>
       </c>
@@ -23800,7 +23837,7 @@
       </c>
       <c r="I417" s="16"/>
     </row>
-    <row r="418" spans="1:9">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A418" s="7" t="s">
         <v>842</v>
       </c>
@@ -23825,7 +23862,7 @@
       </c>
       <c r="I418" s="16"/>
     </row>
-    <row r="419" spans="1:9" ht="30">
+    <row r="419" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A419" s="7" t="s">
         <v>983</v>
       </c>
@@ -23850,7 +23887,7 @@
       </c>
       <c r="I419" s="16"/>
     </row>
-    <row r="420" spans="1:9" ht="60">
+    <row r="420" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A420" s="7" t="s">
         <v>841</v>
       </c>
@@ -23875,7 +23912,7 @@
       </c>
       <c r="I420" s="16"/>
     </row>
-    <row r="421" spans="1:9" ht="45">
+    <row r="421" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A421" s="7" t="s">
         <v>1066</v>
       </c>
@@ -23899,10 +23936,10 @@
         <v>18</v>
       </c>
       <c r="I421" s="54" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="422" spans="1:9" ht="30">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A422" s="7" t="s">
         <v>1067</v>
       </c>
@@ -23927,7 +23964,7 @@
       </c>
       <c r="I422" s="54"/>
     </row>
-    <row r="423" spans="1:9" ht="90">
+    <row r="423" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A423" s="7" t="s">
         <v>1068</v>
       </c>
@@ -23952,7 +23989,7 @@
       </c>
       <c r="I423" s="54"/>
     </row>
-    <row r="424" spans="1:9">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A424" s="7" t="s">
         <v>1069</v>
       </c>
@@ -23977,7 +24014,7 @@
       </c>
       <c r="I424" s="54"/>
     </row>
-    <row r="425" spans="1:9" ht="30">
+    <row r="425" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A425" s="7" t="s">
         <v>1070</v>
       </c>
@@ -24002,7 +24039,7 @@
       </c>
       <c r="I425" s="54"/>
     </row>
-    <row r="426" spans="1:9">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A426" s="7" t="s">
         <v>1071</v>
       </c>
@@ -24027,7 +24064,7 @@
       </c>
       <c r="I426" s="54"/>
     </row>
-    <row r="427" spans="1:9" ht="30">
+    <row r="427" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A427" s="7" t="s">
         <v>1072</v>
       </c>
@@ -24052,7 +24089,7 @@
       </c>
       <c r="I427" s="54"/>
     </row>
-    <row r="428" spans="1:9" ht="45">
+    <row r="428" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A428" s="7" t="s">
         <v>1073</v>
       </c>
@@ -24077,7 +24114,7 @@
       </c>
       <c r="I428" s="54"/>
     </row>
-    <row r="429" spans="1:9">
+    <row r="429" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A429" s="7" t="s">
         <v>1074</v>
       </c>
@@ -24102,7 +24139,7 @@
       </c>
       <c r="I429" s="54"/>
     </row>
-    <row r="430" spans="1:9" ht="30">
+    <row r="430" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A430" s="7" t="s">
         <v>1075</v>
       </c>
@@ -24127,7 +24164,7 @@
       </c>
       <c r="I430" s="54"/>
     </row>
-    <row r="431" spans="1:9">
+    <row r="431" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A431" s="7" t="s">
         <v>1076</v>
       </c>
@@ -24152,7 +24189,7 @@
       </c>
       <c r="I431" s="54"/>
     </row>
-    <row r="432" spans="1:9">
+    <row r="432" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A432" s="7" t="s">
         <v>1077</v>
       </c>
@@ -24177,7 +24214,7 @@
       </c>
       <c r="I432" s="54"/>
     </row>
-    <row r="433" spans="1:9" ht="30">
+    <row r="433" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A433" s="7" t="s">
         <v>1078</v>
       </c>
@@ -24202,7 +24239,7 @@
       </c>
       <c r="I433" s="54"/>
     </row>
-    <row r="434" spans="1:9" ht="135">
+    <row r="434" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A434" s="7" t="s">
         <v>1079</v>
       </c>
@@ -24227,7 +24264,7 @@
       </c>
       <c r="I434" s="54"/>
     </row>
-    <row r="435" spans="1:9">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A435" s="7" t="s">
         <v>1080</v>
       </c>
@@ -24252,7 +24289,7 @@
       </c>
       <c r="I435" s="54"/>
     </row>
-    <row r="436" spans="1:9">
+    <row r="436" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A436" s="7" t="s">
         <v>1081</v>
       </c>
@@ -24277,7 +24314,7 @@
       </c>
       <c r="I436" s="54"/>
     </row>
-    <row r="437" spans="1:9" ht="30">
+    <row r="437" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A437" s="7" t="s">
         <v>1082</v>
       </c>
@@ -24302,7 +24339,7 @@
       </c>
       <c r="I437" s="54"/>
     </row>
-    <row r="438" spans="1:9">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A438" s="7" t="s">
         <v>1083</v>
       </c>
@@ -24327,7 +24364,7 @@
       </c>
       <c r="I438" s="54"/>
     </row>
-    <row r="439" spans="1:9" ht="30">
+    <row r="439" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A439" s="7" t="s">
         <v>1084</v>
       </c>
@@ -24352,7 +24389,7 @@
       </c>
       <c r="I439" s="54"/>
     </row>
-    <row r="440" spans="1:9" ht="150">
+    <row r="440" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A440" s="7" t="s">
         <v>1085</v>
       </c>
@@ -24377,7 +24414,7 @@
       </c>
       <c r="I440" s="54"/>
     </row>
-    <row r="441" spans="1:9" ht="30">
+    <row r="441" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A441" s="7" t="s">
         <v>1086</v>
       </c>
@@ -24402,7 +24439,7 @@
       </c>
       <c r="I441" s="54"/>
     </row>
-    <row r="442" spans="1:9" ht="30">
+    <row r="442" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A442" s="7" t="s">
         <v>1087</v>
       </c>
@@ -24427,7 +24464,7 @@
       </c>
       <c r="I442" s="54"/>
     </row>
-    <row r="443" spans="1:9" ht="30">
+    <row r="443" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A443" s="7" t="s">
         <v>1088</v>
       </c>
@@ -24452,7 +24489,7 @@
       </c>
       <c r="I443" s="54"/>
     </row>
-    <row r="444" spans="1:9">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A444" s="7" t="s">
         <v>1089</v>
       </c>
@@ -24477,7 +24514,7 @@
       </c>
       <c r="I444" s="54"/>
     </row>
-    <row r="445" spans="1:9" ht="30">
+    <row r="445" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A445" s="7" t="s">
         <v>1090</v>
       </c>
@@ -24502,7 +24539,7 @@
       </c>
       <c r="I445" s="54"/>
     </row>
-    <row r="446" spans="1:9" ht="120">
+    <row r="446" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A446" s="7" t="s">
         <v>1091</v>
       </c>
@@ -24527,7 +24564,7 @@
       </c>
       <c r="I446" s="54"/>
     </row>
-    <row r="447" spans="1:9" ht="30">
+    <row r="447" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A447" s="7" t="s">
         <v>1092</v>
       </c>
@@ -24552,7 +24589,7 @@
       </c>
       <c r="I447" s="54"/>
     </row>
-    <row r="448" spans="1:9" ht="45">
+    <row r="448" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A448" s="10" t="s">
         <v>847</v>
       </c>
@@ -24577,7 +24614,7 @@
       </c>
       <c r="I448" s="51"/>
     </row>
-    <row r="449" spans="1:9" ht="30">
+    <row r="449" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A449" s="10" t="s">
         <v>849</v>
       </c>
@@ -24602,7 +24639,7 @@
       </c>
       <c r="I449" s="51"/>
     </row>
-    <row r="450" spans="1:9" ht="45">
+    <row r="450" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A450" s="7" t="s">
         <v>851</v>
       </c>
@@ -24629,7 +24666,7 @@
       </c>
       <c r="I450" s="51"/>
     </row>
-    <row r="451" spans="1:9" ht="45">
+    <row r="451" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A451" s="7" t="s">
         <v>852</v>
       </c>
@@ -24658,7 +24695,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="452" spans="1:9" ht="30">
+    <row r="452" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A452" s="7" t="s">
         <v>854</v>
       </c>
@@ -24685,7 +24722,7 @@
       </c>
       <c r="I452" s="51"/>
     </row>
-    <row r="453" spans="1:9" ht="45">
+    <row r="453" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A453" s="7" t="s">
         <v>986</v>
       </c>
@@ -24714,7 +24751,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="454" spans="1:9" ht="45">
+    <row r="454" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A454" s="7" t="s">
         <v>855</v>
       </c>
@@ -24743,7 +24780,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="455" spans="1:9" ht="45.75" thickBot="1">
+    <row r="455" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A455" s="7" t="s">
         <v>856</v>
       </c>
@@ -24772,9 +24809,9 @@
         <v>932</v>
       </c>
     </row>
-    <row r="456" spans="1:9" ht="45.75" thickBot="1">
+    <row r="456" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A456" s="7" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B456" s="19" t="s">
         <v>848</v>
@@ -24799,7 +24836,7 @@
       </c>
       <c r="I456" s="58"/>
     </row>
-    <row r="457" spans="1:9" ht="45.75" thickBot="1">
+    <row r="457" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A457" s="7" t="s">
         <v>857</v>
       </c>
@@ -24824,9 +24861,9 @@
       </c>
       <c r="I457" s="16"/>
     </row>
-    <row r="458" spans="1:9" ht="60">
+    <row r="458" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A458" s="7" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B458" s="14" t="s">
         <v>848</v>
@@ -24853,7 +24890,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="459" spans="1:9" ht="45">
+    <row r="459" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A459" s="7" t="s">
         <v>858</v>
       </c>
@@ -24880,7 +24917,7 @@
       </c>
       <c r="I459" s="51"/>
     </row>
-    <row r="460" spans="1:9" ht="45">
+    <row r="460" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A460" s="7" t="s">
         <v>859</v>
       </c>
@@ -24909,7 +24946,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="461" spans="1:9" ht="45">
+    <row r="461" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A461" s="7" t="s">
         <v>861</v>
       </c>
@@ -24936,7 +24973,7 @@
       </c>
       <c r="I461" s="51"/>
     </row>
-    <row r="462" spans="1:9" ht="45">
+    <row r="462" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A462" s="7" t="s">
         <v>862</v>
       </c>
@@ -24965,7 +25002,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="463" spans="1:9" ht="60.75" thickBot="1">
+    <row r="463" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A463" s="7" t="s">
         <v>864</v>
       </c>
@@ -24994,7 +25031,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="464" spans="1:9" ht="75">
+    <row r="464" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A464" s="7" t="s">
         <v>980</v>
       </c>
@@ -25002,7 +25039,7 @@
         <v>848</v>
       </c>
       <c r="C464" s="13" t="s">
-        <v>1118</v>
+        <v>1145</v>
       </c>
       <c r="D464" s="53" t="s">
         <v>950</v>
@@ -25023,7 +25060,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="465" spans="1:9" ht="45">
+    <row r="465" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A465" s="7" t="s">
         <v>978</v>
       </c>
@@ -25050,15 +25087,15 @@
       </c>
       <c r="I465" s="51"/>
     </row>
-    <row r="466" spans="1:9" ht="45">
+    <row r="466" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A466" s="7" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B466" s="57" t="s">
         <v>848</v>
       </c>
       <c r="C466" s="13" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="D466" s="53" t="s">
         <v>951</v>
@@ -25079,7 +25116,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="467" spans="1:9" ht="30">
+    <row r="467" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A467" s="7" t="s">
         <v>865</v>
       </c>
@@ -25106,7 +25143,7 @@
       </c>
       <c r="I467" s="51"/>
     </row>
-    <row r="468" spans="1:9" ht="45">
+    <row r="468" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A468" s="7" t="s">
         <v>990</v>
       </c>
@@ -25135,7 +25172,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="469" spans="1:9" ht="45">
+    <row r="469" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A469" s="7" t="s">
         <v>866</v>
       </c>
@@ -25162,7 +25199,7 @@
       </c>
       <c r="I469" s="13"/>
     </row>
-    <row r="470" spans="1:9" ht="45.75" thickBot="1">
+    <row r="470" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A470" s="7" t="s">
         <v>867</v>
       </c>
@@ -25191,7 +25228,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="471" spans="1:9" ht="30.75" thickBot="1">
+    <row r="471" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A471" s="7" t="s">
         <v>868</v>
       </c>
@@ -25216,7 +25253,7 @@
       </c>
       <c r="I471" s="16"/>
     </row>
-    <row r="472" spans="1:9" ht="45.75" thickBot="1">
+    <row r="472" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A472" s="7" t="s">
         <v>870</v>
       </c>
@@ -25245,7 +25282,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="473" spans="1:9" ht="45.75" thickBot="1">
+    <row r="473" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A473" s="7" t="s">
         <v>871</v>
       </c>
@@ -25272,7 +25309,7 @@
       </c>
       <c r="I473" s="16"/>
     </row>
-    <row r="474" spans="1:9" ht="45.75" thickBot="1">
+    <row r="474" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A474" s="7" t="s">
         <v>873</v>
       </c>
@@ -25299,7 +25336,7 @@
       </c>
       <c r="I474" s="16"/>
     </row>
-    <row r="475" spans="1:9" ht="45.75" thickBot="1">
+    <row r="475" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A475" s="7" t="s">
         <v>875</v>
       </c>
@@ -25326,7 +25363,7 @@
       </c>
       <c r="I475" s="16"/>
     </row>
-    <row r="476" spans="1:9" ht="45.75" thickBot="1">
+    <row r="476" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A476" s="7" t="s">
         <v>877</v>
       </c>
@@ -25351,7 +25388,7 @@
       </c>
       <c r="I476" s="16"/>
     </row>
-    <row r="477" spans="1:9" ht="45">
+    <row r="477" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A477" s="7" t="s">
         <v>879</v>
       </c>
@@ -25378,7 +25415,7 @@
       </c>
       <c r="I477" s="51"/>
     </row>
-    <row r="478" spans="1:9" ht="45">
+    <row r="478" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A478" s="7" t="s">
         <v>880</v>
       </c>
@@ -25407,7 +25444,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="479" spans="1:9" ht="30">
+    <row r="479" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A479" s="7" t="s">
         <v>882</v>
       </c>
@@ -25434,7 +25471,7 @@
       </c>
       <c r="I479" s="51"/>
     </row>
-    <row r="480" spans="1:9" ht="45">
+    <row r="480" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A480" s="7" t="s">
         <v>995</v>
       </c>
@@ -25463,7 +25500,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="481" spans="1:9" ht="45.75" thickBot="1">
+    <row r="481" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A481" s="7" t="s">
         <v>883</v>
       </c>
@@ -25492,7 +25529,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="482" spans="1:9" ht="45.75" thickBot="1">
+    <row r="482" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A482" s="7" t="s">
         <v>884</v>
       </c>
@@ -25521,7 +25558,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="483" spans="1:9" ht="45.75" thickBot="1">
+    <row r="483" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A483" s="7" t="s">
         <v>885</v>
       </c>
@@ -25546,7 +25583,7 @@
       </c>
       <c r="I483" s="16"/>
     </row>
-    <row r="484" spans="1:9" ht="15.75" thickBot="1">
+    <row r="484" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A484" s="7" t="s">
         <v>886</v>
       </c>
@@ -25571,7 +25608,7 @@
       </c>
       <c r="I484" s="16"/>
     </row>
-    <row r="485" spans="1:9" ht="45.75" thickBot="1">
+    <row r="485" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A485" s="7" t="s">
         <v>887</v>
       </c>
@@ -25600,7 +25637,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="486" spans="1:9" ht="45.75" thickBot="1">
+    <row r="486" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A486" s="7" t="s">
         <v>888</v>
       </c>
@@ -25627,7 +25664,7 @@
       </c>
       <c r="I486" s="16"/>
     </row>
-    <row r="487" spans="1:9" ht="45.75" thickBot="1">
+    <row r="487" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A487" s="7" t="s">
         <v>889</v>
       </c>
@@ -25656,18 +25693,18 @@
         <v>932</v>
       </c>
     </row>
-    <row r="488" spans="1:9" ht="60.75" thickBot="1">
+    <row r="488" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A488" s="7" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B488" s="19" t="s">
         <v>848</v>
       </c>
       <c r="C488" s="13" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D488" s="7" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E488" s="28" t="s">
         <v>24</v>
@@ -25685,18 +25722,18 @@
         <v>932</v>
       </c>
     </row>
-    <row r="489" spans="1:9" ht="45.75" thickBot="1">
+    <row r="489" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A489" s="7" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B489" s="19" t="s">
         <v>848</v>
       </c>
       <c r="C489" s="13" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D489" s="7" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E489" s="28" t="s">
         <v>24</v>
@@ -25714,18 +25751,18 @@
         <v>932</v>
       </c>
     </row>
-    <row r="490" spans="1:9" ht="60.75" thickBot="1">
+    <row r="490" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A490" s="7" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B490" s="19" t="s">
         <v>848</v>
       </c>
       <c r="C490" s="13" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D490" s="53" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="E490" s="28" t="s">
         <v>24</v>
@@ -25741,18 +25778,18 @@
       </c>
       <c r="I490" s="54"/>
     </row>
-    <row r="491" spans="1:9" ht="45.75" thickBot="1">
+    <row r="491" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A491" s="7" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B491" s="19" t="s">
         <v>848</v>
       </c>
       <c r="C491" s="13" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="D491" s="53" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="E491" s="28" t="s">
         <v>24</v>
@@ -25768,7 +25805,7 @@
       </c>
       <c r="I491" s="54"/>
     </row>
-    <row r="492" spans="1:9" ht="45.75" thickBot="1">
+    <row r="492" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A492" s="7" t="s">
         <v>891</v>
       </c>
@@ -25776,7 +25813,7 @@
         <v>7</v>
       </c>
       <c r="C492" s="13" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D492" s="53" t="s">
         <v>968</v>
@@ -25795,7 +25832,7 @@
       </c>
       <c r="I492" s="16"/>
     </row>
-    <row r="493" spans="1:9" ht="45.75" thickBot="1">
+    <row r="493" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A493" s="7" t="s">
         <v>892</v>
       </c>
@@ -25824,18 +25861,18 @@
         <v>932</v>
       </c>
     </row>
-    <row r="494" spans="1:9" ht="45.75" thickBot="1">
+    <row r="494" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A494" s="7" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B494" s="57" t="s">
         <v>848</v>
       </c>
       <c r="C494" s="13" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D494" s="53" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E494" s="28" t="s">
         <v>24</v>
@@ -25851,18 +25888,18 @@
       </c>
       <c r="I494" s="54"/>
     </row>
-    <row r="495" spans="1:9" ht="45.75" thickBot="1">
+    <row r="495" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A495" s="7" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B495" s="57" t="s">
         <v>848</v>
       </c>
       <c r="C495" s="13" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D495" s="53" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E495" s="28" t="s">
         <v>24</v>
@@ -25880,7 +25917,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="496" spans="1:9">
+    <row r="496" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A496" s="27" t="s">
         <v>894</v>
       </c>
@@ -25905,7 +25942,7 @@
       </c>
       <c r="I496" s="16"/>
     </row>
-    <row r="497" spans="1:9" ht="90">
+    <row r="497" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A497" s="36" t="s">
         <v>897</v>
       </c>
@@ -25932,11 +25969,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B18:I18"/>
@@ -25944,6 +25976,11 @@
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G405:G416 F414:F415 F373:F374 F331:F332 G319:G332 F298:F299 G295:G299 F280:F281 G272:G281 F214:F215 G195:G217 G187:G191 B137:B173 G156:G160 G111:G116 G23:G80 E317:G317 B175:B302 E137:E302 C20:G20 A448:E448 C454:E454 C449:E452 D453:E453 E23:E135 F28:F130 B23:B122 E318:E384 B306:B384 F349:F362 G349:G375 E401:E447 B401:B447 B454:B459 G455:G459 E455:E459">
@@ -31608,6 +31645,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -31656,15 +31702,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement/>
@@ -31672,6 +31709,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31682,14 +31727,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/SharePoint/Docs/MS-SITESS/MS-SITESS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-SITESS/MS-SITESS_RequirementSpecification.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$496</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$495</definedName>
     <definedName name="ExtensionList">Requirements!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Requirements!$A:$A,Requirements!$19:$19</definedName>
     <definedName name="ScopeList">Requirements!#REF!</definedName>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3454" uniqueCount="1145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3444" uniqueCount="1142">
   <si>
     <t>Req ID</t>
   </si>
@@ -4224,15 +4224,6 @@
   </si>
   <si>
     <t>Verified by derived requirement: MS-SITESS_R532.</t>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-SITESS_R182001.</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R182001</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] Implementation does use the values defined ["Meetings" and "Collaboration"] for FilterCategories.( SharePoint Foundation 2010 and above follow this behavior.)</t>
   </si>
   <si>
     <t>Verified by derived requirement: MS-SITESS_R391</t>
@@ -4683,6 +4674,27 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4746,32 +4758,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1516">
+  <dxfs count="1508">
     <dxf>
       <font>
         <strike/>
@@ -9538,50 +9529,6 @@
       <font>
         <strike/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -12992,34 +12939,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I496" tableType="xml" totalsRowShown="0">
-  <autoFilter ref="A19:I496"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I495" tableType="xml" totalsRowShown="0">
+  <autoFilter ref="A19:I495"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="1515">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="1507">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="1514">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="1506">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="1513">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="1505">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="1512">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="1504">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="1511">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="1503">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="1510">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="1502">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="1509">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="1501">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="1508">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="1500">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="1507">
+    <tableColumn id="11" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="1499">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -13028,12 +12975,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="1506" headerRowBorderDxfId="1505" tableBorderDxfId="1504" totalsRowBorderDxfId="1503">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="1498" headerRowBorderDxfId="1497" tableBorderDxfId="1496" totalsRowBorderDxfId="1495">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="1502"/>
-    <tableColumn id="2" name="Test" dataDxfId="1501"/>
-    <tableColumn id="3" name="Description" dataDxfId="1500"/>
+    <tableColumn id="1" name="Scope" dataDxfId="1494"/>
+    <tableColumn id="2" name="Test" dataDxfId="1493"/>
+    <tableColumn id="3" name="Description" dataDxfId="1492"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13361,9 +13308,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M496"/>
+  <dimension ref="A1:M495"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A253" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H253" sqref="H253"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -13416,7 +13365,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="E3" s="48" t="s">
         <v>999</v>
@@ -13430,49 +13379,49 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="20.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="81"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="60"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="84"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="64" t="s">
         <v>912</v>
       </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
       <c r="J6" s="47"/>
       <c r="K6" s="2"/>
     </row>
@@ -13480,32 +13429,32 @@
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="65" t="s">
         <v>913</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
       <c r="J8" s="47"/>
       <c r="K8" s="2"/>
     </row>
@@ -13513,16 +13462,16 @@
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="72" t="s">
         <v>919</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="67"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="74"/>
       <c r="J9" s="47"/>
       <c r="K9" s="2"/>
     </row>
@@ -13530,16 +13479,16 @@
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="75" t="s">
         <v>920</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="70"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="77"/>
       <c r="J10" s="47"/>
       <c r="K10" s="2"/>
     </row>
@@ -13547,16 +13496,16 @@
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="71" t="s">
         <v>914</v>
       </c>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11">
@@ -13569,12 +13518,12 @@
       <c r="C12" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="71"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="73"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="80"/>
       <c r="J12" s="47"/>
       <c r="K12" s="2"/>
     </row>
@@ -13588,12 +13537,12 @@
       <c r="C13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="74"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="76"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="83"/>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11">
@@ -13606,12 +13555,12 @@
       <c r="C14" s="9" t="s">
         <v>916</v>
       </c>
-      <c r="D14" s="74"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="76"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="83"/>
       <c r="J14" s="47"/>
       <c r="K14" s="2"/>
     </row>
@@ -13625,28 +13574,28 @@
       <c r="C15" s="9" t="s">
         <v>917</v>
       </c>
-      <c r="D15" s="77"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="79"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="86"/>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" ht="30" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="66" t="s">
         <v>921</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
       <c r="J16" s="47"/>
       <c r="K16" s="2"/>
     </row>
@@ -13654,32 +13603,32 @@
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="68" t="s">
         <v>922</v>
       </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="63"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="70"/>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:13" ht="30" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="71" t="s">
         <v>918</v>
       </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
       <c r="J18" s="47"/>
       <c r="K18" s="2"/>
       <c r="M18" s="2"/>
@@ -15930,7 +15879,7 @@
         <v>18</v>
       </c>
       <c r="I107" s="16" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="30">
@@ -16887,7 +16836,7 @@
         <v>16</v>
       </c>
       <c r="H145" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I145" s="13"/>
     </row>
@@ -19597,11 +19546,9 @@
         <v>16</v>
       </c>
       <c r="H253" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I253" s="13" t="s">
-        <v>1137</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I253" s="13"/>
     </row>
     <row r="254" spans="1:9" ht="30">
       <c r="A254" s="7" t="s">
@@ -21841,7 +21788,7 @@
         <v>18</v>
       </c>
       <c r="I342" s="16" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="343" spans="1:9">
@@ -24676,7 +24623,7 @@
     </row>
     <row r="455" spans="1:9" ht="45.75" thickBot="1">
       <c r="A455" s="7" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="B455" s="19" t="s">
         <v>848</v>
@@ -24904,7 +24851,7 @@
         <v>848</v>
       </c>
       <c r="C463" s="13" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="D463" s="53" t="s">
         <v>950</v>
@@ -24952,18 +24899,18 @@
       </c>
       <c r="I464" s="51"/>
     </row>
-    <row r="465" spans="1:9" ht="45">
+    <row r="465" spans="1:9" ht="30">
       <c r="A465" s="7" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B465" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="B465" s="14" t="s">
         <v>848</v>
       </c>
       <c r="C465" s="13" t="s">
-        <v>1139</v>
+        <v>989</v>
       </c>
       <c r="D465" s="53" t="s">
-        <v>951</v>
+        <v>992</v>
       </c>
       <c r="E465" s="7" t="s">
         <v>24</v>
@@ -24974,22 +24921,20 @@
       <c r="G465" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H465" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I465" s="54" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="466" spans="1:9" ht="30">
+      <c r="H465" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I465" s="51"/>
+    </row>
+    <row r="466" spans="1:9" ht="45">
       <c r="A466" s="7" t="s">
-        <v>865</v>
-      </c>
-      <c r="B466" s="14" t="s">
+        <v>988</v>
+      </c>
+      <c r="B466" s="53" t="s">
         <v>848</v>
       </c>
       <c r="C466" s="13" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="D466" s="53" t="s">
         <v>992</v>
@@ -25003,23 +24948,25 @@
       <c r="G466" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H466" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I466" s="51"/>
+      <c r="H466" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I466" s="54" t="s">
+        <v>932</v>
+      </c>
     </row>
     <row r="467" spans="1:9" ht="45">
       <c r="A467" s="7" t="s">
-        <v>988</v>
-      </c>
-      <c r="B467" s="53" t="s">
+        <v>866</v>
+      </c>
+      <c r="B467" s="14" t="s">
         <v>848</v>
       </c>
       <c r="C467" s="13" t="s">
-        <v>990</v>
+        <v>953</v>
       </c>
       <c r="D467" s="53" t="s">
-        <v>992</v>
+        <v>954</v>
       </c>
       <c r="E467" s="7" t="s">
         <v>24</v>
@@ -25030,27 +24977,25 @@
       <c r="G467" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H467" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I467" s="54" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="468" spans="1:9" ht="45">
+      <c r="H467" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I467" s="13"/>
+    </row>
+    <row r="468" spans="1:9" ht="45.75" thickBot="1">
       <c r="A468" s="7" t="s">
-        <v>866</v>
-      </c>
-      <c r="B468" s="14" t="s">
-        <v>848</v>
-      </c>
-      <c r="C468" s="13" t="s">
-        <v>953</v>
+        <v>867</v>
+      </c>
+      <c r="B468" s="19">
+        <v>7</v>
+      </c>
+      <c r="C468" s="16" t="s">
+        <v>902</v>
       </c>
       <c r="D468" s="53" t="s">
-        <v>954</v>
-      </c>
-      <c r="E468" s="7" t="s">
+        <v>956</v>
+      </c>
+      <c r="E468" s="28" t="s">
         <v>24</v>
       </c>
       <c r="F468" s="7" t="s">
@@ -25059,79 +25004,81 @@
       <c r="G468" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H468" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I468" s="13"/>
-    </row>
-    <row r="469" spans="1:9" ht="45.75" thickBot="1">
+      <c r="H468" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I468" s="16" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9" ht="30.75" thickBot="1">
       <c r="A469" s="7" t="s">
-        <v>867</v>
-      </c>
-      <c r="B469" s="19">
+        <v>868</v>
+      </c>
+      <c r="B469" s="11">
         <v>7</v>
       </c>
       <c r="C469" s="16" t="s">
-        <v>902</v>
-      </c>
-      <c r="D469" s="53" t="s">
-        <v>956</v>
-      </c>
-      <c r="E469" s="28" t="s">
+        <v>869</v>
+      </c>
+      <c r="D469" s="53"/>
+      <c r="E469" s="29" t="s">
         <v>24</v>
       </c>
       <c r="F469" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G469" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H469" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I469" s="16" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="470" spans="1:9" ht="30.75" thickBot="1">
+        <v>19</v>
+      </c>
+      <c r="I469" s="16"/>
+    </row>
+    <row r="470" spans="1:9" ht="45.75" thickBot="1">
       <c r="A470" s="7" t="s">
-        <v>868</v>
-      </c>
-      <c r="B470" s="11">
+        <v>870</v>
+      </c>
+      <c r="B470" s="19">
         <v>7</v>
       </c>
       <c r="C470" s="16" t="s">
-        <v>869</v>
-      </c>
-      <c r="D470" s="53"/>
-      <c r="E470" s="29" t="s">
+        <v>903</v>
+      </c>
+      <c r="D470" s="53" t="s">
+        <v>956</v>
+      </c>
+      <c r="E470" s="28" t="s">
         <v>24</v>
       </c>
       <c r="F470" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G470" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H470" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I470" s="16"/>
-    </row>
-    <row r="471" spans="1:9" ht="45.75" thickBot="1">
+        <v>23</v>
+      </c>
+      <c r="I470" s="54" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9" ht="30.75" thickBot="1">
       <c r="A471" s="7" t="s">
-        <v>870</v>
-      </c>
-      <c r="B471" s="19">
+        <v>871</v>
+      </c>
+      <c r="B471" s="11">
         <v>7</v>
       </c>
       <c r="C471" s="16" t="s">
-        <v>903</v>
+        <v>872</v>
       </c>
       <c r="D471" s="53" t="s">
         <v>956</v>
       </c>
-      <c r="E471" s="28" t="s">
+      <c r="E471" s="29" t="s">
         <v>24</v>
       </c>
       <c r="F471" s="7" t="s">
@@ -25141,21 +25088,19 @@
         <v>16</v>
       </c>
       <c r="H471" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I471" s="54" t="s">
-        <v>932</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I471" s="16"/>
     </row>
     <row r="472" spans="1:9" ht="30.75" thickBot="1">
       <c r="A472" s="7" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="B472" s="11">
         <v>7</v>
       </c>
       <c r="C472" s="16" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="D472" s="53" t="s">
         <v>956</v>
@@ -25174,15 +25119,15 @@
       </c>
       <c r="I472" s="16"/>
     </row>
-    <row r="473" spans="1:9" ht="30.75" thickBot="1">
+    <row r="473" spans="1:9" ht="45.75" thickBot="1">
       <c r="A473" s="7" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="B473" s="11">
         <v>7</v>
       </c>
       <c r="C473" s="16" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="D473" s="53" t="s">
         <v>956</v>
@@ -25201,24 +25146,22 @@
       </c>
       <c r="I473" s="16"/>
     </row>
-    <row r="474" spans="1:9" ht="45.75" thickBot="1">
+    <row r="474" spans="1:9" ht="30.75" thickBot="1">
       <c r="A474" s="7" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="B474" s="11">
         <v>7</v>
       </c>
       <c r="C474" s="16" t="s">
-        <v>876</v>
-      </c>
-      <c r="D474" s="53" t="s">
-        <v>956</v>
-      </c>
+        <v>878</v>
+      </c>
+      <c r="D474" s="53"/>
       <c r="E474" s="29" t="s">
         <v>24</v>
       </c>
       <c r="F474" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G474" s="7" t="s">
         <v>16</v>
@@ -25228,40 +25171,42 @@
       </c>
       <c r="I474" s="16"/>
     </row>
-    <row r="475" spans="1:9" ht="30.75" thickBot="1">
+    <row r="475" spans="1:9" ht="45">
       <c r="A475" s="7" t="s">
-        <v>877</v>
-      </c>
-      <c r="B475" s="11">
+        <v>879</v>
+      </c>
+      <c r="B475" s="14" t="s">
+        <v>848</v>
+      </c>
+      <c r="C475" s="13" t="s">
+        <v>958</v>
+      </c>
+      <c r="D475" s="53" t="s">
+        <v>957</v>
+      </c>
+      <c r="E475" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F475" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="C475" s="16" t="s">
-        <v>878</v>
-      </c>
-      <c r="D475" s="53"/>
-      <c r="E475" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="F475" s="7" t="s">
-        <v>8</v>
       </c>
       <c r="G475" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H475" s="17" t="s">
+      <c r="H475" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I475" s="16"/>
+      <c r="I475" s="51"/>
     </row>
     <row r="476" spans="1:9" ht="45">
       <c r="A476" s="7" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B476" s="14" t="s">
         <v>848</v>
       </c>
       <c r="C476" s="13" t="s">
-        <v>958</v>
+        <v>881</v>
       </c>
       <c r="D476" s="53" t="s">
         <v>957</v>
@@ -25276,22 +25221,24 @@
         <v>16</v>
       </c>
       <c r="H476" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I476" s="51"/>
-    </row>
-    <row r="477" spans="1:9" ht="45">
+        <v>21</v>
+      </c>
+      <c r="I476" s="54" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9" ht="30">
       <c r="A477" s="7" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B477" s="14" t="s">
         <v>848</v>
       </c>
       <c r="C477" s="13" t="s">
-        <v>881</v>
+        <v>960</v>
       </c>
       <c r="D477" s="53" t="s">
-        <v>957</v>
+        <v>996</v>
       </c>
       <c r="E477" s="7" t="s">
         <v>24</v>
@@ -25303,21 +25250,19 @@
         <v>16</v>
       </c>
       <c r="H477" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I477" s="54" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="478" spans="1:9" ht="30">
+        <v>19</v>
+      </c>
+      <c r="I477" s="51"/>
+    </row>
+    <row r="478" spans="1:9" ht="45">
       <c r="A478" s="7" t="s">
-        <v>882</v>
-      </c>
-      <c r="B478" s="14" t="s">
+        <v>993</v>
+      </c>
+      <c r="B478" s="53" t="s">
         <v>848</v>
       </c>
       <c r="C478" s="13" t="s">
-        <v>960</v>
+        <v>994</v>
       </c>
       <c r="D478" s="53" t="s">
         <v>996</v>
@@ -25331,25 +25276,27 @@
       <c r="G478" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H478" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I478" s="51"/>
-    </row>
-    <row r="479" spans="1:9" ht="45">
+      <c r="H478" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I478" s="54" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9" ht="45.75" thickBot="1">
       <c r="A479" s="7" t="s">
-        <v>993</v>
-      </c>
-      <c r="B479" s="53" t="s">
-        <v>848</v>
-      </c>
-      <c r="C479" s="13" t="s">
-        <v>994</v>
+        <v>883</v>
+      </c>
+      <c r="B479" s="11">
+        <v>7</v>
+      </c>
+      <c r="C479" s="16" t="s">
+        <v>904</v>
       </c>
       <c r="D479" s="53" t="s">
-        <v>996</v>
-      </c>
-      <c r="E479" s="7" t="s">
+        <v>961</v>
+      </c>
+      <c r="E479" s="29" t="s">
         <v>24</v>
       </c>
       <c r="F479" s="7" t="s">
@@ -25367,13 +25314,13 @@
     </row>
     <row r="480" spans="1:9" ht="45.75" thickBot="1">
       <c r="A480" s="7" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B480" s="11">
         <v>7</v>
       </c>
       <c r="C480" s="16" t="s">
-        <v>904</v>
+        <v>963</v>
       </c>
       <c r="D480" s="53" t="s">
         <v>961</v>
@@ -25394,44 +25341,40 @@
         <v>932</v>
       </c>
     </row>
-    <row r="481" spans="1:9" ht="45.75" thickBot="1">
+    <row r="481" spans="1:9" ht="30.75" thickBot="1">
       <c r="A481" s="7" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B481" s="11">
         <v>7</v>
       </c>
       <c r="C481" s="16" t="s">
-        <v>963</v>
-      </c>
-      <c r="D481" s="53" t="s">
-        <v>961</v>
-      </c>
+        <v>906</v>
+      </c>
+      <c r="D481" s="14"/>
       <c r="E481" s="29" t="s">
         <v>24</v>
       </c>
       <c r="F481" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G481" s="7" t="s">
         <v>16</v>
       </c>
       <c r="H481" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I481" s="54" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="482" spans="1:9" ht="30.75" thickBot="1">
+        <v>19</v>
+      </c>
+      <c r="I481" s="16"/>
+    </row>
+    <row r="482" spans="1:9" ht="15.75" thickBot="1">
       <c r="A482" s="7" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B482" s="11">
         <v>7</v>
       </c>
-      <c r="C482" s="16" t="s">
-        <v>906</v>
+      <c r="C482" s="13" t="s">
+        <v>937</v>
       </c>
       <c r="D482" s="14"/>
       <c r="E482" s="29" t="s">
@@ -25448,43 +25391,47 @@
       </c>
       <c r="I482" s="16"/>
     </row>
-    <row r="483" spans="1:9" ht="15.75" thickBot="1">
+    <row r="483" spans="1:9" ht="45.75" thickBot="1">
       <c r="A483" s="7" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B483" s="11">
         <v>7</v>
       </c>
       <c r="C483" s="13" t="s">
-        <v>937</v>
-      </c>
-      <c r="D483" s="14"/>
+        <v>964</v>
+      </c>
+      <c r="D483" s="53" t="s">
+        <v>962</v>
+      </c>
       <c r="E483" s="29" t="s">
         <v>24</v>
       </c>
       <c r="F483" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G483" s="7" t="s">
         <v>16</v>
       </c>
       <c r="H483" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I483" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="I483" s="54" t="s">
+        <v>932</v>
+      </c>
     </row>
     <row r="484" spans="1:9" ht="45.75" thickBot="1">
       <c r="A484" s="7" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B484" s="11">
         <v>7</v>
       </c>
       <c r="C484" s="13" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="D484" s="53" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="E484" s="29" t="s">
         <v>24</v>
@@ -25496,26 +25443,24 @@
         <v>16</v>
       </c>
       <c r="H484" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I484" s="54" t="s">
-        <v>932</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I484" s="16"/>
     </row>
     <row r="485" spans="1:9" ht="45.75" thickBot="1">
       <c r="A485" s="7" t="s">
-        <v>888</v>
-      </c>
-      <c r="B485" s="11">
-        <v>7</v>
+        <v>889</v>
+      </c>
+      <c r="B485" s="19" t="s">
+        <v>848</v>
       </c>
       <c r="C485" s="13" t="s">
-        <v>966</v>
+        <v>890</v>
       </c>
       <c r="D485" s="53" t="s">
         <v>965</v>
       </c>
-      <c r="E485" s="29" t="s">
+      <c r="E485" s="28" t="s">
         <v>24</v>
       </c>
       <c r="F485" s="7" t="s">
@@ -25525,22 +25470,24 @@
         <v>16</v>
       </c>
       <c r="H485" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I485" s="16"/>
-    </row>
-    <row r="486" spans="1:9" ht="45.75" thickBot="1">
+        <v>21</v>
+      </c>
+      <c r="I485" s="16" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9" ht="60.75" thickBot="1">
       <c r="A486" s="7" t="s">
-        <v>889</v>
+        <v>1124</v>
       </c>
       <c r="B486" s="19" t="s">
         <v>848</v>
       </c>
       <c r="C486" s="13" t="s">
-        <v>890</v>
-      </c>
-      <c r="D486" s="53" t="s">
-        <v>965</v>
+        <v>1126</v>
+      </c>
+      <c r="D486" s="7" t="s">
+        <v>1130</v>
       </c>
       <c r="E486" s="28" t="s">
         <v>24</v>
@@ -25554,19 +25501,19 @@
       <c r="H486" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I486" s="16" t="s">
+      <c r="I486" s="54" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="487" spans="1:9" ht="60.75" thickBot="1">
+    <row r="487" spans="1:9" ht="45.75" thickBot="1">
       <c r="A487" s="7" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B487" s="19" t="s">
         <v>848</v>
       </c>
       <c r="C487" s="13" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="D487" s="7" t="s">
         <v>1130</v>
@@ -25587,18 +25534,18 @@
         <v>932</v>
       </c>
     </row>
-    <row r="488" spans="1:9" ht="45.75" thickBot="1">
+    <row r="488" spans="1:9" ht="60.75" thickBot="1">
       <c r="A488" s="7" t="s">
-        <v>1125</v>
+        <v>1132</v>
       </c>
       <c r="B488" s="19" t="s">
         <v>848</v>
       </c>
       <c r="C488" s="13" t="s">
-        <v>1127</v>
-      </c>
-      <c r="D488" s="7" t="s">
-        <v>1130</v>
+        <v>1128</v>
+      </c>
+      <c r="D488" s="53" t="s">
+        <v>1134</v>
       </c>
       <c r="E488" s="28" t="s">
         <v>24</v>
@@ -25612,19 +25559,17 @@
       <c r="H488" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I488" s="54" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="489" spans="1:9" ht="60.75" thickBot="1">
+      <c r="I488" s="54"/>
+    </row>
+    <row r="489" spans="1:9" ht="30.75" thickBot="1">
       <c r="A489" s="7" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B489" s="19" t="s">
         <v>848</v>
       </c>
       <c r="C489" s="13" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="D489" s="53" t="s">
         <v>1134</v>
@@ -25643,18 +25588,18 @@
       </c>
       <c r="I489" s="54"/>
     </row>
-    <row r="490" spans="1:9" ht="30.75" thickBot="1">
+    <row r="490" spans="1:9" ht="45.75" thickBot="1">
       <c r="A490" s="7" t="s">
-        <v>1133</v>
-      </c>
-      <c r="B490" s="19" t="s">
-        <v>848</v>
+        <v>891</v>
+      </c>
+      <c r="B490" s="11">
+        <v>7</v>
       </c>
       <c r="C490" s="13" t="s">
-        <v>1129</v>
+        <v>1122</v>
       </c>
       <c r="D490" s="53" t="s">
-        <v>1134</v>
+        <v>968</v>
       </c>
       <c r="E490" s="28" t="s">
         <v>24</v>
@@ -25666,19 +25611,19 @@
         <v>16</v>
       </c>
       <c r="H490" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I490" s="54"/>
+        <v>19</v>
+      </c>
+      <c r="I490" s="16"/>
     </row>
     <row r="491" spans="1:9" ht="45.75" thickBot="1">
       <c r="A491" s="7" t="s">
-        <v>891</v>
-      </c>
-      <c r="B491" s="11">
-        <v>7</v>
+        <v>892</v>
+      </c>
+      <c r="B491" s="14" t="s">
+        <v>848</v>
       </c>
       <c r="C491" s="13" t="s">
-        <v>1122</v>
+        <v>893</v>
       </c>
       <c r="D491" s="53" t="s">
         <v>968</v>
@@ -25692,23 +25637,25 @@
       <c r="G491" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H491" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I491" s="16"/>
-    </row>
-    <row r="492" spans="1:9" ht="45.75" thickBot="1">
+      <c r="H491" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I491" s="54" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9" ht="30.75" thickBot="1">
       <c r="A492" s="7" t="s">
-        <v>892</v>
-      </c>
-      <c r="B492" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B492" s="57" t="s">
         <v>848</v>
       </c>
       <c r="C492" s="13" t="s">
-        <v>893</v>
+        <v>1117</v>
       </c>
       <c r="D492" s="53" t="s">
-        <v>968</v>
+        <v>1121</v>
       </c>
       <c r="E492" s="28" t="s">
         <v>24</v>
@@ -25719,22 +25666,20 @@
       <c r="G492" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H492" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I492" s="54" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="493" spans="1:9" ht="30.75" thickBot="1">
+      <c r="H492" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I492" s="54"/>
+    </row>
+    <row r="493" spans="1:9" ht="45.75" thickBot="1">
       <c r="A493" s="7" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B493" s="57" t="s">
         <v>848</v>
       </c>
       <c r="C493" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D493" s="53" t="s">
         <v>1121</v>
@@ -25749,96 +25694,64 @@
         <v>16</v>
       </c>
       <c r="H493" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I493" s="54"/>
-    </row>
-    <row r="494" spans="1:9" ht="45.75" thickBot="1">
-      <c r="A494" s="7" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B494" s="57" t="s">
-        <v>848</v>
-      </c>
-      <c r="C494" s="13" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D494" s="53" t="s">
-        <v>1121</v>
-      </c>
-      <c r="E494" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="F494" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I493" s="54" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9">
+      <c r="A494" s="27" t="s">
+        <v>894</v>
+      </c>
+      <c r="B494" s="19" t="s">
+        <v>895</v>
+      </c>
+      <c r="C494" s="25" t="s">
+        <v>896</v>
+      </c>
+      <c r="D494" s="19"/>
+      <c r="E494" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F494" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G494" s="7" t="s">
+      <c r="G494" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H494" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I494" s="54" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="495" spans="1:9">
-      <c r="A495" s="27" t="s">
-        <v>894</v>
-      </c>
-      <c r="B495" s="19" t="s">
-        <v>895</v>
-      </c>
-      <c r="C495" s="25" t="s">
-        <v>896</v>
-      </c>
-      <c r="D495" s="19"/>
-      <c r="E495" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F495" s="27" t="s">
+      <c r="H494" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="I494" s="16"/>
+    </row>
+    <row r="495" spans="1:9" ht="90">
+      <c r="A495" s="36" t="s">
+        <v>897</v>
+      </c>
+      <c r="B495" s="37" t="s">
+        <v>898</v>
+      </c>
+      <c r="C495" s="38" t="s">
+        <v>899</v>
+      </c>
+      <c r="D495" s="37"/>
+      <c r="E495" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F495" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="G495" s="27" t="s">
+      <c r="G495" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H495" s="35" t="s">
+      <c r="H495" s="39" t="s">
         <v>23</v>
       </c>
       <c r="I495" s="16"/>
-    </row>
-    <row r="496" spans="1:9" ht="90">
-      <c r="A496" s="36" t="s">
-        <v>897</v>
-      </c>
-      <c r="B496" s="37" t="s">
-        <v>898</v>
-      </c>
-      <c r="C496" s="38" t="s">
-        <v>899</v>
-      </c>
-      <c r="D496" s="37"/>
-      <c r="E496" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="F496" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="G496" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="H496" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="I496" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B18:I18"/>
@@ -25846,1924 +25759,1899 @@
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G404:G415 F413:F414 F372:F373 F330:F331 G318:G331 F297:F298 G294:G298 F279:F280 G271:G280 F213:F214 G194:G216 G186:G190 G156:G160 G111:G116 G23:G80 E316:G316 B137:B301 C20:G20 A447:E447 C453:E453 C448:E451 D452:E452 E23:E135 F28:F130 B23:B122 E317:E383 B305:B383 F348:F361 G348:G374 E400:E446 B400:B446 B453:B458 G454:G458 E454:E458 E137:E301">
-    <cfRule type="expression" dxfId="1499" priority="1656">
+  <conditionalFormatting sqref="G404:G415 F413:F414 F372:F373 F330:F331 G318:G331 F297:F298 G294:G298 F279:F280 G271:G280 F213:F214 G194:G216 G186:G190 G156:G160 G111:G116 G23:G80 E316:G316 B137:B301 C20:G20 A447:E447 C453:E453 C448:E451 D452:E452 E23:E135 F28:F130 B23:B122 E317:E383 B305:B383 F348:F361 G348:G374 E400:E446 B400:B446 B453:B458 G454:G458 E454:E458 E137:E301 B462:B465 E462:E474 F462:F467">
+    <cfRule type="expression" dxfId="1491" priority="1656">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1498" priority="1657">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1497" priority="1664">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F21 F257:F262 F264:F267 F301 F23 F165:F168 F476 F219:F237 F478:F480 F137:F152 F272 F345 F385:F386 F388:F389 F391:F392 F394:F395 F397:F398 F400:F405 F447 F469:F471 F460 F451:F452 F413:F414 F330:F331 F297:F298 F279:F283 F206:F214 F305:F325 F28:F130 F348:F373">
-    <cfRule type="expression" dxfId="1496" priority="1616">
+    <cfRule type="expression" dxfId="1490" priority="1657">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1489" priority="1664">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20:F21 F257:F262 F264:F267 F301 F23 F165:F168 F475 F219:F237 F477:F479 F137:F152 F272 F345 F385:F386 F388:F389 F391:F392 F394:F395 F397:F398 F400:F405 F447 F460 F451:F452 F413:F414 F330:F331 F297:F298 F279:F283 F206:F214 F305:F325 F28:F130 F348:F373 F462:F470">
+    <cfRule type="expression" dxfId="1488" priority="1616">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1495" priority="1617">
+    <cfRule type="expression" dxfId="1487" priority="1617">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20 I20 F281:F283 E21:G21 B20:B21 F301 G307:G315 F401:F404 F257:F262 F264:F267 G317 F317:F319 F23 G138:G150 F138:F152 F165:F168 F476 E305:F315 B385:B386 E385:E386 E388:E389 B388:B389 B391:B392 E391:E392 E394:E395 B394:B395 B397:B398 E397:E398 G219:G270 F219:F237 B460 B462:B466 B478 F478:F480 B491 B125:B135 G167:G174 B468:B476 B480:B485">
-    <cfRule type="expression" dxfId="1494" priority="1613">
+  <conditionalFormatting sqref="A20 I20 F281:F283 E21:G21 B20:B21 F301 G307:G315 F401:F404 F257:F262 F264:F267 G317 F317:F319 F23 G138:G150 F138:F152 F165:F168 F475 E305:F315 B385:B386 E385:E386 E388:E389 B388:B389 B391:B392 E391:E392 E394:E395 B394:B395 B397:B398 E397:E398 G219:G270 F219:F237 B460 B477 F477:F479 B490 B125:B135 G167:G174 B467:B475 B479:B484">
+    <cfRule type="expression" dxfId="1486" priority="1613">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1493" priority="1614">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1492" priority="1615">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20 I20 E21:G21 B20:B21 H20:H21 F301 G307:G315 F401:F404 F257:F262 F264:F267 F317:F319 F23 G138:G150 F138:F152 F165:F168 F476 H245:H251 H305:H315 E305:F315 B385:B386 H385:H386 E385:E386 E388:E389 H388:H389 B388:B389 B391:B392 H391:H392 E391:E392 E394:E395 H394:H395 B394:B395 B397:B398 H397:H398 E397:E398 F219:F237 B460 B462:B466 B478 F478:F480 B491 B125:B135 G404:G415 F413:F414 F372:F373 F330:F331 G317:G331 F297:F298 G294:G298 H253:H301 F279:F283 G219:G280 F213:F214 G194:G216 G186:G190 G156:G160 G111:G116 G23:G80 H23:H135 E316:H316 B137:B301 H137:H243 G167:G174 B468:B476 B480:B485 C20:G20 A447:E447 C453:E453 C448:E451 D452:E452 E23:E135 F28:F130 B23:B122 E317:E383 H317:H383 B305:B383 F348:F361 G348:G374 E400:E446 H400:H446 B400:B446 B453:B458 G454:H458 E454:E458 E137:E301">
-    <cfRule type="expression" dxfId="1491" priority="1610">
+    <cfRule type="expression" dxfId="1485" priority="1614">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1484" priority="1615">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20 I20 E21:G21 B20:B21 H20:H21 F301 G307:G315 F401:F404 F257:F262 F264:F267 F317:F319 F23 G138:G150 F138:F152 F165:F168 F475 H245:H251 H305:H315 E305:F315 B385:B386 H385:H386 E385:E386 E388:E389 H388:H389 B388:B389 B391:B392 H391:H392 E391:E392 E394:E395 H394:H395 B394:B395 B397:B398 H397:H398 E397:E398 F219:F237 B460 B477 F477:F479 B490 B125:B135 G404:G415 F413:F414 F372:F373 F330:F331 G317:G331 F297:F298 G294:G298 H253:H301 F279:F283 G219:G280 F213:F214 G194:G216 G186:G190 G156:G160 G111:G116 G23:G80 H23:H135 E316:H316 B137:B301 H137:H243 G167:G174 B467:B475 B479:B484 C20:G20 A447:E447 C453:E453 C448:E451 D452:E452 E23:E135 F28:F130 B23:B122 E317:E383 H317:H383 B305:B383 F348:F361 G348:G374 E400:E446 H400:H446 B400:B446 B453:B458 G454:H458 E454:E458 E137:E301 B462:B465 E462:E474 F462:F467">
+    <cfRule type="expression" dxfId="1483" priority="1610">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1490" priority="1611">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1489" priority="1612">
+    <cfRule type="expression" dxfId="1482" priority="1611">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1481" priority="1612">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="1488" priority="1607">
+    <cfRule type="expression" dxfId="1480" priority="1607">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1487" priority="1608">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1486" priority="1609">
+    <cfRule type="expression" dxfId="1479" priority="1608">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1478" priority="1609">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="1485" priority="1604">
+    <cfRule type="expression" dxfId="1477" priority="1604">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1484" priority="1605">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1483" priority="1606">
+    <cfRule type="expression" dxfId="1476" priority="1605">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1475" priority="1606">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="1482" priority="1601">
+    <cfRule type="expression" dxfId="1474" priority="1601">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1481" priority="1602">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1480" priority="1603">
+    <cfRule type="expression" dxfId="1473" priority="1602">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1472" priority="1603">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="1479" priority="1598">
+    <cfRule type="expression" dxfId="1471" priority="1598">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1478" priority="1599">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1477" priority="1600">
+    <cfRule type="expression" dxfId="1470" priority="1599">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1469" priority="1600">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="1476" priority="1595">
+    <cfRule type="expression" dxfId="1468" priority="1595">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1475" priority="1596">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1474" priority="1597">
+    <cfRule type="expression" dxfId="1467" priority="1596">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1466" priority="1597">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="1473" priority="1592">
+    <cfRule type="expression" dxfId="1465" priority="1592">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1472" priority="1593">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1471" priority="1594">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H447:I447 A448:B448 B449 B451 E460 E462:E475">
-    <cfRule type="expression" dxfId="1470" priority="1589">
+    <cfRule type="expression" dxfId="1464" priority="1593">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1463" priority="1594">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H447:I447 A448:B448 B449 B451 E460">
+    <cfRule type="expression" dxfId="1462" priority="1589">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1469" priority="1590">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1468" priority="1591">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H447:I447 A448:B448 B449 B451 E460 E462:E475">
-    <cfRule type="expression" dxfId="1467" priority="1586">
+    <cfRule type="expression" dxfId="1461" priority="1590">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1460" priority="1591">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H447:I447 A448:B448 B449 B451 E460">
+    <cfRule type="expression" dxfId="1459" priority="1586">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1466" priority="1587">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1465" priority="1588">
+    <cfRule type="expression" dxfId="1458" priority="1587">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1457" priority="1588">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F453">
-    <cfRule type="expression" dxfId="1464" priority="572">
+    <cfRule type="expression" dxfId="1456" priority="572">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1463" priority="573">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1462" priority="574">
+    <cfRule type="expression" dxfId="1455" priority="573">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1454" priority="574">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F453">
-    <cfRule type="expression" dxfId="1461" priority="569">
+    <cfRule type="expression" dxfId="1453" priority="569">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1460" priority="570">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1459" priority="571">
+    <cfRule type="expression" dxfId="1452" priority="570">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1451" priority="571">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G453">
-    <cfRule type="expression" dxfId="1458" priority="566">
+    <cfRule type="expression" dxfId="1450" priority="566">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1457" priority="567">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1456" priority="568">
+    <cfRule type="expression" dxfId="1449" priority="567">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1448" priority="568">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G453">
-    <cfRule type="expression" dxfId="1455" priority="563">
+    <cfRule type="expression" dxfId="1447" priority="563">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1454" priority="564">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1453" priority="565">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E480:E485">
-    <cfRule type="expression" dxfId="1452" priority="1583">
+    <cfRule type="expression" dxfId="1446" priority="564">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1445" priority="565">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E479:E484">
+    <cfRule type="expression" dxfId="1444" priority="1583">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1451" priority="1584">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1450" priority="1585">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E480:E485">
-    <cfRule type="expression" dxfId="1449" priority="1580">
+    <cfRule type="expression" dxfId="1443" priority="1584">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1442" priority="1585">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E479:E484">
+    <cfRule type="expression" dxfId="1441" priority="1580">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1448" priority="1581">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1447" priority="1582">
+    <cfRule type="expression" dxfId="1440" priority="1581">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1439" priority="1582">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F27">
-    <cfRule type="expression" dxfId="1446" priority="1578">
+    <cfRule type="expression" dxfId="1438" priority="1578">
       <formula>NOT(VLOOKUP(F24,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1445" priority="1579">
+    <cfRule type="expression" dxfId="1437" priority="1579">
       <formula>(VLOOKUP(F24,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F27">
-    <cfRule type="expression" dxfId="1444" priority="1575">
+    <cfRule type="expression" dxfId="1436" priority="1575">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1443" priority="1576">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1442" priority="1577">
+    <cfRule type="expression" dxfId="1435" priority="1576">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1434" priority="1577">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F27">
-    <cfRule type="expression" dxfId="1441" priority="1572">
+    <cfRule type="expression" dxfId="1433" priority="1572">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1440" priority="1573">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1439" priority="1574">
+    <cfRule type="expression" dxfId="1432" priority="1573">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1431" priority="1574">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F131">
-    <cfRule type="expression" dxfId="1438" priority="1562">
+    <cfRule type="expression" dxfId="1430" priority="1562">
       <formula>NOT(VLOOKUP(F131,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1437" priority="1563">
+    <cfRule type="expression" dxfId="1429" priority="1563">
       <formula>(VLOOKUP(F131,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F131">
-    <cfRule type="expression" dxfId="1436" priority="1559">
+    <cfRule type="expression" dxfId="1428" priority="1559">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1435" priority="1560">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1434" priority="1561">
+    <cfRule type="expression" dxfId="1427" priority="1560">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1426" priority="1561">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F131">
-    <cfRule type="expression" dxfId="1433" priority="1556">
+    <cfRule type="expression" dxfId="1425" priority="1556">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1432" priority="1557">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1431" priority="1558">
+    <cfRule type="expression" dxfId="1424" priority="1557">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1423" priority="1558">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F133">
-    <cfRule type="expression" dxfId="1430" priority="1554">
+    <cfRule type="expression" dxfId="1422" priority="1554">
       <formula>NOT(VLOOKUP(F133,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1429" priority="1555">
+    <cfRule type="expression" dxfId="1421" priority="1555">
       <formula>(VLOOKUP(F133,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F133">
-    <cfRule type="expression" dxfId="1428" priority="1551">
+    <cfRule type="expression" dxfId="1420" priority="1551">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1427" priority="1552">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1426" priority="1553">
+    <cfRule type="expression" dxfId="1419" priority="1552">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1418" priority="1553">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F133">
-    <cfRule type="expression" dxfId="1425" priority="1548">
+    <cfRule type="expression" dxfId="1417" priority="1548">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1424" priority="1549">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1423" priority="1550">
+    <cfRule type="expression" dxfId="1416" priority="1549">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1415" priority="1550">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F134">
-    <cfRule type="expression" dxfId="1422" priority="1546">
+    <cfRule type="expression" dxfId="1414" priority="1546">
       <formula>NOT(VLOOKUP(F134,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1421" priority="1547">
+    <cfRule type="expression" dxfId="1413" priority="1547">
       <formula>(VLOOKUP(F134,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F134">
-    <cfRule type="expression" dxfId="1420" priority="1543">
+    <cfRule type="expression" dxfId="1412" priority="1543">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1419" priority="1544">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1418" priority="1545">
+    <cfRule type="expression" dxfId="1411" priority="1544">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1410" priority="1545">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F134">
-    <cfRule type="expression" dxfId="1417" priority="1540">
+    <cfRule type="expression" dxfId="1409" priority="1540">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1416" priority="1541">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1415" priority="1542">
+    <cfRule type="expression" dxfId="1408" priority="1541">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1407" priority="1542">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F132">
-    <cfRule type="expression" dxfId="1414" priority="1538">
+    <cfRule type="expression" dxfId="1406" priority="1538">
       <formula>NOT(VLOOKUP(F132,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1413" priority="1539">
+    <cfRule type="expression" dxfId="1405" priority="1539">
       <formula>(VLOOKUP(F132,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F132">
-    <cfRule type="expression" dxfId="1412" priority="1535">
+    <cfRule type="expression" dxfId="1404" priority="1535">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1411" priority="1536">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1410" priority="1537">
+    <cfRule type="expression" dxfId="1403" priority="1536">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1402" priority="1537">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F132">
-    <cfRule type="expression" dxfId="1409" priority="1532">
+    <cfRule type="expression" dxfId="1401" priority="1532">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1408" priority="1533">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1407" priority="1534">
+    <cfRule type="expression" dxfId="1400" priority="1533">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1399" priority="1534">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F135">
-    <cfRule type="expression" dxfId="1406" priority="1530">
+    <cfRule type="expression" dxfId="1398" priority="1530">
       <formula>NOT(VLOOKUP(F135,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1405" priority="1531">
+    <cfRule type="expression" dxfId="1397" priority="1531">
       <formula>(VLOOKUP(F135,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F135 F137">
-    <cfRule type="expression" dxfId="1404" priority="1527">
+    <cfRule type="expression" dxfId="1396" priority="1527">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1403" priority="1528">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1402" priority="1529">
+    <cfRule type="expression" dxfId="1395" priority="1528">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1394" priority="1529">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F135 F137">
-    <cfRule type="expression" dxfId="1401" priority="1524">
+    <cfRule type="expression" dxfId="1393" priority="1524">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1400" priority="1525">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1399" priority="1526">
+    <cfRule type="expression" dxfId="1392" priority="1525">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1391" priority="1526">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F153:F154">
-    <cfRule type="expression" dxfId="1398" priority="1522">
+    <cfRule type="expression" dxfId="1390" priority="1522">
       <formula>NOT(VLOOKUP(F153,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1397" priority="1523">
+    <cfRule type="expression" dxfId="1389" priority="1523">
       <formula>(VLOOKUP(F153,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F153:F154">
-    <cfRule type="expression" dxfId="1396" priority="1519">
+    <cfRule type="expression" dxfId="1388" priority="1519">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1395" priority="1520">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1394" priority="1521">
+    <cfRule type="expression" dxfId="1387" priority="1520">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1386" priority="1521">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F153:F154">
-    <cfRule type="expression" dxfId="1393" priority="1516">
+    <cfRule type="expression" dxfId="1385" priority="1516">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1392" priority="1517">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1391" priority="1518">
+    <cfRule type="expression" dxfId="1384" priority="1517">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1383" priority="1518">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F159:F160">
-    <cfRule type="expression" dxfId="1390" priority="1506">
+    <cfRule type="expression" dxfId="1382" priority="1506">
       <formula>NOT(VLOOKUP(F159,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1389" priority="1507">
+    <cfRule type="expression" dxfId="1381" priority="1507">
       <formula>(VLOOKUP(F159,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F159:F160">
-    <cfRule type="expression" dxfId="1388" priority="1503">
+    <cfRule type="expression" dxfId="1380" priority="1503">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1387" priority="1504">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1386" priority="1505">
+    <cfRule type="expression" dxfId="1379" priority="1504">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1378" priority="1505">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F159:F160">
-    <cfRule type="expression" dxfId="1385" priority="1500">
+    <cfRule type="expression" dxfId="1377" priority="1500">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1384" priority="1501">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1383" priority="1502">
+    <cfRule type="expression" dxfId="1376" priority="1501">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1375" priority="1502">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F155">
-    <cfRule type="expression" dxfId="1382" priority="1498">
+    <cfRule type="expression" dxfId="1374" priority="1498">
       <formula>NOT(VLOOKUP(F155,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1381" priority="1499">
+    <cfRule type="expression" dxfId="1373" priority="1499">
       <formula>(VLOOKUP(F155,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F155">
-    <cfRule type="expression" dxfId="1380" priority="1495">
+    <cfRule type="expression" dxfId="1372" priority="1495">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1379" priority="1496">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1378" priority="1497">
+    <cfRule type="expression" dxfId="1371" priority="1496">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1370" priority="1497">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F155">
-    <cfRule type="expression" dxfId="1377" priority="1492">
+    <cfRule type="expression" dxfId="1369" priority="1492">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1376" priority="1493">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1375" priority="1494">
+    <cfRule type="expression" dxfId="1368" priority="1493">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1367" priority="1494">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F156">
-    <cfRule type="expression" dxfId="1374" priority="1490">
+    <cfRule type="expression" dxfId="1366" priority="1490">
       <formula>NOT(VLOOKUP(F156,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1373" priority="1491">
+    <cfRule type="expression" dxfId="1365" priority="1491">
       <formula>(VLOOKUP(F156,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F156">
-    <cfRule type="expression" dxfId="1372" priority="1487">
+    <cfRule type="expression" dxfId="1364" priority="1487">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1371" priority="1488">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1370" priority="1489">
+    <cfRule type="expression" dxfId="1363" priority="1488">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1362" priority="1489">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F156">
-    <cfRule type="expression" dxfId="1369" priority="1484">
+    <cfRule type="expression" dxfId="1361" priority="1484">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1368" priority="1485">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1367" priority="1486">
+    <cfRule type="expression" dxfId="1360" priority="1485">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1359" priority="1486">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F157:F158">
-    <cfRule type="expression" dxfId="1366" priority="1482">
+    <cfRule type="expression" dxfId="1358" priority="1482">
       <formula>NOT(VLOOKUP(F157,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1365" priority="1483">
+    <cfRule type="expression" dxfId="1357" priority="1483">
       <formula>(VLOOKUP(F157,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F157:F158">
-    <cfRule type="expression" dxfId="1364" priority="1479">
+    <cfRule type="expression" dxfId="1356" priority="1479">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1363" priority="1480">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1362" priority="1481">
+    <cfRule type="expression" dxfId="1355" priority="1480">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1354" priority="1481">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F157:F158">
-    <cfRule type="expression" dxfId="1361" priority="1476">
+    <cfRule type="expression" dxfId="1353" priority="1476">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1360" priority="1477">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1359" priority="1478">
+    <cfRule type="expression" dxfId="1352" priority="1477">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1351" priority="1478">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F161">
-    <cfRule type="expression" dxfId="1358" priority="1474">
+    <cfRule type="expression" dxfId="1350" priority="1474">
       <formula>NOT(VLOOKUP(F161,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1357" priority="1475">
+    <cfRule type="expression" dxfId="1349" priority="1475">
       <formula>(VLOOKUP(F161,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F161">
-    <cfRule type="expression" dxfId="1356" priority="1471">
+    <cfRule type="expression" dxfId="1348" priority="1471">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1355" priority="1472">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1354" priority="1473">
+    <cfRule type="expression" dxfId="1347" priority="1472">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1346" priority="1473">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F161">
-    <cfRule type="expression" dxfId="1353" priority="1468">
+    <cfRule type="expression" dxfId="1345" priority="1468">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1352" priority="1469">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1351" priority="1470">
+    <cfRule type="expression" dxfId="1344" priority="1469">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1343" priority="1470">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F162:F164">
-    <cfRule type="expression" dxfId="1350" priority="1466">
+    <cfRule type="expression" dxfId="1342" priority="1466">
       <formula>NOT(VLOOKUP(F162,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1349" priority="1467">
+    <cfRule type="expression" dxfId="1341" priority="1467">
       <formula>(VLOOKUP(F162,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F162:F164">
-    <cfRule type="expression" dxfId="1348" priority="1463">
+    <cfRule type="expression" dxfId="1340" priority="1463">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1347" priority="1464">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1346" priority="1465">
+    <cfRule type="expression" dxfId="1339" priority="1464">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1338" priority="1465">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F162:F164">
-    <cfRule type="expression" dxfId="1345" priority="1460">
+    <cfRule type="expression" dxfId="1337" priority="1460">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1344" priority="1461">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1343" priority="1462">
+    <cfRule type="expression" dxfId="1336" priority="1461">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1335" priority="1462">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F173">
-    <cfRule type="expression" dxfId="1342" priority="1458">
+    <cfRule type="expression" dxfId="1334" priority="1458">
       <formula>NOT(VLOOKUP(F173,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1341" priority="1459">
+    <cfRule type="expression" dxfId="1333" priority="1459">
       <formula>(VLOOKUP(F173,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F173">
-    <cfRule type="expression" dxfId="1340" priority="1455">
+    <cfRule type="expression" dxfId="1332" priority="1455">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1339" priority="1456">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1338" priority="1457">
+    <cfRule type="expression" dxfId="1331" priority="1456">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1330" priority="1457">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F173">
-    <cfRule type="expression" dxfId="1337" priority="1452">
+    <cfRule type="expression" dxfId="1329" priority="1452">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1336" priority="1453">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1335" priority="1454">
+    <cfRule type="expression" dxfId="1328" priority="1453">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1327" priority="1454">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F176:F177">
-    <cfRule type="expression" dxfId="1334" priority="1450">
+    <cfRule type="expression" dxfId="1326" priority="1450">
       <formula>NOT(VLOOKUP(F176,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1333" priority="1451">
+    <cfRule type="expression" dxfId="1325" priority="1451">
       <formula>(VLOOKUP(F176,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F176:F177">
-    <cfRule type="expression" dxfId="1332" priority="1447">
+    <cfRule type="expression" dxfId="1324" priority="1447">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1331" priority="1448">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1330" priority="1449">
+    <cfRule type="expression" dxfId="1323" priority="1448">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1322" priority="1449">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F176:F177">
-    <cfRule type="expression" dxfId="1329" priority="1444">
+    <cfRule type="expression" dxfId="1321" priority="1444">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1328" priority="1445">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1327" priority="1446">
+    <cfRule type="expression" dxfId="1320" priority="1445">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1319" priority="1446">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F169:F172">
-    <cfRule type="expression" dxfId="1326" priority="1442">
+    <cfRule type="expression" dxfId="1318" priority="1442">
       <formula>NOT(VLOOKUP(F169,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1325" priority="1443">
+    <cfRule type="expression" dxfId="1317" priority="1443">
       <formula>(VLOOKUP(F169,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F169:F172">
-    <cfRule type="expression" dxfId="1324" priority="1439">
+    <cfRule type="expression" dxfId="1316" priority="1439">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1323" priority="1440">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1322" priority="1441">
+    <cfRule type="expression" dxfId="1315" priority="1440">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1314" priority="1441">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F169:F172">
-    <cfRule type="expression" dxfId="1321" priority="1436">
+    <cfRule type="expression" dxfId="1313" priority="1436">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1320" priority="1437">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1319" priority="1438">
+    <cfRule type="expression" dxfId="1312" priority="1437">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1311" priority="1438">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F174:F175">
-    <cfRule type="expression" dxfId="1318" priority="1434">
+    <cfRule type="expression" dxfId="1310" priority="1434">
       <formula>NOT(VLOOKUP(F174,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1317" priority="1435">
+    <cfRule type="expression" dxfId="1309" priority="1435">
       <formula>(VLOOKUP(F174,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F174:F175">
-    <cfRule type="expression" dxfId="1316" priority="1431">
+    <cfRule type="expression" dxfId="1308" priority="1431">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1315" priority="1432">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1314" priority="1433">
+    <cfRule type="expression" dxfId="1307" priority="1432">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1306" priority="1433">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F174:F175">
-    <cfRule type="expression" dxfId="1313" priority="1428">
+    <cfRule type="expression" dxfId="1305" priority="1428">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1312" priority="1429">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1311" priority="1430">
+    <cfRule type="expression" dxfId="1304" priority="1429">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1303" priority="1430">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F182">
-    <cfRule type="expression" dxfId="1310" priority="1426">
+    <cfRule type="expression" dxfId="1302" priority="1426">
       <formula>NOT(VLOOKUP(F182,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1309" priority="1427">
+    <cfRule type="expression" dxfId="1301" priority="1427">
       <formula>(VLOOKUP(F182,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F182">
-    <cfRule type="expression" dxfId="1308" priority="1423">
+    <cfRule type="expression" dxfId="1300" priority="1423">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1307" priority="1424">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1306" priority="1425">
+    <cfRule type="expression" dxfId="1299" priority="1424">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1298" priority="1425">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F182">
-    <cfRule type="expression" dxfId="1305" priority="1420">
+    <cfRule type="expression" dxfId="1297" priority="1420">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1304" priority="1421">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1303" priority="1422">
+    <cfRule type="expression" dxfId="1296" priority="1421">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1295" priority="1422">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F185">
-    <cfRule type="expression" dxfId="1302" priority="1418">
+    <cfRule type="expression" dxfId="1294" priority="1418">
       <formula>NOT(VLOOKUP(F185,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1301" priority="1419">
+    <cfRule type="expression" dxfId="1293" priority="1419">
       <formula>(VLOOKUP(F185,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F185">
-    <cfRule type="expression" dxfId="1300" priority="1415">
+    <cfRule type="expression" dxfId="1292" priority="1415">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1299" priority="1416">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1298" priority="1417">
+    <cfRule type="expression" dxfId="1291" priority="1416">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1290" priority="1417">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F185">
-    <cfRule type="expression" dxfId="1297" priority="1412">
+    <cfRule type="expression" dxfId="1289" priority="1412">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1296" priority="1413">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1295" priority="1414">
+    <cfRule type="expression" dxfId="1288" priority="1413">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1287" priority="1414">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F186:F188">
-    <cfRule type="expression" dxfId="1294" priority="1410">
+    <cfRule type="expression" dxfId="1286" priority="1410">
       <formula>NOT(VLOOKUP(F186,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1293" priority="1411">
+    <cfRule type="expression" dxfId="1285" priority="1411">
       <formula>(VLOOKUP(F186,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F186:F188">
-    <cfRule type="expression" dxfId="1292" priority="1407">
+    <cfRule type="expression" dxfId="1284" priority="1407">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1291" priority="1408">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1290" priority="1409">
+    <cfRule type="expression" dxfId="1283" priority="1408">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1282" priority="1409">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F186:F188">
-    <cfRule type="expression" dxfId="1289" priority="1404">
+    <cfRule type="expression" dxfId="1281" priority="1404">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1288" priority="1405">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1287" priority="1406">
+    <cfRule type="expression" dxfId="1280" priority="1405">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1279" priority="1406">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F178:F179">
-    <cfRule type="expression" dxfId="1286" priority="1402">
+    <cfRule type="expression" dxfId="1278" priority="1402">
       <formula>NOT(VLOOKUP(F178,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1285" priority="1403">
+    <cfRule type="expression" dxfId="1277" priority="1403">
       <formula>(VLOOKUP(F178,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F178:F179">
-    <cfRule type="expression" dxfId="1284" priority="1399">
+    <cfRule type="expression" dxfId="1276" priority="1399">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1283" priority="1400">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1282" priority="1401">
+    <cfRule type="expression" dxfId="1275" priority="1400">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1274" priority="1401">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F178:F179">
-    <cfRule type="expression" dxfId="1281" priority="1396">
+    <cfRule type="expression" dxfId="1273" priority="1396">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1280" priority="1397">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1279" priority="1398">
+    <cfRule type="expression" dxfId="1272" priority="1397">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1271" priority="1398">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F183:F184">
-    <cfRule type="expression" dxfId="1278" priority="1394">
+    <cfRule type="expression" dxfId="1270" priority="1394">
       <formula>NOT(VLOOKUP(F183,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1277" priority="1395">
+    <cfRule type="expression" dxfId="1269" priority="1395">
       <formula>(VLOOKUP(F183,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F183:F184">
-    <cfRule type="expression" dxfId="1276" priority="1391">
+    <cfRule type="expression" dxfId="1268" priority="1391">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1275" priority="1392">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1274" priority="1393">
+    <cfRule type="expression" dxfId="1267" priority="1392">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1266" priority="1393">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F183:F184">
-    <cfRule type="expression" dxfId="1273" priority="1388">
+    <cfRule type="expression" dxfId="1265" priority="1388">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1272" priority="1389">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1271" priority="1390">
+    <cfRule type="expression" dxfId="1264" priority="1389">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1263" priority="1390">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F189:F190">
-    <cfRule type="expression" dxfId="1270" priority="1378">
+    <cfRule type="expression" dxfId="1262" priority="1378">
       <formula>NOT(VLOOKUP(F189,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1269" priority="1379">
+    <cfRule type="expression" dxfId="1261" priority="1379">
       <formula>(VLOOKUP(F189,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F189:F190">
-    <cfRule type="expression" dxfId="1268" priority="1375">
+    <cfRule type="expression" dxfId="1260" priority="1375">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1267" priority="1376">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1266" priority="1377">
+    <cfRule type="expression" dxfId="1259" priority="1376">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1258" priority="1377">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F189:F190">
-    <cfRule type="expression" dxfId="1265" priority="1372">
+    <cfRule type="expression" dxfId="1257" priority="1372">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1264" priority="1373">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1263" priority="1374">
+    <cfRule type="expression" dxfId="1256" priority="1373">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1255" priority="1374">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F180:F181">
-    <cfRule type="expression" dxfId="1262" priority="1370">
+    <cfRule type="expression" dxfId="1254" priority="1370">
       <formula>NOT(VLOOKUP(F180,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1261" priority="1371">
+    <cfRule type="expression" dxfId="1253" priority="1371">
       <formula>(VLOOKUP(F180,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F180:F181">
-    <cfRule type="expression" dxfId="1260" priority="1367">
+    <cfRule type="expression" dxfId="1252" priority="1367">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1259" priority="1368">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1258" priority="1369">
+    <cfRule type="expression" dxfId="1251" priority="1368">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1250" priority="1369">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F180:F181">
-    <cfRule type="expression" dxfId="1257" priority="1364">
+    <cfRule type="expression" dxfId="1249" priority="1364">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1256" priority="1365">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1255" priority="1366">
+    <cfRule type="expression" dxfId="1248" priority="1365">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1247" priority="1366">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F191:F195">
-    <cfRule type="expression" dxfId="1254" priority="1362">
+    <cfRule type="expression" dxfId="1246" priority="1362">
       <formula>NOT(VLOOKUP(F191,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1253" priority="1363">
+    <cfRule type="expression" dxfId="1245" priority="1363">
       <formula>(VLOOKUP(F191,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F191:F195">
-    <cfRule type="expression" dxfId="1252" priority="1359">
+    <cfRule type="expression" dxfId="1244" priority="1359">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1251" priority="1360">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1250" priority="1361">
+    <cfRule type="expression" dxfId="1243" priority="1360">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1242" priority="1361">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F191:F195">
-    <cfRule type="expression" dxfId="1249" priority="1356">
+    <cfRule type="expression" dxfId="1241" priority="1356">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1248" priority="1357">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1247" priority="1358">
+    <cfRule type="expression" dxfId="1240" priority="1357">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1239" priority="1358">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196:F205">
-    <cfRule type="expression" dxfId="1246" priority="1354">
+    <cfRule type="expression" dxfId="1238" priority="1354">
       <formula>NOT(VLOOKUP(F196,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1245" priority="1355">
+    <cfRule type="expression" dxfId="1237" priority="1355">
       <formula>(VLOOKUP(F196,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196:F205">
-    <cfRule type="expression" dxfId="1244" priority="1351">
+    <cfRule type="expression" dxfId="1236" priority="1351">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1243" priority="1352">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1242" priority="1353">
+    <cfRule type="expression" dxfId="1235" priority="1352">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1234" priority="1353">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196:F205">
-    <cfRule type="expression" dxfId="1241" priority="1348">
+    <cfRule type="expression" dxfId="1233" priority="1348">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1240" priority="1349">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1239" priority="1350">
+    <cfRule type="expression" dxfId="1232" priority="1349">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1231" priority="1350">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F215:F218">
-    <cfRule type="expression" dxfId="1238" priority="1346">
+    <cfRule type="expression" dxfId="1230" priority="1346">
       <formula>NOT(VLOOKUP(F215,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1237" priority="1347">
+    <cfRule type="expression" dxfId="1229" priority="1347">
       <formula>(VLOOKUP(F215,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F215:F218 F209:F212 F206">
-    <cfRule type="expression" dxfId="1236" priority="1343">
+    <cfRule type="expression" dxfId="1228" priority="1343">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1235" priority="1344">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1234" priority="1345">
+    <cfRule type="expression" dxfId="1227" priority="1344">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1226" priority="1345">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F215:F218 F209:F212 F206">
-    <cfRule type="expression" dxfId="1233" priority="1340">
+    <cfRule type="expression" dxfId="1225" priority="1340">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1232" priority="1341">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1231" priority="1342">
+    <cfRule type="expression" dxfId="1224" priority="1341">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1223" priority="1342">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F207:F208">
-    <cfRule type="expression" dxfId="1230" priority="1335">
+    <cfRule type="expression" dxfId="1222" priority="1335">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1229" priority="1336">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1228" priority="1337">
+    <cfRule type="expression" dxfId="1221" priority="1336">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1220" priority="1337">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F207:F208">
-    <cfRule type="expression" dxfId="1227" priority="1332">
+    <cfRule type="expression" dxfId="1219" priority="1332">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1226" priority="1333">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1225" priority="1334">
+    <cfRule type="expression" dxfId="1218" priority="1333">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1217" priority="1334">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F238:F245">
-    <cfRule type="expression" dxfId="1224" priority="1330">
+    <cfRule type="expression" dxfId="1216" priority="1330">
       <formula>NOT(VLOOKUP(F238,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1223" priority="1331">
+    <cfRule type="expression" dxfId="1215" priority="1331">
       <formula>(VLOOKUP(F238,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F238:F245">
-    <cfRule type="expression" dxfId="1222" priority="1327">
+    <cfRule type="expression" dxfId="1214" priority="1327">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1221" priority="1328">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1220" priority="1329">
+    <cfRule type="expression" dxfId="1213" priority="1328">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1212" priority="1329">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F238:F245">
-    <cfRule type="expression" dxfId="1219" priority="1324">
+    <cfRule type="expression" dxfId="1211" priority="1324">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1218" priority="1325">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1217" priority="1326">
+    <cfRule type="expression" dxfId="1210" priority="1325">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1209" priority="1326">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F246:F256">
-    <cfRule type="expression" dxfId="1216" priority="1322">
+    <cfRule type="expression" dxfId="1208" priority="1322">
       <formula>NOT(VLOOKUP(F246,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1215" priority="1323">
+    <cfRule type="expression" dxfId="1207" priority="1323">
       <formula>(VLOOKUP(F246,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F246:F256">
-    <cfRule type="expression" dxfId="1214" priority="1319">
+    <cfRule type="expression" dxfId="1206" priority="1319">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1213" priority="1320">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1212" priority="1321">
+    <cfRule type="expression" dxfId="1205" priority="1320">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1204" priority="1321">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F246:F256">
-    <cfRule type="expression" dxfId="1211" priority="1316">
+    <cfRule type="expression" dxfId="1203" priority="1316">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1210" priority="1317">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1209" priority="1318">
+    <cfRule type="expression" dxfId="1202" priority="1317">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1201" priority="1318">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F268:F271">
-    <cfRule type="expression" dxfId="1208" priority="1314">
+    <cfRule type="expression" dxfId="1200" priority="1314">
       <formula>NOT(VLOOKUP(F268,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1207" priority="1315">
+    <cfRule type="expression" dxfId="1199" priority="1315">
       <formula>(VLOOKUP(F268,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F268:F271">
-    <cfRule type="expression" dxfId="1206" priority="1311">
+    <cfRule type="expression" dxfId="1198" priority="1311">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1205" priority="1312">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1204" priority="1313">
+    <cfRule type="expression" dxfId="1197" priority="1312">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1196" priority="1313">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F268:F271">
-    <cfRule type="expression" dxfId="1203" priority="1308">
+    <cfRule type="expression" dxfId="1195" priority="1308">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1202" priority="1309">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1201" priority="1310">
+    <cfRule type="expression" dxfId="1194" priority="1309">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1193" priority="1310">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F263">
-    <cfRule type="expression" dxfId="1200" priority="1306">
+    <cfRule type="expression" dxfId="1192" priority="1306">
       <formula>NOT(VLOOKUP(F263,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1199" priority="1307">
+    <cfRule type="expression" dxfId="1191" priority="1307">
       <formula>(VLOOKUP(F263,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F263">
-    <cfRule type="expression" dxfId="1198" priority="1303">
+    <cfRule type="expression" dxfId="1190" priority="1303">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1197" priority="1304">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1196" priority="1305">
+    <cfRule type="expression" dxfId="1189" priority="1304">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1188" priority="1305">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F263">
-    <cfRule type="expression" dxfId="1195" priority="1300">
+    <cfRule type="expression" dxfId="1187" priority="1300">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1194" priority="1301">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1193" priority="1302">
+    <cfRule type="expression" dxfId="1186" priority="1301">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1185" priority="1302">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F275:F278">
-    <cfRule type="expression" dxfId="1192" priority="1298">
+    <cfRule type="expression" dxfId="1184" priority="1298">
       <formula>NOT(VLOOKUP(F275,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1191" priority="1299">
+    <cfRule type="expression" dxfId="1183" priority="1299">
       <formula>(VLOOKUP(F275,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F275:F278 F272">
-    <cfRule type="expression" dxfId="1190" priority="1295">
+    <cfRule type="expression" dxfId="1182" priority="1295">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1189" priority="1296">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1188" priority="1297">
+    <cfRule type="expression" dxfId="1181" priority="1296">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1180" priority="1297">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F275:F278 F272">
-    <cfRule type="expression" dxfId="1187" priority="1292">
+    <cfRule type="expression" dxfId="1179" priority="1292">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1186" priority="1293">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1185" priority="1294">
+    <cfRule type="expression" dxfId="1178" priority="1293">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1177" priority="1294">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F273:F274">
-    <cfRule type="expression" dxfId="1184" priority="1290">
+    <cfRule type="expression" dxfId="1176" priority="1290">
       <formula>NOT(VLOOKUP(F273,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1183" priority="1291">
+    <cfRule type="expression" dxfId="1175" priority="1291">
       <formula>(VLOOKUP(F273,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F273:F274">
-    <cfRule type="expression" dxfId="1182" priority="1287">
+    <cfRule type="expression" dxfId="1174" priority="1287">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1181" priority="1288">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1180" priority="1289">
+    <cfRule type="expression" dxfId="1173" priority="1288">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1172" priority="1289">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F273:F274">
-    <cfRule type="expression" dxfId="1179" priority="1284">
+    <cfRule type="expression" dxfId="1171" priority="1284">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1178" priority="1285">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1177" priority="1286">
+    <cfRule type="expression" dxfId="1170" priority="1285">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1169" priority="1286">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F284:F285">
-    <cfRule type="expression" dxfId="1176" priority="1274">
+    <cfRule type="expression" dxfId="1168" priority="1274">
       <formula>NOT(VLOOKUP(F284,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1175" priority="1275">
+    <cfRule type="expression" dxfId="1167" priority="1275">
       <formula>(VLOOKUP(F284,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F284:F285">
-    <cfRule type="expression" dxfId="1174" priority="1271">
+    <cfRule type="expression" dxfId="1166" priority="1271">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1173" priority="1272">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1172" priority="1273">
+    <cfRule type="expression" dxfId="1165" priority="1272">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1164" priority="1273">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F284:F285">
-    <cfRule type="expression" dxfId="1171" priority="1268">
+    <cfRule type="expression" dxfId="1163" priority="1268">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1170" priority="1269">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1169" priority="1270">
+    <cfRule type="expression" dxfId="1162" priority="1269">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1161" priority="1270">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F288">
-    <cfRule type="expression" dxfId="1168" priority="1266">
+    <cfRule type="expression" dxfId="1160" priority="1266">
       <formula>NOT(VLOOKUP(F288,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1167" priority="1267">
+    <cfRule type="expression" dxfId="1159" priority="1267">
       <formula>(VLOOKUP(F288,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F288">
-    <cfRule type="expression" dxfId="1166" priority="1263">
+    <cfRule type="expression" dxfId="1158" priority="1263">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1165" priority="1264">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1164" priority="1265">
+    <cfRule type="expression" dxfId="1157" priority="1264">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1156" priority="1265">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F288">
-    <cfRule type="expression" dxfId="1163" priority="1260">
+    <cfRule type="expression" dxfId="1155" priority="1260">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1162" priority="1261">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1161" priority="1262">
+    <cfRule type="expression" dxfId="1154" priority="1261">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1153" priority="1262">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F286:F287">
-    <cfRule type="expression" dxfId="1160" priority="1258">
+    <cfRule type="expression" dxfId="1152" priority="1258">
       <formula>NOT(VLOOKUP(F286,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1159" priority="1259">
+    <cfRule type="expression" dxfId="1151" priority="1259">
       <formula>(VLOOKUP(F286,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F286:F287">
-    <cfRule type="expression" dxfId="1158" priority="1255">
+    <cfRule type="expression" dxfId="1150" priority="1255">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1157" priority="1256">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1156" priority="1257">
+    <cfRule type="expression" dxfId="1149" priority="1256">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1148" priority="1257">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F286:F287">
-    <cfRule type="expression" dxfId="1155" priority="1252">
+    <cfRule type="expression" dxfId="1147" priority="1252">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1154" priority="1253">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1153" priority="1254">
+    <cfRule type="expression" dxfId="1146" priority="1253">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1145" priority="1254">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F289">
-    <cfRule type="expression" dxfId="1152" priority="1250">
+    <cfRule type="expression" dxfId="1144" priority="1250">
       <formula>NOT(VLOOKUP(F289,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1151" priority="1251">
+    <cfRule type="expression" dxfId="1143" priority="1251">
       <formula>(VLOOKUP(F289,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F289">
-    <cfRule type="expression" dxfId="1150" priority="1247">
+    <cfRule type="expression" dxfId="1142" priority="1247">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1149" priority="1248">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1148" priority="1249">
+    <cfRule type="expression" dxfId="1141" priority="1248">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1140" priority="1249">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F289">
-    <cfRule type="expression" dxfId="1147" priority="1244">
+    <cfRule type="expression" dxfId="1139" priority="1244">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1146" priority="1245">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1145" priority="1246">
+    <cfRule type="expression" dxfId="1138" priority="1245">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1137" priority="1246">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F290">
-    <cfRule type="expression" dxfId="1144" priority="1242">
+    <cfRule type="expression" dxfId="1136" priority="1242">
       <formula>NOT(VLOOKUP(F290,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1143" priority="1243">
+    <cfRule type="expression" dxfId="1135" priority="1243">
       <formula>(VLOOKUP(F290,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F290">
-    <cfRule type="expression" dxfId="1142" priority="1239">
+    <cfRule type="expression" dxfId="1134" priority="1239">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1141" priority="1240">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1140" priority="1241">
+    <cfRule type="expression" dxfId="1133" priority="1240">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1132" priority="1241">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F290">
-    <cfRule type="expression" dxfId="1139" priority="1236">
+    <cfRule type="expression" dxfId="1131" priority="1236">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1138" priority="1237">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1137" priority="1238">
+    <cfRule type="expression" dxfId="1130" priority="1237">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1129" priority="1238">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F293">
-    <cfRule type="expression" dxfId="1136" priority="1234">
+    <cfRule type="expression" dxfId="1128" priority="1234">
       <formula>NOT(VLOOKUP(F293,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1135" priority="1235">
+    <cfRule type="expression" dxfId="1127" priority="1235">
       <formula>(VLOOKUP(F293,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F293">
-    <cfRule type="expression" dxfId="1134" priority="1231">
+    <cfRule type="expression" dxfId="1126" priority="1231">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1133" priority="1232">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1132" priority="1233">
+    <cfRule type="expression" dxfId="1125" priority="1232">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1124" priority="1233">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F293">
-    <cfRule type="expression" dxfId="1131" priority="1228">
+    <cfRule type="expression" dxfId="1123" priority="1228">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1130" priority="1229">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1129" priority="1230">
+    <cfRule type="expression" dxfId="1122" priority="1229">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1121" priority="1230">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F294:F296">
-    <cfRule type="expression" dxfId="1128" priority="1226">
+    <cfRule type="expression" dxfId="1120" priority="1226">
       <formula>NOT(VLOOKUP(F294,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1127" priority="1227">
+    <cfRule type="expression" dxfId="1119" priority="1227">
       <formula>(VLOOKUP(F294,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F294:F296">
-    <cfRule type="expression" dxfId="1126" priority="1223">
+    <cfRule type="expression" dxfId="1118" priority="1223">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1125" priority="1224">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1124" priority="1225">
+    <cfRule type="expression" dxfId="1117" priority="1224">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1116" priority="1225">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F294:F296">
-    <cfRule type="expression" dxfId="1123" priority="1220">
+    <cfRule type="expression" dxfId="1115" priority="1220">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1122" priority="1221">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1121" priority="1222">
+    <cfRule type="expression" dxfId="1114" priority="1221">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1113" priority="1222">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F299:F300">
-    <cfRule type="expression" dxfId="1120" priority="1218">
+    <cfRule type="expression" dxfId="1112" priority="1218">
       <formula>NOT(VLOOKUP(F299,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1119" priority="1219">
+    <cfRule type="expression" dxfId="1111" priority="1219">
       <formula>(VLOOKUP(F299,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F299:F300">
-    <cfRule type="expression" dxfId="1118" priority="1215">
+    <cfRule type="expression" dxfId="1110" priority="1215">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1117" priority="1216">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1116" priority="1217">
+    <cfRule type="expression" dxfId="1109" priority="1216">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1108" priority="1217">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F299:F300">
-    <cfRule type="expression" dxfId="1115" priority="1212">
+    <cfRule type="expression" dxfId="1107" priority="1212">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1114" priority="1213">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1113" priority="1214">
+    <cfRule type="expression" dxfId="1106" priority="1213">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1105" priority="1214">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F291:F292">
-    <cfRule type="expression" dxfId="1112" priority="1210">
+    <cfRule type="expression" dxfId="1104" priority="1210">
       <formula>NOT(VLOOKUP(F291,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1111" priority="1211">
+    <cfRule type="expression" dxfId="1103" priority="1211">
       <formula>(VLOOKUP(F291,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F291:F292">
-    <cfRule type="expression" dxfId="1110" priority="1207">
+    <cfRule type="expression" dxfId="1102" priority="1207">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1109" priority="1208">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1108" priority="1209">
+    <cfRule type="expression" dxfId="1101" priority="1208">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1100" priority="1209">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F291:F292">
-    <cfRule type="expression" dxfId="1107" priority="1204">
+    <cfRule type="expression" dxfId="1099" priority="1204">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1106" priority="1205">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1105" priority="1206">
+    <cfRule type="expression" dxfId="1098" priority="1205">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1097" priority="1206">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F320:F325">
-    <cfRule type="expression" dxfId="1104" priority="1191">
+    <cfRule type="expression" dxfId="1096" priority="1191">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1103" priority="1192">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1102" priority="1193">
+    <cfRule type="expression" dxfId="1095" priority="1192">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1094" priority="1193">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F320:F325">
-    <cfRule type="expression" dxfId="1101" priority="1188">
+    <cfRule type="expression" dxfId="1093" priority="1188">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1100" priority="1189">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1099" priority="1190">
+    <cfRule type="expression" dxfId="1092" priority="1189">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1091" priority="1190">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F326:F329">
-    <cfRule type="expression" dxfId="1098" priority="1186">
+    <cfRule type="expression" dxfId="1090" priority="1186">
       <formula>NOT(VLOOKUP(F326,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1097" priority="1187">
+    <cfRule type="expression" dxfId="1089" priority="1187">
       <formula>(VLOOKUP(F326,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F326:F329">
-    <cfRule type="expression" dxfId="1096" priority="1183">
+    <cfRule type="expression" dxfId="1088" priority="1183">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1095" priority="1184">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1094" priority="1185">
+    <cfRule type="expression" dxfId="1087" priority="1184">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1086" priority="1185">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F326:F329">
-    <cfRule type="expression" dxfId="1093" priority="1180">
+    <cfRule type="expression" dxfId="1085" priority="1180">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1092" priority="1181">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1091" priority="1182">
+    <cfRule type="expression" dxfId="1084" priority="1181">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1083" priority="1182">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F332">
-    <cfRule type="expression" dxfId="1090" priority="1178">
+    <cfRule type="expression" dxfId="1082" priority="1178">
       <formula>NOT(VLOOKUP(F332,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1089" priority="1179">
+    <cfRule type="expression" dxfId="1081" priority="1179">
       <formula>(VLOOKUP(F332,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F332">
-    <cfRule type="expression" dxfId="1088" priority="1175">
+    <cfRule type="expression" dxfId="1080" priority="1175">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1087" priority="1176">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1086" priority="1177">
+    <cfRule type="expression" dxfId="1079" priority="1176">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1078" priority="1177">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F332">
-    <cfRule type="expression" dxfId="1085" priority="1172">
+    <cfRule type="expression" dxfId="1077" priority="1172">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1084" priority="1173">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1083" priority="1174">
+    <cfRule type="expression" dxfId="1076" priority="1173">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1075" priority="1174">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F333:F334">
-    <cfRule type="expression" dxfId="1082" priority="1170">
+    <cfRule type="expression" dxfId="1074" priority="1170">
       <formula>NOT(VLOOKUP(F333,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1081" priority="1171">
+    <cfRule type="expression" dxfId="1073" priority="1171">
       <formula>(VLOOKUP(F333,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F333:F334">
-    <cfRule type="expression" dxfId="1080" priority="1167">
+    <cfRule type="expression" dxfId="1072" priority="1167">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1079" priority="1168">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1078" priority="1169">
+    <cfRule type="expression" dxfId="1071" priority="1168">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1070" priority="1169">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F333:F334">
-    <cfRule type="expression" dxfId="1077" priority="1164">
+    <cfRule type="expression" dxfId="1069" priority="1164">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1076" priority="1165">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1075" priority="1166">
+    <cfRule type="expression" dxfId="1068" priority="1165">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1067" priority="1166">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F335:F344">
-    <cfRule type="expression" dxfId="1074" priority="1162">
+    <cfRule type="expression" dxfId="1066" priority="1162">
       <formula>NOT(VLOOKUP(F335,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1073" priority="1163">
+    <cfRule type="expression" dxfId="1065" priority="1163">
       <formula>(VLOOKUP(F335,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F335:F344">
-    <cfRule type="expression" dxfId="1072" priority="1159">
+    <cfRule type="expression" dxfId="1064" priority="1159">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1071" priority="1160">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1070" priority="1161">
+    <cfRule type="expression" dxfId="1063" priority="1160">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1062" priority="1161">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F335:F344">
-    <cfRule type="expression" dxfId="1069" priority="1156">
+    <cfRule type="expression" dxfId="1061" priority="1156">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1068" priority="1157">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1067" priority="1158">
+    <cfRule type="expression" dxfId="1060" priority="1157">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1059" priority="1158">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F347">
-    <cfRule type="expression" dxfId="1066" priority="1154">
+    <cfRule type="expression" dxfId="1058" priority="1154">
       <formula>NOT(VLOOKUP(F347,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1065" priority="1155">
+    <cfRule type="expression" dxfId="1057" priority="1155">
       <formula>(VLOOKUP(F347,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F347 F345">
-    <cfRule type="expression" dxfId="1064" priority="1151">
+    <cfRule type="expression" dxfId="1056" priority="1151">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1063" priority="1152">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1062" priority="1153">
+    <cfRule type="expression" dxfId="1055" priority="1152">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1054" priority="1153">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F347 F345">
-    <cfRule type="expression" dxfId="1061" priority="1148">
+    <cfRule type="expression" dxfId="1053" priority="1148">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1060" priority="1149">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1059" priority="1150">
+    <cfRule type="expression" dxfId="1052" priority="1149">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1051" priority="1150">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F346">
-    <cfRule type="expression" dxfId="1058" priority="1146">
+    <cfRule type="expression" dxfId="1050" priority="1146">
       <formula>NOT(VLOOKUP(F346,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1057" priority="1147">
+    <cfRule type="expression" dxfId="1049" priority="1147">
       <formula>(VLOOKUP(F346,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F346">
-    <cfRule type="expression" dxfId="1056" priority="1143">
+    <cfRule type="expression" dxfId="1048" priority="1143">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1055" priority="1144">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1054" priority="1145">
+    <cfRule type="expression" dxfId="1047" priority="1144">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1046" priority="1145">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F346">
-    <cfRule type="expression" dxfId="1053" priority="1140">
+    <cfRule type="expression" dxfId="1045" priority="1140">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1052" priority="1141">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1051" priority="1142">
+    <cfRule type="expression" dxfId="1044" priority="1141">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1043" priority="1142">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F374">
-    <cfRule type="expression" dxfId="1050" priority="1138">
+    <cfRule type="expression" dxfId="1042" priority="1138">
       <formula>NOT(VLOOKUP(F374,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1049" priority="1139">
+    <cfRule type="expression" dxfId="1041" priority="1139">
       <formula>(VLOOKUP(F374,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F374 F362:F371">
-    <cfRule type="expression" dxfId="1048" priority="1135">
+    <cfRule type="expression" dxfId="1040" priority="1135">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1047" priority="1136">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1046" priority="1137">
+    <cfRule type="expression" dxfId="1039" priority="1136">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1038" priority="1137">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F374 F362:F371">
-    <cfRule type="expression" dxfId="1045" priority="1132">
+    <cfRule type="expression" dxfId="1037" priority="1132">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1044" priority="1133">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1043" priority="1134">
+    <cfRule type="expression" dxfId="1036" priority="1133">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1035" priority="1134">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F375:F383">
-    <cfRule type="expression" dxfId="1042" priority="1122">
+    <cfRule type="expression" dxfId="1034" priority="1122">
       <formula>NOT(VLOOKUP(F375,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1041" priority="1123">
+    <cfRule type="expression" dxfId="1033" priority="1123">
       <formula>(VLOOKUP(F375,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F375:F383 F385:F386 F388:F389 F391:F392 F394:F395 F397:F398 F400">
-    <cfRule type="expression" dxfId="1040" priority="1119">
+    <cfRule type="expression" dxfId="1032" priority="1119">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1039" priority="1120">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1038" priority="1121">
+    <cfRule type="expression" dxfId="1031" priority="1120">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1030" priority="1121">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F375:F383 F385:F386 F388:F389 F391:F392 F394:F395 F397:F398 F400">
-    <cfRule type="expression" dxfId="1037" priority="1116">
+    <cfRule type="expression" dxfId="1029" priority="1116">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1036" priority="1117">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1035" priority="1118">
+    <cfRule type="expression" dxfId="1028" priority="1117">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1027" priority="1118">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F406:F408">
-    <cfRule type="expression" dxfId="1034" priority="1114">
+    <cfRule type="expression" dxfId="1026" priority="1114">
       <formula>NOT(VLOOKUP(F406,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1033" priority="1115">
+    <cfRule type="expression" dxfId="1025" priority="1115">
       <formula>(VLOOKUP(F406,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F406:F408">
-    <cfRule type="expression" dxfId="1032" priority="1111">
+    <cfRule type="expression" dxfId="1024" priority="1111">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1031" priority="1112">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1030" priority="1113">
+    <cfRule type="expression" dxfId="1023" priority="1112">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1022" priority="1113">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F406:F408">
-    <cfRule type="expression" dxfId="1029" priority="1108">
+    <cfRule type="expression" dxfId="1021" priority="1108">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1028" priority="1109">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1027" priority="1110">
+    <cfRule type="expression" dxfId="1020" priority="1109">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1019" priority="1110">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F409:F412">
-    <cfRule type="expression" dxfId="1026" priority="1106">
+    <cfRule type="expression" dxfId="1018" priority="1106">
       <formula>NOT(VLOOKUP(F409,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1025" priority="1107">
+    <cfRule type="expression" dxfId="1017" priority="1107">
       <formula>(VLOOKUP(F409,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F409:F412 F405">
-    <cfRule type="expression" dxfId="1024" priority="1103">
+    <cfRule type="expression" dxfId="1016" priority="1103">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1023" priority="1104">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1022" priority="1105">
+    <cfRule type="expression" dxfId="1015" priority="1104">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1014" priority="1105">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F409:F412 F405">
-    <cfRule type="expression" dxfId="1021" priority="1100">
+    <cfRule type="expression" dxfId="1013" priority="1100">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1020" priority="1101">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1019" priority="1102">
+    <cfRule type="expression" dxfId="1012" priority="1101">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1011" priority="1102">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F419:F446">
-    <cfRule type="expression" dxfId="1018" priority="1098">
+    <cfRule type="expression" dxfId="1010" priority="1098">
       <formula>NOT(VLOOKUP(F419,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1017" priority="1099">
+    <cfRule type="expression" dxfId="1009" priority="1099">
       <formula>(VLOOKUP(F419,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F419:F446">
-    <cfRule type="expression" dxfId="1016" priority="1095">
+    <cfRule type="expression" dxfId="1008" priority="1095">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1015" priority="1096">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1014" priority="1097">
+    <cfRule type="expression" dxfId="1007" priority="1096">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1006" priority="1097">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F419:F446">
-    <cfRule type="expression" dxfId="1013" priority="1092">
+    <cfRule type="expression" dxfId="1005" priority="1092">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1012" priority="1093">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1011" priority="1094">
+    <cfRule type="expression" dxfId="1004" priority="1093">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1003" priority="1094">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F415:F418">
-    <cfRule type="expression" dxfId="1010" priority="1090">
+    <cfRule type="expression" dxfId="1002" priority="1090">
       <formula>NOT(VLOOKUP(F415,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1009" priority="1091">
+    <cfRule type="expression" dxfId="1001" priority="1091">
       <formula>(VLOOKUP(F415,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F415:F418">
-    <cfRule type="expression" dxfId="1008" priority="1087">
+    <cfRule type="expression" dxfId="1000" priority="1087">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1007" priority="1088">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1006" priority="1089">
+    <cfRule type="expression" dxfId="999" priority="1088">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="998" priority="1089">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F415:F418">
-    <cfRule type="expression" dxfId="1005" priority="1084">
+    <cfRule type="expression" dxfId="997" priority="1084">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1004" priority="1085">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1003" priority="1086">
+    <cfRule type="expression" dxfId="996" priority="1085">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="995" priority="1086">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F454:F455">
-    <cfRule type="expression" dxfId="1002" priority="1082">
+    <cfRule type="expression" dxfId="994" priority="1082">
       <formula>NOT(VLOOKUP(F454,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1001" priority="1083">
+    <cfRule type="expression" dxfId="993" priority="1083">
       <formula>(VLOOKUP(F454,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F454:F455 F447 F469:F471">
-    <cfRule type="expression" dxfId="1000" priority="1079">
+  <conditionalFormatting sqref="F454:F455 F447 F468:F470">
+    <cfRule type="expression" dxfId="992" priority="1079">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="999" priority="1080">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="998" priority="1081">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F454:F455 F447 F469:F471">
-    <cfRule type="expression" dxfId="997" priority="1076">
+    <cfRule type="expression" dxfId="991" priority="1080">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="990" priority="1081">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F454:F455 F447 F468:F470">
+    <cfRule type="expression" dxfId="989" priority="1076">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="996" priority="1077">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="995" priority="1078">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F462:F468">
-    <cfRule type="expression" dxfId="994" priority="1074">
-      <formula>NOT(VLOOKUP(F462,$A$12:$C$15,2,FALSE)="In")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="993" priority="1075">
-      <formula>(VLOOKUP(F462,$A$12:$C$15,2,FALSE)="In")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F462:F468">
-    <cfRule type="expression" dxfId="992" priority="1071">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="991" priority="1072">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="990" priority="1073">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F462:F468">
-    <cfRule type="expression" dxfId="989" priority="1068">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="988" priority="1069">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="987" priority="1070">
+    <cfRule type="expression" dxfId="988" priority="1077">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="987" priority="1078">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27797,15 +27685,15 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F472:F474">
+  <conditionalFormatting sqref="F471:F473">
     <cfRule type="expression" dxfId="978" priority="1058">
-      <formula>NOT(VLOOKUP(F472,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F471,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="977" priority="1059">
-      <formula>(VLOOKUP(F472,$A$12:$C$15,2,FALSE)="In")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F472:F474">
+      <formula>(VLOOKUP(F471,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F471:F473">
     <cfRule type="expression" dxfId="976" priority="1055">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -27816,7 +27704,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F472:F474">
+  <conditionalFormatting sqref="F471:F473">
     <cfRule type="expression" dxfId="973" priority="1052">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -27827,15 +27715,15 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F475">
+  <conditionalFormatting sqref="F474">
     <cfRule type="expression" dxfId="970" priority="1050">
-      <formula>NOT(VLOOKUP(F475,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F474,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="969" priority="1051">
-      <formula>(VLOOKUP(F475,$A$12:$C$15,2,FALSE)="In")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F475">
+      <formula>(VLOOKUP(F474,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F474">
     <cfRule type="expression" dxfId="968" priority="1047">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -27846,7 +27734,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F475">
+  <conditionalFormatting sqref="F474">
     <cfRule type="expression" dxfId="965" priority="1044">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -27857,15 +27745,15 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F481">
+  <conditionalFormatting sqref="F480">
     <cfRule type="expression" dxfId="962" priority="1042">
-      <formula>NOT(VLOOKUP(F481,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F480,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="961" priority="1043">
-      <formula>(VLOOKUP(F481,$A$12:$C$15,2,FALSE)="In")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F481">
+      <formula>(VLOOKUP(F480,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F480">
     <cfRule type="expression" dxfId="960" priority="1039">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -27876,7 +27764,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F481">
+  <conditionalFormatting sqref="F480">
     <cfRule type="expression" dxfId="957" priority="1036">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -27887,15 +27775,15 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F482:F484">
+  <conditionalFormatting sqref="F481:F483">
     <cfRule type="expression" dxfId="954" priority="1034">
-      <formula>NOT(VLOOKUP(F482,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F481,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="953" priority="1035">
-      <formula>(VLOOKUP(F482,$A$12:$C$15,2,FALSE)="In")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F482:F484">
+      <formula>(VLOOKUP(F481,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F481:F483">
     <cfRule type="expression" dxfId="952" priority="1031">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -27906,7 +27794,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F482:F484">
+  <conditionalFormatting sqref="F481:F483">
     <cfRule type="expression" dxfId="949" priority="1028">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -27917,15 +27805,15 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F485">
+  <conditionalFormatting sqref="F484">
     <cfRule type="expression" dxfId="946" priority="1026">
-      <formula>NOT(VLOOKUP(F485,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F484,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="945" priority="1027">
-      <formula>(VLOOKUP(F485,$A$12:$C$15,2,FALSE)="In")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F485">
+      <formula>(VLOOKUP(F484,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F484">
     <cfRule type="expression" dxfId="944" priority="1023">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -27936,7 +27824,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F485">
+  <conditionalFormatting sqref="F484">
     <cfRule type="expression" dxfId="941" priority="1020">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -29311,7 +29199,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G468:G475 G480:G485 G460 G462:G463">
+  <conditionalFormatting sqref="G467:G474 G479:G484 G460 G462:G463">
     <cfRule type="expression" dxfId="566" priority="609">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -29322,7 +29210,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G468:G475 G480:G485 G460 G462:G463">
+  <conditionalFormatting sqref="G467:G474 G479:G484 G460 G462:G463">
     <cfRule type="expression" dxfId="563" priority="606">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -29333,7 +29221,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H468:H475 H480:H485 H460 H462:H463 H491">
+  <conditionalFormatting sqref="H467:H474 H479:H484 H460 H462:H463 H490">
     <cfRule type="expression" dxfId="560" priority="603">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -29522,7 +29410,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I466">
+  <conditionalFormatting sqref="I465">
     <cfRule type="expression" dxfId="509" priority="507">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -29555,7 +29443,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G464:G465">
+  <conditionalFormatting sqref="G464">
     <cfRule type="expression" dxfId="500" priority="534">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -29566,7 +29454,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G464:G465">
+  <conditionalFormatting sqref="G464">
     <cfRule type="expression" dxfId="497" priority="531">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -29577,7 +29465,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H464:H465">
+  <conditionalFormatting sqref="H464">
     <cfRule type="expression" dxfId="494" priority="528">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -29610,7 +29498,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G466:G467">
+  <conditionalFormatting sqref="G465:G466">
     <cfRule type="expression" dxfId="485" priority="519">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -29621,7 +29509,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G466:G467">
+  <conditionalFormatting sqref="G465:G466">
     <cfRule type="expression" dxfId="482" priority="516">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -29632,7 +29520,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H466:H467">
+  <conditionalFormatting sqref="H465:H466">
     <cfRule type="expression" dxfId="479" priority="513">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -29643,7 +29531,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I466">
+  <conditionalFormatting sqref="I465">
     <cfRule type="expression" dxfId="476" priority="510">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -29654,7 +29542,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I478">
+  <conditionalFormatting sqref="I477">
     <cfRule type="expression" dxfId="473" priority="477">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -29665,7 +29553,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G476">
+  <conditionalFormatting sqref="G475">
     <cfRule type="expression" dxfId="470" priority="504">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -29676,7 +29564,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G476">
+  <conditionalFormatting sqref="G475">
     <cfRule type="expression" dxfId="467" priority="501">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -29687,7 +29575,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H476">
+  <conditionalFormatting sqref="H475">
     <cfRule type="expression" dxfId="464" priority="498">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -29698,7 +29586,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I476">
+  <conditionalFormatting sqref="I475">
     <cfRule type="expression" dxfId="461" priority="495">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -29709,7 +29597,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I476">
+  <conditionalFormatting sqref="I475">
     <cfRule type="expression" dxfId="458" priority="492">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -29720,7 +29608,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G478:G479">
+  <conditionalFormatting sqref="G477:G478">
     <cfRule type="expression" dxfId="455" priority="489">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -29731,7 +29619,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G478:G479">
+  <conditionalFormatting sqref="G477:G478">
     <cfRule type="expression" dxfId="452" priority="486">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -29742,7 +29630,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H478:H479">
+  <conditionalFormatting sqref="H477:H478">
     <cfRule type="expression" dxfId="449" priority="483">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -29753,7 +29641,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I478">
+  <conditionalFormatting sqref="I477">
     <cfRule type="expression" dxfId="446" priority="480">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -30770,15 +30658,15 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F477">
+  <conditionalFormatting sqref="F476">
     <cfRule type="expression" dxfId="171" priority="197">
-      <formula>NOT(VLOOKUP(F477,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F476,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="170" priority="198">
-      <formula>(VLOOKUP(F477,$A$12:$C$15,2,FALSE)="In")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B477 F477">
+      <formula>(VLOOKUP(F476,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B476 F476">
     <cfRule type="expression" dxfId="169" priority="194">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -30789,7 +30677,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B477 F477">
+  <conditionalFormatting sqref="B476 F476">
     <cfRule type="expression" dxfId="166" priority="191">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -30800,7 +30688,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G477">
+  <conditionalFormatting sqref="G476">
     <cfRule type="expression" dxfId="163" priority="188">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -30811,7 +30699,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G477">
+  <conditionalFormatting sqref="G476">
     <cfRule type="expression" dxfId="160" priority="185">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -30822,7 +30710,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H477">
+  <conditionalFormatting sqref="H476">
     <cfRule type="expression" dxfId="157" priority="182">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -30833,7 +30721,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B486:B490">
+  <conditionalFormatting sqref="B485:B489">
     <cfRule type="expression" dxfId="154" priority="173">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -30844,7 +30732,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B486:B490">
+  <conditionalFormatting sqref="B485:B489">
     <cfRule type="expression" dxfId="151" priority="170">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -30855,7 +30743,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E486:E494">
+  <conditionalFormatting sqref="E485:E493">
     <cfRule type="expression" dxfId="148" priority="167">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -30866,7 +30754,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E486:E494">
+  <conditionalFormatting sqref="E485:E493">
     <cfRule type="expression" dxfId="145" priority="164">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -30877,15 +30765,15 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F486:F494">
+  <conditionalFormatting sqref="F485:F493">
     <cfRule type="expression" dxfId="142" priority="162">
-      <formula>NOT(VLOOKUP(F486,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F485,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="141" priority="163">
-      <formula>(VLOOKUP(F486,$A$12:$C$15,2,FALSE)="In")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F486:F494">
+      <formula>(VLOOKUP(F485,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F485:F493">
     <cfRule type="expression" dxfId="140" priority="159">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -30896,7 +30784,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F486:F494">
+  <conditionalFormatting sqref="F485:F493">
     <cfRule type="expression" dxfId="137" priority="156">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -30907,7 +30795,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G486:G494">
+  <conditionalFormatting sqref="G485:G493">
     <cfRule type="expression" dxfId="134" priority="153">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -30918,7 +30806,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G486:G494">
+  <conditionalFormatting sqref="G485:G493">
     <cfRule type="expression" dxfId="131" priority="150">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -30929,7 +30817,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H486:H490">
+  <conditionalFormatting sqref="H485:H489">
     <cfRule type="expression" dxfId="128" priority="147">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -31204,7 +31092,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D464:D465">
+  <conditionalFormatting sqref="D464">
     <cfRule type="expression" dxfId="53" priority="72">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -31215,7 +31103,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D464:D465">
+  <conditionalFormatting sqref="D464">
     <cfRule type="expression" dxfId="50" priority="69">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -31226,7 +31114,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D466:D467">
+  <conditionalFormatting sqref="D465:D466">
     <cfRule type="expression" dxfId="47" priority="66">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -31237,7 +31125,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D466:D467">
+  <conditionalFormatting sqref="D465:D466">
     <cfRule type="expression" dxfId="44" priority="63">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -31248,7 +31136,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D468">
+  <conditionalFormatting sqref="D467">
     <cfRule type="expression" dxfId="41" priority="60">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -31259,7 +31147,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D468">
+  <conditionalFormatting sqref="D467">
     <cfRule type="expression" dxfId="38" priority="57">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -31336,7 +31224,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B467">
+  <conditionalFormatting sqref="B466">
     <cfRule type="expression" dxfId="17" priority="13">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -31347,7 +31235,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B467">
+  <conditionalFormatting sqref="B466">
     <cfRule type="expression" dxfId="14" priority="16">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -31358,7 +31246,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B479">
+  <conditionalFormatting sqref="B478">
     <cfRule type="expression" dxfId="11" priority="10">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -31369,7 +31257,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B479">
+  <conditionalFormatting sqref="B478">
     <cfRule type="expression" dxfId="8" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -31403,20 +31291,20 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 F20:F496">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 F20:F495">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 E20:E496">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 E20:E495">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 G20:G496">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 G20:G495">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
       <formula1>"In, Out"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H496">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H495">
       <formula1>"Non-testable, Unverified, Adapter, Test Case, Deleted"</formula1>
     </dataValidation>
   </dataValidations>
@@ -31426,7 +31314,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B19:B40 B42:B46 B495:B496 B50:B173 B447:B454 B466:B486 B491:B492 B456:B464 B174:B419" numberStoredAsText="1"/>
+    <ignoredError sqref="B19:B40 B42:B46 B494:B495 B50:B173 B447:B454 B465:B485 B490:B491 B456:B464 B174:B419" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -31445,12 +31333,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -31499,6 +31381,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
@@ -31508,20 +31396,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31534,4 +31408,18 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SharePoint/Docs/MS-SITESS/MS-SITESS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-SITESS/MS-SITESS_RequirementSpecification.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="120" windowWidth="15405" windowHeight="6840" tabRatio="570"/>
@@ -10,7 +10,7 @@
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$495</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$497</definedName>
     <definedName name="ExtensionList">Requirements!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Requirements!$A:$A,Requirements!$19:$19</definedName>
     <definedName name="ScopeList">Requirements!#REF!</definedName>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3444" uniqueCount="1142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3458" uniqueCount="1148">
   <si>
     <t>Req ID</t>
   </si>
@@ -3245,7 +3245,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3255,7 +3255,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3267,7 +3267,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3277,7 +3277,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3289,7 +3289,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3299,7 +3299,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3406,7 +3406,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3418,7 +3418,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3428,7 +3428,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3440,7 +3440,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3450,7 +3450,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3462,7 +3462,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3472,7 +3472,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3484,7 +3484,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3501,7 +3501,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3511,7 +3511,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3869,7 +3869,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4242,19 +4242,43 @@
     <t>3.0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Test Case</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unverified</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-SITESS_R32602701</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-SITESS_R32602702</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[InArrayOfBoolean]  boolean: [True] Indicates a URL is a valid script safe URL for the current site.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[InArrayOfBoolean]  boolean: [False] Indicates a URL is not a valid script safe URL for the current site.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4281,7 +4305,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4289,19 +4313,19 @@
       <b/>
       <sz val="16"/>
       <color theme="3" tint="0.39997558519241921"/>
-      <name val="Cambria"/>
+      <name val="宋体"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4309,7 +4333,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4646,7 +4670,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -4667,33 +4691,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4757,6 +4760,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12939,8 +12963,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I495" tableType="xml" totalsRowShown="0">
-  <autoFilter ref="A19:I495"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I497" tableType="xml" totalsRowShown="0">
+  <autoFilter ref="A19:I497"/>
   <tableColumns count="9">
     <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="1507">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
@@ -13308,13 +13332,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M495"/>
+  <dimension ref="A1:M497"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H253" sqref="H253"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
@@ -13329,7 +13351,7 @@
     <col min="11" max="12" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="40" t="s">
         <v>900</v>
       </c>
@@ -13345,7 +13367,7 @@
       <c r="I1" s="43"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="44" t="s">
         <v>901</v>
       </c>
@@ -13359,7 +13381,7 @@
       <c r="I2" s="43"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="49"/>
       <c r="B3" s="48" t="s">
         <v>28</v>
@@ -13378,137 +13400,137 @@
       <c r="I3" s="43"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="20.25">
-      <c r="A4" s="59" t="s">
+    <row r="4" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="60"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="81"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="63"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="84"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="85" t="s">
         <v>912</v>
       </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
       <c r="J6" s="47"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="86" t="s">
         <v>913</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
       <c r="J8" s="47"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="75.75" customHeight="1">
+    <row r="9" spans="1:11" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="65" t="s">
         <v>919</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="74"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="67"/>
       <c r="J9" s="47"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="62.25" customHeight="1">
+    <row r="10" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="68" t="s">
         <v>920</v>
       </c>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="77"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="70"/>
       <c r="J10" s="47"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="64" t="s">
         <v>914</v>
       </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="30" t="s">
         <v>9</v>
       </c>
@@ -13518,16 +13540,16 @@
       <c r="C12" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="78"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="80"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="73"/>
       <c r="J12" s="47"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="26.25" customHeight="1">
+    <row r="13" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="32" t="s">
         <v>7</v>
       </c>
@@ -13537,15 +13559,15 @@
       <c r="C13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="81"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="83"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="76"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="33" t="s">
         <v>8</v>
       </c>
@@ -13555,16 +13577,16 @@
       <c r="C14" s="9" t="s">
         <v>916</v>
       </c>
-      <c r="D14" s="81"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="83"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="76"/>
       <c r="J14" s="47"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="34" t="s">
         <v>4</v>
       </c>
@@ -13574,66 +13596,66 @@
       <c r="C15" s="9" t="s">
         <v>917</v>
       </c>
-      <c r="D15" s="84"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="86"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="79"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="30" customHeight="1">
+    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="59" t="s">
         <v>921</v>
       </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
       <c r="J16" s="47"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:13" ht="69" customHeight="1">
+    <row r="17" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="61" t="s">
         <v>922</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="70"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="63"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:13" ht="30" customHeight="1">
+    <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="64" t="s">
         <v>918</v>
       </c>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
       <c r="J18" s="47"/>
       <c r="K18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" ht="30">
+    <row r="19" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -13662,7 +13684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>30</v>
       </c>
@@ -13687,7 +13709,7 @@
       </c>
       <c r="I20" s="16"/>
     </row>
-    <row r="21" spans="1:13" ht="30">
+    <row r="21" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -13714,7 +13736,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="45">
+    <row r="22" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -13743,7 +13765,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="30">
+    <row r="23" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -13768,7 +13790,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:13" ht="45">
+    <row r="24" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>38</v>
       </c>
@@ -13793,7 +13815,7 @@
       </c>
       <c r="I24" s="16"/>
     </row>
-    <row r="25" spans="1:13" ht="30">
+    <row r="25" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>40</v>
       </c>
@@ -13820,7 +13842,7 @@
       </c>
       <c r="I25" s="16"/>
     </row>
-    <row r="26" spans="1:13" ht="30">
+    <row r="26" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>43</v>
       </c>
@@ -13847,7 +13869,7 @@
       </c>
       <c r="I26" s="16"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>45</v>
       </c>
@@ -13872,7 +13894,7 @@
       </c>
       <c r="I27" s="16"/>
     </row>
-    <row r="28" spans="1:13" ht="30">
+    <row r="28" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>48</v>
       </c>
@@ -13897,7 +13919,7 @@
       </c>
       <c r="I28" s="16"/>
     </row>
-    <row r="29" spans="1:13" ht="30">
+    <row r="29" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
         <v>50</v>
       </c>
@@ -13922,7 +13944,7 @@
       </c>
       <c r="I29" s="16"/>
     </row>
-    <row r="30" spans="1:13" ht="45">
+    <row r="30" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
         <v>53</v>
       </c>
@@ -13947,7 +13969,7 @@
       </c>
       <c r="I30" s="16"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
         <v>55</v>
       </c>
@@ -13972,7 +13994,7 @@
       </c>
       <c r="I31" s="16"/>
     </row>
-    <row r="32" spans="1:13" ht="30">
+    <row r="32" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
         <v>57</v>
       </c>
@@ -13997,7 +14019,7 @@
       </c>
       <c r="I32" s="16"/>
     </row>
-    <row r="33" spans="1:9" ht="30">
+    <row r="33" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
         <v>59</v>
       </c>
@@ -14022,7 +14044,7 @@
       </c>
       <c r="I33" s="16"/>
     </row>
-    <row r="34" spans="1:9" ht="30">
+    <row r="34" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
         <v>61</v>
       </c>
@@ -14047,7 +14069,7 @@
       </c>
       <c r="I34" s="16"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>63</v>
       </c>
@@ -14072,7 +14094,7 @@
       </c>
       <c r="I35" s="16"/>
     </row>
-    <row r="36" spans="1:9" ht="30">
+    <row r="36" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
         <v>65</v>
       </c>
@@ -14097,7 +14119,7 @@
       </c>
       <c r="I36" s="16"/>
     </row>
-    <row r="37" spans="1:9" ht="30">
+    <row r="37" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
         <v>67</v>
       </c>
@@ -14122,7 +14144,7 @@
       </c>
       <c r="I37" s="16"/>
     </row>
-    <row r="38" spans="1:9" ht="30">
+    <row r="38" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
         <v>68</v>
       </c>
@@ -14147,7 +14169,7 @@
       </c>
       <c r="I38" s="16"/>
     </row>
-    <row r="39" spans="1:9" ht="30">
+    <row r="39" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="7" t="s">
         <v>70</v>
       </c>
@@ -14172,7 +14194,7 @@
       </c>
       <c r="I39" s="16"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
         <v>72</v>
       </c>
@@ -14197,7 +14219,7 @@
       </c>
       <c r="I40" s="16"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
         <v>1003</v>
       </c>
@@ -14222,7 +14244,7 @@
       </c>
       <c r="I41" s="54"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
         <v>73</v>
       </c>
@@ -14247,7 +14269,7 @@
       </c>
       <c r="I42" s="16"/>
     </row>
-    <row r="43" spans="1:9" ht="150">
+    <row r="43" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
         <v>76</v>
       </c>
@@ -14272,7 +14294,7 @@
       </c>
       <c r="I43" s="16"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="7" t="s">
         <v>78</v>
       </c>
@@ -14297,7 +14319,7 @@
       </c>
       <c r="I44" s="16"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="7" t="s">
         <v>80</v>
       </c>
@@ -14322,7 +14344,7 @@
       </c>
       <c r="I45" s="16"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
         <v>82</v>
       </c>
@@ -14347,7 +14369,7 @@
       </c>
       <c r="I46" s="16"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
         <v>1008</v>
       </c>
@@ -14372,7 +14394,7 @@
       </c>
       <c r="I47" s="54"/>
     </row>
-    <row r="48" spans="1:9" ht="105">
+    <row r="48" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A48" s="7" t="s">
         <v>1009</v>
       </c>
@@ -14397,7 +14419,7 @@
       </c>
       <c r="I48" s="54"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="7" t="s">
         <v>1010</v>
       </c>
@@ -14418,11 +14440,11 @@
         <v>16</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>23</v>
+        <v>1142</v>
       </c>
       <c r="I49" s="54"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A50" s="7" t="s">
         <v>84</v>
       </c>
@@ -14447,7 +14469,7 @@
       </c>
       <c r="I50" s="16"/>
     </row>
-    <row r="51" spans="1:9" ht="30">
+    <row r="51" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" s="7" t="s">
         <v>86</v>
       </c>
@@ -14472,7 +14494,7 @@
       </c>
       <c r="I51" s="16"/>
     </row>
-    <row r="52" spans="1:9" ht="45">
+    <row r="52" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A52" s="7" t="s">
         <v>88</v>
       </c>
@@ -14497,7 +14519,7 @@
       </c>
       <c r="I52" s="16"/>
     </row>
-    <row r="53" spans="1:9" ht="30">
+    <row r="53" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="7" t="s">
         <v>90</v>
       </c>
@@ -14522,7 +14544,7 @@
       </c>
       <c r="I53" s="16"/>
     </row>
-    <row r="54" spans="1:9" ht="30">
+    <row r="54" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="7" t="s">
         <v>92</v>
       </c>
@@ -14547,7 +14569,7 @@
       </c>
       <c r="I54" s="16"/>
     </row>
-    <row r="55" spans="1:9" ht="60">
+    <row r="55" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A55" s="7" t="s">
         <v>94</v>
       </c>
@@ -14572,7 +14594,7 @@
       </c>
       <c r="I55" s="16"/>
     </row>
-    <row r="56" spans="1:9" ht="30">
+    <row r="56" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A56" s="7" t="s">
         <v>96</v>
       </c>
@@ -14597,7 +14619,7 @@
       </c>
       <c r="I56" s="16"/>
     </row>
-    <row r="57" spans="1:9" ht="45">
+    <row r="57" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A57" s="7" t="s">
         <v>98</v>
       </c>
@@ -14622,7 +14644,7 @@
       </c>
       <c r="I57" s="16"/>
     </row>
-    <row r="58" spans="1:9" ht="75">
+    <row r="58" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A58" s="7" t="s">
         <v>101</v>
       </c>
@@ -14647,7 +14669,7 @@
       </c>
       <c r="I58" s="16"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="7" t="s">
         <v>104</v>
       </c>
@@ -14672,7 +14694,7 @@
       </c>
       <c r="I59" s="16"/>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="7" t="s">
         <v>106</v>
       </c>
@@ -14697,7 +14719,7 @@
       </c>
       <c r="I60" s="16"/>
     </row>
-    <row r="61" spans="1:9" ht="30">
+    <row r="61" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="7" t="s">
         <v>108</v>
       </c>
@@ -14722,7 +14744,7 @@
       </c>
       <c r="I61" s="16"/>
     </row>
-    <row r="62" spans="1:9" ht="30">
+    <row r="62" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A62" s="7" t="s">
         <v>110</v>
       </c>
@@ -14747,7 +14769,7 @@
       </c>
       <c r="I62" s="16"/>
     </row>
-    <row r="63" spans="1:9" ht="30">
+    <row r="63" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="7" t="s">
         <v>111</v>
       </c>
@@ -14772,7 +14794,7 @@
       </c>
       <c r="I63" s="16"/>
     </row>
-    <row r="64" spans="1:9" ht="30">
+    <row r="64" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="7" t="s">
         <v>113</v>
       </c>
@@ -14797,7 +14819,7 @@
       </c>
       <c r="I64" s="16"/>
     </row>
-    <row r="65" spans="1:9" ht="30">
+    <row r="65" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="7" t="s">
         <v>115</v>
       </c>
@@ -14822,7 +14844,7 @@
       </c>
       <c r="I65" s="16"/>
     </row>
-    <row r="66" spans="1:9" ht="30">
+    <row r="66" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="7" t="s">
         <v>117</v>
       </c>
@@ -14847,7 +14869,7 @@
       </c>
       <c r="I66" s="16"/>
     </row>
-    <row r="67" spans="1:9" ht="30">
+    <row r="67" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A67" s="7" t="s">
         <v>119</v>
       </c>
@@ -14872,7 +14894,7 @@
       </c>
       <c r="I67" s="16"/>
     </row>
-    <row r="68" spans="1:9" ht="30">
+    <row r="68" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="7" t="s">
         <v>121</v>
       </c>
@@ -14897,7 +14919,7 @@
       </c>
       <c r="I68" s="16"/>
     </row>
-    <row r="69" spans="1:9" ht="30">
+    <row r="69" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A69" s="7" t="s">
         <v>122</v>
       </c>
@@ -14924,7 +14946,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="75">
+    <row r="70" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A70" s="7" t="s">
         <v>124</v>
       </c>
@@ -14949,7 +14971,7 @@
       </c>
       <c r="I70" s="16"/>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="7" t="s">
         <v>126</v>
       </c>
@@ -14974,7 +14996,7 @@
       </c>
       <c r="I71" s="16"/>
     </row>
-    <row r="72" spans="1:9" ht="30">
+    <row r="72" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A72" s="7" t="s">
         <v>128</v>
       </c>
@@ -14999,7 +15021,7 @@
       </c>
       <c r="I72" s="16"/>
     </row>
-    <row r="73" spans="1:9" ht="30">
+    <row r="73" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A73" s="7" t="s">
         <v>130</v>
       </c>
@@ -15024,7 +15046,7 @@
       </c>
       <c r="I73" s="16"/>
     </row>
-    <row r="74" spans="1:9" ht="30">
+    <row r="74" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A74" s="7" t="s">
         <v>133</v>
       </c>
@@ -15049,7 +15071,7 @@
       </c>
       <c r="I74" s="16"/>
     </row>
-    <row r="75" spans="1:9" ht="30">
+    <row r="75" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A75" s="7" t="s">
         <v>136</v>
       </c>
@@ -15074,7 +15096,7 @@
       </c>
       <c r="I75" s="16"/>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76" s="7" t="s">
         <v>138</v>
       </c>
@@ -15099,7 +15121,7 @@
       </c>
       <c r="I76" s="16"/>
     </row>
-    <row r="77" spans="1:9" ht="30">
+    <row r="77" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A77" s="7" t="s">
         <v>140</v>
       </c>
@@ -15124,7 +15146,7 @@
       </c>
       <c r="I77" s="16"/>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A78" s="7" t="s">
         <v>143</v>
       </c>
@@ -15149,7 +15171,7 @@
       </c>
       <c r="I78" s="16"/>
     </row>
-    <row r="79" spans="1:9" ht="30">
+    <row r="79" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A79" s="7" t="s">
         <v>145</v>
       </c>
@@ -15174,7 +15196,7 @@
       </c>
       <c r="I79" s="16"/>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A80" s="7" t="s">
         <v>147</v>
       </c>
@@ -15199,7 +15221,7 @@
       </c>
       <c r="I80" s="16"/>
     </row>
-    <row r="81" spans="1:9" ht="180">
+    <row r="81" spans="1:9" ht="216" x14ac:dyDescent="0.15">
       <c r="A81" s="7" t="s">
         <v>150</v>
       </c>
@@ -15224,7 +15246,7 @@
       </c>
       <c r="I81" s="16"/>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A82" s="7" t="s">
         <v>152</v>
       </c>
@@ -15249,7 +15271,7 @@
       </c>
       <c r="I82" s="16"/>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" s="7" t="s">
         <v>154</v>
       </c>
@@ -15274,7 +15296,7 @@
       </c>
       <c r="I83" s="16"/>
     </row>
-    <row r="84" spans="1:9" ht="45">
+    <row r="84" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A84" s="7" t="s">
         <v>156</v>
       </c>
@@ -15301,7 +15323,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="45">
+    <row r="85" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A85" s="7" t="s">
         <v>158</v>
       </c>
@@ -15328,7 +15350,7 @@
       </c>
       <c r="I85" s="16"/>
     </row>
-    <row r="86" spans="1:9" ht="30">
+    <row r="86" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A86" s="7" t="s">
         <v>161</v>
       </c>
@@ -15353,7 +15375,7 @@
       </c>
       <c r="I86" s="16"/>
     </row>
-    <row r="87" spans="1:9" ht="30">
+    <row r="87" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A87" s="7" t="s">
         <v>163</v>
       </c>
@@ -15378,7 +15400,7 @@
       </c>
       <c r="I87" s="13"/>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A88" s="7" t="s">
         <v>165</v>
       </c>
@@ -15403,7 +15425,7 @@
       </c>
       <c r="I88" s="16"/>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A89" s="7" t="s">
         <v>167</v>
       </c>
@@ -15428,7 +15450,7 @@
       </c>
       <c r="I89" s="16"/>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A90" s="7" t="s">
         <v>169</v>
       </c>
@@ -15453,7 +15475,7 @@
       </c>
       <c r="I90" s="16"/>
     </row>
-    <row r="91" spans="1:9" ht="30">
+    <row r="91" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A91" s="7" t="s">
         <v>171</v>
       </c>
@@ -15478,7 +15500,7 @@
       </c>
       <c r="I91" s="16"/>
     </row>
-    <row r="92" spans="1:9" ht="45">
+    <row r="92" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A92" s="7" t="s">
         <v>173</v>
       </c>
@@ -15503,7 +15525,7 @@
       </c>
       <c r="I92" s="16"/>
     </row>
-    <row r="93" spans="1:9" ht="45">
+    <row r="93" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A93" s="7" t="s">
         <v>175</v>
       </c>
@@ -15528,7 +15550,7 @@
       </c>
       <c r="I93" s="16"/>
     </row>
-    <row r="94" spans="1:9" ht="45">
+    <row r="94" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A94" s="7" t="s">
         <v>177</v>
       </c>
@@ -15553,7 +15575,7 @@
       </c>
       <c r="I94" s="16"/>
     </row>
-    <row r="95" spans="1:9" ht="30">
+    <row r="95" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A95" s="7" t="s">
         <v>180</v>
       </c>
@@ -15578,7 +15600,7 @@
       </c>
       <c r="I95" s="16"/>
     </row>
-    <row r="96" spans="1:9" ht="30">
+    <row r="96" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A96" s="7" t="s">
         <v>182</v>
       </c>
@@ -15603,7 +15625,7 @@
       </c>
       <c r="I96" s="16"/>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A97" s="7" t="s">
         <v>183</v>
       </c>
@@ -15628,7 +15650,7 @@
       </c>
       <c r="I97" s="16"/>
     </row>
-    <row r="98" spans="1:9" ht="120">
+    <row r="98" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A98" s="7" t="s">
         <v>179</v>
       </c>
@@ -15653,7 +15675,7 @@
       </c>
       <c r="I98" s="16"/>
     </row>
-    <row r="99" spans="1:9" ht="30">
+    <row r="99" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A99" s="7" t="s">
         <v>187</v>
       </c>
@@ -15678,7 +15700,7 @@
       </c>
       <c r="I99" s="16"/>
     </row>
-    <row r="100" spans="1:9" ht="30">
+    <row r="100" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A100" s="7" t="s">
         <v>189</v>
       </c>
@@ -15705,7 +15727,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="30">
+    <row r="101" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A101" s="7" t="s">
         <v>192</v>
       </c>
@@ -15730,7 +15752,7 @@
       </c>
       <c r="I101" s="16"/>
     </row>
-    <row r="102" spans="1:9" ht="60">
+    <row r="102" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A102" s="7" t="s">
         <v>193</v>
       </c>
@@ -15755,7 +15777,7 @@
       </c>
       <c r="I102" s="16"/>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A103" s="7" t="s">
         <v>195</v>
       </c>
@@ -15780,7 +15802,7 @@
       </c>
       <c r="I103" s="16"/>
     </row>
-    <row r="104" spans="1:9" ht="30">
+    <row r="104" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A104" s="7" t="s">
         <v>197</v>
       </c>
@@ -15805,7 +15827,7 @@
       </c>
       <c r="I104" s="16"/>
     </row>
-    <row r="105" spans="1:9" ht="45">
+    <row r="105" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A105" s="7" t="s">
         <v>199</v>
       </c>
@@ -15830,7 +15852,7 @@
       </c>
       <c r="I105" s="16"/>
     </row>
-    <row r="106" spans="1:9" ht="30">
+    <row r="106" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A106" s="7" t="s">
         <v>201</v>
       </c>
@@ -15855,7 +15877,7 @@
       </c>
       <c r="I106" s="16"/>
     </row>
-    <row r="107" spans="1:9" ht="45">
+    <row r="107" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A107" s="7" t="s">
         <v>203</v>
       </c>
@@ -15882,7 +15904,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="30">
+    <row r="108" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A108" s="7" t="s">
         <v>205</v>
       </c>
@@ -15907,7 +15929,7 @@
       </c>
       <c r="I108" s="16"/>
     </row>
-    <row r="109" spans="1:9" ht="30">
+    <row r="109" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A109" s="7" t="s">
         <v>207</v>
       </c>
@@ -15932,7 +15954,7 @@
       </c>
       <c r="I109" s="16"/>
     </row>
-    <row r="110" spans="1:9" ht="30">
+    <row r="110" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A110" s="7" t="s">
         <v>210</v>
       </c>
@@ -15957,7 +15979,7 @@
       </c>
       <c r="I110" s="16"/>
     </row>
-    <row r="111" spans="1:9" ht="30">
+    <row r="111" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A111" s="7" t="s">
         <v>213</v>
       </c>
@@ -15982,7 +16004,7 @@
       </c>
       <c r="I111" s="16"/>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A112" s="7" t="s">
         <v>215</v>
       </c>
@@ -16007,7 +16029,7 @@
       </c>
       <c r="I112" s="16"/>
     </row>
-    <row r="113" spans="1:9" ht="30">
+    <row r="113" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A113" s="7" t="s">
         <v>217</v>
       </c>
@@ -16032,7 +16054,7 @@
       </c>
       <c r="I113" s="16"/>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A114" s="7" t="s">
         <v>220</v>
       </c>
@@ -16057,7 +16079,7 @@
       </c>
       <c r="I114" s="16"/>
     </row>
-    <row r="115" spans="1:9" ht="30">
+    <row r="115" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A115" s="7" t="s">
         <v>997</v>
       </c>
@@ -16082,7 +16104,7 @@
       </c>
       <c r="I115" s="16"/>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A116" s="7" t="s">
         <v>223</v>
       </c>
@@ -16107,7 +16129,7 @@
       </c>
       <c r="I116" s="16"/>
     </row>
-    <row r="117" spans="1:9" ht="225">
+    <row r="117" spans="1:9" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A117" s="7" t="s">
         <v>226</v>
       </c>
@@ -16132,7 +16154,7 @@
       </c>
       <c r="I117" s="16"/>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A118" s="7" t="s">
         <v>229</v>
       </c>
@@ -16157,7 +16179,7 @@
       </c>
       <c r="I118" s="16"/>
     </row>
-    <row r="119" spans="1:9" ht="60">
+    <row r="119" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A119" s="7" t="s">
         <v>231</v>
       </c>
@@ -16182,7 +16204,7 @@
       </c>
       <c r="I119" s="16"/>
     </row>
-    <row r="120" spans="1:9" ht="30">
+    <row r="120" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A120" s="7" t="s">
         <v>233</v>
       </c>
@@ -16207,7 +16229,7 @@
       </c>
       <c r="I120" s="16"/>
     </row>
-    <row r="121" spans="1:9" ht="30">
+    <row r="121" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A121" s="7" t="s">
         <v>235</v>
       </c>
@@ -16232,7 +16254,7 @@
       </c>
       <c r="I121" s="16"/>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A122" s="7" t="s">
         <v>237</v>
       </c>
@@ -16257,7 +16279,7 @@
       </c>
       <c r="I122" s="16"/>
     </row>
-    <row r="123" spans="1:9" ht="30">
+    <row r="123" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A123" s="7" t="s">
         <v>927</v>
       </c>
@@ -16284,7 +16306,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="45">
+    <row r="124" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A124" s="7" t="s">
         <v>930</v>
       </c>
@@ -16313,7 +16335,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A125" s="7" t="s">
         <v>239</v>
       </c>
@@ -16338,7 +16360,7 @@
       </c>
       <c r="I125" s="16"/>
     </row>
-    <row r="126" spans="1:9" ht="30">
+    <row r="126" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A126" s="7" t="s">
         <v>241</v>
       </c>
@@ -16363,7 +16385,7 @@
       </c>
       <c r="I126" s="16"/>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A127" s="7" t="s">
         <v>243</v>
       </c>
@@ -16388,7 +16410,7 @@
       </c>
       <c r="I127" s="16"/>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A128" s="7" t="s">
         <v>244</v>
       </c>
@@ -16413,7 +16435,7 @@
       </c>
       <c r="I128" s="16"/>
     </row>
-    <row r="129" spans="1:9" ht="30">
+    <row r="129" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A129" s="7" t="s">
         <v>246</v>
       </c>
@@ -16438,7 +16460,7 @@
       </c>
       <c r="I129" s="13"/>
     </row>
-    <row r="130" spans="1:9" ht="30">
+    <row r="130" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A130" s="7" t="s">
         <v>248</v>
       </c>
@@ -16463,7 +16485,7 @@
       </c>
       <c r="I130" s="16"/>
     </row>
-    <row r="131" spans="1:9" ht="30">
+    <row r="131" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A131" s="7" t="s">
         <v>250</v>
       </c>
@@ -16488,7 +16510,7 @@
       </c>
       <c r="I131" s="13"/>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A132" s="7" t="s">
         <v>252</v>
       </c>
@@ -16513,7 +16535,7 @@
       </c>
       <c r="I132" s="16"/>
     </row>
-    <row r="133" spans="1:9" ht="30">
+    <row r="133" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A133" s="7" t="s">
         <v>254</v>
       </c>
@@ -16538,7 +16560,7 @@
       </c>
       <c r="I133" s="16"/>
     </row>
-    <row r="134" spans="1:9" ht="30">
+    <row r="134" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A134" s="7" t="s">
         <v>256</v>
       </c>
@@ -16563,7 +16585,7 @@
       </c>
       <c r="I134" s="16"/>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A135" s="7" t="s">
         <v>258</v>
       </c>
@@ -16588,7 +16610,7 @@
       </c>
       <c r="I135" s="16"/>
     </row>
-    <row r="136" spans="1:9" ht="45">
+    <row r="136" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A136" s="7" t="s">
         <v>260</v>
       </c>
@@ -16615,7 +16637,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="135">
+    <row r="137" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A137" s="7" t="s">
         <v>262</v>
       </c>
@@ -16640,7 +16662,7 @@
       </c>
       <c r="I137" s="16"/>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A138" s="7" t="s">
         <v>263</v>
       </c>
@@ -16665,7 +16687,7 @@
       </c>
       <c r="I138" s="16"/>
     </row>
-    <row r="139" spans="1:9" ht="120">
+    <row r="139" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A139" s="7" t="s">
         <v>228</v>
       </c>
@@ -16690,7 +16712,7 @@
       </c>
       <c r="I139" s="16"/>
     </row>
-    <row r="140" spans="1:9" ht="30">
+    <row r="140" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A140" s="7" t="s">
         <v>267</v>
       </c>
@@ -16715,7 +16737,7 @@
       </c>
       <c r="I140" s="16"/>
     </row>
-    <row r="141" spans="1:9" ht="30">
+    <row r="141" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A141" s="7" t="s">
         <v>268</v>
       </c>
@@ -16740,7 +16762,7 @@
       </c>
       <c r="I141" s="16"/>
     </row>
-    <row r="142" spans="1:9" ht="30">
+    <row r="142" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A142" s="7" t="s">
         <v>270</v>
       </c>
@@ -16765,7 +16787,7 @@
       </c>
       <c r="I142" s="16"/>
     </row>
-    <row r="143" spans="1:9" ht="30">
+    <row r="143" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A143" s="7" t="s">
         <v>272</v>
       </c>
@@ -16790,7 +16812,7 @@
       </c>
       <c r="I143" s="16"/>
     </row>
-    <row r="144" spans="1:9" ht="30">
+    <row r="144" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A144" s="7" t="s">
         <v>274</v>
       </c>
@@ -16815,7 +16837,7 @@
       </c>
       <c r="I144" s="16"/>
     </row>
-    <row r="145" spans="1:9" ht="45">
+    <row r="145" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A145" s="7" t="s">
         <v>276</v>
       </c>
@@ -16840,7 +16862,7 @@
       </c>
       <c r="I145" s="13"/>
     </row>
-    <row r="146" spans="1:9" ht="30">
+    <row r="146" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A146" s="7" t="s">
         <v>277</v>
       </c>
@@ -16865,7 +16887,7 @@
       </c>
       <c r="I146" s="13"/>
     </row>
-    <row r="147" spans="1:9" ht="30">
+    <row r="147" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A147" s="7" t="s">
         <v>278</v>
       </c>
@@ -16890,7 +16912,7 @@
       </c>
       <c r="I147" s="16"/>
     </row>
-    <row r="148" spans="1:9" ht="30">
+    <row r="148" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A148" s="7" t="s">
         <v>279</v>
       </c>
@@ -16915,7 +16937,7 @@
       </c>
       <c r="I148" s="16"/>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A149" s="7" t="s">
         <v>281</v>
       </c>
@@ -16940,7 +16962,7 @@
       </c>
       <c r="I149" s="16"/>
     </row>
-    <row r="150" spans="1:9" ht="30">
+    <row r="150" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A150" s="7" t="s">
         <v>282</v>
       </c>
@@ -16967,7 +16989,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="75">
+    <row r="151" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A151" s="7" t="s">
         <v>285</v>
       </c>
@@ -16992,7 +17014,7 @@
       </c>
       <c r="I151" s="16"/>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A152" s="7" t="s">
         <v>287</v>
       </c>
@@ -17017,7 +17039,7 @@
       </c>
       <c r="I152" s="16"/>
     </row>
-    <row r="153" spans="1:9" ht="30">
+    <row r="153" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A153" s="7" t="s">
         <v>289</v>
       </c>
@@ -17042,7 +17064,7 @@
       </c>
       <c r="I153" s="16"/>
     </row>
-    <row r="154" spans="1:9" ht="30">
+    <row r="154" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A154" s="7" t="s">
         <v>291</v>
       </c>
@@ -17067,7 +17089,7 @@
       </c>
       <c r="I154" s="16"/>
     </row>
-    <row r="155" spans="1:9" ht="30">
+    <row r="155" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A155" s="7" t="s">
         <v>294</v>
       </c>
@@ -17092,7 +17114,7 @@
       </c>
       <c r="I155" s="16"/>
     </row>
-    <row r="156" spans="1:9" ht="45">
+    <row r="156" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A156" s="7" t="s">
         <v>297</v>
       </c>
@@ -17117,7 +17139,7 @@
       </c>
       <c r="I156" s="16"/>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A157" s="7" t="s">
         <v>299</v>
       </c>
@@ -17142,7 +17164,7 @@
       </c>
       <c r="I157" s="16"/>
     </row>
-    <row r="158" spans="1:9" ht="30">
+    <row r="158" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A158" s="7" t="s">
         <v>301</v>
       </c>
@@ -17167,7 +17189,7 @@
       </c>
       <c r="I158" s="16"/>
     </row>
-    <row r="159" spans="1:9" ht="30">
+    <row r="159" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A159" s="7" t="s">
         <v>304</v>
       </c>
@@ -17192,7 +17214,7 @@
       </c>
       <c r="I159" s="16"/>
     </row>
-    <row r="160" spans="1:9" ht="30">
+    <row r="160" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A160" s="7" t="s">
         <v>306</v>
       </c>
@@ -17217,7 +17239,7 @@
       </c>
       <c r="I160" s="16"/>
     </row>
-    <row r="161" spans="1:9" ht="30">
+    <row r="161" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A161" s="7" t="s">
         <v>308</v>
       </c>
@@ -17242,7 +17264,7 @@
       </c>
       <c r="I161" s="16"/>
     </row>
-    <row r="162" spans="1:9" ht="180">
+    <row r="162" spans="1:9" ht="216" x14ac:dyDescent="0.15">
       <c r="A162" s="7" t="s">
         <v>311</v>
       </c>
@@ -17267,7 +17289,7 @@
       </c>
       <c r="I162" s="16"/>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A163" s="7" t="s">
         <v>314</v>
       </c>
@@ -17292,7 +17314,7 @@
       </c>
       <c r="I163" s="16"/>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A164" s="7" t="s">
         <v>316</v>
       </c>
@@ -17317,7 +17339,7 @@
       </c>
       <c r="I164" s="16"/>
     </row>
-    <row r="165" spans="1:9" ht="60">
+    <row r="165" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A165" s="7" t="s">
         <v>318</v>
       </c>
@@ -17344,7 +17366,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="45">
+    <row r="166" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A166" s="7" t="s">
         <v>319</v>
       </c>
@@ -17371,7 +17393,7 @@
       </c>
       <c r="I166" s="16"/>
     </row>
-    <row r="167" spans="1:9" ht="30">
+    <row r="167" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A167" s="7" t="s">
         <v>320</v>
       </c>
@@ -17396,7 +17418,7 @@
       </c>
       <c r="I167" s="16"/>
     </row>
-    <row r="168" spans="1:9" ht="30">
+    <row r="168" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A168" s="7" t="s">
         <v>322</v>
       </c>
@@ -17421,7 +17443,7 @@
       </c>
       <c r="I168" s="13"/>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A169" s="7" t="s">
         <v>324</v>
       </c>
@@ -17446,7 +17468,7 @@
       </c>
       <c r="I169" s="16"/>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A170" s="7" t="s">
         <v>326</v>
       </c>
@@ -17471,7 +17493,7 @@
       </c>
       <c r="I170" s="16"/>
     </row>
-    <row r="171" spans="1:9" ht="30">
+    <row r="171" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A171" s="7" t="s">
         <v>328</v>
       </c>
@@ -17496,7 +17518,7 @@
       </c>
       <c r="I171" s="16"/>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A172" s="7" t="s">
         <v>330</v>
       </c>
@@ -17521,7 +17543,7 @@
       </c>
       <c r="I172" s="16"/>
     </row>
-    <row r="173" spans="1:9" ht="30">
+    <row r="173" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A173" s="7" t="s">
         <v>332</v>
       </c>
@@ -17546,7 +17568,7 @@
       </c>
       <c r="I173" s="13"/>
     </row>
-    <row r="174" spans="1:9" ht="30">
+    <row r="174" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A174" s="7" t="s">
         <v>333</v>
       </c>
@@ -17571,7 +17593,7 @@
       </c>
       <c r="I174" s="16"/>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A175" s="7" t="s">
         <v>335</v>
       </c>
@@ -17596,7 +17618,7 @@
       </c>
       <c r="I175" s="16"/>
     </row>
-    <row r="176" spans="1:9" ht="30">
+    <row r="176" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A176" s="7" t="s">
         <v>337</v>
       </c>
@@ -17621,7 +17643,7 @@
       </c>
       <c r="I176" s="16"/>
     </row>
-    <row r="177" spans="1:9" ht="30">
+    <row r="177" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A177" s="7" t="s">
         <v>339</v>
       </c>
@@ -17646,7 +17668,7 @@
       </c>
       <c r="I177" s="16"/>
     </row>
-    <row r="178" spans="1:9" ht="120">
+    <row r="178" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A178" s="7" t="s">
         <v>313</v>
       </c>
@@ -17671,7 +17693,7 @@
       </c>
       <c r="I178" s="16"/>
     </row>
-    <row r="179" spans="1:9" ht="30">
+    <row r="179" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A179" s="7" t="s">
         <v>343</v>
       </c>
@@ -17696,7 +17718,7 @@
       </c>
       <c r="I179" s="16"/>
     </row>
-    <row r="180" spans="1:9" ht="30">
+    <row r="180" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A180" s="7" t="s">
         <v>345</v>
       </c>
@@ -17723,7 +17745,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="60">
+    <row r="181" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A181" s="7" t="s">
         <v>348</v>
       </c>
@@ -17748,7 +17770,7 @@
       </c>
       <c r="I181" s="16"/>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A182" s="7" t="s">
         <v>350</v>
       </c>
@@ -17773,7 +17795,7 @@
       </c>
       <c r="I182" s="16"/>
     </row>
-    <row r="183" spans="1:9" ht="30">
+    <row r="183" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A183" s="7" t="s">
         <v>352</v>
       </c>
@@ -17798,7 +17820,7 @@
       </c>
       <c r="I183" s="16"/>
     </row>
-    <row r="184" spans="1:9" ht="30">
+    <row r="184" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A184" s="7" t="s">
         <v>354</v>
       </c>
@@ -17823,7 +17845,7 @@
       </c>
       <c r="I184" s="16"/>
     </row>
-    <row r="185" spans="1:9" ht="30">
+    <row r="185" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A185" s="7" t="s">
         <v>357</v>
       </c>
@@ -17848,7 +17870,7 @@
       </c>
       <c r="I185" s="16"/>
     </row>
-    <row r="186" spans="1:9" ht="30">
+    <row r="186" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A186" s="7" t="s">
         <v>360</v>
       </c>
@@ -17873,7 +17895,7 @@
       </c>
       <c r="I186" s="16"/>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A187" s="7" t="s">
         <v>362</v>
       </c>
@@ -17898,7 +17920,7 @@
       </c>
       <c r="I187" s="16"/>
     </row>
-    <row r="188" spans="1:9" ht="30">
+    <row r="188" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A188" s="7" t="s">
         <v>364</v>
       </c>
@@ -17923,7 +17945,7 @@
       </c>
       <c r="I188" s="16"/>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A189" s="7" t="s">
         <v>367</v>
       </c>
@@ -17948,7 +17970,7 @@
       </c>
       <c r="I189" s="16"/>
     </row>
-    <row r="190" spans="1:9" ht="30">
+    <row r="190" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A190" s="7" t="s">
         <v>369</v>
       </c>
@@ -17973,7 +17995,7 @@
       </c>
       <c r="I190" s="16"/>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A191" s="7" t="s">
         <v>371</v>
       </c>
@@ -17998,7 +18020,7 @@
       </c>
       <c r="I191" s="16"/>
     </row>
-    <row r="192" spans="1:9" ht="105">
+    <row r="192" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A192" s="7" t="s">
         <v>374</v>
       </c>
@@ -18023,7 +18045,7 @@
       </c>
       <c r="I192" s="16"/>
     </row>
-    <row r="193" spans="1:9" ht="30">
+    <row r="193" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A193" s="7" t="s">
         <v>376</v>
       </c>
@@ -18048,7 +18070,7 @@
       </c>
       <c r="I193" s="16"/>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A194" s="7" t="s">
         <v>378</v>
       </c>
@@ -18073,7 +18095,7 @@
       </c>
       <c r="I194" s="16"/>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A195" s="7" t="s">
         <v>380</v>
       </c>
@@ -18098,7 +18120,7 @@
       </c>
       <c r="I195" s="16"/>
     </row>
-    <row r="196" spans="1:9" ht="120">
+    <row r="196" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A196" s="7" t="s">
         <v>375</v>
       </c>
@@ -18123,7 +18145,7 @@
       </c>
       <c r="I196" s="16"/>
     </row>
-    <row r="197" spans="1:9" ht="30">
+    <row r="197" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A197" s="7" t="s">
         <v>383</v>
       </c>
@@ -18148,7 +18170,7 @@
       </c>
       <c r="I197" s="16"/>
     </row>
-    <row r="198" spans="1:9" ht="30">
+    <row r="198" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A198" s="7" t="s">
         <v>385</v>
       </c>
@@ -18173,7 +18195,7 @@
       </c>
       <c r="I198" s="16"/>
     </row>
-    <row r="199" spans="1:9" ht="30">
+    <row r="199" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A199" s="7" t="s">
         <v>387</v>
       </c>
@@ -18198,7 +18220,7 @@
       </c>
       <c r="I199" s="16"/>
     </row>
-    <row r="200" spans="1:9" ht="30">
+    <row r="200" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A200" s="7" t="s">
         <v>389</v>
       </c>
@@ -18223,7 +18245,7 @@
       </c>
       <c r="I200" s="16"/>
     </row>
-    <row r="201" spans="1:9" ht="30">
+    <row r="201" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A201" s="7" t="s">
         <v>391</v>
       </c>
@@ -18248,7 +18270,7 @@
       </c>
       <c r="I201" s="16"/>
     </row>
-    <row r="202" spans="1:9" ht="30">
+    <row r="202" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A202" s="7" t="s">
         <v>393</v>
       </c>
@@ -18273,7 +18295,7 @@
       </c>
       <c r="I202" s="16"/>
     </row>
-    <row r="203" spans="1:9" ht="30">
+    <row r="203" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A203" s="7" t="s">
         <v>395</v>
       </c>
@@ -18298,7 +18320,7 @@
       </c>
       <c r="I203" s="16"/>
     </row>
-    <row r="204" spans="1:9" ht="45">
+    <row r="204" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A204" s="7" t="s">
         <v>397</v>
       </c>
@@ -18323,7 +18345,7 @@
       </c>
       <c r="I204" s="16"/>
     </row>
-    <row r="205" spans="1:9" ht="75">
+    <row r="205" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A205" s="7" t="s">
         <v>400</v>
       </c>
@@ -18348,7 +18370,7 @@
       </c>
       <c r="I205" s="16"/>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A206" s="7" t="s">
         <v>402</v>
       </c>
@@ -18373,7 +18395,7 @@
       </c>
       <c r="I206" s="16"/>
     </row>
-    <row r="207" spans="1:9" ht="30">
+    <row r="207" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A207" s="7" t="s">
         <v>404</v>
       </c>
@@ -18398,7 +18420,7 @@
       </c>
       <c r="I207" s="16"/>
     </row>
-    <row r="208" spans="1:9" ht="30">
+    <row r="208" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A208" s="7" t="s">
         <v>406</v>
       </c>
@@ -18423,7 +18445,7 @@
       </c>
       <c r="I208" s="16"/>
     </row>
-    <row r="209" spans="1:9" ht="30">
+    <row r="209" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A209" s="7" t="s">
         <v>409</v>
       </c>
@@ -18448,7 +18470,7 @@
       </c>
       <c r="I209" s="16"/>
     </row>
-    <row r="210" spans="1:9" ht="30">
+    <row r="210" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A210" s="7" t="s">
         <v>412</v>
       </c>
@@ -18473,7 +18495,7 @@
       </c>
       <c r="I210" s="16"/>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A211" s="7" t="s">
         <v>414</v>
       </c>
@@ -18498,7 +18520,7 @@
       </c>
       <c r="I211" s="16"/>
     </row>
-    <row r="212" spans="1:9" ht="30">
+    <row r="212" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A212" s="7" t="s">
         <v>416</v>
       </c>
@@ -18523,7 +18545,7 @@
       </c>
       <c r="I212" s="16"/>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A213" s="7" t="s">
         <v>419</v>
       </c>
@@ -18548,7 +18570,7 @@
       </c>
       <c r="I213" s="16"/>
     </row>
-    <row r="214" spans="1:9" ht="30">
+    <row r="214" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A214" s="7" t="s">
         <v>421</v>
       </c>
@@ -18573,7 +18595,7 @@
       </c>
       <c r="I214" s="16"/>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A215" s="7" t="s">
         <v>423</v>
       </c>
@@ -18598,7 +18620,7 @@
       </c>
       <c r="I215" s="16"/>
     </row>
-    <row r="216" spans="1:9" ht="105">
+    <row r="216" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A216" s="7" t="s">
         <v>426</v>
       </c>
@@ -18623,7 +18645,7 @@
       </c>
       <c r="I216" s="16"/>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A217" s="7" t="s">
         <v>429</v>
       </c>
@@ -18648,7 +18670,7 @@
       </c>
       <c r="I217" s="16"/>
     </row>
-    <row r="218" spans="1:9" ht="30">
+    <row r="218" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A218" s="7" t="s">
         <v>431</v>
       </c>
@@ -18673,7 +18695,7 @@
       </c>
       <c r="I218" s="16"/>
     </row>
-    <row r="219" spans="1:9" ht="165">
+    <row r="219" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A219" s="7" t="s">
         <v>428</v>
       </c>
@@ -18698,7 +18720,7 @@
       </c>
       <c r="I219" s="16"/>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A220" s="7" t="s">
         <v>434</v>
       </c>
@@ -18723,7 +18745,7 @@
       </c>
       <c r="I220" s="16"/>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A221" s="7" t="s">
         <v>436</v>
       </c>
@@ -18748,7 +18770,7 @@
       </c>
       <c r="I221" s="16"/>
     </row>
-    <row r="222" spans="1:9" ht="30">
+    <row r="222" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A222" s="7" t="s">
         <v>438</v>
       </c>
@@ -18773,7 +18795,7 @@
       </c>
       <c r="I222" s="16"/>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A223" s="7" t="s">
         <v>440</v>
       </c>
@@ -18798,7 +18820,7 @@
       </c>
       <c r="I223" s="16"/>
     </row>
-    <row r="224" spans="1:9" ht="45">
+    <row r="224" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A224" s="7" t="s">
         <v>442</v>
       </c>
@@ -18825,7 +18847,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="30">
+    <row r="225" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A225" s="7" t="s">
         <v>444</v>
       </c>
@@ -18850,7 +18872,7 @@
       </c>
       <c r="I225" s="13"/>
     </row>
-    <row r="226" spans="1:9" ht="30">
+    <row r="226" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A226" s="7" t="s">
         <v>446</v>
       </c>
@@ -18875,7 +18897,7 @@
       </c>
       <c r="I226" s="16"/>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A227" s="7" t="s">
         <v>449</v>
       </c>
@@ -18900,7 +18922,7 @@
       </c>
       <c r="I227" s="16"/>
     </row>
-    <row r="228" spans="1:9" ht="30">
+    <row r="228" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A228" s="7" t="s">
         <v>452</v>
       </c>
@@ -18925,7 +18947,7 @@
       </c>
       <c r="I228" s="16"/>
     </row>
-    <row r="229" spans="1:9" ht="105">
+    <row r="229" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A229" s="7" t="s">
         <v>454</v>
       </c>
@@ -18950,7 +18972,7 @@
       </c>
       <c r="I229" s="16"/>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A230" s="7" t="s">
         <v>456</v>
       </c>
@@ -18975,7 +18997,7 @@
       </c>
       <c r="I230" s="16"/>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A231" s="7" t="s">
         <v>458</v>
       </c>
@@ -19000,7 +19022,7 @@
       </c>
       <c r="I231" s="16"/>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A232" s="7" t="s">
         <v>461</v>
       </c>
@@ -19025,7 +19047,7 @@
       </c>
       <c r="I232" s="16"/>
     </row>
-    <row r="233" spans="1:9" ht="225">
+    <row r="233" spans="1:9" ht="229.5" x14ac:dyDescent="0.15">
       <c r="A233" s="7" t="s">
         <v>463</v>
       </c>
@@ -19050,7 +19072,7 @@
       </c>
       <c r="I233" s="16"/>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A234" s="7" t="s">
         <v>465</v>
       </c>
@@ -19075,7 +19097,7 @@
       </c>
       <c r="I234" s="16"/>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A235" s="7" t="s">
         <v>467</v>
       </c>
@@ -19100,7 +19122,7 @@
       </c>
       <c r="I235" s="16"/>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A236" s="7" t="s">
         <v>469</v>
       </c>
@@ -19125,7 +19147,7 @@
       </c>
       <c r="I236" s="16"/>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A237" s="7" t="s">
         <v>471</v>
       </c>
@@ -19150,7 +19172,7 @@
       </c>
       <c r="I237" s="16"/>
     </row>
-    <row r="238" spans="1:9" ht="30">
+    <row r="238" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A238" s="7" t="s">
         <v>473</v>
       </c>
@@ -19175,7 +19197,7 @@
       </c>
       <c r="I238" s="16"/>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A239" s="7" t="s">
         <v>475</v>
       </c>
@@ -19200,7 +19222,7 @@
       </c>
       <c r="I239" s="16"/>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A240" s="7" t="s">
         <v>477</v>
       </c>
@@ -19225,7 +19247,7 @@
       </c>
       <c r="I240" s="16"/>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A241" s="7" t="s">
         <v>479</v>
       </c>
@@ -19250,7 +19272,7 @@
       </c>
       <c r="I241" s="16"/>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A242" s="7" t="s">
         <v>481</v>
       </c>
@@ -19275,7 +19297,7 @@
       </c>
       <c r="I242" s="16"/>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A243" s="7" t="s">
         <v>483</v>
       </c>
@@ -19300,7 +19322,7 @@
       </c>
       <c r="I243" s="16"/>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A244" s="7" t="s">
         <v>485</v>
       </c>
@@ -19325,7 +19347,7 @@
       </c>
       <c r="I244" s="16"/>
     </row>
-    <row r="245" spans="1:9" ht="30">
+    <row r="245" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A245" s="7" t="s">
         <v>487</v>
       </c>
@@ -19350,7 +19372,7 @@
       </c>
       <c r="I245" s="16"/>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A246" s="7" t="s">
         <v>489</v>
       </c>
@@ -19375,7 +19397,7 @@
       </c>
       <c r="I246" s="16"/>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A247" s="7" t="s">
         <v>491</v>
       </c>
@@ -19400,7 +19422,7 @@
       </c>
       <c r="I247" s="16"/>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A248" s="7" t="s">
         <v>493</v>
       </c>
@@ -19425,7 +19447,7 @@
       </c>
       <c r="I248" s="16"/>
     </row>
-    <row r="249" spans="1:9" ht="30">
+    <row r="249" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A249" s="7" t="s">
         <v>495</v>
       </c>
@@ -19450,7 +19472,7 @@
       </c>
       <c r="I249" s="16"/>
     </row>
-    <row r="250" spans="1:9" ht="30">
+    <row r="250" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A250" s="7" t="s">
         <v>497</v>
       </c>
@@ -19475,7 +19497,7 @@
       </c>
       <c r="I250" s="16"/>
     </row>
-    <row r="251" spans="1:9" ht="30">
+    <row r="251" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A251" s="7" t="s">
         <v>499</v>
       </c>
@@ -19500,7 +19522,7 @@
       </c>
       <c r="I251" s="16"/>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A252" s="7" t="s">
         <v>501</v>
       </c>
@@ -19525,7 +19547,7 @@
       </c>
       <c r="I252" s="16"/>
     </row>
-    <row r="253" spans="1:9" ht="30">
+    <row r="253" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A253" s="7" t="s">
         <v>503</v>
       </c>
@@ -19550,7 +19572,7 @@
       </c>
       <c r="I253" s="13"/>
     </row>
-    <row r="254" spans="1:9" ht="30">
+    <row r="254" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A254" s="7" t="s">
         <v>505</v>
       </c>
@@ -19575,7 +19597,7 @@
       </c>
       <c r="I254" s="13"/>
     </row>
-    <row r="255" spans="1:9" ht="30">
+    <row r="255" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A255" s="7" t="s">
         <v>507</v>
       </c>
@@ -19600,7 +19622,7 @@
       </c>
       <c r="I255" s="16"/>
     </row>
-    <row r="256" spans="1:9" ht="30">
+    <row r="256" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A256" s="7" t="s">
         <v>509</v>
       </c>
@@ -19627,7 +19649,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="30">
+    <row r="257" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A257" s="7" t="s">
         <v>512</v>
       </c>
@@ -19652,7 +19674,7 @@
       </c>
       <c r="I257" s="16"/>
     </row>
-    <row r="258" spans="1:9" ht="30">
+    <row r="258" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A258" s="7" t="s">
         <v>514</v>
       </c>
@@ -19677,7 +19699,7 @@
       </c>
       <c r="I258" s="16"/>
     </row>
-    <row r="259" spans="1:9" ht="30">
+    <row r="259" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A259" s="7" t="s">
         <v>515</v>
       </c>
@@ -19702,7 +19724,7 @@
       </c>
       <c r="I259" s="20"/>
     </row>
-    <row r="260" spans="1:9" ht="45">
+    <row r="260" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A260" s="7" t="s">
         <v>517</v>
       </c>
@@ -19727,7 +19749,7 @@
       </c>
       <c r="I260" s="16"/>
     </row>
-    <row r="261" spans="1:9" ht="30">
+    <row r="261" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A261" s="7" t="s">
         <v>519</v>
       </c>
@@ -19752,7 +19774,7 @@
       </c>
       <c r="I261" s="16"/>
     </row>
-    <row r="262" spans="1:9" ht="30">
+    <row r="262" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A262" s="7" t="s">
         <v>521</v>
       </c>
@@ -19777,7 +19799,7 @@
       </c>
       <c r="I262" s="16"/>
     </row>
-    <row r="263" spans="1:9" ht="30">
+    <row r="263" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A263" s="7" t="s">
         <v>523</v>
       </c>
@@ -19802,7 +19824,7 @@
       </c>
       <c r="I263" s="16"/>
     </row>
-    <row r="264" spans="1:9" ht="30">
+    <row r="264" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A264" s="7" t="s">
         <v>525</v>
       </c>
@@ -19827,7 +19849,7 @@
       </c>
       <c r="I264" s="16"/>
     </row>
-    <row r="265" spans="1:9" ht="30">
+    <row r="265" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A265" s="7" t="s">
         <v>527</v>
       </c>
@@ -19852,7 +19874,7 @@
       </c>
       <c r="I265" s="16"/>
     </row>
-    <row r="266" spans="1:9" ht="30">
+    <row r="266" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A266" s="7" t="s">
         <v>529</v>
       </c>
@@ -19877,7 +19899,7 @@
       </c>
       <c r="I266" s="16"/>
     </row>
-    <row r="267" spans="1:9" ht="30">
+    <row r="267" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A267" s="7" t="s">
         <v>531</v>
       </c>
@@ -19902,7 +19924,7 @@
       </c>
       <c r="I267" s="16"/>
     </row>
-    <row r="268" spans="1:9" ht="30">
+    <row r="268" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A268" s="7" t="s">
         <v>533</v>
       </c>
@@ -19927,7 +19949,7 @@
       </c>
       <c r="I268" s="16"/>
     </row>
-    <row r="269" spans="1:9" ht="30">
+    <row r="269" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A269" s="7" t="s">
         <v>535</v>
       </c>
@@ -19952,7 +19974,7 @@
       </c>
       <c r="I269" s="16"/>
     </row>
-    <row r="270" spans="1:9" ht="30">
+    <row r="270" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A270" s="7" t="s">
         <v>537</v>
       </c>
@@ -19977,7 +19999,7 @@
       </c>
       <c r="I270" s="16"/>
     </row>
-    <row r="271" spans="1:9" ht="75">
+    <row r="271" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A271" s="7" t="s">
         <v>539</v>
       </c>
@@ -20002,7 +20024,7 @@
       </c>
       <c r="I271" s="16"/>
     </row>
-    <row r="272" spans="1:9">
+    <row r="272" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A272" s="7" t="s">
         <v>541</v>
       </c>
@@ -20027,7 +20049,7 @@
       </c>
       <c r="I272" s="16"/>
     </row>
-    <row r="273" spans="1:9" ht="30">
+    <row r="273" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A273" s="7" t="s">
         <v>543</v>
       </c>
@@ -20052,7 +20074,7 @@
       </c>
       <c r="I273" s="16"/>
     </row>
-    <row r="274" spans="1:9" ht="45">
+    <row r="274" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A274" s="7" t="s">
         <v>545</v>
       </c>
@@ -20077,7 +20099,7 @@
       </c>
       <c r="I274" s="16"/>
     </row>
-    <row r="275" spans="1:9" ht="30">
+    <row r="275" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A275" s="7" t="s">
         <v>548</v>
       </c>
@@ -20102,7 +20124,7 @@
       </c>
       <c r="I275" s="16"/>
     </row>
-    <row r="276" spans="1:9" ht="30">
+    <row r="276" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A276" s="7" t="s">
         <v>551</v>
       </c>
@@ -20127,7 +20149,7 @@
       </c>
       <c r="I276" s="16"/>
     </row>
-    <row r="277" spans="1:9">
+    <row r="277" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A277" s="7" t="s">
         <v>553</v>
       </c>
@@ -20152,7 +20174,7 @@
       </c>
       <c r="I277" s="16"/>
     </row>
-    <row r="278" spans="1:9" ht="30">
+    <row r="278" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A278" s="7" t="s">
         <v>555</v>
       </c>
@@ -20177,7 +20199,7 @@
       </c>
       <c r="I278" s="16"/>
     </row>
-    <row r="279" spans="1:9">
+    <row r="279" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A279" s="7" t="s">
         <v>558</v>
       </c>
@@ -20202,7 +20224,7 @@
       </c>
       <c r="I279" s="16"/>
     </row>
-    <row r="280" spans="1:9" ht="30">
+    <row r="280" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A280" s="7" t="s">
         <v>560</v>
       </c>
@@ -20227,7 +20249,7 @@
       </c>
       <c r="I280" s="16"/>
     </row>
-    <row r="281" spans="1:9" ht="30">
+    <row r="281" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A281" s="7" t="s">
         <v>562</v>
       </c>
@@ -20252,7 +20274,7 @@
       </c>
       <c r="I281" s="16"/>
     </row>
-    <row r="282" spans="1:9" ht="60">
+    <row r="282" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A282" s="7" t="s">
         <v>565</v>
       </c>
@@ -20277,7 +20299,7 @@
       </c>
       <c r="I282" s="16"/>
     </row>
-    <row r="283" spans="1:9" ht="30">
+    <row r="283" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A283" s="7" t="s">
         <v>568</v>
       </c>
@@ -20302,7 +20324,7 @@
       </c>
       <c r="I283" s="16"/>
     </row>
-    <row r="284" spans="1:9" ht="135">
+    <row r="284" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A284" s="7" t="s">
         <v>567</v>
       </c>
@@ -20327,7 +20349,7 @@
       </c>
       <c r="I284" s="16"/>
     </row>
-    <row r="285" spans="1:9" ht="30">
+    <row r="285" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A285" s="7" t="s">
         <v>955</v>
       </c>
@@ -20354,7 +20376,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="286" spans="1:9" ht="45">
+    <row r="286" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A286" s="7" t="s">
         <v>573</v>
       </c>
@@ -20381,7 +20403,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="287" spans="1:9" ht="30">
+    <row r="287" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A287" s="7" t="s">
         <v>576</v>
       </c>
@@ -20406,7 +20428,7 @@
       </c>
       <c r="I287" s="16"/>
     </row>
-    <row r="288" spans="1:9" ht="30">
+    <row r="288" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A288" s="7" t="s">
         <v>578</v>
       </c>
@@ -20431,7 +20453,7 @@
       </c>
       <c r="I288" s="16"/>
     </row>
-    <row r="289" spans="1:9" ht="75">
+    <row r="289" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A289" s="7" t="s">
         <v>580</v>
       </c>
@@ -20456,7 +20478,7 @@
       </c>
       <c r="I289" s="16"/>
     </row>
-    <row r="290" spans="1:9" ht="30">
+    <row r="290" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A290" s="7" t="s">
         <v>582</v>
       </c>
@@ -20481,7 +20503,7 @@
       </c>
       <c r="I290" s="16"/>
     </row>
-    <row r="291" spans="1:9" ht="45">
+    <row r="291" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A291" s="7" t="s">
         <v>584</v>
       </c>
@@ -20506,7 +20528,7 @@
       </c>
       <c r="I291" s="16"/>
     </row>
-    <row r="292" spans="1:9" ht="45">
+    <row r="292" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A292" s="7" t="s">
         <v>586</v>
       </c>
@@ -20531,7 +20553,7 @@
       </c>
       <c r="I292" s="16"/>
     </row>
-    <row r="293" spans="1:9" ht="45">
+    <row r="293" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A293" s="7" t="s">
         <v>589</v>
       </c>
@@ -20556,7 +20578,7 @@
       </c>
       <c r="I293" s="16"/>
     </row>
-    <row r="294" spans="1:9" ht="30">
+    <row r="294" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A294" s="7" t="s">
         <v>592</v>
       </c>
@@ -20581,7 +20603,7 @@
       </c>
       <c r="I294" s="16"/>
     </row>
-    <row r="295" spans="1:9" ht="30">
+    <row r="295" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A295" s="7" t="s">
         <v>594</v>
       </c>
@@ -20606,7 +20628,7 @@
       </c>
       <c r="I295" s="16"/>
     </row>
-    <row r="296" spans="1:9" ht="45">
+    <row r="296" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A296" s="7" t="s">
         <v>596</v>
       </c>
@@ -20631,7 +20653,7 @@
       </c>
       <c r="I296" s="16"/>
     </row>
-    <row r="297" spans="1:9" ht="30">
+    <row r="297" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A297" s="7" t="s">
         <v>599</v>
       </c>
@@ -20656,7 +20678,7 @@
       </c>
       <c r="I297" s="16"/>
     </row>
-    <row r="298" spans="1:9" ht="45">
+    <row r="298" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A298" s="7" t="s">
         <v>601</v>
       </c>
@@ -20681,7 +20703,7 @@
       </c>
       <c r="I298" s="16"/>
     </row>
-    <row r="299" spans="1:9" ht="30">
+    <row r="299" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A299" s="7" t="s">
         <v>603</v>
       </c>
@@ -20706,7 +20728,7 @@
       </c>
       <c r="I299" s="16"/>
     </row>
-    <row r="300" spans="1:9" ht="120">
+    <row r="300" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A300" s="7" t="s">
         <v>606</v>
       </c>
@@ -20731,7 +20753,7 @@
       </c>
       <c r="I300" s="16"/>
     </row>
-    <row r="301" spans="1:9">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A301" s="7" t="s">
         <v>609</v>
       </c>
@@ -20756,7 +20778,7 @@
       </c>
       <c r="I301" s="16"/>
     </row>
-    <row r="302" spans="1:9" ht="30">
+    <row r="302" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A302" s="7" t="s">
         <v>611</v>
       </c>
@@ -20781,7 +20803,7 @@
       </c>
       <c r="I302" s="16"/>
     </row>
-    <row r="303" spans="1:9" ht="30">
+    <row r="303" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A303" s="7" t="s">
         <v>613</v>
       </c>
@@ -20808,7 +20830,7 @@
       </c>
       <c r="I303" s="16"/>
     </row>
-    <row r="304" spans="1:9" ht="30">
+    <row r="304" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A304" s="7" t="s">
         <v>616</v>
       </c>
@@ -20835,7 +20857,7 @@
       </c>
       <c r="I304" s="16"/>
     </row>
-    <row r="305" spans="1:9" ht="45">
+    <row r="305" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A305" s="7" t="s">
         <v>618</v>
       </c>
@@ -20860,7 +20882,7 @@
       </c>
       <c r="I305" s="16"/>
     </row>
-    <row r="306" spans="1:9" ht="45">
+    <row r="306" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A306" s="7" t="s">
         <v>619</v>
       </c>
@@ -20885,7 +20907,7 @@
       </c>
       <c r="I306" s="16"/>
     </row>
-    <row r="307" spans="1:9" ht="150">
+    <row r="307" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A307" s="7" t="s">
         <v>608</v>
       </c>
@@ -20910,7 +20932,7 @@
       </c>
       <c r="I307" s="16"/>
     </row>
-    <row r="308" spans="1:9" ht="60">
+    <row r="308" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A308" s="7" t="s">
         <v>623</v>
       </c>
@@ -20935,7 +20957,7 @@
       </c>
       <c r="I308" s="16"/>
     </row>
-    <row r="309" spans="1:9" ht="30">
+    <row r="309" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A309" s="7" t="s">
         <v>625</v>
       </c>
@@ -20960,7 +20982,7 @@
       </c>
       <c r="I309" s="16"/>
     </row>
-    <row r="310" spans="1:9" ht="30">
+    <row r="310" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A310" s="7" t="s">
         <v>628</v>
       </c>
@@ -20985,7 +21007,7 @@
       </c>
       <c r="I310" s="16"/>
     </row>
-    <row r="311" spans="1:9" ht="150">
+    <row r="311" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A311" s="7" t="s">
         <v>631</v>
       </c>
@@ -21010,7 +21032,7 @@
       </c>
       <c r="I311" s="16"/>
     </row>
-    <row r="312" spans="1:9">
+    <row r="312" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A312" s="7" t="s">
         <v>632</v>
       </c>
@@ -21035,7 +21057,7 @@
       </c>
       <c r="I312" s="16"/>
     </row>
-    <row r="313" spans="1:9" ht="30">
+    <row r="313" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A313" s="7" t="s">
         <v>634</v>
       </c>
@@ -21060,7 +21082,7 @@
       </c>
       <c r="I313" s="16"/>
     </row>
-    <row r="314" spans="1:9">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A314" s="7" t="s">
         <v>636</v>
       </c>
@@ -21085,7 +21107,7 @@
       </c>
       <c r="I314" s="16"/>
     </row>
-    <row r="315" spans="1:9" ht="30">
+    <row r="315" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A315" s="7" t="s">
         <v>638</v>
       </c>
@@ -21110,7 +21132,7 @@
       </c>
       <c r="I315" s="16"/>
     </row>
-    <row r="316" spans="1:9" ht="45">
+    <row r="316" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A316" s="7" t="s">
         <v>639</v>
       </c>
@@ -21135,7 +21157,7 @@
       </c>
       <c r="I316" s="16"/>
     </row>
-    <row r="317" spans="1:9" ht="30">
+    <row r="317" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A317" s="7" t="s">
         <v>640</v>
       </c>
@@ -21162,7 +21184,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="318" spans="1:9" ht="60">
+    <row r="318" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A318" s="7" t="s">
         <v>643</v>
       </c>
@@ -21187,7 +21209,7 @@
       </c>
       <c r="I318" s="16"/>
     </row>
-    <row r="319" spans="1:9">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A319" s="7" t="s">
         <v>645</v>
       </c>
@@ -21212,7 +21234,7 @@
       </c>
       <c r="I319" s="16"/>
     </row>
-    <row r="320" spans="1:9" ht="30">
+    <row r="320" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A320" s="7" t="s">
         <v>647</v>
       </c>
@@ -21237,7 +21259,7 @@
       </c>
       <c r="I320" s="16"/>
     </row>
-    <row r="321" spans="1:9" ht="45">
+    <row r="321" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A321" s="7" t="s">
         <v>649</v>
       </c>
@@ -21262,7 +21284,7 @@
       </c>
       <c r="I321" s="16"/>
     </row>
-    <row r="322" spans="1:9" ht="30">
+    <row r="322" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A322" s="7" t="s">
         <v>651</v>
       </c>
@@ -21287,7 +21309,7 @@
       </c>
       <c r="I322" s="16"/>
     </row>
-    <row r="323" spans="1:9" ht="30">
+    <row r="323" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A323" s="7" t="s">
         <v>653</v>
       </c>
@@ -21314,7 +21336,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="30">
+    <row r="324" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A324" s="7" t="s">
         <v>655</v>
       </c>
@@ -21339,7 +21361,7 @@
       </c>
       <c r="I324" s="13"/>
     </row>
-    <row r="325" spans="1:9" ht="30">
+    <row r="325" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A325" s="7" t="s">
         <v>656</v>
       </c>
@@ -21364,7 +21386,7 @@
       </c>
       <c r="I325" s="16"/>
     </row>
-    <row r="326" spans="1:9" ht="30">
+    <row r="326" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A326" s="7" t="s">
         <v>659</v>
       </c>
@@ -21389,7 +21411,7 @@
       </c>
       <c r="I326" s="16"/>
     </row>
-    <row r="327" spans="1:9" ht="30">
+    <row r="327" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A327" s="7" t="s">
         <v>662</v>
       </c>
@@ -21414,7 +21436,7 @@
       </c>
       <c r="I327" s="16"/>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A328" s="7" t="s">
         <v>664</v>
       </c>
@@ -21439,7 +21461,7 @@
       </c>
       <c r="I328" s="16"/>
     </row>
-    <row r="329" spans="1:9" ht="30">
+    <row r="329" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A329" s="7" t="s">
         <v>666</v>
       </c>
@@ -21464,7 +21486,7 @@
       </c>
       <c r="I329" s="16"/>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A330" s="7" t="s">
         <v>669</v>
       </c>
@@ -21489,7 +21511,7 @@
       </c>
       <c r="I330" s="16"/>
     </row>
-    <row r="331" spans="1:9" ht="30">
+    <row r="331" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A331" s="7" t="s">
         <v>671</v>
       </c>
@@ -21514,7 +21536,7 @@
       </c>
       <c r="I331" s="16"/>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A332" s="7" t="s">
         <v>673</v>
       </c>
@@ -21539,7 +21561,7 @@
       </c>
       <c r="I332" s="16"/>
     </row>
-    <row r="333" spans="1:9" ht="210">
+    <row r="333" spans="1:9" ht="243" x14ac:dyDescent="0.15">
       <c r="A333" s="7" t="s">
         <v>676</v>
       </c>
@@ -21564,7 +21586,7 @@
       </c>
       <c r="I333" s="16"/>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A334" s="7" t="s">
         <v>679</v>
       </c>
@@ -21589,7 +21611,7 @@
       </c>
       <c r="I334" s="16"/>
     </row>
-    <row r="335" spans="1:9" ht="45">
+    <row r="335" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A335" s="7" t="s">
         <v>681</v>
       </c>
@@ -21614,7 +21636,7 @@
       </c>
       <c r="I335" s="16"/>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A336" s="7" t="s">
         <v>683</v>
       </c>
@@ -21639,7 +21661,7 @@
       </c>
       <c r="I336" s="16"/>
     </row>
-    <row r="337" spans="1:9">
+    <row r="337" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A337" s="7" t="s">
         <v>684</v>
       </c>
@@ -21664,7 +21686,7 @@
       </c>
       <c r="I337" s="16"/>
     </row>
-    <row r="338" spans="1:9" ht="30">
+    <row r="338" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A338" s="7" t="s">
         <v>686</v>
       </c>
@@ -21689,7 +21711,7 @@
       </c>
       <c r="I338" s="16"/>
     </row>
-    <row r="339" spans="1:9" ht="30">
+    <row r="339" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A339" s="7" t="s">
         <v>688</v>
       </c>
@@ -21714,7 +21736,7 @@
       </c>
       <c r="I339" s="16"/>
     </row>
-    <row r="340" spans="1:9">
+    <row r="340" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A340" s="7" t="s">
         <v>690</v>
       </c>
@@ -21739,7 +21761,7 @@
       </c>
       <c r="I340" s="16"/>
     </row>
-    <row r="341" spans="1:9" ht="45">
+    <row r="341" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A341" s="7" t="s">
         <v>691</v>
       </c>
@@ -21764,7 +21786,7 @@
       </c>
       <c r="I341" s="16"/>
     </row>
-    <row r="342" spans="1:9" ht="30">
+    <row r="342" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A342" s="7" t="s">
         <v>693</v>
       </c>
@@ -21791,7 +21813,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="343" spans="1:9">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A343" s="7" t="s">
         <v>695</v>
       </c>
@@ -21816,7 +21838,7 @@
       </c>
       <c r="I343" s="16"/>
     </row>
-    <row r="344" spans="1:9" ht="30">
+    <row r="344" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A344" s="7" t="s">
         <v>697</v>
       </c>
@@ -21841,7 +21863,7 @@
       </c>
       <c r="I344" s="13"/>
     </row>
-    <row r="345" spans="1:9" ht="30">
+    <row r="345" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A345" s="7" t="s">
         <v>698</v>
       </c>
@@ -21866,7 +21888,7 @@
       </c>
       <c r="I345" s="16"/>
     </row>
-    <row r="346" spans="1:9" ht="30">
+    <row r="346" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A346" s="7" t="s">
         <v>700</v>
       </c>
@@ -21891,7 +21913,7 @@
       </c>
       <c r="I346" s="13"/>
     </row>
-    <row r="347" spans="1:9" ht="30">
+    <row r="347" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A347" s="7" t="s">
         <v>702</v>
       </c>
@@ -21916,7 +21938,7 @@
       </c>
       <c r="I347" s="16"/>
     </row>
-    <row r="348" spans="1:9" ht="30">
+    <row r="348" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A348" s="7" t="s">
         <v>704</v>
       </c>
@@ -21941,7 +21963,7 @@
       </c>
       <c r="I348" s="16"/>
     </row>
-    <row r="349" spans="1:9" ht="30">
+    <row r="349" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A349" s="7" t="s">
         <v>705</v>
       </c>
@@ -21966,7 +21988,7 @@
       </c>
       <c r="I349" s="16"/>
     </row>
-    <row r="350" spans="1:9">
+    <row r="350" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A350" s="7" t="s">
         <v>707</v>
       </c>
@@ -21991,7 +22013,7 @@
       </c>
       <c r="I350" s="16"/>
     </row>
-    <row r="351" spans="1:9" ht="120">
+    <row r="351" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A351" s="7" t="s">
         <v>678</v>
       </c>
@@ -22016,7 +22038,7 @@
       </c>
       <c r="I351" s="16"/>
     </row>
-    <row r="352" spans="1:9" ht="30">
+    <row r="352" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A352" s="7" t="s">
         <v>711</v>
       </c>
@@ -22041,7 +22063,7 @@
       </c>
       <c r="I352" s="16"/>
     </row>
-    <row r="353" spans="1:9" ht="30">
+    <row r="353" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A353" s="7" t="s">
         <v>712</v>
       </c>
@@ -22066,7 +22088,7 @@
       </c>
       <c r="I353" s="16"/>
     </row>
-    <row r="354" spans="1:9" ht="30">
+    <row r="354" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A354" s="7" t="s">
         <v>714</v>
       </c>
@@ -22091,7 +22113,7 @@
       </c>
       <c r="I354" s="13"/>
     </row>
-    <row r="355" spans="1:9" ht="30">
+    <row r="355" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A355" s="7" t="s">
         <v>716</v>
       </c>
@@ -22116,7 +22138,7 @@
       </c>
       <c r="I355" s="16"/>
     </row>
-    <row r="356" spans="1:9" ht="30">
+    <row r="356" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A356" s="7" t="s">
         <v>718</v>
       </c>
@@ -22141,7 +22163,7 @@
       </c>
       <c r="I356" s="16"/>
     </row>
-    <row r="357" spans="1:9" ht="30">
+    <row r="357" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A357" s="21" t="s">
         <v>720</v>
       </c>
@@ -22166,7 +22188,7 @@
       </c>
       <c r="I357" s="23"/>
     </row>
-    <row r="358" spans="1:9" ht="30">
+    <row r="358" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A358" s="7" t="s">
         <v>722</v>
       </c>
@@ -22191,7 +22213,7 @@
       </c>
       <c r="I358" s="16"/>
     </row>
-    <row r="359" spans="1:9" ht="30">
+    <row r="359" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A359" s="7" t="s">
         <v>724</v>
       </c>
@@ -22216,7 +22238,7 @@
       </c>
       <c r="I359" s="16"/>
     </row>
-    <row r="360" spans="1:9" ht="30">
+    <row r="360" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A360" s="7" t="s">
         <v>726</v>
       </c>
@@ -22243,7 +22265,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="361" spans="1:9" ht="60">
+    <row r="361" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A361" s="7" t="s">
         <v>728</v>
       </c>
@@ -22268,7 +22290,7 @@
       </c>
       <c r="I361" s="16"/>
     </row>
-    <row r="362" spans="1:9">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A362" s="7" t="s">
         <v>730</v>
       </c>
@@ -22293,7 +22315,7 @@
       </c>
       <c r="I362" s="16"/>
     </row>
-    <row r="363" spans="1:9" ht="30">
+    <row r="363" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A363" s="7" t="s">
         <v>732</v>
       </c>
@@ -22318,7 +22340,7 @@
       </c>
       <c r="I363" s="16"/>
     </row>
-    <row r="364" spans="1:9" ht="30">
+    <row r="364" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A364" s="7" t="s">
         <v>734</v>
       </c>
@@ -22343,7 +22365,7 @@
       </c>
       <c r="I364" s="16"/>
     </row>
-    <row r="365" spans="1:9" ht="30">
+    <row r="365" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A365" s="7" t="s">
         <v>736</v>
       </c>
@@ -22368,7 +22390,7 @@
       </c>
       <c r="I365" s="16"/>
     </row>
-    <row r="366" spans="1:9" ht="30">
+    <row r="366" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A366" s="7" t="s">
         <v>738</v>
       </c>
@@ -22393,7 +22415,7 @@
       </c>
       <c r="I366" s="16"/>
     </row>
-    <row r="367" spans="1:9" ht="30">
+    <row r="367" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A367" s="7" t="s">
         <v>740</v>
       </c>
@@ -22418,7 +22440,7 @@
       </c>
       <c r="I367" s="16"/>
     </row>
-    <row r="368" spans="1:9" ht="30">
+    <row r="368" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A368" s="7" t="s">
         <v>743</v>
       </c>
@@ -22443,7 +22465,7 @@
       </c>
       <c r="I368" s="16"/>
     </row>
-    <row r="369" spans="1:9" ht="30">
+    <row r="369" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A369" s="7" t="s">
         <v>745</v>
       </c>
@@ -22468,7 +22490,7 @@
       </c>
       <c r="I369" s="16"/>
     </row>
-    <row r="370" spans="1:9">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A370" s="7" t="s">
         <v>747</v>
       </c>
@@ -22493,7 +22515,7 @@
       </c>
       <c r="I370" s="16"/>
     </row>
-    <row r="371" spans="1:9" ht="30">
+    <row r="371" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A371" s="7" t="s">
         <v>749</v>
       </c>
@@ -22518,7 +22540,7 @@
       </c>
       <c r="I371" s="16"/>
     </row>
-    <row r="372" spans="1:9">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A372" s="7" t="s">
         <v>751</v>
       </c>
@@ -22543,7 +22565,7 @@
       </c>
       <c r="I372" s="16"/>
     </row>
-    <row r="373" spans="1:9" ht="30">
+    <row r="373" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A373" s="7" t="s">
         <v>753</v>
       </c>
@@ -22568,7 +22590,7 @@
       </c>
       <c r="I373" s="16"/>
     </row>
-    <row r="374" spans="1:9">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A374" s="7" t="s">
         <v>755</v>
       </c>
@@ -22593,7 +22615,7 @@
       </c>
       <c r="I374" s="16"/>
     </row>
-    <row r="375" spans="1:9" ht="240">
+    <row r="375" spans="1:9" ht="324" x14ac:dyDescent="0.15">
       <c r="A375" s="7" t="s">
         <v>758</v>
       </c>
@@ -22618,7 +22640,7 @@
       </c>
       <c r="I375" s="16"/>
     </row>
-    <row r="376" spans="1:9">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A376" s="7" t="s">
         <v>761</v>
       </c>
@@ -22643,7 +22665,7 @@
       </c>
       <c r="I376" s="16"/>
     </row>
-    <row r="377" spans="1:9">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A377" s="7" t="s">
         <v>763</v>
       </c>
@@ -22668,7 +22690,7 @@
       </c>
       <c r="I377" s="16"/>
     </row>
-    <row r="378" spans="1:9">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A378" s="7" t="s">
         <v>765</v>
       </c>
@@ -22693,7 +22715,7 @@
       </c>
       <c r="I378" s="16"/>
     </row>
-    <row r="379" spans="1:9">
+    <row r="379" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A379" s="7" t="s">
         <v>767</v>
       </c>
@@ -22718,7 +22740,7 @@
       </c>
       <c r="I379" s="16"/>
     </row>
-    <row r="380" spans="1:9" ht="30">
+    <row r="380" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A380" s="7" t="s">
         <v>769</v>
       </c>
@@ -22743,7 +22765,7 @@
       </c>
       <c r="I380" s="16"/>
     </row>
-    <row r="381" spans="1:9" ht="45">
+    <row r="381" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A381" s="7" t="s">
         <v>771</v>
       </c>
@@ -22768,7 +22790,7 @@
       </c>
       <c r="I381" s="16"/>
     </row>
-    <row r="382" spans="1:9" ht="30">
+    <row r="382" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A382" s="7" t="s">
         <v>773</v>
       </c>
@@ -22793,7 +22815,7 @@
       </c>
       <c r="I382" s="16"/>
     </row>
-    <row r="383" spans="1:9" ht="30">
+    <row r="383" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A383" s="7" t="s">
         <v>775</v>
       </c>
@@ -22818,7 +22840,7 @@
       </c>
       <c r="I383" s="16"/>
     </row>
-    <row r="384" spans="1:9" ht="30">
+    <row r="384" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A384" s="7" t="s">
         <v>777</v>
       </c>
@@ -22843,7 +22865,7 @@
       </c>
       <c r="I384" s="16"/>
     </row>
-    <row r="385" spans="1:9" ht="30">
+    <row r="385" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A385" s="7" t="s">
         <v>779</v>
       </c>
@@ -22868,7 +22890,7 @@
       </c>
       <c r="I385" s="16"/>
     </row>
-    <row r="386" spans="1:9" ht="30">
+    <row r="386" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A386" s="7" t="s">
         <v>781</v>
       </c>
@@ -22893,7 +22915,7 @@
       </c>
       <c r="I386" s="16"/>
     </row>
-    <row r="387" spans="1:9" ht="30">
+    <row r="387" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A387" s="7" t="s">
         <v>783</v>
       </c>
@@ -22918,7 +22940,7 @@
       </c>
       <c r="I387" s="16"/>
     </row>
-    <row r="388" spans="1:9">
+    <row r="388" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A388" s="7" t="s">
         <v>785</v>
       </c>
@@ -22943,7 +22965,7 @@
       </c>
       <c r="I388" s="16"/>
     </row>
-    <row r="389" spans="1:9" ht="30">
+    <row r="389" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A389" s="7" t="s">
         <v>787</v>
       </c>
@@ -22968,7 +22990,7 @@
       </c>
       <c r="I389" s="13"/>
     </row>
-    <row r="390" spans="1:9" ht="30">
+    <row r="390" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A390" s="7" t="s">
         <v>789</v>
       </c>
@@ -22993,7 +23015,7 @@
       </c>
       <c r="I390" s="13"/>
     </row>
-    <row r="391" spans="1:9" ht="30">
+    <row r="391" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A391" s="7" t="s">
         <v>791</v>
       </c>
@@ -23018,7 +23040,7 @@
       </c>
       <c r="I391" s="16"/>
     </row>
-    <row r="392" spans="1:9" ht="30">
+    <row r="392" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A392" s="7" t="s">
         <v>793</v>
       </c>
@@ -23043,7 +23065,7 @@
       </c>
       <c r="I392" s="16"/>
     </row>
-    <row r="393" spans="1:9" ht="30">
+    <row r="393" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A393" s="7" t="s">
         <v>795</v>
       </c>
@@ -23068,7 +23090,7 @@
       </c>
       <c r="I393" s="16"/>
     </row>
-    <row r="394" spans="1:9" ht="30">
+    <row r="394" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A394" s="7" t="s">
         <v>797</v>
       </c>
@@ -23093,7 +23115,7 @@
       </c>
       <c r="I394" s="16"/>
     </row>
-    <row r="395" spans="1:9" ht="30">
+    <row r="395" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A395" s="7" t="s">
         <v>799</v>
       </c>
@@ -23118,7 +23140,7 @@
       </c>
       <c r="I395" s="16"/>
     </row>
-    <row r="396" spans="1:9" ht="30">
+    <row r="396" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A396" s="7" t="s">
         <v>801</v>
       </c>
@@ -23143,7 +23165,7 @@
       </c>
       <c r="I396" s="16"/>
     </row>
-    <row r="397" spans="1:9" ht="30">
+    <row r="397" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A397" s="7" t="s">
         <v>803</v>
       </c>
@@ -23168,7 +23190,7 @@
       </c>
       <c r="I397" s="13"/>
     </row>
-    <row r="398" spans="1:9" ht="45">
+    <row r="398" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A398" s="7" t="s">
         <v>804</v>
       </c>
@@ -23195,7 +23217,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="399" spans="1:9" ht="45">
+    <row r="399" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A399" s="7" t="s">
         <v>805</v>
       </c>
@@ -23222,7 +23244,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="400" spans="1:9">
+    <row r="400" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A400" s="7" t="s">
         <v>806</v>
       </c>
@@ -23247,7 +23269,7 @@
       </c>
       <c r="I400" s="16"/>
     </row>
-    <row r="401" spans="1:9" ht="270">
+    <row r="401" spans="1:9" ht="243" x14ac:dyDescent="0.15">
       <c r="A401" s="7" t="s">
         <v>760</v>
       </c>
@@ -23272,7 +23294,7 @@
       </c>
       <c r="I401" s="16"/>
     </row>
-    <row r="402" spans="1:9">
+    <row r="402" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A402" s="7" t="s">
         <v>810</v>
       </c>
@@ -23297,7 +23319,7 @@
       </c>
       <c r="I402" s="16"/>
     </row>
-    <row r="403" spans="1:9" ht="30">
+    <row r="403" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A403" s="7" t="s">
         <v>812</v>
       </c>
@@ -23324,7 +23346,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="404" spans="1:9" ht="60">
+    <row r="404" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A404" s="7" t="s">
         <v>814</v>
       </c>
@@ -23349,7 +23371,7 @@
       </c>
       <c r="I404" s="16"/>
     </row>
-    <row r="405" spans="1:9">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A405" s="7" t="s">
         <v>816</v>
       </c>
@@ -23374,7 +23396,7 @@
       </c>
       <c r="I405" s="16"/>
     </row>
-    <row r="406" spans="1:9" ht="30">
+    <row r="406" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A406" s="7" t="s">
         <v>818</v>
       </c>
@@ -23399,7 +23421,7 @@
       </c>
       <c r="I406" s="16"/>
     </row>
-    <row r="407" spans="1:9" ht="30">
+    <row r="407" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A407" s="7" t="s">
         <v>820</v>
       </c>
@@ -23424,7 +23446,7 @@
       </c>
       <c r="I407" s="16"/>
     </row>
-    <row r="408" spans="1:9" ht="30">
+    <row r="408" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A408" s="7" t="s">
         <v>822</v>
       </c>
@@ -23449,7 +23471,7 @@
       </c>
       <c r="I408" s="16"/>
     </row>
-    <row r="409" spans="1:9" ht="30">
+    <row r="409" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A409" s="7" t="s">
         <v>825</v>
       </c>
@@ -23474,7 +23496,7 @@
       </c>
       <c r="I409" s="16"/>
     </row>
-    <row r="410" spans="1:9" ht="30">
+    <row r="410" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A410" s="7" t="s">
         <v>827</v>
       </c>
@@ -23499,7 +23521,7 @@
       </c>
       <c r="I410" s="16"/>
     </row>
-    <row r="411" spans="1:9">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A411" s="7" t="s">
         <v>829</v>
       </c>
@@ -23524,7 +23546,7 @@
       </c>
       <c r="I411" s="16"/>
     </row>
-    <row r="412" spans="1:9" ht="30">
+    <row r="412" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A412" s="7" t="s">
         <v>831</v>
       </c>
@@ -23549,7 +23571,7 @@
       </c>
       <c r="I412" s="16"/>
     </row>
-    <row r="413" spans="1:9">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A413" s="7" t="s">
         <v>833</v>
       </c>
@@ -23574,7 +23596,7 @@
       </c>
       <c r="I413" s="16"/>
     </row>
-    <row r="414" spans="1:9" ht="30">
+    <row r="414" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A414" s="7" t="s">
         <v>982</v>
       </c>
@@ -23599,7 +23621,7 @@
       </c>
       <c r="I414" s="16"/>
     </row>
-    <row r="415" spans="1:9">
+    <row r="415" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A415" s="7" t="s">
         <v>836</v>
       </c>
@@ -23624,7 +23646,7 @@
       </c>
       <c r="I415" s="16"/>
     </row>
-    <row r="416" spans="1:9" ht="105">
+    <row r="416" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A416" s="7" t="s">
         <v>839</v>
       </c>
@@ -23649,7 +23671,7 @@
       </c>
       <c r="I416" s="16"/>
     </row>
-    <row r="417" spans="1:9">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A417" s="7" t="s">
         <v>842</v>
       </c>
@@ -23674,7 +23696,7 @@
       </c>
       <c r="I417" s="16"/>
     </row>
-    <row r="418" spans="1:9" ht="30">
+    <row r="418" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A418" s="7" t="s">
         <v>983</v>
       </c>
@@ -23699,7 +23721,7 @@
       </c>
       <c r="I418" s="16"/>
     </row>
-    <row r="419" spans="1:9" ht="60">
+    <row r="419" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A419" s="7" t="s">
         <v>841</v>
       </c>
@@ -23724,7 +23746,7 @@
       </c>
       <c r="I419" s="16"/>
     </row>
-    <row r="420" spans="1:9" ht="30">
+    <row r="420" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A420" s="7" t="s">
         <v>1064</v>
       </c>
@@ -23751,7 +23773,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="421" spans="1:9" ht="30">
+    <row r="421" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A421" s="7" t="s">
         <v>1065</v>
       </c>
@@ -23776,7 +23798,7 @@
       </c>
       <c r="I421" s="54"/>
     </row>
-    <row r="422" spans="1:9" ht="75">
+    <row r="422" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A422" s="7" t="s">
         <v>1066</v>
       </c>
@@ -23801,7 +23823,7 @@
       </c>
       <c r="I422" s="54"/>
     </row>
-    <row r="423" spans="1:9">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A423" s="7" t="s">
         <v>1067</v>
       </c>
@@ -23826,7 +23848,7 @@
       </c>
       <c r="I423" s="54"/>
     </row>
-    <row r="424" spans="1:9" ht="30">
+    <row r="424" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A424" s="7" t="s">
         <v>1068</v>
       </c>
@@ -23851,7 +23873,7 @@
       </c>
       <c r="I424" s="54"/>
     </row>
-    <row r="425" spans="1:9">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A425" s="7" t="s">
         <v>1069</v>
       </c>
@@ -23876,7 +23898,7 @@
       </c>
       <c r="I425" s="54"/>
     </row>
-    <row r="426" spans="1:9" ht="30">
+    <row r="426" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A426" s="7" t="s">
         <v>1070</v>
       </c>
@@ -23901,7 +23923,7 @@
       </c>
       <c r="I426" s="54"/>
     </row>
-    <row r="427" spans="1:9" ht="45">
+    <row r="427" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A427" s="7" t="s">
         <v>1071</v>
       </c>
@@ -23926,7 +23948,7 @@
       </c>
       <c r="I427" s="54"/>
     </row>
-    <row r="428" spans="1:9">
+    <row r="428" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A428" s="7" t="s">
         <v>1072</v>
       </c>
@@ -23951,7 +23973,7 @@
       </c>
       <c r="I428" s="54"/>
     </row>
-    <row r="429" spans="1:9" ht="30">
+    <row r="429" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A429" s="7" t="s">
         <v>1073</v>
       </c>
@@ -23976,7 +23998,7 @@
       </c>
       <c r="I429" s="54"/>
     </row>
-    <row r="430" spans="1:9">
+    <row r="430" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A430" s="7" t="s">
         <v>1074</v>
       </c>
@@ -24001,7 +24023,7 @@
       </c>
       <c r="I430" s="54"/>
     </row>
-    <row r="431" spans="1:9">
+    <row r="431" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A431" s="7" t="s">
         <v>1075</v>
       </c>
@@ -24026,7 +24048,7 @@
       </c>
       <c r="I431" s="54"/>
     </row>
-    <row r="432" spans="1:9" ht="30">
+    <row r="432" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A432" s="7" t="s">
         <v>1076</v>
       </c>
@@ -24051,7 +24073,7 @@
       </c>
       <c r="I432" s="54"/>
     </row>
-    <row r="433" spans="1:9" ht="120">
+    <row r="433" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A433" s="7" t="s">
         <v>1077</v>
       </c>
@@ -24076,7 +24098,7 @@
       </c>
       <c r="I433" s="54"/>
     </row>
-    <row r="434" spans="1:9">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A434" s="7" t="s">
         <v>1078</v>
       </c>
@@ -24101,7 +24123,7 @@
       </c>
       <c r="I434" s="54"/>
     </row>
-    <row r="435" spans="1:9">
+    <row r="435" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A435" s="7" t="s">
         <v>1079</v>
       </c>
@@ -24126,7 +24148,7 @@
       </c>
       <c r="I435" s="54"/>
     </row>
-    <row r="436" spans="1:9" ht="30">
+    <row r="436" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A436" s="7" t="s">
         <v>1080</v>
       </c>
@@ -24151,7 +24173,7 @@
       </c>
       <c r="I436" s="54"/>
     </row>
-    <row r="437" spans="1:9">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A437" s="7" t="s">
         <v>1081</v>
       </c>
@@ -24176,7 +24198,7 @@
       </c>
       <c r="I437" s="54"/>
     </row>
-    <row r="438" spans="1:9" ht="30">
+    <row r="438" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A438" s="7" t="s">
         <v>1082</v>
       </c>
@@ -24201,7 +24223,7 @@
       </c>
       <c r="I438" s="54"/>
     </row>
-    <row r="439" spans="1:9" ht="135">
+    <row r="439" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A439" s="7" t="s">
         <v>1083</v>
       </c>
@@ -24226,7 +24248,7 @@
       </c>
       <c r="I439" s="54"/>
     </row>
-    <row r="440" spans="1:9">
+    <row r="440" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A440" s="7" t="s">
         <v>1084</v>
       </c>
@@ -24251,7 +24273,7 @@
       </c>
       <c r="I440" s="54"/>
     </row>
-    <row r="441" spans="1:9" ht="30">
+    <row r="441" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A441" s="7" t="s">
         <v>1085</v>
       </c>
@@ -24276,7 +24298,7 @@
       </c>
       <c r="I441" s="54"/>
     </row>
-    <row r="442" spans="1:9">
+    <row r="442" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A442" s="7" t="s">
         <v>1086</v>
       </c>
@@ -24301,7 +24323,7 @@
       </c>
       <c r="I442" s="54"/>
     </row>
-    <row r="443" spans="1:9">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A443" s="7" t="s">
         <v>1087</v>
       </c>
@@ -24326,7 +24348,7 @@
       </c>
       <c r="I443" s="54"/>
     </row>
-    <row r="444" spans="1:9" ht="30">
+    <row r="444" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A444" s="7" t="s">
         <v>1088</v>
       </c>
@@ -24351,7 +24373,7 @@
       </c>
       <c r="I444" s="54"/>
     </row>
-    <row r="445" spans="1:9" ht="105">
+    <row r="445" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A445" s="7" t="s">
         <v>1089</v>
       </c>
@@ -24376,7 +24398,7 @@
       </c>
       <c r="I445" s="54"/>
     </row>
-    <row r="446" spans="1:9">
+    <row r="446" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A446" s="7" t="s">
         <v>1090</v>
       </c>
@@ -24397,128 +24419,122 @@
         <v>16</v>
       </c>
       <c r="H446" s="17" t="s">
-        <v>23</v>
+        <v>1142</v>
       </c>
       <c r="I446" s="54"/>
     </row>
-    <row r="447" spans="1:9" ht="45">
-      <c r="A447" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="B447" s="11" t="s">
-        <v>848</v>
-      </c>
-      <c r="C447" s="12" t="s">
-        <v>998</v>
-      </c>
-      <c r="D447" s="11"/>
-      <c r="E447" s="10" t="s">
-        <v>24</v>
+    <row r="447" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A447" s="7" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B447" s="19" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C447" s="13" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D447" s="53"/>
+      <c r="E447" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="F447" s="7" t="s">
         <v>4</v>
       </c>
       <c r="G447" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H447" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I447" s="51"/>
-    </row>
-    <row r="448" spans="1:9" ht="30">
-      <c r="A448" s="10" t="s">
-        <v>849</v>
-      </c>
-      <c r="B448" s="11" t="s">
-        <v>848</v>
-      </c>
-      <c r="C448" s="12" t="s">
-        <v>850</v>
-      </c>
-      <c r="D448" s="11"/>
-      <c r="E448" s="10" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="H447" s="17" t="s">
+        <v>1143</v>
+      </c>
+      <c r="I447" s="54"/>
+    </row>
+    <row r="448" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A448" s="7" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B448" s="19" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C448" s="13" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D448" s="53"/>
+      <c r="E448" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="F448" s="7" t="s">
         <v>4</v>
       </c>
       <c r="G448" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H448" s="17" t="s">
+        <v>1142</v>
+      </c>
+      <c r="I448" s="54"/>
+    </row>
+    <row r="449" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A449" s="10" t="s">
+        <v>847</v>
+      </c>
+      <c r="B449" s="11" t="s">
+        <v>848</v>
+      </c>
+      <c r="C449" s="12" t="s">
+        <v>998</v>
+      </c>
+      <c r="D449" s="11"/>
+      <c r="E449" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F449" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G449" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H448" s="10" t="s">
+      <c r="H449" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I448" s="51"/>
-    </row>
-    <row r="449" spans="1:9" ht="45">
-      <c r="A449" s="7" t="s">
+      <c r="I449" s="51"/>
+    </row>
+    <row r="450" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A450" s="10" t="s">
+        <v>849</v>
+      </c>
+      <c r="B450" s="11" t="s">
+        <v>848</v>
+      </c>
+      <c r="C450" s="12" t="s">
+        <v>850</v>
+      </c>
+      <c r="D450" s="11"/>
+      <c r="E450" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F450" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G450" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H450" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I450" s="51"/>
+    </row>
+    <row r="451" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A451" s="7" t="s">
         <v>851</v>
-      </c>
-      <c r="B449" s="14" t="s">
-        <v>848</v>
-      </c>
-      <c r="C449" s="13" t="s">
-        <v>938</v>
-      </c>
-      <c r="D449" s="53" t="s">
-        <v>939</v>
-      </c>
-      <c r="E449" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F449" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G449" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H449" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I449" s="51"/>
-    </row>
-    <row r="450" spans="1:9" ht="45">
-      <c r="A450" s="7" t="s">
-        <v>852</v>
-      </c>
-      <c r="B450" s="14" t="s">
-        <v>848</v>
-      </c>
-      <c r="C450" s="13" t="s">
-        <v>853</v>
-      </c>
-      <c r="D450" s="53" t="s">
-        <v>939</v>
-      </c>
-      <c r="E450" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F450" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G450" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H450" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I450" s="52" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="451" spans="1:9" ht="30">
-      <c r="A451" s="7" t="s">
-        <v>854</v>
       </c>
       <c r="B451" s="14" t="s">
         <v>848</v>
       </c>
       <c r="C451" s="13" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="D451" s="53" t="s">
-        <v>986</v>
+        <v>939</v>
       </c>
       <c r="E451" s="7" t="s">
         <v>24</v>
@@ -24534,18 +24550,18 @@
       </c>
       <c r="I451" s="51"/>
     </row>
-    <row r="452" spans="1:9" ht="45">
+    <row r="452" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A452" s="7" t="s">
-        <v>984</v>
-      </c>
-      <c r="B452" s="53" t="s">
+        <v>852</v>
+      </c>
+      <c r="B452" s="14" t="s">
         <v>848</v>
       </c>
       <c r="C452" s="13" t="s">
-        <v>985</v>
+        <v>853</v>
       </c>
       <c r="D452" s="53" t="s">
-        <v>986</v>
+        <v>939</v>
       </c>
       <c r="E452" s="7" t="s">
         <v>24</v>
@@ -24556,27 +24572,27 @@
       <c r="G452" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H452" s="17" t="s">
+      <c r="H452" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I452" s="52" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="453" spans="1:9" ht="45">
+    <row r="453" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A453" s="7" t="s">
-        <v>855</v>
-      </c>
-      <c r="B453" s="19">
-        <v>7</v>
-      </c>
-      <c r="C453" s="26" t="s">
-        <v>944</v>
+        <v>854</v>
+      </c>
+      <c r="B453" s="14" t="s">
+        <v>848</v>
+      </c>
+      <c r="C453" s="13" t="s">
+        <v>941</v>
       </c>
       <c r="D453" s="53" t="s">
-        <v>942</v>
-      </c>
-      <c r="E453" s="27" t="s">
+        <v>986</v>
+      </c>
+      <c r="E453" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F453" s="7" t="s">
@@ -24585,27 +24601,25 @@
       <c r="G453" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H453" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I453" s="52" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="454" spans="1:9" ht="45.75" thickBot="1">
+      <c r="H453" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I453" s="51"/>
+    </row>
+    <row r="454" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A454" s="7" t="s">
-        <v>856</v>
-      </c>
-      <c r="B454" s="19">
-        <v>7</v>
-      </c>
-      <c r="C454" s="16" t="s">
-        <v>943</v>
+        <v>984</v>
+      </c>
+      <c r="B454" s="53" t="s">
+        <v>848</v>
+      </c>
+      <c r="C454" s="13" t="s">
+        <v>985</v>
       </c>
       <c r="D454" s="53" t="s">
-        <v>942</v>
-      </c>
-      <c r="E454" s="28" t="s">
+        <v>986</v>
+      </c>
+      <c r="E454" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F454" s="7" t="s">
@@ -24621,20 +24635,20 @@
         <v>932</v>
       </c>
     </row>
-    <row r="455" spans="1:9" ht="45.75" thickBot="1">
+    <row r="455" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A455" s="7" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B455" s="19" t="s">
-        <v>848</v>
-      </c>
-      <c r="C455" s="13" t="s">
-        <v>1113</v>
+        <v>855</v>
+      </c>
+      <c r="B455" s="19">
+        <v>7</v>
+      </c>
+      <c r="C455" s="26" t="s">
+        <v>944</v>
       </c>
       <c r="D455" s="53" t="s">
         <v>942</v>
       </c>
-      <c r="E455" s="28" t="s">
+      <c r="E455" s="27" t="s">
         <v>24</v>
       </c>
       <c r="F455" s="7" t="s">
@@ -24643,50 +24657,56 @@
       <c r="G455" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H455" s="17" t="s">
+      <c r="H455" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I455" s="58"/>
-    </row>
-    <row r="456" spans="1:9" ht="30.75" thickBot="1">
+      <c r="I455" s="52" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A456" s="7" t="s">
-        <v>857</v>
-      </c>
-      <c r="B456" s="11">
+        <v>856</v>
+      </c>
+      <c r="B456" s="19">
         <v>7</v>
       </c>
       <c r="C456" s="16" t="s">
-        <v>905</v>
-      </c>
-      <c r="D456" s="14"/>
-      <c r="E456" s="29" t="s">
+        <v>943</v>
+      </c>
+      <c r="D456" s="53" t="s">
+        <v>942</v>
+      </c>
+      <c r="E456" s="28" t="s">
         <v>24</v>
       </c>
       <c r="F456" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G456" s="7" t="s">
         <v>16</v>
       </c>
       <c r="H456" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I456" s="16"/>
-    </row>
-    <row r="457" spans="1:9" ht="60">
+        <v>21</v>
+      </c>
+      <c r="I456" s="52" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A457" s="7" t="s">
-        <v>1135</v>
-      </c>
-      <c r="B457" s="14" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B457" s="19" t="s">
         <v>848</v>
       </c>
       <c r="C457" s="13" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="D457" s="53" t="s">
-        <v>945</v>
-      </c>
-      <c r="E457" s="7" t="s">
+        <v>942</v>
+      </c>
+      <c r="E457" s="28" t="s">
         <v>24</v>
       </c>
       <c r="F457" s="7" t="s">
@@ -24695,52 +24715,48 @@
       <c r="G457" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H457" s="7" t="s">
+      <c r="H457" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I457" s="52" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="458" spans="1:9" ht="45">
+      <c r="I457" s="58"/>
+    </row>
+    <row r="458" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A458" s="7" t="s">
-        <v>858</v>
-      </c>
-      <c r="B458" s="14" t="s">
-        <v>848</v>
-      </c>
-      <c r="C458" s="13" t="s">
-        <v>947</v>
-      </c>
-      <c r="D458" s="53" t="s">
-        <v>946</v>
-      </c>
-      <c r="E458" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="B458" s="11">
+        <v>7</v>
+      </c>
+      <c r="C458" s="16" t="s">
+        <v>905</v>
+      </c>
+      <c r="D458" s="14"/>
+      <c r="E458" s="29" t="s">
         <v>24</v>
       </c>
       <c r="F458" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G458" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H458" s="7" t="s">
+      <c r="H458" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I458" s="51"/>
-    </row>
-    <row r="459" spans="1:9" ht="45">
+      <c r="I458" s="16"/>
+    </row>
+    <row r="459" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A459" s="7" t="s">
-        <v>859</v>
+        <v>1135</v>
       </c>
       <c r="B459" s="14" t="s">
         <v>848</v>
       </c>
       <c r="C459" s="13" t="s">
-        <v>860</v>
+        <v>1114</v>
       </c>
       <c r="D459" s="53" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E459" s="7" t="s">
         <v>24</v>
@@ -24758,18 +24774,18 @@
         <v>932</v>
       </c>
     </row>
-    <row r="460" spans="1:9" ht="45">
+    <row r="460" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A460" s="7" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B460" s="14" t="s">
         <v>848</v>
       </c>
       <c r="C460" s="13" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D460" s="53" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="E460" s="7" t="s">
         <v>24</v>
@@ -24785,18 +24801,18 @@
       </c>
       <c r="I460" s="51"/>
     </row>
-    <row r="461" spans="1:9" ht="45">
+    <row r="461" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A461" s="7" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B461" s="14" t="s">
         <v>848</v>
       </c>
       <c r="C461" s="13" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="D461" s="53" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="E461" s="7" t="s">
         <v>24</v>
@@ -24814,20 +24830,20 @@
         <v>932</v>
       </c>
     </row>
-    <row r="462" spans="1:9" ht="45.75" thickBot="1">
+    <row r="462" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A462" s="7" t="s">
-        <v>864</v>
-      </c>
-      <c r="B462" s="19" t="s">
+        <v>861</v>
+      </c>
+      <c r="B462" s="14" t="s">
         <v>848</v>
       </c>
       <c r="C462" s="13" t="s">
-        <v>1115</v>
+        <v>948</v>
       </c>
       <c r="D462" s="53" t="s">
-        <v>950</v>
-      </c>
-      <c r="E462" s="28" t="s">
+        <v>949</v>
+      </c>
+      <c r="E462" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F462" s="7" t="s">
@@ -24836,27 +24852,25 @@
       <c r="G462" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H462" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I462" s="52" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="463" spans="1:9" ht="60">
+      <c r="H462" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I462" s="51"/>
+    </row>
+    <row r="463" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A463" s="7" t="s">
-        <v>980</v>
-      </c>
-      <c r="B463" s="19" t="s">
+        <v>862</v>
+      </c>
+      <c r="B463" s="14" t="s">
         <v>848</v>
       </c>
       <c r="C463" s="13" t="s">
-        <v>1140</v>
+        <v>863</v>
       </c>
       <c r="D463" s="53" t="s">
-        <v>950</v>
-      </c>
-      <c r="E463" s="55" t="s">
+        <v>949</v>
+      </c>
+      <c r="E463" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F463" s="7" t="s">
@@ -24865,27 +24879,27 @@
       <c r="G463" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H463" s="17" t="s">
+      <c r="H463" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I463" s="52" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="464" spans="1:9" ht="45">
+    <row r="464" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A464" s="7" t="s">
-        <v>978</v>
-      </c>
-      <c r="B464" s="14" t="s">
+        <v>864</v>
+      </c>
+      <c r="B464" s="19" t="s">
         <v>848</v>
       </c>
       <c r="C464" s="13" t="s">
-        <v>952</v>
+        <v>1115</v>
       </c>
       <c r="D464" s="53" t="s">
-        <v>951</v>
-      </c>
-      <c r="E464" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="E464" s="28" t="s">
         <v>24</v>
       </c>
       <c r="F464" s="7" t="s">
@@ -24894,25 +24908,27 @@
       <c r="G464" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H464" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I464" s="51"/>
-    </row>
-    <row r="465" spans="1:9" ht="30">
+      <c r="H464" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I464" s="52" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A465" s="7" t="s">
-        <v>865</v>
-      </c>
-      <c r="B465" s="14" t="s">
+        <v>980</v>
+      </c>
+      <c r="B465" s="19" t="s">
         <v>848</v>
       </c>
       <c r="C465" s="13" t="s">
-        <v>989</v>
+        <v>1140</v>
       </c>
       <c r="D465" s="53" t="s">
-        <v>992</v>
-      </c>
-      <c r="E465" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="E465" s="55" t="s">
         <v>24</v>
       </c>
       <c r="F465" s="7" t="s">
@@ -24921,23 +24937,25 @@
       <c r="G465" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H465" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I465" s="51"/>
-    </row>
-    <row r="466" spans="1:9" ht="45">
+      <c r="H465" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I465" s="52" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A466" s="7" t="s">
-        <v>988</v>
-      </c>
-      <c r="B466" s="53" t="s">
+        <v>978</v>
+      </c>
+      <c r="B466" s="14" t="s">
         <v>848</v>
       </c>
       <c r="C466" s="13" t="s">
-        <v>990</v>
+        <v>952</v>
       </c>
       <c r="D466" s="53" t="s">
-        <v>992</v>
+        <v>951</v>
       </c>
       <c r="E466" s="7" t="s">
         <v>24</v>
@@ -24948,25 +24966,23 @@
       <c r="G466" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H466" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I466" s="54" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="467" spans="1:9" ht="45">
+      <c r="H466" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I466" s="51"/>
+    </row>
+    <row r="467" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A467" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B467" s="14" t="s">
         <v>848</v>
       </c>
       <c r="C467" s="13" t="s">
-        <v>953</v>
+        <v>989</v>
       </c>
       <c r="D467" s="53" t="s">
-        <v>954</v>
+        <v>992</v>
       </c>
       <c r="E467" s="7" t="s">
         <v>24</v>
@@ -24980,22 +24996,22 @@
       <c r="H467" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I467" s="13"/>
-    </row>
-    <row r="468" spans="1:9" ht="45.75" thickBot="1">
+      <c r="I467" s="51"/>
+    </row>
+    <row r="468" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A468" s="7" t="s">
-        <v>867</v>
-      </c>
-      <c r="B468" s="19">
-        <v>7</v>
-      </c>
-      <c r="C468" s="16" t="s">
-        <v>902</v>
+        <v>988</v>
+      </c>
+      <c r="B468" s="53" t="s">
+        <v>848</v>
+      </c>
+      <c r="C468" s="13" t="s">
+        <v>990</v>
       </c>
       <c r="D468" s="53" t="s">
-        <v>956</v>
-      </c>
-      <c r="E468" s="28" t="s">
+        <v>992</v>
+      </c>
+      <c r="E468" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F468" s="7" t="s">
@@ -25005,46 +25021,48 @@
         <v>16</v>
       </c>
       <c r="H468" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I468" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I468" s="54" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="469" spans="1:9" ht="30.75" thickBot="1">
+    <row r="469" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A469" s="7" t="s">
-        <v>868</v>
-      </c>
-      <c r="B469" s="11">
-        <v>7</v>
-      </c>
-      <c r="C469" s="16" t="s">
-        <v>869</v>
-      </c>
-      <c r="D469" s="53"/>
-      <c r="E469" s="29" t="s">
+        <v>866</v>
+      </c>
+      <c r="B469" s="14" t="s">
+        <v>848</v>
+      </c>
+      <c r="C469" s="13" t="s">
+        <v>953</v>
+      </c>
+      <c r="D469" s="53" t="s">
+        <v>954</v>
+      </c>
+      <c r="E469" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F469" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G469" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H469" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H469" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I469" s="16"/>
-    </row>
-    <row r="470" spans="1:9" ht="45.75" thickBot="1">
+      <c r="I469" s="13"/>
+    </row>
+    <row r="470" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A470" s="7" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B470" s="19">
         <v>7</v>
       </c>
       <c r="C470" s="16" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D470" s="53" t="s">
         <v>956</v>
@@ -25061,23 +25079,21 @@
       <c r="H470" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="I470" s="54" t="s">
+      <c r="I470" s="16" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="471" spans="1:9" ht="30.75" thickBot="1">
+    <row r="471" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A471" s="7" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B471" s="11">
         <v>7</v>
       </c>
       <c r="C471" s="16" t="s">
-        <v>872</v>
-      </c>
-      <c r="D471" s="53" t="s">
-        <v>956</v>
-      </c>
+        <v>869</v>
+      </c>
+      <c r="D471" s="53"/>
       <c r="E471" s="29" t="s">
         <v>24</v>
       </c>
@@ -25085,27 +25101,27 @@
         <v>7</v>
       </c>
       <c r="G471" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H471" s="17" t="s">
         <v>19</v>
       </c>
       <c r="I471" s="16"/>
     </row>
-    <row r="472" spans="1:9" ht="30.75" thickBot="1">
+    <row r="472" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A472" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="B472" s="11">
+        <v>870</v>
+      </c>
+      <c r="B472" s="19">
         <v>7</v>
       </c>
       <c r="C472" s="16" t="s">
-        <v>874</v>
+        <v>903</v>
       </c>
       <c r="D472" s="53" t="s">
         <v>956</v>
       </c>
-      <c r="E472" s="29" t="s">
+      <c r="E472" s="28" t="s">
         <v>24</v>
       </c>
       <c r="F472" s="7" t="s">
@@ -25115,19 +25131,21 @@
         <v>16</v>
       </c>
       <c r="H472" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I472" s="16"/>
-    </row>
-    <row r="473" spans="1:9" ht="45.75" thickBot="1">
+        <v>23</v>
+      </c>
+      <c r="I472" s="54" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A473" s="7" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="B473" s="11">
         <v>7</v>
       </c>
       <c r="C473" s="16" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="D473" s="53" t="s">
         <v>956</v>
@@ -25146,22 +25164,24 @@
       </c>
       <c r="I473" s="16"/>
     </row>
-    <row r="474" spans="1:9" ht="30.75" thickBot="1">
+    <row r="474" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A474" s="7" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="B474" s="11">
         <v>7</v>
       </c>
       <c r="C474" s="16" t="s">
-        <v>878</v>
-      </c>
-      <c r="D474" s="53"/>
+        <v>874</v>
+      </c>
+      <c r="D474" s="53" t="s">
+        <v>956</v>
+      </c>
       <c r="E474" s="29" t="s">
         <v>24</v>
       </c>
       <c r="F474" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G474" s="7" t="s">
         <v>16</v>
@@ -25171,20 +25191,20 @@
       </c>
       <c r="I474" s="16"/>
     </row>
-    <row r="475" spans="1:9" ht="45">
+    <row r="475" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A475" s="7" t="s">
-        <v>879</v>
-      </c>
-      <c r="B475" s="14" t="s">
-        <v>848</v>
-      </c>
-      <c r="C475" s="13" t="s">
-        <v>958</v>
+        <v>875</v>
+      </c>
+      <c r="B475" s="11">
+        <v>7</v>
+      </c>
+      <c r="C475" s="16" t="s">
+        <v>876</v>
       </c>
       <c r="D475" s="53" t="s">
-        <v>957</v>
-      </c>
-      <c r="E475" s="7" t="s">
+        <v>956</v>
+      </c>
+      <c r="E475" s="29" t="s">
         <v>24</v>
       </c>
       <c r="F475" s="7" t="s">
@@ -25193,52 +25213,48 @@
       <c r="G475" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H475" s="7" t="s">
+      <c r="H475" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I475" s="51"/>
-    </row>
-    <row r="476" spans="1:9" ht="45">
+      <c r="I475" s="16"/>
+    </row>
+    <row r="476" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A476" s="7" t="s">
-        <v>880</v>
-      </c>
-      <c r="B476" s="14" t="s">
-        <v>848</v>
-      </c>
-      <c r="C476" s="13" t="s">
-        <v>881</v>
-      </c>
-      <c r="D476" s="53" t="s">
-        <v>957</v>
-      </c>
-      <c r="E476" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="B476" s="11">
+        <v>7</v>
+      </c>
+      <c r="C476" s="16" t="s">
+        <v>878</v>
+      </c>
+      <c r="D476" s="53"/>
+      <c r="E476" s="29" t="s">
         <v>24</v>
       </c>
       <c r="F476" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G476" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H476" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I476" s="54" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="477" spans="1:9" ht="30">
+      <c r="H476" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I476" s="16"/>
+    </row>
+    <row r="477" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A477" s="7" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="B477" s="14" t="s">
         <v>848</v>
       </c>
       <c r="C477" s="13" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D477" s="53" t="s">
-        <v>996</v>
+        <v>957</v>
       </c>
       <c r="E477" s="7" t="s">
         <v>24</v>
@@ -25254,18 +25270,18 @@
       </c>
       <c r="I477" s="51"/>
     </row>
-    <row r="478" spans="1:9" ht="45">
+    <row r="478" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A478" s="7" t="s">
-        <v>993</v>
-      </c>
-      <c r="B478" s="53" t="s">
+        <v>880</v>
+      </c>
+      <c r="B478" s="14" t="s">
         <v>848</v>
       </c>
       <c r="C478" s="13" t="s">
-        <v>994</v>
+        <v>881</v>
       </c>
       <c r="D478" s="53" t="s">
-        <v>996</v>
+        <v>957</v>
       </c>
       <c r="E478" s="7" t="s">
         <v>24</v>
@@ -25276,27 +25292,27 @@
       <c r="G478" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H478" s="17" t="s">
+      <c r="H478" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I478" s="54" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="479" spans="1:9" ht="45.75" thickBot="1">
+    <row r="479" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A479" s="7" t="s">
-        <v>883</v>
-      </c>
-      <c r="B479" s="11">
-        <v>7</v>
-      </c>
-      <c r="C479" s="16" t="s">
-        <v>904</v>
+        <v>882</v>
+      </c>
+      <c r="B479" s="14" t="s">
+        <v>848</v>
+      </c>
+      <c r="C479" s="13" t="s">
+        <v>960</v>
       </c>
       <c r="D479" s="53" t="s">
-        <v>961</v>
-      </c>
-      <c r="E479" s="29" t="s">
+        <v>996</v>
+      </c>
+      <c r="E479" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F479" s="7" t="s">
@@ -25305,27 +25321,25 @@
       <c r="G479" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H479" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I479" s="54" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="480" spans="1:9" ht="45.75" thickBot="1">
+      <c r="H479" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I479" s="51"/>
+    </row>
+    <row r="480" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A480" s="7" t="s">
-        <v>884</v>
-      </c>
-      <c r="B480" s="11">
-        <v>7</v>
-      </c>
-      <c r="C480" s="16" t="s">
-        <v>963</v>
+        <v>993</v>
+      </c>
+      <c r="B480" s="53" t="s">
+        <v>848</v>
+      </c>
+      <c r="C480" s="13" t="s">
+        <v>994</v>
       </c>
       <c r="D480" s="53" t="s">
-        <v>961</v>
-      </c>
-      <c r="E480" s="29" t="s">
+        <v>996</v>
+      </c>
+      <c r="E480" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F480" s="7" t="s">
@@ -25341,103 +25355,105 @@
         <v>932</v>
       </c>
     </row>
-    <row r="481" spans="1:9" ht="30.75" thickBot="1">
+    <row r="481" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A481" s="7" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B481" s="11">
         <v>7</v>
       </c>
       <c r="C481" s="16" t="s">
-        <v>906</v>
-      </c>
-      <c r="D481" s="14"/>
+        <v>904</v>
+      </c>
+      <c r="D481" s="53" t="s">
+        <v>961</v>
+      </c>
       <c r="E481" s="29" t="s">
         <v>24</v>
       </c>
       <c r="F481" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G481" s="7" t="s">
         <v>16</v>
       </c>
       <c r="H481" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I481" s="16"/>
-    </row>
-    <row r="482" spans="1:9" ht="15.75" thickBot="1">
+        <v>21</v>
+      </c>
+      <c r="I481" s="54" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A482" s="7" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B482" s="11">
         <v>7</v>
       </c>
-      <c r="C482" s="13" t="s">
-        <v>937</v>
-      </c>
-      <c r="D482" s="14"/>
+      <c r="C482" s="16" t="s">
+        <v>963</v>
+      </c>
+      <c r="D482" s="53" t="s">
+        <v>961</v>
+      </c>
       <c r="E482" s="29" t="s">
         <v>24</v>
       </c>
       <c r="F482" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G482" s="7" t="s">
         <v>16</v>
       </c>
       <c r="H482" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I482" s="16"/>
-    </row>
-    <row r="483" spans="1:9" ht="45.75" thickBot="1">
+        <v>21</v>
+      </c>
+      <c r="I482" s="54" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A483" s="7" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B483" s="11">
         <v>7</v>
       </c>
-      <c r="C483" s="13" t="s">
-        <v>964</v>
-      </c>
-      <c r="D483" s="53" t="s">
-        <v>962</v>
-      </c>
+      <c r="C483" s="16" t="s">
+        <v>906</v>
+      </c>
+      <c r="D483" s="14"/>
       <c r="E483" s="29" t="s">
         <v>24</v>
       </c>
       <c r="F483" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G483" s="7" t="s">
         <v>16</v>
       </c>
       <c r="H483" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I483" s="54" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="484" spans="1:9" ht="45.75" thickBot="1">
+        <v>19</v>
+      </c>
+      <c r="I483" s="16"/>
+    </row>
+    <row r="484" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A484" s="7" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B484" s="11">
         <v>7</v>
       </c>
       <c r="C484" s="13" t="s">
-        <v>966</v>
-      </c>
-      <c r="D484" s="53" t="s">
-        <v>965</v>
-      </c>
+        <v>937</v>
+      </c>
+      <c r="D484" s="14"/>
       <c r="E484" s="29" t="s">
         <v>24</v>
       </c>
       <c r="F484" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G484" s="7" t="s">
         <v>16</v>
@@ -25447,20 +25463,20 @@
       </c>
       <c r="I484" s="16"/>
     </row>
-    <row r="485" spans="1:9" ht="45.75" thickBot="1">
+    <row r="485" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A485" s="7" t="s">
-        <v>889</v>
-      </c>
-      <c r="B485" s="19" t="s">
-        <v>848</v>
+        <v>887</v>
+      </c>
+      <c r="B485" s="11">
+        <v>7</v>
       </c>
       <c r="C485" s="13" t="s">
-        <v>890</v>
+        <v>964</v>
       </c>
       <c r="D485" s="53" t="s">
-        <v>965</v>
-      </c>
-      <c r="E485" s="28" t="s">
+        <v>962</v>
+      </c>
+      <c r="E485" s="29" t="s">
         <v>24</v>
       </c>
       <c r="F485" s="7" t="s">
@@ -25472,24 +25488,24 @@
       <c r="H485" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I485" s="16" t="s">
+      <c r="I485" s="54" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="486" spans="1:9" ht="60.75" thickBot="1">
+    <row r="486" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A486" s="7" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B486" s="19" t="s">
-        <v>848</v>
+        <v>888</v>
+      </c>
+      <c r="B486" s="11">
+        <v>7</v>
       </c>
       <c r="C486" s="13" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D486" s="7" t="s">
-        <v>1130</v>
-      </c>
-      <c r="E486" s="28" t="s">
+        <v>966</v>
+      </c>
+      <c r="D486" s="53" t="s">
+        <v>965</v>
+      </c>
+      <c r="E486" s="29" t="s">
         <v>24</v>
       </c>
       <c r="F486" s="7" t="s">
@@ -25499,24 +25515,22 @@
         <v>16</v>
       </c>
       <c r="H486" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I486" s="54" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="487" spans="1:9" ht="45.75" thickBot="1">
+        <v>19</v>
+      </c>
+      <c r="I486" s="16"/>
+    </row>
+    <row r="487" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A487" s="7" t="s">
-        <v>1125</v>
+        <v>889</v>
       </c>
       <c r="B487" s="19" t="s">
         <v>848</v>
       </c>
       <c r="C487" s="13" t="s">
-        <v>1127</v>
-      </c>
-      <c r="D487" s="7" t="s">
-        <v>1130</v>
+        <v>890</v>
+      </c>
+      <c r="D487" s="53" t="s">
+        <v>965</v>
       </c>
       <c r="E487" s="28" t="s">
         <v>24</v>
@@ -25530,22 +25544,22 @@
       <c r="H487" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I487" s="54" t="s">
+      <c r="I487" s="16" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="488" spans="1:9" ht="60.75" thickBot="1">
+    <row r="488" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A488" s="7" t="s">
-        <v>1132</v>
+        <v>1124</v>
       </c>
       <c r="B488" s="19" t="s">
         <v>848</v>
       </c>
       <c r="C488" s="13" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D488" s="53" t="s">
-        <v>1134</v>
+        <v>1126</v>
+      </c>
+      <c r="D488" s="7" t="s">
+        <v>1130</v>
       </c>
       <c r="E488" s="28" t="s">
         <v>24</v>
@@ -25559,20 +25573,22 @@
       <c r="H488" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I488" s="54"/>
-    </row>
-    <row r="489" spans="1:9" ht="30.75" thickBot="1">
+      <c r="I488" s="54" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A489" s="7" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
       <c r="B489" s="19" t="s">
         <v>848</v>
       </c>
       <c r="C489" s="13" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D489" s="53" t="s">
-        <v>1134</v>
+        <v>1127</v>
+      </c>
+      <c r="D489" s="7" t="s">
+        <v>1130</v>
       </c>
       <c r="E489" s="28" t="s">
         <v>24</v>
@@ -25586,20 +25602,22 @@
       <c r="H489" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I489" s="54"/>
-    </row>
-    <row r="490" spans="1:9" ht="45.75" thickBot="1">
+      <c r="I489" s="54" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A490" s="7" t="s">
-        <v>891</v>
-      </c>
-      <c r="B490" s="11">
-        <v>7</v>
+        <v>1132</v>
+      </c>
+      <c r="B490" s="19" t="s">
+        <v>848</v>
       </c>
       <c r="C490" s="13" t="s">
-        <v>1122</v>
+        <v>1128</v>
       </c>
       <c r="D490" s="53" t="s">
-        <v>968</v>
+        <v>1134</v>
       </c>
       <c r="E490" s="28" t="s">
         <v>24</v>
@@ -25611,22 +25629,22 @@
         <v>16</v>
       </c>
       <c r="H490" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I490" s="16"/>
-    </row>
-    <row r="491" spans="1:9" ht="45.75" thickBot="1">
+        <v>21</v>
+      </c>
+      <c r="I490" s="54"/>
+    </row>
+    <row r="491" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A491" s="7" t="s">
-        <v>892</v>
-      </c>
-      <c r="B491" s="14" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B491" s="19" t="s">
         <v>848</v>
       </c>
       <c r="C491" s="13" t="s">
-        <v>893</v>
+        <v>1129</v>
       </c>
       <c r="D491" s="53" t="s">
-        <v>968</v>
+        <v>1134</v>
       </c>
       <c r="E491" s="28" t="s">
         <v>24</v>
@@ -25637,25 +25655,23 @@
       <c r="G491" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H491" s="7" t="s">
+      <c r="H491" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I491" s="54" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="492" spans="1:9" ht="30.75" thickBot="1">
+      <c r="I491" s="54"/>
+    </row>
+    <row r="492" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A492" s="7" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B492" s="57" t="s">
-        <v>848</v>
+        <v>891</v>
+      </c>
+      <c r="B492" s="11">
+        <v>7</v>
       </c>
       <c r="C492" s="13" t="s">
-        <v>1117</v>
+        <v>1122</v>
       </c>
       <c r="D492" s="53" t="s">
-        <v>1121</v>
+        <v>968</v>
       </c>
       <c r="E492" s="28" t="s">
         <v>24</v>
@@ -25669,20 +25685,20 @@
       <c r="H492" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I492" s="54"/>
-    </row>
-    <row r="493" spans="1:9" ht="45.75" thickBot="1">
+      <c r="I492" s="16"/>
+    </row>
+    <row r="493" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A493" s="7" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B493" s="57" t="s">
+        <v>892</v>
+      </c>
+      <c r="B493" s="14" t="s">
         <v>848</v>
       </c>
       <c r="C493" s="13" t="s">
-        <v>1116</v>
+        <v>893</v>
       </c>
       <c r="D493" s="53" t="s">
-        <v>1121</v>
+        <v>968</v>
       </c>
       <c r="E493" s="28" t="s">
         <v>24</v>
@@ -25693,65 +25709,126 @@
       <c r="G493" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H493" s="17" t="s">
+      <c r="H493" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I493" s="54" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="494" spans="1:9">
-      <c r="A494" s="27" t="s">
+    <row r="494" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A494" s="7" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B494" s="57" t="s">
+        <v>848</v>
+      </c>
+      <c r="C494" s="13" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D494" s="53" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E494" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F494" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G494" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H494" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I494" s="54"/>
+    </row>
+    <row r="495" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A495" s="7" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B495" s="57" t="s">
+        <v>848</v>
+      </c>
+      <c r="C495" s="13" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D495" s="53" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E495" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F495" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G495" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H495" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I495" s="54" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A496" s="27" t="s">
         <v>894</v>
       </c>
-      <c r="B494" s="19" t="s">
+      <c r="B496" s="19" t="s">
         <v>895</v>
       </c>
-      <c r="C494" s="25" t="s">
+      <c r="C496" s="25" t="s">
         <v>896</v>
       </c>
-      <c r="D494" s="19"/>
-      <c r="E494" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F494" s="27" t="s">
+      <c r="D496" s="19"/>
+      <c r="E496" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F496" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G494" s="27" t="s">
+      <c r="G496" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H494" s="35" t="s">
+      <c r="H496" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="I494" s="16"/>
-    </row>
-    <row r="495" spans="1:9" ht="90">
-      <c r="A495" s="36" t="s">
+      <c r="I496" s="16"/>
+    </row>
+    <row r="497" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+      <c r="A497" s="36" t="s">
         <v>897</v>
       </c>
-      <c r="B495" s="37" t="s">
+      <c r="B497" s="37" t="s">
         <v>898</v>
       </c>
-      <c r="C495" s="38" t="s">
+      <c r="C497" s="38" t="s">
         <v>899</v>
       </c>
-      <c r="D495" s="37"/>
-      <c r="E495" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="F495" s="36" t="s">
+      <c r="D497" s="37"/>
+      <c r="E497" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F497" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="G495" s="36" t="s">
+      <c r="G497" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H495" s="39" t="s">
+      <c r="H497" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="I495" s="16"/>
+      <c r="I497" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B18:I18"/>
@@ -25759,14 +25836,9 @@
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G404:G415 F413:F414 F372:F373 F330:F331 G318:G331 F297:F298 G294:G298 F279:F280 G271:G280 F213:F214 G194:G216 G186:G190 G156:G160 G111:G116 G23:G80 E316:G316 B137:B301 C20:G20 A447:E447 C453:E453 C448:E451 D452:E452 E23:E135 F28:F130 B23:B122 E317:E383 B305:B383 F348:F361 G348:G374 E400:E446 B400:B446 B453:B458 G454:G458 E454:E458 E137:E301 B462:B465 E462:E474 F462:F467">
+  <conditionalFormatting sqref="G404:G415 F413:F414 F372:F373 F330:F331 G318:G331 F297:F298 G294:G298 F279:F280 G271:G280 F213:F214 G194:G216 G186:G190 G156:G160 G111:G116 G23:G80 E316:G316 B137:B301 C20:G20 A449:E449 C455:E455 C450:E453 D454:E454 E23:E135 F28:F130 B23:B122 E317:E383 B305:B383 F348:F361 G348:G374 B455:B460 G456:G460 E456:E460 E137:E301 B464:B467 E464:E476 F464:F469 E400:E448 B400:B448">
     <cfRule type="expression" dxfId="1491" priority="1656">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -25777,7 +25849,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F21 F257:F262 F264:F267 F301 F23 F165:F168 F475 F219:F237 F477:F479 F137:F152 F272 F345 F385:F386 F388:F389 F391:F392 F394:F395 F397:F398 F400:F405 F447 F460 F451:F452 F413:F414 F330:F331 F297:F298 F279:F283 F206:F214 F305:F325 F28:F130 F348:F373 F462:F470">
+  <conditionalFormatting sqref="F20:F21 F257:F262 F264:F267 F301 F23 F165:F168 F477 F219:F237 F479:F481 F137:F152 F272 F345 F385:F386 F388:F389 F391:F392 F394:F395 F397:F398 F400:F405 F449 F462 F453:F454 F413:F414 F330:F331 F297:F298 F279:F283 F206:F214 F305:F325 F28:F130 F348:F373 F464:F472">
     <cfRule type="expression" dxfId="1488" priority="1616">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
@@ -25785,7 +25857,7 @@
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20 I20 F281:F283 E21:G21 B20:B21 F301 G307:G315 F401:F404 F257:F262 F264:F267 G317 F317:F319 F23 G138:G150 F138:F152 F165:F168 F475 E305:F315 B385:B386 E385:E386 E388:E389 B388:B389 B391:B392 E391:E392 E394:E395 B394:B395 B397:B398 E397:E398 G219:G270 F219:F237 B460 B477 F477:F479 B490 B125:B135 G167:G174 B467:B475 B479:B484">
+  <conditionalFormatting sqref="A20 I20 F281:F283 E21:G21 B20:B21 F301 G307:G315 F401:F404 F257:F262 F264:F267 G317 F317:F319 F23 G138:G150 F138:F152 F165:F168 F477 E305:F315 B385:B386 E385:E386 E388:E389 B388:B389 B391:B392 E391:E392 E394:E395 B394:B395 B397:B398 E397:E398 G219:G270 F219:F237 B462 B479 F479:F481 B492 B125:B135 G167:G174 B469:B477 B481:B486">
     <cfRule type="expression" dxfId="1486" priority="1613">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -25796,7 +25868,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20 I20 E21:G21 B20:B21 H20:H21 F301 G307:G315 F401:F404 F257:F262 F264:F267 F317:F319 F23 G138:G150 F138:F152 F165:F168 F475 H245:H251 H305:H315 E305:F315 B385:B386 H385:H386 E385:E386 E388:E389 H388:H389 B388:B389 B391:B392 H391:H392 E391:E392 E394:E395 H394:H395 B394:B395 B397:B398 H397:H398 E397:E398 F219:F237 B460 B477 F477:F479 B490 B125:B135 G404:G415 F413:F414 F372:F373 F330:F331 G317:G331 F297:F298 G294:G298 H253:H301 F279:F283 G219:G280 F213:F214 G194:G216 G186:G190 G156:G160 G111:G116 G23:G80 H23:H135 E316:H316 B137:B301 H137:H243 G167:G174 B467:B475 B479:B484 C20:G20 A447:E447 C453:E453 C448:E451 D452:E452 E23:E135 F28:F130 B23:B122 E317:E383 H317:H383 B305:B383 F348:F361 G348:G374 E400:E446 H400:H446 B400:B446 B453:B458 G454:H458 E454:E458 E137:E301 B462:B465 E462:E474 F462:F467">
+  <conditionalFormatting sqref="A20 I20 E21:G21 B20:B21 H20:H21 F301 G307:G315 F401:F404 F257:F262 F264:F267 F317:F319 F23 G138:G150 F138:F152 F165:F168 F477 H245:H251 H305:H315 E305:F315 B385:B386 H385:H386 E385:E386 E388:E389 H388:H389 B388:B389 B391:B392 H391:H392 E391:E392 E394:E395 H394:H395 B394:B395 B397:B398 H397:H398 E397:E398 F219:F237 B462 B479 F479:F481 B492 B125:B135 G404:G415 F413:F414 F372:F373 F330:F331 G317:G331 F297:F298 G294:G298 H253:H301 F279:F283 G219:G280 F213:F214 G194:G216 G186:G190 G156:G160 G111:G116 G23:G80 H23:H135 E316:H316 B137:B301 H137:H243 G167:G174 B469:B477 B481:B486 C20:G20 A449:E449 C455:E455 C450:E453 D454:E454 E23:E135 F28:F130 B23:B122 E317:E383 H317:H383 B305:B383 F348:F361 G348:G374 B455:B460 G456:H460 E456:E460 E137:E301 B464:B467 E464:E476 F464:F469 E400:E448 H400:H448 B400:B448">
     <cfRule type="expression" dxfId="1483" priority="1610">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -25873,7 +25945,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H447:I447 A448:B448 B449 B451 E460">
+  <conditionalFormatting sqref="H449:I449 A450:B450 B451 B453 E462">
     <cfRule type="expression" dxfId="1462" priority="1589">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -25884,7 +25956,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H447:I447 A448:B448 B449 B451 E460">
+  <conditionalFormatting sqref="H449:I449 A450:B450 B451 B453 E462">
     <cfRule type="expression" dxfId="1459" priority="1586">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -25895,7 +25967,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F453">
+  <conditionalFormatting sqref="F455">
     <cfRule type="expression" dxfId="1456" priority="572">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -25906,7 +25978,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F453">
+  <conditionalFormatting sqref="F455">
     <cfRule type="expression" dxfId="1453" priority="569">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -25917,7 +25989,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G453">
+  <conditionalFormatting sqref="G455">
     <cfRule type="expression" dxfId="1450" priority="566">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -25928,7 +26000,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G453">
+  <conditionalFormatting sqref="G455">
     <cfRule type="expression" dxfId="1447" priority="563">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -25939,7 +26011,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E479:E484">
+  <conditionalFormatting sqref="E481:E486">
     <cfRule type="expression" dxfId="1444" priority="1583">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -25950,7 +26022,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E479:E484">
+  <conditionalFormatting sqref="E481:E486">
     <cfRule type="expression" dxfId="1441" priority="1580">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -27565,7 +27637,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F419:F446">
+  <conditionalFormatting sqref="F419:F448">
     <cfRule type="expression" dxfId="1010" priority="1098">
       <formula>NOT(VLOOKUP(F419,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
@@ -27573,7 +27645,7 @@
       <formula>(VLOOKUP(F419,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F419:F446">
+  <conditionalFormatting sqref="F419:F448">
     <cfRule type="expression" dxfId="1008" priority="1095">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -27584,7 +27656,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F419:F446">
+  <conditionalFormatting sqref="F419:F448">
     <cfRule type="expression" dxfId="1005" priority="1092">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -27625,15 +27697,15 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F454:F455">
+  <conditionalFormatting sqref="F456:F457">
     <cfRule type="expression" dxfId="994" priority="1082">
-      <formula>NOT(VLOOKUP(F454,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F456,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="993" priority="1083">
-      <formula>(VLOOKUP(F454,$A$12:$C$15,2,FALSE)="In")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F454:F455 F447 F468:F470">
+      <formula>(VLOOKUP(F456,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F456:F457 F449 F470:F472">
     <cfRule type="expression" dxfId="992" priority="1079">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -27644,7 +27716,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F454:F455 F447 F468:F470">
+  <conditionalFormatting sqref="F456:F457 F449 F470:F472">
     <cfRule type="expression" dxfId="989" priority="1076">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -27655,15 +27727,15 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F456:F458">
+  <conditionalFormatting sqref="F458:F460">
     <cfRule type="expression" dxfId="986" priority="1066">
-      <formula>NOT(VLOOKUP(F456,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F458,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="985" priority="1067">
-      <formula>(VLOOKUP(F456,$A$12:$C$15,2,FALSE)="In")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F456:F458 F460">
+      <formula>(VLOOKUP(F458,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F458:F460 F462">
     <cfRule type="expression" dxfId="984" priority="1063">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -27674,7 +27746,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F456:F458 F460">
+  <conditionalFormatting sqref="F458:F460 F462">
     <cfRule type="expression" dxfId="981" priority="1060">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -27685,15 +27757,15 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F471:F473">
+  <conditionalFormatting sqref="F473:F475">
     <cfRule type="expression" dxfId="978" priority="1058">
-      <formula>NOT(VLOOKUP(F471,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F473,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="977" priority="1059">
-      <formula>(VLOOKUP(F471,$A$12:$C$15,2,FALSE)="In")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F471:F473">
+      <formula>(VLOOKUP(F473,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F473:F475">
     <cfRule type="expression" dxfId="976" priority="1055">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -27704,7 +27776,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F471:F473">
+  <conditionalFormatting sqref="F473:F475">
     <cfRule type="expression" dxfId="973" priority="1052">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -27715,15 +27787,15 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F474">
+  <conditionalFormatting sqref="F476">
     <cfRule type="expression" dxfId="970" priority="1050">
-      <formula>NOT(VLOOKUP(F474,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F476,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="969" priority="1051">
-      <formula>(VLOOKUP(F474,$A$12:$C$15,2,FALSE)="In")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F474">
+      <formula>(VLOOKUP(F476,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F476">
     <cfRule type="expression" dxfId="968" priority="1047">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -27734,7 +27806,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F474">
+  <conditionalFormatting sqref="F476">
     <cfRule type="expression" dxfId="965" priority="1044">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -27745,15 +27817,15 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F480">
+  <conditionalFormatting sqref="F482">
     <cfRule type="expression" dxfId="962" priority="1042">
-      <formula>NOT(VLOOKUP(F480,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F482,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="961" priority="1043">
-      <formula>(VLOOKUP(F480,$A$12:$C$15,2,FALSE)="In")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F480">
+      <formula>(VLOOKUP(F482,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F482">
     <cfRule type="expression" dxfId="960" priority="1039">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -27764,7 +27836,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F480">
+  <conditionalFormatting sqref="F482">
     <cfRule type="expression" dxfId="957" priority="1036">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -27775,15 +27847,15 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F481:F483">
+  <conditionalFormatting sqref="F483:F485">
     <cfRule type="expression" dxfId="954" priority="1034">
-      <formula>NOT(VLOOKUP(F481,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F483,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="953" priority="1035">
-      <formula>(VLOOKUP(F481,$A$12:$C$15,2,FALSE)="In")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F481:F483">
+      <formula>(VLOOKUP(F483,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F483:F485">
     <cfRule type="expression" dxfId="952" priority="1031">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -27794,7 +27866,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F481:F483">
+  <conditionalFormatting sqref="F483:F485">
     <cfRule type="expression" dxfId="949" priority="1028">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -27805,15 +27877,15 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F484">
+  <conditionalFormatting sqref="F486">
     <cfRule type="expression" dxfId="946" priority="1026">
-      <formula>NOT(VLOOKUP(F484,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F486,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="945" priority="1027">
-      <formula>(VLOOKUP(F484,$A$12:$C$15,2,FALSE)="In")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F484">
+      <formula>(VLOOKUP(F486,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F486">
     <cfRule type="expression" dxfId="944" priority="1023">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -27824,7 +27896,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F484">
+  <conditionalFormatting sqref="F486">
     <cfRule type="expression" dxfId="941" priority="1020">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -29133,7 +29205,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G419:G446">
+  <conditionalFormatting sqref="G419:G448">
     <cfRule type="expression" dxfId="584" priority="627">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -29144,7 +29216,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G419:G446">
+  <conditionalFormatting sqref="G419:G448">
     <cfRule type="expression" dxfId="581" priority="624">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -29177,7 +29249,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G447">
+  <conditionalFormatting sqref="G449">
     <cfRule type="expression" dxfId="572" priority="615">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -29188,7 +29260,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G447">
+  <conditionalFormatting sqref="G449">
     <cfRule type="expression" dxfId="569" priority="612">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -29199,7 +29271,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G467:G474 G479:G484 G460 G462:G463">
+  <conditionalFormatting sqref="G469:G476 G481:G486 G462 G464:G465">
     <cfRule type="expression" dxfId="566" priority="609">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -29210,7 +29282,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G467:G474 G479:G484 G460 G462:G463">
+  <conditionalFormatting sqref="G469:G476 G481:G486 G462 G464:G465">
     <cfRule type="expression" dxfId="563" priority="606">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -29221,7 +29293,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H467:H474 H479:H484 H460 H462:H463 H490">
+  <conditionalFormatting sqref="H469:H476 H481:H486 H462 H464:H465 H492">
     <cfRule type="expression" dxfId="560" priority="603">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -29232,7 +29304,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H448:I449 H451:I451 H452">
+  <conditionalFormatting sqref="H450:I451 H453:I453 H454">
     <cfRule type="expression" dxfId="557" priority="600">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -29243,7 +29315,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H448:I449 H451:I451 H452">
+  <conditionalFormatting sqref="H450:I451 H453:I453 H454">
     <cfRule type="expression" dxfId="554" priority="597">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -29254,15 +29326,15 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F448:F449">
+  <conditionalFormatting sqref="F450:F451">
     <cfRule type="expression" dxfId="551" priority="595">
-      <formula>NOT(VLOOKUP(F448,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F450,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="550" priority="596">
-      <formula>(VLOOKUP(F448,$A$12:$C$15,2,FALSE)="In")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F448:F449 F451:F452">
+      <formula>(VLOOKUP(F450,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F450:F451 F453:F454">
     <cfRule type="expression" dxfId="549" priority="592">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -29273,7 +29345,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F448:F449 F451:F452">
+  <conditionalFormatting sqref="F450:F451 F453:F454">
     <cfRule type="expression" dxfId="546" priority="589">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -29284,7 +29356,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G448:G449 G451:G452">
+  <conditionalFormatting sqref="G450:G451 G453:G454">
     <cfRule type="expression" dxfId="543" priority="586">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -29295,7 +29367,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G448:G449 G451:G452">
+  <conditionalFormatting sqref="G450:G451 G453:G454">
     <cfRule type="expression" dxfId="540" priority="583">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -29306,7 +29378,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H453:I453">
+  <conditionalFormatting sqref="H455:I455">
     <cfRule type="expression" dxfId="537" priority="580">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -29317,7 +29389,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H453:I453">
+  <conditionalFormatting sqref="H455:I455">
     <cfRule type="expression" dxfId="534" priority="577">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -29328,12 +29400,12 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F453">
+  <conditionalFormatting sqref="F455">
     <cfRule type="expression" dxfId="531" priority="575">
-      <formula>NOT(VLOOKUP(F453,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F455,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="530" priority="576">
-      <formula>(VLOOKUP(F453,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>(VLOOKUP(F455,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136 E136">
@@ -29410,7 +29482,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I465">
+  <conditionalFormatting sqref="I467">
     <cfRule type="expression" dxfId="509" priority="507">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -29421,7 +29493,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I458 I460">
+  <conditionalFormatting sqref="I460 I462">
     <cfRule type="expression" dxfId="506" priority="540">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -29432,7 +29504,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I458 I460">
+  <conditionalFormatting sqref="I460 I462">
     <cfRule type="expression" dxfId="503" priority="537">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -29443,7 +29515,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G464">
+  <conditionalFormatting sqref="G466">
     <cfRule type="expression" dxfId="500" priority="534">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -29454,7 +29526,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G464">
+  <conditionalFormatting sqref="G466">
     <cfRule type="expression" dxfId="497" priority="531">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -29465,7 +29537,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H464">
+  <conditionalFormatting sqref="H466">
     <cfRule type="expression" dxfId="494" priority="528">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -29476,7 +29548,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I464">
+  <conditionalFormatting sqref="I466">
     <cfRule type="expression" dxfId="491" priority="525">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -29487,7 +29559,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I464">
+  <conditionalFormatting sqref="I466">
     <cfRule type="expression" dxfId="488" priority="522">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -29498,7 +29570,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G465:G466">
+  <conditionalFormatting sqref="G467:G468">
     <cfRule type="expression" dxfId="485" priority="519">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -29509,7 +29581,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G465:G466">
+  <conditionalFormatting sqref="G467:G468">
     <cfRule type="expression" dxfId="482" priority="516">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -29520,7 +29592,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H465:H466">
+  <conditionalFormatting sqref="H467:H468">
     <cfRule type="expression" dxfId="479" priority="513">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -29531,7 +29603,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I465">
+  <conditionalFormatting sqref="I467">
     <cfRule type="expression" dxfId="476" priority="510">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -29542,7 +29614,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I477">
+  <conditionalFormatting sqref="I479">
     <cfRule type="expression" dxfId="473" priority="477">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -29553,7 +29625,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G475">
+  <conditionalFormatting sqref="G477">
     <cfRule type="expression" dxfId="470" priority="504">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -29564,7 +29636,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G475">
+  <conditionalFormatting sqref="G477">
     <cfRule type="expression" dxfId="467" priority="501">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -29575,7 +29647,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H475">
+  <conditionalFormatting sqref="H477">
     <cfRule type="expression" dxfId="464" priority="498">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -29586,7 +29658,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I475">
+  <conditionalFormatting sqref="I477">
     <cfRule type="expression" dxfId="461" priority="495">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -29597,7 +29669,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I475">
+  <conditionalFormatting sqref="I477">
     <cfRule type="expression" dxfId="458" priority="492">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -29608,7 +29680,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G477:G478">
+  <conditionalFormatting sqref="G479:G480">
     <cfRule type="expression" dxfId="455" priority="489">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -29619,7 +29691,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G477:G478">
+  <conditionalFormatting sqref="G479:G480">
     <cfRule type="expression" dxfId="452" priority="486">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -29630,7 +29702,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H477:H478">
+  <conditionalFormatting sqref="H479:H480">
     <cfRule type="expression" dxfId="449" priority="483">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -29641,7 +29713,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I477">
+  <conditionalFormatting sqref="I479">
     <cfRule type="expression" dxfId="446" priority="480">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -30326,7 +30398,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B450">
+  <conditionalFormatting sqref="B452">
     <cfRule type="expression" dxfId="261" priority="292">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -30337,7 +30409,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B450">
+  <conditionalFormatting sqref="B452">
     <cfRule type="expression" dxfId="258" priority="289">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -30348,7 +30420,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H450:I450">
+  <conditionalFormatting sqref="H452:I452">
     <cfRule type="expression" dxfId="255" priority="286">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -30359,7 +30431,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H450:I450">
+  <conditionalFormatting sqref="H452:I452">
     <cfRule type="expression" dxfId="252" priority="283">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -30370,15 +30442,15 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F450">
+  <conditionalFormatting sqref="F452">
     <cfRule type="expression" dxfId="249" priority="281">
-      <formula>NOT(VLOOKUP(F450,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F452,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="248" priority="282">
-      <formula>(VLOOKUP(F450,$A$12:$C$15,2,FALSE)="In")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F450">
+      <formula>(VLOOKUP(F452,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F452">
     <cfRule type="expression" dxfId="247" priority="278">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -30389,7 +30461,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F450">
+  <conditionalFormatting sqref="F452">
     <cfRule type="expression" dxfId="244" priority="275">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -30400,7 +30472,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G450">
+  <conditionalFormatting sqref="G452">
     <cfRule type="expression" dxfId="241" priority="272">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -30411,7 +30483,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G450">
+  <conditionalFormatting sqref="G452">
     <cfRule type="expression" dxfId="238" priority="269">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -30422,7 +30494,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B459">
+  <conditionalFormatting sqref="B461">
     <cfRule type="expression" dxfId="235" priority="266">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -30433,7 +30505,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B459">
+  <conditionalFormatting sqref="B461">
     <cfRule type="expression" dxfId="232" priority="263">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -30444,7 +30516,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E459">
+  <conditionalFormatting sqref="E461">
     <cfRule type="expression" dxfId="229" priority="260">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -30455,7 +30527,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E459">
+  <conditionalFormatting sqref="E461">
     <cfRule type="expression" dxfId="226" priority="257">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -30466,15 +30538,15 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F459">
+  <conditionalFormatting sqref="F461">
     <cfRule type="expression" dxfId="223" priority="255">
-      <formula>NOT(VLOOKUP(F459,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F461,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="222" priority="256">
-      <formula>(VLOOKUP(F459,$A$12:$C$15,2,FALSE)="In")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F459">
+      <formula>(VLOOKUP(F461,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F461">
     <cfRule type="expression" dxfId="221" priority="252">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -30485,7 +30557,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F459">
+  <conditionalFormatting sqref="F461">
     <cfRule type="expression" dxfId="218" priority="249">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -30496,7 +30568,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G459">
+  <conditionalFormatting sqref="G461">
     <cfRule type="expression" dxfId="215" priority="246">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -30507,7 +30579,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G459">
+  <conditionalFormatting sqref="G461">
     <cfRule type="expression" dxfId="212" priority="243">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -30518,7 +30590,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H459">
+  <conditionalFormatting sqref="H461">
     <cfRule type="expression" dxfId="209" priority="240">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -30529,7 +30601,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I459">
+  <conditionalFormatting sqref="I461">
     <cfRule type="expression" dxfId="206" priority="237">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -30540,7 +30612,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I459">
+  <conditionalFormatting sqref="I461">
     <cfRule type="expression" dxfId="203" priority="234">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -30551,7 +30623,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B461">
+  <conditionalFormatting sqref="B463">
     <cfRule type="expression" dxfId="200" priority="231">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -30562,7 +30634,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B461">
+  <conditionalFormatting sqref="B463">
     <cfRule type="expression" dxfId="197" priority="228">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -30573,7 +30645,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E461">
+  <conditionalFormatting sqref="E463">
     <cfRule type="expression" dxfId="194" priority="225">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -30584,7 +30656,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E461">
+  <conditionalFormatting sqref="E463">
     <cfRule type="expression" dxfId="191" priority="222">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -30595,15 +30667,15 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F461">
+  <conditionalFormatting sqref="F463">
     <cfRule type="expression" dxfId="188" priority="220">
-      <formula>NOT(VLOOKUP(F461,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F463,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="187" priority="221">
-      <formula>(VLOOKUP(F461,$A$12:$C$15,2,FALSE)="In")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F461">
+      <formula>(VLOOKUP(F463,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F463">
     <cfRule type="expression" dxfId="186" priority="217">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -30614,7 +30686,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F461">
+  <conditionalFormatting sqref="F463">
     <cfRule type="expression" dxfId="183" priority="214">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -30625,7 +30697,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G461">
+  <conditionalFormatting sqref="G463">
     <cfRule type="expression" dxfId="180" priority="211">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -30636,7 +30708,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G461">
+  <conditionalFormatting sqref="G463">
     <cfRule type="expression" dxfId="177" priority="208">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -30647,7 +30719,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H461">
+  <conditionalFormatting sqref="H463">
     <cfRule type="expression" dxfId="174" priority="205">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -30658,15 +30730,15 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F476">
+  <conditionalFormatting sqref="F478">
     <cfRule type="expression" dxfId="171" priority="197">
-      <formula>NOT(VLOOKUP(F476,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F478,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="170" priority="198">
-      <formula>(VLOOKUP(F476,$A$12:$C$15,2,FALSE)="In")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B476 F476">
+      <formula>(VLOOKUP(F478,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B478 F478">
     <cfRule type="expression" dxfId="169" priority="194">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -30677,7 +30749,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B476 F476">
+  <conditionalFormatting sqref="B478 F478">
     <cfRule type="expression" dxfId="166" priority="191">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -30688,7 +30760,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G476">
+  <conditionalFormatting sqref="G478">
     <cfRule type="expression" dxfId="163" priority="188">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -30699,7 +30771,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G476">
+  <conditionalFormatting sqref="G478">
     <cfRule type="expression" dxfId="160" priority="185">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -30710,7 +30782,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H476">
+  <conditionalFormatting sqref="H478">
     <cfRule type="expression" dxfId="157" priority="182">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -30721,7 +30793,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B485:B489">
+  <conditionalFormatting sqref="B487:B491">
     <cfRule type="expression" dxfId="154" priority="173">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -30732,7 +30804,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B485:B489">
+  <conditionalFormatting sqref="B487:B491">
     <cfRule type="expression" dxfId="151" priority="170">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -30743,7 +30815,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E485:E493">
+  <conditionalFormatting sqref="E487:E495">
     <cfRule type="expression" dxfId="148" priority="167">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -30754,7 +30826,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E485:E493">
+  <conditionalFormatting sqref="E487:E495">
     <cfRule type="expression" dxfId="145" priority="164">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -30765,15 +30837,15 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F485:F493">
+  <conditionalFormatting sqref="F487:F495">
     <cfRule type="expression" dxfId="142" priority="162">
-      <formula>NOT(VLOOKUP(F485,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F487,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="141" priority="163">
-      <formula>(VLOOKUP(F485,$A$12:$C$15,2,FALSE)="In")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F485:F493">
+      <formula>(VLOOKUP(F487,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F487:F495">
     <cfRule type="expression" dxfId="140" priority="159">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -30784,7 +30856,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F485:F493">
+  <conditionalFormatting sqref="F487:F495">
     <cfRule type="expression" dxfId="137" priority="156">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -30795,7 +30867,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G485:G493">
+  <conditionalFormatting sqref="G487:G495">
     <cfRule type="expression" dxfId="134" priority="153">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -30806,7 +30878,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G485:G493">
+  <conditionalFormatting sqref="G487:G495">
     <cfRule type="expression" dxfId="131" priority="150">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -30817,7 +30889,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H485:H489">
+  <conditionalFormatting sqref="H487:H491">
     <cfRule type="expression" dxfId="128" priority="147">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -30872,7 +30944,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I454:I455">
+  <conditionalFormatting sqref="I456:I457">
     <cfRule type="expression" dxfId="113" priority="132">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -30883,7 +30955,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I454:I455">
+  <conditionalFormatting sqref="I456:I457">
     <cfRule type="expression" dxfId="110" priority="129">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -30894,7 +30966,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D454:D455">
+  <conditionalFormatting sqref="D456:D457">
     <cfRule type="expression" dxfId="107" priority="126">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -30905,7 +30977,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D454:D455">
+  <conditionalFormatting sqref="D456:D457">
     <cfRule type="expression" dxfId="104" priority="123">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -30916,7 +30988,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D457">
+  <conditionalFormatting sqref="D459">
     <cfRule type="expression" dxfId="101" priority="120">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -30927,7 +30999,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D457">
+  <conditionalFormatting sqref="D459">
     <cfRule type="expression" dxfId="98" priority="117">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -30938,7 +31010,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D458">
+  <conditionalFormatting sqref="D460">
     <cfRule type="expression" dxfId="95" priority="114">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -30949,7 +31021,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D458">
+  <conditionalFormatting sqref="D460">
     <cfRule type="expression" dxfId="92" priority="111">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -30960,7 +31032,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D459">
+  <conditionalFormatting sqref="D461">
     <cfRule type="expression" dxfId="89" priority="108">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -30971,7 +31043,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D459">
+  <conditionalFormatting sqref="D461">
     <cfRule type="expression" dxfId="86" priority="105">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -30982,7 +31054,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D460">
+  <conditionalFormatting sqref="D462">
     <cfRule type="expression" dxfId="83" priority="102">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -30993,7 +31065,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D460">
+  <conditionalFormatting sqref="D462">
     <cfRule type="expression" dxfId="80" priority="99">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -31004,7 +31076,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D461">
+  <conditionalFormatting sqref="D463">
     <cfRule type="expression" dxfId="77" priority="96">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -31015,7 +31087,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D461">
+  <conditionalFormatting sqref="D463">
     <cfRule type="expression" dxfId="74" priority="93">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -31026,7 +31098,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I461">
+  <conditionalFormatting sqref="I463">
     <cfRule type="expression" dxfId="71" priority="90">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -31037,7 +31109,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I461">
+  <conditionalFormatting sqref="I463">
     <cfRule type="expression" dxfId="68" priority="87">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -31048,7 +31120,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D462:D463">
+  <conditionalFormatting sqref="D464:D465">
     <cfRule type="expression" dxfId="65" priority="84">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -31059,7 +31131,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D462:D463">
+  <conditionalFormatting sqref="D464:D465">
     <cfRule type="expression" dxfId="62" priority="81">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -31070,7 +31142,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I462:I463">
+  <conditionalFormatting sqref="I464:I465">
     <cfRule type="expression" dxfId="59" priority="78">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -31081,7 +31153,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I462:I463">
+  <conditionalFormatting sqref="I464:I465">
     <cfRule type="expression" dxfId="56" priority="75">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -31092,7 +31164,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D464">
+  <conditionalFormatting sqref="D466">
     <cfRule type="expression" dxfId="53" priority="72">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -31103,7 +31175,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D464">
+  <conditionalFormatting sqref="D466">
     <cfRule type="expression" dxfId="50" priority="69">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -31114,7 +31186,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D465:D466">
+  <conditionalFormatting sqref="D467:D468">
     <cfRule type="expression" dxfId="47" priority="66">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -31125,7 +31197,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D465:D466">
+  <conditionalFormatting sqref="D467:D468">
     <cfRule type="expression" dxfId="44" priority="63">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -31136,7 +31208,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D467">
+  <conditionalFormatting sqref="D469">
     <cfRule type="expression" dxfId="41" priority="60">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -31147,7 +31219,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D467">
+  <conditionalFormatting sqref="D469">
     <cfRule type="expression" dxfId="38" priority="57">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -31158,7 +31230,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C452">
+  <conditionalFormatting sqref="C454">
     <cfRule type="expression" dxfId="35" priority="34">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -31169,7 +31241,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C452">
+  <conditionalFormatting sqref="C454">
     <cfRule type="expression" dxfId="32" priority="31">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -31180,7 +31252,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B452">
+  <conditionalFormatting sqref="B454">
     <cfRule type="expression" dxfId="29" priority="28">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -31191,7 +31263,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B452">
+  <conditionalFormatting sqref="B454">
     <cfRule type="expression" dxfId="26" priority="25">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -31202,7 +31274,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I452">
+  <conditionalFormatting sqref="I454">
     <cfRule type="expression" dxfId="23" priority="22">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -31213,7 +31285,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I452">
+  <conditionalFormatting sqref="I454">
     <cfRule type="expression" dxfId="20" priority="19">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -31224,7 +31296,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B466">
+  <conditionalFormatting sqref="B468">
     <cfRule type="expression" dxfId="17" priority="13">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -31235,7 +31307,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B466">
+  <conditionalFormatting sqref="B468">
     <cfRule type="expression" dxfId="14" priority="16">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -31246,7 +31318,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B478">
+  <conditionalFormatting sqref="B480">
     <cfRule type="expression" dxfId="11" priority="10">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -31257,7 +31329,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B478">
+  <conditionalFormatting sqref="B480">
     <cfRule type="expression" dxfId="8" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -31268,7 +31340,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I457">
+  <conditionalFormatting sqref="I459">
     <cfRule type="expression" dxfId="5" priority="4">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -31279,7 +31351,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I457">
+  <conditionalFormatting sqref="I459">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -31291,20 +31363,20 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 F20:F495">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 F20:F497">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 E20:E495">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 E20:E497">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 G20:G495">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 G20:G497">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
       <formula1>"In, Out"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H495">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H497">
       <formula1>"Non-testable, Unverified, Adapter, Test Case, Deleted"</formula1>
     </dataValidation>
   </dataValidations>
@@ -31314,7 +31386,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B19:B40 B42:B46 B494:B495 B50:B173 B447:B454 B465:B485 B490:B491 B456:B464 B174:B419" numberStoredAsText="1"/>
+    <ignoredError sqref="B19:B40 B42:B46 B496:B497 B50:B173 B449:B456 B467:B487 B492:B493 B458:B466 B174:B419" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -31324,12 +31396,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -31382,15 +31451,24 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -31411,15 +31489,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SharePoint/Docs/MS-SITESS/MS-SITESS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-SITESS/MS-SITESS_RequirementSpecification.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B3872932-152D-419F-96AC-00DC12B43DA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E96A83F-AA70-4B77-A8B3-F07F02D513D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3701,9 +3701,6 @@
     <t>MS-SITESS_R1561</t>
   </si>
   <si>
-    <t>Verified by derived requirements: MS-SITESS_R400, MS-SITESS_R1561.</t>
-  </si>
-  <si>
     <t>MS-SITESS_R527</t>
   </si>
   <si>
@@ -4135,9 +4132,6 @@
     <t>[In Appendix B: Product Behavior] &lt;4&gt; Section 3.1.4.2.2.1: If the value of cabSize is less than zero, Implementation does return a value of 1 or 7  but the server does not successfully complete the operation. The return code is not deterministic.(Windows SharePoint Services 3.0, SharePoint Foundation 2010, and SharePoint Foundation 2013 follow this behavior.)</t>
   </si>
   <si>
-    <t>[In Appendix B: Product Behavior] &lt;7&gt; Section 3.1.4.5.2.2: Implementation does not return the SOAP fault. It returns a successful GetSiteTemplatesResponse with an empty TemplateList element.(Microsoft SharePoint Foundation 2010 and SharePoint Foundation 2013 follow this behavior.)</t>
-  </si>
-  <si>
     <t>[In Appendix B: Product Behavior] Implementation does support this method [IsScriptSafeUrl]. &lt;19&gt; Section 3.1.4.11:  Only SharePoint Foundation 2013 supports this method.</t>
   </si>
   <si>
@@ -4591,6 +4585,14 @@
   </si>
   <si>
     <t>MS-SITESS_R326001001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verified by derived requirements: MS-SITESS_R400, MS-SITESS_R1561.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] &lt;7&gt; Section 3.1.4.5.2.2: Implementation does not return the SOAP fault. It returns a successful GetSiteTemplatesResponse with an empty TemplateList element.(Microsoft SharePoint Foundation 2010 SharePoint Foundation 2013 and SharePoint Server 2016 above follow this behavior.)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5100,27 +5102,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5183,6 +5164,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -16218,7 +16220,14 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I529" tableType="xml" totalsRowShown="0">
-  <autoFilter ref="A19:I529" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <autoFilter ref="A19:I529" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="3.1.4.5.2.2"/>
+        <filter val="7"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
@@ -16588,14 +16597,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M529"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C527" sqref="C527"/>
+    <sheetView tabSelected="1" topLeftCell="A494" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C495" sqref="C495"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="6.125" customWidth="1"/>
     <col min="3" max="3" width="68.125" style="5" customWidth="1"/>
     <col min="4" max="4" width="9.25" customWidth="1"/>
     <col min="5" max="5" width="10.125" customWidth="1"/>
@@ -16643,10 +16652,10 @@
         <v>28</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="E3" s="48" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F3" s="56">
         <v>43634</v>
@@ -16657,49 +16666,49 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="88"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="109"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="91"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="112"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="113" t="s">
         <v>909</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
       <c r="J6" s="47"/>
       <c r="K6" s="2"/>
     </row>
@@ -16707,32 +16716,32 @@
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="114" t="s">
         <v>910</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
       <c r="J8" s="47"/>
       <c r="K8" s="2"/>
     </row>
@@ -16740,16 +16749,16 @@
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="93" t="s">
         <v>916</v>
       </c>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="102"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="95"/>
       <c r="J9" s="47"/>
       <c r="K9" s="2"/>
     </row>
@@ -16757,16 +16766,16 @@
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="103" t="s">
+      <c r="B10" s="96" t="s">
         <v>917</v>
       </c>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="105"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="98"/>
       <c r="J10" s="47"/>
       <c r="K10" s="2"/>
     </row>
@@ -16774,16 +16783,16 @@
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="92" t="s">
         <v>911</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
@@ -16796,12 +16805,12 @@
       <c r="C12" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="106"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="108"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="101"/>
       <c r="J12" s="47"/>
       <c r="K12" s="2"/>
     </row>
@@ -16815,12 +16824,12 @@
       <c r="C13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="109"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="111"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="104"/>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
@@ -16833,12 +16842,12 @@
       <c r="C14" s="9" t="s">
         <v>913</v>
       </c>
-      <c r="D14" s="109"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="111"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="104"/>
       <c r="J14" s="47"/>
       <c r="K14" s="2"/>
     </row>
@@ -16852,28 +16861,28 @@
       <c r="C15" s="9" t="s">
         <v>914</v>
       </c>
-      <c r="D15" s="112"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="114"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="107"/>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="94" t="s">
+      <c r="B16" s="87" t="s">
         <v>918</v>
       </c>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
       <c r="J16" s="47"/>
       <c r="K16" s="2"/>
     </row>
@@ -16881,32 +16890,32 @@
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="89" t="s">
         <v>919</v>
       </c>
-      <c r="C17" s="97"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="98"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="91"/>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="99" t="s">
+      <c r="B18" s="92" t="s">
         <v>915</v>
       </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
       <c r="J18" s="47"/>
       <c r="K18" s="2"/>
       <c r="M18" s="2"/>
@@ -16940,7 +16949,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>30</v>
       </c>
@@ -16965,7 +16974,7 @@
       </c>
       <c r="I20" s="16"/>
     </row>
-    <row r="21" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -16992,7 +17001,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -17021,7 +17030,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -17046,7 +17055,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>38</v>
       </c>
@@ -17071,7 +17080,7 @@
       </c>
       <c r="I24" s="16"/>
     </row>
-    <row r="25" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>40</v>
       </c>
@@ -17098,7 +17107,7 @@
       </c>
       <c r="I25" s="16"/>
     </row>
-    <row r="26" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>43</v>
       </c>
@@ -17125,7 +17134,7 @@
       </c>
       <c r="I26" s="16"/>
     </row>
-    <row r="27" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>45</v>
       </c>
@@ -17150,7 +17159,7 @@
       </c>
       <c r="I27" s="16"/>
     </row>
-    <row r="28" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>48</v>
       </c>
@@ -17175,7 +17184,7 @@
       </c>
       <c r="I28" s="16"/>
     </row>
-    <row r="29" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
         <v>50</v>
       </c>
@@ -17200,7 +17209,7 @@
       </c>
       <c r="I29" s="16"/>
     </row>
-    <row r="30" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
         <v>53</v>
       </c>
@@ -17225,7 +17234,7 @@
       </c>
       <c r="I30" s="16"/>
     </row>
-    <row r="31" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
         <v>55</v>
       </c>
@@ -17250,7 +17259,7 @@
       </c>
       <c r="I31" s="16"/>
     </row>
-    <row r="32" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
         <v>57</v>
       </c>
@@ -17275,7 +17284,7 @@
       </c>
       <c r="I32" s="16"/>
     </row>
-    <row r="33" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
         <v>59</v>
       </c>
@@ -17300,7 +17309,7 @@
       </c>
       <c r="I33" s="16"/>
     </row>
-    <row r="34" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
         <v>61</v>
       </c>
@@ -17308,7 +17317,7 @@
         <v>51</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="7" t="s">
@@ -17325,7 +17334,7 @@
       </c>
       <c r="I34" s="16"/>
     </row>
-    <row r="35" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>62</v>
       </c>
@@ -17350,7 +17359,7 @@
       </c>
       <c r="I35" s="16"/>
     </row>
-    <row r="36" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
         <v>64</v>
       </c>
@@ -17375,7 +17384,7 @@
       </c>
       <c r="I36" s="16"/>
     </row>
-    <row r="37" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
         <v>66</v>
       </c>
@@ -17400,7 +17409,7 @@
       </c>
       <c r="I37" s="16"/>
     </row>
-    <row r="38" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
         <v>67</v>
       </c>
@@ -17408,7 +17417,7 @@
         <v>68</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="7" t="s">
@@ -17425,7 +17434,7 @@
       </c>
       <c r="I38" s="16"/>
     </row>
-    <row r="39" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="7" t="s">
         <v>69</v>
       </c>
@@ -17450,7 +17459,7 @@
       </c>
       <c r="I39" s="16"/>
     </row>
-    <row r="40" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
         <v>71</v>
       </c>
@@ -17458,7 +17467,7 @@
         <v>68</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="7" t="s">
@@ -17475,15 +17484,15 @@
       </c>
       <c r="I40" s="16"/>
     </row>
-    <row r="41" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B41" s="53" t="s">
         <v>68</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D41" s="53"/>
       <c r="E41" s="7" t="s">
@@ -17500,7 +17509,7 @@
       </c>
       <c r="I41" s="54"/>
     </row>
-    <row r="42" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
         <v>72</v>
       </c>
@@ -17525,7 +17534,7 @@
       </c>
       <c r="I42" s="16"/>
     </row>
-    <row r="43" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" ht="148.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
         <v>75</v>
       </c>
@@ -17550,7 +17559,7 @@
       </c>
       <c r="I43" s="16"/>
     </row>
-    <row r="44" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="7" t="s">
         <v>77</v>
       </c>
@@ -17575,7 +17584,7 @@
       </c>
       <c r="I44" s="16"/>
     </row>
-    <row r="45" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="7" t="s">
         <v>79</v>
       </c>
@@ -17600,7 +17609,7 @@
       </c>
       <c r="I45" s="16"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
         <v>81</v>
       </c>
@@ -17625,15 +17634,15 @@
       </c>
       <c r="I46" s="16"/>
     </row>
-    <row r="47" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B47" s="57" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C47" s="13" t="s">
         <v>1001</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>1002</v>
       </c>
       <c r="D47" s="53"/>
       <c r="E47" s="7" t="s">
@@ -17650,15 +17659,15 @@
       </c>
       <c r="I47" s="54"/>
     </row>
-    <row r="48" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9" ht="121.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="7" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B48" s="57" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D48" s="53"/>
       <c r="E48" s="7" t="s">
@@ -17675,15 +17684,15 @@
       </c>
       <c r="I48" s="54"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" s="7" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B49" s="57" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D49" s="53"/>
       <c r="E49" s="7" t="s">
@@ -17696,11 +17705,11 @@
         <v>16</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="I49" s="54"/>
     </row>
-    <row r="50" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="7" t="s">
         <v>83</v>
       </c>
@@ -17725,7 +17734,7 @@
       </c>
       <c r="I50" s="16"/>
     </row>
-    <row r="51" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="7" t="s">
         <v>85</v>
       </c>
@@ -17750,7 +17759,7 @@
       </c>
       <c r="I51" s="16"/>
     </row>
-    <row r="52" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="7" t="s">
         <v>87</v>
       </c>
@@ -17775,7 +17784,7 @@
       </c>
       <c r="I52" s="16"/>
     </row>
-    <row r="53" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="7" t="s">
         <v>89</v>
       </c>
@@ -17800,7 +17809,7 @@
       </c>
       <c r="I53" s="16"/>
     </row>
-    <row r="54" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" s="7" t="s">
         <v>91</v>
       </c>
@@ -17825,7 +17834,7 @@
       </c>
       <c r="I54" s="16"/>
     </row>
-    <row r="55" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:9" ht="81" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="7" t="s">
         <v>93</v>
       </c>
@@ -17833,7 +17842,7 @@
         <v>3</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="D55" s="14"/>
       <c r="E55" s="7" t="s">
@@ -17850,7 +17859,7 @@
       </c>
       <c r="I55" s="16"/>
     </row>
-    <row r="56" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="7" t="s">
         <v>94</v>
       </c>
@@ -17875,7 +17884,7 @@
       </c>
       <c r="I56" s="16"/>
     </row>
-    <row r="57" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:9" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" s="7" t="s">
         <v>96</v>
       </c>
@@ -17900,7 +17909,7 @@
       </c>
       <c r="I57" s="16"/>
     </row>
-    <row r="58" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:9" ht="108" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" s="7" t="s">
         <v>99</v>
       </c>
@@ -17925,7 +17934,7 @@
       </c>
       <c r="I58" s="16"/>
     </row>
-    <row r="59" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59" s="7" t="s">
         <v>102</v>
       </c>
@@ -17950,7 +17959,7 @@
       </c>
       <c r="I59" s="16"/>
     </row>
-    <row r="60" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60" s="7" t="s">
         <v>104</v>
       </c>
@@ -17975,7 +17984,7 @@
       </c>
       <c r="I60" s="16"/>
     </row>
-    <row r="61" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" s="7" t="s">
         <v>106</v>
       </c>
@@ -18000,7 +18009,7 @@
       </c>
       <c r="I61" s="16"/>
     </row>
-    <row r="62" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62" s="7" t="s">
         <v>108</v>
       </c>
@@ -18008,7 +18017,7 @@
         <v>100</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D62" s="14"/>
       <c r="E62" s="7" t="s">
@@ -18025,7 +18034,7 @@
       </c>
       <c r="I62" s="16"/>
     </row>
-    <row r="63" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" s="7" t="s">
         <v>109</v>
       </c>
@@ -18050,7 +18059,7 @@
       </c>
       <c r="I63" s="16"/>
     </row>
-    <row r="64" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64" s="7" t="s">
         <v>111</v>
       </c>
@@ -18075,7 +18084,7 @@
       </c>
       <c r="I64" s="16"/>
     </row>
-    <row r="65" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65" s="7" t="s">
         <v>113</v>
       </c>
@@ -18100,7 +18109,7 @@
       </c>
       <c r="I65" s="16"/>
     </row>
-    <row r="66" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" s="7" t="s">
         <v>115</v>
       </c>
@@ -18125,7 +18134,7 @@
       </c>
       <c r="I66" s="16"/>
     </row>
-    <row r="67" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" s="7" t="s">
         <v>117</v>
       </c>
@@ -18150,7 +18159,7 @@
       </c>
       <c r="I67" s="16"/>
     </row>
-    <row r="68" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68" s="7" t="s">
         <v>119</v>
       </c>
@@ -18158,7 +18167,7 @@
         <v>100</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="D68" s="14"/>
       <c r="E68" s="7" t="s">
@@ -18175,7 +18184,7 @@
       </c>
       <c r="I68" s="16"/>
     </row>
-    <row r="69" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" s="7" t="s">
         <v>120</v>
       </c>
@@ -18183,7 +18192,7 @@
         <v>121</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D69" s="14"/>
       <c r="E69" s="7" t="s">
@@ -18202,7 +18211,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" s="7" t="s">
         <v>122</v>
       </c>
@@ -18227,7 +18236,7 @@
       </c>
       <c r="I70" s="16"/>
     </row>
-    <row r="71" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="7" t="s">
         <v>124</v>
       </c>
@@ -18252,7 +18261,7 @@
       </c>
       <c r="I71" s="16"/>
     </row>
-    <row r="72" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" s="7" t="s">
         <v>126</v>
       </c>
@@ -18277,7 +18286,7 @@
       </c>
       <c r="I72" s="16"/>
     </row>
-    <row r="73" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" s="7" t="s">
         <v>128</v>
       </c>
@@ -18302,7 +18311,7 @@
       </c>
       <c r="I73" s="16"/>
     </row>
-    <row r="74" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="7" t="s">
         <v>131</v>
       </c>
@@ -18327,7 +18336,7 @@
       </c>
       <c r="I74" s="16"/>
     </row>
-    <row r="75" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" s="7" t="s">
         <v>134</v>
       </c>
@@ -18352,7 +18361,7 @@
       </c>
       <c r="I75" s="16"/>
     </row>
-    <row r="76" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76" s="7" t="s">
         <v>136</v>
       </c>
@@ -18377,7 +18386,7 @@
       </c>
       <c r="I76" s="16"/>
     </row>
-    <row r="77" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" s="7" t="s">
         <v>138</v>
       </c>
@@ -18402,7 +18411,7 @@
       </c>
       <c r="I77" s="16"/>
     </row>
-    <row r="78" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78" s="7" t="s">
         <v>141</v>
       </c>
@@ -18427,7 +18436,7 @@
       </c>
       <c r="I78" s="16"/>
     </row>
-    <row r="79" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="7" t="s">
         <v>143</v>
       </c>
@@ -18435,7 +18444,7 @@
         <v>144</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D79" s="14"/>
       <c r="E79" s="7" t="s">
@@ -18452,7 +18461,7 @@
       </c>
       <c r="I79" s="16"/>
     </row>
-    <row r="80" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" s="7" t="s">
         <v>145</v>
       </c>
@@ -18477,7 +18486,7 @@
       </c>
       <c r="I80" s="16"/>
     </row>
-    <row r="81" spans="1:9" ht="229.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:9" ht="229.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" s="7" t="s">
         <v>148</v>
       </c>
@@ -18502,7 +18511,7 @@
       </c>
       <c r="I81" s="16"/>
     </row>
-    <row r="82" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" s="7" t="s">
         <v>150</v>
       </c>
@@ -18527,7 +18536,7 @@
       </c>
       <c r="I82" s="16"/>
     </row>
-    <row r="83" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83" s="7" t="s">
         <v>152</v>
       </c>
@@ -18552,7 +18561,7 @@
       </c>
       <c r="I83" s="16"/>
     </row>
-    <row r="84" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:9" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84" s="7" t="s">
         <v>154</v>
       </c>
@@ -18579,7 +18588,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85" s="7" t="s">
         <v>156</v>
       </c>
@@ -18606,7 +18615,7 @@
       </c>
       <c r="I85" s="16"/>
     </row>
-    <row r="86" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86" s="7" t="s">
         <v>159</v>
       </c>
@@ -18631,7 +18640,7 @@
       </c>
       <c r="I86" s="16"/>
     </row>
-    <row r="87" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87" s="7" t="s">
         <v>161</v>
       </c>
@@ -18656,7 +18665,7 @@
       </c>
       <c r="I87" s="13"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88" s="7" t="s">
         <v>163</v>
       </c>
@@ -18681,7 +18690,7 @@
       </c>
       <c r="I88" s="16"/>
     </row>
-    <row r="89" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" s="7" t="s">
         <v>165</v>
       </c>
@@ -18706,7 +18715,7 @@
       </c>
       <c r="I89" s="16"/>
     </row>
-    <row r="90" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" s="7" t="s">
         <v>167</v>
       </c>
@@ -18731,7 +18740,7 @@
       </c>
       <c r="I90" s="16"/>
     </row>
-    <row r="91" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91" s="7" t="s">
         <v>169</v>
       </c>
@@ -18756,7 +18765,7 @@
       </c>
       <c r="I91" s="16"/>
     </row>
-    <row r="92" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92" s="7" t="s">
         <v>171</v>
       </c>
@@ -18781,7 +18790,7 @@
       </c>
       <c r="I92" s="16"/>
     </row>
-    <row r="93" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:9" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93" s="7" t="s">
         <v>173</v>
       </c>
@@ -18806,7 +18815,7 @@
       </c>
       <c r="I93" s="16"/>
     </row>
-    <row r="94" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:9" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94" s="7" t="s">
         <v>175</v>
       </c>
@@ -18831,7 +18840,7 @@
       </c>
       <c r="I94" s="16"/>
     </row>
-    <row r="95" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95" s="7" t="s">
         <v>178</v>
       </c>
@@ -18856,7 +18865,7 @@
       </c>
       <c r="I95" s="16"/>
     </row>
-    <row r="96" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96" s="7" t="s">
         <v>180</v>
       </c>
@@ -18864,7 +18873,7 @@
         <v>146</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="D96" s="14"/>
       <c r="E96" s="7" t="s">
@@ -18881,7 +18890,7 @@
       </c>
       <c r="I96" s="16"/>
     </row>
-    <row r="97" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A97" s="7" t="s">
         <v>181</v>
       </c>
@@ -18906,7 +18915,7 @@
       </c>
       <c r="I97" s="16"/>
     </row>
-    <row r="98" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:9" ht="121.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A98" s="7" t="s">
         <v>177</v>
       </c>
@@ -18931,7 +18940,7 @@
       </c>
       <c r="I98" s="16"/>
     </row>
-    <row r="99" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A99" s="7" t="s">
         <v>185</v>
       </c>
@@ -18956,7 +18965,7 @@
       </c>
       <c r="I99" s="16"/>
     </row>
-    <row r="100" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A100" s="7" t="s">
         <v>187</v>
       </c>
@@ -18980,10 +18989,10 @@
         <v>18</v>
       </c>
       <c r="I100" s="16" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A101" s="7" t="s">
         <v>190</v>
       </c>
@@ -18991,7 +19000,7 @@
         <v>188</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="D101" s="14"/>
       <c r="E101" s="7" t="s">
@@ -19008,7 +19017,7 @@
       </c>
       <c r="I101" s="16"/>
     </row>
-    <row r="102" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:9" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A102" s="7" t="s">
         <v>191</v>
       </c>
@@ -19033,7 +19042,7 @@
       </c>
       <c r="I102" s="16"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A103" s="7" t="s">
         <v>193</v>
       </c>
@@ -19058,7 +19067,7 @@
       </c>
       <c r="I103" s="16"/>
     </row>
-    <row r="104" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A104" s="7" t="s">
         <v>195</v>
       </c>
@@ -19083,7 +19092,7 @@
       </c>
       <c r="I104" s="16"/>
     </row>
-    <row r="105" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A105" s="7" t="s">
         <v>197</v>
       </c>
@@ -19108,7 +19117,7 @@
       </c>
       <c r="I105" s="16"/>
     </row>
-    <row r="106" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A106" s="7" t="s">
         <v>199</v>
       </c>
@@ -19133,7 +19142,7 @@
       </c>
       <c r="I106" s="16"/>
     </row>
-    <row r="107" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:9" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A107" s="7" t="s">
         <v>201</v>
       </c>
@@ -19157,10 +19166,10 @@
         <v>18</v>
       </c>
       <c r="I107" s="16" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A108" s="7" t="s">
         <v>203</v>
       </c>
@@ -19185,7 +19194,7 @@
       </c>
       <c r="I108" s="16"/>
     </row>
-    <row r="109" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A109" s="7" t="s">
         <v>205</v>
       </c>
@@ -19210,7 +19219,7 @@
       </c>
       <c r="I109" s="16"/>
     </row>
-    <row r="110" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A110" s="7" t="s">
         <v>208</v>
       </c>
@@ -19235,7 +19244,7 @@
       </c>
       <c r="I110" s="16"/>
     </row>
-    <row r="111" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A111" s="7" t="s">
         <v>211</v>
       </c>
@@ -19260,7 +19269,7 @@
       </c>
       <c r="I111" s="16"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A112" s="7" t="s">
         <v>213</v>
       </c>
@@ -19285,7 +19294,7 @@
       </c>
       <c r="I112" s="16"/>
     </row>
-    <row r="113" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A113" s="7" t="s">
         <v>215</v>
       </c>
@@ -19310,7 +19319,7 @@
       </c>
       <c r="I113" s="16"/>
     </row>
-    <row r="114" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A114" s="7" t="s">
         <v>218</v>
       </c>
@@ -19335,15 +19344,15 @@
       </c>
       <c r="I114" s="16"/>
     </row>
-    <row r="115" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A115" s="7" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B115" s="14" t="s">
         <v>220</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D115" s="14"/>
       <c r="E115" s="7" t="s">
@@ -19360,7 +19369,7 @@
       </c>
       <c r="I115" s="16"/>
     </row>
-    <row r="116" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A116" s="7" t="s">
         <v>221</v>
       </c>
@@ -19385,7 +19394,7 @@
       </c>
       <c r="I116" s="16"/>
     </row>
-    <row r="117" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:9" ht="310.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A117" s="7" t="s">
         <v>224</v>
       </c>
@@ -19410,7 +19419,7 @@
       </c>
       <c r="I117" s="16"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A118" s="7" t="s">
         <v>227</v>
       </c>
@@ -19435,7 +19444,7 @@
       </c>
       <c r="I118" s="16"/>
     </row>
-    <row r="119" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:9" ht="81" hidden="1" x14ac:dyDescent="0.15">
       <c r="A119" s="7" t="s">
         <v>229</v>
       </c>
@@ -19460,7 +19469,7 @@
       </c>
       <c r="I119" s="16"/>
     </row>
-    <row r="120" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A120" s="7" t="s">
         <v>231</v>
       </c>
@@ -19485,7 +19494,7 @@
       </c>
       <c r="I120" s="16"/>
     </row>
-    <row r="121" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A121" s="7" t="s">
         <v>233</v>
       </c>
@@ -19510,7 +19519,7 @@
       </c>
       <c r="I121" s="16"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A122" s="7" t="s">
         <v>235</v>
       </c>
@@ -19535,7 +19544,7 @@
       </c>
       <c r="I122" s="16"/>
     </row>
-    <row r="123" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A123" s="7" t="s">
         <v>924</v>
       </c>
@@ -19562,7 +19571,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:9" ht="81" hidden="1" x14ac:dyDescent="0.15">
       <c r="A124" s="7" t="s">
         <v>927</v>
       </c>
@@ -19591,7 +19600,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A125" s="7" t="s">
         <v>237</v>
       </c>
@@ -19616,7 +19625,7 @@
       </c>
       <c r="I125" s="16"/>
     </row>
-    <row r="126" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A126" s="7" t="s">
         <v>239</v>
       </c>
@@ -19641,7 +19650,7 @@
       </c>
       <c r="I126" s="16"/>
     </row>
-    <row r="127" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A127" s="7" t="s">
         <v>241</v>
       </c>
@@ -19649,7 +19658,7 @@
         <v>222</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D127" s="14"/>
       <c r="E127" s="7" t="s">
@@ -19666,7 +19675,7 @@
       </c>
       <c r="I127" s="16"/>
     </row>
-    <row r="128" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A128" s="7" t="s">
         <v>242</v>
       </c>
@@ -19691,7 +19700,7 @@
       </c>
       <c r="I128" s="16"/>
     </row>
-    <row r="129" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A129" s="7" t="s">
         <v>244</v>
       </c>
@@ -19716,7 +19725,7 @@
       </c>
       <c r="I129" s="13"/>
     </row>
-    <row r="130" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A130" s="7" t="s">
         <v>246</v>
       </c>
@@ -19741,7 +19750,7 @@
       </c>
       <c r="I130" s="16"/>
     </row>
-    <row r="131" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A131" s="7" t="s">
         <v>248</v>
       </c>
@@ -19766,7 +19775,7 @@
       </c>
       <c r="I131" s="13"/>
     </row>
-    <row r="132" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A132" s="7" t="s">
         <v>250</v>
       </c>
@@ -19791,7 +19800,7 @@
       </c>
       <c r="I132" s="16"/>
     </row>
-    <row r="133" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A133" s="7" t="s">
         <v>252</v>
       </c>
@@ -19816,7 +19825,7 @@
       </c>
       <c r="I133" s="16"/>
     </row>
-    <row r="134" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A134" s="7" t="s">
         <v>254</v>
       </c>
@@ -19841,7 +19850,7 @@
       </c>
       <c r="I134" s="16"/>
     </row>
-    <row r="135" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A135" s="7" t="s">
         <v>256</v>
       </c>
@@ -19866,7 +19875,7 @@
       </c>
       <c r="I135" s="16"/>
     </row>
-    <row r="136" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:9" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A136" s="7" t="s">
         <v>258</v>
       </c>
@@ -19890,10 +19899,10 @@
         <v>18</v>
       </c>
       <c r="I136" s="13" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="148.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A137" s="7" t="s">
         <v>260</v>
       </c>
@@ -19901,7 +19910,7 @@
         <v>222</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D137" s="14"/>
       <c r="E137" s="7" t="s">
@@ -19918,7 +19927,7 @@
       </c>
       <c r="I137" s="16"/>
     </row>
-    <row r="138" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A138" s="7" t="s">
         <v>261</v>
       </c>
@@ -19943,7 +19952,7 @@
       </c>
       <c r="I138" s="16"/>
     </row>
-    <row r="139" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:9" ht="121.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A139" s="7" t="s">
         <v>226</v>
       </c>
@@ -19968,7 +19977,7 @@
       </c>
       <c r="I139" s="16"/>
     </row>
-    <row r="140" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A140" s="7" t="s">
         <v>265</v>
       </c>
@@ -19993,7 +20002,7 @@
       </c>
       <c r="I140" s="16"/>
     </row>
-    <row r="141" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A141" s="7" t="s">
         <v>266</v>
       </c>
@@ -20018,7 +20027,7 @@
       </c>
       <c r="I141" s="16"/>
     </row>
-    <row r="142" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A142" s="7" t="s">
         <v>268</v>
       </c>
@@ -20043,7 +20052,7 @@
       </c>
       <c r="I142" s="16"/>
     </row>
-    <row r="143" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A143" s="7" t="s">
         <v>270</v>
       </c>
@@ -20068,7 +20077,7 @@
       </c>
       <c r="I143" s="16"/>
     </row>
-    <row r="144" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A144" s="7" t="s">
         <v>272</v>
       </c>
@@ -20093,7 +20102,7 @@
       </c>
       <c r="I144" s="16"/>
     </row>
-    <row r="145" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A145" s="7" t="s">
         <v>274</v>
       </c>
@@ -20101,7 +20110,7 @@
         <v>262</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D145" s="14"/>
       <c r="E145" s="7" t="s">
@@ -20118,7 +20127,7 @@
       </c>
       <c r="I145" s="13"/>
     </row>
-    <row r="146" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A146" s="7" t="s">
         <v>275</v>
       </c>
@@ -20126,7 +20135,7 @@
         <v>262</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="D146" s="14"/>
       <c r="E146" s="7" t="s">
@@ -20143,7 +20152,7 @@
       </c>
       <c r="I146" s="13"/>
     </row>
-    <row r="147" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A147" s="7" t="s">
         <v>276</v>
       </c>
@@ -20151,7 +20160,7 @@
         <v>262</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D147" s="14"/>
       <c r="E147" s="7" t="s">
@@ -20168,7 +20177,7 @@
       </c>
       <c r="I147" s="16"/>
     </row>
-    <row r="148" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A148" s="7" t="s">
         <v>277</v>
       </c>
@@ -20193,7 +20202,7 @@
       </c>
       <c r="I148" s="16"/>
     </row>
-    <row r="149" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A149" s="7" t="s">
         <v>279</v>
       </c>
@@ -20201,7 +20210,7 @@
         <v>262</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D149" s="14"/>
       <c r="E149" s="7" t="s">
@@ -20218,7 +20227,7 @@
       </c>
       <c r="I149" s="16"/>
     </row>
-    <row r="150" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A150" s="7" t="s">
         <v>280</v>
       </c>
@@ -20245,7 +20254,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:9" ht="94.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A151" s="7" t="s">
         <v>283</v>
       </c>
@@ -20270,7 +20279,7 @@
       </c>
       <c r="I151" s="16"/>
     </row>
-    <row r="152" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A152" s="7" t="s">
         <v>285</v>
       </c>
@@ -20295,7 +20304,7 @@
       </c>
       <c r="I152" s="16"/>
     </row>
-    <row r="153" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A153" s="7" t="s">
         <v>287</v>
       </c>
@@ -20320,7 +20329,7 @@
       </c>
       <c r="I153" s="16"/>
     </row>
-    <row r="154" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A154" s="7" t="s">
         <v>289</v>
       </c>
@@ -20345,7 +20354,7 @@
       </c>
       <c r="I154" s="16"/>
     </row>
-    <row r="155" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A155" s="7" t="s">
         <v>292</v>
       </c>
@@ -20370,7 +20379,7 @@
       </c>
       <c r="I155" s="16"/>
     </row>
-    <row r="156" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A156" s="7" t="s">
         <v>295</v>
       </c>
@@ -20395,7 +20404,7 @@
       </c>
       <c r="I156" s="16"/>
     </row>
-    <row r="157" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A157" s="7" t="s">
         <v>297</v>
       </c>
@@ -20420,7 +20429,7 @@
       </c>
       <c r="I157" s="16"/>
     </row>
-    <row r="158" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A158" s="7" t="s">
         <v>299</v>
       </c>
@@ -20445,7 +20454,7 @@
       </c>
       <c r="I158" s="16"/>
     </row>
-    <row r="159" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A159" s="7" t="s">
         <v>302</v>
       </c>
@@ -20470,7 +20479,7 @@
       </c>
       <c r="I159" s="16"/>
     </row>
-    <row r="160" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A160" s="7" t="s">
         <v>304</v>
       </c>
@@ -20478,7 +20487,7 @@
         <v>305</v>
       </c>
       <c r="C160" s="13" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D160" s="14"/>
       <c r="E160" s="7" t="s">
@@ -20495,7 +20504,7 @@
       </c>
       <c r="I160" s="16"/>
     </row>
-    <row r="161" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A161" s="7" t="s">
         <v>306</v>
       </c>
@@ -20520,7 +20529,7 @@
       </c>
       <c r="I161" s="16"/>
     </row>
-    <row r="162" spans="1:9" ht="229.5" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:9" ht="229.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A162" s="7" t="s">
         <v>309</v>
       </c>
@@ -20545,7 +20554,7 @@
       </c>
       <c r="I162" s="16"/>
     </row>
-    <row r="163" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A163" s="7" t="s">
         <v>312</v>
       </c>
@@ -20570,7 +20579,7 @@
       </c>
       <c r="I163" s="16"/>
     </row>
-    <row r="164" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A164" s="7" t="s">
         <v>314</v>
       </c>
@@ -20595,7 +20604,7 @@
       </c>
       <c r="I164" s="16"/>
     </row>
-    <row r="165" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:9" ht="81" hidden="1" x14ac:dyDescent="0.15">
       <c r="A165" s="7" t="s">
         <v>316</v>
       </c>
@@ -20622,7 +20631,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:9" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A166" s="7" t="s">
         <v>317</v>
       </c>
@@ -20649,7 +20658,7 @@
       </c>
       <c r="I166" s="16"/>
     </row>
-    <row r="167" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A167" s="7" t="s">
         <v>318</v>
       </c>
@@ -20674,7 +20683,7 @@
       </c>
       <c r="I167" s="16"/>
     </row>
-    <row r="168" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A168" s="7" t="s">
         <v>320</v>
       </c>
@@ -20699,7 +20708,7 @@
       </c>
       <c r="I168" s="13"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A169" s="7" t="s">
         <v>322</v>
       </c>
@@ -20724,7 +20733,7 @@
       </c>
       <c r="I169" s="16"/>
     </row>
-    <row r="170" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A170" s="7" t="s">
         <v>324</v>
       </c>
@@ -20749,7 +20758,7 @@
       </c>
       <c r="I170" s="16"/>
     </row>
-    <row r="171" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A171" s="7" t="s">
         <v>326</v>
       </c>
@@ -20774,7 +20783,7 @@
       </c>
       <c r="I171" s="16"/>
     </row>
-    <row r="172" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A172" s="7" t="s">
         <v>328</v>
       </c>
@@ -20799,7 +20808,7 @@
       </c>
       <c r="I172" s="16"/>
     </row>
-    <row r="173" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A173" s="7" t="s">
         <v>330</v>
       </c>
@@ -20807,7 +20816,7 @@
         <v>307</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D173" s="14"/>
       <c r="E173" s="7" t="s">
@@ -20824,7 +20833,7 @@
       </c>
       <c r="I173" s="13"/>
     </row>
-    <row r="174" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A174" s="7" t="s">
         <v>331</v>
       </c>
@@ -20849,7 +20858,7 @@
       </c>
       <c r="I174" s="16"/>
     </row>
-    <row r="175" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A175" s="7" t="s">
         <v>333</v>
       </c>
@@ -20874,7 +20883,7 @@
       </c>
       <c r="I175" s="16"/>
     </row>
-    <row r="176" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A176" s="7" t="s">
         <v>335</v>
       </c>
@@ -20899,7 +20908,7 @@
       </c>
       <c r="I176" s="16"/>
     </row>
-    <row r="177" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A177" s="7" t="s">
         <v>337</v>
       </c>
@@ -20924,7 +20933,7 @@
       </c>
       <c r="I177" s="16"/>
     </row>
-    <row r="178" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.15">
       <c r="A178" s="7" t="s">
         <v>311</v>
       </c>
@@ -20949,7 +20958,7 @@
       </c>
       <c r="I178" s="16"/>
     </row>
-    <row r="179" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A179" s="7" t="s">
         <v>341</v>
       </c>
@@ -20974,7 +20983,7 @@
       </c>
       <c r="I179" s="16"/>
     </row>
-    <row r="180" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A180" s="7" t="s">
         <v>343</v>
       </c>
@@ -21001,7 +21010,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:9" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A181" s="7" t="s">
         <v>346</v>
       </c>
@@ -21026,7 +21035,7 @@
       </c>
       <c r="I181" s="16"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A182" s="7" t="s">
         <v>348</v>
       </c>
@@ -21051,7 +21060,7 @@
       </c>
       <c r="I182" s="16"/>
     </row>
-    <row r="183" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A183" s="7" t="s">
         <v>350</v>
       </c>
@@ -21076,7 +21085,7 @@
       </c>
       <c r="I183" s="16"/>
     </row>
-    <row r="184" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A184" s="7" t="s">
         <v>352</v>
       </c>
@@ -21101,7 +21110,7 @@
       </c>
       <c r="I184" s="16"/>
     </row>
-    <row r="185" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A185" s="7" t="s">
         <v>355</v>
       </c>
@@ -21126,7 +21135,7 @@
       </c>
       <c r="I185" s="16"/>
     </row>
-    <row r="186" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A186" s="7" t="s">
         <v>358</v>
       </c>
@@ -21151,7 +21160,7 @@
       </c>
       <c r="I186" s="16"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A187" s="7" t="s">
         <v>360</v>
       </c>
@@ -21176,7 +21185,7 @@
       </c>
       <c r="I187" s="16"/>
     </row>
-    <row r="188" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A188" s="7" t="s">
         <v>362</v>
       </c>
@@ -21201,7 +21210,7 @@
       </c>
       <c r="I188" s="16"/>
     </row>
-    <row r="189" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A189" s="7" t="s">
         <v>365</v>
       </c>
@@ -21226,7 +21235,7 @@
       </c>
       <c r="I189" s="16"/>
     </row>
-    <row r="190" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A190" s="7" t="s">
         <v>367</v>
       </c>
@@ -21234,7 +21243,7 @@
         <v>368</v>
       </c>
       <c r="C190" s="13" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D190" s="14"/>
       <c r="E190" s="7" t="s">
@@ -21251,7 +21260,7 @@
       </c>
       <c r="I190" s="16"/>
     </row>
-    <row r="191" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A191" s="7" t="s">
         <v>369</v>
       </c>
@@ -21276,7 +21285,7 @@
       </c>
       <c r="I191" s="16"/>
     </row>
-    <row r="192" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:9" ht="121.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A192" s="7" t="s">
         <v>372</v>
       </c>
@@ -21301,7 +21310,7 @@
       </c>
       <c r="I192" s="16"/>
     </row>
-    <row r="193" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A193" s="7" t="s">
         <v>374</v>
       </c>
@@ -21326,7 +21335,7 @@
       </c>
       <c r="I193" s="16"/>
     </row>
-    <row r="194" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A194" s="7" t="s">
         <v>376</v>
       </c>
@@ -21351,7 +21360,7 @@
       </c>
       <c r="I194" s="16"/>
     </row>
-    <row r="195" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A195" s="7" t="s">
         <v>378</v>
       </c>
@@ -21376,7 +21385,7 @@
       </c>
       <c r="I195" s="16"/>
     </row>
-    <row r="196" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.15">
       <c r="A196" s="7" t="s">
         <v>373</v>
       </c>
@@ -21401,7 +21410,7 @@
       </c>
       <c r="I196" s="16"/>
     </row>
-    <row r="197" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A197" s="7" t="s">
         <v>381</v>
       </c>
@@ -21426,7 +21435,7 @@
       </c>
       <c r="I197" s="16"/>
     </row>
-    <row r="198" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A198" s="7" t="s">
         <v>383</v>
       </c>
@@ -21451,7 +21460,7 @@
       </c>
       <c r="I198" s="16"/>
     </row>
-    <row r="199" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A199" s="7" t="s">
         <v>385</v>
       </c>
@@ -21476,7 +21485,7 @@
       </c>
       <c r="I199" s="16"/>
     </row>
-    <row r="200" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A200" s="7" t="s">
         <v>387</v>
       </c>
@@ -21501,7 +21510,7 @@
       </c>
       <c r="I200" s="16"/>
     </row>
-    <row r="201" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A201" s="7" t="s">
         <v>389</v>
       </c>
@@ -21526,7 +21535,7 @@
       </c>
       <c r="I201" s="16"/>
     </row>
-    <row r="202" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A202" s="7" t="s">
         <v>391</v>
       </c>
@@ -21551,7 +21560,7 @@
       </c>
       <c r="I202" s="16"/>
     </row>
-    <row r="203" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A203" s="7" t="s">
         <v>393</v>
       </c>
@@ -21576,7 +21585,7 @@
       </c>
       <c r="I203" s="16"/>
     </row>
-    <row r="204" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:9" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A204" s="7" t="s">
         <v>395</v>
       </c>
@@ -21601,7 +21610,7 @@
       </c>
       <c r="I204" s="16"/>
     </row>
-    <row r="205" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:9" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A205" s="7" t="s">
         <v>398</v>
       </c>
@@ -21626,7 +21635,7 @@
       </c>
       <c r="I205" s="16"/>
     </row>
-    <row r="206" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A206" s="7" t="s">
         <v>400</v>
       </c>
@@ -21651,7 +21660,7 @@
       </c>
       <c r="I206" s="16"/>
     </row>
-    <row r="207" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A207" s="7" t="s">
         <v>402</v>
       </c>
@@ -21676,7 +21685,7 @@
       </c>
       <c r="I207" s="16"/>
     </row>
-    <row r="208" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A208" s="7" t="s">
         <v>404</v>
       </c>
@@ -21701,7 +21710,7 @@
       </c>
       <c r="I208" s="16"/>
     </row>
-    <row r="209" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A209" s="7" t="s">
         <v>407</v>
       </c>
@@ -21726,7 +21735,7 @@
       </c>
       <c r="I209" s="16"/>
     </row>
-    <row r="210" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A210" s="7" t="s">
         <v>410</v>
       </c>
@@ -21751,7 +21760,7 @@
       </c>
       <c r="I210" s="16"/>
     </row>
-    <row r="211" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A211" s="7" t="s">
         <v>412</v>
       </c>
@@ -21776,7 +21785,7 @@
       </c>
       <c r="I211" s="16"/>
     </row>
-    <row r="212" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A212" s="7" t="s">
         <v>414</v>
       </c>
@@ -21801,7 +21810,7 @@
       </c>
       <c r="I212" s="16"/>
     </row>
-    <row r="213" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A213" s="7" t="s">
         <v>417</v>
       </c>
@@ -21826,7 +21835,7 @@
       </c>
       <c r="I213" s="16"/>
     </row>
-    <row r="214" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A214" s="7" t="s">
         <v>419</v>
       </c>
@@ -21834,7 +21843,7 @@
         <v>420</v>
       </c>
       <c r="C214" s="13" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D214" s="14"/>
       <c r="E214" s="7" t="s">
@@ -21851,7 +21860,7 @@
       </c>
       <c r="I214" s="16"/>
     </row>
-    <row r="215" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A215" s="7" t="s">
         <v>421</v>
       </c>
@@ -21876,7 +21885,7 @@
       </c>
       <c r="I215" s="16"/>
     </row>
-    <row r="216" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:9" ht="121.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A216" s="7" t="s">
         <v>424</v>
       </c>
@@ -21901,7 +21910,7 @@
       </c>
       <c r="I216" s="16"/>
     </row>
-    <row r="217" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A217" s="7" t="s">
         <v>427</v>
       </c>
@@ -22100,7 +22109,7 @@
         <v>18</v>
       </c>
       <c r="I224" s="13" t="s">
-        <v>978</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
@@ -22128,7 +22137,7 @@
       </c>
       <c r="I225" s="13"/>
     </row>
-    <row r="226" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A226" s="7" t="s">
         <v>444</v>
       </c>
@@ -22153,7 +22162,7 @@
       </c>
       <c r="I226" s="16"/>
     </row>
-    <row r="227" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A227" s="7" t="s">
         <v>447</v>
       </c>
@@ -22178,7 +22187,7 @@
       </c>
       <c r="I227" s="16"/>
     </row>
-    <row r="228" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A228" s="7" t="s">
         <v>450</v>
       </c>
@@ -22203,7 +22212,7 @@
       </c>
       <c r="I228" s="16"/>
     </row>
-    <row r="229" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:9" ht="108" hidden="1" x14ac:dyDescent="0.15">
       <c r="A229" s="7" t="s">
         <v>452</v>
       </c>
@@ -22228,7 +22237,7 @@
       </c>
       <c r="I229" s="16"/>
     </row>
-    <row r="230" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A230" s="7" t="s">
         <v>454</v>
       </c>
@@ -22253,7 +22262,7 @@
       </c>
       <c r="I230" s="16"/>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A231" s="7" t="s">
         <v>456</v>
       </c>
@@ -22278,7 +22287,7 @@
       </c>
       <c r="I231" s="16"/>
     </row>
-    <row r="232" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A232" s="7" t="s">
         <v>459</v>
       </c>
@@ -22303,7 +22312,7 @@
       </c>
       <c r="I232" s="16"/>
     </row>
-    <row r="233" spans="1:9" ht="364.5" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:9" ht="364.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A233" s="7" t="s">
         <v>461</v>
       </c>
@@ -22328,7 +22337,7 @@
       </c>
       <c r="I233" s="16"/>
     </row>
-    <row r="234" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A234" s="7" t="s">
         <v>463</v>
       </c>
@@ -22353,7 +22362,7 @@
       </c>
       <c r="I234" s="16"/>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A235" s="7" t="s">
         <v>465</v>
       </c>
@@ -22378,7 +22387,7 @@
       </c>
       <c r="I235" s="16"/>
     </row>
-    <row r="236" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A236" s="7" t="s">
         <v>467</v>
       </c>
@@ -22403,7 +22412,7 @@
       </c>
       <c r="I236" s="16"/>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A237" s="7" t="s">
         <v>469</v>
       </c>
@@ -22428,7 +22437,7 @@
       </c>
       <c r="I237" s="16"/>
     </row>
-    <row r="238" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A238" s="7" t="s">
         <v>471</v>
       </c>
@@ -22453,7 +22462,7 @@
       </c>
       <c r="I238" s="16"/>
     </row>
-    <row r="239" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A239" s="7" t="s">
         <v>473</v>
       </c>
@@ -22478,7 +22487,7 @@
       </c>
       <c r="I239" s="16"/>
     </row>
-    <row r="240" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A240" s="7" t="s">
         <v>475</v>
       </c>
@@ -22503,7 +22512,7 @@
       </c>
       <c r="I240" s="16"/>
     </row>
-    <row r="241" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A241" s="7" t="s">
         <v>477</v>
       </c>
@@ -22528,7 +22537,7 @@
       </c>
       <c r="I241" s="16"/>
     </row>
-    <row r="242" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A242" s="7" t="s">
         <v>479</v>
       </c>
@@ -22553,7 +22562,7 @@
       </c>
       <c r="I242" s="16"/>
     </row>
-    <row r="243" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A243" s="7" t="s">
         <v>481</v>
       </c>
@@ -22578,7 +22587,7 @@
       </c>
       <c r="I243" s="16"/>
     </row>
-    <row r="244" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A244" s="7" t="s">
         <v>483</v>
       </c>
@@ -22603,7 +22612,7 @@
       </c>
       <c r="I244" s="16"/>
     </row>
-    <row r="245" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A245" s="7" t="s">
         <v>485</v>
       </c>
@@ -22628,7 +22637,7 @@
       </c>
       <c r="I245" s="16"/>
     </row>
-    <row r="246" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A246" s="7" t="s">
         <v>487</v>
       </c>
@@ -22653,7 +22662,7 @@
       </c>
       <c r="I246" s="16"/>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A247" s="7" t="s">
         <v>489</v>
       </c>
@@ -22678,7 +22687,7 @@
       </c>
       <c r="I247" s="16"/>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A248" s="7" t="s">
         <v>491</v>
       </c>
@@ -22703,7 +22712,7 @@
       </c>
       <c r="I248" s="16"/>
     </row>
-    <row r="249" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A249" s="7" t="s">
         <v>493</v>
       </c>
@@ -22728,7 +22737,7 @@
       </c>
       <c r="I249" s="16"/>
     </row>
-    <row r="250" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A250" s="7" t="s">
         <v>495</v>
       </c>
@@ -22753,7 +22762,7 @@
       </c>
       <c r="I250" s="16"/>
     </row>
-    <row r="251" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A251" s="7" t="s">
         <v>497</v>
       </c>
@@ -22778,7 +22787,7 @@
       </c>
       <c r="I251" s="16"/>
     </row>
-    <row r="252" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A252" s="7" t="s">
         <v>499</v>
       </c>
@@ -22803,7 +22812,7 @@
       </c>
       <c r="I252" s="16"/>
     </row>
-    <row r="253" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A253" s="7" t="s">
         <v>501</v>
       </c>
@@ -22828,7 +22837,7 @@
       </c>
       <c r="I253" s="13"/>
     </row>
-    <row r="254" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A254" s="7" t="s">
         <v>503</v>
       </c>
@@ -22853,7 +22862,7 @@
       </c>
       <c r="I254" s="13"/>
     </row>
-    <row r="255" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A255" s="7" t="s">
         <v>505</v>
       </c>
@@ -22878,7 +22887,7 @@
       </c>
       <c r="I255" s="16"/>
     </row>
-    <row r="256" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A256" s="7" t="s">
         <v>507</v>
       </c>
@@ -22902,10 +22911,10 @@
         <v>18</v>
       </c>
       <c r="I256" s="16" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A257" s="7" t="s">
         <v>510</v>
       </c>
@@ -22930,7 +22939,7 @@
       </c>
       <c r="I257" s="16"/>
     </row>
-    <row r="258" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A258" s="7" t="s">
         <v>512</v>
       </c>
@@ -22938,7 +22947,7 @@
         <v>508</v>
       </c>
       <c r="C258" s="13" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D258" s="14"/>
       <c r="E258" s="7" t="s">
@@ -22955,7 +22964,7 @@
       </c>
       <c r="I258" s="16"/>
     </row>
-    <row r="259" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A259" s="7" t="s">
         <v>513</v>
       </c>
@@ -22980,7 +22989,7 @@
       </c>
       <c r="I259" s="20"/>
     </row>
-    <row r="260" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A260" s="7" t="s">
         <v>515</v>
       </c>
@@ -23005,7 +23014,7 @@
       </c>
       <c r="I260" s="16"/>
     </row>
-    <row r="261" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A261" s="7" t="s">
         <v>517</v>
       </c>
@@ -23030,7 +23039,7 @@
       </c>
       <c r="I261" s="16"/>
     </row>
-    <row r="262" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A262" s="7" t="s">
         <v>519</v>
       </c>
@@ -23055,7 +23064,7 @@
       </c>
       <c r="I262" s="16"/>
     </row>
-    <row r="263" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A263" s="7" t="s">
         <v>521</v>
       </c>
@@ -23080,7 +23089,7 @@
       </c>
       <c r="I263" s="16"/>
     </row>
-    <row r="264" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A264" s="7" t="s">
         <v>523</v>
       </c>
@@ -23105,7 +23114,7 @@
       </c>
       <c r="I264" s="16"/>
     </row>
-    <row r="265" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A265" s="7" t="s">
         <v>525</v>
       </c>
@@ -23130,7 +23139,7 @@
       </c>
       <c r="I265" s="16"/>
     </row>
-    <row r="266" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A266" s="7" t="s">
         <v>527</v>
       </c>
@@ -23155,7 +23164,7 @@
       </c>
       <c r="I266" s="16"/>
     </row>
-    <row r="267" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A267" s="7" t="s">
         <v>529</v>
       </c>
@@ -23180,7 +23189,7 @@
       </c>
       <c r="I267" s="16"/>
     </row>
-    <row r="268" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A268" s="7" t="s">
         <v>531</v>
       </c>
@@ -23205,7 +23214,7 @@
       </c>
       <c r="I268" s="16"/>
     </row>
-    <row r="269" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A269" s="7" t="s">
         <v>533</v>
       </c>
@@ -23230,7 +23239,7 @@
       </c>
       <c r="I269" s="16"/>
     </row>
-    <row r="270" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A270" s="7" t="s">
         <v>535</v>
       </c>
@@ -23255,7 +23264,7 @@
       </c>
       <c r="I270" s="16"/>
     </row>
-    <row r="271" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:9" ht="94.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A271" s="7" t="s">
         <v>537</v>
       </c>
@@ -23280,7 +23289,7 @@
       </c>
       <c r="I271" s="16"/>
     </row>
-    <row r="272" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A272" s="7" t="s">
         <v>539</v>
       </c>
@@ -23305,7 +23314,7 @@
       </c>
       <c r="I272" s="16"/>
     </row>
-    <row r="273" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A273" s="7" t="s">
         <v>541</v>
       </c>
@@ -23330,7 +23339,7 @@
       </c>
       <c r="I273" s="16"/>
     </row>
-    <row r="274" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A274" s="7" t="s">
         <v>543</v>
       </c>
@@ -23355,7 +23364,7 @@
       </c>
       <c r="I274" s="16"/>
     </row>
-    <row r="275" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A275" s="7" t="s">
         <v>546</v>
       </c>
@@ -23380,7 +23389,7 @@
       </c>
       <c r="I275" s="16"/>
     </row>
-    <row r="276" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A276" s="7" t="s">
         <v>549</v>
       </c>
@@ -23405,7 +23414,7 @@
       </c>
       <c r="I276" s="16"/>
     </row>
-    <row r="277" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A277" s="7" t="s">
         <v>551</v>
       </c>
@@ -23430,7 +23439,7 @@
       </c>
       <c r="I277" s="16"/>
     </row>
-    <row r="278" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A278" s="7" t="s">
         <v>553</v>
       </c>
@@ -23455,7 +23464,7 @@
       </c>
       <c r="I278" s="16"/>
     </row>
-    <row r="279" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A279" s="7" t="s">
         <v>556</v>
       </c>
@@ -23480,7 +23489,7 @@
       </c>
       <c r="I279" s="16"/>
     </row>
-    <row r="280" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A280" s="7" t="s">
         <v>558</v>
       </c>
@@ -23488,7 +23497,7 @@
         <v>559</v>
       </c>
       <c r="C280" s="13" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D280" s="14"/>
       <c r="E280" s="7" t="s">
@@ -23505,7 +23514,7 @@
       </c>
       <c r="I280" s="16"/>
     </row>
-    <row r="281" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A281" s="7" t="s">
         <v>560</v>
       </c>
@@ -23530,7 +23539,7 @@
       </c>
       <c r="I281" s="16"/>
     </row>
-    <row r="282" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A282" s="7" t="s">
         <v>563</v>
       </c>
@@ -23555,7 +23564,7 @@
       </c>
       <c r="I282" s="16"/>
     </row>
-    <row r="283" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A283" s="7" t="s">
         <v>566</v>
       </c>
@@ -23580,7 +23589,7 @@
       </c>
       <c r="I283" s="16"/>
     </row>
-    <row r="284" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:9" ht="148.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A284" s="7" t="s">
         <v>565</v>
       </c>
@@ -23605,7 +23614,7 @@
       </c>
       <c r="I284" s="16"/>
     </row>
-    <row r="285" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A285" s="7" t="s">
         <v>952</v>
       </c>
@@ -23632,7 +23641,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="286" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A286" s="7" t="s">
         <v>571</v>
       </c>
@@ -23659,7 +23668,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="287" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A287" s="7" t="s">
         <v>574</v>
       </c>
@@ -23684,7 +23693,7 @@
       </c>
       <c r="I287" s="16"/>
     </row>
-    <row r="288" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A288" s="7" t="s">
         <v>576</v>
       </c>
@@ -23709,7 +23718,7 @@
       </c>
       <c r="I288" s="16"/>
     </row>
-    <row r="289" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:9" ht="108" hidden="1" x14ac:dyDescent="0.15">
       <c r="A289" s="7" t="s">
         <v>578</v>
       </c>
@@ -23734,7 +23743,7 @@
       </c>
       <c r="I289" s="16"/>
     </row>
-    <row r="290" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A290" s="7" t="s">
         <v>580</v>
       </c>
@@ -23759,7 +23768,7 @@
       </c>
       <c r="I290" s="16"/>
     </row>
-    <row r="291" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A291" s="7" t="s">
         <v>582</v>
       </c>
@@ -23784,7 +23793,7 @@
       </c>
       <c r="I291" s="16"/>
     </row>
-    <row r="292" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A292" s="7" t="s">
         <v>584</v>
       </c>
@@ -23809,7 +23818,7 @@
       </c>
       <c r="I292" s="16"/>
     </row>
-    <row r="293" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A293" s="7" t="s">
         <v>587</v>
       </c>
@@ -23834,7 +23843,7 @@
       </c>
       <c r="I293" s="16"/>
     </row>
-    <row r="294" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A294" s="7" t="s">
         <v>590</v>
       </c>
@@ -23859,7 +23868,7 @@
       </c>
       <c r="I294" s="16"/>
     </row>
-    <row r="295" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A295" s="7" t="s">
         <v>592</v>
       </c>
@@ -23884,7 +23893,7 @@
       </c>
       <c r="I295" s="16"/>
     </row>
-    <row r="296" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A296" s="7" t="s">
         <v>594</v>
       </c>
@@ -23909,7 +23918,7 @@
       </c>
       <c r="I296" s="16"/>
     </row>
-    <row r="297" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A297" s="7" t="s">
         <v>597</v>
       </c>
@@ -23934,7 +23943,7 @@
       </c>
       <c r="I297" s="16"/>
     </row>
-    <row r="298" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A298" s="7" t="s">
         <v>599</v>
       </c>
@@ -23942,7 +23951,7 @@
         <v>600</v>
       </c>
       <c r="C298" s="13" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D298" s="14"/>
       <c r="E298" s="7" t="s">
@@ -23959,7 +23968,7 @@
       </c>
       <c r="I298" s="16"/>
     </row>
-    <row r="299" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A299" s="7" t="s">
         <v>601</v>
       </c>
@@ -23984,7 +23993,7 @@
       </c>
       <c r="I299" s="16"/>
     </row>
-    <row r="300" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.15">
       <c r="A300" s="7" t="s">
         <v>604</v>
       </c>
@@ -24009,7 +24018,7 @@
       </c>
       <c r="I300" s="16"/>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A301" s="7" t="s">
         <v>607</v>
       </c>
@@ -24034,7 +24043,7 @@
       </c>
       <c r="I301" s="16"/>
     </row>
-    <row r="302" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A302" s="7" t="s">
         <v>609</v>
       </c>
@@ -24059,7 +24068,7 @@
       </c>
       <c r="I302" s="16"/>
     </row>
-    <row r="303" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A303" s="7" t="s">
         <v>611</v>
       </c>
@@ -24086,7 +24095,7 @@
       </c>
       <c r="I303" s="16"/>
     </row>
-    <row r="304" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A304" s="7" t="s">
         <v>614</v>
       </c>
@@ -24113,7 +24122,7 @@
       </c>
       <c r="I304" s="16"/>
     </row>
-    <row r="305" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A305" s="7" t="s">
         <v>616</v>
       </c>
@@ -24121,7 +24130,7 @@
         <v>602</v>
       </c>
       <c r="C305" s="13" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D305" s="14"/>
       <c r="E305" s="7" t="s">
@@ -24138,7 +24147,7 @@
       </c>
       <c r="I305" s="16"/>
     </row>
-    <row r="306" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A306" s="7" t="s">
         <v>617</v>
       </c>
@@ -24163,7 +24172,7 @@
       </c>
       <c r="I306" s="16"/>
     </row>
-    <row r="307" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:9" ht="148.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A307" s="7" t="s">
         <v>606</v>
       </c>
@@ -24188,7 +24197,7 @@
       </c>
       <c r="I307" s="16"/>
     </row>
-    <row r="308" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:9" ht="81" hidden="1" x14ac:dyDescent="0.15">
       <c r="A308" s="7" t="s">
         <v>621</v>
       </c>
@@ -24213,7 +24222,7 @@
       </c>
       <c r="I308" s="16"/>
     </row>
-    <row r="309" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A309" s="7" t="s">
         <v>623</v>
       </c>
@@ -24238,7 +24247,7 @@
       </c>
       <c r="I309" s="16"/>
     </row>
-    <row r="310" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A310" s="7" t="s">
         <v>626</v>
       </c>
@@ -24263,7 +24272,7 @@
       </c>
       <c r="I310" s="16"/>
     </row>
-    <row r="311" spans="1:9" ht="202.5" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:9" ht="202.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A311" s="7" t="s">
         <v>629</v>
       </c>
@@ -24288,7 +24297,7 @@
       </c>
       <c r="I311" s="16"/>
     </row>
-    <row r="312" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A312" s="7" t="s">
         <v>630</v>
       </c>
@@ -24313,7 +24322,7 @@
       </c>
       <c r="I312" s="16"/>
     </row>
-    <row r="313" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A313" s="7" t="s">
         <v>632</v>
       </c>
@@ -24338,7 +24347,7 @@
       </c>
       <c r="I313" s="16"/>
     </row>
-    <row r="314" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A314" s="7" t="s">
         <v>634</v>
       </c>
@@ -24363,7 +24372,7 @@
       </c>
       <c r="I314" s="16"/>
     </row>
-    <row r="315" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A315" s="7" t="s">
         <v>636</v>
       </c>
@@ -24371,7 +24380,7 @@
         <v>627</v>
       </c>
       <c r="C315" s="13" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D315" s="14"/>
       <c r="E315" s="7" t="s">
@@ -24388,7 +24397,7 @@
       </c>
       <c r="I315" s="16"/>
     </row>
-    <row r="316" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A316" s="7" t="s">
         <v>637</v>
       </c>
@@ -24396,7 +24405,7 @@
         <v>627</v>
       </c>
       <c r="C316" s="13" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D316" s="14"/>
       <c r="E316" s="7" t="s">
@@ -24413,7 +24422,7 @@
       </c>
       <c r="I316" s="16"/>
     </row>
-    <row r="317" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A317" s="7" t="s">
         <v>638</v>
       </c>
@@ -24437,10 +24446,10 @@
         <v>18</v>
       </c>
       <c r="I317" s="54" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A318" s="7" t="s">
         <v>641</v>
       </c>
@@ -24465,7 +24474,7 @@
       </c>
       <c r="I318" s="16"/>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A319" s="7" t="s">
         <v>643</v>
       </c>
@@ -24490,7 +24499,7 @@
       </c>
       <c r="I319" s="16"/>
     </row>
-    <row r="320" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A320" s="7" t="s">
         <v>645</v>
       </c>
@@ -24515,7 +24524,7 @@
       </c>
       <c r="I320" s="16"/>
     </row>
-    <row r="321" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A321" s="7" t="s">
         <v>647</v>
       </c>
@@ -24540,7 +24549,7 @@
       </c>
       <c r="I321" s="16"/>
     </row>
-    <row r="322" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A322" s="7" t="s">
         <v>649</v>
       </c>
@@ -24565,7 +24574,7 @@
       </c>
       <c r="I322" s="16"/>
     </row>
-    <row r="323" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A323" s="7" t="s">
         <v>651</v>
       </c>
@@ -24592,7 +24601,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A324" s="7" t="s">
         <v>653</v>
       </c>
@@ -24600,7 +24609,7 @@
         <v>639</v>
       </c>
       <c r="C324" s="13" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="D324" s="14"/>
       <c r="E324" s="7" t="s">
@@ -24617,7 +24626,7 @@
       </c>
       <c r="I324" s="13"/>
     </row>
-    <row r="325" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A325" s="7" t="s">
         <v>654</v>
       </c>
@@ -24642,7 +24651,7 @@
       </c>
       <c r="I325" s="16"/>
     </row>
-    <row r="326" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A326" s="7" t="s">
         <v>657</v>
       </c>
@@ -24667,7 +24676,7 @@
       </c>
       <c r="I326" s="16"/>
     </row>
-    <row r="327" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A327" s="7" t="s">
         <v>660</v>
       </c>
@@ -24692,7 +24701,7 @@
       </c>
       <c r="I327" s="16"/>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A328" s="7" t="s">
         <v>662</v>
       </c>
@@ -24717,7 +24726,7 @@
       </c>
       <c r="I328" s="16"/>
     </row>
-    <row r="329" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A329" s="7" t="s">
         <v>664</v>
       </c>
@@ -24742,7 +24751,7 @@
       </c>
       <c r="I329" s="16"/>
     </row>
-    <row r="330" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A330" s="7" t="s">
         <v>667</v>
       </c>
@@ -24767,7 +24776,7 @@
       </c>
       <c r="I330" s="16"/>
     </row>
-    <row r="331" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A331" s="7" t="s">
         <v>669</v>
       </c>
@@ -24775,7 +24784,7 @@
         <v>670</v>
       </c>
       <c r="C331" s="13" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D331" s="14"/>
       <c r="E331" s="7" t="s">
@@ -24792,7 +24801,7 @@
       </c>
       <c r="I331" s="16"/>
     </row>
-    <row r="332" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A332" s="7" t="s">
         <v>671</v>
       </c>
@@ -24817,7 +24826,7 @@
       </c>
       <c r="I332" s="16"/>
     </row>
-    <row r="333" spans="1:9" ht="283.5" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:9" ht="283.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A333" s="7" t="s">
         <v>674</v>
       </c>
@@ -24842,7 +24851,7 @@
       </c>
       <c r="I333" s="16"/>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A334" s="7" t="s">
         <v>677</v>
       </c>
@@ -24867,7 +24876,7 @@
       </c>
       <c r="I334" s="16"/>
     </row>
-    <row r="335" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:9" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A335" s="7" t="s">
         <v>679</v>
       </c>
@@ -24892,7 +24901,7 @@
       </c>
       <c r="I335" s="16"/>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A336" s="7" t="s">
         <v>681</v>
       </c>
@@ -24900,7 +24909,7 @@
         <v>672</v>
       </c>
       <c r="C336" s="13" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D336" s="14"/>
       <c r="E336" s="7" t="s">
@@ -24917,7 +24926,7 @@
       </c>
       <c r="I336" s="16"/>
     </row>
-    <row r="337" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A337" s="7" t="s">
         <v>682</v>
       </c>
@@ -24942,7 +24951,7 @@
       </c>
       <c r="I337" s="16"/>
     </row>
-    <row r="338" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A338" s="7" t="s">
         <v>684</v>
       </c>
@@ -24967,7 +24976,7 @@
       </c>
       <c r="I338" s="16"/>
     </row>
-    <row r="339" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A339" s="7" t="s">
         <v>686</v>
       </c>
@@ -24992,7 +25001,7 @@
       </c>
       <c r="I339" s="16"/>
     </row>
-    <row r="340" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A340" s="7" t="s">
         <v>688</v>
       </c>
@@ -25000,7 +25009,7 @@
         <v>672</v>
       </c>
       <c r="C340" s="13" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D340" s="14"/>
       <c r="E340" s="7" t="s">
@@ -25017,7 +25026,7 @@
       </c>
       <c r="I340" s="16"/>
     </row>
-    <row r="341" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A341" s="7" t="s">
         <v>689</v>
       </c>
@@ -25042,7 +25051,7 @@
       </c>
       <c r="I341" s="16"/>
     </row>
-    <row r="342" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A342" s="7" t="s">
         <v>691</v>
       </c>
@@ -25066,10 +25075,10 @@
         <v>18</v>
       </c>
       <c r="I342" s="16" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A343" s="7" t="s">
         <v>693</v>
       </c>
@@ -25094,7 +25103,7 @@
       </c>
       <c r="I343" s="16"/>
     </row>
-    <row r="344" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A344" s="7" t="s">
         <v>695</v>
       </c>
@@ -25119,7 +25128,7 @@
       </c>
       <c r="I344" s="13"/>
     </row>
-    <row r="345" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A345" s="7" t="s">
         <v>696</v>
       </c>
@@ -25144,7 +25153,7 @@
       </c>
       <c r="I345" s="16"/>
     </row>
-    <row r="346" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A346" s="7" t="s">
         <v>698</v>
       </c>
@@ -25169,7 +25178,7 @@
       </c>
       <c r="I346" s="13"/>
     </row>
-    <row r="347" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A347" s="7" t="s">
         <v>700</v>
       </c>
@@ -25194,7 +25203,7 @@
       </c>
       <c r="I347" s="16"/>
     </row>
-    <row r="348" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A348" s="7" t="s">
         <v>702</v>
       </c>
@@ -25219,7 +25228,7 @@
       </c>
       <c r="I348" s="16"/>
     </row>
-    <row r="349" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A349" s="7" t="s">
         <v>703</v>
       </c>
@@ -25244,7 +25253,7 @@
       </c>
       <c r="I349" s="16"/>
     </row>
-    <row r="350" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A350" s="7" t="s">
         <v>705</v>
       </c>
@@ -25269,7 +25278,7 @@
       </c>
       <c r="I350" s="16"/>
     </row>
-    <row r="351" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:9" ht="121.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A351" s="7" t="s">
         <v>676</v>
       </c>
@@ -25294,7 +25303,7 @@
       </c>
       <c r="I351" s="16"/>
     </row>
-    <row r="352" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A352" s="7" t="s">
         <v>709</v>
       </c>
@@ -25319,7 +25328,7 @@
       </c>
       <c r="I352" s="16"/>
     </row>
-    <row r="353" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A353" s="7" t="s">
         <v>710</v>
       </c>
@@ -25344,7 +25353,7 @@
       </c>
       <c r="I353" s="16"/>
     </row>
-    <row r="354" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A354" s="7" t="s">
         <v>712</v>
       </c>
@@ -25369,7 +25378,7 @@
       </c>
       <c r="I354" s="13"/>
     </row>
-    <row r="355" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A355" s="7" t="s">
         <v>714</v>
       </c>
@@ -25394,7 +25403,7 @@
       </c>
       <c r="I355" s="16"/>
     </row>
-    <row r="356" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A356" s="7" t="s">
         <v>716</v>
       </c>
@@ -25419,7 +25428,7 @@
       </c>
       <c r="I356" s="16"/>
     </row>
-    <row r="357" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A357" s="21" t="s">
         <v>718</v>
       </c>
@@ -25427,7 +25436,7 @@
         <v>706</v>
       </c>
       <c r="C357" s="23" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="D357" s="18"/>
       <c r="E357" s="21" t="s">
@@ -25444,15 +25453,15 @@
       </c>
       <c r="I357" s="23"/>
     </row>
-    <row r="358" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A358" s="58" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B358" s="59" t="s">
         <v>706</v>
       </c>
       <c r="C358" s="60" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="D358" s="61"/>
       <c r="E358" s="58" t="s">
@@ -25470,7 +25479,7 @@
       <c r="I358" s="60"/>
       <c r="J358"/>
     </row>
-    <row r="359" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A359" s="7" t="s">
         <v>719</v>
       </c>
@@ -25495,7 +25504,7 @@
       </c>
       <c r="I359" s="16"/>
     </row>
-    <row r="360" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A360" s="7" t="s">
         <v>721</v>
       </c>
@@ -25520,15 +25529,15 @@
       </c>
       <c r="I360" s="16"/>
     </row>
-    <row r="361" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A361" s="62" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B361" s="83" t="s">
         <v>706</v>
       </c>
       <c r="C361" s="84" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="D361" s="85"/>
       <c r="E361" s="62" t="s">
@@ -25546,7 +25555,7 @@
       <c r="I361" s="84"/>
       <c r="J361"/>
     </row>
-    <row r="362" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A362" s="7" t="s">
         <v>723</v>
       </c>
@@ -25554,7 +25563,7 @@
         <v>724</v>
       </c>
       <c r="C362" s="13" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D362" s="14"/>
       <c r="E362" s="7" t="s">
@@ -25573,7 +25582,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="363" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:10" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A363" s="7" t="s">
         <v>725</v>
       </c>
@@ -25598,7 +25607,7 @@
       </c>
       <c r="I363" s="16"/>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A364" s="7" t="s">
         <v>727</v>
       </c>
@@ -25623,7 +25632,7 @@
       </c>
       <c r="I364" s="16"/>
     </row>
-    <row r="365" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A365" s="7" t="s">
         <v>729</v>
       </c>
@@ -25648,7 +25657,7 @@
       </c>
       <c r="I365" s="16"/>
     </row>
-    <row r="366" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A366" s="7" t="s">
         <v>731</v>
       </c>
@@ -25673,7 +25682,7 @@
       </c>
       <c r="I366" s="16"/>
     </row>
-    <row r="367" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A367" s="7" t="s">
         <v>733</v>
       </c>
@@ -25698,7 +25707,7 @@
       </c>
       <c r="I367" s="16"/>
     </row>
-    <row r="368" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A368" s="7" t="s">
         <v>735</v>
       </c>
@@ -25723,7 +25732,7 @@
       </c>
       <c r="I368" s="16"/>
     </row>
-    <row r="369" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A369" s="7" t="s">
         <v>737</v>
       </c>
@@ -25748,7 +25757,7 @@
       </c>
       <c r="I369" s="16"/>
     </row>
-    <row r="370" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A370" s="7" t="s">
         <v>740</v>
       </c>
@@ -25756,7 +25765,7 @@
         <v>741</v>
       </c>
       <c r="C370" s="13" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D370" s="14"/>
       <c r="E370" s="7" t="s">
@@ -25773,7 +25782,7 @@
       </c>
       <c r="I370" s="16"/>
     </row>
-    <row r="371" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A371" s="7" t="s">
         <v>742</v>
       </c>
@@ -25798,7 +25807,7 @@
       </c>
       <c r="I371" s="16"/>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A372" s="7" t="s">
         <v>744</v>
       </c>
@@ -25823,7 +25832,7 @@
       </c>
       <c r="I372" s="16"/>
     </row>
-    <row r="373" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A373" s="7" t="s">
         <v>746</v>
       </c>
@@ -25831,7 +25840,7 @@
         <v>747</v>
       </c>
       <c r="C373" s="13" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D373" s="14"/>
       <c r="E373" s="7" t="s">
@@ -25848,7 +25857,7 @@
       </c>
       <c r="I373" s="16"/>
     </row>
-    <row r="374" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A374" s="7" t="s">
         <v>748</v>
       </c>
@@ -25873,7 +25882,7 @@
       </c>
       <c r="I374" s="16"/>
     </row>
-    <row r="375" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A375" s="7" t="s">
         <v>750</v>
       </c>
@@ -25881,7 +25890,7 @@
         <v>751</v>
       </c>
       <c r="C375" s="13" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D375" s="14"/>
       <c r="E375" s="7" t="s">
@@ -25898,7 +25907,7 @@
       </c>
       <c r="I375" s="16"/>
     </row>
-    <row r="376" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A376" s="7" t="s">
         <v>752</v>
       </c>
@@ -25923,7 +25932,7 @@
       </c>
       <c r="I376" s="16"/>
     </row>
-    <row r="377" spans="1:9" ht="364.5" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:9" ht="364.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A377" s="7" t="s">
         <v>755</v>
       </c>
@@ -25948,7 +25957,7 @@
       </c>
       <c r="I377" s="16"/>
     </row>
-    <row r="378" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A378" s="7" t="s">
         <v>758</v>
       </c>
@@ -25973,7 +25982,7 @@
       </c>
       <c r="I378" s="16"/>
     </row>
-    <row r="379" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A379" s="7" t="s">
         <v>760</v>
       </c>
@@ -25998,7 +26007,7 @@
       </c>
       <c r="I379" s="16"/>
     </row>
-    <row r="380" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A380" s="7" t="s">
         <v>762</v>
       </c>
@@ -26023,7 +26032,7 @@
       </c>
       <c r="I380" s="16"/>
     </row>
-    <row r="381" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A381" s="7" t="s">
         <v>764</v>
       </c>
@@ -26048,7 +26057,7 @@
       </c>
       <c r="I381" s="16"/>
     </row>
-    <row r="382" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A382" s="7" t="s">
         <v>766</v>
       </c>
@@ -26073,7 +26082,7 @@
       </c>
       <c r="I382" s="16"/>
     </row>
-    <row r="383" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A383" s="7" t="s">
         <v>768</v>
       </c>
@@ -26098,7 +26107,7 @@
       </c>
       <c r="I383" s="16"/>
     </row>
-    <row r="384" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A384" s="7" t="s">
         <v>770</v>
       </c>
@@ -26123,7 +26132,7 @@
       </c>
       <c r="I384" s="16"/>
     </row>
-    <row r="385" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A385" s="7" t="s">
         <v>772</v>
       </c>
@@ -26148,7 +26157,7 @@
       </c>
       <c r="I385" s="16"/>
     </row>
-    <row r="386" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A386" s="7" t="s">
         <v>774</v>
       </c>
@@ -26173,7 +26182,7 @@
       </c>
       <c r="I386" s="16"/>
     </row>
-    <row r="387" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A387" s="7" t="s">
         <v>776</v>
       </c>
@@ -26198,7 +26207,7 @@
       </c>
       <c r="I387" s="16"/>
     </row>
-    <row r="388" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A388" s="7" t="s">
         <v>778</v>
       </c>
@@ -26223,7 +26232,7 @@
       </c>
       <c r="I388" s="16"/>
     </row>
-    <row r="389" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A389" s="7" t="s">
         <v>780</v>
       </c>
@@ -26248,7 +26257,7 @@
       </c>
       <c r="I389" s="16"/>
     </row>
-    <row r="390" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A390" s="7" t="s">
         <v>782</v>
       </c>
@@ -26273,7 +26282,7 @@
       </c>
       <c r="I390" s="16"/>
     </row>
-    <row r="391" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A391" s="7" t="s">
         <v>784</v>
       </c>
@@ -26298,7 +26307,7 @@
       </c>
       <c r="I391" s="13"/>
     </row>
-    <row r="392" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A392" s="7" t="s">
         <v>786</v>
       </c>
@@ -26323,7 +26332,7 @@
       </c>
       <c r="I392" s="13"/>
     </row>
-    <row r="393" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A393" s="7" t="s">
         <v>788</v>
       </c>
@@ -26348,7 +26357,7 @@
       </c>
       <c r="I393" s="16"/>
     </row>
-    <row r="394" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A394" s="7" t="s">
         <v>790</v>
       </c>
@@ -26373,7 +26382,7 @@
       </c>
       <c r="I394" s="16"/>
     </row>
-    <row r="395" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A395" s="7" t="s">
         <v>792</v>
       </c>
@@ -26398,7 +26407,7 @@
       </c>
       <c r="I395" s="16"/>
     </row>
-    <row r="396" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A396" s="7" t="s">
         <v>794</v>
       </c>
@@ -26423,7 +26432,7 @@
       </c>
       <c r="I396" s="16"/>
     </row>
-    <row r="397" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A397" s="7" t="s">
         <v>796</v>
       </c>
@@ -26448,7 +26457,7 @@
       </c>
       <c r="I397" s="16"/>
     </row>
-    <row r="398" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A398" s="7" t="s">
         <v>798</v>
       </c>
@@ -26473,7 +26482,7 @@
       </c>
       <c r="I398" s="16"/>
     </row>
-    <row r="399" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A399" s="7" t="s">
         <v>800</v>
       </c>
@@ -26481,7 +26490,7 @@
         <v>753</v>
       </c>
       <c r="C399" s="13" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D399" s="14"/>
       <c r="E399" s="7" t="s">
@@ -26498,7 +26507,7 @@
       </c>
       <c r="I399" s="13"/>
     </row>
-    <row r="400" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A400" s="7" t="s">
         <v>801</v>
       </c>
@@ -26506,7 +26515,7 @@
         <v>753</v>
       </c>
       <c r="C400" s="13" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D400" s="14"/>
       <c r="E400" s="7" t="s">
@@ -26522,10 +26531,10 @@
         <v>18</v>
       </c>
       <c r="I400" s="13" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="401" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A401" s="7" t="s">
         <v>802</v>
       </c>
@@ -26533,7 +26542,7 @@
         <v>753</v>
       </c>
       <c r="C401" s="13" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D401" s="14"/>
       <c r="E401" s="7" t="s">
@@ -26549,10 +26558,10 @@
         <v>18</v>
       </c>
       <c r="I401" s="13" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="402" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A402" s="7" t="s">
         <v>803</v>
       </c>
@@ -26577,7 +26586,7 @@
       </c>
       <c r="I402" s="16"/>
     </row>
-    <row r="403" spans="1:9" ht="270" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.15">
       <c r="A403" s="7" t="s">
         <v>757</v>
       </c>
@@ -26602,7 +26611,7 @@
       </c>
       <c r="I403" s="16"/>
     </row>
-    <row r="404" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A404" s="7" t="s">
         <v>807</v>
       </c>
@@ -26627,7 +26636,7 @@
       </c>
       <c r="I404" s="16"/>
     </row>
-    <row r="405" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A405" s="7" t="s">
         <v>809</v>
       </c>
@@ -26635,7 +26644,7 @@
         <v>810</v>
       </c>
       <c r="C405" s="13" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D405" s="14"/>
       <c r="E405" s="7" t="s">
@@ -26654,7 +26663,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="406" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:9" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A406" s="7" t="s">
         <v>811</v>
       </c>
@@ -26679,7 +26688,7 @@
       </c>
       <c r="I406" s="16"/>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A407" s="7" t="s">
         <v>813</v>
       </c>
@@ -26704,7 +26713,7 @@
       </c>
       <c r="I407" s="16"/>
     </row>
-    <row r="408" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A408" s="7" t="s">
         <v>815</v>
       </c>
@@ -26729,7 +26738,7 @@
       </c>
       <c r="I408" s="16"/>
     </row>
-    <row r="409" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A409" s="7" t="s">
         <v>817</v>
       </c>
@@ -26754,7 +26763,7 @@
       </c>
       <c r="I409" s="16"/>
     </row>
-    <row r="410" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A410" s="7" t="s">
         <v>819</v>
       </c>
@@ -26779,7 +26788,7 @@
       </c>
       <c r="I410" s="16"/>
     </row>
-    <row r="411" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A411" s="7" t="s">
         <v>822</v>
       </c>
@@ -26787,7 +26796,7 @@
         <v>823</v>
       </c>
       <c r="C411" s="13" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D411" s="14"/>
       <c r="E411" s="7" t="s">
@@ -26804,7 +26813,7 @@
       </c>
       <c r="I411" s="16"/>
     </row>
-    <row r="412" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A412" s="7" t="s">
         <v>824</v>
       </c>
@@ -26829,7 +26838,7 @@
       </c>
       <c r="I412" s="16"/>
     </row>
-    <row r="413" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A413" s="7" t="s">
         <v>826</v>
       </c>
@@ -26854,7 +26863,7 @@
       </c>
       <c r="I413" s="16"/>
     </row>
-    <row r="414" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A414" s="7" t="s">
         <v>828</v>
       </c>
@@ -26862,7 +26871,7 @@
         <v>829</v>
       </c>
       <c r="C414" s="13" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D414" s="14"/>
       <c r="E414" s="7" t="s">
@@ -26879,7 +26888,7 @@
       </c>
       <c r="I414" s="16"/>
     </row>
-    <row r="415" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A415" s="7" t="s">
         <v>830</v>
       </c>
@@ -26904,15 +26913,15 @@
       </c>
       <c r="I415" s="16"/>
     </row>
-    <row r="416" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A416" s="7" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B416" s="14" t="s">
         <v>832</v>
       </c>
       <c r="C416" s="13" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D416" s="14"/>
       <c r="E416" s="7" t="s">
@@ -26929,7 +26938,7 @@
       </c>
       <c r="I416" s="16"/>
     </row>
-    <row r="417" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A417" s="7" t="s">
         <v>833</v>
       </c>
@@ -26954,7 +26963,7 @@
       </c>
       <c r="I417" s="16"/>
     </row>
-    <row r="418" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:9" ht="121.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A418" s="7" t="s">
         <v>836</v>
       </c>
@@ -26979,7 +26988,7 @@
       </c>
       <c r="I418" s="16"/>
     </row>
-    <row r="419" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A419" s="7" t="s">
         <v>839</v>
       </c>
@@ -27004,9 +27013,9 @@
       </c>
       <c r="I419" s="16"/>
     </row>
-    <row r="420" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A420" s="7" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B420" s="14" t="s">
         <v>841</v>
@@ -27029,7 +27038,7 @@
       </c>
       <c r="I420" s="16"/>
     </row>
-    <row r="421" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A421" s="7" t="s">
         <v>838</v>
       </c>
@@ -27054,15 +27063,15 @@
       </c>
       <c r="I421" s="16"/>
     </row>
-    <row r="422" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A422" s="7" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B422" s="11" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C422" s="13" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D422" s="53"/>
       <c r="E422" s="7" t="s">
@@ -27078,18 +27087,18 @@
         <v>18</v>
       </c>
       <c r="I422" s="54" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="423" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A423" s="7" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B423" s="11" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C423" s="13" t="s">
         <v>1041</v>
-      </c>
-      <c r="C423" s="13" t="s">
-        <v>1042</v>
       </c>
       <c r="D423" s="53"/>
       <c r="E423" s="7" t="s">
@@ -27106,15 +27115,15 @@
       </c>
       <c r="I423" s="54"/>
     </row>
-    <row r="424" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:9" ht="81" hidden="1" x14ac:dyDescent="0.15">
       <c r="A424" s="7" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B424" s="11" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C424" s="13" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D424" s="53"/>
       <c r="E424" s="7" t="s">
@@ -27131,15 +27140,15 @@
       </c>
       <c r="I424" s="54"/>
     </row>
-    <row r="425" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A425" s="7" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B425" s="11" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C425" s="13" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D425" s="53"/>
       <c r="E425" s="7" t="s">
@@ -27156,15 +27165,15 @@
       </c>
       <c r="I425" s="54"/>
     </row>
-    <row r="426" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A426" s="7" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B426" s="11" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C426" s="13" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D426" s="53"/>
       <c r="E426" s="7" t="s">
@@ -27181,15 +27190,15 @@
       </c>
       <c r="I426" s="54"/>
     </row>
-    <row r="427" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A427" s="7" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B427" s="11" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C427" s="13" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D427" s="53"/>
       <c r="E427" s="7" t="s">
@@ -27206,15 +27215,15 @@
       </c>
       <c r="I427" s="54"/>
     </row>
-    <row r="428" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A428" s="7" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B428" s="19" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C428" s="13" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D428" s="53"/>
       <c r="E428" s="7" t="s">
@@ -27231,15 +27240,15 @@
       </c>
       <c r="I428" s="54"/>
     </row>
-    <row r="429" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A429" s="7" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B429" s="19" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C429" s="13" t="s">
         <v>1046</v>
-      </c>
-      <c r="C429" s="13" t="s">
-        <v>1047</v>
       </c>
       <c r="D429" s="53"/>
       <c r="E429" s="7" t="s">
@@ -27256,15 +27265,15 @@
       </c>
       <c r="I429" s="54"/>
     </row>
-    <row r="430" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A430" s="7" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B430" s="19" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C430" s="13" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D430" s="53"/>
       <c r="E430" s="7" t="s">
@@ -27281,15 +27290,15 @@
       </c>
       <c r="I430" s="54"/>
     </row>
-    <row r="431" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A431" s="7" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B431" s="19" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C431" s="13" t="s">
         <v>1086</v>
-      </c>
-      <c r="C431" s="13" t="s">
-        <v>1087</v>
       </c>
       <c r="D431" s="53"/>
       <c r="E431" s="7" t="s">
@@ -27306,15 +27315,15 @@
       </c>
       <c r="I431" s="54"/>
     </row>
-    <row r="432" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A432" s="7" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B432" s="19" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C432" s="13" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D432" s="53"/>
       <c r="E432" s="7" t="s">
@@ -27331,15 +27340,15 @@
       </c>
       <c r="I432" s="54"/>
     </row>
-    <row r="433" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A433" s="7" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B433" s="19" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C433" s="13" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D433" s="53"/>
       <c r="E433" s="7" t="s">
@@ -27356,15 +27365,15 @@
       </c>
       <c r="I433" s="54"/>
     </row>
-    <row r="434" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A434" s="7" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B434" s="19" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C434" s="13" t="s">
         <v>1089</v>
-      </c>
-      <c r="C434" s="13" t="s">
-        <v>1090</v>
       </c>
       <c r="D434" s="53"/>
       <c r="E434" s="7" t="s">
@@ -27381,15 +27390,15 @@
       </c>
       <c r="I434" s="54"/>
     </row>
-    <row r="435" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.15">
       <c r="A435" s="7" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B435" s="19" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C435" s="13" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D435" s="53"/>
       <c r="E435" s="7" t="s">
@@ -27406,15 +27415,15 @@
       </c>
       <c r="I435" s="54"/>
     </row>
-    <row r="436" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A436" s="7" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B436" s="19" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C436" s="13" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D436" s="53"/>
       <c r="E436" s="7" t="s">
@@ -27431,15 +27440,15 @@
       </c>
       <c r="I436" s="54"/>
     </row>
-    <row r="437" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A437" s="7" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B437" s="19" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C437" s="13" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D437" s="53"/>
       <c r="E437" s="7" t="s">
@@ -27456,15 +27465,15 @@
       </c>
       <c r="I437" s="54"/>
     </row>
-    <row r="438" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A438" s="7" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B438" s="19" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C438" s="13" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D438" s="53"/>
       <c r="E438" s="7" t="s">
@@ -27481,15 +27490,15 @@
       </c>
       <c r="I438" s="54"/>
     </row>
-    <row r="439" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A439" s="7" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B439" s="19" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C439" s="13" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D439" s="53"/>
       <c r="E439" s="7" t="s">
@@ -27506,15 +27515,15 @@
       </c>
       <c r="I439" s="54"/>
     </row>
-    <row r="440" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A440" s="7" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B440" s="19" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C440" s="13" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D440" s="53"/>
       <c r="E440" s="7" t="s">
@@ -27531,15 +27540,15 @@
       </c>
       <c r="I440" s="54"/>
     </row>
-    <row r="441" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.15">
       <c r="A441" s="7" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B441" s="19" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C441" s="13" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D441" s="53"/>
       <c r="E441" s="7" t="s">
@@ -27556,15 +27565,15 @@
       </c>
       <c r="I441" s="54"/>
     </row>
-    <row r="442" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A442" s="7" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B442" s="19" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C442" s="13" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D442" s="53"/>
       <c r="E442" s="7" t="s">
@@ -27581,15 +27590,15 @@
       </c>
       <c r="I442" s="54"/>
     </row>
-    <row r="443" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A443" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B443" s="19" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C443" s="13" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D443" s="53"/>
       <c r="E443" s="7" t="s">
@@ -27606,15 +27615,15 @@
       </c>
       <c r="I443" s="54"/>
     </row>
-    <row r="444" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A444" s="7" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B444" s="19" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C444" s="13" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D444" s="53"/>
       <c r="E444" s="7" t="s">
@@ -27631,15 +27640,15 @@
       </c>
       <c r="I444" s="54"/>
     </row>
-    <row r="445" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A445" s="7" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B445" s="19" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C445" s="13" t="s">
         <v>1098</v>
-      </c>
-      <c r="C445" s="13" t="s">
-        <v>1099</v>
       </c>
       <c r="D445" s="53"/>
       <c r="E445" s="7" t="s">
@@ -27656,15 +27665,15 @@
       </c>
       <c r="I445" s="54"/>
     </row>
-    <row r="446" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A446" s="7" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B446" s="19" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C446" s="13" t="s">
         <v>1100</v>
-      </c>
-      <c r="C446" s="13" t="s">
-        <v>1101</v>
       </c>
       <c r="D446" s="53"/>
       <c r="E446" s="7" t="s">
@@ -27681,15 +27690,15 @@
       </c>
       <c r="I446" s="54"/>
     </row>
-    <row r="447" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:9" ht="108" hidden="1" x14ac:dyDescent="0.15">
       <c r="A447" s="7" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B447" s="19" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C447" s="13" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D447" s="53"/>
       <c r="E447" s="7" t="s">
@@ -27706,15 +27715,15 @@
       </c>
       <c r="I447" s="54"/>
     </row>
-    <row r="448" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A448" s="7" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B448" s="19" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C448" s="13" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D448" s="53"/>
       <c r="E448" s="7" t="s">
@@ -27727,19 +27736,19 @@
         <v>16</v>
       </c>
       <c r="H448" s="17" t="s">
+        <v>1127</v>
+      </c>
+      <c r="I448" s="54"/>
+    </row>
+    <row r="449" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A449" s="7" t="s">
         <v>1129</v>
       </c>
-      <c r="I448" s="54"/>
-    </row>
-    <row r="449" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A449" s="7" t="s">
+      <c r="B449" s="19" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C449" s="13" t="s">
         <v>1131</v>
-      </c>
-      <c r="B449" s="19" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C449" s="13" t="s">
-        <v>1133</v>
       </c>
       <c r="D449" s="53"/>
       <c r="E449" s="7" t="s">
@@ -27752,19 +27761,19 @@
         <v>16</v>
       </c>
       <c r="H449" s="17" t="s">
+        <v>1128</v>
+      </c>
+      <c r="I449" s="54"/>
+    </row>
+    <row r="450" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A450" s="7" t="s">
         <v>1130</v>
       </c>
-      <c r="I449" s="54"/>
-    </row>
-    <row r="450" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A450" s="7" t="s">
+      <c r="B450" s="19" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C450" s="13" t="s">
         <v>1132</v>
-      </c>
-      <c r="B450" s="19" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C450" s="13" t="s">
-        <v>1134</v>
       </c>
       <c r="D450" s="53"/>
       <c r="E450" s="7" t="s">
@@ -27777,19 +27786,19 @@
         <v>16</v>
       </c>
       <c r="H450" s="17" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="I450" s="54"/>
     </row>
-    <row r="451" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:10" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A451" s="58" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="B451" s="59" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="C451" s="60" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="D451" s="61"/>
       <c r="E451" s="58" t="s">
@@ -27805,19 +27814,19 @@
         <v>18</v>
       </c>
       <c r="I451" s="60" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="J451"/>
     </row>
-    <row r="452" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A452" s="58" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="B452" s="59" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="C452" s="13" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="D452" s="53"/>
       <c r="E452" s="58" t="s">
@@ -27835,22 +27844,22 @@
       <c r="I452" s="54"/>
       <c r="J452"/>
     </row>
-    <row r="453" spans="1:10" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:10" ht="121.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A453" s="65" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="B453" s="67" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="C453" s="60" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="D453" s="63"/>
       <c r="E453" s="36" t="s">
         <v>20</v>
       </c>
       <c r="F453" s="58" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="G453" s="55" t="s">
         <v>16</v>
@@ -27860,15 +27869,15 @@
       </c>
       <c r="I453" s="66"/>
     </row>
-    <row r="454" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A454" s="68" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="B454" s="69" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="C454" s="70" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="D454" s="71"/>
       <c r="E454" s="72" t="s">
@@ -27885,15 +27894,15 @@
       </c>
       <c r="I454" s="76"/>
     </row>
-    <row r="455" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A455" s="77" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="B455" s="82" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="C455" s="81" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="D455" s="78"/>
       <c r="E455" s="77" t="s">
@@ -27911,15 +27920,15 @@
       <c r="I455" s="81"/>
       <c r="J455"/>
     </row>
-    <row r="456" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A456" s="77" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B456" s="82" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C456" s="81" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D456" s="78"/>
       <c r="E456" s="77" t="s">
@@ -27937,15 +27946,15 @@
       <c r="I456" s="81"/>
       <c r="J456"/>
     </row>
-    <row r="457" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:10" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A457" s="77" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="B457" s="82" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="C457" s="81" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="D457" s="78"/>
       <c r="E457" s="77" t="s">
@@ -27963,15 +27972,15 @@
       <c r="I457" s="81"/>
       <c r="J457"/>
     </row>
-    <row r="458" spans="1:10" ht="81" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:10" ht="81" hidden="1" x14ac:dyDescent="0.15">
       <c r="A458" s="77" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B458" s="78" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="C458" s="81" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="D458" s="78"/>
       <c r="E458" s="77" t="s">
@@ -27989,15 +27998,15 @@
       <c r="I458" s="81"/>
       <c r="J458"/>
     </row>
-    <row r="459" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A459" s="77" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B459" s="78" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="C459" s="81" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="D459" s="78"/>
       <c r="E459" s="77" t="s">
@@ -28015,15 +28024,15 @@
       <c r="I459" s="81"/>
       <c r="J459"/>
     </row>
-    <row r="460" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:10" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A460" s="77" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B460" s="78" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="C460" s="81" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="D460" s="78"/>
       <c r="E460" s="77" t="s">
@@ -28041,15 +28050,15 @@
       <c r="I460" s="81"/>
       <c r="J460"/>
     </row>
-    <row r="461" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A461" s="77" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B461" s="78" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="C461" s="81" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="D461" s="78"/>
       <c r="E461" s="77" t="s">
@@ -28067,15 +28076,15 @@
       <c r="I461" s="60"/>
       <c r="J461"/>
     </row>
-    <row r="462" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A462" s="77" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="B462" s="78" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="C462" s="81" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D462" s="78"/>
       <c r="E462" s="77" t="s">
@@ -28093,15 +28102,15 @@
       <c r="I462" s="60"/>
       <c r="J462"/>
     </row>
-    <row r="463" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A463" s="77" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B463" s="78" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C463" s="81" t="s">
         <v>1171</v>
-      </c>
-      <c r="B463" s="78" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C463" s="81" t="s">
-        <v>1173</v>
       </c>
       <c r="D463" s="78"/>
       <c r="E463" s="77" t="s">
@@ -28119,15 +28128,15 @@
       <c r="I463" s="60"/>
       <c r="J463"/>
     </row>
-    <row r="464" spans="1:10" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:10" ht="148.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A464" s="77" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="B464" s="78" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C464" s="81" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="D464" s="78"/>
       <c r="E464" s="77" t="s">
@@ -28145,15 +28154,15 @@
       <c r="I464" s="60"/>
       <c r="J464"/>
     </row>
-    <row r="465" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A465" s="77" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B465" s="78" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C465" s="81" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="D465" s="78"/>
       <c r="E465" s="77" t="s">
@@ -28171,15 +28180,15 @@
       <c r="I465" s="60"/>
       <c r="J465"/>
     </row>
-    <row r="466" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A466" s="77" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B466" s="78" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C466" s="81" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="D466" s="78"/>
       <c r="E466" s="77" t="s">
@@ -28197,15 +28206,15 @@
       <c r="I466" s="60"/>
       <c r="J466"/>
     </row>
-    <row r="467" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A467" s="77" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="B467" s="78" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C467" s="81" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="D467" s="78"/>
       <c r="E467" s="77" t="s">
@@ -28223,15 +28232,15 @@
       <c r="I467" s="60"/>
       <c r="J467"/>
     </row>
-    <row r="468" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A468" s="77" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="B468" s="78" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C468" s="81" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="D468" s="78"/>
       <c r="E468" s="77" t="s">
@@ -28249,15 +28258,15 @@
       <c r="I468" s="60"/>
       <c r="J468"/>
     </row>
-    <row r="469" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A469" s="77" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B469" s="78" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C469" s="81" t="s">
         <v>1184</v>
-      </c>
-      <c r="B469" s="78" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C469" s="81" t="s">
-        <v>1186</v>
       </c>
       <c r="D469" s="78"/>
       <c r="E469" s="77" t="s">
@@ -28275,15 +28284,15 @@
       <c r="I469" s="60"/>
       <c r="J469"/>
     </row>
-    <row r="470" spans="1:10" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:10" ht="148.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A470" s="77" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="B470" s="78" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="C470" s="81" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="D470" s="78"/>
       <c r="E470" s="77" t="s">
@@ -28301,15 +28310,15 @@
       <c r="I470" s="60"/>
       <c r="J470"/>
     </row>
-    <row r="471" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A471" s="77" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B471" s="78" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="C471" s="81" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="D471" s="78"/>
       <c r="E471" s="77" t="s">
@@ -28327,15 +28336,15 @@
       <c r="I471" s="60"/>
       <c r="J471"/>
     </row>
-    <row r="472" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="A472" s="77" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B472" s="78" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="C472" s="81" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="D472" s="78"/>
       <c r="E472" s="77" t="s">
@@ -28353,15 +28362,15 @@
       <c r="I472" s="60"/>
       <c r="J472"/>
     </row>
-    <row r="473" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A473" s="77" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B473" s="78" t="s">
         <v>1193</v>
       </c>
-      <c r="B473" s="78" t="s">
-        <v>1195</v>
-      </c>
       <c r="C473" s="81" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D473" s="78"/>
       <c r="E473" s="77" t="s">
@@ -28379,15 +28388,15 @@
       <c r="I473" s="60"/>
       <c r="J473"/>
     </row>
-    <row r="474" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A474" s="77" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B474" s="78" t="s">
         <v>1194</v>
       </c>
-      <c r="B474" s="78" t="s">
+      <c r="C474" s="81" t="s">
         <v>1196</v>
-      </c>
-      <c r="C474" s="81" t="s">
-        <v>1198</v>
       </c>
       <c r="D474" s="78"/>
       <c r="E474" s="77" t="s">
@@ -28405,15 +28414,15 @@
       <c r="I474" s="60"/>
       <c r="J474"/>
     </row>
-    <row r="475" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A475" s="77" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B475" s="78" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C475" s="81" t="s">
         <v>1197</v>
-      </c>
-      <c r="B475" s="78" t="s">
-        <v>1201</v>
-      </c>
-      <c r="C475" s="81" t="s">
-        <v>1199</v>
       </c>
       <c r="D475" s="78"/>
       <c r="E475" s="77" t="s">
@@ -28431,15 +28440,15 @@
       <c r="I475" s="60"/>
       <c r="J475"/>
     </row>
-    <row r="476" spans="1:10" ht="108" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:10" ht="108" hidden="1" x14ac:dyDescent="0.15">
       <c r="A476" s="77" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B476" s="78" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C476" s="81" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D476" s="78"/>
       <c r="E476" s="77" t="s">
@@ -28457,15 +28466,15 @@
       <c r="I476" s="60"/>
       <c r="J476"/>
     </row>
-    <row r="477" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A477" s="77" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="B477" s="78" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C477" s="81" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="D477" s="78"/>
       <c r="E477" s="77" t="s">
@@ -28478,20 +28487,20 @@
         <v>16</v>
       </c>
       <c r="H477" s="80" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="I477" s="60"/>
       <c r="J477"/>
     </row>
-    <row r="478" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A478" s="77" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B478" s="78" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C478" s="81" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="D478" s="78"/>
       <c r="E478" s="77" t="s">
@@ -28504,20 +28513,20 @@
         <v>16</v>
       </c>
       <c r="H478" s="80" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="I478" s="60"/>
       <c r="J478"/>
     </row>
-    <row r="479" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A479" s="77" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B479" s="78" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C479" s="81" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="D479" s="78"/>
       <c r="E479" s="77" t="s">
@@ -28530,7 +28539,7 @@
         <v>16</v>
       </c>
       <c r="H479" s="80" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="I479" s="60"/>
       <c r="J479"/>
@@ -28543,7 +28552,7 @@
         <v>845</v>
       </c>
       <c r="C480" s="12" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D480" s="11"/>
       <c r="E480" s="10" t="s">
@@ -28652,7 +28661,7 @@
         <v>938</v>
       </c>
       <c r="D484" s="53" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E484" s="7" t="s">
         <v>24</v>
@@ -28670,16 +28679,16 @@
     </row>
     <row r="485" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A485" s="7" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B485" s="53" t="s">
         <v>845</v>
       </c>
       <c r="C485" s="13" t="s">
+        <v>981</v>
+      </c>
+      <c r="D485" s="53" t="s">
         <v>982</v>
-      </c>
-      <c r="D485" s="53" t="s">
-        <v>983</v>
       </c>
       <c r="E485" s="7" t="s">
         <v>24</v>
@@ -28757,13 +28766,13 @@
     </row>
     <row r="488" spans="1:9" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A488" s="7" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B488" s="19" t="s">
         <v>845</v>
       </c>
       <c r="C488" s="13" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="D488" s="53" t="s">
         <v>939</v>
@@ -28811,13 +28820,13 @@
     </row>
     <row r="490" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A490" s="7" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B490" s="14" t="s">
         <v>845</v>
       </c>
       <c r="C490" s="13" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D490" s="53" t="s">
         <v>942</v>
@@ -28958,7 +28967,7 @@
         <v>845</v>
       </c>
       <c r="C495" s="13" t="s">
-        <v>1107</v>
+        <v>1221</v>
       </c>
       <c r="D495" s="53" t="s">
         <v>947</v>
@@ -28987,7 +28996,7 @@
         <v>845</v>
       </c>
       <c r="C496" s="13" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="D496" s="53" t="s">
         <v>947</v>
@@ -29043,10 +29052,10 @@
         <v>845</v>
       </c>
       <c r="C498" s="13" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D498" s="53" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E498" s="7" t="s">
         <v>24</v>
@@ -29064,16 +29073,16 @@
     </row>
     <row r="499" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A499" s="7" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B499" s="53" t="s">
         <v>845</v>
       </c>
       <c r="C499" s="13" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D499" s="53" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E499" s="7" t="s">
         <v>24</v>
@@ -29374,7 +29383,7 @@
         <v>957</v>
       </c>
       <c r="D510" s="53" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E510" s="7" t="s">
         <v>24</v>
@@ -29392,16 +29401,16 @@
     </row>
     <row r="511" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A511" s="7" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B511" s="53" t="s">
         <v>845</v>
       </c>
       <c r="C511" s="13" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D511" s="53" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E511" s="7" t="s">
         <v>24</v>
@@ -29614,16 +29623,16 @@
     </row>
     <row r="519" spans="1:10" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A519" s="7" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B519" s="19" t="s">
         <v>845</v>
       </c>
       <c r="C519" s="13" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="D519" s="7" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="E519" s="28" t="s">
         <v>24</v>
@@ -29643,16 +29652,16 @@
     </row>
     <row r="520" spans="1:10" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A520" s="7" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B520" s="19" t="s">
         <v>845</v>
       </c>
       <c r="C520" s="13" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="D520" s="7" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="E520" s="28" t="s">
         <v>24</v>
@@ -29672,16 +29681,16 @@
     </row>
     <row r="521" spans="1:10" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A521" s="7" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="B521" s="19" t="s">
         <v>845</v>
       </c>
       <c r="C521" s="13" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="D521" s="53" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="E521" s="28" t="s">
         <v>24</v>
@@ -29701,16 +29710,16 @@
     </row>
     <row r="522" spans="1:10" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A522" s="7" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="B522" s="19" t="s">
         <v>845</v>
       </c>
       <c r="C522" s="13" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D522" s="53" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="E522" s="28" t="s">
         <v>24</v>
@@ -29736,7 +29745,7 @@
         <v>7</v>
       </c>
       <c r="C523" s="13" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="D523" s="53" t="s">
         <v>965</v>
@@ -29786,16 +29795,16 @@
     </row>
     <row r="525" spans="1:10" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A525" s="7" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B525" s="57" t="s">
         <v>845</v>
       </c>
       <c r="C525" s="13" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D525" s="53" t="s">
         <v>1109</v>
-      </c>
-      <c r="D525" s="53" t="s">
-        <v>1111</v>
       </c>
       <c r="E525" s="28" t="s">
         <v>24</v>
@@ -29813,16 +29822,16 @@
     </row>
     <row r="526" spans="1:10" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A526" s="7" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B526" s="57" t="s">
         <v>845</v>
       </c>
       <c r="C526" s="13" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D526" s="53" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="E526" s="28" t="s">
         <v>24</v>
@@ -29842,16 +29851,16 @@
     </row>
     <row r="527" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A527" s="77" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B527" s="57" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C527" s="79" t="s">
         <v>1141</v>
       </c>
-      <c r="B527" s="57" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C527" s="79" t="s">
-        <v>1143</v>
-      </c>
       <c r="D527" s="78" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="E527" s="77" t="s">
         <v>24</v>
@@ -29870,7 +29879,7 @@
       </c>
       <c r="J527"/>
     </row>
-    <row r="528" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A528" s="27" t="s">
         <v>891</v>
       </c>
@@ -29895,7 +29904,7 @@
       </c>
       <c r="I528" s="16"/>
     </row>
-    <row r="529" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:9" ht="108" hidden="1" x14ac:dyDescent="0.15">
       <c r="A529" s="36" t="s">
         <v>894</v>
       </c>
@@ -29922,6 +29931,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B18:I18"/>
@@ -29929,11 +29943,6 @@
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G406:G417 F415:F416 F374:F375 F330:F331 G318:G331 F297:F298 G294:G298 F279:F280 G271:G280 F213:F214 G194:G216 G186:G190 G156:G160 G111:G116 G23:G80 E316:G316 B137:B301 C20:G20 A480:E480 C486:E486 C481:E484 D485:E485 E23:E135 F28:F130 B23:B122 E317:E357 B305:B357 F348:G357 B486:B491 G487:G491 E487:E491 E137:E301 B495:B498 E495:E507 F495:F500 E402:E450 B402:B450 B359:B360 E359:G360 E362:E385 B362:B385 F362:F363 G362:G376">
@@ -37522,15 +37531,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -37579,6 +37579,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement/>
@@ -37586,14 +37595,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -37604,6 +37605,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/SharePoint/Docs/MS-SITESS/MS-SITESS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-SITESS/MS-SITESS_RequirementSpecification.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E96A83F-AA70-4B77-A8B3-F07F02D513D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00C67F70-F3F0-441D-8133-08CF4BBE6198}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3190,9 +3190,6 @@
               &lt;/s:complexType&gt;
               &lt;/s:element&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In ImportWebResponse] ImportWebResult: The result of the operation is in the range [1, 2, 4 , 5, 6, 8, 11]  as specified in the table in section 3.1.4.8.2.2.</t>
   </si>
   <si>
     <t>[In ExportWebResponse] ExportWebResult: The result of the operation is in the range [1, 4, 5, 6, 7, 8] as specified in the table in section 3.1.4.2.2.</t>
@@ -3858,12 +3855,6 @@
     <t>[In CreateWeb] presence: If set to true, the online presence information is to be enabled for the subsite to be created.</t>
   </si>
   <si>
-    <t>[In CreateWeb] [presence:] If set to false, the online presence information MUST NOT be enabled for the subsite to be created. &lt;17&gt;</t>
-  </si>
-  <si>
-    <t>[In CreateWeb] [presence:] If omitted, the online presence information MUST NOT be enabled for the subsite to be created. &lt;17&gt;</t>
-  </si>
-  <si>
     <t>[In DeleteWeb] This operation [DeleteWeb] is used to delete an existing subsite of the current site.&lt;18&gt;</t>
   </si>
   <si>
@@ -4147,25 +4138,10 @@
     <t>[In Appendix B: Product Behavior] &lt;18&gt; Section 3.1.4.10: Implementation does not support this method [DeleteWeb].(Windows SharePoint Services 2.0, Windows SharePoint Services 3.0, and Office SharePoint Server 2007 follow this behavior.)</t>
   </si>
   <si>
-    <t>Verified by derived requirements: MS-SITESS_R523001, MS-SITESS_R523002.</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R523001</t>
-  </si>
-  <si>
     <t>MS-SITESS_R523002</t>
   </si>
   <si>
     <t>[In Appendix B: Product Behavior] Implementation does be enabled for the subsite to be created, when presence set to false, and anonymous authentication is not allowed for the subsite.  &lt;17&gt; Section 3.1.4.9.2.1:  If anonymous authentication is not allowed for the subsite, the online presence information will be enabled on SharePoint Foundation 2010.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior]Implementation does not be enabled for the subsite to be created, when presence set to false. (SharePoint Foundation 2013 and above follow this hebavior.)</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] Implementation does be enabled for the subsite to be created, when presence set to omitted, and anonymous authentication is not allowed for the subsite.  &lt;17&gt; Section 3.1.4.9.2.1:  If anonymous authentication is not allowed for the subsite, the online presence information will be enabled on SharePoint Foundation 2010.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior]Implementation does not be enabled for the subsite to be created, when presence set to omitted. (SharePoint Foundation 2013 and above follow this hebavior.)</t>
   </si>
   <si>
     <t>MS-SITESS_R523:i</t>
@@ -4593,6 +4569,38 @@
   </si>
   <si>
     <t>[In Appendix B: Product Behavior] &lt;7&gt; Section 3.1.4.5.2.2: Implementation does not return the SOAP fault. It returns a successful GetSiteTemplatesResponse with an empty TemplateList element.(Microsoft SharePoint Foundation 2010 SharePoint Foundation 2013 and SharePoint Server 2016 above follow this behavior.)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In ImportWebResponse] ImportWebResult: The result of the operation is in the range [1, 2, 4 , 5, 6, 7, 8, 11,12]  as specified in the table in section 3.1.4.8.2.2.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In CreateWeb] [presence:] If omitted, the online presence information MUST NOT be enabled for the subsite to be created. &lt;17&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verified by derived requirements: MS-SITESS_R523001, MS-SITESS_R523002.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-SITESS_R523001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In CreateWeb] [presence:] If set to false, the online presence information MUST NOT be enabled for the subsite to be created. &lt;17&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does be enabled for the subsite to be created, when presence set to omitted, and anonymous authentication is not allowed for the subsite.  &lt;17&gt; Section 3.1.4.9.2.1:  If anonymous authentication is not allowed for the subsite, the online presence information will be enabled on SharePoint Foundation 2010.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior]Implementation does not be enabled for the subsite to be created, when presence set to omitted. (SharePoint Foundation 2013 and above follow this hebavior.)  &lt;17&gt; Section 3.1.4.9.2.1:  If anonymous authentication is not allowed for the subsite, the online presence information will not be enabled on SharePoint Foundation 2013 and above.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior]Implementation does not be enabled for the subsite to be created, when presence set to false. (SharePoint Foundation 2013 and above follow this hebavior.)  &lt;17&gt; Section 3.1.4.9.2.1:  If anonymous authentication is not allowed for the subsite, the online presence information will not be enabled on SharePoint Foundation 2013 and above.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5102,6 +5110,27 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5164,27 +5193,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -16220,14 +16228,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I529" tableType="xml" totalsRowShown="0">
-  <autoFilter ref="A19:I529" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="3.1.4.5.2.2"/>
-        <filter val="7"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A19:I529" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
@@ -16597,16 +16598,16 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M529"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A494" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C495" sqref="C495"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C520" sqref="C520"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.125" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="3" width="68.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.25" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="10.125" customWidth="1"/>
     <col min="6" max="6" width="15.125" customWidth="1"/>
     <col min="7" max="7" width="13.375" customWidth="1"/>
@@ -16652,10 +16653,10 @@
         <v>28</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="E3" s="48" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F3" s="56">
         <v>43634</v>
@@ -16666,49 +16667,49 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="109"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="88"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="112"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="91"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="113" t="s">
-        <v>909</v>
-      </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
+      <c r="B6" s="92" t="s">
+        <v>908</v>
+      </c>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
       <c r="J6" s="47"/>
       <c r="K6" s="2"/>
     </row>
@@ -16716,32 +16717,32 @@
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="114" t="s">
-        <v>910</v>
-      </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
+      <c r="B7" s="93" t="s">
+        <v>909</v>
+      </c>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
       <c r="J8" s="47"/>
       <c r="K8" s="2"/>
     </row>
@@ -16749,16 +16750,16 @@
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="93" t="s">
-        <v>916</v>
-      </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="95"/>
+      <c r="B9" s="100" t="s">
+        <v>915</v>
+      </c>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="102"/>
       <c r="J9" s="47"/>
       <c r="K9" s="2"/>
     </row>
@@ -16766,16 +16767,16 @@
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="96" t="s">
-        <v>917</v>
-      </c>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="98"/>
+      <c r="B10" s="103" t="s">
+        <v>916</v>
+      </c>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="105"/>
       <c r="J10" s="47"/>
       <c r="K10" s="2"/>
     </row>
@@ -16783,16 +16784,16 @@
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="92" t="s">
-        <v>911</v>
-      </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
+      <c r="B11" s="99" t="s">
+        <v>910</v>
+      </c>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
@@ -16800,17 +16801,17 @@
         <v>9</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C12" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="99"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="101"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="108"/>
       <c r="J12" s="47"/>
       <c r="K12" s="2"/>
     </row>
@@ -16824,12 +16825,12 @@
       <c r="C13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="102"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="104"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="111"/>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
@@ -16840,14 +16841,14 @@
         <v>12</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>913</v>
-      </c>
-      <c r="D14" s="102"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="104"/>
+        <v>912</v>
+      </c>
+      <c r="D14" s="109"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="111"/>
       <c r="J14" s="47"/>
       <c r="K14" s="2"/>
     </row>
@@ -16859,30 +16860,30 @@
         <v>10</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>914</v>
-      </c>
-      <c r="D15" s="105"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="107"/>
+        <v>913</v>
+      </c>
+      <c r="D15" s="112"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="114"/>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="87" t="s">
-        <v>918</v>
-      </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
+      <c r="B16" s="94" t="s">
+        <v>917</v>
+      </c>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
       <c r="J16" s="47"/>
       <c r="K16" s="2"/>
     </row>
@@ -16890,32 +16891,32 @@
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="89" t="s">
-        <v>919</v>
-      </c>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="91"/>
+      <c r="B17" s="96" t="s">
+        <v>918</v>
+      </c>
+      <c r="C17" s="97"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="98"/>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="92" t="s">
-        <v>915</v>
-      </c>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
+      <c r="B18" s="99" t="s">
+        <v>914</v>
+      </c>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
       <c r="J18" s="47"/>
       <c r="K18" s="2"/>
       <c r="M18" s="2"/>
@@ -16949,7 +16950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>30</v>
       </c>
@@ -16974,7 +16975,7 @@
       </c>
       <c r="I20" s="16"/>
     </row>
-    <row r="21" spans="1:13" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -16998,10 +16999,10 @@
         <v>18</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -17009,7 +17010,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>35</v>
@@ -17027,10 +17028,10 @@
         <v>23</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="27" hidden="1" x14ac:dyDescent="0.15">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -17055,7 +17056,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:13" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>38</v>
       </c>
@@ -17080,7 +17081,7 @@
       </c>
       <c r="I24" s="16"/>
     </row>
-    <row r="25" spans="1:13" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>40</v>
       </c>
@@ -17107,7 +17108,7 @@
       </c>
       <c r="I25" s="16"/>
     </row>
-    <row r="26" spans="1:13" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>43</v>
       </c>
@@ -17134,7 +17135,7 @@
       </c>
       <c r="I26" s="16"/>
     </row>
-    <row r="27" spans="1:13" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>45</v>
       </c>
@@ -17159,7 +17160,7 @@
       </c>
       <c r="I27" s="16"/>
     </row>
-    <row r="28" spans="1:13" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>48</v>
       </c>
@@ -17184,7 +17185,7 @@
       </c>
       <c r="I28" s="16"/>
     </row>
-    <row r="29" spans="1:13" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
         <v>50</v>
       </c>
@@ -17209,7 +17210,7 @@
       </c>
       <c r="I29" s="16"/>
     </row>
-    <row r="30" spans="1:13" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
         <v>53</v>
       </c>
@@ -17234,7 +17235,7 @@
       </c>
       <c r="I30" s="16"/>
     </row>
-    <row r="31" spans="1:13" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
         <v>55</v>
       </c>
@@ -17259,7 +17260,7 @@
       </c>
       <c r="I31" s="16"/>
     </row>
-    <row r="32" spans="1:13" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
         <v>57</v>
       </c>
@@ -17284,7 +17285,7 @@
       </c>
       <c r="I32" s="16"/>
     </row>
-    <row r="33" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
         <v>59</v>
       </c>
@@ -17309,7 +17310,7 @@
       </c>
       <c r="I33" s="16"/>
     </row>
-    <row r="34" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
         <v>61</v>
       </c>
@@ -17317,7 +17318,7 @@
         <v>51</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>1206</v>
+        <v>1198</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="7" t="s">
@@ -17334,7 +17335,7 @@
       </c>
       <c r="I34" s="16"/>
     </row>
-    <row r="35" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>62</v>
       </c>
@@ -17359,7 +17360,7 @@
       </c>
       <c r="I35" s="16"/>
     </row>
-    <row r="36" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
         <v>64</v>
       </c>
@@ -17384,7 +17385,7 @@
       </c>
       <c r="I36" s="16"/>
     </row>
-    <row r="37" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
         <v>66</v>
       </c>
@@ -17392,7 +17393,7 @@
         <v>51</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D37" s="14"/>
       <c r="E37" s="7" t="s">
@@ -17409,7 +17410,7 @@
       </c>
       <c r="I37" s="16"/>
     </row>
-    <row r="38" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
         <v>67</v>
       </c>
@@ -17417,7 +17418,7 @@
         <v>68</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="7" t="s">
@@ -17434,7 +17435,7 @@
       </c>
       <c r="I38" s="16"/>
     </row>
-    <row r="39" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A39" s="7" t="s">
         <v>69</v>
       </c>
@@ -17459,7 +17460,7 @@
       </c>
       <c r="I39" s="16"/>
     </row>
-    <row r="40" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
         <v>71</v>
       </c>
@@ -17467,7 +17468,7 @@
         <v>68</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="7" t="s">
@@ -17484,15 +17485,15 @@
       </c>
       <c r="I40" s="16"/>
     </row>
-    <row r="41" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B41" s="53" t="s">
         <v>68</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D41" s="53"/>
       <c r="E41" s="7" t="s">
@@ -17509,7 +17510,7 @@
       </c>
       <c r="I41" s="54"/>
     </row>
-    <row r="42" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
         <v>72</v>
       </c>
@@ -17534,7 +17535,7 @@
       </c>
       <c r="I42" s="16"/>
     </row>
-    <row r="43" spans="1:9" ht="148.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
         <v>75</v>
       </c>
@@ -17559,7 +17560,7 @@
       </c>
       <c r="I43" s="16"/>
     </row>
-    <row r="44" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="7" t="s">
         <v>77</v>
       </c>
@@ -17584,7 +17585,7 @@
       </c>
       <c r="I44" s="16"/>
     </row>
-    <row r="45" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="7" t="s">
         <v>79</v>
       </c>
@@ -17609,7 +17610,7 @@
       </c>
       <c r="I45" s="16"/>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
         <v>81</v>
       </c>
@@ -17634,15 +17635,15 @@
       </c>
       <c r="I46" s="16"/>
     </row>
-    <row r="47" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B47" s="57" t="s">
+        <v>999</v>
+      </c>
+      <c r="C47" s="13" t="s">
         <v>1000</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>1001</v>
       </c>
       <c r="D47" s="53"/>
       <c r="E47" s="7" t="s">
@@ -17659,15 +17660,15 @@
       </c>
       <c r="I47" s="54"/>
     </row>
-    <row r="48" spans="1:9" ht="121.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A48" s="7" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B48" s="57" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D48" s="53"/>
       <c r="E48" s="7" t="s">
@@ -17684,15 +17685,15 @@
       </c>
       <c r="I48" s="54"/>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A49" s="7" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B49" s="57" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D49" s="53"/>
       <c r="E49" s="7" t="s">
@@ -17705,11 +17706,11 @@
         <v>16</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
       <c r="I49" s="54"/>
     </row>
-    <row r="50" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A50" s="7" t="s">
         <v>83</v>
       </c>
@@ -17734,7 +17735,7 @@
       </c>
       <c r="I50" s="16"/>
     </row>
-    <row r="51" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" s="7" t="s">
         <v>85</v>
       </c>
@@ -17759,7 +17760,7 @@
       </c>
       <c r="I51" s="16"/>
     </row>
-    <row r="52" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A52" s="7" t="s">
         <v>87</v>
       </c>
@@ -17784,7 +17785,7 @@
       </c>
       <c r="I52" s="16"/>
     </row>
-    <row r="53" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A53" s="7" t="s">
         <v>89</v>
       </c>
@@ -17809,7 +17810,7 @@
       </c>
       <c r="I53" s="16"/>
     </row>
-    <row r="54" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A54" s="7" t="s">
         <v>91</v>
       </c>
@@ -17834,7 +17835,7 @@
       </c>
       <c r="I54" s="16"/>
     </row>
-    <row r="55" spans="1:9" ht="81" hidden="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A55" s="7" t="s">
         <v>93</v>
       </c>
@@ -17842,7 +17843,7 @@
         <v>3</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>1207</v>
+        <v>1199</v>
       </c>
       <c r="D55" s="14"/>
       <c r="E55" s="7" t="s">
@@ -17859,7 +17860,7 @@
       </c>
       <c r="I55" s="16"/>
     </row>
-    <row r="56" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A56" s="7" t="s">
         <v>94</v>
       </c>
@@ -17884,7 +17885,7 @@
       </c>
       <c r="I56" s="16"/>
     </row>
-    <row r="57" spans="1:9" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A57" s="7" t="s">
         <v>96</v>
       </c>
@@ -17909,7 +17910,7 @@
       </c>
       <c r="I57" s="16"/>
     </row>
-    <row r="58" spans="1:9" ht="108" hidden="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A58" s="7" t="s">
         <v>99</v>
       </c>
@@ -17934,7 +17935,7 @@
       </c>
       <c r="I58" s="16"/>
     </row>
-    <row r="59" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="7" t="s">
         <v>102</v>
       </c>
@@ -17959,7 +17960,7 @@
       </c>
       <c r="I59" s="16"/>
     </row>
-    <row r="60" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="7" t="s">
         <v>104</v>
       </c>
@@ -17984,7 +17985,7 @@
       </c>
       <c r="I60" s="16"/>
     </row>
-    <row r="61" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="7" t="s">
         <v>106</v>
       </c>
@@ -18009,7 +18010,7 @@
       </c>
       <c r="I61" s="16"/>
     </row>
-    <row r="62" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A62" s="7" t="s">
         <v>108</v>
       </c>
@@ -18017,7 +18018,7 @@
         <v>100</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D62" s="14"/>
       <c r="E62" s="7" t="s">
@@ -18034,7 +18035,7 @@
       </c>
       <c r="I62" s="16"/>
     </row>
-    <row r="63" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A63" s="7" t="s">
         <v>109</v>
       </c>
@@ -18059,7 +18060,7 @@
       </c>
       <c r="I63" s="16"/>
     </row>
-    <row r="64" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="7" t="s">
         <v>111</v>
       </c>
@@ -18084,7 +18085,7 @@
       </c>
       <c r="I64" s="16"/>
     </row>
-    <row r="65" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A65" s="7" t="s">
         <v>113</v>
       </c>
@@ -18109,7 +18110,7 @@
       </c>
       <c r="I65" s="16"/>
     </row>
-    <row r="66" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A66" s="7" t="s">
         <v>115</v>
       </c>
@@ -18134,7 +18135,7 @@
       </c>
       <c r="I66" s="16"/>
     </row>
-    <row r="67" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A67" s="7" t="s">
         <v>117</v>
       </c>
@@ -18159,7 +18160,7 @@
       </c>
       <c r="I67" s="16"/>
     </row>
-    <row r="68" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="7" t="s">
         <v>119</v>
       </c>
@@ -18167,7 +18168,7 @@
         <v>100</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>1208</v>
+        <v>1200</v>
       </c>
       <c r="D68" s="14"/>
       <c r="E68" s="7" t="s">
@@ -18184,7 +18185,7 @@
       </c>
       <c r="I68" s="16"/>
     </row>
-    <row r="69" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A69" s="7" t="s">
         <v>120</v>
       </c>
@@ -18192,7 +18193,7 @@
         <v>121</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D69" s="14"/>
       <c r="E69" s="7" t="s">
@@ -18208,10 +18209,10 @@
         <v>18</v>
       </c>
       <c r="I69" s="54" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A70" s="7" t="s">
         <v>122</v>
       </c>
@@ -18236,7 +18237,7 @@
       </c>
       <c r="I70" s="16"/>
     </row>
-    <row r="71" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A71" s="7" t="s">
         <v>124</v>
       </c>
@@ -18261,7 +18262,7 @@
       </c>
       <c r="I71" s="16"/>
     </row>
-    <row r="72" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A72" s="7" t="s">
         <v>126</v>
       </c>
@@ -18286,7 +18287,7 @@
       </c>
       <c r="I72" s="16"/>
     </row>
-    <row r="73" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A73" s="7" t="s">
         <v>128</v>
       </c>
@@ -18311,7 +18312,7 @@
       </c>
       <c r="I73" s="16"/>
     </row>
-    <row r="74" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A74" s="7" t="s">
         <v>131</v>
       </c>
@@ -18336,7 +18337,7 @@
       </c>
       <c r="I74" s="16"/>
     </row>
-    <row r="75" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A75" s="7" t="s">
         <v>134</v>
       </c>
@@ -18361,7 +18362,7 @@
       </c>
       <c r="I75" s="16"/>
     </row>
-    <row r="76" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A76" s="7" t="s">
         <v>136</v>
       </c>
@@ -18386,7 +18387,7 @@
       </c>
       <c r="I76" s="16"/>
     </row>
-    <row r="77" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A77" s="7" t="s">
         <v>138</v>
       </c>
@@ -18411,7 +18412,7 @@
       </c>
       <c r="I77" s="16"/>
     </row>
-    <row r="78" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A78" s="7" t="s">
         <v>141</v>
       </c>
@@ -18436,7 +18437,7 @@
       </c>
       <c r="I78" s="16"/>
     </row>
-    <row r="79" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A79" s="7" t="s">
         <v>143</v>
       </c>
@@ -18444,7 +18445,7 @@
         <v>144</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="D79" s="14"/>
       <c r="E79" s="7" t="s">
@@ -18461,7 +18462,7 @@
       </c>
       <c r="I79" s="16"/>
     </row>
-    <row r="80" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A80" s="7" t="s">
         <v>145</v>
       </c>
@@ -18486,7 +18487,7 @@
       </c>
       <c r="I80" s="16"/>
     </row>
-    <row r="81" spans="1:9" ht="229.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:9" ht="229.5" x14ac:dyDescent="0.15">
       <c r="A81" s="7" t="s">
         <v>148</v>
       </c>
@@ -18511,7 +18512,7 @@
       </c>
       <c r="I81" s="16"/>
     </row>
-    <row r="82" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A82" s="7" t="s">
         <v>150</v>
       </c>
@@ -18536,7 +18537,7 @@
       </c>
       <c r="I82" s="16"/>
     </row>
-    <row r="83" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A83" s="7" t="s">
         <v>152</v>
       </c>
@@ -18561,7 +18562,7 @@
       </c>
       <c r="I83" s="16"/>
     </row>
-    <row r="84" spans="1:9" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A84" s="7" t="s">
         <v>154</v>
       </c>
@@ -18585,10 +18586,10 @@
         <v>18</v>
       </c>
       <c r="I84" s="16" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A85" s="7" t="s">
         <v>156</v>
       </c>
@@ -18615,7 +18616,7 @@
       </c>
       <c r="I85" s="16"/>
     </row>
-    <row r="86" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A86" s="7" t="s">
         <v>159</v>
       </c>
@@ -18640,7 +18641,7 @@
       </c>
       <c r="I86" s="16"/>
     </row>
-    <row r="87" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A87" s="7" t="s">
         <v>161</v>
       </c>
@@ -18665,7 +18666,7 @@
       </c>
       <c r="I87" s="13"/>
     </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A88" s="7" t="s">
         <v>163</v>
       </c>
@@ -18690,7 +18691,7 @@
       </c>
       <c r="I88" s="16"/>
     </row>
-    <row r="89" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A89" s="7" t="s">
         <v>165</v>
       </c>
@@ -18715,7 +18716,7 @@
       </c>
       <c r="I89" s="16"/>
     </row>
-    <row r="90" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A90" s="7" t="s">
         <v>167</v>
       </c>
@@ -18740,7 +18741,7 @@
       </c>
       <c r="I90" s="16"/>
     </row>
-    <row r="91" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A91" s="7" t="s">
         <v>169</v>
       </c>
@@ -18765,7 +18766,7 @@
       </c>
       <c r="I91" s="16"/>
     </row>
-    <row r="92" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A92" s="7" t="s">
         <v>171</v>
       </c>
@@ -18790,7 +18791,7 @@
       </c>
       <c r="I92" s="16"/>
     </row>
-    <row r="93" spans="1:9" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A93" s="7" t="s">
         <v>173</v>
       </c>
@@ -18815,7 +18816,7 @@
       </c>
       <c r="I93" s="16"/>
     </row>
-    <row r="94" spans="1:9" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A94" s="7" t="s">
         <v>175</v>
       </c>
@@ -18840,7 +18841,7 @@
       </c>
       <c r="I94" s="16"/>
     </row>
-    <row r="95" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A95" s="7" t="s">
         <v>178</v>
       </c>
@@ -18865,7 +18866,7 @@
       </c>
       <c r="I95" s="16"/>
     </row>
-    <row r="96" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A96" s="7" t="s">
         <v>180</v>
       </c>
@@ -18873,7 +18874,7 @@
         <v>146</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
       <c r="D96" s="14"/>
       <c r="E96" s="7" t="s">
@@ -18890,7 +18891,7 @@
       </c>
       <c r="I96" s="16"/>
     </row>
-    <row r="97" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A97" s="7" t="s">
         <v>181</v>
       </c>
@@ -18915,7 +18916,7 @@
       </c>
       <c r="I97" s="16"/>
     </row>
-    <row r="98" spans="1:9" ht="121.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A98" s="7" t="s">
         <v>177</v>
       </c>
@@ -18940,7 +18941,7 @@
       </c>
       <c r="I98" s="16"/>
     </row>
-    <row r="99" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A99" s="7" t="s">
         <v>185</v>
       </c>
@@ -18965,7 +18966,7 @@
       </c>
       <c r="I99" s="16"/>
     </row>
-    <row r="100" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A100" s="7" t="s">
         <v>187</v>
       </c>
@@ -18989,10 +18990,10 @@
         <v>18</v>
       </c>
       <c r="I100" s="16" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A101" s="7" t="s">
         <v>190</v>
       </c>
@@ -19000,7 +19001,7 @@
         <v>188</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>1210</v>
+        <v>1202</v>
       </c>
       <c r="D101" s="14"/>
       <c r="E101" s="7" t="s">
@@ -19017,7 +19018,7 @@
       </c>
       <c r="I101" s="16"/>
     </row>
-    <row r="102" spans="1:9" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A102" s="7" t="s">
         <v>191</v>
       </c>
@@ -19042,7 +19043,7 @@
       </c>
       <c r="I102" s="16"/>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A103" s="7" t="s">
         <v>193</v>
       </c>
@@ -19067,7 +19068,7 @@
       </c>
       <c r="I103" s="16"/>
     </row>
-    <row r="104" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A104" s="7" t="s">
         <v>195</v>
       </c>
@@ -19092,7 +19093,7 @@
       </c>
       <c r="I104" s="16"/>
     </row>
-    <row r="105" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A105" s="7" t="s">
         <v>197</v>
       </c>
@@ -19117,7 +19118,7 @@
       </c>
       <c r="I105" s="16"/>
     </row>
-    <row r="106" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A106" s="7" t="s">
         <v>199</v>
       </c>
@@ -19142,7 +19143,7 @@
       </c>
       <c r="I106" s="16"/>
     </row>
-    <row r="107" spans="1:9" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A107" s="7" t="s">
         <v>201</v>
       </c>
@@ -19166,10 +19167,10 @@
         <v>18</v>
       </c>
       <c r="I107" s="16" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A108" s="7" t="s">
         <v>203</v>
       </c>
@@ -19194,7 +19195,7 @@
       </c>
       <c r="I108" s="16"/>
     </row>
-    <row r="109" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A109" s="7" t="s">
         <v>205</v>
       </c>
@@ -19219,7 +19220,7 @@
       </c>
       <c r="I109" s="16"/>
     </row>
-    <row r="110" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A110" s="7" t="s">
         <v>208</v>
       </c>
@@ -19244,7 +19245,7 @@
       </c>
       <c r="I110" s="16"/>
     </row>
-    <row r="111" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A111" s="7" t="s">
         <v>211</v>
       </c>
@@ -19269,7 +19270,7 @@
       </c>
       <c r="I111" s="16"/>
     </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A112" s="7" t="s">
         <v>213</v>
       </c>
@@ -19294,7 +19295,7 @@
       </c>
       <c r="I112" s="16"/>
     </row>
-    <row r="113" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A113" s="7" t="s">
         <v>215</v>
       </c>
@@ -19319,7 +19320,7 @@
       </c>
       <c r="I113" s="16"/>
     </row>
-    <row r="114" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A114" s="7" t="s">
         <v>218</v>
       </c>
@@ -19344,15 +19345,15 @@
       </c>
       <c r="I114" s="16"/>
     </row>
-    <row r="115" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A115" s="7" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B115" s="14" t="s">
         <v>220</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="D115" s="14"/>
       <c r="E115" s="7" t="s">
@@ -19369,7 +19370,7 @@
       </c>
       <c r="I115" s="16"/>
     </row>
-    <row r="116" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A116" s="7" t="s">
         <v>221</v>
       </c>
@@ -19394,7 +19395,7 @@
       </c>
       <c r="I116" s="16"/>
     </row>
-    <row r="117" spans="1:9" ht="310.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
       <c r="A117" s="7" t="s">
         <v>224</v>
       </c>
@@ -19419,7 +19420,7 @@
       </c>
       <c r="I117" s="16"/>
     </row>
-    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A118" s="7" t="s">
         <v>227</v>
       </c>
@@ -19444,7 +19445,7 @@
       </c>
       <c r="I118" s="16"/>
     </row>
-    <row r="119" spans="1:9" ht="81" hidden="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A119" s="7" t="s">
         <v>229</v>
       </c>
@@ -19469,7 +19470,7 @@
       </c>
       <c r="I119" s="16"/>
     </row>
-    <row r="120" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A120" s="7" t="s">
         <v>231</v>
       </c>
@@ -19494,7 +19495,7 @@
       </c>
       <c r="I120" s="16"/>
     </row>
-    <row r="121" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A121" s="7" t="s">
         <v>233</v>
       </c>
@@ -19519,7 +19520,7 @@
       </c>
       <c r="I121" s="16"/>
     </row>
-    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A122" s="7" t="s">
         <v>235</v>
       </c>
@@ -19544,15 +19545,15 @@
       </c>
       <c r="I122" s="16"/>
     </row>
-    <row r="123" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A123" s="7" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B123" s="11" t="s">
         <v>222</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D123" s="14"/>
       <c r="E123" s="7" t="s">
@@ -19568,21 +19569,21 @@
         <v>18</v>
       </c>
       <c r="I123" s="54" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="81" hidden="1" x14ac:dyDescent="0.15">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A124" s="7" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B124" s="11" t="s">
         <v>222</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D124" s="53" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E124" s="7" t="s">
         <v>24</v>
@@ -19597,10 +19598,10 @@
         <v>21</v>
       </c>
       <c r="I124" s="54" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A125" s="7" t="s">
         <v>237</v>
       </c>
@@ -19625,7 +19626,7 @@
       </c>
       <c r="I125" s="16"/>
     </row>
-    <row r="126" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A126" s="7" t="s">
         <v>239</v>
       </c>
@@ -19650,7 +19651,7 @@
       </c>
       <c r="I126" s="16"/>
     </row>
-    <row r="127" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A127" s="7" t="s">
         <v>241</v>
       </c>
@@ -19658,7 +19659,7 @@
         <v>222</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D127" s="14"/>
       <c r="E127" s="7" t="s">
@@ -19675,7 +19676,7 @@
       </c>
       <c r="I127" s="16"/>
     </row>
-    <row r="128" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A128" s="7" t="s">
         <v>242</v>
       </c>
@@ -19700,7 +19701,7 @@
       </c>
       <c r="I128" s="16"/>
     </row>
-    <row r="129" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A129" s="7" t="s">
         <v>244</v>
       </c>
@@ -19725,7 +19726,7 @@
       </c>
       <c r="I129" s="13"/>
     </row>
-    <row r="130" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A130" s="7" t="s">
         <v>246</v>
       </c>
@@ -19750,7 +19751,7 @@
       </c>
       <c r="I130" s="16"/>
     </row>
-    <row r="131" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A131" s="7" t="s">
         <v>248</v>
       </c>
@@ -19775,7 +19776,7 @@
       </c>
       <c r="I131" s="13"/>
     </row>
-    <row r="132" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A132" s="7" t="s">
         <v>250</v>
       </c>
@@ -19800,7 +19801,7 @@
       </c>
       <c r="I132" s="16"/>
     </row>
-    <row r="133" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A133" s="7" t="s">
         <v>252</v>
       </c>
@@ -19825,7 +19826,7 @@
       </c>
       <c r="I133" s="16"/>
     </row>
-    <row r="134" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A134" s="7" t="s">
         <v>254</v>
       </c>
@@ -19850,7 +19851,7 @@
       </c>
       <c r="I134" s="16"/>
     </row>
-    <row r="135" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A135" s="7" t="s">
         <v>256</v>
       </c>
@@ -19875,7 +19876,7 @@
       </c>
       <c r="I135" s="16"/>
     </row>
-    <row r="136" spans="1:9" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A136" s="7" t="s">
         <v>258</v>
       </c>
@@ -19899,10 +19900,10 @@
         <v>18</v>
       </c>
       <c r="I136" s="13" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="148.5" hidden="1" x14ac:dyDescent="0.15">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A137" s="7" t="s">
         <v>260</v>
       </c>
@@ -19910,7 +19911,7 @@
         <v>222</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D137" s="14"/>
       <c r="E137" s="7" t="s">
@@ -19927,7 +19928,7 @@
       </c>
       <c r="I137" s="16"/>
     </row>
-    <row r="138" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A138" s="7" t="s">
         <v>261</v>
       </c>
@@ -19952,7 +19953,7 @@
       </c>
       <c r="I138" s="16"/>
     </row>
-    <row r="139" spans="1:9" ht="121.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A139" s="7" t="s">
         <v>226</v>
       </c>
@@ -19977,7 +19978,7 @@
       </c>
       <c r="I139" s="16"/>
     </row>
-    <row r="140" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A140" s="7" t="s">
         <v>265</v>
       </c>
@@ -19985,7 +19986,7 @@
         <v>262</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D140" s="14"/>
       <c r="E140" s="7" t="s">
@@ -20002,7 +20003,7 @@
       </c>
       <c r="I140" s="16"/>
     </row>
-    <row r="141" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A141" s="7" t="s">
         <v>266</v>
       </c>
@@ -20027,7 +20028,7 @@
       </c>
       <c r="I141" s="16"/>
     </row>
-    <row r="142" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A142" s="7" t="s">
         <v>268</v>
       </c>
@@ -20052,7 +20053,7 @@
       </c>
       <c r="I142" s="16"/>
     </row>
-    <row r="143" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A143" s="7" t="s">
         <v>270</v>
       </c>
@@ -20077,7 +20078,7 @@
       </c>
       <c r="I143" s="16"/>
     </row>
-    <row r="144" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A144" s="7" t="s">
         <v>272</v>
       </c>
@@ -20102,7 +20103,7 @@
       </c>
       <c r="I144" s="16"/>
     </row>
-    <row r="145" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A145" s="7" t="s">
         <v>274</v>
       </c>
@@ -20110,7 +20111,7 @@
         <v>262</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D145" s="14"/>
       <c r="E145" s="7" t="s">
@@ -20127,7 +20128,7 @@
       </c>
       <c r="I145" s="13"/>
     </row>
-    <row r="146" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A146" s="7" t="s">
         <v>275</v>
       </c>
@@ -20135,7 +20136,7 @@
         <v>262</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>1211</v>
+        <v>1203</v>
       </c>
       <c r="D146" s="14"/>
       <c r="E146" s="7" t="s">
@@ -20152,7 +20153,7 @@
       </c>
       <c r="I146" s="13"/>
     </row>
-    <row r="147" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A147" s="7" t="s">
         <v>276</v>
       </c>
@@ -20160,7 +20161,7 @@
         <v>262</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D147" s="14"/>
       <c r="E147" s="7" t="s">
@@ -20177,7 +20178,7 @@
       </c>
       <c r="I147" s="16"/>
     </row>
-    <row r="148" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A148" s="7" t="s">
         <v>277</v>
       </c>
@@ -20202,7 +20203,7 @@
       </c>
       <c r="I148" s="16"/>
     </row>
-    <row r="149" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A149" s="7" t="s">
         <v>279</v>
       </c>
@@ -20210,7 +20211,7 @@
         <v>262</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D149" s="14"/>
       <c r="E149" s="7" t="s">
@@ -20227,7 +20228,7 @@
       </c>
       <c r="I149" s="16"/>
     </row>
-    <row r="150" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A150" s="7" t="s">
         <v>280</v>
       </c>
@@ -20251,10 +20252,10 @@
         <v>18</v>
       </c>
       <c r="I150" s="16" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="94.5" hidden="1" x14ac:dyDescent="0.15">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A151" s="7" t="s">
         <v>283</v>
       </c>
@@ -20279,7 +20280,7 @@
       </c>
       <c r="I151" s="16"/>
     </row>
-    <row r="152" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A152" s="7" t="s">
         <v>285</v>
       </c>
@@ -20304,7 +20305,7 @@
       </c>
       <c r="I152" s="16"/>
     </row>
-    <row r="153" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A153" s="7" t="s">
         <v>287</v>
       </c>
@@ -20329,7 +20330,7 @@
       </c>
       <c r="I153" s="16"/>
     </row>
-    <row r="154" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A154" s="7" t="s">
         <v>289</v>
       </c>
@@ -20354,7 +20355,7 @@
       </c>
       <c r="I154" s="16"/>
     </row>
-    <row r="155" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A155" s="7" t="s">
         <v>292</v>
       </c>
@@ -20379,7 +20380,7 @@
       </c>
       <c r="I155" s="16"/>
     </row>
-    <row r="156" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A156" s="7" t="s">
         <v>295</v>
       </c>
@@ -20404,7 +20405,7 @@
       </c>
       <c r="I156" s="16"/>
     </row>
-    <row r="157" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A157" s="7" t="s">
         <v>297</v>
       </c>
@@ -20429,7 +20430,7 @@
       </c>
       <c r="I157" s="16"/>
     </row>
-    <row r="158" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A158" s="7" t="s">
         <v>299</v>
       </c>
@@ -20454,7 +20455,7 @@
       </c>
       <c r="I158" s="16"/>
     </row>
-    <row r="159" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A159" s="7" t="s">
         <v>302</v>
       </c>
@@ -20479,7 +20480,7 @@
       </c>
       <c r="I159" s="16"/>
     </row>
-    <row r="160" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A160" s="7" t="s">
         <v>304</v>
       </c>
@@ -20487,7 +20488,7 @@
         <v>305</v>
       </c>
       <c r="C160" s="13" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="D160" s="14"/>
       <c r="E160" s="7" t="s">
@@ -20504,7 +20505,7 @@
       </c>
       <c r="I160" s="16"/>
     </row>
-    <row r="161" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A161" s="7" t="s">
         <v>306</v>
       </c>
@@ -20529,7 +20530,7 @@
       </c>
       <c r="I161" s="16"/>
     </row>
-    <row r="162" spans="1:9" ht="229.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:9" ht="229.5" x14ac:dyDescent="0.15">
       <c r="A162" s="7" t="s">
         <v>309</v>
       </c>
@@ -20554,7 +20555,7 @@
       </c>
       <c r="I162" s="16"/>
     </row>
-    <row r="163" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A163" s="7" t="s">
         <v>312</v>
       </c>
@@ -20579,7 +20580,7 @@
       </c>
       <c r="I163" s="16"/>
     </row>
-    <row r="164" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A164" s="7" t="s">
         <v>314</v>
       </c>
@@ -20604,7 +20605,7 @@
       </c>
       <c r="I164" s="16"/>
     </row>
-    <row r="165" spans="1:9" ht="81" hidden="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A165" s="7" t="s">
         <v>316</v>
       </c>
@@ -20612,7 +20613,7 @@
         <v>307</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D165" s="14"/>
       <c r="E165" s="7" t="s">
@@ -20628,10 +20629,10 @@
         <v>18</v>
       </c>
       <c r="I165" s="16" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A166" s="7" t="s">
         <v>317</v>
       </c>
@@ -20639,10 +20640,10 @@
         <v>307</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D166" s="14" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E166" s="7" t="s">
         <v>20</v>
@@ -20658,7 +20659,7 @@
       </c>
       <c r="I166" s="16"/>
     </row>
-    <row r="167" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A167" s="7" t="s">
         <v>318</v>
       </c>
@@ -20683,7 +20684,7 @@
       </c>
       <c r="I167" s="16"/>
     </row>
-    <row r="168" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A168" s="7" t="s">
         <v>320</v>
       </c>
@@ -20708,7 +20709,7 @@
       </c>
       <c r="I168" s="13"/>
     </row>
-    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A169" s="7" t="s">
         <v>322</v>
       </c>
@@ -20733,7 +20734,7 @@
       </c>
       <c r="I169" s="16"/>
     </row>
-    <row r="170" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A170" s="7" t="s">
         <v>324</v>
       </c>
@@ -20758,7 +20759,7 @@
       </c>
       <c r="I170" s="16"/>
     </row>
-    <row r="171" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A171" s="7" t="s">
         <v>326</v>
       </c>
@@ -20783,7 +20784,7 @@
       </c>
       <c r="I171" s="16"/>
     </row>
-    <row r="172" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A172" s="7" t="s">
         <v>328</v>
       </c>
@@ -20808,7 +20809,7 @@
       </c>
       <c r="I172" s="16"/>
     </row>
-    <row r="173" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A173" s="7" t="s">
         <v>330</v>
       </c>
@@ -20816,7 +20817,7 @@
         <v>307</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D173" s="14"/>
       <c r="E173" s="7" t="s">
@@ -20833,7 +20834,7 @@
       </c>
       <c r="I173" s="13"/>
     </row>
-    <row r="174" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A174" s="7" t="s">
         <v>331</v>
       </c>
@@ -20858,7 +20859,7 @@
       </c>
       <c r="I174" s="16"/>
     </row>
-    <row r="175" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A175" s="7" t="s">
         <v>333</v>
       </c>
@@ -20883,7 +20884,7 @@
       </c>
       <c r="I175" s="16"/>
     </row>
-    <row r="176" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A176" s="7" t="s">
         <v>335</v>
       </c>
@@ -20908,7 +20909,7 @@
       </c>
       <c r="I176" s="16"/>
     </row>
-    <row r="177" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A177" s="7" t="s">
         <v>337</v>
       </c>
@@ -20933,7 +20934,7 @@
       </c>
       <c r="I177" s="16"/>
     </row>
-    <row r="178" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A178" s="7" t="s">
         <v>311</v>
       </c>
@@ -20958,7 +20959,7 @@
       </c>
       <c r="I178" s="16"/>
     </row>
-    <row r="179" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A179" s="7" t="s">
         <v>341</v>
       </c>
@@ -20983,7 +20984,7 @@
       </c>
       <c r="I179" s="16"/>
     </row>
-    <row r="180" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A180" s="7" t="s">
         <v>343</v>
       </c>
@@ -21007,10 +21008,10 @@
         <v>18</v>
       </c>
       <c r="I180" s="16" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A181" s="7" t="s">
         <v>346</v>
       </c>
@@ -21035,7 +21036,7 @@
       </c>
       <c r="I181" s="16"/>
     </row>
-    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A182" s="7" t="s">
         <v>348</v>
       </c>
@@ -21060,7 +21061,7 @@
       </c>
       <c r="I182" s="16"/>
     </row>
-    <row r="183" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A183" s="7" t="s">
         <v>350</v>
       </c>
@@ -21085,7 +21086,7 @@
       </c>
       <c r="I183" s="16"/>
     </row>
-    <row r="184" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A184" s="7" t="s">
         <v>352</v>
       </c>
@@ -21110,7 +21111,7 @@
       </c>
       <c r="I184" s="16"/>
     </row>
-    <row r="185" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A185" s="7" t="s">
         <v>355</v>
       </c>
@@ -21135,7 +21136,7 @@
       </c>
       <c r="I185" s="16"/>
     </row>
-    <row r="186" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A186" s="7" t="s">
         <v>358</v>
       </c>
@@ -21160,7 +21161,7 @@
       </c>
       <c r="I186" s="16"/>
     </row>
-    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A187" s="7" t="s">
         <v>360</v>
       </c>
@@ -21185,7 +21186,7 @@
       </c>
       <c r="I187" s="16"/>
     </row>
-    <row r="188" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A188" s="7" t="s">
         <v>362</v>
       </c>
@@ -21210,7 +21211,7 @@
       </c>
       <c r="I188" s="16"/>
     </row>
-    <row r="189" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A189" s="7" t="s">
         <v>365</v>
       </c>
@@ -21235,7 +21236,7 @@
       </c>
       <c r="I189" s="16"/>
     </row>
-    <row r="190" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A190" s="7" t="s">
         <v>367</v>
       </c>
@@ -21243,7 +21244,7 @@
         <v>368</v>
       </c>
       <c r="C190" s="13" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="D190" s="14"/>
       <c r="E190" s="7" t="s">
@@ -21260,7 +21261,7 @@
       </c>
       <c r="I190" s="16"/>
     </row>
-    <row r="191" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A191" s="7" t="s">
         <v>369</v>
       </c>
@@ -21285,7 +21286,7 @@
       </c>
       <c r="I191" s="16"/>
     </row>
-    <row r="192" spans="1:9" ht="121.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A192" s="7" t="s">
         <v>372</v>
       </c>
@@ -21310,7 +21311,7 @@
       </c>
       <c r="I192" s="16"/>
     </row>
-    <row r="193" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A193" s="7" t="s">
         <v>374</v>
       </c>
@@ -21335,7 +21336,7 @@
       </c>
       <c r="I193" s="16"/>
     </row>
-    <row r="194" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A194" s="7" t="s">
         <v>376</v>
       </c>
@@ -21360,7 +21361,7 @@
       </c>
       <c r="I194" s="16"/>
     </row>
-    <row r="195" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A195" s="7" t="s">
         <v>378</v>
       </c>
@@ -21385,7 +21386,7 @@
       </c>
       <c r="I195" s="16"/>
     </row>
-    <row r="196" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A196" s="7" t="s">
         <v>373</v>
       </c>
@@ -21393,7 +21394,7 @@
         <v>379</v>
       </c>
       <c r="C196" s="13" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D196" s="14"/>
       <c r="E196" s="7" t="s">
@@ -21410,7 +21411,7 @@
       </c>
       <c r="I196" s="16"/>
     </row>
-    <row r="197" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A197" s="7" t="s">
         <v>381</v>
       </c>
@@ -21435,7 +21436,7 @@
       </c>
       <c r="I197" s="16"/>
     </row>
-    <row r="198" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A198" s="7" t="s">
         <v>383</v>
       </c>
@@ -21460,7 +21461,7 @@
       </c>
       <c r="I198" s="16"/>
     </row>
-    <row r="199" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A199" s="7" t="s">
         <v>385</v>
       </c>
@@ -21485,7 +21486,7 @@
       </c>
       <c r="I199" s="16"/>
     </row>
-    <row r="200" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A200" s="7" t="s">
         <v>387</v>
       </c>
@@ -21510,7 +21511,7 @@
       </c>
       <c r="I200" s="16"/>
     </row>
-    <row r="201" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A201" s="7" t="s">
         <v>389</v>
       </c>
@@ -21535,7 +21536,7 @@
       </c>
       <c r="I201" s="16"/>
     </row>
-    <row r="202" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A202" s="7" t="s">
         <v>391</v>
       </c>
@@ -21560,7 +21561,7 @@
       </c>
       <c r="I202" s="16"/>
     </row>
-    <row r="203" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A203" s="7" t="s">
         <v>393</v>
       </c>
@@ -21585,7 +21586,7 @@
       </c>
       <c r="I203" s="16"/>
     </row>
-    <row r="204" spans="1:9" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A204" s="7" t="s">
         <v>395</v>
       </c>
@@ -21610,7 +21611,7 @@
       </c>
       <c r="I204" s="16"/>
     </row>
-    <row r="205" spans="1:9" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A205" s="7" t="s">
         <v>398</v>
       </c>
@@ -21635,7 +21636,7 @@
       </c>
       <c r="I205" s="16"/>
     </row>
-    <row r="206" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A206" s="7" t="s">
         <v>400</v>
       </c>
@@ -21660,7 +21661,7 @@
       </c>
       <c r="I206" s="16"/>
     </row>
-    <row r="207" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A207" s="7" t="s">
         <v>402</v>
       </c>
@@ -21685,7 +21686,7 @@
       </c>
       <c r="I207" s="16"/>
     </row>
-    <row r="208" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A208" s="7" t="s">
         <v>404</v>
       </c>
@@ -21710,7 +21711,7 @@
       </c>
       <c r="I208" s="16"/>
     </row>
-    <row r="209" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A209" s="7" t="s">
         <v>407</v>
       </c>
@@ -21735,7 +21736,7 @@
       </c>
       <c r="I209" s="16"/>
     </row>
-    <row r="210" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A210" s="7" t="s">
         <v>410</v>
       </c>
@@ -21760,7 +21761,7 @@
       </c>
       <c r="I210" s="16"/>
     </row>
-    <row r="211" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A211" s="7" t="s">
         <v>412</v>
       </c>
@@ -21785,7 +21786,7 @@
       </c>
       <c r="I211" s="16"/>
     </row>
-    <row r="212" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A212" s="7" t="s">
         <v>414</v>
       </c>
@@ -21810,7 +21811,7 @@
       </c>
       <c r="I212" s="16"/>
     </row>
-    <row r="213" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A213" s="7" t="s">
         <v>417</v>
       </c>
@@ -21835,7 +21836,7 @@
       </c>
       <c r="I213" s="16"/>
     </row>
-    <row r="214" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A214" s="7" t="s">
         <v>419</v>
       </c>
@@ -21843,7 +21844,7 @@
         <v>420</v>
       </c>
       <c r="C214" s="13" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="D214" s="14"/>
       <c r="E214" s="7" t="s">
@@ -21860,7 +21861,7 @@
       </c>
       <c r="I214" s="16"/>
     </row>
-    <row r="215" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A215" s="7" t="s">
         <v>421</v>
       </c>
@@ -21885,7 +21886,7 @@
       </c>
       <c r="I215" s="16"/>
     </row>
-    <row r="216" spans="1:9" ht="121.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A216" s="7" t="s">
         <v>424</v>
       </c>
@@ -21910,7 +21911,7 @@
       </c>
       <c r="I216" s="16"/>
     </row>
-    <row r="217" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A217" s="7" t="s">
         <v>427</v>
       </c>
@@ -21935,7 +21936,7 @@
       </c>
       <c r="I217" s="16"/>
     </row>
-    <row r="218" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A218" s="7" t="s">
         <v>429</v>
       </c>
@@ -21968,7 +21969,7 @@
         <v>430</v>
       </c>
       <c r="C219" s="13" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D219" s="14"/>
       <c r="E219" s="7" t="s">
@@ -21985,7 +21986,7 @@
       </c>
       <c r="I219" s="16"/>
     </row>
-    <row r="220" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A220" s="7" t="s">
         <v>432</v>
       </c>
@@ -22010,7 +22011,7 @@
       </c>
       <c r="I220" s="16"/>
     </row>
-    <row r="221" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A221" s="7" t="s">
         <v>434</v>
       </c>
@@ -22060,7 +22061,7 @@
       </c>
       <c r="I222" s="16"/>
     </row>
-    <row r="223" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A223" s="7" t="s">
         <v>438</v>
       </c>
@@ -22093,7 +22094,7 @@
         <v>441</v>
       </c>
       <c r="C224" s="13" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D224" s="14"/>
       <c r="E224" s="7" t="s">
@@ -22109,7 +22110,7 @@
         <v>18</v>
       </c>
       <c r="I224" s="13" t="s">
-        <v>1220</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
@@ -22137,7 +22138,7 @@
       </c>
       <c r="I225" s="13"/>
     </row>
-    <row r="226" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A226" s="7" t="s">
         <v>444</v>
       </c>
@@ -22162,7 +22163,7 @@
       </c>
       <c r="I226" s="16"/>
     </row>
-    <row r="227" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A227" s="7" t="s">
         <v>447</v>
       </c>
@@ -22187,7 +22188,7 @@
       </c>
       <c r="I227" s="16"/>
     </row>
-    <row r="228" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A228" s="7" t="s">
         <v>450</v>
       </c>
@@ -22212,7 +22213,7 @@
       </c>
       <c r="I228" s="16"/>
     </row>
-    <row r="229" spans="1:9" ht="108" hidden="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A229" s="7" t="s">
         <v>452</v>
       </c>
@@ -22237,7 +22238,7 @@
       </c>
       <c r="I229" s="16"/>
     </row>
-    <row r="230" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A230" s="7" t="s">
         <v>454</v>
       </c>
@@ -22262,7 +22263,7 @@
       </c>
       <c r="I230" s="16"/>
     </row>
-    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A231" s="7" t="s">
         <v>456</v>
       </c>
@@ -22287,7 +22288,7 @@
       </c>
       <c r="I231" s="16"/>
     </row>
-    <row r="232" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A232" s="7" t="s">
         <v>459</v>
       </c>
@@ -22312,7 +22313,7 @@
       </c>
       <c r="I232" s="16"/>
     </row>
-    <row r="233" spans="1:9" ht="364.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:9" ht="364.5" x14ac:dyDescent="0.15">
       <c r="A233" s="7" t="s">
         <v>461</v>
       </c>
@@ -22337,7 +22338,7 @@
       </c>
       <c r="I233" s="16"/>
     </row>
-    <row r="234" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A234" s="7" t="s">
         <v>463</v>
       </c>
@@ -22362,7 +22363,7 @@
       </c>
       <c r="I234" s="16"/>
     </row>
-    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A235" s="7" t="s">
         <v>465</v>
       </c>
@@ -22387,7 +22388,7 @@
       </c>
       <c r="I235" s="16"/>
     </row>
-    <row r="236" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A236" s="7" t="s">
         <v>467</v>
       </c>
@@ -22412,7 +22413,7 @@
       </c>
       <c r="I236" s="16"/>
     </row>
-    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A237" s="7" t="s">
         <v>469</v>
       </c>
@@ -22437,7 +22438,7 @@
       </c>
       <c r="I237" s="16"/>
     </row>
-    <row r="238" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A238" s="7" t="s">
         <v>471</v>
       </c>
@@ -22462,7 +22463,7 @@
       </c>
       <c r="I238" s="16"/>
     </row>
-    <row r="239" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A239" s="7" t="s">
         <v>473</v>
       </c>
@@ -22487,7 +22488,7 @@
       </c>
       <c r="I239" s="16"/>
     </row>
-    <row r="240" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A240" s="7" t="s">
         <v>475</v>
       </c>
@@ -22512,7 +22513,7 @@
       </c>
       <c r="I240" s="16"/>
     </row>
-    <row r="241" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A241" s="7" t="s">
         <v>477</v>
       </c>
@@ -22537,7 +22538,7 @@
       </c>
       <c r="I241" s="16"/>
     </row>
-    <row r="242" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A242" s="7" t="s">
         <v>479</v>
       </c>
@@ -22562,7 +22563,7 @@
       </c>
       <c r="I242" s="16"/>
     </row>
-    <row r="243" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A243" s="7" t="s">
         <v>481</v>
       </c>
@@ -22587,7 +22588,7 @@
       </c>
       <c r="I243" s="16"/>
     </row>
-    <row r="244" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A244" s="7" t="s">
         <v>483</v>
       </c>
@@ -22612,7 +22613,7 @@
       </c>
       <c r="I244" s="16"/>
     </row>
-    <row r="245" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A245" s="7" t="s">
         <v>485</v>
       </c>
@@ -22637,7 +22638,7 @@
       </c>
       <c r="I245" s="16"/>
     </row>
-    <row r="246" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A246" s="7" t="s">
         <v>487</v>
       </c>
@@ -22662,7 +22663,7 @@
       </c>
       <c r="I246" s="16"/>
     </row>
-    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A247" s="7" t="s">
         <v>489</v>
       </c>
@@ -22687,7 +22688,7 @@
       </c>
       <c r="I247" s="16"/>
     </row>
-    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A248" s="7" t="s">
         <v>491</v>
       </c>
@@ -22712,7 +22713,7 @@
       </c>
       <c r="I248" s="16"/>
     </row>
-    <row r="249" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A249" s="7" t="s">
         <v>493</v>
       </c>
@@ -22737,7 +22738,7 @@
       </c>
       <c r="I249" s="16"/>
     </row>
-    <row r="250" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A250" s="7" t="s">
         <v>495</v>
       </c>
@@ -22762,7 +22763,7 @@
       </c>
       <c r="I250" s="16"/>
     </row>
-    <row r="251" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A251" s="7" t="s">
         <v>497</v>
       </c>
@@ -22787,7 +22788,7 @@
       </c>
       <c r="I251" s="16"/>
     </row>
-    <row r="252" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A252" s="7" t="s">
         <v>499</v>
       </c>
@@ -22812,7 +22813,7 @@
       </c>
       <c r="I252" s="16"/>
     </row>
-    <row r="253" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A253" s="7" t="s">
         <v>501</v>
       </c>
@@ -22837,7 +22838,7 @@
       </c>
       <c r="I253" s="13"/>
     </row>
-    <row r="254" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A254" s="7" t="s">
         <v>503</v>
       </c>
@@ -22862,7 +22863,7 @@
       </c>
       <c r="I254" s="13"/>
     </row>
-    <row r="255" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A255" s="7" t="s">
         <v>505</v>
       </c>
@@ -22887,7 +22888,7 @@
       </c>
       <c r="I255" s="16"/>
     </row>
-    <row r="256" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A256" s="7" t="s">
         <v>507</v>
       </c>
@@ -22911,10 +22912,10 @@
         <v>18</v>
       </c>
       <c r="I256" s="16" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A257" s="7" t="s">
         <v>510</v>
       </c>
@@ -22939,7 +22940,7 @@
       </c>
       <c r="I257" s="16"/>
     </row>
-    <row r="258" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A258" s="7" t="s">
         <v>512</v>
       </c>
@@ -22947,7 +22948,7 @@
         <v>508</v>
       </c>
       <c r="C258" s="13" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D258" s="14"/>
       <c r="E258" s="7" t="s">
@@ -22964,7 +22965,7 @@
       </c>
       <c r="I258" s="16"/>
     </row>
-    <row r="259" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A259" s="7" t="s">
         <v>513</v>
       </c>
@@ -22989,7 +22990,7 @@
       </c>
       <c r="I259" s="20"/>
     </row>
-    <row r="260" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A260" s="7" t="s">
         <v>515</v>
       </c>
@@ -23014,7 +23015,7 @@
       </c>
       <c r="I260" s="16"/>
     </row>
-    <row r="261" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A261" s="7" t="s">
         <v>517</v>
       </c>
@@ -23039,7 +23040,7 @@
       </c>
       <c r="I261" s="16"/>
     </row>
-    <row r="262" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A262" s="7" t="s">
         <v>519</v>
       </c>
@@ -23064,7 +23065,7 @@
       </c>
       <c r="I262" s="16"/>
     </row>
-    <row r="263" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A263" s="7" t="s">
         <v>521</v>
       </c>
@@ -23089,7 +23090,7 @@
       </c>
       <c r="I263" s="16"/>
     </row>
-    <row r="264" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A264" s="7" t="s">
         <v>523</v>
       </c>
@@ -23114,7 +23115,7 @@
       </c>
       <c r="I264" s="16"/>
     </row>
-    <row r="265" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A265" s="7" t="s">
         <v>525</v>
       </c>
@@ -23139,7 +23140,7 @@
       </c>
       <c r="I265" s="16"/>
     </row>
-    <row r="266" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A266" s="7" t="s">
         <v>527</v>
       </c>
@@ -23164,7 +23165,7 @@
       </c>
       <c r="I266" s="16"/>
     </row>
-    <row r="267" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A267" s="7" t="s">
         <v>529</v>
       </c>
@@ -23189,7 +23190,7 @@
       </c>
       <c r="I267" s="16"/>
     </row>
-    <row r="268" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A268" s="7" t="s">
         <v>531</v>
       </c>
@@ -23214,7 +23215,7 @@
       </c>
       <c r="I268" s="16"/>
     </row>
-    <row r="269" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A269" s="7" t="s">
         <v>533</v>
       </c>
@@ -23239,7 +23240,7 @@
       </c>
       <c r="I269" s="16"/>
     </row>
-    <row r="270" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A270" s="7" t="s">
         <v>535</v>
       </c>
@@ -23264,7 +23265,7 @@
       </c>
       <c r="I270" s="16"/>
     </row>
-    <row r="271" spans="1:9" ht="94.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A271" s="7" t="s">
         <v>537</v>
       </c>
@@ -23289,7 +23290,7 @@
       </c>
       <c r="I271" s="16"/>
     </row>
-    <row r="272" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A272" s="7" t="s">
         <v>539</v>
       </c>
@@ -23314,7 +23315,7 @@
       </c>
       <c r="I272" s="16"/>
     </row>
-    <row r="273" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A273" s="7" t="s">
         <v>541</v>
       </c>
@@ -23339,7 +23340,7 @@
       </c>
       <c r="I273" s="16"/>
     </row>
-    <row r="274" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A274" s="7" t="s">
         <v>543</v>
       </c>
@@ -23364,7 +23365,7 @@
       </c>
       <c r="I274" s="16"/>
     </row>
-    <row r="275" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A275" s="7" t="s">
         <v>546</v>
       </c>
@@ -23389,7 +23390,7 @@
       </c>
       <c r="I275" s="16"/>
     </row>
-    <row r="276" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A276" s="7" t="s">
         <v>549</v>
       </c>
@@ -23414,7 +23415,7 @@
       </c>
       <c r="I276" s="16"/>
     </row>
-    <row r="277" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A277" s="7" t="s">
         <v>551</v>
       </c>
@@ -23439,7 +23440,7 @@
       </c>
       <c r="I277" s="16"/>
     </row>
-    <row r="278" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A278" s="7" t="s">
         <v>553</v>
       </c>
@@ -23464,7 +23465,7 @@
       </c>
       <c r="I278" s="16"/>
     </row>
-    <row r="279" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A279" s="7" t="s">
         <v>556</v>
       </c>
@@ -23489,7 +23490,7 @@
       </c>
       <c r="I279" s="16"/>
     </row>
-    <row r="280" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A280" s="7" t="s">
         <v>558</v>
       </c>
@@ -23497,7 +23498,7 @@
         <v>559</v>
       </c>
       <c r="C280" s="13" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="D280" s="14"/>
       <c r="E280" s="7" t="s">
@@ -23514,7 +23515,7 @@
       </c>
       <c r="I280" s="16"/>
     </row>
-    <row r="281" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A281" s="7" t="s">
         <v>560</v>
       </c>
@@ -23539,7 +23540,7 @@
       </c>
       <c r="I281" s="16"/>
     </row>
-    <row r="282" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A282" s="7" t="s">
         <v>563</v>
       </c>
@@ -23564,7 +23565,7 @@
       </c>
       <c r="I282" s="16"/>
     </row>
-    <row r="283" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A283" s="7" t="s">
         <v>566</v>
       </c>
@@ -23589,7 +23590,7 @@
       </c>
       <c r="I283" s="16"/>
     </row>
-    <row r="284" spans="1:9" ht="148.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A284" s="7" t="s">
         <v>565</v>
       </c>
@@ -23614,9 +23615,9 @@
       </c>
       <c r="I284" s="16"/>
     </row>
-    <row r="285" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A285" s="7" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B285" s="14" t="s">
         <v>567</v>
@@ -23638,10 +23639,10 @@
         <v>18</v>
       </c>
       <c r="I285" s="16" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A286" s="7" t="s">
         <v>571</v>
       </c>
@@ -23665,10 +23666,10 @@
         <v>18</v>
       </c>
       <c r="I286" s="16" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A287" s="7" t="s">
         <v>574</v>
       </c>
@@ -23693,7 +23694,7 @@
       </c>
       <c r="I287" s="16"/>
     </row>
-    <row r="288" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A288" s="7" t="s">
         <v>576</v>
       </c>
@@ -23718,7 +23719,7 @@
       </c>
       <c r="I288" s="16"/>
     </row>
-    <row r="289" spans="1:9" ht="108" hidden="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A289" s="7" t="s">
         <v>578</v>
       </c>
@@ -23743,7 +23744,7 @@
       </c>
       <c r="I289" s="16"/>
     </row>
-    <row r="290" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A290" s="7" t="s">
         <v>580</v>
       </c>
@@ -23768,7 +23769,7 @@
       </c>
       <c r="I290" s="16"/>
     </row>
-    <row r="291" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A291" s="7" t="s">
         <v>582</v>
       </c>
@@ -23793,7 +23794,7 @@
       </c>
       <c r="I291" s="16"/>
     </row>
-    <row r="292" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A292" s="7" t="s">
         <v>584</v>
       </c>
@@ -23818,7 +23819,7 @@
       </c>
       <c r="I292" s="16"/>
     </row>
-    <row r="293" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A293" s="7" t="s">
         <v>587</v>
       </c>
@@ -23843,7 +23844,7 @@
       </c>
       <c r="I293" s="16"/>
     </row>
-    <row r="294" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A294" s="7" t="s">
         <v>590</v>
       </c>
@@ -23868,7 +23869,7 @@
       </c>
       <c r="I294" s="16"/>
     </row>
-    <row r="295" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A295" s="7" t="s">
         <v>592</v>
       </c>
@@ -23893,7 +23894,7 @@
       </c>
       <c r="I295" s="16"/>
     </row>
-    <row r="296" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A296" s="7" t="s">
         <v>594</v>
       </c>
@@ -23918,7 +23919,7 @@
       </c>
       <c r="I296" s="16"/>
     </row>
-    <row r="297" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A297" s="7" t="s">
         <v>597</v>
       </c>
@@ -23943,7 +23944,7 @@
       </c>
       <c r="I297" s="16"/>
     </row>
-    <row r="298" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A298" s="7" t="s">
         <v>599</v>
       </c>
@@ -23951,7 +23952,7 @@
         <v>600</v>
       </c>
       <c r="C298" s="13" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="D298" s="14"/>
       <c r="E298" s="7" t="s">
@@ -23968,7 +23969,7 @@
       </c>
       <c r="I298" s="16"/>
     </row>
-    <row r="299" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A299" s="7" t="s">
         <v>601</v>
       </c>
@@ -23993,7 +23994,7 @@
       </c>
       <c r="I299" s="16"/>
     </row>
-    <row r="300" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A300" s="7" t="s">
         <v>604</v>
       </c>
@@ -24018,7 +24019,7 @@
       </c>
       <c r="I300" s="16"/>
     </row>
-    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A301" s="7" t="s">
         <v>607</v>
       </c>
@@ -24043,7 +24044,7 @@
       </c>
       <c r="I301" s="16"/>
     </row>
-    <row r="302" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A302" s="7" t="s">
         <v>609</v>
       </c>
@@ -24068,7 +24069,7 @@
       </c>
       <c r="I302" s="16"/>
     </row>
-    <row r="303" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A303" s="7" t="s">
         <v>611</v>
       </c>
@@ -24095,7 +24096,7 @@
       </c>
       <c r="I303" s="16"/>
     </row>
-    <row r="304" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A304" s="7" t="s">
         <v>614</v>
       </c>
@@ -24122,7 +24123,7 @@
       </c>
       <c r="I304" s="16"/>
     </row>
-    <row r="305" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A305" s="7" t="s">
         <v>616</v>
       </c>
@@ -24130,7 +24131,7 @@
         <v>602</v>
       </c>
       <c r="C305" s="13" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D305" s="14"/>
       <c r="E305" s="7" t="s">
@@ -24147,7 +24148,7 @@
       </c>
       <c r="I305" s="16"/>
     </row>
-    <row r="306" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A306" s="7" t="s">
         <v>617</v>
       </c>
@@ -24172,7 +24173,7 @@
       </c>
       <c r="I306" s="16"/>
     </row>
-    <row r="307" spans="1:9" ht="148.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A307" s="7" t="s">
         <v>606</v>
       </c>
@@ -24197,7 +24198,7 @@
       </c>
       <c r="I307" s="16"/>
     </row>
-    <row r="308" spans="1:9" ht="81" hidden="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A308" s="7" t="s">
         <v>621</v>
       </c>
@@ -24222,7 +24223,7 @@
       </c>
       <c r="I308" s="16"/>
     </row>
-    <row r="309" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A309" s="7" t="s">
         <v>623</v>
       </c>
@@ -24247,7 +24248,7 @@
       </c>
       <c r="I309" s="16"/>
     </row>
-    <row r="310" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A310" s="7" t="s">
         <v>626</v>
       </c>
@@ -24272,7 +24273,7 @@
       </c>
       <c r="I310" s="16"/>
     </row>
-    <row r="311" spans="1:9" ht="202.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:9" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A311" s="7" t="s">
         <v>629</v>
       </c>
@@ -24280,7 +24281,7 @@
         <v>627</v>
       </c>
       <c r="C311" s="13" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D311" s="14"/>
       <c r="E311" s="7" t="s">
@@ -24297,7 +24298,7 @@
       </c>
       <c r="I311" s="16"/>
     </row>
-    <row r="312" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A312" s="7" t="s">
         <v>630</v>
       </c>
@@ -24322,7 +24323,7 @@
       </c>
       <c r="I312" s="16"/>
     </row>
-    <row r="313" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A313" s="7" t="s">
         <v>632</v>
       </c>
@@ -24347,7 +24348,7 @@
       </c>
       <c r="I313" s="16"/>
     </row>
-    <row r="314" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A314" s="7" t="s">
         <v>634</v>
       </c>
@@ -24372,7 +24373,7 @@
       </c>
       <c r="I314" s="16"/>
     </row>
-    <row r="315" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A315" s="7" t="s">
         <v>636</v>
       </c>
@@ -24380,7 +24381,7 @@
         <v>627</v>
       </c>
       <c r="C315" s="13" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D315" s="14"/>
       <c r="E315" s="7" t="s">
@@ -24397,7 +24398,7 @@
       </c>
       <c r="I315" s="16"/>
     </row>
-    <row r="316" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A316" s="7" t="s">
         <v>637</v>
       </c>
@@ -24405,7 +24406,7 @@
         <v>627</v>
       </c>
       <c r="C316" s="13" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D316" s="14"/>
       <c r="E316" s="7" t="s">
@@ -24422,7 +24423,7 @@
       </c>
       <c r="I316" s="16"/>
     </row>
-    <row r="317" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A317" s="7" t="s">
         <v>638</v>
       </c>
@@ -24446,10 +24447,10 @@
         <v>18</v>
       </c>
       <c r="I317" s="54" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A318" s="7" t="s">
         <v>641</v>
       </c>
@@ -24474,7 +24475,7 @@
       </c>
       <c r="I318" s="16"/>
     </row>
-    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A319" s="7" t="s">
         <v>643</v>
       </c>
@@ -24499,7 +24500,7 @@
       </c>
       <c r="I319" s="16"/>
     </row>
-    <row r="320" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A320" s="7" t="s">
         <v>645</v>
       </c>
@@ -24524,7 +24525,7 @@
       </c>
       <c r="I320" s="16"/>
     </row>
-    <row r="321" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A321" s="7" t="s">
         <v>647</v>
       </c>
@@ -24549,7 +24550,7 @@
       </c>
       <c r="I321" s="16"/>
     </row>
-    <row r="322" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A322" s="7" t="s">
         <v>649</v>
       </c>
@@ -24574,7 +24575,7 @@
       </c>
       <c r="I322" s="16"/>
     </row>
-    <row r="323" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A323" s="7" t="s">
         <v>651</v>
       </c>
@@ -24598,10 +24599,10 @@
         <v>18</v>
       </c>
       <c r="I323" s="20" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A324" s="7" t="s">
         <v>653</v>
       </c>
@@ -24609,7 +24610,7 @@
         <v>639</v>
       </c>
       <c r="C324" s="13" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="D324" s="14"/>
       <c r="E324" s="7" t="s">
@@ -24626,7 +24627,7 @@
       </c>
       <c r="I324" s="13"/>
     </row>
-    <row r="325" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A325" s="7" t="s">
         <v>654</v>
       </c>
@@ -24651,7 +24652,7 @@
       </c>
       <c r="I325" s="16"/>
     </row>
-    <row r="326" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A326" s="7" t="s">
         <v>657</v>
       </c>
@@ -24676,7 +24677,7 @@
       </c>
       <c r="I326" s="16"/>
     </row>
-    <row r="327" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A327" s="7" t="s">
         <v>660</v>
       </c>
@@ -24701,7 +24702,7 @@
       </c>
       <c r="I327" s="16"/>
     </row>
-    <row r="328" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A328" s="7" t="s">
         <v>662</v>
       </c>
@@ -24726,7 +24727,7 @@
       </c>
       <c r="I328" s="16"/>
     </row>
-    <row r="329" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A329" s="7" t="s">
         <v>664</v>
       </c>
@@ -24751,7 +24752,7 @@
       </c>
       <c r="I329" s="16"/>
     </row>
-    <row r="330" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A330" s="7" t="s">
         <v>667</v>
       </c>
@@ -24776,7 +24777,7 @@
       </c>
       <c r="I330" s="16"/>
     </row>
-    <row r="331" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A331" s="7" t="s">
         <v>669</v>
       </c>
@@ -24784,7 +24785,7 @@
         <v>670</v>
       </c>
       <c r="C331" s="13" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="D331" s="14"/>
       <c r="E331" s="7" t="s">
@@ -24801,7 +24802,7 @@
       </c>
       <c r="I331" s="16"/>
     </row>
-    <row r="332" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A332" s="7" t="s">
         <v>671</v>
       </c>
@@ -24826,7 +24827,7 @@
       </c>
       <c r="I332" s="16"/>
     </row>
-    <row r="333" spans="1:9" ht="283.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:9" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A333" s="7" t="s">
         <v>674</v>
       </c>
@@ -24851,7 +24852,7 @@
       </c>
       <c r="I333" s="16"/>
     </row>
-    <row r="334" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A334" s="7" t="s">
         <v>677</v>
       </c>
@@ -24876,7 +24877,7 @@
       </c>
       <c r="I334" s="16"/>
     </row>
-    <row r="335" spans="1:9" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A335" s="7" t="s">
         <v>679</v>
       </c>
@@ -24901,7 +24902,7 @@
       </c>
       <c r="I335" s="16"/>
     </row>
-    <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A336" s="7" t="s">
         <v>681</v>
       </c>
@@ -24909,7 +24910,7 @@
         <v>672</v>
       </c>
       <c r="C336" s="13" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D336" s="14"/>
       <c r="E336" s="7" t="s">
@@ -24926,7 +24927,7 @@
       </c>
       <c r="I336" s="16"/>
     </row>
-    <row r="337" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A337" s="7" t="s">
         <v>682</v>
       </c>
@@ -24951,7 +24952,7 @@
       </c>
       <c r="I337" s="16"/>
     </row>
-    <row r="338" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A338" s="7" t="s">
         <v>684</v>
       </c>
@@ -24976,7 +24977,7 @@
       </c>
       <c r="I338" s="16"/>
     </row>
-    <row r="339" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A339" s="7" t="s">
         <v>686</v>
       </c>
@@ -25001,7 +25002,7 @@
       </c>
       <c r="I339" s="16"/>
     </row>
-    <row r="340" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A340" s="7" t="s">
         <v>688</v>
       </c>
@@ -25009,7 +25010,7 @@
         <v>672</v>
       </c>
       <c r="C340" s="13" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D340" s="14"/>
       <c r="E340" s="7" t="s">
@@ -25026,7 +25027,7 @@
       </c>
       <c r="I340" s="16"/>
     </row>
-    <row r="341" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A341" s="7" t="s">
         <v>689</v>
       </c>
@@ -25051,7 +25052,7 @@
       </c>
       <c r="I341" s="16"/>
     </row>
-    <row r="342" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A342" s="7" t="s">
         <v>691</v>
       </c>
@@ -25075,10 +25076,10 @@
         <v>18</v>
       </c>
       <c r="I342" s="16" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A343" s="7" t="s">
         <v>693</v>
       </c>
@@ -25103,7 +25104,7 @@
       </c>
       <c r="I343" s="16"/>
     </row>
-    <row r="344" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A344" s="7" t="s">
         <v>695</v>
       </c>
@@ -25111,7 +25112,7 @@
         <v>672</v>
       </c>
       <c r="C344" s="13" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D344" s="14"/>
       <c r="E344" s="7" t="s">
@@ -25128,7 +25129,7 @@
       </c>
       <c r="I344" s="13"/>
     </row>
-    <row r="345" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A345" s="7" t="s">
         <v>696</v>
       </c>
@@ -25153,7 +25154,7 @@
       </c>
       <c r="I345" s="16"/>
     </row>
-    <row r="346" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A346" s="7" t="s">
         <v>698</v>
       </c>
@@ -25178,7 +25179,7 @@
       </c>
       <c r="I346" s="13"/>
     </row>
-    <row r="347" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A347" s="7" t="s">
         <v>700</v>
       </c>
@@ -25203,7 +25204,7 @@
       </c>
       <c r="I347" s="16"/>
     </row>
-    <row r="348" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A348" s="7" t="s">
         <v>702</v>
       </c>
@@ -25211,7 +25212,7 @@
         <v>672</v>
       </c>
       <c r="C348" s="13" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D348" s="14"/>
       <c r="E348" s="7" t="s">
@@ -25228,7 +25229,7 @@
       </c>
       <c r="I348" s="16"/>
     </row>
-    <row r="349" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A349" s="7" t="s">
         <v>703</v>
       </c>
@@ -25253,7 +25254,7 @@
       </c>
       <c r="I349" s="16"/>
     </row>
-    <row r="350" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A350" s="7" t="s">
         <v>705</v>
       </c>
@@ -25278,7 +25279,7 @@
       </c>
       <c r="I350" s="16"/>
     </row>
-    <row r="351" spans="1:9" ht="121.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A351" s="7" t="s">
         <v>676</v>
       </c>
@@ -25303,7 +25304,7 @@
       </c>
       <c r="I351" s="16"/>
     </row>
-    <row r="352" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A352" s="7" t="s">
         <v>709</v>
       </c>
@@ -25311,7 +25312,7 @@
         <v>706</v>
       </c>
       <c r="C352" s="13" t="s">
-        <v>905</v>
+        <v>1214</v>
       </c>
       <c r="D352" s="14"/>
       <c r="E352" s="7" t="s">
@@ -25328,7 +25329,7 @@
       </c>
       <c r="I352" s="16"/>
     </row>
-    <row r="353" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A353" s="7" t="s">
         <v>710</v>
       </c>
@@ -25353,7 +25354,7 @@
       </c>
       <c r="I353" s="16"/>
     </row>
-    <row r="354" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A354" s="7" t="s">
         <v>712</v>
       </c>
@@ -25378,7 +25379,7 @@
       </c>
       <c r="I354" s="13"/>
     </row>
-    <row r="355" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A355" s="7" t="s">
         <v>714</v>
       </c>
@@ -25403,7 +25404,7 @@
       </c>
       <c r="I355" s="16"/>
     </row>
-    <row r="356" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A356" s="7" t="s">
         <v>716</v>
       </c>
@@ -25428,7 +25429,7 @@
       </c>
       <c r="I356" s="16"/>
     </row>
-    <row r="357" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A357" s="21" t="s">
         <v>718</v>
       </c>
@@ -25436,7 +25437,7 @@
         <v>706</v>
       </c>
       <c r="C357" s="23" t="s">
-        <v>1213</v>
+        <v>1205</v>
       </c>
       <c r="D357" s="18"/>
       <c r="E357" s="21" t="s">
@@ -25453,15 +25454,15 @@
       </c>
       <c r="I357" s="23"/>
     </row>
-    <row r="358" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A358" s="58" t="s">
-        <v>1215</v>
+        <v>1207</v>
       </c>
       <c r="B358" s="59" t="s">
         <v>706</v>
       </c>
       <c r="C358" s="60" t="s">
-        <v>1214</v>
+        <v>1206</v>
       </c>
       <c r="D358" s="61"/>
       <c r="E358" s="58" t="s">
@@ -25479,7 +25480,7 @@
       <c r="I358" s="60"/>
       <c r="J358"/>
     </row>
-    <row r="359" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A359" s="7" t="s">
         <v>719</v>
       </c>
@@ -25504,7 +25505,7 @@
       </c>
       <c r="I359" s="16"/>
     </row>
-    <row r="360" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A360" s="7" t="s">
         <v>721</v>
       </c>
@@ -25529,15 +25530,15 @@
       </c>
       <c r="I360" s="16"/>
     </row>
-    <row r="361" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A361" s="62" t="s">
-        <v>1216</v>
+        <v>1208</v>
       </c>
       <c r="B361" s="83" t="s">
         <v>706</v>
       </c>
       <c r="C361" s="84" t="s">
-        <v>1217</v>
+        <v>1209</v>
       </c>
       <c r="D361" s="85"/>
       <c r="E361" s="62" t="s">
@@ -25555,7 +25556,7 @@
       <c r="I361" s="84"/>
       <c r="J361"/>
     </row>
-    <row r="362" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A362" s="7" t="s">
         <v>723</v>
       </c>
@@ -25563,7 +25564,7 @@
         <v>724</v>
       </c>
       <c r="C362" s="13" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D362" s="14"/>
       <c r="E362" s="7" t="s">
@@ -25579,10 +25580,10 @@
         <v>18</v>
       </c>
       <c r="I362" s="16" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="363" spans="1:10" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A363" s="7" t="s">
         <v>725</v>
       </c>
@@ -25607,7 +25608,7 @@
       </c>
       <c r="I363" s="16"/>
     </row>
-    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A364" s="7" t="s">
         <v>727</v>
       </c>
@@ -25632,7 +25633,7 @@
       </c>
       <c r="I364" s="16"/>
     </row>
-    <row r="365" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A365" s="7" t="s">
         <v>729</v>
       </c>
@@ -25657,7 +25658,7 @@
       </c>
       <c r="I365" s="16"/>
     </row>
-    <row r="366" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A366" s="7" t="s">
         <v>731</v>
       </c>
@@ -25682,7 +25683,7 @@
       </c>
       <c r="I366" s="16"/>
     </row>
-    <row r="367" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A367" s="7" t="s">
         <v>733</v>
       </c>
@@ -25707,7 +25708,7 @@
       </c>
       <c r="I367" s="16"/>
     </row>
-    <row r="368" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A368" s="7" t="s">
         <v>735</v>
       </c>
@@ -25732,7 +25733,7 @@
       </c>
       <c r="I368" s="16"/>
     </row>
-    <row r="369" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A369" s="7" t="s">
         <v>737</v>
       </c>
@@ -25757,7 +25758,7 @@
       </c>
       <c r="I369" s="16"/>
     </row>
-    <row r="370" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A370" s="7" t="s">
         <v>740</v>
       </c>
@@ -25765,7 +25766,7 @@
         <v>741</v>
       </c>
       <c r="C370" s="13" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="D370" s="14"/>
       <c r="E370" s="7" t="s">
@@ -25782,7 +25783,7 @@
       </c>
       <c r="I370" s="16"/>
     </row>
-    <row r="371" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A371" s="7" t="s">
         <v>742</v>
       </c>
@@ -25807,7 +25808,7 @@
       </c>
       <c r="I371" s="16"/>
     </row>
-    <row r="372" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A372" s="7" t="s">
         <v>744</v>
       </c>
@@ -25832,7 +25833,7 @@
       </c>
       <c r="I372" s="16"/>
     </row>
-    <row r="373" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A373" s="7" t="s">
         <v>746</v>
       </c>
@@ -25840,7 +25841,7 @@
         <v>747</v>
       </c>
       <c r="C373" s="13" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="D373" s="14"/>
       <c r="E373" s="7" t="s">
@@ -25857,7 +25858,7 @@
       </c>
       <c r="I373" s="16"/>
     </row>
-    <row r="374" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A374" s="7" t="s">
         <v>748</v>
       </c>
@@ -25882,7 +25883,7 @@
       </c>
       <c r="I374" s="16"/>
     </row>
-    <row r="375" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A375" s="7" t="s">
         <v>750</v>
       </c>
@@ -25890,7 +25891,7 @@
         <v>751</v>
       </c>
       <c r="C375" s="13" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="D375" s="14"/>
       <c r="E375" s="7" t="s">
@@ -25907,7 +25908,7 @@
       </c>
       <c r="I375" s="16"/>
     </row>
-    <row r="376" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A376" s="7" t="s">
         <v>752</v>
       </c>
@@ -25932,7 +25933,7 @@
       </c>
       <c r="I376" s="16"/>
     </row>
-    <row r="377" spans="1:9" ht="364.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:9" ht="364.5" x14ac:dyDescent="0.15">
       <c r="A377" s="7" t="s">
         <v>755</v>
       </c>
@@ -25957,7 +25958,7 @@
       </c>
       <c r="I377" s="16"/>
     </row>
-    <row r="378" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A378" s="7" t="s">
         <v>758</v>
       </c>
@@ -25982,7 +25983,7 @@
       </c>
       <c r="I378" s="16"/>
     </row>
-    <row r="379" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A379" s="7" t="s">
         <v>760</v>
       </c>
@@ -26007,7 +26008,7 @@
       </c>
       <c r="I379" s="16"/>
     </row>
-    <row r="380" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A380" s="7" t="s">
         <v>762</v>
       </c>
@@ -26032,7 +26033,7 @@
       </c>
       <c r="I380" s="16"/>
     </row>
-    <row r="381" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A381" s="7" t="s">
         <v>764</v>
       </c>
@@ -26057,7 +26058,7 @@
       </c>
       <c r="I381" s="16"/>
     </row>
-    <row r="382" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A382" s="7" t="s">
         <v>766</v>
       </c>
@@ -26082,7 +26083,7 @@
       </c>
       <c r="I382" s="16"/>
     </row>
-    <row r="383" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A383" s="7" t="s">
         <v>768</v>
       </c>
@@ -26107,7 +26108,7 @@
       </c>
       <c r="I383" s="16"/>
     </row>
-    <row r="384" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A384" s="7" t="s">
         <v>770</v>
       </c>
@@ -26132,7 +26133,7 @@
       </c>
       <c r="I384" s="16"/>
     </row>
-    <row r="385" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A385" s="7" t="s">
         <v>772</v>
       </c>
@@ -26157,7 +26158,7 @@
       </c>
       <c r="I385" s="16"/>
     </row>
-    <row r="386" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A386" s="7" t="s">
         <v>774</v>
       </c>
@@ -26182,7 +26183,7 @@
       </c>
       <c r="I386" s="16"/>
     </row>
-    <row r="387" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A387" s="7" t="s">
         <v>776</v>
       </c>
@@ -26207,7 +26208,7 @@
       </c>
       <c r="I387" s="16"/>
     </row>
-    <row r="388" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A388" s="7" t="s">
         <v>778</v>
       </c>
@@ -26232,7 +26233,7 @@
       </c>
       <c r="I388" s="16"/>
     </row>
-    <row r="389" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A389" s="7" t="s">
         <v>780</v>
       </c>
@@ -26257,7 +26258,7 @@
       </c>
       <c r="I389" s="16"/>
     </row>
-    <row r="390" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A390" s="7" t="s">
         <v>782</v>
       </c>
@@ -26282,7 +26283,7 @@
       </c>
       <c r="I390" s="16"/>
     </row>
-    <row r="391" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A391" s="7" t="s">
         <v>784</v>
       </c>
@@ -26307,7 +26308,7 @@
       </c>
       <c r="I391" s="13"/>
     </row>
-    <row r="392" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A392" s="7" t="s">
         <v>786</v>
       </c>
@@ -26332,7 +26333,7 @@
       </c>
       <c r="I392" s="13"/>
     </row>
-    <row r="393" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A393" s="7" t="s">
         <v>788</v>
       </c>
@@ -26357,7 +26358,7 @@
       </c>
       <c r="I393" s="16"/>
     </row>
-    <row r="394" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A394" s="7" t="s">
         <v>790</v>
       </c>
@@ -26382,7 +26383,7 @@
       </c>
       <c r="I394" s="16"/>
     </row>
-    <row r="395" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A395" s="7" t="s">
         <v>792</v>
       </c>
@@ -26407,7 +26408,7 @@
       </c>
       <c r="I395" s="16"/>
     </row>
-    <row r="396" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A396" s="7" t="s">
         <v>794</v>
       </c>
@@ -26432,7 +26433,7 @@
       </c>
       <c r="I396" s="16"/>
     </row>
-    <row r="397" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A397" s="7" t="s">
         <v>796</v>
       </c>
@@ -26457,7 +26458,7 @@
       </c>
       <c r="I397" s="16"/>
     </row>
-    <row r="398" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A398" s="7" t="s">
         <v>798</v>
       </c>
@@ -26482,7 +26483,7 @@
       </c>
       <c r="I398" s="16"/>
     </row>
-    <row r="399" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A399" s="7" t="s">
         <v>800</v>
       </c>
@@ -26490,7 +26491,7 @@
         <v>753</v>
       </c>
       <c r="C399" s="13" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D399" s="14"/>
       <c r="E399" s="7" t="s">
@@ -26507,7 +26508,7 @@
       </c>
       <c r="I399" s="13"/>
     </row>
-    <row r="400" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A400" s="7" t="s">
         <v>801</v>
       </c>
@@ -26515,7 +26516,7 @@
         <v>753</v>
       </c>
       <c r="C400" s="13" t="s">
-        <v>1023</v>
+        <v>1218</v>
       </c>
       <c r="D400" s="14"/>
       <c r="E400" s="7" t="s">
@@ -26531,10 +26532,10 @@
         <v>18</v>
       </c>
       <c r="I400" s="13" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="401" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A401" s="7" t="s">
         <v>802</v>
       </c>
@@ -26542,7 +26543,7 @@
         <v>753</v>
       </c>
       <c r="C401" s="13" t="s">
-        <v>1024</v>
+        <v>1215</v>
       </c>
       <c r="D401" s="14"/>
       <c r="E401" s="7" t="s">
@@ -26558,10 +26559,10 @@
         <v>18</v>
       </c>
       <c r="I401" s="13" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="402" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A402" s="7" t="s">
         <v>803</v>
       </c>
@@ -26586,7 +26587,7 @@
       </c>
       <c r="I402" s="16"/>
     </row>
-    <row r="403" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:9" ht="270" x14ac:dyDescent="0.15">
       <c r="A403" s="7" t="s">
         <v>757</v>
       </c>
@@ -26611,7 +26612,7 @@
       </c>
       <c r="I403" s="16"/>
     </row>
-    <row r="404" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A404" s="7" t="s">
         <v>807</v>
       </c>
@@ -26636,7 +26637,7 @@
       </c>
       <c r="I404" s="16"/>
     </row>
-    <row r="405" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A405" s="7" t="s">
         <v>809</v>
       </c>
@@ -26644,7 +26645,7 @@
         <v>810</v>
       </c>
       <c r="C405" s="13" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="D405" s="14"/>
       <c r="E405" s="7" t="s">
@@ -26660,10 +26661,10 @@
         <v>18</v>
       </c>
       <c r="I405" s="16" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="406" spans="1:9" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A406" s="7" t="s">
         <v>811</v>
       </c>
@@ -26688,7 +26689,7 @@
       </c>
       <c r="I406" s="16"/>
     </row>
-    <row r="407" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A407" s="7" t="s">
         <v>813</v>
       </c>
@@ -26713,7 +26714,7 @@
       </c>
       <c r="I407" s="16"/>
     </row>
-    <row r="408" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A408" s="7" t="s">
         <v>815</v>
       </c>
@@ -26738,7 +26739,7 @@
       </c>
       <c r="I408" s="16"/>
     </row>
-    <row r="409" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A409" s="7" t="s">
         <v>817</v>
       </c>
@@ -26763,7 +26764,7 @@
       </c>
       <c r="I409" s="16"/>
     </row>
-    <row r="410" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A410" s="7" t="s">
         <v>819</v>
       </c>
@@ -26788,7 +26789,7 @@
       </c>
       <c r="I410" s="16"/>
     </row>
-    <row r="411" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A411" s="7" t="s">
         <v>822</v>
       </c>
@@ -26796,7 +26797,7 @@
         <v>823</v>
       </c>
       <c r="C411" s="13" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="D411" s="14"/>
       <c r="E411" s="7" t="s">
@@ -26813,7 +26814,7 @@
       </c>
       <c r="I411" s="16"/>
     </row>
-    <row r="412" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A412" s="7" t="s">
         <v>824</v>
       </c>
@@ -26838,7 +26839,7 @@
       </c>
       <c r="I412" s="16"/>
     </row>
-    <row r="413" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A413" s="7" t="s">
         <v>826</v>
       </c>
@@ -26863,7 +26864,7 @@
       </c>
       <c r="I413" s="16"/>
     </row>
-    <row r="414" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A414" s="7" t="s">
         <v>828</v>
       </c>
@@ -26871,7 +26872,7 @@
         <v>829</v>
       </c>
       <c r="C414" s="13" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="D414" s="14"/>
       <c r="E414" s="7" t="s">
@@ -26888,7 +26889,7 @@
       </c>
       <c r="I414" s="16"/>
     </row>
-    <row r="415" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A415" s="7" t="s">
         <v>830</v>
       </c>
@@ -26913,15 +26914,15 @@
       </c>
       <c r="I415" s="16"/>
     </row>
-    <row r="416" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A416" s="7" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B416" s="14" t="s">
         <v>832</v>
       </c>
       <c r="C416" s="13" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="D416" s="14"/>
       <c r="E416" s="7" t="s">
@@ -26938,7 +26939,7 @@
       </c>
       <c r="I416" s="16"/>
     </row>
-    <row r="417" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A417" s="7" t="s">
         <v>833</v>
       </c>
@@ -26963,7 +26964,7 @@
       </c>
       <c r="I417" s="16"/>
     </row>
-    <row r="418" spans="1:9" ht="121.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A418" s="7" t="s">
         <v>836</v>
       </c>
@@ -26988,7 +26989,7 @@
       </c>
       <c r="I418" s="16"/>
     </row>
-    <row r="419" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A419" s="7" t="s">
         <v>839</v>
       </c>
@@ -27013,9 +27014,9 @@
       </c>
       <c r="I419" s="16"/>
     </row>
-    <row r="420" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A420" s="7" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B420" s="14" t="s">
         <v>841</v>
@@ -27038,7 +27039,7 @@
       </c>
       <c r="I420" s="16"/>
     </row>
-    <row r="421" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A421" s="7" t="s">
         <v>838</v>
       </c>
@@ -27063,15 +27064,15 @@
       </c>
       <c r="I421" s="16"/>
     </row>
-    <row r="422" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A422" s="7" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="B422" s="11" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="C422" s="13" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="D422" s="53"/>
       <c r="E422" s="7" t="s">
@@ -27087,18 +27088,18 @@
         <v>18</v>
       </c>
       <c r="I422" s="54" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="423" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A423" s="7" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="B423" s="11" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="C423" s="13" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="D423" s="53"/>
       <c r="E423" s="7" t="s">
@@ -27115,15 +27116,15 @@
       </c>
       <c r="I423" s="54"/>
     </row>
-    <row r="424" spans="1:9" ht="81" hidden="1" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A424" s="7" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="B424" s="11" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="C424" s="13" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="D424" s="53"/>
       <c r="E424" s="7" t="s">
@@ -27140,15 +27141,15 @@
       </c>
       <c r="I424" s="54"/>
     </row>
-    <row r="425" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A425" s="7" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="B425" s="11" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="C425" s="13" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="D425" s="53"/>
       <c r="E425" s="7" t="s">
@@ -27165,15 +27166,15 @@
       </c>
       <c r="I425" s="54"/>
     </row>
-    <row r="426" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A426" s="7" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="B426" s="11" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C426" s="13" t="s">
         <v>1040</v>
-      </c>
-      <c r="C426" s="13" t="s">
-        <v>1043</v>
       </c>
       <c r="D426" s="53"/>
       <c r="E426" s="7" t="s">
@@ -27190,15 +27191,15 @@
       </c>
       <c r="I426" s="54"/>
     </row>
-    <row r="427" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A427" s="7" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="B427" s="11" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="C427" s="13" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="D427" s="53"/>
       <c r="E427" s="7" t="s">
@@ -27215,15 +27216,15 @@
       </c>
       <c r="I427" s="54"/>
     </row>
-    <row r="428" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A428" s="7" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="B428" s="19" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="C428" s="13" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="D428" s="53"/>
       <c r="E428" s="7" t="s">
@@ -27240,15 +27241,15 @@
       </c>
       <c r="I428" s="54"/>
     </row>
-    <row r="429" spans="1:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A429" s="7" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="B429" s="19" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="C429" s="13" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="D429" s="53"/>
       <c r="E429" s="7" t="s">
@@ -27265,15 +27266,15 @@
       </c>
       <c r="I429" s="54"/>
     </row>
-    <row r="430" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A430" s="7" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="B430" s="19" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="C430" s="13" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D430" s="53"/>
       <c r="E430" s="7" t="s">
@@ -27290,15 +27291,15 @@
       </c>
       <c r="I430" s="54"/>
     </row>
-    <row r="431" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A431" s="7" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B431" s="19" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="C431" s="13" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="D431" s="53"/>
       <c r="E431" s="7" t="s">
@@ -27315,15 +27316,15 @@
       </c>
       <c r="I431" s="54"/>
     </row>
-    <row r="432" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A432" s="7" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="B432" s="19" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="C432" s="13" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D432" s="53"/>
       <c r="E432" s="7" t="s">
@@ -27340,15 +27341,15 @@
       </c>
       <c r="I432" s="54"/>
     </row>
-    <row r="433" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A433" s="7" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="B433" s="19" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="C433" s="13" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="D433" s="53"/>
       <c r="E433" s="7" t="s">
@@ -27365,15 +27366,15 @@
       </c>
       <c r="I433" s="54"/>
     </row>
-    <row r="434" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A434" s="7" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="B434" s="19" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="C434" s="13" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="D434" s="53"/>
       <c r="E434" s="7" t="s">
@@ -27390,15 +27391,15 @@
       </c>
       <c r="I434" s="54"/>
     </row>
-    <row r="435" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A435" s="7" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="B435" s="19" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="C435" s="13" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="D435" s="53"/>
       <c r="E435" s="7" t="s">
@@ -27415,15 +27416,15 @@
       </c>
       <c r="I435" s="54"/>
     </row>
-    <row r="436" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A436" s="7" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="B436" s="19" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C436" s="13" t="s">
         <v>1088</v>
-      </c>
-      <c r="C436" s="13" t="s">
-        <v>1091</v>
       </c>
       <c r="D436" s="53"/>
       <c r="E436" s="7" t="s">
@@ -27440,15 +27441,15 @@
       </c>
       <c r="I436" s="54"/>
     </row>
-    <row r="437" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A437" s="7" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="B437" s="19" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="C437" s="13" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="D437" s="53"/>
       <c r="E437" s="7" t="s">
@@ -27465,15 +27466,15 @@
       </c>
       <c r="I437" s="54"/>
     </row>
-    <row r="438" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A438" s="7" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="B438" s="19" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="C438" s="13" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="D438" s="53"/>
       <c r="E438" s="7" t="s">
@@ -27490,15 +27491,15 @@
       </c>
       <c r="I438" s="54"/>
     </row>
-    <row r="439" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A439" s="7" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="B439" s="19" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="C439" s="13" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="D439" s="53"/>
       <c r="E439" s="7" t="s">
@@ -27515,15 +27516,15 @@
       </c>
       <c r="I439" s="54"/>
     </row>
-    <row r="440" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A440" s="7" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="B440" s="19" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="C440" s="13" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="D440" s="53"/>
       <c r="E440" s="7" t="s">
@@ -27540,15 +27541,15 @@
       </c>
       <c r="I440" s="54"/>
     </row>
-    <row r="441" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A441" s="7" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="B441" s="19" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="C441" s="13" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="D441" s="53"/>
       <c r="E441" s="7" t="s">
@@ -27565,15 +27566,15 @@
       </c>
       <c r="I441" s="54"/>
     </row>
-    <row r="442" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A442" s="7" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="B442" s="19" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="C442" s="13" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="D442" s="53"/>
       <c r="E442" s="7" t="s">
@@ -27590,15 +27591,15 @@
       </c>
       <c r="I442" s="54"/>
     </row>
-    <row r="443" spans="1:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A443" s="7" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="B443" s="19" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="C443" s="13" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="D443" s="53"/>
       <c r="E443" s="7" t="s">
@@ -27615,15 +27616,15 @@
       </c>
       <c r="I443" s="54"/>
     </row>
-    <row r="444" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A444" s="7" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="B444" s="19" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="C444" s="13" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="D444" s="53"/>
       <c r="E444" s="7" t="s">
@@ -27640,15 +27641,15 @@
       </c>
       <c r="I444" s="54"/>
     </row>
-    <row r="445" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A445" s="7" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="B445" s="19" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="C445" s="13" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="D445" s="53"/>
       <c r="E445" s="7" t="s">
@@ -27665,15 +27666,15 @@
       </c>
       <c r="I445" s="54"/>
     </row>
-    <row r="446" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A446" s="7" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="B446" s="19" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="C446" s="13" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="D446" s="53"/>
       <c r="E446" s="7" t="s">
@@ -27690,15 +27691,15 @@
       </c>
       <c r="I446" s="54"/>
     </row>
-    <row r="447" spans="1:9" ht="108" hidden="1" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A447" s="7" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="B447" s="19" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C447" s="13" t="s">
         <v>1099</v>
-      </c>
-      <c r="C447" s="13" t="s">
-        <v>1102</v>
       </c>
       <c r="D447" s="53"/>
       <c r="E447" s="7" t="s">
@@ -27715,15 +27716,15 @@
       </c>
       <c r="I447" s="54"/>
     </row>
-    <row r="448" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A448" s="7" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="B448" s="19" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="C448" s="13" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="D448" s="53"/>
       <c r="E448" s="7" t="s">
@@ -27736,19 +27737,19 @@
         <v>16</v>
       </c>
       <c r="H448" s="17" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
       <c r="I448" s="54"/>
     </row>
-    <row r="449" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A449" s="7" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
       <c r="B449" s="19" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="C449" s="13" t="s">
-        <v>1131</v>
+        <v>1123</v>
       </c>
       <c r="D449" s="53"/>
       <c r="E449" s="7" t="s">
@@ -27761,19 +27762,19 @@
         <v>16</v>
       </c>
       <c r="H449" s="17" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
       <c r="I449" s="54"/>
     </row>
-    <row r="450" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A450" s="7" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="B450" s="19" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="C450" s="13" t="s">
-        <v>1132</v>
+        <v>1124</v>
       </c>
       <c r="D450" s="53"/>
       <c r="E450" s="7" t="s">
@@ -27786,19 +27787,19 @@
         <v>16</v>
       </c>
       <c r="H450" s="17" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
       <c r="I450" s="54"/>
     </row>
-    <row r="451" spans="1:10" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A451" s="58" t="s">
-        <v>1136</v>
+        <v>1128</v>
       </c>
       <c r="B451" s="59" t="s">
-        <v>1137</v>
+        <v>1129</v>
       </c>
       <c r="C451" s="60" t="s">
-        <v>1142</v>
+        <v>1134</v>
       </c>
       <c r="D451" s="61"/>
       <c r="E451" s="58" t="s">
@@ -27814,19 +27815,19 @@
         <v>18</v>
       </c>
       <c r="I451" s="60" t="s">
-        <v>1138</v>
+        <v>1130</v>
       </c>
       <c r="J451"/>
     </row>
-    <row r="452" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A452" s="58" t="s">
-        <v>1143</v>
+        <v>1135</v>
       </c>
       <c r="B452" s="59" t="s">
-        <v>1137</v>
+        <v>1129</v>
       </c>
       <c r="C452" s="13" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="D452" s="53"/>
       <c r="E452" s="58" t="s">
@@ -27844,22 +27845,22 @@
       <c r="I452" s="54"/>
       <c r="J452"/>
     </row>
-    <row r="453" spans="1:10" ht="121.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:10" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A453" s="65" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="B453" s="67" t="s">
-        <v>1137</v>
+        <v>1129</v>
       </c>
       <c r="C453" s="60" t="s">
-        <v>1147</v>
+        <v>1139</v>
       </c>
       <c r="D453" s="63"/>
       <c r="E453" s="36" t="s">
         <v>20</v>
       </c>
       <c r="F453" s="58" t="s">
-        <v>1150</v>
+        <v>1142</v>
       </c>
       <c r="G453" s="55" t="s">
         <v>16</v>
@@ -27869,15 +27870,15 @@
       </c>
       <c r="I453" s="66"/>
     </row>
-    <row r="454" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A454" s="68" t="s">
-        <v>1148</v>
+        <v>1140</v>
       </c>
       <c r="B454" s="69" t="s">
-        <v>1137</v>
+        <v>1129</v>
       </c>
       <c r="C454" s="70" t="s">
-        <v>1149</v>
+        <v>1141</v>
       </c>
       <c r="D454" s="71"/>
       <c r="E454" s="72" t="s">
@@ -27894,15 +27895,15 @@
       </c>
       <c r="I454" s="76"/>
     </row>
-    <row r="455" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A455" s="77" t="s">
-        <v>1151</v>
+        <v>1143</v>
       </c>
       <c r="B455" s="82" t="s">
-        <v>1137</v>
+        <v>1129</v>
       </c>
       <c r="C455" s="81" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="D455" s="78"/>
       <c r="E455" s="77" t="s">
@@ -27920,15 +27921,15 @@
       <c r="I455" s="81"/>
       <c r="J455"/>
     </row>
-    <row r="456" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A456" s="77" t="s">
-        <v>1153</v>
+        <v>1145</v>
       </c>
       <c r="B456" s="82" t="s">
-        <v>1154</v>
+        <v>1146</v>
       </c>
       <c r="C456" s="81" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="D456" s="78"/>
       <c r="E456" s="77" t="s">
@@ -27946,15 +27947,15 @@
       <c r="I456" s="81"/>
       <c r="J456"/>
     </row>
-    <row r="457" spans="1:10" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A457" s="77" t="s">
-        <v>1155</v>
+        <v>1147</v>
       </c>
       <c r="B457" s="82" t="s">
-        <v>1166</v>
+        <v>1158</v>
       </c>
       <c r="C457" s="81" t="s">
-        <v>1156</v>
+        <v>1148</v>
       </c>
       <c r="D457" s="78"/>
       <c r="E457" s="77" t="s">
@@ -27972,15 +27973,15 @@
       <c r="I457" s="81"/>
       <c r="J457"/>
     </row>
-    <row r="458" spans="1:10" ht="81" hidden="1" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A458" s="77" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="B458" s="78" t="s">
-        <v>1166</v>
+        <v>1158</v>
       </c>
       <c r="C458" s="81" t="s">
-        <v>1158</v>
+        <v>1150</v>
       </c>
       <c r="D458" s="78"/>
       <c r="E458" s="77" t="s">
@@ -27998,15 +27999,15 @@
       <c r="I458" s="81"/>
       <c r="J458"/>
     </row>
-    <row r="459" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A459" s="77" t="s">
-        <v>1160</v>
+        <v>1152</v>
       </c>
       <c r="B459" s="78" t="s">
-        <v>1166</v>
+        <v>1158</v>
       </c>
       <c r="C459" s="81" t="s">
-        <v>1159</v>
+        <v>1151</v>
       </c>
       <c r="D459" s="78"/>
       <c r="E459" s="77" t="s">
@@ -28024,15 +28025,15 @@
       <c r="I459" s="81"/>
       <c r="J459"/>
     </row>
-    <row r="460" spans="1:10" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A460" s="77" t="s">
-        <v>1162</v>
+        <v>1154</v>
       </c>
       <c r="B460" s="78" t="s">
-        <v>1167</v>
+        <v>1159</v>
       </c>
       <c r="C460" s="81" t="s">
-        <v>1161</v>
+        <v>1153</v>
       </c>
       <c r="D460" s="78"/>
       <c r="E460" s="77" t="s">
@@ -28050,15 +28051,15 @@
       <c r="I460" s="81"/>
       <c r="J460"/>
     </row>
-    <row r="461" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A461" s="77" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
       <c r="B461" s="78" t="s">
-        <v>1167</v>
+        <v>1159</v>
       </c>
       <c r="C461" s="81" t="s">
-        <v>1164</v>
+        <v>1156</v>
       </c>
       <c r="D461" s="78"/>
       <c r="E461" s="77" t="s">
@@ -28076,15 +28077,15 @@
       <c r="I461" s="60"/>
       <c r="J461"/>
     </row>
-    <row r="462" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A462" s="77" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="B462" s="78" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
       <c r="C462" s="81" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="D462" s="78"/>
       <c r="E462" s="77" t="s">
@@ -28102,15 +28103,15 @@
       <c r="I462" s="60"/>
       <c r="J462"/>
     </row>
-    <row r="463" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A463" s="77" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
       <c r="B463" s="78" t="s">
-        <v>1170</v>
+        <v>1162</v>
       </c>
       <c r="C463" s="81" t="s">
-        <v>1171</v>
+        <v>1163</v>
       </c>
       <c r="D463" s="78"/>
       <c r="E463" s="77" t="s">
@@ -28128,15 +28129,15 @@
       <c r="I463" s="60"/>
       <c r="J463"/>
     </row>
-    <row r="464" spans="1:10" ht="148.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:10" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A464" s="77" t="s">
-        <v>1172</v>
+        <v>1164</v>
       </c>
       <c r="B464" s="78" t="s">
-        <v>1170</v>
+        <v>1162</v>
       </c>
       <c r="C464" s="81" t="s">
-        <v>1173</v>
+        <v>1165</v>
       </c>
       <c r="D464" s="78"/>
       <c r="E464" s="77" t="s">
@@ -28154,15 +28155,15 @@
       <c r="I464" s="60"/>
       <c r="J464"/>
     </row>
-    <row r="465" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A465" s="77" t="s">
-        <v>1174</v>
+        <v>1166</v>
       </c>
       <c r="B465" s="78" t="s">
-        <v>1170</v>
+        <v>1162</v>
       </c>
       <c r="C465" s="81" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="D465" s="78"/>
       <c r="E465" s="77" t="s">
@@ -28180,15 +28181,15 @@
       <c r="I465" s="60"/>
       <c r="J465"/>
     </row>
-    <row r="466" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A466" s="77" t="s">
-        <v>1177</v>
+        <v>1169</v>
       </c>
       <c r="B466" s="78" t="s">
-        <v>1170</v>
+        <v>1162</v>
       </c>
       <c r="C466" s="81" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="D466" s="78"/>
       <c r="E466" s="77" t="s">
@@ -28206,15 +28207,15 @@
       <c r="I466" s="60"/>
       <c r="J466"/>
     </row>
-    <row r="467" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A467" s="77" t="s">
-        <v>1178</v>
+        <v>1170</v>
       </c>
       <c r="B467" s="78" t="s">
-        <v>1170</v>
+        <v>1162</v>
       </c>
       <c r="C467" s="81" t="s">
-        <v>1179</v>
+        <v>1171</v>
       </c>
       <c r="D467" s="78"/>
       <c r="E467" s="77" t="s">
@@ -28232,15 +28233,15 @@
       <c r="I467" s="60"/>
       <c r="J467"/>
     </row>
-    <row r="468" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A468" s="77" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="B468" s="78" t="s">
-        <v>1170</v>
+        <v>1162</v>
       </c>
       <c r="C468" s="81" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="D468" s="78"/>
       <c r="E468" s="77" t="s">
@@ -28258,15 +28259,15 @@
       <c r="I468" s="60"/>
       <c r="J468"/>
     </row>
-    <row r="469" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A469" s="77" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="B469" s="78" t="s">
-        <v>1183</v>
+        <v>1175</v>
       </c>
       <c r="C469" s="81" t="s">
-        <v>1184</v>
+        <v>1176</v>
       </c>
       <c r="D469" s="78"/>
       <c r="E469" s="77" t="s">
@@ -28284,15 +28285,15 @@
       <c r="I469" s="60"/>
       <c r="J469"/>
     </row>
-    <row r="470" spans="1:10" ht="148.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:10" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A470" s="77" t="s">
-        <v>1185</v>
+        <v>1177</v>
       </c>
       <c r="B470" s="78" t="s">
-        <v>1183</v>
+        <v>1175</v>
       </c>
       <c r="C470" s="81" t="s">
-        <v>1186</v>
+        <v>1178</v>
       </c>
       <c r="D470" s="78"/>
       <c r="E470" s="77" t="s">
@@ -28310,15 +28311,15 @@
       <c r="I470" s="60"/>
       <c r="J470"/>
     </row>
-    <row r="471" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A471" s="77" t="s">
-        <v>1187</v>
+        <v>1179</v>
       </c>
       <c r="B471" s="78" t="s">
-        <v>1183</v>
+        <v>1175</v>
       </c>
       <c r="C471" s="81" t="s">
-        <v>1188</v>
+        <v>1180</v>
       </c>
       <c r="D471" s="78"/>
       <c r="E471" s="77" t="s">
@@ -28336,15 +28337,15 @@
       <c r="I471" s="60"/>
       <c r="J471"/>
     </row>
-    <row r="472" spans="1:10" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A472" s="77" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
       <c r="B472" s="78" t="s">
-        <v>1183</v>
+        <v>1175</v>
       </c>
       <c r="C472" s="81" t="s">
-        <v>1189</v>
+        <v>1181</v>
       </c>
       <c r="D472" s="78"/>
       <c r="E472" s="77" t="s">
@@ -28362,15 +28363,15 @@
       <c r="I472" s="60"/>
       <c r="J472"/>
     </row>
-    <row r="473" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A473" s="77" t="s">
-        <v>1191</v>
+        <v>1183</v>
       </c>
       <c r="B473" s="78" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
       <c r="C473" s="81" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="D473" s="78"/>
       <c r="E473" s="77" t="s">
@@ -28388,15 +28389,15 @@
       <c r="I473" s="60"/>
       <c r="J473"/>
     </row>
-    <row r="474" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A474" s="77" t="s">
-        <v>1192</v>
+        <v>1184</v>
       </c>
       <c r="B474" s="78" t="s">
-        <v>1194</v>
+        <v>1186</v>
       </c>
       <c r="C474" s="81" t="s">
-        <v>1196</v>
+        <v>1188</v>
       </c>
       <c r="D474" s="78"/>
       <c r="E474" s="77" t="s">
@@ -28414,15 +28415,15 @@
       <c r="I474" s="60"/>
       <c r="J474"/>
     </row>
-    <row r="475" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A475" s="77" t="s">
-        <v>1195</v>
+        <v>1187</v>
       </c>
       <c r="B475" s="78" t="s">
-        <v>1199</v>
+        <v>1191</v>
       </c>
       <c r="C475" s="81" t="s">
-        <v>1197</v>
+        <v>1189</v>
       </c>
       <c r="D475" s="78"/>
       <c r="E475" s="77" t="s">
@@ -28440,15 +28441,15 @@
       <c r="I475" s="60"/>
       <c r="J475"/>
     </row>
-    <row r="476" spans="1:10" ht="108" hidden="1" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:10" ht="108" x14ac:dyDescent="0.15">
       <c r="A476" s="77" t="s">
-        <v>1198</v>
+        <v>1190</v>
       </c>
       <c r="B476" s="78" t="s">
-        <v>1199</v>
+        <v>1191</v>
       </c>
       <c r="C476" s="81" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="D476" s="78"/>
       <c r="E476" s="77" t="s">
@@ -28466,15 +28467,15 @@
       <c r="I476" s="60"/>
       <c r="J476"/>
     </row>
-    <row r="477" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A477" s="77" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="B477" s="78" t="s">
-        <v>1199</v>
+        <v>1191</v>
       </c>
       <c r="C477" s="81" t="s">
-        <v>1203</v>
+        <v>1195</v>
       </c>
       <c r="D477" s="78"/>
       <c r="E477" s="77" t="s">
@@ -28487,20 +28488,20 @@
         <v>16</v>
       </c>
       <c r="H477" s="80" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
       <c r="I477" s="60"/>
       <c r="J477"/>
     </row>
-    <row r="478" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A478" s="77" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
       <c r="B478" s="78" t="s">
-        <v>1199</v>
+        <v>1191</v>
       </c>
       <c r="C478" s="81" t="s">
-        <v>1204</v>
+        <v>1196</v>
       </c>
       <c r="D478" s="78"/>
       <c r="E478" s="77" t="s">
@@ -28513,20 +28514,20 @@
         <v>16</v>
       </c>
       <c r="H478" s="80" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
       <c r="I478" s="60"/>
       <c r="J478"/>
     </row>
-    <row r="479" spans="1:10" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A479" s="77" t="s">
-        <v>1202</v>
+        <v>1194</v>
       </c>
       <c r="B479" s="78" t="s">
-        <v>1199</v>
+        <v>1191</v>
       </c>
       <c r="C479" s="81" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="D479" s="78"/>
       <c r="E479" s="77" t="s">
@@ -28539,7 +28540,7 @@
         <v>16</v>
       </c>
       <c r="H479" s="80" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
       <c r="I479" s="60"/>
       <c r="J479"/>
@@ -28552,7 +28553,7 @@
         <v>845</v>
       </c>
       <c r="C480" s="12" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D480" s="11"/>
       <c r="E480" s="10" t="s">
@@ -28602,10 +28603,10 @@
         <v>845</v>
       </c>
       <c r="C482" s="13" t="s">
+        <v>934</v>
+      </c>
+      <c r="D482" s="53" t="s">
         <v>935</v>
-      </c>
-      <c r="D482" s="53" t="s">
-        <v>936</v>
       </c>
       <c r="E482" s="7" t="s">
         <v>24</v>
@@ -28632,7 +28633,7 @@
         <v>850</v>
       </c>
       <c r="D483" s="53" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E483" s="7" t="s">
         <v>24</v>
@@ -28647,7 +28648,7 @@
         <v>21</v>
       </c>
       <c r="I483" s="52" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="484" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
@@ -28658,10 +28659,10 @@
         <v>845</v>
       </c>
       <c r="C484" s="13" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D484" s="53" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E484" s="7" t="s">
         <v>24</v>
@@ -28679,16 +28680,16 @@
     </row>
     <row r="485" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A485" s="7" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B485" s="53" t="s">
         <v>845</v>
       </c>
       <c r="C485" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="D485" s="53" t="s">
         <v>981</v>
-      </c>
-      <c r="D485" s="53" t="s">
-        <v>982</v>
       </c>
       <c r="E485" s="7" t="s">
         <v>24</v>
@@ -28703,7 +28704,7 @@
         <v>21</v>
       </c>
       <c r="I485" s="52" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="486" spans="1:9" ht="81" x14ac:dyDescent="0.15">
@@ -28714,10 +28715,10 @@
         <v>7</v>
       </c>
       <c r="C486" s="26" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D486" s="53" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E486" s="27" t="s">
         <v>24</v>
@@ -28732,7 +28733,7 @@
         <v>21</v>
       </c>
       <c r="I486" s="52" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="487" spans="1:9" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -28743,10 +28744,10 @@
         <v>7</v>
       </c>
       <c r="C487" s="16" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D487" s="53" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E487" s="28" t="s">
         <v>24</v>
@@ -28761,21 +28762,21 @@
         <v>21</v>
       </c>
       <c r="I487" s="52" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="488" spans="1:9" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A488" s="7" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
       <c r="B488" s="19" t="s">
         <v>845</v>
       </c>
       <c r="C488" s="13" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D488" s="53" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E488" s="28" t="s">
         <v>24</v>
@@ -28790,7 +28791,7 @@
         <v>21</v>
       </c>
       <c r="I488" s="52" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="489" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -28820,16 +28821,16 @@
     </row>
     <row r="490" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A490" s="7" t="s">
-        <v>1121</v>
+        <v>1113</v>
       </c>
       <c r="B490" s="14" t="s">
         <v>845</v>
       </c>
       <c r="C490" s="13" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="D490" s="53" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E490" s="7" t="s">
         <v>24</v>
@@ -28844,7 +28845,7 @@
         <v>21</v>
       </c>
       <c r="I490" s="52" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="491" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
@@ -28855,10 +28856,10 @@
         <v>845</v>
       </c>
       <c r="C491" s="13" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D491" s="53" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E491" s="7" t="s">
         <v>24</v>
@@ -28885,7 +28886,7 @@
         <v>857</v>
       </c>
       <c r="D492" s="53" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E492" s="7" t="s">
         <v>24</v>
@@ -28900,7 +28901,7 @@
         <v>21</v>
       </c>
       <c r="I492" s="52" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="493" spans="1:9" ht="81" x14ac:dyDescent="0.15">
@@ -28911,10 +28912,10 @@
         <v>845</v>
       </c>
       <c r="C493" s="13" t="s">
+        <v>944</v>
+      </c>
+      <c r="D493" s="53" t="s">
         <v>945</v>
-      </c>
-      <c r="D493" s="53" t="s">
-        <v>946</v>
       </c>
       <c r="E493" s="7" t="s">
         <v>24</v>
@@ -28941,7 +28942,7 @@
         <v>860</v>
       </c>
       <c r="D494" s="53" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E494" s="7" t="s">
         <v>24</v>
@@ -28956,7 +28957,7 @@
         <v>21</v>
       </c>
       <c r="I494" s="52" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="495" spans="1:9" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -28967,10 +28968,10 @@
         <v>845</v>
       </c>
       <c r="C495" s="13" t="s">
-        <v>1221</v>
+        <v>1213</v>
       </c>
       <c r="D495" s="53" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E495" s="28" t="s">
         <v>24</v>
@@ -28985,21 +28986,21 @@
         <v>21</v>
       </c>
       <c r="I495" s="52" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="496" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A496" s="7" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B496" s="19" t="s">
         <v>845</v>
       </c>
       <c r="C496" s="13" t="s">
-        <v>1125</v>
+        <v>1117</v>
       </c>
       <c r="D496" s="53" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E496" s="55" t="s">
         <v>24</v>
@@ -29014,21 +29015,21 @@
         <v>21</v>
       </c>
       <c r="I496" s="52" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="497" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A497" s="7" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B497" s="14" t="s">
         <v>845</v>
       </c>
       <c r="C497" s="13" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D497" s="53" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E497" s="7" t="s">
         <v>24</v>
@@ -29052,10 +29053,10 @@
         <v>845</v>
       </c>
       <c r="C498" s="13" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D498" s="53" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E498" s="7" t="s">
         <v>24</v>
@@ -29073,16 +29074,16 @@
     </row>
     <row r="499" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A499" s="7" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B499" s="53" t="s">
         <v>845</v>
       </c>
       <c r="C499" s="13" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D499" s="53" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E499" s="7" t="s">
         <v>24</v>
@@ -29097,7 +29098,7 @@
         <v>21</v>
       </c>
       <c r="I499" s="54" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="500" spans="1:9" ht="81" x14ac:dyDescent="0.15">
@@ -29108,10 +29109,10 @@
         <v>845</v>
       </c>
       <c r="C500" s="13" t="s">
+        <v>949</v>
+      </c>
+      <c r="D500" s="53" t="s">
         <v>950</v>
-      </c>
-      <c r="D500" s="53" t="s">
-        <v>951</v>
       </c>
       <c r="E500" s="7" t="s">
         <v>24</v>
@@ -29138,7 +29139,7 @@
         <v>899</v>
       </c>
       <c r="D501" s="53" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E501" s="28" t="s">
         <v>24</v>
@@ -29153,7 +29154,7 @@
         <v>23</v>
       </c>
       <c r="I501" s="16" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="502" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -29192,7 +29193,7 @@
         <v>900</v>
       </c>
       <c r="D503" s="53" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E503" s="28" t="s">
         <v>24</v>
@@ -29207,7 +29208,7 @@
         <v>23</v>
       </c>
       <c r="I503" s="54" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="504" spans="1:9" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -29221,7 +29222,7 @@
         <v>869</v>
       </c>
       <c r="D504" s="53" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E504" s="29" t="s">
         <v>24</v>
@@ -29248,7 +29249,7 @@
         <v>871</v>
       </c>
       <c r="D505" s="53" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E505" s="29" t="s">
         <v>24</v>
@@ -29275,7 +29276,7 @@
         <v>873</v>
       </c>
       <c r="D506" s="53" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E506" s="29" t="s">
         <v>24</v>
@@ -29324,10 +29325,10 @@
         <v>845</v>
       </c>
       <c r="C508" s="13" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D508" s="53" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E508" s="7" t="s">
         <v>24</v>
@@ -29354,7 +29355,7 @@
         <v>878</v>
       </c>
       <c r="D509" s="53" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E509" s="7" t="s">
         <v>24</v>
@@ -29369,7 +29370,7 @@
         <v>21</v>
       </c>
       <c r="I509" s="54" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="510" spans="1:9" ht="81" x14ac:dyDescent="0.15">
@@ -29380,10 +29381,10 @@
         <v>845</v>
       </c>
       <c r="C510" s="13" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D510" s="53" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E510" s="7" t="s">
         <v>24</v>
@@ -29401,16 +29402,16 @@
     </row>
     <row r="511" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A511" s="7" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B511" s="53" t="s">
         <v>845</v>
       </c>
       <c r="C511" s="13" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D511" s="53" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E511" s="7" t="s">
         <v>24</v>
@@ -29425,7 +29426,7 @@
         <v>21</v>
       </c>
       <c r="I511" s="54" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="512" spans="1:9" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -29439,7 +29440,7 @@
         <v>901</v>
       </c>
       <c r="D512" s="53" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E512" s="29" t="s">
         <v>24</v>
@@ -29454,7 +29455,7 @@
         <v>21</v>
       </c>
       <c r="I512" s="54" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="513" spans="1:10" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -29465,10 +29466,10 @@
         <v>7</v>
       </c>
       <c r="C513" s="16" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D513" s="53" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E513" s="29" t="s">
         <v>24</v>
@@ -29483,7 +29484,7 @@
         <v>21</v>
       </c>
       <c r="I513" s="54" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="514" spans="1:10" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -29519,7 +29520,7 @@
         <v>7</v>
       </c>
       <c r="C515" s="13" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D515" s="14"/>
       <c r="E515" s="29" t="s">
@@ -29544,10 +29545,10 @@
         <v>7</v>
       </c>
       <c r="C516" s="13" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D516" s="53" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E516" s="29" t="s">
         <v>24</v>
@@ -29562,7 +29563,7 @@
         <v>21</v>
       </c>
       <c r="I516" s="54" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="517" spans="1:10" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -29573,10 +29574,10 @@
         <v>7</v>
       </c>
       <c r="C517" s="13" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D517" s="53" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E517" s="29" t="s">
         <v>24</v>
@@ -29603,7 +29604,7 @@
         <v>887</v>
       </c>
       <c r="D518" s="53" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E518" s="28" t="s">
         <v>24</v>
@@ -29618,21 +29619,21 @@
         <v>21</v>
       </c>
       <c r="I518" s="16" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="519" spans="1:10" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A519" s="7" t="s">
-        <v>1112</v>
+        <v>1217</v>
       </c>
       <c r="B519" s="19" t="s">
         <v>845</v>
       </c>
       <c r="C519" s="13" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="D519" s="7" t="s">
-        <v>1118</v>
+        <v>1110</v>
       </c>
       <c r="E519" s="28" t="s">
         <v>24</v>
@@ -29647,21 +29648,21 @@
         <v>21</v>
       </c>
       <c r="I519" s="54" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="520" spans="1:10" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="520" spans="1:10" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A520" s="7" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="B520" s="19" t="s">
         <v>845</v>
       </c>
       <c r="C520" s="13" t="s">
-        <v>1115</v>
+        <v>1221</v>
       </c>
       <c r="D520" s="7" t="s">
-        <v>1118</v>
+        <v>1110</v>
       </c>
       <c r="E520" s="28" t="s">
         <v>24</v>
@@ -29676,21 +29677,21 @@
         <v>21</v>
       </c>
       <c r="I520" s="54" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="521" spans="1:10" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A521" s="7" t="s">
-        <v>1135</v>
+        <v>1127</v>
       </c>
       <c r="B521" s="19" t="s">
         <v>845</v>
       </c>
       <c r="C521" s="13" t="s">
-        <v>1116</v>
+        <v>1219</v>
       </c>
       <c r="D521" s="53" t="s">
-        <v>1120</v>
+        <v>1112</v>
       </c>
       <c r="E521" s="28" t="s">
         <v>24</v>
@@ -29705,21 +29706,21 @@
         <v>21</v>
       </c>
       <c r="I521" s="54" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="522" spans="1:10" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="522" spans="1:10" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A522" s="7" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
       <c r="B522" s="19" t="s">
         <v>845</v>
       </c>
       <c r="C522" s="13" t="s">
-        <v>1117</v>
+        <v>1220</v>
       </c>
       <c r="D522" s="53" t="s">
-        <v>1120</v>
+        <v>1112</v>
       </c>
       <c r="E522" s="28" t="s">
         <v>24</v>
@@ -29734,7 +29735,7 @@
         <v>21</v>
       </c>
       <c r="I522" s="54" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="523" spans="1:10" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -29745,10 +29746,10 @@
         <v>7</v>
       </c>
       <c r="C523" s="13" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="D523" s="53" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E523" s="28" t="s">
         <v>24</v>
@@ -29775,7 +29776,7 @@
         <v>890</v>
       </c>
       <c r="D524" s="53" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E524" s="28" t="s">
         <v>24</v>
@@ -29790,21 +29791,21 @@
         <v>21</v>
       </c>
       <c r="I524" s="54" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="525" spans="1:10" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A525" s="7" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
       <c r="B525" s="57" t="s">
         <v>845</v>
       </c>
       <c r="C525" s="13" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="D525" s="53" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="E525" s="28" t="s">
         <v>24</v>
@@ -29822,16 +29823,16 @@
     </row>
     <row r="526" spans="1:10" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A526" s="7" t="s">
-        <v>1218</v>
+        <v>1210</v>
       </c>
       <c r="B526" s="57" t="s">
         <v>845</v>
       </c>
       <c r="C526" s="13" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D526" s="53" t="s">
         <v>1106</v>
-      </c>
-      <c r="D526" s="53" t="s">
-        <v>1109</v>
       </c>
       <c r="E526" s="28" t="s">
         <v>24</v>
@@ -29846,21 +29847,21 @@
         <v>21</v>
       </c>
       <c r="I526" s="54" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="527" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A527" s="77" t="s">
-        <v>1139</v>
+        <v>1131</v>
       </c>
       <c r="B527" s="57" t="s">
-        <v>1145</v>
+        <v>1137</v>
       </c>
       <c r="C527" s="79" t="s">
-        <v>1141</v>
+        <v>1133</v>
       </c>
       <c r="D527" s="78" t="s">
-        <v>1140</v>
+        <v>1132</v>
       </c>
       <c r="E527" s="77" t="s">
         <v>24</v>
@@ -29875,11 +29876,11 @@
         <v>21</v>
       </c>
       <c r="I527" s="81" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="J527"/>
     </row>
-    <row r="528" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A528" s="27" t="s">
         <v>891</v>
       </c>
@@ -29904,7 +29905,7 @@
       </c>
       <c r="I528" s="16"/>
     </row>
-    <row r="529" spans="1:9" ht="108" hidden="1" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A529" s="36" t="s">
         <v>894</v>
       </c>
@@ -29931,11 +29932,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B18:I18"/>
@@ -29943,6 +29939,11 @@
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G406:G417 F415:F416 F374:F375 F330:F331 G318:G331 F297:F298 G294:G298 F279:F280 G271:G280 F213:F214 G194:G216 G186:G190 G156:G160 G111:G116 G23:G80 E316:G316 B137:B301 C20:G20 A480:E480 C486:E486 C481:E484 D485:E485 E23:E135 F28:F130 B23:B122 E317:E357 B305:B357 F348:G357 B486:B491 G487:G491 E487:E491 E137:E301 B495:B498 E495:E507 F495:F500 E402:E450 B402:B450 B359:B360 E359:G360 E362:E385 B362:B385 F362:F363 G362:G376">
@@ -37531,6 +37532,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -37579,32 +37595,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -37618,15 +37618,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SharePoint/Docs/MS-SITESS/MS-SITESS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-SITESS/MS-SITESS_RequirementSpecification.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00C67F70-F3F0-441D-8133-08CF4BBE6198}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5C76B912-D089-4AA7-BC9C-713BC9D459FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3384,6 +3384,1131 @@
       </rPr>
       <t/>
     </r>
+  </si>
+  <si>
+    <t>MS-SITESS_R108:p</t>
+  </si>
+  <si>
+    <r>
+      <t>[In ExportWorkflowTemplate] [solutionFileName:] If a solution with the specified name already exists in the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> document library in which the solution file needs to be created</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, the server MUST retry with the following sequence of names: &lt;filename&gt;2.wsp, &lt;filename&gt;3.wsp … &lt;filename&gt;1000.wsp, where &lt;filename&gt; is obtained from solutionFileName after excluding the extension.</t>
+    </r>
+  </si>
+  <si>
+    <t>[In ExportWorkflowTemplate] [solutionFileName:] If a solution with the specified name already exists in the document library in which the solution file needs to be created, the server MUST retry with &lt;filename&gt;2.wsp, where &lt;filename&gt; is obtained from solutionFileName after excluding the extension.</t>
+  </si>
+  <si>
+    <t>[In ImportWeb] [logPath:] If this element is omitted, the server MUST NOT create any files describing the progress or status of the operation.</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R741</t>
+  </si>
+  <si>
+    <t>[In ExportWeb] [webUrl:] The URL SHOULD be case-sensitive.</t>
+  </si>
+  <si>
+    <t>[In Transport] Implementation does additionally support SOAP over HTTPS for securing communication with clients. (Microsoft Office SharePoint Server 2007 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R7411</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R741:i,MS-SITESS_R1:i</t>
+  </si>
+  <si>
+    <t>This requirement can be enabled/disabled in the deployment.ptfconfig file.</t>
+  </si>
+  <si>
+    <t>[In ExportWeb] [webUrl:] Implementation does be case-sensitive.(Windows SharePoint Services 3.0 and above products follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In GetSiteResponse] [The GetSiteResponse element is defined as:] &lt;s:element name="GetSiteResponse"&gt;
+              &lt;s:complexType&gt;
+              &lt;s:sequence&gt;
+              &lt;s:element minOccurs="0" maxOccurs="1" name="GetSiteResult"
+              type="s:string" /&gt;
+              &lt;/s:sequence&gt;
+              &lt;/s:complexType&gt;
+              &lt;/s:element&gt;</t>
+  </si>
+  <si>
+    <t>[In GetSiteTemplatesResponse] [The GetSiteTemplatesResponse element is defined as:] &lt;s:element name="GetSiteTemplatesResponse"&gt;
+              &lt;s:complexType&gt;
+              &lt;s:sequence&gt;
+              &lt;s:element minOccurs="1" maxOccurs="1" name="GetSiteTemplatesResult"
+              type="s:unsignedInt" /&gt;
+              &lt;s:element minOccurs="0" maxOccurs="1" name="TemplateList"
+              type="tns:ArrayOfTemplate" /&gt;
+              &lt;/s:sequence&gt;
+              &lt;/s:complexType&gt;
+              &lt;/s:element&gt;</t>
+  </si>
+  <si>
+    <t>[In FormDigestInformation] [The FormDigestInformation complex type is defined as:] &lt;s:complexType name="FormDigestInformation"&gt;
+  &lt;s:sequence&gt;
+    &lt;s:element minOccurs="0" maxOccurs="1" name="DigestValue" type="s:string" /&gt; 
+    &lt;s:element minOccurs="1" maxOccurs="1" name="TimeoutSeconds" type="s:int" /&gt; 
+    &lt;s:element minOccurs="0" maxOccurs="1" name="WebFullUrl" type="s:string" /&gt;
+    &lt;s:element minOccurs="0" maxOccurs="1" name="LibraryVersion" type="s:string" /&gt;
+    &lt;s:element minOccurs="0" maxOccurs="1" name="SupportedSchemaVersions" type="s:string" /&gt;
+  &lt;/s:sequence&gt;
+&lt;/s:complexType&gt;</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] &lt;15&gt; Section 3.1.4.8.2.1: This parameter is optional.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] &lt;1&gt; Section 3.1.4.1: Implementation does not support this method [ExportSolution].(Windows SharePoint Services 2.0, Windows SharePoint Services 3.0, and Office SharePoint Server 2007 follow this behavior.)</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R24:i,MS-SITESS_R1:i</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-SITESS_R5301.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] &lt;2&gt; Section 3.1.4.2: Implementation does not support this operation [ExportWeb].(Windows SharePoint Services 2.0 follow this behavior)</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R433:i,MS-SITESS_R1:i</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior][&lt;3&gt; Section 3.1.4.2:] The file [which contains the result of the export operation] includes a status code indicating the success of the operation or an error code. (Microsoft Office SharePoint Server 2007 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] &lt;3&gt; Section 3.1.4.2: Implementation does creates a file that contains the result of the export operation in the server location specified in the request message. (Microsoft Office SharePoint Server 2007 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R439:i,MS-SITESS_R1:i</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R95:i,MS-SITESS_R1:i</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] &lt;5&gt; Section 3.1.4.3: Implementation does not support this method [ExportWorkflowTemplate].(Windows SharePoint Services 2.0, Windows SharePoint Services 3.0, and Office SharePoint Server 2007 follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] &lt;6&gt; Section 3.1.4.4: Implementation does not support this method [GetSite].(Windows SharePoint Services 2.0, Windows SharePoint Services 3.0, and Office SharePoint Server 2007 follow this behavior.)</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R119:i,MS-SITESS_R1:i</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R156:i,MS-SITESS_R1:i</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R182:i,MS-SITESS_R1:i</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] &lt;8&gt; Section 3.1.4.5.3.2: Implementation does not use the values defined for FilterCategories.(Windows SharePoint Services 3.0 and Office SharePoint Server 2007 follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] &lt;10&gt; Section 3.1.4.6: Implementation does default to a 30-minute security validation time period.(Windows SharePoint Services 3.0 and SharePoint Foundation 2010 follow this behavior.)</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R482:i,MS-SITESS_R1:i</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R493</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R493:i,MS-SITESS_R1:i</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R213:i,MS-SITESS_R1:i</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] &lt;12&gt; Section 3.1.4.7: Implementation does not support this method [GetUpdatedFormDigestInformation].(Windows SharePoint Services 2.0, Windows SharePoint Services 3.0, and Office SharePoint Server 2007 follow this behavior.)</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-SITESS_R5381.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] &lt;13&gt; Section 3.1.4.8: Implementation does not support this operation [ImportWeb].(Windows SharePoint Services 2.0 follow this behavior.)</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R505:i,MS-SITESS_R1:i</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R258:i,MS-SITESS_R1:i</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior][&lt;14&gt; Section 3.1.4.8:] The file [which contains the result of the import operation] includes a status code indicating the success of the operation or an error code. (Microsoft Office SharePoint Server 2007 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] &lt;15&gt; Section 3.1.4.8.2.1: Implementation does returns an error if logPath is set to an empty string.(Windows SharePoint Services 3.0, SharePoint Foundation 2010 and SharePoint Foundation 2013 follow this behavior.)</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R277:i,MS-SITESS_R1:i</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] &lt;16&gt; Section 3.1.4.9: Implementation does not support this method [CreateWeb].(Windows SharePoint Services 2.0, Windows SharePoint Services 3.0, and Office SharePoint Server 2007 follow this behavior.)</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-SITESS_R3781.</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R312:i,MS-SITESS_R1:i</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-SITESS_R3791.</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-SITESS_R541.</t>
+  </si>
+  <si>
+    <t>Partially verified by derived requirement: MS-SITESS_R384.</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-SITESS_R7411.</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-SITESS_R5331.</t>
+  </si>
+  <si>
+    <t>Partially verified by derived requirement: MS-SITESS_R386</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-SITESS_R5341.</t>
+  </si>
+  <si>
+    <t>Verified by derived requirements: MS-SITESS_R332, MS-SITESS_R368.</t>
+  </si>
+  <si>
+    <t>Verified by derived requirements: MS-SITESS_R339, MS-SITESS_R340.</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R535</t>
+  </si>
+  <si>
+    <t>[In GetSiteTemplatesResponse] [TemplateList:] In case the LCID included in the request message indicates a language that is not installed on the server, this method MUST return a SOAP fault with the error code [0x81070209] specified in the following table.&lt;7&gt;</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R1561</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R527</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R529</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R5311</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] &lt;2&gt; Section 3.1.4.2: Implementation does support this operation [ExportWeb].(Windows SharePoint Services 3.0 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R52:i,MS-SITESS_R1:i</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-SITESS_R5311.</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R5361</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] &lt;9&gt; Section 3.1.4.6: Implementation does not support this operation [GetUpdatedFormDigest].(Windows SharePoint Services 2.0 follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] &lt;9&gt; Section 3.1.4.6: Implementation does support this operation [GetUpdatedFormDigest].(Windows SharePoint Services 3.0 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-SITESS_R5361.</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R185:i,MS-SITESS_R1:i</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R5391</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] &lt;13&gt; Section 3.1.4.8: Implementation does support this operation [ImportWeb].(Windows SharePoint Services 3.0 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-SITESS_R5391.</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R234:i,MS-SITESS_R1:i</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R436</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Unless otherwise specified, any statement of optional behavior in this specification that is prescribed using the terms SHOULD or SHOULD NOT implies product behavior in accordance with the SHOULD or SHOULD NOT prescription.</t>
+  </si>
+  <si>
+    <t>Open Specification Date:</t>
+  </si>
+  <si>
+    <t>[In Complex Types] The following table summarizes the set of common XML Schema complex type definitions [SOAPFaultDetails, ArrayOfString] defined by this specification [MS-SITESS].</t>
+  </si>
+  <si>
+    <t>[In Complex Types] Complex type SOAPFaultDetails specifies the details of a SOAP fault.</t>
+  </si>
+  <si>
+    <t>[In Complex Types] ArrayOfString specifies an array of string elements.</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R418001</t>
+  </si>
+  <si>
+    <t>2.2.4.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In ArrayOfString] The ArrayOfString complex type contains an array of string elements. </t>
+  </si>
+  <si>
+    <t>[In ArrayOfString] string: A file full path or URL.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [In ArrayOfString] [The ArrayOfString is defined as:]&lt;s:complexType name="ArrayOfString"&gt;
+   &lt;s:sequence&gt;
+     &lt;s:element minOccurs="1" maxOccurs="unbounded" name="string" nillable="true"
+                  type="s:string" /&gt;
+   &lt;/s:sequence&gt;
+ &lt;/s:complexType&gt;
+</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R422001</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R422002</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R422003</t>
+  </si>
+  <si>
+    <t>[In ExportSolution] This operation [ExportSolution] is used to export the content related to a site to the solution gallery.&lt;1&gt;</t>
+  </si>
+  <si>
+    <t>[In ExportWeb] [dataPath:] The user invoking this method MUST have write permission on the server.</t>
+  </si>
+  <si>
+    <t>[In ExportWeb] [cabSize:] [The following algorithm MUST be used for determining the resulting cabinet file sizes based on the value of the cabSize element:] 2.If (cabSize is equal to zero) or (cabSize is greater than 0x0400) then modify cabSize to be 0x0018.
+3.Start a new cabinet file.
+4.Add a site content file to the cabinet.
+5.If no more files, exit.
+6.If ( (current size of the cabinet) + (.5 * the size of the file just added) ) is greater than or equal to cabSize, then go to step 3.
+7.Go to step 4.</t>
+  </si>
+  <si>
+    <t>[In ExportWebResponse] [If the value of ExportWebResult is 6, it specifies] The user MUST have the ManageLists permission ([MS-WSSFO3] section 2.2.2.15) for the location on the server where the content migration package files are saved.</t>
+  </si>
+  <si>
+    <t>[In ExportWebResponse] This value is only returned if a server internal exception occurs.</t>
+  </si>
+  <si>
+    <t>[In ExportWorkflowTemplate] [workflowTemplateName:] If a workflow template with the specified name does not exist, the server will return a SOAP fault with an implementation-specific error code.</t>
+  </si>
+  <si>
+    <t>[In GetUpdatedFormDigest] [Normally, the client requests a page from the server,] the server sends a page to the client containing a form and a security validation.</t>
+  </si>
+  <si>
+    <t>[In GetUpdatedFormDigestInformation] [url:] Otherwise[If this element is neither omitted altogether nor included as an empty string], the protocol server MUST return the FormDigestInformation of the site that contains the page specified by this element.</t>
+  </si>
+  <si>
+    <t>[In ExportWebResponse] An example of a condition that would result in this error [7] is if there was no content on the site to export.</t>
+  </si>
+  <si>
+    <t>[In Message Processing Events and Sequencing Rules] The ExportWeb operation specifies exporting site content.</t>
+  </si>
+  <si>
+    <t>[In FormDigestInformation] LibraryVersion: The library version, as specified in [MS-CSOM] section 3.1.4.1.4.12, of the protocol server.</t>
+  </si>
+  <si>
+    <t>[In FormDigestInformation] SupportedSchemaVersions: The comma-separated list of the SharePoint Client Query Protocol versions, as specified in [MS-CSOM] section 3.1.4.1.3.36.2, that are supported by the protocol server.</t>
+  </si>
+  <si>
+    <r>
+      <t>[In ImportWeb] webUrl: The URL of the resulting Web site</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>[In ImportWeb] [dataFiles:] This dataFiles element is an ArrayOfString as defined in section 2.2.4.2.</t>
+  </si>
+  <si>
+    <t>[In CreateWeb] This operation [CreateWeb] is used to create a new subsite of the current site.&lt;16&gt;</t>
+  </si>
+  <si>
+    <t>[In CreateWeb] presence: If set to true, the online presence information is to be enabled for the subsite to be created.</t>
+  </si>
+  <si>
+    <t>[In DeleteWeb] This operation [DeleteWeb] is used to delete an existing subsite of the current site.&lt;18&gt;</t>
+  </si>
+  <si>
+    <t>[In DeleteWebSoapIn] This message [DeleteWebSoapIn] is the request message for deleting an existing subsite of the current site.</t>
+  </si>
+  <si>
+    <t>[In DeleteWebSoapOut] This message [DeleteWebSoapOut] is the response message for deleting an existing subsite of the current site.</t>
+  </si>
+  <si>
+    <t>[In CreateWebSoapOut] This message [CreateWebSoapOut] is the response message for creating a new subsite of the current site.</t>
+  </si>
+  <si>
+    <t>[In Elements] The following XML schema element definitions [ExportSolution, ExportSolutionResponse] are specific to this operation [ExportSolution].</t>
+  </si>
+  <si>
+    <t>[In Elements] The following XML schema element definitions [ExportWeb, ExportWebResponse] are specific to this operation [ExportWeb].</t>
+  </si>
+  <si>
+    <t>[In Elements] The following XML schema element definitions [ExportWorkflowTemplate, ExportWorkflowTemplateResponse] are specific to this operation [ExportWorkflowTemplate].</t>
+  </si>
+  <si>
+    <t>[In Elements] The following XML schema element definitions [GetSite, GetSiteResponse] are specific to this operation [GetSite].</t>
+  </si>
+  <si>
+    <t>[In Elements] The following XML schema element definitions [GetSiteTemplates, GetSiteTemplatesResponse] are specific to this operation [GetSiteTemplates].</t>
+  </si>
+  <si>
+    <t>[In Elements] The following XML schema element definitions [GetUpdatedFormDigest, GetUpdatedFormDigestResponse] are specific to this operation [GetUpdatedFormDigest].</t>
+  </si>
+  <si>
+    <t>[In Elements] The following XML schema element definitions [GetUpdatedFormDigestInformation, GetUpdatedFormDigestInformationResponse] are specific to this operation [GetUpdatedFormDigestInformation].</t>
+  </si>
+  <si>
+    <t>[In Elements] The following XML schema element definitions [ImportWeb, ImportWebResponse] are specific to this operation [ImportWeb].</t>
+  </si>
+  <si>
+    <t>[In Elements] The following XML schema element definitions [CreateWeb, CreateWebResponse] are specific to this operation [CreateWeb].</t>
+  </si>
+  <si>
+    <t>[In CreateWebSoapIn] This message [CreateWebSoapIn] is the request message for creating a new subsite of the current site.</t>
+  </si>
+  <si>
+    <t>[In Elements] The following XML schema element definitions [DeleteWeb, DeleteWebResponse] are specific to this operation [DeleteWeb].</t>
+  </si>
+  <si>
+    <t>3.1.4.11</t>
+  </si>
+  <si>
+    <t>[In IsScriptSafeUrl] Script safe URLs are URLs the server trusts as valid sources for IFRAMEs in Hypertext Markup Language (HTML) content.</t>
+  </si>
+  <si>
+    <t>[In IsScriptSafeUrl] The client sends an IsScriptSafeUrlSoapIn request message.</t>
+  </si>
+  <si>
+    <t>[In IsScriptSafeUrl] [The client sends an IsScriptSafeUrlSoapIn request message, and] the server responds with an IsScriptSafeUrlSoapOut response message.</t>
+  </si>
+  <si>
+    <t>[In Messages] The following WSDL message definitions are specific to this operation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.1.4.11.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In IsScriptSafeUrlSoapIn] The SOAP action value of the message is defined as:
+ http://schemas.microsoft.com/sharepoint/soap/IsScriptSafeUrl
+</t>
+  </si>
+  <si>
+    <t>[In IsScriptSafeUrlSoapIn] The SOAP body contains an IsScriptSafeUrl element.</t>
+  </si>
+  <si>
+    <t>[In IsScriptSafeUrlSoapOut] The SOAP body contains an IsScriptSafeUrlResponse element.</t>
+  </si>
+  <si>
+    <t>[In Elements] The following XML schema element definitions are specific to this operation.</t>
+  </si>
+  <si>
+    <t>[In IsScriptSafeUrlResponse] Defines the output of the IsScriptSafeUrl operation, which contains an IsScriptSafeUrlResponse element with the following definition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.1.4.11.2.2</t>
+  </si>
+  <si>
+    <t>[In Complex Types]The following XML schema complex type definitions are specific to this operation.</t>
+  </si>
+  <si>
+    <t>3.1.4.11.3</t>
+  </si>
+  <si>
+    <t>[In IsScriptSafeUrl] This operation [IsScriptSafeUrl]&lt;19&gt; is used to validate whether the specified URLs are valid script safe URLs for the current site.</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R326001</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R326002</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R326003</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R326004</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R326005</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R326006</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R326007</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R326008</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R326009</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R326010</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R326011</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R326012</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R326013</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R326014</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R326015</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R326016</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R326017</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R326018</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R326019</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R326020</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R326021</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R326022</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R326023</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R326024</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R326025</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R326026</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R326027</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [In IsScriptSafeUrl] [The IsScriptSafeUrl operation is defined as:]&lt;wsdl:operation name="IsScriptSafeUrl"&gt;
+   &lt;wsdl:input message="tns:IsScriptSafeUrlSoapIn" /&gt;
+   &lt;wsdl:output message="tns:IsScriptSafeUrlSoapOut" /&gt;
+ &lt;/wsdl:operation&gt;
+</t>
+  </si>
+  <si>
+    <t>3.1.4.11.1</t>
+  </si>
+  <si>
+    <t>[In IsScriptSafeUrlSoapIn] This message [IsScriptSafeUrlSoapIn] is the request message for validating whether the specified URLs are valid script safe URLs for the current site.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.1.4.11.1.2</t>
+  </si>
+  <si>
+    <t>[In IsScriptSafeUrlSoapOut] This message [IsScriptSafeUrlSoapOut] is the response message for validating whether the specified URLs are valid script safe URLs for the current site.</t>
+  </si>
+  <si>
+    <t>3.1.4.11.2</t>
+  </si>
+  <si>
+    <t>3.1.4.11.2.1</t>
+  </si>
+  <si>
+    <t>[In IsScriptSafeUrl]This element [IsScriptSafeUrl] defines the input parameter for the IsScriptSafeUrl operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In IsScriptSafeUrl] [The IsScriptSafeUr element is defined as:] &lt;s:element name="IsScriptSafeUrl"&gt;
+   &lt;s:complexType&gt;
+     &lt;s:sequence&gt;
+       &lt;s:element name="urls" type="tns:ArrayOfString" maxOccurs="1" minOccurs="0"/&gt;
+     &lt;/s:sequence&gt;
+   &lt;/s:complexType&gt;
+ &lt;/s:element&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In IsScriptSafeUrl] urls: An ArrayOfString as defined in section 2.2.4.2. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In IsScriptSafeUrl] Each URL in urls MUST NOT be null or empty, and MUST be relative or absolute Uniform Resource Locator (URL) values. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In IsScriptSafeUrl] This element [urls] contains all URLs that need to be validated. </t>
+  </si>
+  <si>
+    <t>[In IsScriptSafeUrl] Relative URLs MUST be site-relative URLs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [In IsScriptSafeUrlResponse] IsScriptSafeUrlResult: An ArrayOfBoolean as defined in section 3.1.4.11.3.1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [In IsScriptSafeUrlResponse] it [IsScriptSafeUrlResult element] contains results for validating the URLs specified by the parameter urls in section 3.1.4.11.2.1.</t>
+  </si>
+  <si>
+    <t>3.1.4.11.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[InArrayOfBoolean] This complex type contains an array of boolean elements. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.4.11.3.1 </t>
+  </si>
+  <si>
+    <t>[InArrayOfBoolean] It is used for the response element IsScriptSafeUrlResult for the IsScriptSafeUrl operation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [In IsScriptSafeUrlResponse] [The IsScriptSafeUrlResponse element is defined as:]&lt;s:element name="IsScriptSafeUrlResponse"&gt;
+   &lt;s:complexType&gt;
+     &lt;s:sequence&gt;
+       &lt;s:element minOccurs="1" maxOccurs="1" name="IsScriptSafeUrlResult" type="tns:ArrayOfBoolean" /&gt;
+     &lt;/s:sequence&gt;
+   &lt;/s:complexType&gt;
+ &lt;/s:element&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[InArrayOfBoolean]  [The ArrayOfBoolean complexType is defined as:]&lt;s:complexType name="ArrayOfBoolean"&gt;
+    &lt;s:sequence&gt;
+       &lt;s:element minOccurs="0" maxOccurs="unbounded" name="boolean" type="s:boolean" /&gt;
+    &lt;/s:sequence&gt;
+ &lt;/s:complexType&gt;
+</t>
+  </si>
+  <si>
+    <t>[InArrayOfBoolean]  boolean: Indicates whether a URL is a valid script safe URL for the current site.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] [&lt;3&gt; Section 3.1.4.2:] If the export operation succeeds, this file also includes the list of the content migration package files created. (Microsoft Office SharePoint Server 2007 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] &lt;4&gt; Section 3.1.4.2.2.1: If the value of cabSize is less than zero, Implementation does return a value of 1 or 7  but the server does not successfully complete the operation. The return code is not deterministic.(Windows SharePoint Services 3.0, SharePoint Foundation 2010, and SharePoint Foundation 2013 follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does support this method [IsScriptSafeUrl]. &lt;19&gt; Section 3.1.4.11:  Only SharePoint Foundation 2013 supports this method.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does not support this method [IsScriptSafeUrl]. (SharePoint Foundation 2010 and SharePoint Server 2016 follow this behavior.)</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-SITESS_R326001002.</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R326001:i</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] &lt;18&gt; Section 3.1.4.10: Implementation does not support this method [DeleteWeb].(Windows SharePoint Services 2.0, Windows SharePoint Services 3.0, and Office SharePoint Server 2007 follow this behavior.)</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R523002</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does be enabled for the subsite to be created, when presence set to false, and anonymous authentication is not allowed for the subsite.  &lt;17&gt; Section 3.1.4.9.2.1:  If anonymous authentication is not allowed for the subsite, the online presence information will be enabled on SharePoint Foundation 2010.</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R523:i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verified by derived requirements:MS-SITESS_R557001, MS-SITESS_R557002. </t>
+  </si>
+  <si>
+    <t>MS-SITESS_R557:i</t>
+  </si>
+  <si>
+    <t>MS-SITESS_R532</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-SITESS_R532.</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-SITESS_R391</t>
+  </si>
+  <si>
+    <t>Verified by derived requirements: MS-SITESS_R328, MS-SITESS_R329, MS-SITESS_R433001.</t>
+  </si>
+  <si>
+    <t>[In GetSiteTemplatesResponse] [TemplateList:] In case the LCID included in the request message indicates a language that is not installed on the server, Implementation does return a SOAP fault with the error code [0x81070209] specified in the following table.&lt;7&gt; (Windows SharePoint Services 3.0, and Office SharePoint Server 2007 follow this behavior.)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Case</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unverified</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-SITESS_R32602701</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-SITESS_R32602702</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[InArrayOfBoolean]  boolean: [True] Indicates a URL is a valid script safe URL for the current site.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[InArrayOfBoolean]  boolean: [False] Indicates a URL is not a valid script safe URL for the current site.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-SITESS_R433001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-SITESS_R557002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-SITESS_R557001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-SITESS_R327001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.4.12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-SITESS_R327001002.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-SITESS_R327001002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-SITESS_R327001:i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does support this method [IsScriptSafeUrlUsingCustomizedDomain]. &lt;20&gt; Section 3.1.4.12: Only SharePoint Server 2019 supports this method</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In IsScriptSafeUrlUsingCustomizedDomain] This operation [IsScriptSafeUrlUsingCustomizedDomain]&lt;20&gt; is used to validate whether the specified URLs are valid script safe URLS for the current site by checking against CustomScriptSafeDomains property of the site collection.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-SITESS_R327002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In IsScriptSafeUrlUsingCustomizedDomain] Script safe URLs are URLs the server trusts as valid sources for IFRAMEs in Hypertext Markup Language (HTML) content.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-SITESS_R327003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[In IsScriptSafeUrlUsingCustomizedDomain] [The IsScriptSafeUrlUsingCustomizedDomain operation is defined as:]&lt;wsdl:operation name="IsScriptSafeUrlUsingCustomizedDomain"&gt;
+		  &lt;wsdl:input message="tns:IsScriptSafeUrlUsingCustomizedDomainSoapIn" /&gt;
+		  &lt;wsdl:output message="tns:IsScriptSafeUrlUsingCustomizedDomainSoapOut" /&gt;
+		&lt;/wsdl:operation&gt;
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-SITESS_R327004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In IsScriptSafeUrlUsingCustomizedDomain] The client sends an IsScriptSafeUrlUsingCustomizedDomainSoapIn  request message.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Both</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-SITESS_R327005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In IsScriptSafeUrlUsingCustomizedDomain] [The client sends an IsScriptSafeUrlUsingCustomizedDomainSoapOut  request message, and] the server responds with an IsScriptSafeUrlUsingCustomizedDomainSoapOut response message.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-SITESS_R327006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.4.12.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-SITESS_R327007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In IsScriptSafeUrlUsingCustomizedDomainSoapIn] This message [IsScriptSafeUrlUsingCustomizedDomainSoapIn] is the request message for validating whether the specified URLs are valid script safe URLs for the current site by checking against the CustomScriptSafeDomains property of the site collection.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-SITESS_R327008</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[In IsScriptSafeUrlUsingCustomizedDomainSoapIn] The SOAP action value of the message is defined as:
+ http://schemas.microsoft.com/sharepoint/soap/IsScriptSafeUrlUsingCustomizedDomain
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In IsScriptSafeUrlUsingCustomizedDomainSoapIn] The SOAP body contains an IsScriptSafeUrlUsingCustomizedDomain  element.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-SITESS_R327009</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In IsScriptSafeUrlUsingCustomizedDomainSoapOut] This message [IsScriptSafeUrlUsingCustomizedDomainSoapOut] is the response message for validating whether the specified URLs are valid script safe URLs for the current site by checking against CustomScriptSafeDomains property of the site collection.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-SITESS_R327010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-SITESS_R327011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In IsScriptSafeUrlUsingCustomizedDomainSoapOut] The SOAP body contains an IsScriptSafeUrlUsingCustomizedDomainResponse  element.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.4.12.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.4.12.1.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.4.12.1.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-SITESS_R327012</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-SITESS_R327013</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.4.12.2.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In IsScriptSafeUrlUsingCustomizedDomain]This element [IsScriptSafeUrlUsingCustomizedDomain] defines the input parameter for the IsScriptSafeUrlUsingCustomizedDomain operation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-SITESS_R327014</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[In IsScriptSafeUrlUsingCustomizedDomain] [The IsScriptSafeUrlUsingCustomizedDomain element is defined as:]		&lt;s:element name="IsScriptSafeUrlUsingCustomizedDomain"&gt;
+		  &lt;s:complexType&gt;
+		    &lt;s:sequence&gt;
+		      &lt;s:element name="urls" type="tns:ArrayOfString" maxOccurs="1" minOccurs="0"/&gt;
+		    &lt;/s:sequence&gt;
+		  &lt;/s:complexType&gt;
+		&lt;/s:element&gt;
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-SITESS_R327015</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[In IsScriptSafeUrlUsingCustomizedDomain ] urls: An ArrayOfString as defined in section 2.2.4.2. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[In IsScriptSafeUrlUsingCustomizedDomain] This element [urls] contains all URLs that need to be validated. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-SITESS_R327016</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-SITESS_R327017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[In IsScriptSafeUrlUsingCustomizedDomain] Each URL in urls MUST NOT be null or empty, and MUST be relative or absolute Uniform Resource Locator (URL) values. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-SITESS_R327018</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In IsScriptSafeUrlUsingCustomizedDomain] Relative URLs MUST be site-relative URLs.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-SITESS_R327019</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.4.12.2.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In IsScriptSafeUrlUsingCustomizedDomainResponse] Defines the output of the IsScriptSafeUrlUsingCustomizedDomain  operation, which contains an IsScriptSafeUrlUsingCustomizedDomainResponse element with the following definition.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-SITESS_R327020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [In IsScriptSafeUrlUsingCustomizedDomainResponse] [The IsScriptSafeUrlUsingCustomizedDomainResponse element is defined as:]&lt;s:element name="IsScriptSafeUrlUsingCustomizedDomainResponse"&gt;
+		  &lt;s:complexType&gt;
+		    &lt;s:sequence&gt;
+		      &lt;s:element minOccurs="1" maxOccurs="1" name="IsScriptSafeUrlUsingCustomizedDomainResult" type="tns:ArrayOfBoolean" /&gt;
+		    &lt;/s:sequence&gt;
+		  &lt;/s:complexType&gt;
+		&lt;/s:element&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-SITESS_R327021</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[In IsScriptSafeUrlUsingCustomizedDomainResponse] IsScriptSafeUrlUsingCustomizedDomainResult: An ArrayOfBoolean as defined in section 3.1.4.12.3.1, </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In IsScriptSafeUrlUsingCustomizedDomainResponse] it [IsScriptSafeUrlUsingCustomizedDomainResult element] contains results for validating the URLs specified by the parameter urls in section 3.1.4.12.2.1.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-SITESS_R327022</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-SITESS_R327023</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-SITESS_R327024</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.4.12.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.4.12.3.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-SITESS_R327025</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[InArrayOfBoolean] This complex type contains an array of boolean elements. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[InArrayOfBoolean] It is used for the response element IsScriptSafeUrlUsingCustomizedDomainResult for the IsScriptSafeUrlUsingCustomizedDomain operation.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-SITESS_R327026</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.4.12.3.1 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-SITESS_R327027</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-SITESS_R32702701</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-SITESS_R32702702</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[InArrayOfBoolean]  boolean: Indicates whether a URL is a valid script safe URL for the current site by checking against CustomScriptSafeDomains property of the site collection.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[InArrayOfBoolean]  boolean: [True] Indicates a URL is a valid script safe URL for the current site by checking against CustomScriptSafeDomains property of the site collection.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[InArrayOfBoolean]  boolean: [False] Indicates a URL is not a URL is a valid script safe URL for the current site by checking against CustomScriptSafeDomains property of the site collection.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Namespaces] Prefix "soap12" is used for namespace URI: "http://schemas.xmlsoap.org/wsdl/soap12/" and the reference is [SOAP1.2-1/2007] and [SOAP1.2-2/2007].</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Protocol Details] This protocol [MS-SITESS] allows protocol servers to provide additional details for SOAP faults by including either a detail element as specified in [SOAP1.1] section 4.4, or a Detail element as specified in [SOAP1.2-1/2007] section 5.4.5, which conforms to the XML schema of the SOAPFaultDetails complex type specified in section 2.2.4.1.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Message Processing Events and Sequencing Rules] The ImportWeb operation specifies importing a site.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In ExportSolution] [includeWebContent:] If set to true, all contents of lists and document libraries MUST be packaged in the solution.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In ExportWeb] This operation [ExportWeb] saves the files to the server, which can be used to migrate or restore a site.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In ExportWebResponse] If the value of ExportWebResult is 7, it specifies ExportError: An error other than the errors listed in this table occurred while exporting the site.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In ImportWeb] Upon successful completion of the operation, the site at the specified URL MUST contain all the content from the specified content migration package files.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In ImportWebResponse] [ImportWebResult:] If the value of ImportWebResult is 6, it specifies ImportWebCantCreate: The user has insufficient permission to import to the location specified in webUrl.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In ImportWebResponse] [ImportWebResult:] If the value of ImportWebResult is 7, it specifies ImportWebNotEmpty: The site specified in the webUrl cannot be created.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-SITESS_R271001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-SITESS_R271002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In ImportWebResponse] [ImportWebResult:] If the value of ImportWebResult is 12, it specifies ImportWebNoAccess: There was an error importing the site. See message for details.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-SITESS_R326001002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-SITESS_R326001001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verified by derived requirements: MS-SITESS_R400, MS-SITESS_R1561.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] &lt;7&gt; Section 3.1.4.5.2.2: Implementation does not return the SOAP fault. It returns a successful GetSiteTemplatesResponse with an empty TemplateList element.(Microsoft SharePoint Foundation 2010 SharePoint Foundation 2013 and SharePoint Server 2016 above follow this behavior.)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In ImportWebResponse] ImportWebResult: The result of the operation is in the range [1, 2, 4 , 5, 6, 7, 8, 11,12]  as specified in the table in section 3.1.4.8.2.2.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In CreateWeb] [presence:] If omitted, the online presence information MUST NOT be enabled for the subsite to be created. &lt;17&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verified by derived requirements: MS-SITESS_R523001, MS-SITESS_R523002.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-SITESS_R523001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In CreateWeb] [presence:] If set to false, the online presence information MUST NOT be enabled for the subsite to be created. &lt;17&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does be enabled for the subsite to be created, when presence set to omitted, and anonymous authentication is not allowed for the subsite.  &lt;17&gt; Section 3.1.4.9.2.1:  If anonymous authentication is not allowed for the subsite, the online presence information will be enabled on SharePoint Foundation 2010.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior]Implementation does not be enabled for the subsite to be created, when presence set to omitted. (SharePoint Foundation 2013 and above follow this hebavior.)  &lt;17&gt; Section 3.1.4.9.2.1:  If anonymous authentication is not allowed for the subsite, the online presence information will not be enabled on SharePoint Foundation 2013 and above.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior]Implementation does not be enabled for the subsite to be created, when presence set to false. (SharePoint Foundation 2013 and above follow this hebavior.)  &lt;17&gt; Section 3.1.4.9.2.1:  If anonymous authentication is not allowed for the subsite, the online presence information will not be enabled on SharePoint Foundation 2013 and above.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3466,1141 +4591,6 @@
       <t xml:space="preserve">: Indicates that a requirement is verifiable, but choose not to test because of cost or other reason.
 </t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>MS-SITESS_R108:p</t>
-  </si>
-  <si>
-    <r>
-      <t>[In ExportWorkflowTemplate] [solutionFileName:] If a solution with the specified name already exists in the</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> document library in which the solution file needs to be created</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, the server MUST retry with the following sequence of names: &lt;filename&gt;2.wsp, &lt;filename&gt;3.wsp … &lt;filename&gt;1000.wsp, where &lt;filename&gt; is obtained from solutionFileName after excluding the extension.</t>
-    </r>
-  </si>
-  <si>
-    <t>[In ExportWorkflowTemplate] [solutionFileName:] If a solution with the specified name already exists in the document library in which the solution file needs to be created, the server MUST retry with &lt;filename&gt;2.wsp, where &lt;filename&gt; is obtained from solutionFileName after excluding the extension.</t>
-  </si>
-  <si>
-    <t>[In ImportWeb] [logPath:] If this element is omitted, the server MUST NOT create any files describing the progress or status of the operation.</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R741</t>
-  </si>
-  <si>
-    <t>[In ExportWeb] [webUrl:] The URL SHOULD be case-sensitive.</t>
-  </si>
-  <si>
-    <t>[In Transport] Implementation does additionally support SOAP over HTTPS for securing communication with clients. (Microsoft Office SharePoint Server 2007 and above follow this behavior.)</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R7411</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R741:i,MS-SITESS_R1:i</t>
-  </si>
-  <si>
-    <t>This requirement can be enabled/disabled in the deployment.ptfconfig file.</t>
-  </si>
-  <si>
-    <t>[In ExportWeb] [webUrl:] Implementation does be case-sensitive.(Windows SharePoint Services 3.0 and above products follow this behavior.)</t>
-  </si>
-  <si>
-    <t>[In GetSiteResponse] [The GetSiteResponse element is defined as:] &lt;s:element name="GetSiteResponse"&gt;
-              &lt;s:complexType&gt;
-              &lt;s:sequence&gt;
-              &lt;s:element minOccurs="0" maxOccurs="1" name="GetSiteResult"
-              type="s:string" /&gt;
-              &lt;/s:sequence&gt;
-              &lt;/s:complexType&gt;
-              &lt;/s:element&gt;</t>
-  </si>
-  <si>
-    <t>[In GetSiteTemplatesResponse] [The GetSiteTemplatesResponse element is defined as:] &lt;s:element name="GetSiteTemplatesResponse"&gt;
-              &lt;s:complexType&gt;
-              &lt;s:sequence&gt;
-              &lt;s:element minOccurs="1" maxOccurs="1" name="GetSiteTemplatesResult"
-              type="s:unsignedInt" /&gt;
-              &lt;s:element minOccurs="0" maxOccurs="1" name="TemplateList"
-              type="tns:ArrayOfTemplate" /&gt;
-              &lt;/s:sequence&gt;
-              &lt;/s:complexType&gt;
-              &lt;/s:element&gt;</t>
-  </si>
-  <si>
-    <t>[In FormDigestInformation] [The FormDigestInformation complex type is defined as:] &lt;s:complexType name="FormDigestInformation"&gt;
-  &lt;s:sequence&gt;
-    &lt;s:element minOccurs="0" maxOccurs="1" name="DigestValue" type="s:string" /&gt; 
-    &lt;s:element minOccurs="1" maxOccurs="1" name="TimeoutSeconds" type="s:int" /&gt; 
-    &lt;s:element minOccurs="0" maxOccurs="1" name="WebFullUrl" type="s:string" /&gt;
-    &lt;s:element minOccurs="0" maxOccurs="1" name="LibraryVersion" type="s:string" /&gt;
-    &lt;s:element minOccurs="0" maxOccurs="1" name="SupportedSchemaVersions" type="s:string" /&gt;
-  &lt;/s:sequence&gt;
-&lt;/s:complexType&gt;</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] &lt;15&gt; Section 3.1.4.8.2.1: This parameter is optional.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] &lt;1&gt; Section 3.1.4.1: Implementation does not support this method [ExportSolution].(Windows SharePoint Services 2.0, Windows SharePoint Services 3.0, and Office SharePoint Server 2007 follow this behavior.)</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R24:i,MS-SITESS_R1:i</t>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-SITESS_R5301.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] &lt;2&gt; Section 3.1.4.2: Implementation does not support this operation [ExportWeb].(Windows SharePoint Services 2.0 follow this behavior)</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R433:i,MS-SITESS_R1:i</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior][&lt;3&gt; Section 3.1.4.2:] The file [which contains the result of the export operation] includes a status code indicating the success of the operation or an error code. (Microsoft Office SharePoint Server 2007 and above follow this behavior.)</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] &lt;3&gt; Section 3.1.4.2: Implementation does creates a file that contains the result of the export operation in the server location specified in the request message. (Microsoft Office SharePoint Server 2007 and above follow this behavior.)</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R439:i,MS-SITESS_R1:i</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R95:i,MS-SITESS_R1:i</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] &lt;5&gt; Section 3.1.4.3: Implementation does not support this method [ExportWorkflowTemplate].(Windows SharePoint Services 2.0, Windows SharePoint Services 3.0, and Office SharePoint Server 2007 follow this behavior.)</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] &lt;6&gt; Section 3.1.4.4: Implementation does not support this method [GetSite].(Windows SharePoint Services 2.0, Windows SharePoint Services 3.0, and Office SharePoint Server 2007 follow this behavior.)</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R119:i,MS-SITESS_R1:i</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R156:i,MS-SITESS_R1:i</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R182:i,MS-SITESS_R1:i</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] &lt;8&gt; Section 3.1.4.5.3.2: Implementation does not use the values defined for FilterCategories.(Windows SharePoint Services 3.0 and Office SharePoint Server 2007 follow this behavior.)</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] &lt;10&gt; Section 3.1.4.6: Implementation does default to a 30-minute security validation time period.(Windows SharePoint Services 3.0 and SharePoint Foundation 2010 follow this behavior.)</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R482:i,MS-SITESS_R1:i</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R493</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R493:i,MS-SITESS_R1:i</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R213:i,MS-SITESS_R1:i</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] &lt;12&gt; Section 3.1.4.7: Implementation does not support this method [GetUpdatedFormDigestInformation].(Windows SharePoint Services 2.0, Windows SharePoint Services 3.0, and Office SharePoint Server 2007 follow this behavior.)</t>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-SITESS_R5381.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] &lt;13&gt; Section 3.1.4.8: Implementation does not support this operation [ImportWeb].(Windows SharePoint Services 2.0 follow this behavior.)</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R505:i,MS-SITESS_R1:i</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R258:i,MS-SITESS_R1:i</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior][&lt;14&gt; Section 3.1.4.8:] The file [which contains the result of the import operation] includes a status code indicating the success of the operation or an error code. (Microsoft Office SharePoint Server 2007 and above follow this behavior.)</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] &lt;15&gt; Section 3.1.4.8.2.1: Implementation does returns an error if logPath is set to an empty string.(Windows SharePoint Services 3.0, SharePoint Foundation 2010 and SharePoint Foundation 2013 follow this behavior.)</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R277:i,MS-SITESS_R1:i</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] &lt;16&gt; Section 3.1.4.9: Implementation does not support this method [CreateWeb].(Windows SharePoint Services 2.0, Windows SharePoint Services 3.0, and Office SharePoint Server 2007 follow this behavior.)</t>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-SITESS_R3781.</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R312:i,MS-SITESS_R1:i</t>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-SITESS_R3791.</t>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-SITESS_R541.</t>
-  </si>
-  <si>
-    <t>Partially verified by derived requirement: MS-SITESS_R384.</t>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-SITESS_R7411.</t>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-SITESS_R5331.</t>
-  </si>
-  <si>
-    <t>Partially verified by derived requirement: MS-SITESS_R386</t>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-SITESS_R5341.</t>
-  </si>
-  <si>
-    <t>Verified by derived requirements: MS-SITESS_R332, MS-SITESS_R368.</t>
-  </si>
-  <si>
-    <t>Verified by derived requirements: MS-SITESS_R339, MS-SITESS_R340.</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R535</t>
-  </si>
-  <si>
-    <t>[In GetSiteTemplatesResponse] [TemplateList:] In case the LCID included in the request message indicates a language that is not installed on the server, this method MUST return a SOAP fault with the error code [0x81070209] specified in the following table.&lt;7&gt;</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R1561</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R527</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R529</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R5311</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] &lt;2&gt; Section 3.1.4.2: Implementation does support this operation [ExportWeb].(Windows SharePoint Services 3.0 and above follow this behavior.)</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R52:i,MS-SITESS_R1:i</t>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-SITESS_R5311.</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R5361</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] &lt;9&gt; Section 3.1.4.6: Implementation does not support this operation [GetUpdatedFormDigest].(Windows SharePoint Services 2.0 follow this behavior.)</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] &lt;9&gt; Section 3.1.4.6: Implementation does support this operation [GetUpdatedFormDigest].(Windows SharePoint Services 3.0 and above follow this behavior.)</t>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-SITESS_R5361.</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R185:i,MS-SITESS_R1:i</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R5391</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] &lt;13&gt; Section 3.1.4.8: Implementation does support this operation [ImportWeb].(Windows SharePoint Services 3.0 and above follow this behavior.)</t>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-SITESS_R5391.</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R234:i,MS-SITESS_R1:i</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R436</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] Unless otherwise specified, any statement of optional behavior in this specification that is prescribed using the terms SHOULD or SHOULD NOT implies product behavior in accordance with the SHOULD or SHOULD NOT prescription.</t>
-  </si>
-  <si>
-    <t>Open Specification Date:</t>
-  </si>
-  <si>
-    <t>[In Complex Types] The following table summarizes the set of common XML Schema complex type definitions [SOAPFaultDetails, ArrayOfString] defined by this specification [MS-SITESS].</t>
-  </si>
-  <si>
-    <t>[In Complex Types] Complex type SOAPFaultDetails specifies the details of a SOAP fault.</t>
-  </si>
-  <si>
-    <t>[In Complex Types] ArrayOfString specifies an array of string elements.</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R418001</t>
-  </si>
-  <si>
-    <t>2.2.4.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[In ArrayOfString] The ArrayOfString complex type contains an array of string elements. </t>
-  </si>
-  <si>
-    <t>[In ArrayOfString] string: A file full path or URL.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [In ArrayOfString] [The ArrayOfString is defined as:]&lt;s:complexType name="ArrayOfString"&gt;
-   &lt;s:sequence&gt;
-     &lt;s:element minOccurs="1" maxOccurs="unbounded" name="string" nillable="true"
-                  type="s:string" /&gt;
-   &lt;/s:sequence&gt;
- &lt;/s:complexType&gt;
-</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R422001</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R422002</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R422003</t>
-  </si>
-  <si>
-    <t>[In ExportSolution] This operation [ExportSolution] is used to export the content related to a site to the solution gallery.&lt;1&gt;</t>
-  </si>
-  <si>
-    <t>[In ExportWeb] [dataPath:] The user invoking this method MUST have write permission on the server.</t>
-  </si>
-  <si>
-    <t>[In ExportWeb] [cabSize:] [The following algorithm MUST be used for determining the resulting cabinet file sizes based on the value of the cabSize element:] 2.If (cabSize is equal to zero) or (cabSize is greater than 0x0400) then modify cabSize to be 0x0018.
-3.Start a new cabinet file.
-4.Add a site content file to the cabinet.
-5.If no more files, exit.
-6.If ( (current size of the cabinet) + (.5 * the size of the file just added) ) is greater than or equal to cabSize, then go to step 3.
-7.Go to step 4.</t>
-  </si>
-  <si>
-    <t>[In ExportWebResponse] [If the value of ExportWebResult is 6, it specifies] The user MUST have the ManageLists permission ([MS-WSSFO3] section 2.2.2.15) for the location on the server where the content migration package files are saved.</t>
-  </si>
-  <si>
-    <t>[In ExportWebResponse] This value is only returned if a server internal exception occurs.</t>
-  </si>
-  <si>
-    <t>[In ExportWorkflowTemplate] [workflowTemplateName:] If a workflow template with the specified name does not exist, the server will return a SOAP fault with an implementation-specific error code.</t>
-  </si>
-  <si>
-    <t>[In GetUpdatedFormDigest] [Normally, the client requests a page from the server,] the server sends a page to the client containing a form and a security validation.</t>
-  </si>
-  <si>
-    <t>[In GetUpdatedFormDigestInformation] [url:] Otherwise[If this element is neither omitted altogether nor included as an empty string], the protocol server MUST return the FormDigestInformation of the site that contains the page specified by this element.</t>
-  </si>
-  <si>
-    <t>[In ExportWebResponse] An example of a condition that would result in this error [7] is if there was no content on the site to export.</t>
-  </si>
-  <si>
-    <t>[In Message Processing Events and Sequencing Rules] The ExportWeb operation specifies exporting site content.</t>
-  </si>
-  <si>
-    <t>[In FormDigestInformation] LibraryVersion: The library version, as specified in [MS-CSOM] section 3.1.4.1.4.12, of the protocol server.</t>
-  </si>
-  <si>
-    <t>[In FormDigestInformation] SupportedSchemaVersions: The comma-separated list of the SharePoint Client Query Protocol versions, as specified in [MS-CSOM] section 3.1.4.1.3.36.2, that are supported by the protocol server.</t>
-  </si>
-  <si>
-    <r>
-      <t>[In ImportWeb] webUrl: The URL of the resulting Web site</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>[In ImportWeb] [dataFiles:] This dataFiles element is an ArrayOfString as defined in section 2.2.4.2.</t>
-  </si>
-  <si>
-    <t>[In CreateWeb] This operation [CreateWeb] is used to create a new subsite of the current site.&lt;16&gt;</t>
-  </si>
-  <si>
-    <t>[In CreateWeb] presence: If set to true, the online presence information is to be enabled for the subsite to be created.</t>
-  </si>
-  <si>
-    <t>[In DeleteWeb] This operation [DeleteWeb] is used to delete an existing subsite of the current site.&lt;18&gt;</t>
-  </si>
-  <si>
-    <t>[In DeleteWebSoapIn] This message [DeleteWebSoapIn] is the request message for deleting an existing subsite of the current site.</t>
-  </si>
-  <si>
-    <t>[In DeleteWebSoapOut] This message [DeleteWebSoapOut] is the response message for deleting an existing subsite of the current site.</t>
-  </si>
-  <si>
-    <t>[In CreateWebSoapOut] This message [CreateWebSoapOut] is the response message for creating a new subsite of the current site.</t>
-  </si>
-  <si>
-    <t>[In Elements] The following XML schema element definitions [ExportSolution, ExportSolutionResponse] are specific to this operation [ExportSolution].</t>
-  </si>
-  <si>
-    <t>[In Elements] The following XML schema element definitions [ExportWeb, ExportWebResponse] are specific to this operation [ExportWeb].</t>
-  </si>
-  <si>
-    <t>[In Elements] The following XML schema element definitions [ExportWorkflowTemplate, ExportWorkflowTemplateResponse] are specific to this operation [ExportWorkflowTemplate].</t>
-  </si>
-  <si>
-    <t>[In Elements] The following XML schema element definitions [GetSite, GetSiteResponse] are specific to this operation [GetSite].</t>
-  </si>
-  <si>
-    <t>[In Elements] The following XML schema element definitions [GetSiteTemplates, GetSiteTemplatesResponse] are specific to this operation [GetSiteTemplates].</t>
-  </si>
-  <si>
-    <t>[In Elements] The following XML schema element definitions [GetUpdatedFormDigest, GetUpdatedFormDigestResponse] are specific to this operation [GetUpdatedFormDigest].</t>
-  </si>
-  <si>
-    <t>[In Elements] The following XML schema element definitions [GetUpdatedFormDigestInformation, GetUpdatedFormDigestInformationResponse] are specific to this operation [GetUpdatedFormDigestInformation].</t>
-  </si>
-  <si>
-    <t>[In Elements] The following XML schema element definitions [ImportWeb, ImportWebResponse] are specific to this operation [ImportWeb].</t>
-  </si>
-  <si>
-    <t>[In Elements] The following XML schema element definitions [CreateWeb, CreateWebResponse] are specific to this operation [CreateWeb].</t>
-  </si>
-  <si>
-    <t>[In CreateWebSoapIn] This message [CreateWebSoapIn] is the request message for creating a new subsite of the current site.</t>
-  </si>
-  <si>
-    <t>[In Elements] The following XML schema element definitions [DeleteWeb, DeleteWebResponse] are specific to this operation [DeleteWeb].</t>
-  </si>
-  <si>
-    <t>3.1.4.11</t>
-  </si>
-  <si>
-    <t>[In IsScriptSafeUrl] Script safe URLs are URLs the server trusts as valid sources for IFRAMEs in Hypertext Markup Language (HTML) content.</t>
-  </si>
-  <si>
-    <t>[In IsScriptSafeUrl] The client sends an IsScriptSafeUrlSoapIn request message.</t>
-  </si>
-  <si>
-    <t>[In IsScriptSafeUrl] [The client sends an IsScriptSafeUrlSoapIn request message, and] the server responds with an IsScriptSafeUrlSoapOut response message.</t>
-  </si>
-  <si>
-    <t>[In Messages] The following WSDL message definitions are specific to this operation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.1.4.11.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[In IsScriptSafeUrlSoapIn] The SOAP action value of the message is defined as:
- http://schemas.microsoft.com/sharepoint/soap/IsScriptSafeUrl
-</t>
-  </si>
-  <si>
-    <t>[In IsScriptSafeUrlSoapIn] The SOAP body contains an IsScriptSafeUrl element.</t>
-  </si>
-  <si>
-    <t>[In IsScriptSafeUrlSoapOut] The SOAP body contains an IsScriptSafeUrlResponse element.</t>
-  </si>
-  <si>
-    <t>[In Elements] The following XML schema element definitions are specific to this operation.</t>
-  </si>
-  <si>
-    <t>[In IsScriptSafeUrlResponse] Defines the output of the IsScriptSafeUrl operation, which contains an IsScriptSafeUrlResponse element with the following definition.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.1.4.11.2.2</t>
-  </si>
-  <si>
-    <t>[In Complex Types]The following XML schema complex type definitions are specific to this operation.</t>
-  </si>
-  <si>
-    <t>3.1.4.11.3</t>
-  </si>
-  <si>
-    <t>[In IsScriptSafeUrl] This operation [IsScriptSafeUrl]&lt;19&gt; is used to validate whether the specified URLs are valid script safe URLs for the current site.</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R326001</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R326002</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R326003</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R326004</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R326005</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R326006</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R326007</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R326008</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R326009</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R326010</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R326011</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R326012</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R326013</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R326014</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R326015</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R326016</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R326017</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R326018</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R326019</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R326020</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R326021</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R326022</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R326023</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R326024</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R326025</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R326026</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R326027</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [In IsScriptSafeUrl] [The IsScriptSafeUrl operation is defined as:]&lt;wsdl:operation name="IsScriptSafeUrl"&gt;
-   &lt;wsdl:input message="tns:IsScriptSafeUrlSoapIn" /&gt;
-   &lt;wsdl:output message="tns:IsScriptSafeUrlSoapOut" /&gt;
- &lt;/wsdl:operation&gt;
-</t>
-  </si>
-  <si>
-    <t>3.1.4.11.1</t>
-  </si>
-  <si>
-    <t>[In IsScriptSafeUrlSoapIn] This message [IsScriptSafeUrlSoapIn] is the request message for validating whether the specified URLs are valid script safe URLs for the current site.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.1.4.11.1.2</t>
-  </si>
-  <si>
-    <t>[In IsScriptSafeUrlSoapOut] This message [IsScriptSafeUrlSoapOut] is the response message for validating whether the specified URLs are valid script safe URLs for the current site.</t>
-  </si>
-  <si>
-    <t>3.1.4.11.2</t>
-  </si>
-  <si>
-    <t>3.1.4.11.2.1</t>
-  </si>
-  <si>
-    <t>[In IsScriptSafeUrl]This element [IsScriptSafeUrl] defines the input parameter for the IsScriptSafeUrl operation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[In IsScriptSafeUrl] [The IsScriptSafeUr element is defined as:] &lt;s:element name="IsScriptSafeUrl"&gt;
-   &lt;s:complexType&gt;
-     &lt;s:sequence&gt;
-       &lt;s:element name="urls" type="tns:ArrayOfString" maxOccurs="1" minOccurs="0"/&gt;
-     &lt;/s:sequence&gt;
-   &lt;/s:complexType&gt;
- &lt;/s:element&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[In IsScriptSafeUrl] urls: An ArrayOfString as defined in section 2.2.4.2. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[In IsScriptSafeUrl] Each URL in urls MUST NOT be null or empty, and MUST be relative or absolute Uniform Resource Locator (URL) values. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[In IsScriptSafeUrl] This element [urls] contains all URLs that need to be validated. </t>
-  </si>
-  <si>
-    <t>[In IsScriptSafeUrl] Relative URLs MUST be site-relative URLs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [In IsScriptSafeUrlResponse] IsScriptSafeUrlResult: An ArrayOfBoolean as defined in section 3.1.4.11.3.1, </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [In IsScriptSafeUrlResponse] it [IsScriptSafeUrlResult element] contains results for validating the URLs specified by the parameter urls in section 3.1.4.11.2.1.</t>
-  </si>
-  <si>
-    <t>3.1.4.11.3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[InArrayOfBoolean] This complex type contains an array of boolean elements. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1.4.11.3.1 </t>
-  </si>
-  <si>
-    <t>[InArrayOfBoolean] It is used for the response element IsScriptSafeUrlResult for the IsScriptSafeUrl operation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [In IsScriptSafeUrlResponse] [The IsScriptSafeUrlResponse element is defined as:]&lt;s:element name="IsScriptSafeUrlResponse"&gt;
-   &lt;s:complexType&gt;
-     &lt;s:sequence&gt;
-       &lt;s:element minOccurs="1" maxOccurs="1" name="IsScriptSafeUrlResult" type="tns:ArrayOfBoolean" /&gt;
-     &lt;/s:sequence&gt;
-   &lt;/s:complexType&gt;
- &lt;/s:element&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[InArrayOfBoolean]  [The ArrayOfBoolean complexType is defined as:]&lt;s:complexType name="ArrayOfBoolean"&gt;
-    &lt;s:sequence&gt;
-       &lt;s:element minOccurs="0" maxOccurs="unbounded" name="boolean" type="s:boolean" /&gt;
-    &lt;/s:sequence&gt;
- &lt;/s:complexType&gt;
-</t>
-  </si>
-  <si>
-    <t>[InArrayOfBoolean]  boolean: Indicates whether a URL is a valid script safe URL for the current site.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] [&lt;3&gt; Section 3.1.4.2:] If the export operation succeeds, this file also includes the list of the content migration package files created. (Microsoft Office SharePoint Server 2007 and above follow this behavior.)</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] &lt;4&gt; Section 3.1.4.2.2.1: If the value of cabSize is less than zero, Implementation does return a value of 1 or 7  but the server does not successfully complete the operation. The return code is not deterministic.(Windows SharePoint Services 3.0, SharePoint Foundation 2010, and SharePoint Foundation 2013 follow this behavior.)</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] Implementation does support this method [IsScriptSafeUrl]. &lt;19&gt; Section 3.1.4.11:  Only SharePoint Foundation 2013 supports this method.</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] Implementation does not support this method [IsScriptSafeUrl]. (SharePoint Foundation 2010 and SharePoint Server 2016 follow this behavior.)</t>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-SITESS_R326001002.</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R326001:i</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] &lt;18&gt; Section 3.1.4.10: Implementation does not support this method [DeleteWeb].(Windows SharePoint Services 2.0, Windows SharePoint Services 3.0, and Office SharePoint Server 2007 follow this behavior.)</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R523002</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] Implementation does be enabled for the subsite to be created, when presence set to false, and anonymous authentication is not allowed for the subsite.  &lt;17&gt; Section 3.1.4.9.2.1:  If anonymous authentication is not allowed for the subsite, the online presence information will be enabled on SharePoint Foundation 2010.</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R523:i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verified by derived requirements:MS-SITESS_R557001, MS-SITESS_R557002. </t>
-  </si>
-  <si>
-    <t>MS-SITESS_R557:i</t>
-  </si>
-  <si>
-    <t>MS-SITESS_R532</t>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-SITESS_R532.</t>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-SITESS_R391</t>
-  </si>
-  <si>
-    <t>Verified by derived requirements: MS-SITESS_R328, MS-SITESS_R329, MS-SITESS_R433001.</t>
-  </si>
-  <si>
-    <t>[In GetSiteTemplatesResponse] [TemplateList:] In case the LCID included in the request message indicates a language that is not installed on the server, Implementation does return a SOAP fault with the error code [0x81070209] specified in the following table.&lt;7&gt; (Windows SharePoint Services 3.0, and Office SharePoint Server 2007 follow this behavior.)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test Case</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unverified</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-SITESS_R32602701</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-SITESS_R32602702</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[InArrayOfBoolean]  boolean: [True] Indicates a URL is a valid script safe URL for the current site.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[InArrayOfBoolean]  boolean: [False] Indicates a URL is not a valid script safe URL for the current site.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-SITESS_R433001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-SITESS_R557002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-SITESS_R557001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-SITESS_R327001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1.4.12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-SITESS_R327001002.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-SITESS_R327001002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-SITESS_R327001:i</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] Implementation does support this method [IsScriptSafeUrlUsingCustomizedDomain]. &lt;20&gt; Section 3.1.4.12: Only SharePoint Server 2019 supports this method</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In IsScriptSafeUrlUsingCustomizedDomain] This operation [IsScriptSafeUrlUsingCustomizedDomain]&lt;20&gt; is used to validate whether the specified URLs are valid script safe URLS for the current site by checking against CustomScriptSafeDomains property of the site collection.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-SITESS_R327002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In IsScriptSafeUrlUsingCustomizedDomain] Script safe URLs are URLs the server trusts as valid sources for IFRAMEs in Hypertext Markup Language (HTML) content.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-SITESS_R327003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[In IsScriptSafeUrlUsingCustomizedDomain] [The IsScriptSafeUrlUsingCustomizedDomain operation is defined as:]&lt;wsdl:operation name="IsScriptSafeUrlUsingCustomizedDomain"&gt;
-		  &lt;wsdl:input message="tns:IsScriptSafeUrlUsingCustomizedDomainSoapIn" /&gt;
-		  &lt;wsdl:output message="tns:IsScriptSafeUrlUsingCustomizedDomainSoapOut" /&gt;
-		&lt;/wsdl:operation&gt;
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-SITESS_R327004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In IsScriptSafeUrlUsingCustomizedDomain] The client sends an IsScriptSafeUrlUsingCustomizedDomainSoapIn  request message.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Both</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-SITESS_R327005</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In IsScriptSafeUrlUsingCustomizedDomain] [The client sends an IsScriptSafeUrlUsingCustomizedDomainSoapOut  request message, and] the server responds with an IsScriptSafeUrlUsingCustomizedDomainSoapOut response message.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-SITESS_R327006</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1.4.12.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-SITESS_R327007</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In IsScriptSafeUrlUsingCustomizedDomainSoapIn] This message [IsScriptSafeUrlUsingCustomizedDomainSoapIn] is the request message for validating whether the specified URLs are valid script safe URLs for the current site by checking against the CustomScriptSafeDomains property of the site collection.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-SITESS_R327008</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[In IsScriptSafeUrlUsingCustomizedDomainSoapIn] The SOAP action value of the message is defined as:
- http://schemas.microsoft.com/sharepoint/soap/IsScriptSafeUrlUsingCustomizedDomain
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In IsScriptSafeUrlUsingCustomizedDomainSoapIn] The SOAP body contains an IsScriptSafeUrlUsingCustomizedDomain  element.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-SITESS_R327009</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In IsScriptSafeUrlUsingCustomizedDomainSoapOut] This message [IsScriptSafeUrlUsingCustomizedDomainSoapOut] is the response message for validating whether the specified URLs are valid script safe URLs for the current site by checking against CustomScriptSafeDomains property of the site collection.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-SITESS_R327010</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-SITESS_R327011</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In IsScriptSafeUrlUsingCustomizedDomainSoapOut] The SOAP body contains an IsScriptSafeUrlUsingCustomizedDomainResponse  element.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1.4.12.2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1.4.12.1.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1.4.12.1.2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-SITESS_R327012</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-SITESS_R327013</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1.4.12.2.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In IsScriptSafeUrlUsingCustomizedDomain]This element [IsScriptSafeUrlUsingCustomizedDomain] defines the input parameter for the IsScriptSafeUrlUsingCustomizedDomain operation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-SITESS_R327014</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[In IsScriptSafeUrlUsingCustomizedDomain] [The IsScriptSafeUrlUsingCustomizedDomain element is defined as:]		&lt;s:element name="IsScriptSafeUrlUsingCustomizedDomain"&gt;
-		  &lt;s:complexType&gt;
-		    &lt;s:sequence&gt;
-		      &lt;s:element name="urls" type="tns:ArrayOfString" maxOccurs="1" minOccurs="0"/&gt;
-		    &lt;/s:sequence&gt;
-		  &lt;/s:complexType&gt;
-		&lt;/s:element&gt;
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-SITESS_R327015</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[In IsScriptSafeUrlUsingCustomizedDomain ] urls: An ArrayOfString as defined in section 2.2.4.2. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[In IsScriptSafeUrlUsingCustomizedDomain] This element [urls] contains all URLs that need to be validated. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-SITESS_R327016</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-SITESS_R327017</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[In IsScriptSafeUrlUsingCustomizedDomain] Each URL in urls MUST NOT be null or empty, and MUST be relative or absolute Uniform Resource Locator (URL) values. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-SITESS_R327018</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In IsScriptSafeUrlUsingCustomizedDomain] Relative URLs MUST be site-relative URLs.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-SITESS_R327019</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1.4.12.2.2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In IsScriptSafeUrlUsingCustomizedDomainResponse] Defines the output of the IsScriptSafeUrlUsingCustomizedDomain  operation, which contains an IsScriptSafeUrlUsingCustomizedDomainResponse element with the following definition.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-SITESS_R327020</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> [In IsScriptSafeUrlUsingCustomizedDomainResponse] [The IsScriptSafeUrlUsingCustomizedDomainResponse element is defined as:]&lt;s:element name="IsScriptSafeUrlUsingCustomizedDomainResponse"&gt;
-		  &lt;s:complexType&gt;
-		    &lt;s:sequence&gt;
-		      &lt;s:element minOccurs="1" maxOccurs="1" name="IsScriptSafeUrlUsingCustomizedDomainResult" type="tns:ArrayOfBoolean" /&gt;
-		    &lt;/s:sequence&gt;
-		  &lt;/s:complexType&gt;
-		&lt;/s:element&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-SITESS_R327021</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[In IsScriptSafeUrlUsingCustomizedDomainResponse] IsScriptSafeUrlUsingCustomizedDomainResult: An ArrayOfBoolean as defined in section 3.1.4.12.3.1, </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In IsScriptSafeUrlUsingCustomizedDomainResponse] it [IsScriptSafeUrlUsingCustomizedDomainResult element] contains results for validating the URLs specified by the parameter urls in section 3.1.4.12.2.1.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-SITESS_R327022</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-SITESS_R327023</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-SITESS_R327024</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1.4.12.3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1.4.12.3.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-SITESS_R327025</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[InArrayOfBoolean] This complex type contains an array of boolean elements. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[InArrayOfBoolean] It is used for the response element IsScriptSafeUrlUsingCustomizedDomainResult for the IsScriptSafeUrlUsingCustomizedDomain operation.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-SITESS_R327026</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1.4.12.3.1 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-SITESS_R327027</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-SITESS_R32702701</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-SITESS_R32702702</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[InArrayOfBoolean]  boolean: Indicates whether a URL is a valid script safe URL for the current site by checking against CustomScriptSafeDomains property of the site collection.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[InArrayOfBoolean]  boolean: [True] Indicates a URL is a valid script safe URL for the current site by checking against CustomScriptSafeDomains property of the site collection.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[InArrayOfBoolean]  boolean: [False] Indicates a URL is not a URL is a valid script safe URL for the current site by checking against CustomScriptSafeDomains property of the site collection.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In Namespaces] Prefix "soap12" is used for namespace URI: "http://schemas.xmlsoap.org/wsdl/soap12/" and the reference is [SOAP1.2-1/2007] and [SOAP1.2-2/2007].</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In Protocol Details] This protocol [MS-SITESS] allows protocol servers to provide additional details for SOAP faults by including either a detail element as specified in [SOAP1.1] section 4.4, or a Detail element as specified in [SOAP1.2-1/2007] section 5.4.5, which conforms to the XML schema of the SOAPFaultDetails complex type specified in section 2.2.4.1.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In Message Processing Events and Sequencing Rules] The ImportWeb operation specifies importing a site.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In ExportSolution] [includeWebContent:] If set to true, all contents of lists and document libraries MUST be packaged in the solution.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In ExportWeb] This operation [ExportWeb] saves the files to the server, which can be used to migrate or restore a site.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In ExportWebResponse] If the value of ExportWebResult is 7, it specifies ExportError: An error other than the errors listed in this table occurred while exporting the site.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In ImportWeb] Upon successful completion of the operation, the site at the specified URL MUST contain all the content from the specified content migration package files.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In ImportWebResponse] [ImportWebResult:] If the value of ImportWebResult is 6, it specifies ImportWebCantCreate: The user has insufficient permission to import to the location specified in webUrl.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In ImportWebResponse] [ImportWebResult:] If the value of ImportWebResult is 7, it specifies ImportWebNotEmpty: The site specified in the webUrl cannot be created.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-SITESS_R271001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-SITESS_R271002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In ImportWebResponse] [ImportWebResult:] If the value of ImportWebResult is 12, it specifies ImportWebNoAccess: There was an error importing the site. See message for details.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-SITESS_R326001002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-SITESS_R326001001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Verified by derived requirements: MS-SITESS_R400, MS-SITESS_R1561.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] &lt;7&gt; Section 3.1.4.5.2.2: Implementation does not return the SOAP fault. It returns a successful GetSiteTemplatesResponse with an empty TemplateList element.(Microsoft SharePoint Foundation 2010 SharePoint Foundation 2013 and SharePoint Server 2016 above follow this behavior.)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In ImportWebResponse] ImportWebResult: The result of the operation is in the range [1, 2, 4 , 5, 6, 7, 8, 11,12]  as specified in the table in section 3.1.4.8.2.2.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In CreateWeb] [presence:] If omitted, the online presence information MUST NOT be enabled for the subsite to be created. &lt;17&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Verified by derived requirements: MS-SITESS_R523001, MS-SITESS_R523002.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-SITESS_R523001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In CreateWeb] [presence:] If set to false, the online presence information MUST NOT be enabled for the subsite to be created. &lt;17&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] Implementation does be enabled for the subsite to be created, when presence set to omitted, and anonymous authentication is not allowed for the subsite.  &lt;17&gt; Section 3.1.4.9.2.1:  If anonymous authentication is not allowed for the subsite, the online presence information will be enabled on SharePoint Foundation 2010.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior]Implementation does not be enabled for the subsite to be created, when presence set to omitted. (SharePoint Foundation 2013 and above follow this hebavior.)  &lt;17&gt; Section 3.1.4.9.2.1:  If anonymous authentication is not allowed for the subsite, the online presence information will not be enabled on SharePoint Foundation 2013 and above.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior]Implementation does not be enabled for the subsite to be created, when presence set to false. (SharePoint Foundation 2013 and above follow this hebavior.)  &lt;17&gt; Section 3.1.4.9.2.1:  If anonymous authentication is not allowed for the subsite, the online presence information will not be enabled on SharePoint Foundation 2013 and above.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5110,27 +5100,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5193,6 +5162,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -16598,15 +16588,15 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M529"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C520" sqref="C520"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="68.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="78" style="5" customWidth="1"/>
     <col min="4" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="10.125" customWidth="1"/>
     <col min="6" max="6" width="15.125" customWidth="1"/>
@@ -16653,10 +16643,10 @@
         <v>28</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E3" s="48" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F3" s="56">
         <v>43634</v>
@@ -16667,49 +16657,49 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="88"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="109"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="91"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="112"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="113" t="s">
         <v>908</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
       <c r="J6" s="47"/>
       <c r="K6" s="2"/>
     </row>
@@ -16717,32 +16707,32 @@
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="114" t="s">
         <v>909</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
       <c r="J8" s="47"/>
       <c r="K8" s="2"/>
     </row>
@@ -16750,16 +16740,16 @@
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="93" t="s">
         <v>915</v>
       </c>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="102"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="95"/>
       <c r="J9" s="47"/>
       <c r="K9" s="2"/>
     </row>
@@ -16767,16 +16757,16 @@
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="103" t="s">
+      <c r="B10" s="96" t="s">
         <v>916</v>
       </c>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="105"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="98"/>
       <c r="J10" s="47"/>
       <c r="K10" s="2"/>
     </row>
@@ -16784,16 +16774,16 @@
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="92" t="s">
         <v>910</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
@@ -16806,12 +16796,12 @@
       <c r="C12" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="106"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="108"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="101"/>
       <c r="J12" s="47"/>
       <c r="K12" s="2"/>
     </row>
@@ -16825,12 +16815,12 @@
       <c r="C13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="109"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="111"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="104"/>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
@@ -16843,12 +16833,12 @@
       <c r="C14" s="9" t="s">
         <v>912</v>
       </c>
-      <c r="D14" s="109"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="111"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="104"/>
       <c r="J14" s="47"/>
       <c r="K14" s="2"/>
     </row>
@@ -16862,28 +16852,28 @@
       <c r="C15" s="9" t="s">
         <v>913</v>
       </c>
-      <c r="D15" s="112"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="114"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="107"/>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="94" t="s">
+      <c r="B16" s="87" t="s">
         <v>917</v>
       </c>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
       <c r="J16" s="47"/>
       <c r="K16" s="2"/>
     </row>
@@ -16891,32 +16881,32 @@
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="96" t="s">
-        <v>918</v>
-      </c>
-      <c r="C17" s="97"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="98"/>
+      <c r="B17" s="89" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="91"/>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="99" t="s">
+      <c r="B18" s="92" t="s">
         <v>914</v>
       </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
       <c r="J18" s="47"/>
       <c r="K18" s="2"/>
       <c r="M18" s="2"/>
@@ -16999,7 +16989,7 @@
         <v>18</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
@@ -17010,7 +17000,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>35</v>
@@ -17028,7 +17018,7 @@
         <v>23</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -17056,7 +17046,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>38</v>
       </c>
@@ -17081,7 +17071,7 @@
       </c>
       <c r="I24" s="16"/>
     </row>
-    <row r="25" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>40</v>
       </c>
@@ -17108,7 +17098,7 @@
       </c>
       <c r="I25" s="16"/>
     </row>
-    <row r="26" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>43</v>
       </c>
@@ -17160,7 +17150,7 @@
       </c>
       <c r="I27" s="16"/>
     </row>
-    <row r="28" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>48</v>
       </c>
@@ -17260,7 +17250,7 @@
       </c>
       <c r="I31" s="16"/>
     </row>
-    <row r="32" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
         <v>57</v>
       </c>
@@ -17285,7 +17275,7 @@
       </c>
       <c r="I32" s="16"/>
     </row>
-    <row r="33" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
         <v>59</v>
       </c>
@@ -17318,7 +17308,7 @@
         <v>51</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="7" t="s">
@@ -17418,7 +17408,7 @@
         <v>68</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="7" t="s">
@@ -17435,7 +17425,7 @@
       </c>
       <c r="I38" s="16"/>
     </row>
-    <row r="39" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="7" t="s">
         <v>69</v>
       </c>
@@ -17468,7 +17458,7 @@
         <v>68</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="7" t="s">
@@ -17485,15 +17475,15 @@
       </c>
       <c r="I40" s="16"/>
     </row>
-    <row r="41" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B41" s="53" t="s">
         <v>68</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D41" s="53"/>
       <c r="E41" s="7" t="s">
@@ -17535,7 +17525,7 @@
       </c>
       <c r="I42" s="16"/>
     </row>
-    <row r="43" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
         <v>75</v>
       </c>
@@ -17610,7 +17600,7 @@
       </c>
       <c r="I45" s="16"/>
     </row>
-    <row r="46" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
         <v>81</v>
       </c>
@@ -17637,13 +17627,13 @@
     </row>
     <row r="47" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B47" s="57" t="s">
+        <v>998</v>
+      </c>
+      <c r="C47" s="13" t="s">
         <v>999</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>1000</v>
       </c>
       <c r="D47" s="53"/>
       <c r="E47" s="7" t="s">
@@ -17662,13 +17652,13 @@
     </row>
     <row r="48" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A48" s="7" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B48" s="57" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D48" s="53"/>
       <c r="E48" s="7" t="s">
@@ -17685,15 +17675,15 @@
       </c>
       <c r="I48" s="54"/>
     </row>
-    <row r="49" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="7" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B49" s="57" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D49" s="53"/>
       <c r="E49" s="7" t="s">
@@ -17706,7 +17696,7 @@
         <v>16</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="I49" s="54"/>
     </row>
@@ -17810,7 +17800,7 @@
       </c>
       <c r="I53" s="16"/>
     </row>
-    <row r="54" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="7" t="s">
         <v>91</v>
       </c>
@@ -17835,7 +17825,7 @@
       </c>
       <c r="I54" s="16"/>
     </row>
-    <row r="55" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A55" s="7" t="s">
         <v>93</v>
       </c>
@@ -17843,7 +17833,7 @@
         <v>3</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D55" s="14"/>
       <c r="E55" s="7" t="s">
@@ -17885,7 +17875,7 @@
       </c>
       <c r="I56" s="16"/>
     </row>
-    <row r="57" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A57" s="7" t="s">
         <v>96</v>
       </c>
@@ -17910,7 +17900,7 @@
       </c>
       <c r="I57" s="16"/>
     </row>
-    <row r="58" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A58" s="7" t="s">
         <v>99</v>
       </c>
@@ -18018,7 +18008,7 @@
         <v>100</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D62" s="14"/>
       <c r="E62" s="7" t="s">
@@ -18085,7 +18075,7 @@
       </c>
       <c r="I64" s="16"/>
     </row>
-    <row r="65" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="7" t="s">
         <v>113</v>
       </c>
@@ -18110,7 +18100,7 @@
       </c>
       <c r="I65" s="16"/>
     </row>
-    <row r="66" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="7" t="s">
         <v>115</v>
       </c>
@@ -18168,7 +18158,7 @@
         <v>100</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D68" s="14"/>
       <c r="E68" s="7" t="s">
@@ -18193,7 +18183,7 @@
         <v>121</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D69" s="14"/>
       <c r="E69" s="7" t="s">
@@ -18209,7 +18199,7 @@
         <v>18</v>
       </c>
       <c r="I69" s="54" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
@@ -18237,7 +18227,7 @@
       </c>
       <c r="I70" s="16"/>
     </row>
-    <row r="71" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="7" t="s">
         <v>124</v>
       </c>
@@ -18262,7 +18252,7 @@
       </c>
       <c r="I71" s="16"/>
     </row>
-    <row r="72" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A72" s="7" t="s">
         <v>126</v>
       </c>
@@ -18287,7 +18277,7 @@
       </c>
       <c r="I72" s="16"/>
     </row>
-    <row r="73" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A73" s="7" t="s">
         <v>128</v>
       </c>
@@ -18312,7 +18302,7 @@
       </c>
       <c r="I73" s="16"/>
     </row>
-    <row r="74" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A74" s="7" t="s">
         <v>131</v>
       </c>
@@ -18362,7 +18352,7 @@
       </c>
       <c r="I75" s="16"/>
     </row>
-    <row r="76" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76" s="7" t="s">
         <v>136</v>
       </c>
@@ -18387,7 +18377,7 @@
       </c>
       <c r="I76" s="16"/>
     </row>
-    <row r="77" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A77" s="7" t="s">
         <v>138</v>
       </c>
@@ -18412,7 +18402,7 @@
       </c>
       <c r="I77" s="16"/>
     </row>
-    <row r="78" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A78" s="7" t="s">
         <v>141</v>
       </c>
@@ -18437,7 +18427,7 @@
       </c>
       <c r="I78" s="16"/>
     </row>
-    <row r="79" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A79" s="7" t="s">
         <v>143</v>
       </c>
@@ -18445,7 +18435,7 @@
         <v>144</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D79" s="14"/>
       <c r="E79" s="7" t="s">
@@ -18462,7 +18452,7 @@
       </c>
       <c r="I79" s="16"/>
     </row>
-    <row r="80" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A80" s="7" t="s">
         <v>145</v>
       </c>
@@ -18512,7 +18502,7 @@
       </c>
       <c r="I81" s="16"/>
     </row>
-    <row r="82" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A82" s="7" t="s">
         <v>150</v>
       </c>
@@ -18537,7 +18527,7 @@
       </c>
       <c r="I82" s="16"/>
     </row>
-    <row r="83" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" s="7" t="s">
         <v>152</v>
       </c>
@@ -18586,7 +18576,7 @@
         <v>18</v>
       </c>
       <c r="I84" s="16" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="54" x14ac:dyDescent="0.15">
@@ -18666,7 +18656,7 @@
       </c>
       <c r="I87" s="13"/>
     </row>
-    <row r="88" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A88" s="7" t="s">
         <v>163</v>
       </c>
@@ -18691,7 +18681,7 @@
       </c>
       <c r="I88" s="16"/>
     </row>
-    <row r="89" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A89" s="7" t="s">
         <v>165</v>
       </c>
@@ -18716,7 +18706,7 @@
       </c>
       <c r="I89" s="16"/>
     </row>
-    <row r="90" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A90" s="7" t="s">
         <v>167</v>
       </c>
@@ -18741,7 +18731,7 @@
       </c>
       <c r="I90" s="16"/>
     </row>
-    <row r="91" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A91" s="7" t="s">
         <v>169</v>
       </c>
@@ -18791,7 +18781,7 @@
       </c>
       <c r="I92" s="16"/>
     </row>
-    <row r="93" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A93" s="7" t="s">
         <v>173</v>
       </c>
@@ -18816,7 +18806,7 @@
       </c>
       <c r="I93" s="16"/>
     </row>
-    <row r="94" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A94" s="7" t="s">
         <v>175</v>
       </c>
@@ -18841,7 +18831,7 @@
       </c>
       <c r="I94" s="16"/>
     </row>
-    <row r="95" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A95" s="7" t="s">
         <v>178</v>
       </c>
@@ -18866,7 +18856,7 @@
       </c>
       <c r="I95" s="16"/>
     </row>
-    <row r="96" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A96" s="7" t="s">
         <v>180</v>
       </c>
@@ -18874,7 +18864,7 @@
         <v>146</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D96" s="14"/>
       <c r="E96" s="7" t="s">
@@ -18891,7 +18881,7 @@
       </c>
       <c r="I96" s="16"/>
     </row>
-    <row r="97" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A97" s="7" t="s">
         <v>181</v>
       </c>
@@ -18941,7 +18931,7 @@
       </c>
       <c r="I98" s="16"/>
     </row>
-    <row r="99" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A99" s="7" t="s">
         <v>185</v>
       </c>
@@ -18990,7 +18980,7 @@
         <v>18</v>
       </c>
       <c r="I100" s="16" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="27" x14ac:dyDescent="0.15">
@@ -19001,7 +18991,7 @@
         <v>188</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D101" s="14"/>
       <c r="E101" s="7" t="s">
@@ -19043,7 +19033,7 @@
       </c>
       <c r="I102" s="16"/>
     </row>
-    <row r="103" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A103" s="7" t="s">
         <v>193</v>
       </c>
@@ -19118,7 +19108,7 @@
       </c>
       <c r="I105" s="16"/>
     </row>
-    <row r="106" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A106" s="7" t="s">
         <v>199</v>
       </c>
@@ -19167,7 +19157,7 @@
         <v>18</v>
       </c>
       <c r="I107" s="16" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
@@ -19195,7 +19185,7 @@
       </c>
       <c r="I108" s="16"/>
     </row>
-    <row r="109" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A109" s="7" t="s">
         <v>205</v>
       </c>
@@ -19220,7 +19210,7 @@
       </c>
       <c r="I109" s="16"/>
     </row>
-    <row r="110" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A110" s="7" t="s">
         <v>208</v>
       </c>
@@ -19245,7 +19235,7 @@
       </c>
       <c r="I110" s="16"/>
     </row>
-    <row r="111" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A111" s="7" t="s">
         <v>211</v>
       </c>
@@ -19270,7 +19260,7 @@
       </c>
       <c r="I111" s="16"/>
     </row>
-    <row r="112" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A112" s="7" t="s">
         <v>213</v>
       </c>
@@ -19295,7 +19285,7 @@
       </c>
       <c r="I112" s="16"/>
     </row>
-    <row r="113" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A113" s="7" t="s">
         <v>215</v>
       </c>
@@ -19320,7 +19310,7 @@
       </c>
       <c r="I113" s="16"/>
     </row>
-    <row r="114" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A114" s="7" t="s">
         <v>218</v>
       </c>
@@ -19345,15 +19335,15 @@
       </c>
       <c r="I114" s="16"/>
     </row>
-    <row r="115" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A115" s="7" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B115" s="14" t="s">
         <v>220</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D115" s="14"/>
       <c r="E115" s="7" t="s">
@@ -19370,7 +19360,7 @@
       </c>
       <c r="I115" s="16"/>
     </row>
-    <row r="116" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A116" s="7" t="s">
         <v>221</v>
       </c>
@@ -19395,7 +19385,7 @@
       </c>
       <c r="I116" s="16"/>
     </row>
-    <row r="117" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:9" ht="297" x14ac:dyDescent="0.15">
       <c r="A117" s="7" t="s">
         <v>224</v>
       </c>
@@ -19420,7 +19410,7 @@
       </c>
       <c r="I117" s="16"/>
     </row>
-    <row r="118" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A118" s="7" t="s">
         <v>227</v>
       </c>
@@ -19445,7 +19435,7 @@
       </c>
       <c r="I118" s="16"/>
     </row>
-    <row r="119" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A119" s="7" t="s">
         <v>229</v>
       </c>
@@ -19495,7 +19485,7 @@
       </c>
       <c r="I120" s="16"/>
     </row>
-    <row r="121" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A121" s="7" t="s">
         <v>233</v>
       </c>
@@ -19520,7 +19510,7 @@
       </c>
       <c r="I121" s="16"/>
     </row>
-    <row r="122" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A122" s="7" t="s">
         <v>235</v>
       </c>
@@ -19547,13 +19537,13 @@
     </row>
     <row r="123" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A123" s="7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B123" s="11" t="s">
         <v>222</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D123" s="14"/>
       <c r="E123" s="7" t="s">
@@ -19569,21 +19559,21 @@
         <v>18</v>
       </c>
       <c r="I123" s="54" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A124" s="7" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B124" s="11" t="s">
         <v>222</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D124" s="53" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E124" s="7" t="s">
         <v>24</v>
@@ -19598,10 +19588,10 @@
         <v>21</v>
       </c>
       <c r="I124" s="54" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A125" s="7" t="s">
         <v>237</v>
       </c>
@@ -19626,7 +19616,7 @@
       </c>
       <c r="I125" s="16"/>
     </row>
-    <row r="126" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A126" s="7" t="s">
         <v>239</v>
       </c>
@@ -19651,7 +19641,7 @@
       </c>
       <c r="I126" s="16"/>
     </row>
-    <row r="127" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A127" s="7" t="s">
         <v>241</v>
       </c>
@@ -19659,7 +19649,7 @@
         <v>222</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D127" s="14"/>
       <c r="E127" s="7" t="s">
@@ -19676,7 +19666,7 @@
       </c>
       <c r="I127" s="16"/>
     </row>
-    <row r="128" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A128" s="7" t="s">
         <v>242</v>
       </c>
@@ -19701,7 +19691,7 @@
       </c>
       <c r="I128" s="16"/>
     </row>
-    <row r="129" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A129" s="7" t="s">
         <v>244</v>
       </c>
@@ -19726,7 +19716,7 @@
       </c>
       <c r="I129" s="13"/>
     </row>
-    <row r="130" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A130" s="7" t="s">
         <v>246</v>
       </c>
@@ -19776,7 +19766,7 @@
       </c>
       <c r="I131" s="13"/>
     </row>
-    <row r="132" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A132" s="7" t="s">
         <v>250</v>
       </c>
@@ -19801,7 +19791,7 @@
       </c>
       <c r="I132" s="16"/>
     </row>
-    <row r="133" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A133" s="7" t="s">
         <v>252</v>
       </c>
@@ -19851,7 +19841,7 @@
       </c>
       <c r="I134" s="16"/>
     </row>
-    <row r="135" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A135" s="7" t="s">
         <v>256</v>
       </c>
@@ -19900,10 +19890,10 @@
         <v>18</v>
       </c>
       <c r="I136" s="13" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A137" s="7" t="s">
         <v>260</v>
       </c>
@@ -19911,7 +19901,7 @@
         <v>222</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D137" s="14"/>
       <c r="E137" s="7" t="s">
@@ -19928,7 +19918,7 @@
       </c>
       <c r="I137" s="16"/>
     </row>
-    <row r="138" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A138" s="7" t="s">
         <v>261</v>
       </c>
@@ -19978,7 +19968,7 @@
       </c>
       <c r="I139" s="16"/>
     </row>
-    <row r="140" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A140" s="7" t="s">
         <v>265</v>
       </c>
@@ -20003,7 +19993,7 @@
       </c>
       <c r="I140" s="16"/>
     </row>
-    <row r="141" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A141" s="7" t="s">
         <v>266</v>
       </c>
@@ -20028,7 +20018,7 @@
       </c>
       <c r="I141" s="16"/>
     </row>
-    <row r="142" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A142" s="7" t="s">
         <v>268</v>
       </c>
@@ -20053,7 +20043,7 @@
       </c>
       <c r="I142" s="16"/>
     </row>
-    <row r="143" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A143" s="7" t="s">
         <v>270</v>
       </c>
@@ -20111,7 +20101,7 @@
         <v>262</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D145" s="14"/>
       <c r="E145" s="7" t="s">
@@ -20136,7 +20126,7 @@
         <v>262</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D146" s="14"/>
       <c r="E146" s="7" t="s">
@@ -20153,7 +20143,7 @@
       </c>
       <c r="I146" s="13"/>
     </row>
-    <row r="147" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A147" s="7" t="s">
         <v>276</v>
       </c>
@@ -20161,7 +20151,7 @@
         <v>262</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D147" s="14"/>
       <c r="E147" s="7" t="s">
@@ -20203,7 +20193,7 @@
       </c>
       <c r="I148" s="16"/>
     </row>
-    <row r="149" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A149" s="7" t="s">
         <v>279</v>
       </c>
@@ -20211,7 +20201,7 @@
         <v>262</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D149" s="14"/>
       <c r="E149" s="7" t="s">
@@ -20252,10 +20242,10 @@
         <v>18</v>
       </c>
       <c r="I150" s="16" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A151" s="7" t="s">
         <v>283</v>
       </c>
@@ -20355,7 +20345,7 @@
       </c>
       <c r="I154" s="16"/>
     </row>
-    <row r="155" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A155" s="7" t="s">
         <v>292</v>
       </c>
@@ -20405,7 +20395,7 @@
       </c>
       <c r="I156" s="16"/>
     </row>
-    <row r="157" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A157" s="7" t="s">
         <v>297</v>
       </c>
@@ -20455,7 +20445,7 @@
       </c>
       <c r="I158" s="16"/>
     </row>
-    <row r="159" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A159" s="7" t="s">
         <v>302</v>
       </c>
@@ -20488,7 +20478,7 @@
         <v>305</v>
       </c>
       <c r="C160" s="13" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D160" s="14"/>
       <c r="E160" s="7" t="s">
@@ -20505,7 +20495,7 @@
       </c>
       <c r="I160" s="16"/>
     </row>
-    <row r="161" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A161" s="7" t="s">
         <v>306</v>
       </c>
@@ -20555,7 +20545,7 @@
       </c>
       <c r="I162" s="16"/>
     </row>
-    <row r="163" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A163" s="7" t="s">
         <v>312</v>
       </c>
@@ -20580,7 +20570,7 @@
       </c>
       <c r="I163" s="16"/>
     </row>
-    <row r="164" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A164" s="7" t="s">
         <v>314</v>
       </c>
@@ -20605,7 +20595,7 @@
       </c>
       <c r="I164" s="16"/>
     </row>
-    <row r="165" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A165" s="7" t="s">
         <v>316</v>
       </c>
@@ -20613,7 +20603,7 @@
         <v>307</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D165" s="14"/>
       <c r="E165" s="7" t="s">
@@ -20629,10 +20619,10 @@
         <v>18</v>
       </c>
       <c r="I165" s="16" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A166" s="7" t="s">
         <v>317</v>
       </c>
@@ -20640,10 +20630,10 @@
         <v>307</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D166" s="14" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E166" s="7" t="s">
         <v>20</v>
@@ -20709,7 +20699,7 @@
       </c>
       <c r="I168" s="13"/>
     </row>
-    <row r="169" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A169" s="7" t="s">
         <v>322</v>
       </c>
@@ -20734,7 +20724,7 @@
       </c>
       <c r="I169" s="16"/>
     </row>
-    <row r="170" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A170" s="7" t="s">
         <v>324</v>
       </c>
@@ -20759,7 +20749,7 @@
       </c>
       <c r="I170" s="16"/>
     </row>
-    <row r="171" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A171" s="7" t="s">
         <v>326</v>
       </c>
@@ -20784,7 +20774,7 @@
       </c>
       <c r="I171" s="16"/>
     </row>
-    <row r="172" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A172" s="7" t="s">
         <v>328</v>
       </c>
@@ -20817,7 +20807,7 @@
         <v>307</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D173" s="14"/>
       <c r="E173" s="7" t="s">
@@ -20834,7 +20824,7 @@
       </c>
       <c r="I173" s="13"/>
     </row>
-    <row r="174" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A174" s="7" t="s">
         <v>331</v>
       </c>
@@ -20859,7 +20849,7 @@
       </c>
       <c r="I174" s="16"/>
     </row>
-    <row r="175" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A175" s="7" t="s">
         <v>333</v>
       </c>
@@ -20909,7 +20899,7 @@
       </c>
       <c r="I176" s="16"/>
     </row>
-    <row r="177" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A177" s="7" t="s">
         <v>337</v>
       </c>
@@ -20934,7 +20924,7 @@
       </c>
       <c r="I177" s="16"/>
     </row>
-    <row r="178" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A178" s="7" t="s">
         <v>311</v>
       </c>
@@ -20959,7 +20949,7 @@
       </c>
       <c r="I178" s="16"/>
     </row>
-    <row r="179" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A179" s="7" t="s">
         <v>341</v>
       </c>
@@ -21008,7 +20998,7 @@
         <v>18</v>
       </c>
       <c r="I180" s="16" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
@@ -21036,7 +21026,7 @@
       </c>
       <c r="I181" s="16"/>
     </row>
-    <row r="182" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A182" s="7" t="s">
         <v>348</v>
       </c>
@@ -21086,7 +21076,7 @@
       </c>
       <c r="I183" s="16"/>
     </row>
-    <row r="184" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A184" s="7" t="s">
         <v>352</v>
       </c>
@@ -21111,7 +21101,7 @@
       </c>
       <c r="I184" s="16"/>
     </row>
-    <row r="185" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A185" s="7" t="s">
         <v>355</v>
       </c>
@@ -21136,7 +21126,7 @@
       </c>
       <c r="I185" s="16"/>
     </row>
-    <row r="186" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A186" s="7" t="s">
         <v>358</v>
       </c>
@@ -21161,7 +21151,7 @@
       </c>
       <c r="I186" s="16"/>
     </row>
-    <row r="187" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A187" s="7" t="s">
         <v>360</v>
       </c>
@@ -21186,7 +21176,7 @@
       </c>
       <c r="I187" s="16"/>
     </row>
-    <row r="188" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A188" s="7" t="s">
         <v>362</v>
       </c>
@@ -21211,7 +21201,7 @@
       </c>
       <c r="I188" s="16"/>
     </row>
-    <row r="189" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A189" s="7" t="s">
         <v>365</v>
       </c>
@@ -21236,7 +21226,7 @@
       </c>
       <c r="I189" s="16"/>
     </row>
-    <row r="190" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A190" s="7" t="s">
         <v>367</v>
       </c>
@@ -21244,7 +21234,7 @@
         <v>368</v>
       </c>
       <c r="C190" s="13" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D190" s="14"/>
       <c r="E190" s="7" t="s">
@@ -21261,7 +21251,7 @@
       </c>
       <c r="I190" s="16"/>
     </row>
-    <row r="191" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A191" s="7" t="s">
         <v>369</v>
       </c>
@@ -21286,7 +21276,7 @@
       </c>
       <c r="I191" s="16"/>
     </row>
-    <row r="192" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A192" s="7" t="s">
         <v>372</v>
       </c>
@@ -21311,7 +21301,7 @@
       </c>
       <c r="I192" s="16"/>
     </row>
-    <row r="193" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A193" s="7" t="s">
         <v>374</v>
       </c>
@@ -21336,7 +21326,7 @@
       </c>
       <c r="I193" s="16"/>
     </row>
-    <row r="194" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A194" s="7" t="s">
         <v>376</v>
       </c>
@@ -21361,7 +21351,7 @@
       </c>
       <c r="I194" s="16"/>
     </row>
-    <row r="195" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A195" s="7" t="s">
         <v>378</v>
       </c>
@@ -21386,7 +21376,7 @@
       </c>
       <c r="I195" s="16"/>
     </row>
-    <row r="196" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A196" s="7" t="s">
         <v>373</v>
       </c>
@@ -21394,7 +21384,7 @@
         <v>379</v>
       </c>
       <c r="C196" s="13" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D196" s="14"/>
       <c r="E196" s="7" t="s">
@@ -21411,7 +21401,7 @@
       </c>
       <c r="I196" s="16"/>
     </row>
-    <row r="197" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A197" s="7" t="s">
         <v>381</v>
       </c>
@@ -21436,7 +21426,7 @@
       </c>
       <c r="I197" s="16"/>
     </row>
-    <row r="198" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A198" s="7" t="s">
         <v>383</v>
       </c>
@@ -21461,7 +21451,7 @@
       </c>
       <c r="I198" s="16"/>
     </row>
-    <row r="199" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A199" s="7" t="s">
         <v>385</v>
       </c>
@@ -21486,7 +21476,7 @@
       </c>
       <c r="I199" s="16"/>
     </row>
-    <row r="200" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A200" s="7" t="s">
         <v>387</v>
       </c>
@@ -21536,7 +21526,7 @@
       </c>
       <c r="I201" s="16"/>
     </row>
-    <row r="202" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A202" s="7" t="s">
         <v>391</v>
       </c>
@@ -21561,7 +21551,7 @@
       </c>
       <c r="I202" s="16"/>
     </row>
-    <row r="203" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A203" s="7" t="s">
         <v>393</v>
       </c>
@@ -21586,7 +21576,7 @@
       </c>
       <c r="I203" s="16"/>
     </row>
-    <row r="204" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A204" s="7" t="s">
         <v>395</v>
       </c>
@@ -21711,7 +21701,7 @@
       </c>
       <c r="I208" s="16"/>
     </row>
-    <row r="209" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A209" s="7" t="s">
         <v>407</v>
       </c>
@@ -21736,7 +21726,7 @@
       </c>
       <c r="I209" s="16"/>
     </row>
-    <row r="210" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A210" s="7" t="s">
         <v>410</v>
       </c>
@@ -21761,7 +21751,7 @@
       </c>
       <c r="I210" s="16"/>
     </row>
-    <row r="211" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A211" s="7" t="s">
         <v>412</v>
       </c>
@@ -21786,7 +21776,7 @@
       </c>
       <c r="I211" s="16"/>
     </row>
-    <row r="212" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A212" s="7" t="s">
         <v>414</v>
       </c>
@@ -21811,7 +21801,7 @@
       </c>
       <c r="I212" s="16"/>
     </row>
-    <row r="213" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A213" s="7" t="s">
         <v>417</v>
       </c>
@@ -21836,7 +21826,7 @@
       </c>
       <c r="I213" s="16"/>
     </row>
-    <row r="214" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A214" s="7" t="s">
         <v>419</v>
       </c>
@@ -21844,7 +21834,7 @@
         <v>420</v>
       </c>
       <c r="C214" s="13" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D214" s="14"/>
       <c r="E214" s="7" t="s">
@@ -21861,7 +21851,7 @@
       </c>
       <c r="I214" s="16"/>
     </row>
-    <row r="215" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A215" s="7" t="s">
         <v>421</v>
       </c>
@@ -21911,7 +21901,7 @@
       </c>
       <c r="I216" s="16"/>
     </row>
-    <row r="217" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A217" s="7" t="s">
         <v>427</v>
       </c>
@@ -21936,7 +21926,7 @@
       </c>
       <c r="I217" s="16"/>
     </row>
-    <row r="218" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A218" s="7" t="s">
         <v>429</v>
       </c>
@@ -21961,7 +21951,7 @@
       </c>
       <c r="I218" s="16"/>
     </row>
-    <row r="219" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A219" s="7" t="s">
         <v>426</v>
       </c>
@@ -21969,7 +21959,7 @@
         <v>430</v>
       </c>
       <c r="C219" s="13" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D219" s="14"/>
       <c r="E219" s="7" t="s">
@@ -21986,7 +21976,7 @@
       </c>
       <c r="I219" s="16"/>
     </row>
-    <row r="220" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A220" s="7" t="s">
         <v>432</v>
       </c>
@@ -22011,7 +22001,7 @@
       </c>
       <c r="I220" s="16"/>
     </row>
-    <row r="221" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A221" s="7" t="s">
         <v>434</v>
       </c>
@@ -22036,7 +22026,7 @@
       </c>
       <c r="I221" s="16"/>
     </row>
-    <row r="222" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A222" s="7" t="s">
         <v>436</v>
       </c>
@@ -22061,7 +22051,7 @@
       </c>
       <c r="I222" s="16"/>
     </row>
-    <row r="223" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A223" s="7" t="s">
         <v>438</v>
       </c>
@@ -22094,7 +22084,7 @@
         <v>441</v>
       </c>
       <c r="C224" s="13" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D224" s="14"/>
       <c r="E224" s="7" t="s">
@@ -22110,7 +22100,7 @@
         <v>18</v>
       </c>
       <c r="I224" s="13" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
@@ -22163,7 +22153,7 @@
       </c>
       <c r="I226" s="16"/>
     </row>
-    <row r="227" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A227" s="7" t="s">
         <v>447</v>
       </c>
@@ -22188,7 +22178,7 @@
       </c>
       <c r="I227" s="16"/>
     </row>
-    <row r="228" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A228" s="7" t="s">
         <v>450</v>
       </c>
@@ -22238,7 +22228,7 @@
       </c>
       <c r="I229" s="16"/>
     </row>
-    <row r="230" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A230" s="7" t="s">
         <v>454</v>
       </c>
@@ -22263,7 +22253,7 @@
       </c>
       <c r="I230" s="16"/>
     </row>
-    <row r="231" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A231" s="7" t="s">
         <v>456</v>
       </c>
@@ -22288,7 +22278,7 @@
       </c>
       <c r="I231" s="16"/>
     </row>
-    <row r="232" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A232" s="7" t="s">
         <v>459</v>
       </c>
@@ -22313,7 +22303,7 @@
       </c>
       <c r="I232" s="16"/>
     </row>
-    <row r="233" spans="1:9" ht="364.5" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:9" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A233" s="7" t="s">
         <v>461</v>
       </c>
@@ -22338,7 +22328,7 @@
       </c>
       <c r="I233" s="16"/>
     </row>
-    <row r="234" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A234" s="7" t="s">
         <v>463</v>
       </c>
@@ -22363,7 +22353,7 @@
       </c>
       <c r="I234" s="16"/>
     </row>
-    <row r="235" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A235" s="7" t="s">
         <v>465</v>
       </c>
@@ -22388,7 +22378,7 @@
       </c>
       <c r="I235" s="16"/>
     </row>
-    <row r="236" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A236" s="7" t="s">
         <v>467</v>
       </c>
@@ -22413,7 +22403,7 @@
       </c>
       <c r="I236" s="16"/>
     </row>
-    <row r="237" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A237" s="7" t="s">
         <v>469</v>
       </c>
@@ -22438,7 +22428,7 @@
       </c>
       <c r="I237" s="16"/>
     </row>
-    <row r="238" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A238" s="7" t="s">
         <v>471</v>
       </c>
@@ -22463,7 +22453,7 @@
       </c>
       <c r="I238" s="16"/>
     </row>
-    <row r="239" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A239" s="7" t="s">
         <v>473</v>
       </c>
@@ -22488,7 +22478,7 @@
       </c>
       <c r="I239" s="16"/>
     </row>
-    <row r="240" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A240" s="7" t="s">
         <v>475</v>
       </c>
@@ -22513,7 +22503,7 @@
       </c>
       <c r="I240" s="16"/>
     </row>
-    <row r="241" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A241" s="7" t="s">
         <v>477</v>
       </c>
@@ -22538,7 +22528,7 @@
       </c>
       <c r="I241" s="16"/>
     </row>
-    <row r="242" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A242" s="7" t="s">
         <v>479</v>
       </c>
@@ -22563,7 +22553,7 @@
       </c>
       <c r="I242" s="16"/>
     </row>
-    <row r="243" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A243" s="7" t="s">
         <v>481</v>
       </c>
@@ -22588,7 +22578,7 @@
       </c>
       <c r="I243" s="16"/>
     </row>
-    <row r="244" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A244" s="7" t="s">
         <v>483</v>
       </c>
@@ -22613,7 +22603,7 @@
       </c>
       <c r="I244" s="16"/>
     </row>
-    <row r="245" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A245" s="7" t="s">
         <v>485</v>
       </c>
@@ -22638,7 +22628,7 @@
       </c>
       <c r="I245" s="16"/>
     </row>
-    <row r="246" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A246" s="7" t="s">
         <v>487</v>
       </c>
@@ -22663,7 +22653,7 @@
       </c>
       <c r="I246" s="16"/>
     </row>
-    <row r="247" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A247" s="7" t="s">
         <v>489</v>
       </c>
@@ -22688,7 +22678,7 @@
       </c>
       <c r="I247" s="16"/>
     </row>
-    <row r="248" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A248" s="7" t="s">
         <v>491</v>
       </c>
@@ -22713,7 +22703,7 @@
       </c>
       <c r="I248" s="16"/>
     </row>
-    <row r="249" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A249" s="7" t="s">
         <v>493</v>
       </c>
@@ -22738,7 +22728,7 @@
       </c>
       <c r="I249" s="16"/>
     </row>
-    <row r="250" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A250" s="7" t="s">
         <v>495</v>
       </c>
@@ -22763,7 +22753,7 @@
       </c>
       <c r="I250" s="16"/>
     </row>
-    <row r="251" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A251" s="7" t="s">
         <v>497</v>
       </c>
@@ -22788,7 +22778,7 @@
       </c>
       <c r="I251" s="16"/>
     </row>
-    <row r="252" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A252" s="7" t="s">
         <v>499</v>
       </c>
@@ -22838,7 +22828,7 @@
       </c>
       <c r="I253" s="13"/>
     </row>
-    <row r="254" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A254" s="7" t="s">
         <v>503</v>
       </c>
@@ -22912,7 +22902,7 @@
         <v>18</v>
       </c>
       <c r="I256" s="16" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="257" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
@@ -22948,7 +22938,7 @@
         <v>508</v>
       </c>
       <c r="C258" s="13" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D258" s="14"/>
       <c r="E258" s="7" t="s">
@@ -22990,7 +22980,7 @@
       </c>
       <c r="I259" s="20"/>
     </row>
-    <row r="260" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A260" s="7" t="s">
         <v>515</v>
       </c>
@@ -23140,7 +23130,7 @@
       </c>
       <c r="I265" s="16"/>
     </row>
-    <row r="266" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A266" s="7" t="s">
         <v>527</v>
       </c>
@@ -23165,7 +23155,7 @@
       </c>
       <c r="I266" s="16"/>
     </row>
-    <row r="267" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A267" s="7" t="s">
         <v>529</v>
       </c>
@@ -23190,7 +23180,7 @@
       </c>
       <c r="I267" s="16"/>
     </row>
-    <row r="268" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A268" s="7" t="s">
         <v>531</v>
       </c>
@@ -23215,7 +23205,7 @@
       </c>
       <c r="I268" s="16"/>
     </row>
-    <row r="269" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A269" s="7" t="s">
         <v>533</v>
       </c>
@@ -23240,7 +23230,7 @@
       </c>
       <c r="I269" s="16"/>
     </row>
-    <row r="270" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A270" s="7" t="s">
         <v>535</v>
       </c>
@@ -23265,7 +23255,7 @@
       </c>
       <c r="I270" s="16"/>
     </row>
-    <row r="271" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A271" s="7" t="s">
         <v>537</v>
       </c>
@@ -23340,7 +23330,7 @@
       </c>
       <c r="I273" s="16"/>
     </row>
-    <row r="274" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A274" s="7" t="s">
         <v>543</v>
       </c>
@@ -23390,7 +23380,7 @@
       </c>
       <c r="I275" s="16"/>
     </row>
-    <row r="276" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A276" s="7" t="s">
         <v>549</v>
       </c>
@@ -23415,7 +23405,7 @@
       </c>
       <c r="I276" s="16"/>
     </row>
-    <row r="277" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A277" s="7" t="s">
         <v>551</v>
       </c>
@@ -23440,7 +23430,7 @@
       </c>
       <c r="I277" s="16"/>
     </row>
-    <row r="278" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A278" s="7" t="s">
         <v>553</v>
       </c>
@@ -23465,7 +23455,7 @@
       </c>
       <c r="I278" s="16"/>
     </row>
-    <row r="279" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A279" s="7" t="s">
         <v>556</v>
       </c>
@@ -23498,7 +23488,7 @@
         <v>559</v>
       </c>
       <c r="C280" s="13" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D280" s="14"/>
       <c r="E280" s="7" t="s">
@@ -23515,7 +23505,7 @@
       </c>
       <c r="I280" s="16"/>
     </row>
-    <row r="281" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A281" s="7" t="s">
         <v>560</v>
       </c>
@@ -23565,7 +23555,7 @@
       </c>
       <c r="I282" s="16"/>
     </row>
-    <row r="283" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A283" s="7" t="s">
         <v>566</v>
       </c>
@@ -23590,7 +23580,7 @@
       </c>
       <c r="I283" s="16"/>
     </row>
-    <row r="284" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A284" s="7" t="s">
         <v>565</v>
       </c>
@@ -23617,7 +23607,7 @@
     </row>
     <row r="285" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A285" s="7" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B285" s="14" t="s">
         <v>567</v>
@@ -23639,7 +23629,7 @@
         <v>18</v>
       </c>
       <c r="I285" s="16" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="286" spans="1:9" ht="54" x14ac:dyDescent="0.15">
@@ -23666,10 +23656,10 @@
         <v>18</v>
       </c>
       <c r="I286" s="16" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A287" s="7" t="s">
         <v>574</v>
       </c>
@@ -23844,7 +23834,7 @@
       </c>
       <c r="I293" s="16"/>
     </row>
-    <row r="294" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A294" s="7" t="s">
         <v>590</v>
       </c>
@@ -23869,7 +23859,7 @@
       </c>
       <c r="I294" s="16"/>
     </row>
-    <row r="295" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A295" s="7" t="s">
         <v>592</v>
       </c>
@@ -23919,7 +23909,7 @@
       </c>
       <c r="I296" s="16"/>
     </row>
-    <row r="297" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A297" s="7" t="s">
         <v>597</v>
       </c>
@@ -23944,7 +23934,7 @@
       </c>
       <c r="I297" s="16"/>
     </row>
-    <row r="298" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A298" s="7" t="s">
         <v>599</v>
       </c>
@@ -23952,7 +23942,7 @@
         <v>600</v>
       </c>
       <c r="C298" s="13" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D298" s="14"/>
       <c r="E298" s="7" t="s">
@@ -23994,7 +23984,7 @@
       </c>
       <c r="I299" s="16"/>
     </row>
-    <row r="300" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A300" s="7" t="s">
         <v>604</v>
       </c>
@@ -24019,7 +24009,7 @@
       </c>
       <c r="I300" s="16"/>
     </row>
-    <row r="301" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A301" s="7" t="s">
         <v>607</v>
       </c>
@@ -24044,7 +24034,7 @@
       </c>
       <c r="I301" s="16"/>
     </row>
-    <row r="302" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A302" s="7" t="s">
         <v>609</v>
       </c>
@@ -24131,7 +24121,7 @@
         <v>602</v>
       </c>
       <c r="C305" s="13" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D305" s="14"/>
       <c r="E305" s="7" t="s">
@@ -24198,7 +24188,7 @@
       </c>
       <c r="I307" s="16"/>
     </row>
-    <row r="308" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A308" s="7" t="s">
         <v>621</v>
       </c>
@@ -24248,7 +24238,7 @@
       </c>
       <c r="I309" s="16"/>
     </row>
-    <row r="310" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A310" s="7" t="s">
         <v>626</v>
       </c>
@@ -24281,7 +24271,7 @@
         <v>627</v>
       </c>
       <c r="C311" s="13" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D311" s="14"/>
       <c r="E311" s="7" t="s">
@@ -24298,7 +24288,7 @@
       </c>
       <c r="I311" s="16"/>
     </row>
-    <row r="312" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A312" s="7" t="s">
         <v>630</v>
       </c>
@@ -24348,7 +24338,7 @@
       </c>
       <c r="I313" s="16"/>
     </row>
-    <row r="314" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A314" s="7" t="s">
         <v>634</v>
       </c>
@@ -24373,7 +24363,7 @@
       </c>
       <c r="I314" s="16"/>
     </row>
-    <row r="315" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A315" s="7" t="s">
         <v>636</v>
       </c>
@@ -24381,7 +24371,7 @@
         <v>627</v>
       </c>
       <c r="C315" s="13" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D315" s="14"/>
       <c r="E315" s="7" t="s">
@@ -24398,7 +24388,7 @@
       </c>
       <c r="I315" s="16"/>
     </row>
-    <row r="316" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A316" s="7" t="s">
         <v>637</v>
       </c>
@@ -24406,7 +24396,7 @@
         <v>627</v>
       </c>
       <c r="C316" s="13" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D316" s="14"/>
       <c r="E316" s="7" t="s">
@@ -24447,7 +24437,7 @@
         <v>18</v>
       </c>
       <c r="I317" s="54" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
@@ -24475,7 +24465,7 @@
       </c>
       <c r="I318" s="16"/>
     </row>
-    <row r="319" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A319" s="7" t="s">
         <v>643</v>
       </c>
@@ -24525,7 +24515,7 @@
       </c>
       <c r="I320" s="16"/>
     </row>
-    <row r="321" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A321" s="7" t="s">
         <v>647</v>
       </c>
@@ -24550,7 +24540,7 @@
       </c>
       <c r="I321" s="16"/>
     </row>
-    <row r="322" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A322" s="7" t="s">
         <v>649</v>
       </c>
@@ -24599,7 +24589,7 @@
         <v>18</v>
       </c>
       <c r="I323" s="20" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="324" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
@@ -24610,7 +24600,7 @@
         <v>639</v>
       </c>
       <c r="C324" s="13" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D324" s="14"/>
       <c r="E324" s="7" t="s">
@@ -24627,7 +24617,7 @@
       </c>
       <c r="I324" s="13"/>
     </row>
-    <row r="325" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A325" s="7" t="s">
         <v>654</v>
       </c>
@@ -24677,7 +24667,7 @@
       </c>
       <c r="I326" s="16"/>
     </row>
-    <row r="327" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A327" s="7" t="s">
         <v>660</v>
       </c>
@@ -24702,7 +24692,7 @@
       </c>
       <c r="I327" s="16"/>
     </row>
-    <row r="328" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A328" s="7" t="s">
         <v>662</v>
       </c>
@@ -24727,7 +24717,7 @@
       </c>
       <c r="I328" s="16"/>
     </row>
-    <row r="329" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A329" s="7" t="s">
         <v>664</v>
       </c>
@@ -24752,7 +24742,7 @@
       </c>
       <c r="I329" s="16"/>
     </row>
-    <row r="330" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A330" s="7" t="s">
         <v>667</v>
       </c>
@@ -24777,7 +24767,7 @@
       </c>
       <c r="I330" s="16"/>
     </row>
-    <row r="331" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A331" s="7" t="s">
         <v>669</v>
       </c>
@@ -24785,7 +24775,7 @@
         <v>670</v>
       </c>
       <c r="C331" s="13" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D331" s="14"/>
       <c r="E331" s="7" t="s">
@@ -24802,7 +24792,7 @@
       </c>
       <c r="I331" s="16"/>
     </row>
-    <row r="332" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A332" s="7" t="s">
         <v>671</v>
       </c>
@@ -24827,7 +24817,7 @@
       </c>
       <c r="I332" s="16"/>
     </row>
-    <row r="333" spans="1:9" ht="283.5" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:9" ht="270" x14ac:dyDescent="0.15">
       <c r="A333" s="7" t="s">
         <v>674</v>
       </c>
@@ -24852,7 +24842,7 @@
       </c>
       <c r="I333" s="16"/>
     </row>
-    <row r="334" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A334" s="7" t="s">
         <v>677</v>
       </c>
@@ -24877,7 +24867,7 @@
       </c>
       <c r="I334" s="16"/>
     </row>
-    <row r="335" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A335" s="7" t="s">
         <v>679</v>
       </c>
@@ -24902,7 +24892,7 @@
       </c>
       <c r="I335" s="16"/>
     </row>
-    <row r="336" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A336" s="7" t="s">
         <v>681</v>
       </c>
@@ -24910,7 +24900,7 @@
         <v>672</v>
       </c>
       <c r="C336" s="13" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D336" s="14"/>
       <c r="E336" s="7" t="s">
@@ -24927,7 +24917,7 @@
       </c>
       <c r="I336" s="16"/>
     </row>
-    <row r="337" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A337" s="7" t="s">
         <v>682</v>
       </c>
@@ -24952,7 +24942,7 @@
       </c>
       <c r="I337" s="16"/>
     </row>
-    <row r="338" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A338" s="7" t="s">
         <v>684</v>
       </c>
@@ -24977,7 +24967,7 @@
       </c>
       <c r="I338" s="16"/>
     </row>
-    <row r="339" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A339" s="7" t="s">
         <v>686</v>
       </c>
@@ -25002,7 +24992,7 @@
       </c>
       <c r="I339" s="16"/>
     </row>
-    <row r="340" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A340" s="7" t="s">
         <v>688</v>
       </c>
@@ -25010,7 +25000,7 @@
         <v>672</v>
       </c>
       <c r="C340" s="13" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D340" s="14"/>
       <c r="E340" s="7" t="s">
@@ -25076,10 +25066,10 @@
         <v>18</v>
       </c>
       <c r="I342" s="16" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A343" s="7" t="s">
         <v>693</v>
       </c>
@@ -25104,7 +25094,7 @@
       </c>
       <c r="I343" s="16"/>
     </row>
-    <row r="344" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A344" s="7" t="s">
         <v>695</v>
       </c>
@@ -25112,7 +25102,7 @@
         <v>672</v>
       </c>
       <c r="C344" s="13" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D344" s="14"/>
       <c r="E344" s="7" t="s">
@@ -25179,7 +25169,7 @@
       </c>
       <c r="I346" s="13"/>
     </row>
-    <row r="347" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A347" s="7" t="s">
         <v>700</v>
       </c>
@@ -25204,7 +25194,7 @@
       </c>
       <c r="I347" s="16"/>
     </row>
-    <row r="348" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A348" s="7" t="s">
         <v>702</v>
       </c>
@@ -25254,7 +25244,7 @@
       </c>
       <c r="I349" s="16"/>
     </row>
-    <row r="350" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A350" s="7" t="s">
         <v>705</v>
       </c>
@@ -25312,7 +25302,7 @@
         <v>706</v>
       </c>
       <c r="C352" s="13" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D352" s="14"/>
       <c r="E352" s="7" t="s">
@@ -25329,7 +25319,7 @@
       </c>
       <c r="I352" s="16"/>
     </row>
-    <row r="353" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A353" s="7" t="s">
         <v>710</v>
       </c>
@@ -25429,7 +25419,7 @@
       </c>
       <c r="I356" s="16"/>
     </row>
-    <row r="357" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A357" s="21" t="s">
         <v>718</v>
       </c>
@@ -25437,7 +25427,7 @@
         <v>706</v>
       </c>
       <c r="C357" s="23" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D357" s="18"/>
       <c r="E357" s="21" t="s">
@@ -25456,13 +25446,13 @@
     </row>
     <row r="358" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A358" s="58" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B358" s="59" t="s">
         <v>706</v>
       </c>
       <c r="C358" s="60" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D358" s="61"/>
       <c r="E358" s="58" t="s">
@@ -25480,7 +25470,7 @@
       <c r="I358" s="60"/>
       <c r="J358"/>
     </row>
-    <row r="359" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A359" s="7" t="s">
         <v>719</v>
       </c>
@@ -25532,13 +25522,13 @@
     </row>
     <row r="361" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A361" s="62" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B361" s="83" t="s">
         <v>706</v>
       </c>
       <c r="C361" s="84" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D361" s="85"/>
       <c r="E361" s="62" t="s">
@@ -25564,7 +25554,7 @@
         <v>724</v>
       </c>
       <c r="C362" s="13" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D362" s="14"/>
       <c r="E362" s="7" t="s">
@@ -25580,7 +25570,7 @@
         <v>18</v>
       </c>
       <c r="I362" s="16" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="363" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
@@ -25608,7 +25598,7 @@
       </c>
       <c r="I363" s="16"/>
     </row>
-    <row r="364" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A364" s="7" t="s">
         <v>727</v>
       </c>
@@ -25733,7 +25723,7 @@
       </c>
       <c r="I368" s="16"/>
     </row>
-    <row r="369" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A369" s="7" t="s">
         <v>737</v>
       </c>
@@ -25758,7 +25748,7 @@
       </c>
       <c r="I369" s="16"/>
     </row>
-    <row r="370" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A370" s="7" t="s">
         <v>740</v>
       </c>
@@ -25766,7 +25756,7 @@
         <v>741</v>
       </c>
       <c r="C370" s="13" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D370" s="14"/>
       <c r="E370" s="7" t="s">
@@ -25783,7 +25773,7 @@
       </c>
       <c r="I370" s="16"/>
     </row>
-    <row r="371" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A371" s="7" t="s">
         <v>742</v>
       </c>
@@ -25808,7 +25798,7 @@
       </c>
       <c r="I371" s="16"/>
     </row>
-    <row r="372" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A372" s="7" t="s">
         <v>744</v>
       </c>
@@ -25833,7 +25823,7 @@
       </c>
       <c r="I372" s="16"/>
     </row>
-    <row r="373" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A373" s="7" t="s">
         <v>746</v>
       </c>
@@ -25841,7 +25831,7 @@
         <v>747</v>
       </c>
       <c r="C373" s="13" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D373" s="14"/>
       <c r="E373" s="7" t="s">
@@ -25858,7 +25848,7 @@
       </c>
       <c r="I373" s="16"/>
     </row>
-    <row r="374" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A374" s="7" t="s">
         <v>748</v>
       </c>
@@ -25883,7 +25873,7 @@
       </c>
       <c r="I374" s="16"/>
     </row>
-    <row r="375" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A375" s="7" t="s">
         <v>750</v>
       </c>
@@ -25891,7 +25881,7 @@
         <v>751</v>
       </c>
       <c r="C375" s="13" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D375" s="14"/>
       <c r="E375" s="7" t="s">
@@ -25908,7 +25898,7 @@
       </c>
       <c r="I375" s="16"/>
     </row>
-    <row r="376" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A376" s="7" t="s">
         <v>752</v>
       </c>
@@ -25958,7 +25948,7 @@
       </c>
       <c r="I377" s="16"/>
     </row>
-    <row r="378" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A378" s="7" t="s">
         <v>758</v>
       </c>
@@ -25983,7 +25973,7 @@
       </c>
       <c r="I378" s="16"/>
     </row>
-    <row r="379" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A379" s="7" t="s">
         <v>760</v>
       </c>
@@ -26008,7 +25998,7 @@
       </c>
       <c r="I379" s="16"/>
     </row>
-    <row r="380" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A380" s="7" t="s">
         <v>762</v>
       </c>
@@ -26033,7 +26023,7 @@
       </c>
       <c r="I380" s="16"/>
     </row>
-    <row r="381" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A381" s="7" t="s">
         <v>764</v>
       </c>
@@ -26058,7 +26048,7 @@
       </c>
       <c r="I381" s="16"/>
     </row>
-    <row r="382" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A382" s="7" t="s">
         <v>766</v>
       </c>
@@ -26108,7 +26098,7 @@
       </c>
       <c r="I383" s="16"/>
     </row>
-    <row r="384" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A384" s="7" t="s">
         <v>770</v>
       </c>
@@ -26133,7 +26123,7 @@
       </c>
       <c r="I384" s="16"/>
     </row>
-    <row r="385" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A385" s="7" t="s">
         <v>772</v>
       </c>
@@ -26158,7 +26148,7 @@
       </c>
       <c r="I385" s="16"/>
     </row>
-    <row r="386" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A386" s="7" t="s">
         <v>774</v>
       </c>
@@ -26183,7 +26173,7 @@
       </c>
       <c r="I386" s="16"/>
     </row>
-    <row r="387" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A387" s="7" t="s">
         <v>776</v>
       </c>
@@ -26208,7 +26198,7 @@
       </c>
       <c r="I387" s="16"/>
     </row>
-    <row r="388" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A388" s="7" t="s">
         <v>778</v>
       </c>
@@ -26233,7 +26223,7 @@
       </c>
       <c r="I388" s="16"/>
     </row>
-    <row r="389" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A389" s="7" t="s">
         <v>780</v>
       </c>
@@ -26258,7 +26248,7 @@
       </c>
       <c r="I389" s="16"/>
     </row>
-    <row r="390" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A390" s="7" t="s">
         <v>782</v>
       </c>
@@ -26283,7 +26273,7 @@
       </c>
       <c r="I390" s="16"/>
     </row>
-    <row r="391" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A391" s="7" t="s">
         <v>784</v>
       </c>
@@ -26308,7 +26298,7 @@
       </c>
       <c r="I391" s="13"/>
     </row>
-    <row r="392" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A392" s="7" t="s">
         <v>786</v>
       </c>
@@ -26333,7 +26323,7 @@
       </c>
       <c r="I392" s="13"/>
     </row>
-    <row r="393" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A393" s="7" t="s">
         <v>788</v>
       </c>
@@ -26358,7 +26348,7 @@
       </c>
       <c r="I393" s="16"/>
     </row>
-    <row r="394" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A394" s="7" t="s">
         <v>790</v>
       </c>
@@ -26383,7 +26373,7 @@
       </c>
       <c r="I394" s="16"/>
     </row>
-    <row r="395" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A395" s="7" t="s">
         <v>792</v>
       </c>
@@ -26408,7 +26398,7 @@
       </c>
       <c r="I395" s="16"/>
     </row>
-    <row r="396" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A396" s="7" t="s">
         <v>794</v>
       </c>
@@ -26433,7 +26423,7 @@
       </c>
       <c r="I396" s="16"/>
     </row>
-    <row r="397" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A397" s="7" t="s">
         <v>796</v>
       </c>
@@ -26458,7 +26448,7 @@
       </c>
       <c r="I397" s="16"/>
     </row>
-    <row r="398" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A398" s="7" t="s">
         <v>798</v>
       </c>
@@ -26483,7 +26473,7 @@
       </c>
       <c r="I398" s="16"/>
     </row>
-    <row r="399" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A399" s="7" t="s">
         <v>800</v>
       </c>
@@ -26491,7 +26481,7 @@
         <v>753</v>
       </c>
       <c r="C399" s="13" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D399" s="14"/>
       <c r="E399" s="7" t="s">
@@ -26516,7 +26506,7 @@
         <v>753</v>
       </c>
       <c r="C400" s="13" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D400" s="14"/>
       <c r="E400" s="7" t="s">
@@ -26532,7 +26522,7 @@
         <v>18</v>
       </c>
       <c r="I400" s="13" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="401" spans="1:9" ht="54" x14ac:dyDescent="0.15">
@@ -26543,7 +26533,7 @@
         <v>753</v>
       </c>
       <c r="C401" s="13" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D401" s="14"/>
       <c r="E401" s="7" t="s">
@@ -26559,10 +26549,10 @@
         <v>18</v>
       </c>
       <c r="I401" s="13" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="402" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A402" s="7" t="s">
         <v>803</v>
       </c>
@@ -26587,7 +26577,7 @@
       </c>
       <c r="I402" s="16"/>
     </row>
-    <row r="403" spans="1:9" ht="270" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:9" ht="243" x14ac:dyDescent="0.15">
       <c r="A403" s="7" t="s">
         <v>757</v>
       </c>
@@ -26612,7 +26602,7 @@
       </c>
       <c r="I403" s="16"/>
     </row>
-    <row r="404" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A404" s="7" t="s">
         <v>807</v>
       </c>
@@ -26645,7 +26635,7 @@
         <v>810</v>
       </c>
       <c r="C405" s="13" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D405" s="14"/>
       <c r="E405" s="7" t="s">
@@ -26661,7 +26651,7 @@
         <v>18</v>
       </c>
       <c r="I405" s="16" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="406" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
@@ -26689,7 +26679,7 @@
       </c>
       <c r="I406" s="16"/>
     </row>
-    <row r="407" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A407" s="7" t="s">
         <v>813</v>
       </c>
@@ -26739,7 +26729,7 @@
       </c>
       <c r="I408" s="16"/>
     </row>
-    <row r="409" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A409" s="7" t="s">
         <v>817</v>
       </c>
@@ -26764,7 +26754,7 @@
       </c>
       <c r="I409" s="16"/>
     </row>
-    <row r="410" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A410" s="7" t="s">
         <v>819</v>
       </c>
@@ -26789,7 +26779,7 @@
       </c>
       <c r="I410" s="16"/>
     </row>
-    <row r="411" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A411" s="7" t="s">
         <v>822</v>
       </c>
@@ -26797,7 +26787,7 @@
         <v>823</v>
       </c>
       <c r="C411" s="13" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D411" s="14"/>
       <c r="E411" s="7" t="s">
@@ -26814,7 +26804,7 @@
       </c>
       <c r="I411" s="16"/>
     </row>
-    <row r="412" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A412" s="7" t="s">
         <v>824</v>
       </c>
@@ -26839,7 +26829,7 @@
       </c>
       <c r="I412" s="16"/>
     </row>
-    <row r="413" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A413" s="7" t="s">
         <v>826</v>
       </c>
@@ -26864,7 +26854,7 @@
       </c>
       <c r="I413" s="16"/>
     </row>
-    <row r="414" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A414" s="7" t="s">
         <v>828</v>
       </c>
@@ -26872,7 +26862,7 @@
         <v>829</v>
       </c>
       <c r="C414" s="13" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D414" s="14"/>
       <c r="E414" s="7" t="s">
@@ -26889,7 +26879,7 @@
       </c>
       <c r="I414" s="16"/>
     </row>
-    <row r="415" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A415" s="7" t="s">
         <v>830</v>
       </c>
@@ -26914,15 +26904,15 @@
       </c>
       <c r="I415" s="16"/>
     </row>
-    <row r="416" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A416" s="7" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B416" s="14" t="s">
         <v>832</v>
       </c>
       <c r="C416" s="13" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D416" s="14"/>
       <c r="E416" s="7" t="s">
@@ -26939,7 +26929,7 @@
       </c>
       <c r="I416" s="16"/>
     </row>
-    <row r="417" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A417" s="7" t="s">
         <v>833</v>
       </c>
@@ -26989,7 +26979,7 @@
       </c>
       <c r="I418" s="16"/>
     </row>
-    <row r="419" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A419" s="7" t="s">
         <v>839</v>
       </c>
@@ -27016,7 +27006,7 @@
     </row>
     <row r="420" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A420" s="7" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B420" s="14" t="s">
         <v>841</v>
@@ -27066,13 +27056,13 @@
     </row>
     <row r="422" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A422" s="7" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B422" s="11" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C422" s="13" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D422" s="53"/>
       <c r="E422" s="7" t="s">
@@ -27088,18 +27078,18 @@
         <v>18</v>
       </c>
       <c r="I422" s="54" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="423" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A423" s="7" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B423" s="11" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C423" s="13" t="s">
         <v>1037</v>
-      </c>
-      <c r="C423" s="13" t="s">
-        <v>1038</v>
       </c>
       <c r="D423" s="53"/>
       <c r="E423" s="7" t="s">
@@ -27118,13 +27108,13 @@
     </row>
     <row r="424" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A424" s="7" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B424" s="11" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C424" s="13" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D424" s="53"/>
       <c r="E424" s="7" t="s">
@@ -27143,13 +27133,13 @@
     </row>
     <row r="425" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A425" s="7" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B425" s="11" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C425" s="13" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D425" s="53"/>
       <c r="E425" s="7" t="s">
@@ -27168,13 +27158,13 @@
     </row>
     <row r="426" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A426" s="7" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B426" s="11" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C426" s="13" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D426" s="53"/>
       <c r="E426" s="7" t="s">
@@ -27193,13 +27183,13 @@
     </row>
     <row r="427" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A427" s="7" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B427" s="11" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C427" s="13" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D427" s="53"/>
       <c r="E427" s="7" t="s">
@@ -27216,15 +27206,15 @@
       </c>
       <c r="I427" s="54"/>
     </row>
-    <row r="428" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A428" s="7" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B428" s="19" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C428" s="13" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D428" s="53"/>
       <c r="E428" s="7" t="s">
@@ -27243,13 +27233,13 @@
     </row>
     <row r="429" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A429" s="7" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B429" s="19" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C429" s="13" t="s">
         <v>1042</v>
-      </c>
-      <c r="C429" s="13" t="s">
-        <v>1043</v>
       </c>
       <c r="D429" s="53"/>
       <c r="E429" s="7" t="s">
@@ -27266,15 +27256,15 @@
       </c>
       <c r="I429" s="54"/>
     </row>
-    <row r="430" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A430" s="7" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B430" s="19" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C430" s="13" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D430" s="53"/>
       <c r="E430" s="7" t="s">
@@ -27291,15 +27281,15 @@
       </c>
       <c r="I430" s="54"/>
     </row>
-    <row r="431" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A431" s="7" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B431" s="19" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C431" s="13" t="s">
         <v>1082</v>
-      </c>
-      <c r="C431" s="13" t="s">
-        <v>1083</v>
       </c>
       <c r="D431" s="53"/>
       <c r="E431" s="7" t="s">
@@ -27316,15 +27306,15 @@
       </c>
       <c r="I431" s="54"/>
     </row>
-    <row r="432" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A432" s="7" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B432" s="19" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C432" s="13" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D432" s="53"/>
       <c r="E432" s="7" t="s">
@@ -27343,13 +27333,13 @@
     </row>
     <row r="433" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A433" s="7" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B433" s="19" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C433" s="13" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D433" s="53"/>
       <c r="E433" s="7" t="s">
@@ -27366,15 +27356,15 @@
       </c>
       <c r="I433" s="54"/>
     </row>
-    <row r="434" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A434" s="7" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B434" s="19" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C434" s="13" t="s">
         <v>1085</v>
-      </c>
-      <c r="C434" s="13" t="s">
-        <v>1086</v>
       </c>
       <c r="D434" s="53"/>
       <c r="E434" s="7" t="s">
@@ -27393,13 +27383,13 @@
     </row>
     <row r="435" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A435" s="7" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B435" s="19" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C435" s="13" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D435" s="53"/>
       <c r="E435" s="7" t="s">
@@ -27416,15 +27406,15 @@
       </c>
       <c r="I435" s="54"/>
     </row>
-    <row r="436" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A436" s="7" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B436" s="19" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C436" s="13" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D436" s="53"/>
       <c r="E436" s="7" t="s">
@@ -27441,15 +27431,15 @@
       </c>
       <c r="I436" s="54"/>
     </row>
-    <row r="437" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A437" s="7" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B437" s="19" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C437" s="13" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D437" s="53"/>
       <c r="E437" s="7" t="s">
@@ -27466,15 +27456,15 @@
       </c>
       <c r="I437" s="54"/>
     </row>
-    <row r="438" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A438" s="7" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B438" s="19" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C438" s="13" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D438" s="53"/>
       <c r="E438" s="7" t="s">
@@ -27491,15 +27481,15 @@
       </c>
       <c r="I438" s="54"/>
     </row>
-    <row r="439" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A439" s="7" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B439" s="19" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C439" s="13" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D439" s="53"/>
       <c r="E439" s="7" t="s">
@@ -27516,15 +27506,15 @@
       </c>
       <c r="I439" s="54"/>
     </row>
-    <row r="440" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A440" s="7" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B440" s="19" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C440" s="13" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D440" s="53"/>
       <c r="E440" s="7" t="s">
@@ -27543,13 +27533,13 @@
     </row>
     <row r="441" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A441" s="7" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B441" s="19" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C441" s="13" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D441" s="53"/>
       <c r="E441" s="7" t="s">
@@ -27566,15 +27556,15 @@
       </c>
       <c r="I441" s="54"/>
     </row>
-    <row r="442" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A442" s="7" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B442" s="19" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C442" s="13" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D442" s="53"/>
       <c r="E442" s="7" t="s">
@@ -27591,15 +27581,15 @@
       </c>
       <c r="I442" s="54"/>
     </row>
-    <row r="443" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A443" s="7" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B443" s="19" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C443" s="13" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D443" s="53"/>
       <c r="E443" s="7" t="s">
@@ -27618,13 +27608,13 @@
     </row>
     <row r="444" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A444" s="7" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B444" s="19" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C444" s="13" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D444" s="53"/>
       <c r="E444" s="7" t="s">
@@ -27641,15 +27631,15 @@
       </c>
       <c r="I444" s="54"/>
     </row>
-    <row r="445" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A445" s="7" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B445" s="19" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C445" s="13" t="s">
         <v>1094</v>
-      </c>
-      <c r="C445" s="13" t="s">
-        <v>1095</v>
       </c>
       <c r="D445" s="53"/>
       <c r="E445" s="7" t="s">
@@ -27666,15 +27656,15 @@
       </c>
       <c r="I445" s="54"/>
     </row>
-    <row r="446" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A446" s="7" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B446" s="19" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C446" s="13" t="s">
         <v>1096</v>
-      </c>
-      <c r="C446" s="13" t="s">
-        <v>1097</v>
       </c>
       <c r="D446" s="53"/>
       <c r="E446" s="7" t="s">
@@ -27693,13 +27683,13 @@
     </row>
     <row r="447" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A447" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B447" s="19" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C447" s="13" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="D447" s="53"/>
       <c r="E447" s="7" t="s">
@@ -27716,15 +27706,15 @@
       </c>
       <c r="I447" s="54"/>
     </row>
-    <row r="448" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A448" s="7" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B448" s="19" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C448" s="13" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D448" s="53"/>
       <c r="E448" s="7" t="s">
@@ -27737,19 +27727,19 @@
         <v>16</v>
       </c>
       <c r="H448" s="17" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="I448" s="54"/>
     </row>
-    <row r="449" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A449" s="7" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B449" s="19" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C449" s="13" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D449" s="53"/>
       <c r="E449" s="7" t="s">
@@ -27762,19 +27752,19 @@
         <v>16</v>
       </c>
       <c r="H449" s="17" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="I449" s="54"/>
     </row>
-    <row r="450" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A450" s="7" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B450" s="19" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C450" s="13" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D450" s="53"/>
       <c r="E450" s="7" t="s">
@@ -27787,19 +27777,19 @@
         <v>16</v>
       </c>
       <c r="H450" s="17" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="I450" s="54"/>
     </row>
-    <row r="451" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A451" s="58" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B451" s="59" t="s">
         <v>1128</v>
       </c>
-      <c r="B451" s="59" t="s">
-        <v>1129</v>
-      </c>
       <c r="C451" s="60" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D451" s="61"/>
       <c r="E451" s="58" t="s">
@@ -27815,19 +27805,19 @@
         <v>18</v>
       </c>
       <c r="I451" s="60" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="J451"/>
     </row>
     <row r="452" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A452" s="58" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B452" s="59" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C452" s="13" t="s">
         <v>1135</v>
-      </c>
-      <c r="B452" s="59" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C452" s="13" t="s">
-        <v>1136</v>
       </c>
       <c r="D452" s="53"/>
       <c r="E452" s="58" t="s">
@@ -27845,22 +27835,22 @@
       <c r="I452" s="54"/>
       <c r="J452"/>
     </row>
-    <row r="453" spans="1:10" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A453" s="65" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B453" s="67" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C453" s="60" t="s">
         <v>1138</v>
-      </c>
-      <c r="B453" s="67" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C453" s="60" t="s">
-        <v>1139</v>
       </c>
       <c r="D453" s="63"/>
       <c r="E453" s="36" t="s">
         <v>20</v>
       </c>
       <c r="F453" s="58" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G453" s="55" t="s">
         <v>16</v>
@@ -27872,13 +27862,13 @@
     </row>
     <row r="454" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A454" s="68" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B454" s="69" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C454" s="70" t="s">
         <v>1140</v>
-      </c>
-      <c r="B454" s="69" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C454" s="70" t="s">
-        <v>1141</v>
       </c>
       <c r="D454" s="71"/>
       <c r="E454" s="72" t="s">
@@ -27897,13 +27887,13 @@
     </row>
     <row r="455" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A455" s="77" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B455" s="82" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C455" s="81" t="s">
         <v>1143</v>
-      </c>
-      <c r="B455" s="82" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C455" s="81" t="s">
-        <v>1144</v>
       </c>
       <c r="D455" s="78"/>
       <c r="E455" s="77" t="s">
@@ -27923,13 +27913,13 @@
     </row>
     <row r="456" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A456" s="77" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B456" s="82" t="s">
         <v>1145</v>
       </c>
-      <c r="B456" s="82" t="s">
-        <v>1146</v>
-      </c>
       <c r="C456" s="81" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D456" s="78"/>
       <c r="E456" s="77" t="s">
@@ -27949,13 +27939,13 @@
     </row>
     <row r="457" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A457" s="77" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B457" s="82" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C457" s="81" t="s">
         <v>1147</v>
-      </c>
-      <c r="B457" s="82" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C457" s="81" t="s">
-        <v>1148</v>
       </c>
       <c r="D457" s="78"/>
       <c r="E457" s="77" t="s">
@@ -27975,13 +27965,13 @@
     </row>
     <row r="458" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A458" s="77" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B458" s="78" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C458" s="81" t="s">
         <v>1149</v>
-      </c>
-      <c r="B458" s="78" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C458" s="81" t="s">
-        <v>1150</v>
       </c>
       <c r="D458" s="78"/>
       <c r="E458" s="77" t="s">
@@ -27999,15 +27989,15 @@
       <c r="I458" s="81"/>
       <c r="J458"/>
     </row>
-    <row r="459" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A459" s="77" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B459" s="78" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C459" s="81" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D459" s="78"/>
       <c r="E459" s="77" t="s">
@@ -28027,13 +28017,13 @@
     </row>
     <row r="460" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A460" s="77" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B460" s="78" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C460" s="81" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D460" s="78"/>
       <c r="E460" s="77" t="s">
@@ -28051,15 +28041,15 @@
       <c r="I460" s="81"/>
       <c r="J460"/>
     </row>
-    <row r="461" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A461" s="77" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B461" s="78" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C461" s="81" t="s">
         <v>1155</v>
-      </c>
-      <c r="B461" s="78" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C461" s="81" t="s">
-        <v>1156</v>
       </c>
       <c r="D461" s="78"/>
       <c r="E461" s="77" t="s">
@@ -28079,13 +28069,13 @@
     </row>
     <row r="462" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A462" s="77" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B462" s="78" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C462" s="81" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D462" s="78"/>
       <c r="E462" s="77" t="s">
@@ -28105,13 +28095,13 @@
     </row>
     <row r="463" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A463" s="77" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B463" s="78" t="s">
         <v>1161</v>
       </c>
-      <c r="B463" s="78" t="s">
+      <c r="C463" s="81" t="s">
         <v>1162</v>
-      </c>
-      <c r="C463" s="81" t="s">
-        <v>1163</v>
       </c>
       <c r="D463" s="78"/>
       <c r="E463" s="77" t="s">
@@ -28131,13 +28121,13 @@
     </row>
     <row r="464" spans="1:10" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A464" s="77" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B464" s="78" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C464" s="81" t="s">
         <v>1164</v>
-      </c>
-      <c r="B464" s="78" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C464" s="81" t="s">
-        <v>1165</v>
       </c>
       <c r="D464" s="78"/>
       <c r="E464" s="77" t="s">
@@ -28155,15 +28145,15 @@
       <c r="I464" s="60"/>
       <c r="J464"/>
     </row>
-    <row r="465" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A465" s="77" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B465" s="78" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C465" s="81" t="s">
         <v>1166</v>
-      </c>
-      <c r="B465" s="78" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C465" s="81" t="s">
-        <v>1167</v>
       </c>
       <c r="D465" s="78"/>
       <c r="E465" s="77" t="s">
@@ -28181,15 +28171,15 @@
       <c r="I465" s="60"/>
       <c r="J465"/>
     </row>
-    <row r="466" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A466" s="77" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B466" s="78" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C466" s="81" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D466" s="78"/>
       <c r="E466" s="77" t="s">
@@ -28209,13 +28199,13 @@
     </row>
     <row r="467" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A467" s="77" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B467" s="78" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C467" s="81" t="s">
         <v>1170</v>
-      </c>
-      <c r="B467" s="78" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C467" s="81" t="s">
-        <v>1171</v>
       </c>
       <c r="D467" s="78"/>
       <c r="E467" s="77" t="s">
@@ -28233,15 +28223,15 @@
       <c r="I467" s="60"/>
       <c r="J467"/>
     </row>
-    <row r="468" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A468" s="77" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B468" s="78" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C468" s="81" t="s">
         <v>1172</v>
-      </c>
-      <c r="B468" s="78" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C468" s="81" t="s">
-        <v>1173</v>
       </c>
       <c r="D468" s="78"/>
       <c r="E468" s="77" t="s">
@@ -28261,13 +28251,13 @@
     </row>
     <row r="469" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A469" s="77" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B469" s="78" t="s">
         <v>1174</v>
       </c>
-      <c r="B469" s="78" t="s">
+      <c r="C469" s="81" t="s">
         <v>1175</v>
-      </c>
-      <c r="C469" s="81" t="s">
-        <v>1176</v>
       </c>
       <c r="D469" s="78"/>
       <c r="E469" s="77" t="s">
@@ -28287,13 +28277,13 @@
     </row>
     <row r="470" spans="1:10" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A470" s="77" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B470" s="78" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C470" s="81" t="s">
         <v>1177</v>
-      </c>
-      <c r="B470" s="78" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C470" s="81" t="s">
-        <v>1178</v>
       </c>
       <c r="D470" s="78"/>
       <c r="E470" s="77" t="s">
@@ -28313,13 +28303,13 @@
     </row>
     <row r="471" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A471" s="77" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B471" s="78" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C471" s="81" t="s">
         <v>1179</v>
-      </c>
-      <c r="B471" s="78" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C471" s="81" t="s">
-        <v>1180</v>
       </c>
       <c r="D471" s="78"/>
       <c r="E471" s="77" t="s">
@@ -28337,15 +28327,15 @@
       <c r="I471" s="60"/>
       <c r="J471"/>
     </row>
-    <row r="472" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A472" s="77" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B472" s="78" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C472" s="81" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D472" s="78"/>
       <c r="E472" s="77" t="s">
@@ -28365,13 +28355,13 @@
     </row>
     <row r="473" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A473" s="77" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B473" s="78" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C473" s="81" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D473" s="78"/>
       <c r="E473" s="77" t="s">
@@ -28389,15 +28379,15 @@
       <c r="I473" s="60"/>
       <c r="J473"/>
     </row>
-    <row r="474" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A474" s="77" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B474" s="78" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C474" s="81" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D474" s="78"/>
       <c r="E474" s="77" t="s">
@@ -28417,13 +28407,13 @@
     </row>
     <row r="475" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A475" s="77" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B475" s="78" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C475" s="81" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D475" s="78"/>
       <c r="E475" s="77" t="s">
@@ -28443,13 +28433,13 @@
     </row>
     <row r="476" spans="1:10" ht="108" x14ac:dyDescent="0.15">
       <c r="A476" s="77" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B476" s="78" t="s">
         <v>1190</v>
       </c>
-      <c r="B476" s="78" t="s">
-        <v>1191</v>
-      </c>
       <c r="C476" s="81" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="D476" s="78"/>
       <c r="E476" s="77" t="s">
@@ -28469,13 +28459,13 @@
     </row>
     <row r="477" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A477" s="77" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B477" s="78" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C477" s="81" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D477" s="78"/>
       <c r="E477" s="77" t="s">
@@ -28488,20 +28478,20 @@
         <v>16</v>
       </c>
       <c r="H477" s="80" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="I477" s="60"/>
       <c r="J477"/>
     </row>
     <row r="478" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A478" s="77" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B478" s="78" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C478" s="81" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D478" s="78"/>
       <c r="E478" s="77" t="s">
@@ -28514,20 +28504,20 @@
         <v>16</v>
       </c>
       <c r="H478" s="80" t="s">
-        <v>1120</v>
+        <v>21</v>
       </c>
       <c r="I478" s="60"/>
       <c r="J478"/>
     </row>
     <row r="479" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A479" s="77" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B479" s="78" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C479" s="81" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D479" s="78"/>
       <c r="E479" s="77" t="s">
@@ -28540,7 +28530,7 @@
         <v>16</v>
       </c>
       <c r="H479" s="80" t="s">
-        <v>1119</v>
+        <v>19</v>
       </c>
       <c r="I479" s="60"/>
       <c r="J479"/>
@@ -28553,7 +28543,7 @@
         <v>845</v>
       </c>
       <c r="C480" s="12" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D480" s="11"/>
       <c r="E480" s="10" t="s">
@@ -28595,7 +28585,7 @@
       </c>
       <c r="I481" s="51"/>
     </row>
-    <row r="482" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A482" s="7" t="s">
         <v>848</v>
       </c>
@@ -28603,10 +28593,10 @@
         <v>845</v>
       </c>
       <c r="C482" s="13" t="s">
+        <v>933</v>
+      </c>
+      <c r="D482" s="53" t="s">
         <v>934</v>
-      </c>
-      <c r="D482" s="53" t="s">
-        <v>935</v>
       </c>
       <c r="E482" s="7" t="s">
         <v>24</v>
@@ -28633,7 +28623,7 @@
         <v>850</v>
       </c>
       <c r="D483" s="53" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E483" s="7" t="s">
         <v>24</v>
@@ -28648,10 +28638,10 @@
         <v>21</v>
       </c>
       <c r="I483" s="52" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="484" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A484" s="7" t="s">
         <v>851</v>
       </c>
@@ -28659,10 +28649,10 @@
         <v>845</v>
       </c>
       <c r="C484" s="13" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D484" s="53" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E484" s="7" t="s">
         <v>24</v>
@@ -28680,16 +28670,16 @@
     </row>
     <row r="485" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A485" s="7" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B485" s="53" t="s">
         <v>845</v>
       </c>
       <c r="C485" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="D485" s="53" t="s">
         <v>980</v>
-      </c>
-      <c r="D485" s="53" t="s">
-        <v>981</v>
       </c>
       <c r="E485" s="7" t="s">
         <v>24</v>
@@ -28704,10 +28694,10 @@
         <v>21</v>
       </c>
       <c r="I485" s="52" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="486" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A486" s="7" t="s">
         <v>852</v>
       </c>
@@ -28715,10 +28705,10 @@
         <v>7</v>
       </c>
       <c r="C486" s="26" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D486" s="53" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E486" s="27" t="s">
         <v>24</v>
@@ -28733,10 +28723,10 @@
         <v>21</v>
       </c>
       <c r="I486" s="52" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="487" spans="1:9" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A487" s="7" t="s">
         <v>853</v>
       </c>
@@ -28744,10 +28734,10 @@
         <v>7</v>
       </c>
       <c r="C487" s="16" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D487" s="53" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E487" s="28" t="s">
         <v>24</v>
@@ -28762,21 +28752,21 @@
         <v>21</v>
       </c>
       <c r="I487" s="52" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="488" spans="1:9" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="488" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A488" s="7" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B488" s="19" t="s">
         <v>845</v>
       </c>
       <c r="C488" s="13" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D488" s="53" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E488" s="28" t="s">
         <v>24</v>
@@ -28791,10 +28781,10 @@
         <v>21</v>
       </c>
       <c r="I488" s="52" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="489" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A489" s="7" t="s">
         <v>854</v>
       </c>
@@ -28819,18 +28809,18 @@
       </c>
       <c r="I489" s="16"/>
     </row>
-    <row r="490" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A490" s="7" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B490" s="14" t="s">
         <v>845</v>
       </c>
       <c r="C490" s="13" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D490" s="53" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E490" s="7" t="s">
         <v>24</v>
@@ -28845,10 +28835,10 @@
         <v>21</v>
       </c>
       <c r="I490" s="52" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="491" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A491" s="7" t="s">
         <v>855</v>
       </c>
@@ -28856,10 +28846,10 @@
         <v>845</v>
       </c>
       <c r="C491" s="13" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D491" s="53" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E491" s="7" t="s">
         <v>24</v>
@@ -28886,7 +28876,7 @@
         <v>857</v>
       </c>
       <c r="D492" s="53" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E492" s="7" t="s">
         <v>24</v>
@@ -28901,10 +28891,10 @@
         <v>21</v>
       </c>
       <c r="I492" s="52" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="493" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A493" s="7" t="s">
         <v>858</v>
       </c>
@@ -28912,10 +28902,10 @@
         <v>845</v>
       </c>
       <c r="C493" s="13" t="s">
+        <v>943</v>
+      </c>
+      <c r="D493" s="53" t="s">
         <v>944</v>
-      </c>
-      <c r="D493" s="53" t="s">
-        <v>945</v>
       </c>
       <c r="E493" s="7" t="s">
         <v>24</v>
@@ -28931,7 +28921,7 @@
       </c>
       <c r="I493" s="51"/>
     </row>
-    <row r="494" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A494" s="7" t="s">
         <v>859</v>
       </c>
@@ -28942,7 +28932,7 @@
         <v>860</v>
       </c>
       <c r="D494" s="53" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E494" s="7" t="s">
         <v>24</v>
@@ -28957,10 +28947,10 @@
         <v>21</v>
       </c>
       <c r="I494" s="52" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="495" spans="1:9" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A495" s="7" t="s">
         <v>861</v>
       </c>
@@ -28968,10 +28958,10 @@
         <v>845</v>
       </c>
       <c r="C495" s="13" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D495" s="53" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E495" s="28" t="s">
         <v>24</v>
@@ -28986,21 +28976,21 @@
         <v>21</v>
       </c>
       <c r="I495" s="52" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="496" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A496" s="7" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B496" s="19" t="s">
         <v>845</v>
       </c>
       <c r="C496" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D496" s="53" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E496" s="55" t="s">
         <v>24</v>
@@ -29015,21 +29005,21 @@
         <v>21</v>
       </c>
       <c r="I496" s="52" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="497" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A497" s="7" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B497" s="14" t="s">
         <v>845</v>
       </c>
       <c r="C497" s="13" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D497" s="53" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E497" s="7" t="s">
         <v>24</v>
@@ -29045,7 +29035,7 @@
       </c>
       <c r="I497" s="51"/>
     </row>
-    <row r="498" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A498" s="7" t="s">
         <v>862</v>
       </c>
@@ -29053,10 +29043,10 @@
         <v>845</v>
       </c>
       <c r="C498" s="13" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D498" s="53" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E498" s="7" t="s">
         <v>24</v>
@@ -29072,18 +29062,18 @@
       </c>
       <c r="I498" s="51"/>
     </row>
-    <row r="499" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A499" s="7" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B499" s="53" t="s">
         <v>845</v>
       </c>
       <c r="C499" s="13" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D499" s="53" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E499" s="7" t="s">
         <v>24</v>
@@ -29098,10 +29088,10 @@
         <v>21</v>
       </c>
       <c r="I499" s="54" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="500" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="500" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A500" s="7" t="s">
         <v>863</v>
       </c>
@@ -29109,10 +29099,10 @@
         <v>845</v>
       </c>
       <c r="C500" s="13" t="s">
+        <v>948</v>
+      </c>
+      <c r="D500" s="53" t="s">
         <v>949</v>
-      </c>
-      <c r="D500" s="53" t="s">
-        <v>950</v>
       </c>
       <c r="E500" s="7" t="s">
         <v>24</v>
@@ -29128,7 +29118,7 @@
       </c>
       <c r="I500" s="13"/>
     </row>
-    <row r="501" spans="1:9" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A501" s="7" t="s">
         <v>864</v>
       </c>
@@ -29139,7 +29129,7 @@
         <v>899</v>
       </c>
       <c r="D501" s="53" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E501" s="28" t="s">
         <v>24</v>
@@ -29154,7 +29144,7 @@
         <v>23</v>
       </c>
       <c r="I501" s="16" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="502" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -29182,7 +29172,7 @@
       </c>
       <c r="I502" s="16"/>
     </row>
-    <row r="503" spans="1:9" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A503" s="7" t="s">
         <v>867</v>
       </c>
@@ -29193,7 +29183,7 @@
         <v>900</v>
       </c>
       <c r="D503" s="53" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E503" s="28" t="s">
         <v>24</v>
@@ -29208,10 +29198,10 @@
         <v>23</v>
       </c>
       <c r="I503" s="54" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="504" spans="1:9" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="504" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A504" s="7" t="s">
         <v>868</v>
       </c>
@@ -29222,7 +29212,7 @@
         <v>869</v>
       </c>
       <c r="D504" s="53" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E504" s="29" t="s">
         <v>24</v>
@@ -29238,7 +29228,7 @@
       </c>
       <c r="I504" s="16"/>
     </row>
-    <row r="505" spans="1:9" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A505" s="7" t="s">
         <v>870</v>
       </c>
@@ -29249,7 +29239,7 @@
         <v>871</v>
       </c>
       <c r="D505" s="53" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E505" s="29" t="s">
         <v>24</v>
@@ -29265,7 +29255,7 @@
       </c>
       <c r="I505" s="16"/>
     </row>
-    <row r="506" spans="1:9" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A506" s="7" t="s">
         <v>872</v>
       </c>
@@ -29276,7 +29266,7 @@
         <v>873</v>
       </c>
       <c r="D506" s="53" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E506" s="29" t="s">
         <v>24</v>
@@ -29317,7 +29307,7 @@
       </c>
       <c r="I507" s="16"/>
     </row>
-    <row r="508" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A508" s="7" t="s">
         <v>876</v>
       </c>
@@ -29325,10 +29315,10 @@
         <v>845</v>
       </c>
       <c r="C508" s="13" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D508" s="53" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E508" s="7" t="s">
         <v>24</v>
@@ -29344,7 +29334,7 @@
       </c>
       <c r="I508" s="51"/>
     </row>
-    <row r="509" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A509" s="7" t="s">
         <v>877</v>
       </c>
@@ -29355,7 +29345,7 @@
         <v>878</v>
       </c>
       <c r="D509" s="53" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E509" s="7" t="s">
         <v>24</v>
@@ -29370,10 +29360,10 @@
         <v>21</v>
       </c>
       <c r="I509" s="54" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="510" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="510" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A510" s="7" t="s">
         <v>879</v>
       </c>
@@ -29381,10 +29371,10 @@
         <v>845</v>
       </c>
       <c r="C510" s="13" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D510" s="53" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E510" s="7" t="s">
         <v>24</v>
@@ -29400,18 +29390,18 @@
       </c>
       <c r="I510" s="51"/>
     </row>
-    <row r="511" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A511" s="7" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B511" s="53" t="s">
         <v>845</v>
       </c>
       <c r="C511" s="13" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D511" s="53" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E511" s="7" t="s">
         <v>24</v>
@@ -29426,10 +29416,10 @@
         <v>21</v>
       </c>
       <c r="I511" s="54" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="512" spans="1:9" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A512" s="7" t="s">
         <v>880</v>
       </c>
@@ -29440,7 +29430,7 @@
         <v>901</v>
       </c>
       <c r="D512" s="53" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E512" s="29" t="s">
         <v>24</v>
@@ -29455,10 +29445,10 @@
         <v>21</v>
       </c>
       <c r="I512" s="54" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="513" spans="1:10" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="513" spans="1:10" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A513" s="7" t="s">
         <v>881</v>
       </c>
@@ -29466,10 +29456,10 @@
         <v>7</v>
       </c>
       <c r="C513" s="16" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D513" s="53" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E513" s="29" t="s">
         <v>24</v>
@@ -29484,10 +29474,10 @@
         <v>21</v>
       </c>
       <c r="I513" s="54" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="514" spans="1:10" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="514" spans="1:10" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A514" s="7" t="s">
         <v>882</v>
       </c>
@@ -29520,7 +29510,7 @@
         <v>7</v>
       </c>
       <c r="C515" s="13" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D515" s="14"/>
       <c r="E515" s="29" t="s">
@@ -29537,7 +29527,7 @@
       </c>
       <c r="I515" s="16"/>
     </row>
-    <row r="516" spans="1:10" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:10" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A516" s="7" t="s">
         <v>884</v>
       </c>
@@ -29545,10 +29535,10 @@
         <v>7</v>
       </c>
       <c r="C516" s="13" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D516" s="53" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E516" s="29" t="s">
         <v>24</v>
@@ -29563,10 +29553,10 @@
         <v>21</v>
       </c>
       <c r="I516" s="54" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="517" spans="1:10" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="517" spans="1:10" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A517" s="7" t="s">
         <v>885</v>
       </c>
@@ -29574,10 +29564,10 @@
         <v>7</v>
       </c>
       <c r="C517" s="13" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D517" s="53" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E517" s="29" t="s">
         <v>24</v>
@@ -29593,7 +29583,7 @@
       </c>
       <c r="I517" s="16"/>
     </row>
-    <row r="518" spans="1:10" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:10" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A518" s="7" t="s">
         <v>886</v>
       </c>
@@ -29604,7 +29594,7 @@
         <v>887</v>
       </c>
       <c r="D518" s="53" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E518" s="28" t="s">
         <v>24</v>
@@ -29619,21 +29609,21 @@
         <v>21</v>
       </c>
       <c r="I518" s="16" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="519" spans="1:10" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="519" spans="1:10" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A519" s="7" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B519" s="19" t="s">
         <v>845</v>
       </c>
       <c r="C519" s="13" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D519" s="7" t="s">
         <v>1109</v>
-      </c>
-      <c r="D519" s="7" t="s">
-        <v>1110</v>
       </c>
       <c r="E519" s="28" t="s">
         <v>24</v>
@@ -29648,21 +29638,21 @@
         <v>21</v>
       </c>
       <c r="I519" s="54" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="520" spans="1:10" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="520" spans="1:10" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A520" s="7" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B520" s="19" t="s">
         <v>845</v>
       </c>
       <c r="C520" s="13" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="D520" s="7" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E520" s="28" t="s">
         <v>24</v>
@@ -29677,21 +29667,21 @@
         <v>21</v>
       </c>
       <c r="I520" s="54" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="521" spans="1:10" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="521" spans="1:10" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A521" s="7" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B521" s="19" t="s">
         <v>845</v>
       </c>
       <c r="C521" s="13" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D521" s="53" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E521" s="28" t="s">
         <v>24</v>
@@ -29706,21 +29696,21 @@
         <v>21</v>
       </c>
       <c r="I521" s="54" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="522" spans="1:10" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="522" spans="1:10" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A522" s="7" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B522" s="19" t="s">
         <v>845</v>
       </c>
       <c r="C522" s="13" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="D522" s="53" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E522" s="28" t="s">
         <v>24</v>
@@ -29735,10 +29725,10 @@
         <v>21</v>
       </c>
       <c r="I522" s="54" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="523" spans="1:10" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="523" spans="1:10" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A523" s="7" t="s">
         <v>888</v>
       </c>
@@ -29746,10 +29736,10 @@
         <v>7</v>
       </c>
       <c r="C523" s="13" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="D523" s="53" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E523" s="28" t="s">
         <v>24</v>
@@ -29765,7 +29755,7 @@
       </c>
       <c r="I523" s="16"/>
     </row>
-    <row r="524" spans="1:10" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:10" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A524" s="7" t="s">
         <v>889</v>
       </c>
@@ -29776,7 +29766,7 @@
         <v>890</v>
       </c>
       <c r="D524" s="53" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E524" s="28" t="s">
         <v>24</v>
@@ -29791,21 +29781,21 @@
         <v>21</v>
       </c>
       <c r="I524" s="54" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="525" spans="1:10" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A525" s="7" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B525" s="57" t="s">
         <v>845</v>
       </c>
       <c r="C525" s="13" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D525" s="53" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E525" s="28" t="s">
         <v>24</v>
@@ -29823,16 +29813,16 @@
     </row>
     <row r="526" spans="1:10" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A526" s="7" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B526" s="57" t="s">
         <v>845</v>
       </c>
       <c r="C526" s="13" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D526" s="53" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E526" s="28" t="s">
         <v>24</v>
@@ -29847,21 +29837,21 @@
         <v>21</v>
       </c>
       <c r="I526" s="54" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="527" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A527" s="77" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B527" s="57" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C527" s="79" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D527" s="78" t="s">
         <v>1131</v>
-      </c>
-      <c r="B527" s="57" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C527" s="79" t="s">
-        <v>1133</v>
-      </c>
-      <c r="D527" s="78" t="s">
-        <v>1132</v>
       </c>
       <c r="E527" s="77" t="s">
         <v>24</v>
@@ -29876,11 +29866,11 @@
         <v>21</v>
       </c>
       <c r="I527" s="81" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="J527"/>
     </row>
-    <row r="528" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A528" s="27" t="s">
         <v>891</v>
       </c>
@@ -29905,7 +29895,7 @@
       </c>
       <c r="I528" s="16"/>
     </row>
-    <row r="529" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A529" s="36" t="s">
         <v>894</v>
       </c>
@@ -29932,6 +29922,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B18:I18"/>
@@ -29939,11 +29934,6 @@
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G406:G417 F415:F416 F374:F375 F330:F331 G318:G331 F297:F298 G294:G298 F279:F280 G271:G280 F213:F214 G194:G216 G186:G190 G156:G160 G111:G116 G23:G80 E316:G316 B137:B301 C20:G20 A480:E480 C486:E486 C481:E484 D485:E485 E23:E135 F28:F130 B23:B122 E317:E357 B305:B357 F348:G357 B486:B491 G487:G491 E487:E491 E137:E301 B495:B498 E495:E507 F495:F500 E402:E450 B402:B450 B359:B360 E359:G360 E362:E385 B362:B385 F362:F363 G362:G376">
@@ -37532,18 +37522,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -37596,6 +37586,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -37605,14 +37603,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/SharePoint/Docs/MS-SITESS/MS-SITESS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-SITESS/MS-SITESS_RequirementSpecification.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10216"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5C76B912-D089-4AA7-BC9C-713BC9D459FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD97AC1B-9A06-C540-8D70-6953BB341231}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="28800" windowHeight="16320" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -4048,9 +4048,6 @@
     <t>MS-SITESS_R523002</t>
   </si>
   <si>
-    <t>[In Appendix B: Product Behavior] Implementation does be enabled for the subsite to be created, when presence set to false, and anonymous authentication is not allowed for the subsite.  &lt;17&gt; Section 3.1.4.9.2.1:  If anonymous authentication is not allowed for the subsite, the online presence information will be enabled on SharePoint Foundation 2010.</t>
-  </si>
-  <si>
     <t>MS-SITESS_R523:i</t>
   </si>
   <si>
@@ -4073,10 +4070,6 @@
   </si>
   <si>
     <t>[In GetSiteTemplatesResponse] [TemplateList:] In case the LCID included in the request message indicates a language that is not installed on the server, Implementation does return a SOAP fault with the error code [0x81070209] specified in the following table.&lt;7&gt; (Windows SharePoint Services 3.0, and Office SharePoint Server 2007 follow this behavior.)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4472,10 +4465,6 @@
   </si>
   <si>
     <t>Verified by derived requirements: MS-SITESS_R400, MS-SITESS_R1561.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] &lt;7&gt; Section 3.1.4.5.2.2: Implementation does not return the SOAP fault. It returns a successful GetSiteTemplatesResponse with an empty TemplateList element.(Microsoft SharePoint Foundation 2010 SharePoint Foundation 2013 and SharePoint Server 2016 above follow this behavior.)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4593,6 +4582,18 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does be enabled for the subsite to be created, when presence set to false, and anonymous authentication is not allowed for the subsite.  &lt;17&gt; Section 3.1.4.9.2.1:  If anonymous authentication is not allowed for the subsite, the online presence information will be enabled on SharePoint Foundation 2010 and Microsoft SharePoint Foundation 2013 Service Pack 1 (SP1).</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] &lt;7&gt; Section 3.1.4.5.2.2: Implementation does not return the SOAP fault. It returns a successful GetSiteTemplatesResponse with an empty TemplateList element.(Microsoft SharePoint Foundation 2010 SharePoint Foundation 2013 and SharePoint Server 2016 and SharePoint Server 2019 follow this behavior.)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -4601,7 +4602,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -16588,26 +16589,26 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M529"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:I19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="78" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
-    <col min="5" max="5" width="10.125" customWidth="1"/>
-    <col min="6" max="6" width="15.125" customWidth="1"/>
-    <col min="7" max="7" width="13.375" customWidth="1"/>
-    <col min="8" max="8" width="12.625" customWidth="1"/>
-    <col min="9" max="9" width="20.875" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="20.83203125" customWidth="1"/>
     <col min="10" max="10" width="9" style="2" customWidth="1"/>
     <col min="11" max="12" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="40" t="s">
         <v>897</v>
       </c>
@@ -16623,7 +16624,7 @@
       <c r="I1" s="43"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="44" t="s">
         <v>898</v>
       </c>
@@ -16637,26 +16638,26 @@
       <c r="I2" s="43"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="49"/>
       <c r="B3" s="48" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>1117</v>
+        <v>1221</v>
       </c>
       <c r="E3" s="48" t="s">
         <v>993</v>
       </c>
       <c r="F3" s="56">
-        <v>43634</v>
+        <v>44243</v>
       </c>
       <c r="G3" s="48"/>
       <c r="H3" s="2"/>
       <c r="I3" s="43"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="19">
       <c r="A4" s="108" t="s">
         <v>26</v>
       </c>
@@ -16670,7 +16671,7 @@
       <c r="I4" s="109"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -16686,7 +16687,7 @@
       <c r="I5" s="112"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="15">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -16703,7 +16704,7 @@
       <c r="J6" s="47"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
@@ -16719,7 +16720,7 @@
       <c r="I7" s="114"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15">
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
@@ -16736,7 +16737,7 @@
       <c r="J8" s="47"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="75.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -16753,7 +16754,7 @@
       <c r="J9" s="47"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="35.25" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
@@ -16770,7 +16771,7 @@
       <c r="J10" s="47"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="27.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -16786,7 +16787,7 @@
       <c r="I11" s="92"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" s="30" t="s">
         <v>9</v>
       </c>
@@ -16805,7 +16806,7 @@
       <c r="J12" s="47"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="26.25" customHeight="1">
       <c r="A13" s="32" t="s">
         <v>7</v>
       </c>
@@ -16823,7 +16824,7 @@
       <c r="I13" s="104"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="15">
       <c r="A14" s="33" t="s">
         <v>8</v>
       </c>
@@ -16842,7 +16843,7 @@
       <c r="J14" s="47"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="30">
       <c r="A15" s="34" t="s">
         <v>4</v>
       </c>
@@ -16860,7 +16861,7 @@
       <c r="I15" s="107"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="30" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
@@ -16877,12 +16878,12 @@
       <c r="J16" s="47"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" ht="69" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="89" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="C17" s="90"/>
       <c r="D17" s="90"/>
@@ -16893,7 +16894,7 @@
       <c r="I17" s="91"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" ht="30" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
@@ -16911,7 +16912,7 @@
       <c r="K18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" ht="30">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -16940,7 +16941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" ht="15">
       <c r="A20" s="7" t="s">
         <v>30</v>
       </c>
@@ -16965,7 +16966,7 @@
       </c>
       <c r="I20" s="16"/>
     </row>
-    <row r="21" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" ht="45">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -16992,7 +16993,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" ht="75">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -17021,7 +17022,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" ht="30">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -17046,7 +17047,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" ht="45">
       <c r="A24" s="7" t="s">
         <v>38</v>
       </c>
@@ -17071,7 +17072,7 @@
       </c>
       <c r="I24" s="16"/>
     </row>
-    <row r="25" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" ht="30">
       <c r="A25" s="7" t="s">
         <v>40</v>
       </c>
@@ -17098,7 +17099,7 @@
       </c>
       <c r="I25" s="16"/>
     </row>
-    <row r="26" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" ht="30">
       <c r="A26" s="7" t="s">
         <v>43</v>
       </c>
@@ -17125,7 +17126,7 @@
       </c>
       <c r="I26" s="16"/>
     </row>
-    <row r="27" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" ht="30">
       <c r="A27" s="7" t="s">
         <v>45</v>
       </c>
@@ -17150,7 +17151,7 @@
       </c>
       <c r="I27" s="16"/>
     </row>
-    <row r="28" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" ht="30">
       <c r="A28" s="7" t="s">
         <v>48</v>
       </c>
@@ -17175,7 +17176,7 @@
       </c>
       <c r="I28" s="16"/>
     </row>
-    <row r="29" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" ht="30">
       <c r="A29" s="7" t="s">
         <v>50</v>
       </c>
@@ -17200,7 +17201,7 @@
       </c>
       <c r="I29" s="16"/>
     </row>
-    <row r="30" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" ht="60">
       <c r="A30" s="7" t="s">
         <v>53</v>
       </c>
@@ -17225,7 +17226,7 @@
       </c>
       <c r="I30" s="16"/>
     </row>
-    <row r="31" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" ht="30">
       <c r="A31" s="7" t="s">
         <v>55</v>
       </c>
@@ -17250,7 +17251,7 @@
       </c>
       <c r="I31" s="16"/>
     </row>
-    <row r="32" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" ht="30">
       <c r="A32" s="7" t="s">
         <v>57</v>
       </c>
@@ -17275,7 +17276,7 @@
       </c>
       <c r="I32" s="16"/>
     </row>
-    <row r="33" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" ht="30">
       <c r="A33" s="7" t="s">
         <v>59</v>
       </c>
@@ -17300,7 +17301,7 @@
       </c>
       <c r="I33" s="16"/>
     </row>
-    <row r="34" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" ht="45">
       <c r="A34" s="7" t="s">
         <v>61</v>
       </c>
@@ -17308,7 +17309,7 @@
         <v>51</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="7" t="s">
@@ -17325,7 +17326,7 @@
       </c>
       <c r="I34" s="16"/>
     </row>
-    <row r="35" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" ht="30">
       <c r="A35" s="7" t="s">
         <v>62</v>
       </c>
@@ -17350,7 +17351,7 @@
       </c>
       <c r="I35" s="16"/>
     </row>
-    <row r="36" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" ht="30">
       <c r="A36" s="7" t="s">
         <v>64</v>
       </c>
@@ -17375,7 +17376,7 @@
       </c>
       <c r="I36" s="16"/>
     </row>
-    <row r="37" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" ht="30">
       <c r="A37" s="7" t="s">
         <v>66</v>
       </c>
@@ -17400,7 +17401,7 @@
       </c>
       <c r="I37" s="16"/>
     </row>
-    <row r="38" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" ht="45">
       <c r="A38" s="7" t="s">
         <v>67</v>
       </c>
@@ -17425,7 +17426,7 @@
       </c>
       <c r="I38" s="16"/>
     </row>
-    <row r="39" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" ht="30">
       <c r="A39" s="7" t="s">
         <v>69</v>
       </c>
@@ -17450,7 +17451,7 @@
       </c>
       <c r="I39" s="16"/>
     </row>
-    <row r="40" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" ht="30">
       <c r="A40" s="7" t="s">
         <v>71</v>
       </c>
@@ -17475,7 +17476,7 @@
       </c>
       <c r="I40" s="16"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="7" t="s">
         <v>997</v>
       </c>
@@ -17500,7 +17501,7 @@
       </c>
       <c r="I41" s="54"/>
     </row>
-    <row r="42" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" ht="30">
       <c r="A42" s="7" t="s">
         <v>72</v>
       </c>
@@ -17525,7 +17526,7 @@
       </c>
       <c r="I42" s="16"/>
     </row>
-    <row r="43" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" ht="150">
       <c r="A43" s="7" t="s">
         <v>75</v>
       </c>
@@ -17550,7 +17551,7 @@
       </c>
       <c r="I43" s="16"/>
     </row>
-    <row r="44" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" ht="30">
       <c r="A44" s="7" t="s">
         <v>77</v>
       </c>
@@ -17575,7 +17576,7 @@
       </c>
       <c r="I44" s="16"/>
     </row>
-    <row r="45" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9" ht="30">
       <c r="A45" s="7" t="s">
         <v>79</v>
       </c>
@@ -17600,7 +17601,7 @@
       </c>
       <c r="I45" s="16"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="7" t="s">
         <v>81</v>
       </c>
@@ -17625,7 +17626,7 @@
       </c>
       <c r="I46" s="16"/>
     </row>
-    <row r="47" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" ht="30">
       <c r="A47" s="7" t="s">
         <v>1002</v>
       </c>
@@ -17650,7 +17651,7 @@
       </c>
       <c r="I47" s="54"/>
     </row>
-    <row r="48" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9" ht="135">
       <c r="A48" s="7" t="s">
         <v>1003</v>
       </c>
@@ -17675,7 +17676,7 @@
       </c>
       <c r="I48" s="54"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="7" t="s">
         <v>1004</v>
       </c>
@@ -17696,11 +17697,11 @@
         <v>16</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="I49" s="54"/>
     </row>
-    <row r="50" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:9" ht="30">
       <c r="A50" s="7" t="s">
         <v>83</v>
       </c>
@@ -17725,7 +17726,7 @@
       </c>
       <c r="I50" s="16"/>
     </row>
-    <row r="51" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9" ht="30">
       <c r="A51" s="7" t="s">
         <v>85</v>
       </c>
@@ -17750,7 +17751,7 @@
       </c>
       <c r="I51" s="16"/>
     </row>
-    <row r="52" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9" ht="60">
       <c r="A52" s="7" t="s">
         <v>87</v>
       </c>
@@ -17775,7 +17776,7 @@
       </c>
       <c r="I52" s="16"/>
     </row>
-    <row r="53" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:9" ht="45">
       <c r="A53" s="7" t="s">
         <v>89</v>
       </c>
@@ -17800,7 +17801,7 @@
       </c>
       <c r="I53" s="16"/>
     </row>
-    <row r="54" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9" ht="30">
       <c r="A54" s="7" t="s">
         <v>91</v>
       </c>
@@ -17825,7 +17826,7 @@
       </c>
       <c r="I54" s="16"/>
     </row>
-    <row r="55" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:9" ht="75">
       <c r="A55" s="7" t="s">
         <v>93</v>
       </c>
@@ -17833,7 +17834,7 @@
         <v>3</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="D55" s="14"/>
       <c r="E55" s="7" t="s">
@@ -17850,7 +17851,7 @@
       </c>
       <c r="I55" s="16"/>
     </row>
-    <row r="56" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:9" ht="45">
       <c r="A56" s="7" t="s">
         <v>94</v>
       </c>
@@ -17875,7 +17876,7 @@
       </c>
       <c r="I56" s="16"/>
     </row>
-    <row r="57" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:9" ht="60">
       <c r="A57" s="7" t="s">
         <v>96</v>
       </c>
@@ -17900,7 +17901,7 @@
       </c>
       <c r="I57" s="16"/>
     </row>
-    <row r="58" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:9" ht="105">
       <c r="A58" s="7" t="s">
         <v>99</v>
       </c>
@@ -17925,7 +17926,7 @@
       </c>
       <c r="I58" s="16"/>
     </row>
-    <row r="59" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:9" ht="30">
       <c r="A59" s="7" t="s">
         <v>102</v>
       </c>
@@ -17950,7 +17951,7 @@
       </c>
       <c r="I59" s="16"/>
     </row>
-    <row r="60" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:9" ht="30">
       <c r="A60" s="7" t="s">
         <v>104</v>
       </c>
@@ -17975,7 +17976,7 @@
       </c>
       <c r="I60" s="16"/>
     </row>
-    <row r="61" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:9" ht="30">
       <c r="A61" s="7" t="s">
         <v>106</v>
       </c>
@@ -18000,7 +18001,7 @@
       </c>
       <c r="I61" s="16"/>
     </row>
-    <row r="62" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:9" ht="30">
       <c r="A62" s="7" t="s">
         <v>108</v>
       </c>
@@ -18025,7 +18026,7 @@
       </c>
       <c r="I62" s="16"/>
     </row>
-    <row r="63" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:9" ht="45">
       <c r="A63" s="7" t="s">
         <v>109</v>
       </c>
@@ -18050,7 +18051,7 @@
       </c>
       <c r="I63" s="16"/>
     </row>
-    <row r="64" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:9" ht="30">
       <c r="A64" s="7" t="s">
         <v>111</v>
       </c>
@@ -18075,7 +18076,7 @@
       </c>
       <c r="I64" s="16"/>
     </row>
-    <row r="65" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" ht="30">
       <c r="A65" s="7" t="s">
         <v>113</v>
       </c>
@@ -18100,7 +18101,7 @@
       </c>
       <c r="I65" s="16"/>
     </row>
-    <row r="66" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" ht="30">
       <c r="A66" s="7" t="s">
         <v>115</v>
       </c>
@@ -18125,7 +18126,7 @@
       </c>
       <c r="I66" s="16"/>
     </row>
-    <row r="67" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="45">
       <c r="A67" s="7" t="s">
         <v>117</v>
       </c>
@@ -18150,7 +18151,7 @@
       </c>
       <c r="I67" s="16"/>
     </row>
-    <row r="68" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="30">
       <c r="A68" s="7" t="s">
         <v>119</v>
       </c>
@@ -18158,7 +18159,7 @@
         <v>100</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="D68" s="14"/>
       <c r="E68" s="7" t="s">
@@ -18175,7 +18176,7 @@
       </c>
       <c r="I68" s="16"/>
     </row>
-    <row r="69" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:9" ht="45">
       <c r="A69" s="7" t="s">
         <v>120</v>
       </c>
@@ -18202,7 +18203,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" ht="75">
       <c r="A70" s="7" t="s">
         <v>122</v>
       </c>
@@ -18227,7 +18228,7 @@
       </c>
       <c r="I70" s="16"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="7" t="s">
         <v>124</v>
       </c>
@@ -18252,7 +18253,7 @@
       </c>
       <c r="I71" s="16"/>
     </row>
-    <row r="72" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" ht="30">
       <c r="A72" s="7" t="s">
         <v>126</v>
       </c>
@@ -18277,7 +18278,7 @@
       </c>
       <c r="I72" s="16"/>
     </row>
-    <row r="73" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" ht="30">
       <c r="A73" s="7" t="s">
         <v>128</v>
       </c>
@@ -18302,7 +18303,7 @@
       </c>
       <c r="I73" s="16"/>
     </row>
-    <row r="74" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" ht="30">
       <c r="A74" s="7" t="s">
         <v>131</v>
       </c>
@@ -18327,7 +18328,7 @@
       </c>
       <c r="I74" s="16"/>
     </row>
-    <row r="75" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" ht="45">
       <c r="A75" s="7" t="s">
         <v>134</v>
       </c>
@@ -18352,7 +18353,7 @@
       </c>
       <c r="I75" s="16"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="7" t="s">
         <v>136</v>
       </c>
@@ -18377,7 +18378,7 @@
       </c>
       <c r="I76" s="16"/>
     </row>
-    <row r="77" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="30">
       <c r="A77" s="7" t="s">
         <v>138</v>
       </c>
@@ -18402,7 +18403,7 @@
       </c>
       <c r="I77" s="16"/>
     </row>
-    <row r="78" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="30">
       <c r="A78" s="7" t="s">
         <v>141</v>
       </c>
@@ -18427,7 +18428,7 @@
       </c>
       <c r="I78" s="16"/>
     </row>
-    <row r="79" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="30">
       <c r="A79" s="7" t="s">
         <v>143</v>
       </c>
@@ -18452,7 +18453,7 @@
       </c>
       <c r="I79" s="16"/>
     </row>
-    <row r="80" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" ht="30">
       <c r="A80" s="7" t="s">
         <v>145</v>
       </c>
@@ -18477,7 +18478,7 @@
       </c>
       <c r="I80" s="16"/>
     </row>
-    <row r="81" spans="1:9" ht="229.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:9" ht="255">
       <c r="A81" s="7" t="s">
         <v>148</v>
       </c>
@@ -18502,7 +18503,7 @@
       </c>
       <c r="I81" s="16"/>
     </row>
-    <row r="82" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:9" ht="30">
       <c r="A82" s="7" t="s">
         <v>150</v>
       </c>
@@ -18527,7 +18528,7 @@
       </c>
       <c r="I82" s="16"/>
     </row>
-    <row r="83" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:9" ht="30">
       <c r="A83" s="7" t="s">
         <v>152</v>
       </c>
@@ -18552,7 +18553,7 @@
       </c>
       <c r="I83" s="16"/>
     </row>
-    <row r="84" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:9" ht="75">
       <c r="A84" s="7" t="s">
         <v>154</v>
       </c>
@@ -18579,7 +18580,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:9" ht="60">
       <c r="A85" s="7" t="s">
         <v>156</v>
       </c>
@@ -18606,7 +18607,7 @@
       </c>
       <c r="I85" s="16"/>
     </row>
-    <row r="86" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:9" ht="45">
       <c r="A86" s="7" t="s">
         <v>159</v>
       </c>
@@ -18631,7 +18632,7 @@
       </c>
       <c r="I86" s="16"/>
     </row>
-    <row r="87" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:9" ht="45">
       <c r="A87" s="7" t="s">
         <v>161</v>
       </c>
@@ -18656,7 +18657,7 @@
       </c>
       <c r="I87" s="13"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="7" t="s">
         <v>163</v>
       </c>
@@ -18681,7 +18682,7 @@
       </c>
       <c r="I88" s="16"/>
     </row>
-    <row r="89" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:9" ht="30">
       <c r="A89" s="7" t="s">
         <v>165</v>
       </c>
@@ -18706,7 +18707,7 @@
       </c>
       <c r="I89" s="16"/>
     </row>
-    <row r="90" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:9" ht="30">
       <c r="A90" s="7" t="s">
         <v>167</v>
       </c>
@@ -18731,7 +18732,7 @@
       </c>
       <c r="I90" s="16"/>
     </row>
-    <row r="91" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:9" ht="45">
       <c r="A91" s="7" t="s">
         <v>169</v>
       </c>
@@ -18756,7 +18757,7 @@
       </c>
       <c r="I91" s="16"/>
     </row>
-    <row r="92" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:9" ht="60">
       <c r="A92" s="7" t="s">
         <v>171</v>
       </c>
@@ -18781,7 +18782,7 @@
       </c>
       <c r="I92" s="16"/>
     </row>
-    <row r="93" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:9" ht="60">
       <c r="A93" s="7" t="s">
         <v>173</v>
       </c>
@@ -18806,7 +18807,7 @@
       </c>
       <c r="I93" s="16"/>
     </row>
-    <row r="94" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:9" ht="60">
       <c r="A94" s="7" t="s">
         <v>175</v>
       </c>
@@ -18831,7 +18832,7 @@
       </c>
       <c r="I94" s="16"/>
     </row>
-    <row r="95" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:9" ht="30">
       <c r="A95" s="7" t="s">
         <v>178</v>
       </c>
@@ -18856,7 +18857,7 @@
       </c>
       <c r="I95" s="16"/>
     </row>
-    <row r="96" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:9" ht="30">
       <c r="A96" s="7" t="s">
         <v>180</v>
       </c>
@@ -18864,7 +18865,7 @@
         <v>146</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="D96" s="14"/>
       <c r="E96" s="7" t="s">
@@ -18881,7 +18882,7 @@
       </c>
       <c r="I96" s="16"/>
     </row>
-    <row r="97" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:9" ht="30">
       <c r="A97" s="7" t="s">
         <v>181</v>
       </c>
@@ -18906,7 +18907,7 @@
       </c>
       <c r="I97" s="16"/>
     </row>
-    <row r="98" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:9" ht="135">
       <c r="A98" s="7" t="s">
         <v>177</v>
       </c>
@@ -18931,7 +18932,7 @@
       </c>
       <c r="I98" s="16"/>
     </row>
-    <row r="99" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:9" ht="30">
       <c r="A99" s="7" t="s">
         <v>185</v>
       </c>
@@ -18956,7 +18957,7 @@
       </c>
       <c r="I99" s="16"/>
     </row>
-    <row r="100" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:9" ht="45">
       <c r="A100" s="7" t="s">
         <v>187</v>
       </c>
@@ -18983,7 +18984,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:9" ht="30">
       <c r="A101" s="7" t="s">
         <v>190</v>
       </c>
@@ -18991,7 +18992,7 @@
         <v>188</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D101" s="14"/>
       <c r="E101" s="7" t="s">
@@ -19008,7 +19009,7 @@
       </c>
       <c r="I101" s="16"/>
     </row>
-    <row r="102" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:9" ht="75">
       <c r="A102" s="7" t="s">
         <v>191</v>
       </c>
@@ -19033,7 +19034,7 @@
       </c>
       <c r="I102" s="16"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="7" t="s">
         <v>193</v>
       </c>
@@ -19058,7 +19059,7 @@
       </c>
       <c r="I103" s="16"/>
     </row>
-    <row r="104" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:9" ht="30">
       <c r="A104" s="7" t="s">
         <v>195</v>
       </c>
@@ -19083,7 +19084,7 @@
       </c>
       <c r="I104" s="16"/>
     </row>
-    <row r="105" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:9" ht="60">
       <c r="A105" s="7" t="s">
         <v>197</v>
       </c>
@@ -19108,7 +19109,7 @@
       </c>
       <c r="I105" s="16"/>
     </row>
-    <row r="106" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:9" ht="30">
       <c r="A106" s="7" t="s">
         <v>199</v>
       </c>
@@ -19133,7 +19134,7 @@
       </c>
       <c r="I106" s="16"/>
     </row>
-    <row r="107" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:9" ht="75">
       <c r="A107" s="7" t="s">
         <v>201</v>
       </c>
@@ -19157,10 +19158,10 @@
         <v>18</v>
       </c>
       <c r="I107" s="16" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="45">
       <c r="A108" s="7" t="s">
         <v>203</v>
       </c>
@@ -19185,7 +19186,7 @@
       </c>
       <c r="I108" s="16"/>
     </row>
-    <row r="109" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:9" ht="30">
       <c r="A109" s="7" t="s">
         <v>205</v>
       </c>
@@ -19210,7 +19211,7 @@
       </c>
       <c r="I109" s="16"/>
     </row>
-    <row r="110" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:9" ht="30">
       <c r="A110" s="7" t="s">
         <v>208</v>
       </c>
@@ -19235,7 +19236,7 @@
       </c>
       <c r="I110" s="16"/>
     </row>
-    <row r="111" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:9" ht="30">
       <c r="A111" s="7" t="s">
         <v>211</v>
       </c>
@@ -19260,7 +19261,7 @@
       </c>
       <c r="I111" s="16"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="7" t="s">
         <v>213</v>
       </c>
@@ -19285,7 +19286,7 @@
       </c>
       <c r="I112" s="16"/>
     </row>
-    <row r="113" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:9" ht="30">
       <c r="A113" s="7" t="s">
         <v>215</v>
       </c>
@@ -19310,7 +19311,7 @@
       </c>
       <c r="I113" s="16"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="7" t="s">
         <v>218</v>
       </c>
@@ -19335,7 +19336,7 @@
       </c>
       <c r="I114" s="16"/>
     </row>
-    <row r="115" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:9" ht="30">
       <c r="A115" s="7" t="s">
         <v>991</v>
       </c>
@@ -19360,7 +19361,7 @@
       </c>
       <c r="I115" s="16"/>
     </row>
-    <row r="116" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:9" ht="30">
       <c r="A116" s="7" t="s">
         <v>221</v>
       </c>
@@ -19385,7 +19386,7 @@
       </c>
       <c r="I116" s="16"/>
     </row>
-    <row r="117" spans="1:9" ht="297" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:9" ht="328">
       <c r="A117" s="7" t="s">
         <v>224</v>
       </c>
@@ -19410,7 +19411,7 @@
       </c>
       <c r="I117" s="16"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="7" t="s">
         <v>227</v>
       </c>
@@ -19435,7 +19436,7 @@
       </c>
       <c r="I118" s="16"/>
     </row>
-    <row r="119" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:9" ht="75">
       <c r="A119" s="7" t="s">
         <v>229</v>
       </c>
@@ -19460,7 +19461,7 @@
       </c>
       <c r="I119" s="16"/>
     </row>
-    <row r="120" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:9" ht="45">
       <c r="A120" s="7" t="s">
         <v>231</v>
       </c>
@@ -19485,7 +19486,7 @@
       </c>
       <c r="I120" s="16"/>
     </row>
-    <row r="121" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:9" ht="45">
       <c r="A121" s="7" t="s">
         <v>233</v>
       </c>
@@ -19510,7 +19511,7 @@
       </c>
       <c r="I121" s="16"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="7" t="s">
         <v>235</v>
       </c>
@@ -19535,7 +19536,7 @@
       </c>
       <c r="I122" s="16"/>
     </row>
-    <row r="123" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:9" ht="45">
       <c r="A123" s="7" t="s">
         <v>922</v>
       </c>
@@ -19562,7 +19563,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:9" ht="75">
       <c r="A124" s="7" t="s">
         <v>925</v>
       </c>
@@ -19591,7 +19592,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:9" ht="30">
       <c r="A125" s="7" t="s">
         <v>237</v>
       </c>
@@ -19616,7 +19617,7 @@
       </c>
       <c r="I125" s="16"/>
     </row>
-    <row r="126" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:9" ht="30">
       <c r="A126" s="7" t="s">
         <v>239</v>
       </c>
@@ -19641,7 +19642,7 @@
       </c>
       <c r="I126" s="16"/>
     </row>
-    <row r="127" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:9" ht="30">
       <c r="A127" s="7" t="s">
         <v>241</v>
       </c>
@@ -19666,7 +19667,7 @@
       </c>
       <c r="I127" s="16"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="7" t="s">
         <v>242</v>
       </c>
@@ -19691,7 +19692,7 @@
       </c>
       <c r="I128" s="16"/>
     </row>
-    <row r="129" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:9" ht="30">
       <c r="A129" s="7" t="s">
         <v>244</v>
       </c>
@@ -19716,7 +19717,7 @@
       </c>
       <c r="I129" s="13"/>
     </row>
-    <row r="130" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:9" ht="30">
       <c r="A130" s="7" t="s">
         <v>246</v>
       </c>
@@ -19741,7 +19742,7 @@
       </c>
       <c r="I130" s="16"/>
     </row>
-    <row r="131" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:9" ht="45">
       <c r="A131" s="7" t="s">
         <v>248</v>
       </c>
@@ -19766,7 +19767,7 @@
       </c>
       <c r="I131" s="13"/>
     </row>
-    <row r="132" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:9" ht="30">
       <c r="A132" s="7" t="s">
         <v>250</v>
       </c>
@@ -19791,7 +19792,7 @@
       </c>
       <c r="I132" s="16"/>
     </row>
-    <row r="133" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:9" ht="30">
       <c r="A133" s="7" t="s">
         <v>252</v>
       </c>
@@ -19816,7 +19817,7 @@
       </c>
       <c r="I133" s="16"/>
     </row>
-    <row r="134" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:9" ht="45">
       <c r="A134" s="7" t="s">
         <v>254</v>
       </c>
@@ -19841,7 +19842,7 @@
       </c>
       <c r="I134" s="16"/>
     </row>
-    <row r="135" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:9" ht="30">
       <c r="A135" s="7" t="s">
         <v>256</v>
       </c>
@@ -19866,7 +19867,7 @@
       </c>
       <c r="I135" s="16"/>
     </row>
-    <row r="136" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:9" ht="75">
       <c r="A136" s="7" t="s">
         <v>258</v>
       </c>
@@ -19890,10 +19891,10 @@
         <v>18</v>
       </c>
       <c r="I136" s="13" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="150">
       <c r="A137" s="7" t="s">
         <v>260</v>
       </c>
@@ -19918,7 +19919,7 @@
       </c>
       <c r="I137" s="16"/>
     </row>
-    <row r="138" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:9" ht="30">
       <c r="A138" s="7" t="s">
         <v>261</v>
       </c>
@@ -19943,7 +19944,7 @@
       </c>
       <c r="I138" s="16"/>
     </row>
-    <row r="139" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:9" ht="135">
       <c r="A139" s="7" t="s">
         <v>226</v>
       </c>
@@ -19968,7 +19969,7 @@
       </c>
       <c r="I139" s="16"/>
     </row>
-    <row r="140" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:9" ht="30">
       <c r="A140" s="7" t="s">
         <v>265</v>
       </c>
@@ -19993,7 +19994,7 @@
       </c>
       <c r="I140" s="16"/>
     </row>
-    <row r="141" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:9" ht="30">
       <c r="A141" s="7" t="s">
         <v>266</v>
       </c>
@@ -20018,7 +20019,7 @@
       </c>
       <c r="I141" s="16"/>
     </row>
-    <row r="142" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:9" ht="30">
       <c r="A142" s="7" t="s">
         <v>268</v>
       </c>
@@ -20043,7 +20044,7 @@
       </c>
       <c r="I142" s="16"/>
     </row>
-    <row r="143" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:9" ht="30">
       <c r="A143" s="7" t="s">
         <v>270</v>
       </c>
@@ -20068,7 +20069,7 @@
       </c>
       <c r="I143" s="16"/>
     </row>
-    <row r="144" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:9" ht="45">
       <c r="A144" s="7" t="s">
         <v>272</v>
       </c>
@@ -20093,7 +20094,7 @@
       </c>
       <c r="I144" s="16"/>
     </row>
-    <row r="145" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:9" ht="60">
       <c r="A145" s="7" t="s">
         <v>274</v>
       </c>
@@ -20118,7 +20119,7 @@
       </c>
       <c r="I145" s="13"/>
     </row>
-    <row r="146" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:9" ht="45">
       <c r="A146" s="7" t="s">
         <v>275</v>
       </c>
@@ -20126,7 +20127,7 @@
         <v>262</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="D146" s="14"/>
       <c r="E146" s="7" t="s">
@@ -20143,7 +20144,7 @@
       </c>
       <c r="I146" s="13"/>
     </row>
-    <row r="147" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:9" ht="30">
       <c r="A147" s="7" t="s">
         <v>276</v>
       </c>
@@ -20168,7 +20169,7 @@
       </c>
       <c r="I147" s="16"/>
     </row>
-    <row r="148" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:9" ht="45">
       <c r="A148" s="7" t="s">
         <v>277</v>
       </c>
@@ -20193,7 +20194,7 @@
       </c>
       <c r="I148" s="16"/>
     </row>
-    <row r="149" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:9" ht="30">
       <c r="A149" s="7" t="s">
         <v>279</v>
       </c>
@@ -20218,7 +20219,7 @@
       </c>
       <c r="I149" s="16"/>
     </row>
-    <row r="150" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:9" ht="45">
       <c r="A150" s="7" t="s">
         <v>280</v>
       </c>
@@ -20245,7 +20246,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:9" ht="75">
       <c r="A151" s="7" t="s">
         <v>283</v>
       </c>
@@ -20270,7 +20271,7 @@
       </c>
       <c r="I151" s="16"/>
     </row>
-    <row r="152" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:9" ht="30">
       <c r="A152" s="7" t="s">
         <v>285</v>
       </c>
@@ -20295,7 +20296,7 @@
       </c>
       <c r="I152" s="16"/>
     </row>
-    <row r="153" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:9" ht="45">
       <c r="A153" s="7" t="s">
         <v>287</v>
       </c>
@@ -20320,7 +20321,7 @@
       </c>
       <c r="I153" s="16"/>
     </row>
-    <row r="154" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:9" ht="45">
       <c r="A154" s="7" t="s">
         <v>289</v>
       </c>
@@ -20345,7 +20346,7 @@
       </c>
       <c r="I154" s="16"/>
     </row>
-    <row r="155" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:9" ht="30">
       <c r="A155" s="7" t="s">
         <v>292</v>
       </c>
@@ -20370,7 +20371,7 @@
       </c>
       <c r="I155" s="16"/>
     </row>
-    <row r="156" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:9" ht="45">
       <c r="A156" s="7" t="s">
         <v>295</v>
       </c>
@@ -20395,7 +20396,7 @@
       </c>
       <c r="I156" s="16"/>
     </row>
-    <row r="157" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:9" ht="30">
       <c r="A157" s="7" t="s">
         <v>297</v>
       </c>
@@ -20420,7 +20421,7 @@
       </c>
       <c r="I157" s="16"/>
     </row>
-    <row r="158" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:9" ht="45">
       <c r="A158" s="7" t="s">
         <v>299</v>
       </c>
@@ -20445,7 +20446,7 @@
       </c>
       <c r="I158" s="16"/>
     </row>
-    <row r="159" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:9" ht="30">
       <c r="A159" s="7" t="s">
         <v>302</v>
       </c>
@@ -20470,7 +20471,7 @@
       </c>
       <c r="I159" s="16"/>
     </row>
-    <row r="160" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:9" ht="45">
       <c r="A160" s="7" t="s">
         <v>304</v>
       </c>
@@ -20495,7 +20496,7 @@
       </c>
       <c r="I160" s="16"/>
     </row>
-    <row r="161" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:9" ht="30">
       <c r="A161" s="7" t="s">
         <v>306</v>
       </c>
@@ -20520,7 +20521,7 @@
       </c>
       <c r="I161" s="16"/>
     </row>
-    <row r="162" spans="1:9" ht="229.5" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:9" ht="255">
       <c r="A162" s="7" t="s">
         <v>309</v>
       </c>
@@ -20545,7 +20546,7 @@
       </c>
       <c r="I162" s="16"/>
     </row>
-    <row r="163" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:9" ht="30">
       <c r="A163" s="7" t="s">
         <v>312</v>
       </c>
@@ -20570,7 +20571,7 @@
       </c>
       <c r="I163" s="16"/>
     </row>
-    <row r="164" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:9" ht="30">
       <c r="A164" s="7" t="s">
         <v>314</v>
       </c>
@@ -20595,7 +20596,7 @@
       </c>
       <c r="I164" s="16"/>
     </row>
-    <row r="165" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:9" ht="75">
       <c r="A165" s="7" t="s">
         <v>316</v>
       </c>
@@ -20622,7 +20623,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:9" ht="60">
       <c r="A166" s="7" t="s">
         <v>317</v>
       </c>
@@ -20649,7 +20650,7 @@
       </c>
       <c r="I166" s="16"/>
     </row>
-    <row r="167" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:9" ht="45">
       <c r="A167" s="7" t="s">
         <v>318</v>
       </c>
@@ -20674,7 +20675,7 @@
       </c>
       <c r="I167" s="16"/>
     </row>
-    <row r="168" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:9" ht="45">
       <c r="A168" s="7" t="s">
         <v>320</v>
       </c>
@@ -20699,7 +20700,7 @@
       </c>
       <c r="I168" s="13"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="7" t="s">
         <v>322</v>
       </c>
@@ -20724,7 +20725,7 @@
       </c>
       <c r="I169" s="16"/>
     </row>
-    <row r="170" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:9" ht="30">
       <c r="A170" s="7" t="s">
         <v>324</v>
       </c>
@@ -20749,7 +20750,7 @@
       </c>
       <c r="I170" s="16"/>
     </row>
-    <row r="171" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:9" ht="30">
       <c r="A171" s="7" t="s">
         <v>326</v>
       </c>
@@ -20774,7 +20775,7 @@
       </c>
       <c r="I171" s="16"/>
     </row>
-    <row r="172" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:9" ht="30">
       <c r="A172" s="7" t="s">
         <v>328</v>
       </c>
@@ -20799,7 +20800,7 @@
       </c>
       <c r="I172" s="16"/>
     </row>
-    <row r="173" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:9" ht="45">
       <c r="A173" s="7" t="s">
         <v>330</v>
       </c>
@@ -20824,7 +20825,7 @@
       </c>
       <c r="I173" s="13"/>
     </row>
-    <row r="174" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:9" ht="30">
       <c r="A174" s="7" t="s">
         <v>331</v>
       </c>
@@ -20849,7 +20850,7 @@
       </c>
       <c r="I174" s="16"/>
     </row>
-    <row r="175" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:9" ht="30">
       <c r="A175" s="7" t="s">
         <v>333</v>
       </c>
@@ -20874,7 +20875,7 @@
       </c>
       <c r="I175" s="16"/>
     </row>
-    <row r="176" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:9" ht="45">
       <c r="A176" s="7" t="s">
         <v>335</v>
       </c>
@@ -20899,7 +20900,7 @@
       </c>
       <c r="I176" s="16"/>
     </row>
-    <row r="177" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:9" ht="30">
       <c r="A177" s="7" t="s">
         <v>337</v>
       </c>
@@ -20924,7 +20925,7 @@
       </c>
       <c r="I177" s="16"/>
     </row>
-    <row r="178" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:9" ht="135">
       <c r="A178" s="7" t="s">
         <v>311</v>
       </c>
@@ -20949,7 +20950,7 @@
       </c>
       <c r="I178" s="16"/>
     </row>
-    <row r="179" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:9" ht="30">
       <c r="A179" s="7" t="s">
         <v>341</v>
       </c>
@@ -20974,7 +20975,7 @@
       </c>
       <c r="I179" s="16"/>
     </row>
-    <row r="180" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:9" ht="45">
       <c r="A180" s="7" t="s">
         <v>343</v>
       </c>
@@ -21001,7 +21002,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:9" ht="75">
       <c r="A181" s="7" t="s">
         <v>346</v>
       </c>
@@ -21026,7 +21027,7 @@
       </c>
       <c r="I181" s="16"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="7" t="s">
         <v>348</v>
       </c>
@@ -21051,7 +21052,7 @@
       </c>
       <c r="I182" s="16"/>
     </row>
-    <row r="183" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:9" ht="30">
       <c r="A183" s="7" t="s">
         <v>350</v>
       </c>
@@ -21076,7 +21077,7 @@
       </c>
       <c r="I183" s="16"/>
     </row>
-    <row r="184" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:9" ht="30">
       <c r="A184" s="7" t="s">
         <v>352</v>
       </c>
@@ -21101,7 +21102,7 @@
       </c>
       <c r="I184" s="16"/>
     </row>
-    <row r="185" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:9" ht="30">
       <c r="A185" s="7" t="s">
         <v>355</v>
       </c>
@@ -21126,7 +21127,7 @@
       </c>
       <c r="I185" s="16"/>
     </row>
-    <row r="186" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:9" ht="30">
       <c r="A186" s="7" t="s">
         <v>358</v>
       </c>
@@ -21151,7 +21152,7 @@
       </c>
       <c r="I186" s="16"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="7" t="s">
         <v>360</v>
       </c>
@@ -21176,7 +21177,7 @@
       </c>
       <c r="I187" s="16"/>
     </row>
-    <row r="188" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:9" ht="30">
       <c r="A188" s="7" t="s">
         <v>362</v>
       </c>
@@ -21201,7 +21202,7 @@
       </c>
       <c r="I188" s="16"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="7" t="s">
         <v>365</v>
       </c>
@@ -21226,7 +21227,7 @@
       </c>
       <c r="I189" s="16"/>
     </row>
-    <row r="190" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:9" ht="30">
       <c r="A190" s="7" t="s">
         <v>367</v>
       </c>
@@ -21251,7 +21252,7 @@
       </c>
       <c r="I190" s="16"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="7" t="s">
         <v>369</v>
       </c>
@@ -21276,7 +21277,7 @@
       </c>
       <c r="I191" s="16"/>
     </row>
-    <row r="192" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:9" ht="120">
       <c r="A192" s="7" t="s">
         <v>372</v>
       </c>
@@ -21301,7 +21302,7 @@
       </c>
       <c r="I192" s="16"/>
     </row>
-    <row r="193" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:9" ht="30">
       <c r="A193" s="7" t="s">
         <v>374</v>
       </c>
@@ -21326,7 +21327,7 @@
       </c>
       <c r="I193" s="16"/>
     </row>
-    <row r="194" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:9" ht="30">
       <c r="A194" s="7" t="s">
         <v>376</v>
       </c>
@@ -21351,7 +21352,7 @@
       </c>
       <c r="I194" s="16"/>
     </row>
-    <row r="195" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:9" ht="30">
       <c r="A195" s="7" t="s">
         <v>378</v>
       </c>
@@ -21376,7 +21377,7 @@
       </c>
       <c r="I195" s="16"/>
     </row>
-    <row r="196" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:9" ht="135">
       <c r="A196" s="7" t="s">
         <v>373</v>
       </c>
@@ -21401,7 +21402,7 @@
       </c>
       <c r="I196" s="16"/>
     </row>
-    <row r="197" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:9" ht="30">
       <c r="A197" s="7" t="s">
         <v>381</v>
       </c>
@@ -21426,7 +21427,7 @@
       </c>
       <c r="I197" s="16"/>
     </row>
-    <row r="198" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:9" ht="30">
       <c r="A198" s="7" t="s">
         <v>383</v>
       </c>
@@ -21451,7 +21452,7 @@
       </c>
       <c r="I198" s="16"/>
     </row>
-    <row r="199" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:9" ht="30">
       <c r="A199" s="7" t="s">
         <v>385</v>
       </c>
@@ -21476,7 +21477,7 @@
       </c>
       <c r="I199" s="16"/>
     </row>
-    <row r="200" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:9" ht="30">
       <c r="A200" s="7" t="s">
         <v>387</v>
       </c>
@@ -21501,7 +21502,7 @@
       </c>
       <c r="I200" s="16"/>
     </row>
-    <row r="201" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:9" ht="45">
       <c r="A201" s="7" t="s">
         <v>389</v>
       </c>
@@ -21526,7 +21527,7 @@
       </c>
       <c r="I201" s="16"/>
     </row>
-    <row r="202" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:9" ht="30">
       <c r="A202" s="7" t="s">
         <v>391</v>
       </c>
@@ -21551,7 +21552,7 @@
       </c>
       <c r="I202" s="16"/>
     </row>
-    <row r="203" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:9" ht="30">
       <c r="A203" s="7" t="s">
         <v>393</v>
       </c>
@@ -21576,7 +21577,7 @@
       </c>
       <c r="I203" s="16"/>
     </row>
-    <row r="204" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:9" ht="60">
       <c r="A204" s="7" t="s">
         <v>395</v>
       </c>
@@ -21601,7 +21602,7 @@
       </c>
       <c r="I204" s="16"/>
     </row>
-    <row r="205" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:9" ht="75">
       <c r="A205" s="7" t="s">
         <v>398</v>
       </c>
@@ -21626,7 +21627,7 @@
       </c>
       <c r="I205" s="16"/>
     </row>
-    <row r="206" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:9" ht="30">
       <c r="A206" s="7" t="s">
         <v>400</v>
       </c>
@@ -21651,7 +21652,7 @@
       </c>
       <c r="I206" s="16"/>
     </row>
-    <row r="207" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:9" ht="45">
       <c r="A207" s="7" t="s">
         <v>402</v>
       </c>
@@ -21676,7 +21677,7 @@
       </c>
       <c r="I207" s="16"/>
     </row>
-    <row r="208" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:9" ht="45">
       <c r="A208" s="7" t="s">
         <v>404</v>
       </c>
@@ -21701,7 +21702,7 @@
       </c>
       <c r="I208" s="16"/>
     </row>
-    <row r="209" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:9" ht="30">
       <c r="A209" s="7" t="s">
         <v>407</v>
       </c>
@@ -21726,7 +21727,7 @@
       </c>
       <c r="I209" s="16"/>
     </row>
-    <row r="210" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:9" ht="30">
       <c r="A210" s="7" t="s">
         <v>410</v>
       </c>
@@ -21751,7 +21752,7 @@
       </c>
       <c r="I210" s="16"/>
     </row>
-    <row r="211" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:9" ht="30">
       <c r="A211" s="7" t="s">
         <v>412</v>
       </c>
@@ -21776,7 +21777,7 @@
       </c>
       <c r="I211" s="16"/>
     </row>
-    <row r="212" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:9" ht="30">
       <c r="A212" s="7" t="s">
         <v>414</v>
       </c>
@@ -21801,7 +21802,7 @@
       </c>
       <c r="I212" s="16"/>
     </row>
-    <row r="213" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:9" ht="30">
       <c r="A213" s="7" t="s">
         <v>417</v>
       </c>
@@ -21826,7 +21827,7 @@
       </c>
       <c r="I213" s="16"/>
     </row>
-    <row r="214" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:9" ht="30">
       <c r="A214" s="7" t="s">
         <v>419</v>
       </c>
@@ -21851,7 +21852,7 @@
       </c>
       <c r="I214" s="16"/>
     </row>
-    <row r="215" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:9" ht="30">
       <c r="A215" s="7" t="s">
         <v>421</v>
       </c>
@@ -21876,7 +21877,7 @@
       </c>
       <c r="I215" s="16"/>
     </row>
-    <row r="216" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:9" ht="135">
       <c r="A216" s="7" t="s">
         <v>424</v>
       </c>
@@ -21901,7 +21902,7 @@
       </c>
       <c r="I216" s="16"/>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="7" t="s">
         <v>427</v>
       </c>
@@ -21926,7 +21927,7 @@
       </c>
       <c r="I217" s="16"/>
     </row>
-    <row r="218" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:9" ht="30">
       <c r="A218" s="7" t="s">
         <v>429</v>
       </c>
@@ -21951,7 +21952,7 @@
       </c>
       <c r="I218" s="16"/>
     </row>
-    <row r="219" spans="1:9" ht="162" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:9" ht="180">
       <c r="A219" s="7" t="s">
         <v>426</v>
       </c>
@@ -21976,7 +21977,7 @@
       </c>
       <c r="I219" s="16"/>
     </row>
-    <row r="220" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:9" ht="30">
       <c r="A220" s="7" t="s">
         <v>432</v>
       </c>
@@ -22001,7 +22002,7 @@
       </c>
       <c r="I220" s="16"/>
     </row>
-    <row r="221" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:9" ht="30">
       <c r="A221" s="7" t="s">
         <v>434</v>
       </c>
@@ -22026,7 +22027,7 @@
       </c>
       <c r="I221" s="16"/>
     </row>
-    <row r="222" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:9" ht="30">
       <c r="A222" s="7" t="s">
         <v>436</v>
       </c>
@@ -22051,7 +22052,7 @@
       </c>
       <c r="I222" s="16"/>
     </row>
-    <row r="223" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:9" ht="30">
       <c r="A223" s="7" t="s">
         <v>438</v>
       </c>
@@ -22076,7 +22077,7 @@
       </c>
       <c r="I223" s="16"/>
     </row>
-    <row r="224" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:9" ht="60">
       <c r="A224" s="7" t="s">
         <v>440</v>
       </c>
@@ -22100,10 +22101,10 @@
         <v>18</v>
       </c>
       <c r="I224" s="13" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" ht="45">
       <c r="A225" s="7" t="s">
         <v>442</v>
       </c>
@@ -22128,7 +22129,7 @@
       </c>
       <c r="I225" s="13"/>
     </row>
-    <row r="226" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:9" ht="45">
       <c r="A226" s="7" t="s">
         <v>444</v>
       </c>
@@ -22153,7 +22154,7 @@
       </c>
       <c r="I226" s="16"/>
     </row>
-    <row r="227" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:9" ht="30">
       <c r="A227" s="7" t="s">
         <v>447</v>
       </c>
@@ -22178,7 +22179,7 @@
       </c>
       <c r="I227" s="16"/>
     </row>
-    <row r="228" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:9" ht="30">
       <c r="A228" s="7" t="s">
         <v>450</v>
       </c>
@@ -22203,7 +22204,7 @@
       </c>
       <c r="I228" s="16"/>
     </row>
-    <row r="229" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:9" ht="120">
       <c r="A229" s="7" t="s">
         <v>452</v>
       </c>
@@ -22228,7 +22229,7 @@
       </c>
       <c r="I229" s="16"/>
     </row>
-    <row r="230" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:9" ht="30">
       <c r="A230" s="7" t="s">
         <v>454</v>
       </c>
@@ -22253,7 +22254,7 @@
       </c>
       <c r="I230" s="16"/>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="7" t="s">
         <v>456</v>
       </c>
@@ -22278,7 +22279,7 @@
       </c>
       <c r="I231" s="16"/>
     </row>
-    <row r="232" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:9" ht="30">
       <c r="A232" s="7" t="s">
         <v>459</v>
       </c>
@@ -22303,7 +22304,7 @@
       </c>
       <c r="I232" s="16"/>
     </row>
-    <row r="233" spans="1:9" ht="256.5" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:9" ht="285">
       <c r="A233" s="7" t="s">
         <v>461</v>
       </c>
@@ -22328,7 +22329,7 @@
       </c>
       <c r="I233" s="16"/>
     </row>
-    <row r="234" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:9" ht="30">
       <c r="A234" s="7" t="s">
         <v>463</v>
       </c>
@@ -22353,7 +22354,7 @@
       </c>
       <c r="I234" s="16"/>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="7" t="s">
         <v>465</v>
       </c>
@@ -22378,7 +22379,7 @@
       </c>
       <c r="I235" s="16"/>
     </row>
-    <row r="236" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:9" ht="30">
       <c r="A236" s="7" t="s">
         <v>467</v>
       </c>
@@ -22403,7 +22404,7 @@
       </c>
       <c r="I236" s="16"/>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="7" t="s">
         <v>469</v>
       </c>
@@ -22428,7 +22429,7 @@
       </c>
       <c r="I237" s="16"/>
     </row>
-    <row r="238" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:9" ht="30">
       <c r="A238" s="7" t="s">
         <v>471</v>
       </c>
@@ -22453,7 +22454,7 @@
       </c>
       <c r="I238" s="16"/>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="7" t="s">
         <v>473</v>
       </c>
@@ -22478,7 +22479,7 @@
       </c>
       <c r="I239" s="16"/>
     </row>
-    <row r="240" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:9" ht="30">
       <c r="A240" s="7" t="s">
         <v>475</v>
       </c>
@@ -22503,7 +22504,7 @@
       </c>
       <c r="I240" s="16"/>
     </row>
-    <row r="241" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:9" ht="30">
       <c r="A241" s="7" t="s">
         <v>477</v>
       </c>
@@ -22528,7 +22529,7 @@
       </c>
       <c r="I241" s="16"/>
     </row>
-    <row r="242" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:9" ht="30">
       <c r="A242" s="7" t="s">
         <v>479</v>
       </c>
@@ -22553,7 +22554,7 @@
       </c>
       <c r="I242" s="16"/>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="7" t="s">
         <v>481</v>
       </c>
@@ -22578,7 +22579,7 @@
       </c>
       <c r="I243" s="16"/>
     </row>
-    <row r="244" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:9" ht="30">
       <c r="A244" s="7" t="s">
         <v>483</v>
       </c>
@@ -22603,7 +22604,7 @@
       </c>
       <c r="I244" s="16"/>
     </row>
-    <row r="245" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:9" ht="30">
       <c r="A245" s="7" t="s">
         <v>485</v>
       </c>
@@ -22628,7 +22629,7 @@
       </c>
       <c r="I245" s="16"/>
     </row>
-    <row r="246" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:9" ht="30">
       <c r="A246" s="7" t="s">
         <v>487</v>
       </c>
@@ -22653,7 +22654,7 @@
       </c>
       <c r="I246" s="16"/>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="7" t="s">
         <v>489</v>
       </c>
@@ -22678,7 +22679,7 @@
       </c>
       <c r="I247" s="16"/>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="7" t="s">
         <v>491</v>
       </c>
@@ -22703,7 +22704,7 @@
       </c>
       <c r="I248" s="16"/>
     </row>
-    <row r="249" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:9" ht="30">
       <c r="A249" s="7" t="s">
         <v>493</v>
       </c>
@@ -22728,7 +22729,7 @@
       </c>
       <c r="I249" s="16"/>
     </row>
-    <row r="250" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:9" ht="30">
       <c r="A250" s="7" t="s">
         <v>495</v>
       </c>
@@ -22753,7 +22754,7 @@
       </c>
       <c r="I250" s="16"/>
     </row>
-    <row r="251" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:9" ht="30">
       <c r="A251" s="7" t="s">
         <v>497</v>
       </c>
@@ -22778,7 +22779,7 @@
       </c>
       <c r="I251" s="16"/>
     </row>
-    <row r="252" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:9" ht="30">
       <c r="A252" s="7" t="s">
         <v>499</v>
       </c>
@@ -22803,7 +22804,7 @@
       </c>
       <c r="I252" s="16"/>
     </row>
-    <row r="253" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:9" ht="45">
       <c r="A253" s="7" t="s">
         <v>501</v>
       </c>
@@ -22828,7 +22829,7 @@
       </c>
       <c r="I253" s="13"/>
     </row>
-    <row r="254" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:9" ht="30">
       <c r="A254" s="7" t="s">
         <v>503</v>
       </c>
@@ -22853,7 +22854,7 @@
       </c>
       <c r="I254" s="13"/>
     </row>
-    <row r="255" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:9" ht="45">
       <c r="A255" s="7" t="s">
         <v>505</v>
       </c>
@@ -22878,7 +22879,7 @@
       </c>
       <c r="I255" s="16"/>
     </row>
-    <row r="256" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:9" ht="45">
       <c r="A256" s="7" t="s">
         <v>507</v>
       </c>
@@ -22905,7 +22906,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:9" ht="45">
       <c r="A257" s="7" t="s">
         <v>510</v>
       </c>
@@ -22930,7 +22931,7 @@
       </c>
       <c r="I257" s="16"/>
     </row>
-    <row r="258" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:9" ht="45">
       <c r="A258" s="7" t="s">
         <v>512</v>
       </c>
@@ -22955,7 +22956,7 @@
       </c>
       <c r="I258" s="16"/>
     </row>
-    <row r="259" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:9" ht="45">
       <c r="A259" s="7" t="s">
         <v>513</v>
       </c>
@@ -22980,7 +22981,7 @@
       </c>
       <c r="I259" s="20"/>
     </row>
-    <row r="260" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:9" ht="45">
       <c r="A260" s="7" t="s">
         <v>515</v>
       </c>
@@ -23005,7 +23006,7 @@
       </c>
       <c r="I260" s="16"/>
     </row>
-    <row r="261" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:9" ht="30">
       <c r="A261" s="7" t="s">
         <v>517</v>
       </c>
@@ -23030,7 +23031,7 @@
       </c>
       <c r="I261" s="16"/>
     </row>
-    <row r="262" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:9" ht="45">
       <c r="A262" s="7" t="s">
         <v>519</v>
       </c>
@@ -23055,7 +23056,7 @@
       </c>
       <c r="I262" s="16"/>
     </row>
-    <row r="263" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:9" ht="45">
       <c r="A263" s="7" t="s">
         <v>521</v>
       </c>
@@ -23080,7 +23081,7 @@
       </c>
       <c r="I263" s="16"/>
     </row>
-    <row r="264" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:9" ht="45">
       <c r="A264" s="7" t="s">
         <v>523</v>
       </c>
@@ -23105,7 +23106,7 @@
       </c>
       <c r="I264" s="16"/>
     </row>
-    <row r="265" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:9" ht="45">
       <c r="A265" s="7" t="s">
         <v>525</v>
       </c>
@@ -23130,7 +23131,7 @@
       </c>
       <c r="I265" s="16"/>
     </row>
-    <row r="266" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:9" ht="30">
       <c r="A266" s="7" t="s">
         <v>527</v>
       </c>
@@ -23155,7 +23156,7 @@
       </c>
       <c r="I266" s="16"/>
     </row>
-    <row r="267" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:9" ht="30">
       <c r="A267" s="7" t="s">
         <v>529</v>
       </c>
@@ -23180,7 +23181,7 @@
       </c>
       <c r="I267" s="16"/>
     </row>
-    <row r="268" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:9" ht="45">
       <c r="A268" s="7" t="s">
         <v>531</v>
       </c>
@@ -23205,7 +23206,7 @@
       </c>
       <c r="I268" s="16"/>
     </row>
-    <row r="269" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:9" ht="30">
       <c r="A269" s="7" t="s">
         <v>533</v>
       </c>
@@ -23230,7 +23231,7 @@
       </c>
       <c r="I269" s="16"/>
     </row>
-    <row r="270" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:9" ht="30">
       <c r="A270" s="7" t="s">
         <v>535</v>
       </c>
@@ -23255,7 +23256,7 @@
       </c>
       <c r="I270" s="16"/>
     </row>
-    <row r="271" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:9" ht="75">
       <c r="A271" s="7" t="s">
         <v>537</v>
       </c>
@@ -23280,7 +23281,7 @@
       </c>
       <c r="I271" s="16"/>
     </row>
-    <row r="272" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:9" ht="30">
       <c r="A272" s="7" t="s">
         <v>539</v>
       </c>
@@ -23305,7 +23306,7 @@
       </c>
       <c r="I272" s="16"/>
     </row>
-    <row r="273" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:9" ht="45">
       <c r="A273" s="7" t="s">
         <v>541</v>
       </c>
@@ -23330,7 +23331,7 @@
       </c>
       <c r="I273" s="16"/>
     </row>
-    <row r="274" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:9" ht="45">
       <c r="A274" s="7" t="s">
         <v>543</v>
       </c>
@@ -23355,7 +23356,7 @@
       </c>
       <c r="I274" s="16"/>
     </row>
-    <row r="275" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:9" ht="45">
       <c r="A275" s="7" t="s">
         <v>546</v>
       </c>
@@ -23380,7 +23381,7 @@
       </c>
       <c r="I275" s="16"/>
     </row>
-    <row r="276" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:9" ht="30">
       <c r="A276" s="7" t="s">
         <v>549</v>
       </c>
@@ -23405,7 +23406,7 @@
       </c>
       <c r="I276" s="16"/>
     </row>
-    <row r="277" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:9" ht="30">
       <c r="A277" s="7" t="s">
         <v>551</v>
       </c>
@@ -23430,7 +23431,7 @@
       </c>
       <c r="I277" s="16"/>
     </row>
-    <row r="278" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:9" ht="30">
       <c r="A278" s="7" t="s">
         <v>553</v>
       </c>
@@ -23455,7 +23456,7 @@
       </c>
       <c r="I278" s="16"/>
     </row>
-    <row r="279" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:9" ht="30">
       <c r="A279" s="7" t="s">
         <v>556</v>
       </c>
@@ -23480,7 +23481,7 @@
       </c>
       <c r="I279" s="16"/>
     </row>
-    <row r="280" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:9" ht="45">
       <c r="A280" s="7" t="s">
         <v>558</v>
       </c>
@@ -23505,7 +23506,7 @@
       </c>
       <c r="I280" s="16"/>
     </row>
-    <row r="281" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:9" ht="30">
       <c r="A281" s="7" t="s">
         <v>560</v>
       </c>
@@ -23530,7 +23531,7 @@
       </c>
       <c r="I281" s="16"/>
     </row>
-    <row r="282" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:9" ht="60">
       <c r="A282" s="7" t="s">
         <v>563</v>
       </c>
@@ -23555,7 +23556,7 @@
       </c>
       <c r="I282" s="16"/>
     </row>
-    <row r="283" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:9" ht="30">
       <c r="A283" s="7" t="s">
         <v>566</v>
       </c>
@@ -23580,7 +23581,7 @@
       </c>
       <c r="I283" s="16"/>
     </row>
-    <row r="284" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:9" ht="150">
       <c r="A284" s="7" t="s">
         <v>565</v>
       </c>
@@ -23605,7 +23606,7 @@
       </c>
       <c r="I284" s="16"/>
     </row>
-    <row r="285" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:9" ht="60">
       <c r="A285" s="7" t="s">
         <v>950</v>
       </c>
@@ -23632,7 +23633,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="286" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:9" ht="60">
       <c r="A286" s="7" t="s">
         <v>571</v>
       </c>
@@ -23659,7 +23660,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="287" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:9" ht="30">
       <c r="A287" s="7" t="s">
         <v>574</v>
       </c>
@@ -23684,7 +23685,7 @@
       </c>
       <c r="I287" s="16"/>
     </row>
-    <row r="288" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:9" ht="60">
       <c r="A288" s="7" t="s">
         <v>576</v>
       </c>
@@ -23709,7 +23710,7 @@
       </c>
       <c r="I288" s="16"/>
     </row>
-    <row r="289" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:9" ht="120">
       <c r="A289" s="7" t="s">
         <v>578</v>
       </c>
@@ -23734,7 +23735,7 @@
       </c>
       <c r="I289" s="16"/>
     </row>
-    <row r="290" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:9" ht="30">
       <c r="A290" s="7" t="s">
         <v>580</v>
       </c>
@@ -23759,7 +23760,7 @@
       </c>
       <c r="I290" s="16"/>
     </row>
-    <row r="291" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:9" ht="60">
       <c r="A291" s="7" t="s">
         <v>582</v>
       </c>
@@ -23784,7 +23785,7 @@
       </c>
       <c r="I291" s="16"/>
     </row>
-    <row r="292" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:9" ht="60">
       <c r="A292" s="7" t="s">
         <v>584</v>
       </c>
@@ -23809,7 +23810,7 @@
       </c>
       <c r="I292" s="16"/>
     </row>
-    <row r="293" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:9" ht="60">
       <c r="A293" s="7" t="s">
         <v>587</v>
       </c>
@@ -23834,7 +23835,7 @@
       </c>
       <c r="I293" s="16"/>
     </row>
-    <row r="294" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:9" ht="45">
       <c r="A294" s="7" t="s">
         <v>590</v>
       </c>
@@ -23859,7 +23860,7 @@
       </c>
       <c r="I294" s="16"/>
     </row>
-    <row r="295" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:9" ht="30">
       <c r="A295" s="7" t="s">
         <v>592</v>
       </c>
@@ -23884,7 +23885,7 @@
       </c>
       <c r="I295" s="16"/>
     </row>
-    <row r="296" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:9" ht="60">
       <c r="A296" s="7" t="s">
         <v>594</v>
       </c>
@@ -23909,7 +23910,7 @@
       </c>
       <c r="I296" s="16"/>
     </row>
-    <row r="297" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:9" ht="30">
       <c r="A297" s="7" t="s">
         <v>597</v>
       </c>
@@ -23934,7 +23935,7 @@
       </c>
       <c r="I297" s="16"/>
     </row>
-    <row r="298" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:9" ht="45">
       <c r="A298" s="7" t="s">
         <v>599</v>
       </c>
@@ -23959,7 +23960,7 @@
       </c>
       <c r="I298" s="16"/>
     </row>
-    <row r="299" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:9" ht="45">
       <c r="A299" s="7" t="s">
         <v>601</v>
       </c>
@@ -23984,7 +23985,7 @@
       </c>
       <c r="I299" s="16"/>
     </row>
-    <row r="300" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:9" ht="120">
       <c r="A300" s="7" t="s">
         <v>604</v>
       </c>
@@ -24009,7 +24010,7 @@
       </c>
       <c r="I300" s="16"/>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="7" t="s">
         <v>607</v>
       </c>
@@ -24034,7 +24035,7 @@
       </c>
       <c r="I301" s="16"/>
     </row>
-    <row r="302" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:9" ht="45">
       <c r="A302" s="7" t="s">
         <v>609</v>
       </c>
@@ -24059,7 +24060,7 @@
       </c>
       <c r="I302" s="16"/>
     </row>
-    <row r="303" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:9" ht="45">
       <c r="A303" s="7" t="s">
         <v>611</v>
       </c>
@@ -24086,7 +24087,7 @@
       </c>
       <c r="I303" s="16"/>
     </row>
-    <row r="304" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:9" ht="45">
       <c r="A304" s="7" t="s">
         <v>614</v>
       </c>
@@ -24113,7 +24114,7 @@
       </c>
       <c r="I304" s="16"/>
     </row>
-    <row r="305" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:9" ht="60">
       <c r="A305" s="7" t="s">
         <v>616</v>
       </c>
@@ -24138,7 +24139,7 @@
       </c>
       <c r="I305" s="16"/>
     </row>
-    <row r="306" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:9" ht="45">
       <c r="A306" s="7" t="s">
         <v>617</v>
       </c>
@@ -24163,7 +24164,7 @@
       </c>
       <c r="I306" s="16"/>
     </row>
-    <row r="307" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:9" ht="165">
       <c r="A307" s="7" t="s">
         <v>606</v>
       </c>
@@ -24188,7 +24189,7 @@
       </c>
       <c r="I307" s="16"/>
     </row>
-    <row r="308" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:9" ht="75">
       <c r="A308" s="7" t="s">
         <v>621</v>
       </c>
@@ -24213,7 +24214,7 @@
       </c>
       <c r="I308" s="16"/>
     </row>
-    <row r="309" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:9" ht="45">
       <c r="A309" s="7" t="s">
         <v>623</v>
       </c>
@@ -24238,7 +24239,7 @@
       </c>
       <c r="I309" s="16"/>
     </row>
-    <row r="310" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:9" ht="45">
       <c r="A310" s="7" t="s">
         <v>626</v>
       </c>
@@ -24263,7 +24264,7 @@
       </c>
       <c r="I310" s="16"/>
     </row>
-    <row r="311" spans="1:9" ht="202.5" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:9" ht="225">
       <c r="A311" s="7" t="s">
         <v>629</v>
       </c>
@@ -24288,7 +24289,7 @@
       </c>
       <c r="I311" s="16"/>
     </row>
-    <row r="312" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:9" ht="30">
       <c r="A312" s="7" t="s">
         <v>630</v>
       </c>
@@ -24313,7 +24314,7 @@
       </c>
       <c r="I312" s="16"/>
     </row>
-    <row r="313" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:9" ht="45">
       <c r="A313" s="7" t="s">
         <v>632</v>
       </c>
@@ -24338,7 +24339,7 @@
       </c>
       <c r="I313" s="16"/>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="7" t="s">
         <v>634</v>
       </c>
@@ -24363,7 +24364,7 @@
       </c>
       <c r="I314" s="16"/>
     </row>
-    <row r="315" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:9" ht="30">
       <c r="A315" s="7" t="s">
         <v>636</v>
       </c>
@@ -24388,7 +24389,7 @@
       </c>
       <c r="I315" s="16"/>
     </row>
-    <row r="316" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:9" ht="45">
       <c r="A316" s="7" t="s">
         <v>637</v>
       </c>
@@ -24413,7 +24414,7 @@
       </c>
       <c r="I316" s="16"/>
     </row>
-    <row r="317" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:9" ht="45">
       <c r="A317" s="7" t="s">
         <v>638</v>
       </c>
@@ -24440,7 +24441,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="318" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:9" ht="75">
       <c r="A318" s="7" t="s">
         <v>641</v>
       </c>
@@ -24465,7 +24466,7 @@
       </c>
       <c r="I318" s="16"/>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="7" t="s">
         <v>643</v>
       </c>
@@ -24490,7 +24491,7 @@
       </c>
       <c r="I319" s="16"/>
     </row>
-    <row r="320" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:9" ht="30">
       <c r="A320" s="7" t="s">
         <v>645</v>
       </c>
@@ -24515,7 +24516,7 @@
       </c>
       <c r="I320" s="16"/>
     </row>
-    <row r="321" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:9" ht="45">
       <c r="A321" s="7" t="s">
         <v>647</v>
       </c>
@@ -24540,7 +24541,7 @@
       </c>
       <c r="I321" s="16"/>
     </row>
-    <row r="322" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:9" ht="30">
       <c r="A322" s="7" t="s">
         <v>649</v>
       </c>
@@ -24565,7 +24566,7 @@
       </c>
       <c r="I322" s="16"/>
     </row>
-    <row r="323" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:9" ht="60">
       <c r="A323" s="7" t="s">
         <v>651</v>
       </c>
@@ -24592,7 +24593,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:9" ht="45">
       <c r="A324" s="7" t="s">
         <v>653</v>
       </c>
@@ -24600,7 +24601,7 @@
         <v>639</v>
       </c>
       <c r="C324" s="13" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="D324" s="14"/>
       <c r="E324" s="7" t="s">
@@ -24617,7 +24618,7 @@
       </c>
       <c r="I324" s="13"/>
     </row>
-    <row r="325" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:9" ht="30">
       <c r="A325" s="7" t="s">
         <v>654</v>
       </c>
@@ -24642,7 +24643,7 @@
       </c>
       <c r="I325" s="16"/>
     </row>
-    <row r="326" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:9" ht="45">
       <c r="A326" s="7" t="s">
         <v>657</v>
       </c>
@@ -24667,7 +24668,7 @@
       </c>
       <c r="I326" s="16"/>
     </row>
-    <row r="327" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:9" ht="30">
       <c r="A327" s="7" t="s">
         <v>660</v>
       </c>
@@ -24692,7 +24693,7 @@
       </c>
       <c r="I327" s="16"/>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:9" ht="15">
       <c r="A328" s="7" t="s">
         <v>662</v>
       </c>
@@ -24717,7 +24718,7 @@
       </c>
       <c r="I328" s="16"/>
     </row>
-    <row r="329" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:9" ht="30">
       <c r="A329" s="7" t="s">
         <v>664</v>
       </c>
@@ -24742,7 +24743,7 @@
       </c>
       <c r="I329" s="16"/>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:9" ht="15">
       <c r="A330" s="7" t="s">
         <v>667</v>
       </c>
@@ -24767,7 +24768,7 @@
       </c>
       <c r="I330" s="16"/>
     </row>
-    <row r="331" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:9" ht="30">
       <c r="A331" s="7" t="s">
         <v>669</v>
       </c>
@@ -24792,7 +24793,7 @@
       </c>
       <c r="I331" s="16"/>
     </row>
-    <row r="332" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:9" ht="30">
       <c r="A332" s="7" t="s">
         <v>671</v>
       </c>
@@ -24817,7 +24818,7 @@
       </c>
       <c r="I332" s="16"/>
     </row>
-    <row r="333" spans="1:9" ht="270" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:9" ht="300">
       <c r="A333" s="7" t="s">
         <v>674</v>
       </c>
@@ -24842,7 +24843,7 @@
       </c>
       <c r="I333" s="16"/>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:9" ht="15">
       <c r="A334" s="7" t="s">
         <v>677</v>
       </c>
@@ -24867,7 +24868,7 @@
       </c>
       <c r="I334" s="16"/>
     </row>
-    <row r="335" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:9" ht="60">
       <c r="A335" s="7" t="s">
         <v>679</v>
       </c>
@@ -24892,7 +24893,7 @@
       </c>
       <c r="I335" s="16"/>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:9" ht="15">
       <c r="A336" s="7" t="s">
         <v>681</v>
       </c>
@@ -24917,7 +24918,7 @@
       </c>
       <c r="I336" s="16"/>
     </row>
-    <row r="337" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:9" ht="30">
       <c r="A337" s="7" t="s">
         <v>682</v>
       </c>
@@ -24942,7 +24943,7 @@
       </c>
       <c r="I337" s="16"/>
     </row>
-    <row r="338" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:9" ht="30">
       <c r="A338" s="7" t="s">
         <v>684</v>
       </c>
@@ -24967,7 +24968,7 @@
       </c>
       <c r="I338" s="16"/>
     </row>
-    <row r="339" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:9" ht="30">
       <c r="A339" s="7" t="s">
         <v>686</v>
       </c>
@@ -24992,7 +24993,7 @@
       </c>
       <c r="I339" s="16"/>
     </row>
-    <row r="340" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:9" ht="30">
       <c r="A340" s="7" t="s">
         <v>688</v>
       </c>
@@ -25017,7 +25018,7 @@
       </c>
       <c r="I340" s="16"/>
     </row>
-    <row r="341" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:9" ht="60">
       <c r="A341" s="7" t="s">
         <v>689</v>
       </c>
@@ -25042,7 +25043,7 @@
       </c>
       <c r="I341" s="16"/>
     </row>
-    <row r="342" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:9" ht="45">
       <c r="A342" s="7" t="s">
         <v>691</v>
       </c>
@@ -25066,10 +25067,10 @@
         <v>18</v>
       </c>
       <c r="I342" s="16" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" ht="30">
       <c r="A343" s="7" t="s">
         <v>693</v>
       </c>
@@ -25094,7 +25095,7 @@
       </c>
       <c r="I343" s="16"/>
     </row>
-    <row r="344" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:9" ht="30">
       <c r="A344" s="7" t="s">
         <v>695</v>
       </c>
@@ -25119,7 +25120,7 @@
       </c>
       <c r="I344" s="13"/>
     </row>
-    <row r="345" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:9" ht="45">
       <c r="A345" s="7" t="s">
         <v>696</v>
       </c>
@@ -25144,7 +25145,7 @@
       </c>
       <c r="I345" s="16"/>
     </row>
-    <row r="346" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:9" ht="45">
       <c r="A346" s="7" t="s">
         <v>698</v>
       </c>
@@ -25169,7 +25170,7 @@
       </c>
       <c r="I346" s="13"/>
     </row>
-    <row r="347" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:9" ht="30">
       <c r="A347" s="7" t="s">
         <v>700</v>
       </c>
@@ -25194,7 +25195,7 @@
       </c>
       <c r="I347" s="16"/>
     </row>
-    <row r="348" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:9" ht="30">
       <c r="A348" s="7" t="s">
         <v>702</v>
       </c>
@@ -25219,7 +25220,7 @@
       </c>
       <c r="I348" s="16"/>
     </row>
-    <row r="349" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:9" ht="45">
       <c r="A349" s="7" t="s">
         <v>703</v>
       </c>
@@ -25244,7 +25245,7 @@
       </c>
       <c r="I349" s="16"/>
     </row>
-    <row r="350" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:9" ht="30">
       <c r="A350" s="7" t="s">
         <v>705</v>
       </c>
@@ -25269,7 +25270,7 @@
       </c>
       <c r="I350" s="16"/>
     </row>
-    <row r="351" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:9" ht="135">
       <c r="A351" s="7" t="s">
         <v>676</v>
       </c>
@@ -25294,7 +25295,7 @@
       </c>
       <c r="I351" s="16"/>
     </row>
-    <row r="352" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:9" ht="45">
       <c r="A352" s="7" t="s">
         <v>709</v>
       </c>
@@ -25302,7 +25303,7 @@
         <v>706</v>
       </c>
       <c r="C352" s="13" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="D352" s="14"/>
       <c r="E352" s="7" t="s">
@@ -25319,7 +25320,7 @@
       </c>
       <c r="I352" s="16"/>
     </row>
-    <row r="353" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:10" ht="30">
       <c r="A353" s="7" t="s">
         <v>710</v>
       </c>
@@ -25344,7 +25345,7 @@
       </c>
       <c r="I353" s="16"/>
     </row>
-    <row r="354" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:10" ht="45">
       <c r="A354" s="7" t="s">
         <v>712</v>
       </c>
@@ -25369,7 +25370,7 @@
       </c>
       <c r="I354" s="13"/>
     </row>
-    <row r="355" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:10" ht="45">
       <c r="A355" s="7" t="s">
         <v>714</v>
       </c>
@@ -25394,7 +25395,7 @@
       </c>
       <c r="I355" s="16"/>
     </row>
-    <row r="356" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:10" ht="45">
       <c r="A356" s="7" t="s">
         <v>716</v>
       </c>
@@ -25419,7 +25420,7 @@
       </c>
       <c r="I356" s="16"/>
     </row>
-    <row r="357" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:10" ht="45">
       <c r="A357" s="21" t="s">
         <v>718</v>
       </c>
@@ -25427,7 +25428,7 @@
         <v>706</v>
       </c>
       <c r="C357" s="23" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="D357" s="18"/>
       <c r="E357" s="21" t="s">
@@ -25444,15 +25445,15 @@
       </c>
       <c r="I357" s="23"/>
     </row>
-    <row r="358" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:10" ht="45">
       <c r="A358" s="58" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B358" s="59" t="s">
         <v>706</v>
       </c>
       <c r="C358" s="60" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="D358" s="61"/>
       <c r="E358" s="58" t="s">
@@ -25470,7 +25471,7 @@
       <c r="I358" s="60"/>
       <c r="J358"/>
     </row>
-    <row r="359" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:10" ht="45">
       <c r="A359" s="7" t="s">
         <v>719</v>
       </c>
@@ -25495,7 +25496,7 @@
       </c>
       <c r="I359" s="16"/>
     </row>
-    <row r="360" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:10" ht="45">
       <c r="A360" s="7" t="s">
         <v>721</v>
       </c>
@@ -25520,15 +25521,15 @@
       </c>
       <c r="I360" s="16"/>
     </row>
-    <row r="361" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:10" ht="45">
       <c r="A361" s="62" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B361" s="83" t="s">
         <v>706</v>
       </c>
       <c r="C361" s="84" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="D361" s="85"/>
       <c r="E361" s="62" t="s">
@@ -25546,7 +25547,7 @@
       <c r="I361" s="84"/>
       <c r="J361"/>
     </row>
-    <row r="362" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:10" ht="45">
       <c r="A362" s="7" t="s">
         <v>723</v>
       </c>
@@ -25573,7 +25574,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="363" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:10" ht="75">
       <c r="A363" s="7" t="s">
         <v>725</v>
       </c>
@@ -25598,7 +25599,7 @@
       </c>
       <c r="I363" s="16"/>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:10" ht="15">
       <c r="A364" s="7" t="s">
         <v>727</v>
       </c>
@@ -25623,7 +25624,7 @@
       </c>
       <c r="I364" s="16"/>
     </row>
-    <row r="365" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:10" ht="45">
       <c r="A365" s="7" t="s">
         <v>729</v>
       </c>
@@ -25648,7 +25649,7 @@
       </c>
       <c r="I365" s="16"/>
     </row>
-    <row r="366" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:10" ht="45">
       <c r="A366" s="7" t="s">
         <v>731</v>
       </c>
@@ -25673,7 +25674,7 @@
       </c>
       <c r="I366" s="16"/>
     </row>
-    <row r="367" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:10" ht="30">
       <c r="A367" s="7" t="s">
         <v>733</v>
       </c>
@@ -25698,7 +25699,7 @@
       </c>
       <c r="I367" s="16"/>
     </row>
-    <row r="368" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:10" ht="30">
       <c r="A368" s="7" t="s">
         <v>735</v>
       </c>
@@ -25723,7 +25724,7 @@
       </c>
       <c r="I368" s="16"/>
     </row>
-    <row r="369" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:9" ht="30">
       <c r="A369" s="7" t="s">
         <v>737</v>
       </c>
@@ -25748,7 +25749,7 @@
       </c>
       <c r="I369" s="16"/>
     </row>
-    <row r="370" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:9" ht="30">
       <c r="A370" s="7" t="s">
         <v>740</v>
       </c>
@@ -25773,7 +25774,7 @@
       </c>
       <c r="I370" s="16"/>
     </row>
-    <row r="371" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:9" ht="30">
       <c r="A371" s="7" t="s">
         <v>742</v>
       </c>
@@ -25798,7 +25799,7 @@
       </c>
       <c r="I371" s="16"/>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:9" ht="15">
       <c r="A372" s="7" t="s">
         <v>744</v>
       </c>
@@ -25823,7 +25824,7 @@
       </c>
       <c r="I372" s="16"/>
     </row>
-    <row r="373" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:9" ht="30">
       <c r="A373" s="7" t="s">
         <v>746</v>
       </c>
@@ -25848,7 +25849,7 @@
       </c>
       <c r="I373" s="16"/>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:9" ht="15">
       <c r="A374" s="7" t="s">
         <v>748</v>
       </c>
@@ -25873,7 +25874,7 @@
       </c>
       <c r="I374" s="16"/>
     </row>
-    <row r="375" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:9" ht="30">
       <c r="A375" s="7" t="s">
         <v>750</v>
       </c>
@@ -25898,7 +25899,7 @@
       </c>
       <c r="I375" s="16"/>
     </row>
-    <row r="376" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:9" ht="30">
       <c r="A376" s="7" t="s">
         <v>752</v>
       </c>
@@ -25923,7 +25924,7 @@
       </c>
       <c r="I376" s="16"/>
     </row>
-    <row r="377" spans="1:9" ht="364.5" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:9" ht="398">
       <c r="A377" s="7" t="s">
         <v>755</v>
       </c>
@@ -25948,7 +25949,7 @@
       </c>
       <c r="I377" s="16"/>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:9" ht="15">
       <c r="A378" s="7" t="s">
         <v>758</v>
       </c>
@@ -25973,7 +25974,7 @@
       </c>
       <c r="I378" s="16"/>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:9" ht="15">
       <c r="A379" s="7" t="s">
         <v>760</v>
       </c>
@@ -25998,7 +25999,7 @@
       </c>
       <c r="I379" s="16"/>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:9" ht="15">
       <c r="A380" s="7" t="s">
         <v>762</v>
       </c>
@@ -26023,7 +26024,7 @@
       </c>
       <c r="I380" s="16"/>
     </row>
-    <row r="381" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:9" ht="30">
       <c r="A381" s="7" t="s">
         <v>764</v>
       </c>
@@ -26048,7 +26049,7 @@
       </c>
       <c r="I381" s="16"/>
     </row>
-    <row r="382" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:9" ht="30">
       <c r="A382" s="7" t="s">
         <v>766</v>
       </c>
@@ -26073,7 +26074,7 @@
       </c>
       <c r="I382" s="16"/>
     </row>
-    <row r="383" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:9" ht="45">
       <c r="A383" s="7" t="s">
         <v>768</v>
       </c>
@@ -26098,7 +26099,7 @@
       </c>
       <c r="I383" s="16"/>
     </row>
-    <row r="384" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:9" ht="30">
       <c r="A384" s="7" t="s">
         <v>770</v>
       </c>
@@ -26123,7 +26124,7 @@
       </c>
       <c r="I384" s="16"/>
     </row>
-    <row r="385" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:9" ht="30">
       <c r="A385" s="7" t="s">
         <v>772</v>
       </c>
@@ -26148,7 +26149,7 @@
       </c>
       <c r="I385" s="16"/>
     </row>
-    <row r="386" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:9" ht="30">
       <c r="A386" s="7" t="s">
         <v>774</v>
       </c>
@@ -26173,7 +26174,7 @@
       </c>
       <c r="I386" s="16"/>
     </row>
-    <row r="387" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:9" ht="30">
       <c r="A387" s="7" t="s">
         <v>776</v>
       </c>
@@ -26198,7 +26199,7 @@
       </c>
       <c r="I387" s="16"/>
     </row>
-    <row r="388" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:9" ht="30">
       <c r="A388" s="7" t="s">
         <v>778</v>
       </c>
@@ -26223,7 +26224,7 @@
       </c>
       <c r="I388" s="16"/>
     </row>
-    <row r="389" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:9" ht="30">
       <c r="A389" s="7" t="s">
         <v>780</v>
       </c>
@@ -26248,7 +26249,7 @@
       </c>
       <c r="I389" s="16"/>
     </row>
-    <row r="390" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:9" ht="30">
       <c r="A390" s="7" t="s">
         <v>782</v>
       </c>
@@ -26273,7 +26274,7 @@
       </c>
       <c r="I390" s="16"/>
     </row>
-    <row r="391" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:9" ht="30">
       <c r="A391" s="7" t="s">
         <v>784</v>
       </c>
@@ -26298,7 +26299,7 @@
       </c>
       <c r="I391" s="13"/>
     </row>
-    <row r="392" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:9" ht="30">
       <c r="A392" s="7" t="s">
         <v>786</v>
       </c>
@@ -26323,7 +26324,7 @@
       </c>
       <c r="I392" s="13"/>
     </row>
-    <row r="393" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:9" ht="45">
       <c r="A393" s="7" t="s">
         <v>788</v>
       </c>
@@ -26348,7 +26349,7 @@
       </c>
       <c r="I393" s="16"/>
     </row>
-    <row r="394" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:9" ht="30">
       <c r="A394" s="7" t="s">
         <v>790</v>
       </c>
@@ -26373,7 +26374,7 @@
       </c>
       <c r="I394" s="16"/>
     </row>
-    <row r="395" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:9" ht="30">
       <c r="A395" s="7" t="s">
         <v>792</v>
       </c>
@@ -26398,7 +26399,7 @@
       </c>
       <c r="I395" s="16"/>
     </row>
-    <row r="396" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:9" ht="30">
       <c r="A396" s="7" t="s">
         <v>794</v>
       </c>
@@ -26423,7 +26424,7 @@
       </c>
       <c r="I396" s="16"/>
     </row>
-    <row r="397" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:9" ht="30">
       <c r="A397" s="7" t="s">
         <v>796</v>
       </c>
@@ -26448,7 +26449,7 @@
       </c>
       <c r="I397" s="16"/>
     </row>
-    <row r="398" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:9" ht="30">
       <c r="A398" s="7" t="s">
         <v>798</v>
       </c>
@@ -26473,7 +26474,7 @@
       </c>
       <c r="I398" s="16"/>
     </row>
-    <row r="399" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:9" ht="30">
       <c r="A399" s="7" t="s">
         <v>800</v>
       </c>
@@ -26498,7 +26499,7 @@
       </c>
       <c r="I399" s="13"/>
     </row>
-    <row r="400" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:9" ht="60">
       <c r="A400" s="7" t="s">
         <v>801</v>
       </c>
@@ -26506,7 +26507,7 @@
         <v>753</v>
       </c>
       <c r="C400" s="13" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="D400" s="14"/>
       <c r="E400" s="7" t="s">
@@ -26522,10 +26523,10 @@
         <v>18</v>
       </c>
       <c r="I400" s="13" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="401" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" ht="60">
       <c r="A401" s="7" t="s">
         <v>802</v>
       </c>
@@ -26533,7 +26534,7 @@
         <v>753</v>
       </c>
       <c r="C401" s="13" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="D401" s="14"/>
       <c r="E401" s="7" t="s">
@@ -26549,10 +26550,10 @@
         <v>18</v>
       </c>
       <c r="I401" s="13" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="402" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" ht="30">
       <c r="A402" s="7" t="s">
         <v>803</v>
       </c>
@@ -26577,7 +26578,7 @@
       </c>
       <c r="I402" s="16"/>
     </row>
-    <row r="403" spans="1:9" ht="243" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:9" ht="270">
       <c r="A403" s="7" t="s">
         <v>757</v>
       </c>
@@ -26602,7 +26603,7 @@
       </c>
       <c r="I403" s="16"/>
     </row>
-    <row r="404" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:9" ht="30">
       <c r="A404" s="7" t="s">
         <v>807</v>
       </c>
@@ -26627,7 +26628,7 @@
       </c>
       <c r="I404" s="16"/>
     </row>
-    <row r="405" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:9" ht="45">
       <c r="A405" s="7" t="s">
         <v>809</v>
       </c>
@@ -26654,7 +26655,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="406" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:9" ht="75">
       <c r="A406" s="7" t="s">
         <v>811</v>
       </c>
@@ -26679,7 +26680,7 @@
       </c>
       <c r="I406" s="16"/>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:9" ht="15">
       <c r="A407" s="7" t="s">
         <v>813</v>
       </c>
@@ -26704,7 +26705,7 @@
       </c>
       <c r="I407" s="16"/>
     </row>
-    <row r="408" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:9" ht="45">
       <c r="A408" s="7" t="s">
         <v>815</v>
       </c>
@@ -26729,7 +26730,7 @@
       </c>
       <c r="I408" s="16"/>
     </row>
-    <row r="409" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:9" ht="45">
       <c r="A409" s="7" t="s">
         <v>817</v>
       </c>
@@ -26754,7 +26755,7 @@
       </c>
       <c r="I409" s="16"/>
     </row>
-    <row r="410" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:9" ht="30">
       <c r="A410" s="7" t="s">
         <v>819</v>
       </c>
@@ -26779,7 +26780,7 @@
       </c>
       <c r="I410" s="16"/>
     </row>
-    <row r="411" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:9" ht="30">
       <c r="A411" s="7" t="s">
         <v>822</v>
       </c>
@@ -26804,7 +26805,7 @@
       </c>
       <c r="I411" s="16"/>
     </row>
-    <row r="412" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:9" ht="30">
       <c r="A412" s="7" t="s">
         <v>824</v>
       </c>
@@ -26829,7 +26830,7 @@
       </c>
       <c r="I412" s="16"/>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:9" ht="30">
       <c r="A413" s="7" t="s">
         <v>826</v>
       </c>
@@ -26854,7 +26855,7 @@
       </c>
       <c r="I413" s="16"/>
     </row>
-    <row r="414" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:9" ht="30">
       <c r="A414" s="7" t="s">
         <v>828</v>
       </c>
@@ -26879,7 +26880,7 @@
       </c>
       <c r="I414" s="16"/>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:9" ht="30">
       <c r="A415" s="7" t="s">
         <v>830</v>
       </c>
@@ -26904,7 +26905,7 @@
       </c>
       <c r="I415" s="16"/>
     </row>
-    <row r="416" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:9" ht="30">
       <c r="A416" s="7" t="s">
         <v>976</v>
       </c>
@@ -26929,7 +26930,7 @@
       </c>
       <c r="I416" s="16"/>
     </row>
-    <row r="417" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:9" ht="30">
       <c r="A417" s="7" t="s">
         <v>833</v>
       </c>
@@ -26954,7 +26955,7 @@
       </c>
       <c r="I417" s="16"/>
     </row>
-    <row r="418" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:9" ht="135">
       <c r="A418" s="7" t="s">
         <v>836</v>
       </c>
@@ -26979,7 +26980,7 @@
       </c>
       <c r="I418" s="16"/>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:9" ht="30">
       <c r="A419" s="7" t="s">
         <v>839</v>
       </c>
@@ -27004,7 +27005,7 @@
       </c>
       <c r="I419" s="16"/>
     </row>
-    <row r="420" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:9" ht="45">
       <c r="A420" s="7" t="s">
         <v>977</v>
       </c>
@@ -27029,7 +27030,7 @@
       </c>
       <c r="I420" s="16"/>
     </row>
-    <row r="421" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:9" ht="60">
       <c r="A421" s="7" t="s">
         <v>838</v>
       </c>
@@ -27054,7 +27055,7 @@
       </c>
       <c r="I421" s="16"/>
     </row>
-    <row r="422" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:9" ht="45">
       <c r="A422" s="7" t="s">
         <v>1051</v>
       </c>
@@ -27081,7 +27082,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="423" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:9" ht="30">
       <c r="A423" s="7" t="s">
         <v>1052</v>
       </c>
@@ -27106,7 +27107,7 @@
       </c>
       <c r="I423" s="54"/>
     </row>
-    <row r="424" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:9" ht="90">
       <c r="A424" s="7" t="s">
         <v>1053</v>
       </c>
@@ -27131,7 +27132,7 @@
       </c>
       <c r="I424" s="54"/>
     </row>
-    <row r="425" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:9" ht="30">
       <c r="A425" s="7" t="s">
         <v>1054</v>
       </c>
@@ -27156,7 +27157,7 @@
       </c>
       <c r="I425" s="54"/>
     </row>
-    <row r="426" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:9" ht="45">
       <c r="A426" s="7" t="s">
         <v>1055</v>
       </c>
@@ -27181,7 +27182,7 @@
       </c>
       <c r="I426" s="54"/>
     </row>
-    <row r="427" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:9" ht="30">
       <c r="A427" s="7" t="s">
         <v>1056</v>
       </c>
@@ -27206,7 +27207,7 @@
       </c>
       <c r="I427" s="54"/>
     </row>
-    <row r="428" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:9" ht="45">
       <c r="A428" s="7" t="s">
         <v>1057</v>
       </c>
@@ -27231,7 +27232,7 @@
       </c>
       <c r="I428" s="54"/>
     </row>
-    <row r="429" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:9" ht="60">
       <c r="A429" s="7" t="s">
         <v>1058</v>
       </c>
@@ -27256,7 +27257,7 @@
       </c>
       <c r="I429" s="54"/>
     </row>
-    <row r="430" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:9" ht="45">
       <c r="A430" s="7" t="s">
         <v>1059</v>
       </c>
@@ -27281,7 +27282,7 @@
       </c>
       <c r="I430" s="54"/>
     </row>
-    <row r="431" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:9" ht="45">
       <c r="A431" s="7" t="s">
         <v>1060</v>
       </c>
@@ -27306,7 +27307,7 @@
       </c>
       <c r="I431" s="54"/>
     </row>
-    <row r="432" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:9" ht="45">
       <c r="A432" s="7" t="s">
         <v>1061</v>
       </c>
@@ -27331,7 +27332,7 @@
       </c>
       <c r="I432" s="54"/>
     </row>
-    <row r="433" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:9" ht="30">
       <c r="A433" s="7" t="s">
         <v>1062</v>
       </c>
@@ -27356,7 +27357,7 @@
       </c>
       <c r="I433" s="54"/>
     </row>
-    <row r="434" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:9" ht="30">
       <c r="A434" s="7" t="s">
         <v>1063</v>
       </c>
@@ -27381,7 +27382,7 @@
       </c>
       <c r="I434" s="54"/>
     </row>
-    <row r="435" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:9" ht="150">
       <c r="A435" s="7" t="s">
         <v>1064</v>
       </c>
@@ -27406,7 +27407,7 @@
       </c>
       <c r="I435" s="54"/>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:9" ht="30">
       <c r="A436" s="7" t="s">
         <v>1065</v>
       </c>
@@ -27431,7 +27432,7 @@
       </c>
       <c r="I436" s="54"/>
     </row>
-    <row r="437" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:9" ht="30">
       <c r="A437" s="7" t="s">
         <v>1066</v>
       </c>
@@ -27456,7 +27457,7 @@
       </c>
       <c r="I437" s="54"/>
     </row>
-    <row r="438" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:9" ht="30">
       <c r="A438" s="7" t="s">
         <v>1067</v>
       </c>
@@ -27481,7 +27482,7 @@
       </c>
       <c r="I438" s="54"/>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:9" ht="30">
       <c r="A439" s="7" t="s">
         <v>1068</v>
       </c>
@@ -27506,7 +27507,7 @@
       </c>
       <c r="I439" s="54"/>
     </row>
-    <row r="440" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:9" ht="45">
       <c r="A440" s="7" t="s">
         <v>1069</v>
       </c>
@@ -27531,7 +27532,7 @@
       </c>
       <c r="I440" s="54"/>
     </row>
-    <row r="441" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:9" ht="150">
       <c r="A441" s="7" t="s">
         <v>1070</v>
       </c>
@@ -27556,7 +27557,7 @@
       </c>
       <c r="I441" s="54"/>
     </row>
-    <row r="442" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:9" ht="45">
       <c r="A442" s="7" t="s">
         <v>1071</v>
       </c>
@@ -27581,7 +27582,7 @@
       </c>
       <c r="I442" s="54"/>
     </row>
-    <row r="443" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:9" ht="45">
       <c r="A443" s="7" t="s">
         <v>1072</v>
       </c>
@@ -27606,7 +27607,7 @@
       </c>
       <c r="I443" s="54"/>
     </row>
-    <row r="444" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:9" ht="30">
       <c r="A444" s="7" t="s">
         <v>1073</v>
       </c>
@@ -27631,7 +27632,7 @@
       </c>
       <c r="I444" s="54"/>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:9" ht="30">
       <c r="A445" s="7" t="s">
         <v>1074</v>
       </c>
@@ -27656,7 +27657,7 @@
       </c>
       <c r="I445" s="54"/>
     </row>
-    <row r="446" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:9" ht="30">
       <c r="A446" s="7" t="s">
         <v>1075</v>
       </c>
@@ -27681,7 +27682,7 @@
       </c>
       <c r="I446" s="54"/>
     </row>
-    <row r="447" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:9" ht="120">
       <c r="A447" s="7" t="s">
         <v>1076</v>
       </c>
@@ -27706,7 +27707,7 @@
       </c>
       <c r="I447" s="54"/>
     </row>
-    <row r="448" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:9" ht="30">
       <c r="A448" s="7" t="s">
         <v>1077</v>
       </c>
@@ -27727,19 +27728,19 @@
         <v>16</v>
       </c>
       <c r="H448" s="17" t="s">
+        <v>1116</v>
+      </c>
+      <c r="I448" s="54"/>
+    </row>
+    <row r="449" spans="1:10" ht="30">
+      <c r="A449" s="7" t="s">
         <v>1118</v>
-      </c>
-      <c r="I448" s="54"/>
-    </row>
-    <row r="449" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A449" s="7" t="s">
-        <v>1120</v>
       </c>
       <c r="B449" s="19" t="s">
         <v>1095</v>
       </c>
       <c r="C449" s="13" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="D449" s="53"/>
       <c r="E449" s="7" t="s">
@@ -27752,19 +27753,19 @@
         <v>16</v>
       </c>
       <c r="H449" s="17" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I449" s="54"/>
+    </row>
+    <row r="450" spans="1:10" ht="30">
+      <c r="A450" s="7" t="s">
         <v>1119</v>
-      </c>
-      <c r="I449" s="54"/>
-    </row>
-    <row r="450" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A450" s="7" t="s">
-        <v>1121</v>
       </c>
       <c r="B450" s="19" t="s">
         <v>1095</v>
       </c>
       <c r="C450" s="13" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="D450" s="53"/>
       <c r="E450" s="7" t="s">
@@ -27777,19 +27778,19 @@
         <v>16</v>
       </c>
       <c r="H450" s="17" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="I450" s="54"/>
     </row>
-    <row r="451" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:10" ht="60">
       <c r="A451" s="58" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="B451" s="59" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C451" s="60" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="D451" s="61"/>
       <c r="E451" s="58" t="s">
@@ -27805,19 +27806,19 @@
         <v>18</v>
       </c>
       <c r="I451" s="60" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="J451"/>
     </row>
-    <row r="452" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:10" ht="45">
       <c r="A452" s="58" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="B452" s="59" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C452" s="13" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="D452" s="53"/>
       <c r="E452" s="58" t="s">
@@ -27835,22 +27836,22 @@
       <c r="I452" s="54"/>
       <c r="J452"/>
     </row>
-    <row r="453" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:10" ht="105">
       <c r="A453" s="65" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="B453" s="67" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C453" s="60" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="D453" s="63"/>
       <c r="E453" s="36" t="s">
         <v>20</v>
       </c>
       <c r="F453" s="58" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="G453" s="55" t="s">
         <v>16</v>
@@ -27860,15 +27861,15 @@
       </c>
       <c r="I453" s="66"/>
     </row>
-    <row r="454" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:10" ht="30">
       <c r="A454" s="68" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B454" s="69" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C454" s="70" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="D454" s="71"/>
       <c r="E454" s="72" t="s">
@@ -27885,15 +27886,15 @@
       </c>
       <c r="I454" s="76"/>
     </row>
-    <row r="455" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:10" ht="60">
       <c r="A455" s="77" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="B455" s="82" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C455" s="81" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="D455" s="78"/>
       <c r="E455" s="77" t="s">
@@ -27911,12 +27912,12 @@
       <c r="I455" s="81"/>
       <c r="J455"/>
     </row>
-    <row r="456" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:10" ht="30">
       <c r="A456" s="77" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="B456" s="82" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C456" s="81" t="s">
         <v>1040</v>
@@ -27937,15 +27938,15 @@
       <c r="I456" s="81"/>
       <c r="J456"/>
     </row>
-    <row r="457" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:10" ht="75">
       <c r="A457" s="77" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="B457" s="82" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="C457" s="81" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="D457" s="78"/>
       <c r="E457" s="77" t="s">
@@ -27963,15 +27964,15 @@
       <c r="I457" s="81"/>
       <c r="J457"/>
     </row>
-    <row r="458" spans="1:10" ht="81" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:10" ht="90">
       <c r="A458" s="77" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="B458" s="78" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="C458" s="81" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="D458" s="78"/>
       <c r="E458" s="77" t="s">
@@ -27989,15 +27990,15 @@
       <c r="I458" s="81"/>
       <c r="J458"/>
     </row>
-    <row r="459" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:10" ht="30">
       <c r="A459" s="77" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="B459" s="78" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="C459" s="81" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="D459" s="78"/>
       <c r="E459" s="77" t="s">
@@ -28015,15 +28016,15 @@
       <c r="I459" s="81"/>
       <c r="J459"/>
     </row>
-    <row r="460" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:10" ht="75">
       <c r="A460" s="77" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="B460" s="78" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C460" s="81" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="D460" s="78"/>
       <c r="E460" s="77" t="s">
@@ -28041,15 +28042,15 @@
       <c r="I460" s="81"/>
       <c r="J460"/>
     </row>
-    <row r="461" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:10" ht="30">
       <c r="A461" s="77" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="B461" s="78" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C461" s="81" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D461" s="78"/>
       <c r="E461" s="77" t="s">
@@ -28067,12 +28068,12 @@
       <c r="I461" s="60"/>
       <c r="J461"/>
     </row>
-    <row r="462" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:10" ht="30">
       <c r="A462" s="77" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B462" s="78" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C462" s="81" t="s">
         <v>1045</v>
@@ -28093,15 +28094,15 @@
       <c r="I462" s="60"/>
       <c r="J462"/>
     </row>
-    <row r="463" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:10" ht="45">
       <c r="A463" s="77" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B463" s="78" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C463" s="81" t="s">
         <v>1160</v>
-      </c>
-      <c r="B463" s="78" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C463" s="81" t="s">
-        <v>1162</v>
       </c>
       <c r="D463" s="78"/>
       <c r="E463" s="77" t="s">
@@ -28119,15 +28120,15 @@
       <c r="I463" s="60"/>
       <c r="J463"/>
     </row>
-    <row r="464" spans="1:10" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:10" ht="165">
       <c r="A464" s="77" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="B464" s="78" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="C464" s="81" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="D464" s="78"/>
       <c r="E464" s="77" t="s">
@@ -28145,15 +28146,15 @@
       <c r="I464" s="60"/>
       <c r="J464"/>
     </row>
-    <row r="465" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:10" ht="30">
       <c r="A465" s="77" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B465" s="78" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="C465" s="81" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="D465" s="78"/>
       <c r="E465" s="77" t="s">
@@ -28171,15 +28172,15 @@
       <c r="I465" s="60"/>
       <c r="J465"/>
     </row>
-    <row r="466" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:10" ht="30">
       <c r="A466" s="77" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B466" s="78" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="C466" s="81" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="D466" s="78"/>
       <c r="E466" s="77" t="s">
@@ -28197,15 +28198,15 @@
       <c r="I466" s="60"/>
       <c r="J466"/>
     </row>
-    <row r="467" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:10" ht="45">
       <c r="A467" s="77" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B467" s="78" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="C467" s="81" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="D467" s="78"/>
       <c r="E467" s="77" t="s">
@@ -28223,15 +28224,15 @@
       <c r="I467" s="60"/>
       <c r="J467"/>
     </row>
-    <row r="468" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:10" ht="30">
       <c r="A468" s="77" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B468" s="78" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="C468" s="81" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="D468" s="78"/>
       <c r="E468" s="77" t="s">
@@ -28249,15 +28250,15 @@
       <c r="I468" s="60"/>
       <c r="J468"/>
     </row>
-    <row r="469" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:10" ht="60">
       <c r="A469" s="77" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B469" s="78" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C469" s="81" t="s">
         <v>1173</v>
-      </c>
-      <c r="B469" s="78" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C469" s="81" t="s">
-        <v>1175</v>
       </c>
       <c r="D469" s="78"/>
       <c r="E469" s="77" t="s">
@@ -28275,15 +28276,15 @@
       <c r="I469" s="60"/>
       <c r="J469"/>
     </row>
-    <row r="470" spans="1:10" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:10" ht="165">
       <c r="A470" s="77" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B470" s="78" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="C470" s="81" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="D470" s="78"/>
       <c r="E470" s="77" t="s">
@@ -28301,15 +28302,15 @@
       <c r="I470" s="60"/>
       <c r="J470"/>
     </row>
-    <row r="471" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:10" ht="45">
       <c r="A471" s="77" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="B471" s="78" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="C471" s="81" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="D471" s="78"/>
       <c r="E471" s="77" t="s">
@@ -28327,15 +28328,15 @@
       <c r="I471" s="60"/>
       <c r="J471"/>
     </row>
-    <row r="472" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:10" ht="45">
       <c r="A472" s="77" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="B472" s="78" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="C472" s="81" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="D472" s="78"/>
       <c r="E472" s="77" t="s">
@@ -28353,12 +28354,12 @@
       <c r="I472" s="60"/>
       <c r="J472"/>
     </row>
-    <row r="473" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:10" ht="30">
       <c r="A473" s="77" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B473" s="78" t="s">
         <v>1182</v>
-      </c>
-      <c r="B473" s="78" t="s">
-        <v>1184</v>
       </c>
       <c r="C473" s="81" t="s">
         <v>1048</v>
@@ -28379,15 +28380,15 @@
       <c r="I473" s="60"/>
       <c r="J473"/>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:10" ht="30">
       <c r="A474" s="77" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B474" s="78" t="s">
         <v>1183</v>
       </c>
-      <c r="B474" s="78" t="s">
+      <c r="C474" s="81" t="s">
         <v>1185</v>
-      </c>
-      <c r="C474" s="81" t="s">
-        <v>1187</v>
       </c>
       <c r="D474" s="78"/>
       <c r="E474" s="77" t="s">
@@ -28405,15 +28406,15 @@
       <c r="I474" s="60"/>
       <c r="J474"/>
     </row>
-    <row r="475" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:10" ht="45">
       <c r="A475" s="77" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B475" s="78" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C475" s="81" t="s">
         <v>1186</v>
-      </c>
-      <c r="B475" s="78" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C475" s="81" t="s">
-        <v>1188</v>
       </c>
       <c r="D475" s="78"/>
       <c r="E475" s="77" t="s">
@@ -28431,12 +28432,12 @@
       <c r="I475" s="60"/>
       <c r="J475"/>
     </row>
-    <row r="476" spans="1:10" ht="108" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:10" ht="120">
       <c r="A476" s="77" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B476" s="78" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="C476" s="81" t="s">
         <v>1098</v>
@@ -28457,15 +28458,15 @@
       <c r="I476" s="60"/>
       <c r="J476"/>
     </row>
-    <row r="477" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:10" ht="45">
       <c r="A477" s="77" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B477" s="78" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="C477" s="81" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="D477" s="78"/>
       <c r="E477" s="77" t="s">
@@ -28478,20 +28479,20 @@
         <v>16</v>
       </c>
       <c r="H477" s="80" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="I477" s="60"/>
       <c r="J477"/>
     </row>
-    <row r="478" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:10" ht="45">
       <c r="A478" s="77" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B478" s="78" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="C478" s="81" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D478" s="78"/>
       <c r="E478" s="77" t="s">
@@ -28509,15 +28510,15 @@
       <c r="I478" s="60"/>
       <c r="J478"/>
     </row>
-    <row r="479" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:10" ht="45">
       <c r="A479" s="77" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B479" s="78" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="C479" s="81" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="D479" s="78"/>
       <c r="E479" s="77" t="s">
@@ -28535,7 +28536,7 @@
       <c r="I479" s="60"/>
       <c r="J479"/>
     </row>
-    <row r="480" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:10" ht="60">
       <c r="A480" s="10" t="s">
         <v>844</v>
       </c>
@@ -28560,7 +28561,7 @@
       </c>
       <c r="I480" s="51"/>
     </row>
-    <row r="481" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:9" ht="30">
       <c r="A481" s="10" t="s">
         <v>846</v>
       </c>
@@ -28585,7 +28586,7 @@
       </c>
       <c r="I481" s="51"/>
     </row>
-    <row r="482" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:9" ht="60">
       <c r="A482" s="7" t="s">
         <v>848</v>
       </c>
@@ -28612,7 +28613,7 @@
       </c>
       <c r="I482" s="51"/>
     </row>
-    <row r="483" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:9" ht="75">
       <c r="A483" s="7" t="s">
         <v>849</v>
       </c>
@@ -28641,7 +28642,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="484" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:9" ht="45">
       <c r="A484" s="7" t="s">
         <v>851</v>
       </c>
@@ -28668,7 +28669,7 @@
       </c>
       <c r="I484" s="51"/>
     </row>
-    <row r="485" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:9" ht="75">
       <c r="A485" s="7" t="s">
         <v>978</v>
       </c>
@@ -28697,7 +28698,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="486" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:9" ht="75">
       <c r="A486" s="7" t="s">
         <v>852</v>
       </c>
@@ -28726,7 +28727,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="487" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:9" ht="76" thickBot="1">
       <c r="A487" s="7" t="s">
         <v>853</v>
       </c>
@@ -28755,9 +28756,9 @@
         <v>927</v>
       </c>
     </row>
-    <row r="488" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:9" ht="76" thickBot="1">
       <c r="A488" s="7" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="B488" s="19" t="s">
         <v>845</v>
@@ -28784,7 +28785,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="489" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:9" ht="46" thickBot="1">
       <c r="A489" s="7" t="s">
         <v>854</v>
       </c>
@@ -28809,9 +28810,9 @@
       </c>
       <c r="I489" s="16"/>
     </row>
-    <row r="490" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:9" ht="75">
       <c r="A490" s="7" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B490" s="14" t="s">
         <v>845</v>
@@ -28838,7 +28839,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="491" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:9" ht="60">
       <c r="A491" s="7" t="s">
         <v>855</v>
       </c>
@@ -28865,7 +28866,7 @@
       </c>
       <c r="I491" s="51"/>
     </row>
-    <row r="492" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:9" ht="75">
       <c r="A492" s="7" t="s">
         <v>856</v>
       </c>
@@ -28894,7 +28895,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="493" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:9" ht="60">
       <c r="A493" s="7" t="s">
         <v>858</v>
       </c>
@@ -28921,7 +28922,7 @@
       </c>
       <c r="I493" s="51"/>
     </row>
-    <row r="494" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:9" ht="75">
       <c r="A494" s="7" t="s">
         <v>859</v>
       </c>
@@ -28950,7 +28951,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="495" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:9" ht="76" thickBot="1">
       <c r="A495" s="7" t="s">
         <v>861</v>
       </c>
@@ -28958,7 +28959,7 @@
         <v>845</v>
       </c>
       <c r="C495" s="13" t="s">
-        <v>1212</v>
+        <v>1220</v>
       </c>
       <c r="D495" s="53" t="s">
         <v>945</v>
@@ -28979,7 +28980,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="496" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:9" ht="75">
       <c r="A496" s="7" t="s">
         <v>975</v>
       </c>
@@ -28987,7 +28988,7 @@
         <v>845</v>
       </c>
       <c r="C496" s="13" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="D496" s="53" t="s">
         <v>945</v>
@@ -29008,7 +29009,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="497" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:9" ht="45">
       <c r="A497" s="7" t="s">
         <v>973</v>
       </c>
@@ -29035,7 +29036,7 @@
       </c>
       <c r="I497" s="51"/>
     </row>
-    <row r="498" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:9" ht="45">
       <c r="A498" s="7" t="s">
         <v>862</v>
       </c>
@@ -29062,7 +29063,7 @@
       </c>
       <c r="I498" s="51"/>
     </row>
-    <row r="499" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:9" ht="75">
       <c r="A499" s="7" t="s">
         <v>982</v>
       </c>
@@ -29091,7 +29092,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="500" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:9" ht="45">
       <c r="A500" s="7" t="s">
         <v>863</v>
       </c>
@@ -29118,7 +29119,7 @@
       </c>
       <c r="I500" s="13"/>
     </row>
-    <row r="501" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:9" ht="76" thickBot="1">
       <c r="A501" s="7" t="s">
         <v>864</v>
       </c>
@@ -29147,7 +29148,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="502" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:9" ht="46" thickBot="1">
       <c r="A502" s="7" t="s">
         <v>865</v>
       </c>
@@ -29172,7 +29173,7 @@
       </c>
       <c r="I502" s="16"/>
     </row>
-    <row r="503" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:9" ht="76" thickBot="1">
       <c r="A503" s="7" t="s">
         <v>867</v>
       </c>
@@ -29201,7 +29202,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="504" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:9" ht="46" thickBot="1">
       <c r="A504" s="7" t="s">
         <v>868</v>
       </c>
@@ -29228,7 +29229,7 @@
       </c>
       <c r="I504" s="16"/>
     </row>
-    <row r="505" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:9" ht="46" thickBot="1">
       <c r="A505" s="7" t="s">
         <v>870</v>
       </c>
@@ -29255,7 +29256,7 @@
       </c>
       <c r="I505" s="16"/>
     </row>
-    <row r="506" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:9" ht="61" thickBot="1">
       <c r="A506" s="7" t="s">
         <v>872</v>
       </c>
@@ -29282,7 +29283,7 @@
       </c>
       <c r="I506" s="16"/>
     </row>
-    <row r="507" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:9" ht="46" thickBot="1">
       <c r="A507" s="7" t="s">
         <v>874</v>
       </c>
@@ -29307,7 +29308,7 @@
       </c>
       <c r="I507" s="16"/>
     </row>
-    <row r="508" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:9" ht="60">
       <c r="A508" s="7" t="s">
         <v>876</v>
       </c>
@@ -29334,7 +29335,7 @@
       </c>
       <c r="I508" s="51"/>
     </row>
-    <row r="509" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:9" ht="75">
       <c r="A509" s="7" t="s">
         <v>877</v>
       </c>
@@ -29363,7 +29364,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="510" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:9" ht="45">
       <c r="A510" s="7" t="s">
         <v>879</v>
       </c>
@@ -29390,7 +29391,7 @@
       </c>
       <c r="I510" s="51"/>
     </row>
-    <row r="511" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:9" ht="75">
       <c r="A511" s="7" t="s">
         <v>987</v>
       </c>
@@ -29419,7 +29420,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="512" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:9" ht="76" thickBot="1">
       <c r="A512" s="7" t="s">
         <v>880</v>
       </c>
@@ -29448,7 +29449,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="513" spans="1:10" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:10" ht="76" thickBot="1">
       <c r="A513" s="7" t="s">
         <v>881</v>
       </c>
@@ -29477,7 +29478,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="514" spans="1:10" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:10" ht="46" thickBot="1">
       <c r="A514" s="7" t="s">
         <v>882</v>
       </c>
@@ -29502,7 +29503,7 @@
       </c>
       <c r="I514" s="16"/>
     </row>
-    <row r="515" spans="1:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:10" ht="31" thickBot="1">
       <c r="A515" s="7" t="s">
         <v>883</v>
       </c>
@@ -29527,7 +29528,7 @@
       </c>
       <c r="I515" s="16"/>
     </row>
-    <row r="516" spans="1:10" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:10" ht="76" thickBot="1">
       <c r="A516" s="7" t="s">
         <v>884</v>
       </c>
@@ -29556,7 +29557,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="517" spans="1:10" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:10" ht="61" thickBot="1">
       <c r="A517" s="7" t="s">
         <v>885</v>
       </c>
@@ -29583,7 +29584,7 @@
       </c>
       <c r="I517" s="16"/>
     </row>
-    <row r="518" spans="1:10" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:10" ht="76" thickBot="1">
       <c r="A518" s="7" t="s">
         <v>886</v>
       </c>
@@ -29612,18 +29613,18 @@
         <v>927</v>
       </c>
     </row>
-    <row r="519" spans="1:10" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:10" ht="91" thickBot="1">
       <c r="A519" s="7" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="B519" s="19" t="s">
         <v>845</v>
       </c>
       <c r="C519" s="13" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D519" s="7" t="s">
         <v>1108</v>
-      </c>
-      <c r="D519" s="7" t="s">
-        <v>1109</v>
       </c>
       <c r="E519" s="28" t="s">
         <v>24</v>
@@ -29641,7 +29642,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="520" spans="1:10" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:10" ht="76" thickBot="1">
       <c r="A520" s="7" t="s">
         <v>1107</v>
       </c>
@@ -29649,10 +29650,10 @@
         <v>845</v>
       </c>
       <c r="C520" s="13" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="D520" s="7" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E520" s="28" t="s">
         <v>24</v>
@@ -29670,18 +29671,18 @@
         <v>927</v>
       </c>
     </row>
-    <row r="521" spans="1:10" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:10" ht="76" thickBot="1">
       <c r="A521" s="7" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B521" s="19" t="s">
         <v>845</v>
       </c>
       <c r="C521" s="13" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="D521" s="53" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E521" s="28" t="s">
         <v>24</v>
@@ -29699,18 +29700,18 @@
         <v>927</v>
       </c>
     </row>
-    <row r="522" spans="1:10" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:10" ht="76" thickBot="1">
       <c r="A522" s="7" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B522" s="19" t="s">
         <v>845</v>
       </c>
       <c r="C522" s="13" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="D522" s="53" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E522" s="28" t="s">
         <v>24</v>
@@ -29728,7 +29729,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="523" spans="1:10" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:10" ht="61" thickBot="1">
       <c r="A523" s="7" t="s">
         <v>888</v>
       </c>
@@ -29755,7 +29756,7 @@
       </c>
       <c r="I523" s="16"/>
     </row>
-    <row r="524" spans="1:10" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:10" ht="76" thickBot="1">
       <c r="A524" s="7" t="s">
         <v>889</v>
       </c>
@@ -29784,9 +29785,9 @@
         <v>927</v>
       </c>
     </row>
-    <row r="525" spans="1:10" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:10" ht="46" thickBot="1">
       <c r="A525" s="7" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B525" s="57" t="s">
         <v>845</v>
@@ -29811,9 +29812,9 @@
       </c>
       <c r="I525" s="54"/>
     </row>
-    <row r="526" spans="1:10" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:10" ht="76" thickBot="1">
       <c r="A526" s="7" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B526" s="57" t="s">
         <v>845</v>
@@ -29840,18 +29841,18 @@
         <v>927</v>
       </c>
     </row>
-    <row r="527" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:10" ht="56.25" customHeight="1">
       <c r="A527" s="77" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B527" s="57" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C527" s="79" t="s">
         <v>1130</v>
       </c>
-      <c r="B527" s="57" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C527" s="79" t="s">
-        <v>1132</v>
-      </c>
       <c r="D527" s="78" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="E527" s="77" t="s">
         <v>24</v>
@@ -29870,7 +29871,7 @@
       </c>
       <c r="J527"/>
     </row>
-    <row r="528" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:10" ht="30">
       <c r="A528" s="27" t="s">
         <v>891</v>
       </c>
@@ -29895,7 +29896,7 @@
       </c>
       <c r="I528" s="16"/>
     </row>
-    <row r="529" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:9" ht="90">
       <c r="A529" s="36" t="s">
         <v>894</v>
       </c>
@@ -37512,7 +37513,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B528:B529 C3 B362:B450 B480:B526 B19:B357 B359:B360" numberStoredAsText="1"/>
+    <ignoredError sqref="B528:B529 B362:B450 B480:B526 B19:B357 B359:B360" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>

--- a/SharePoint/Docs/MS-SITESS/MS-SITESS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-SITESS/MS-SITESS_RequirementSpecification.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10216"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD97AC1B-9A06-C540-8D70-6953BB341231}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C1110D-457A-B14E-B14A-4F7D4377D71F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="540" windowWidth="28800" windowHeight="16320" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-340" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -4485,10 +4485,6 @@
   </si>
   <si>
     <t>[In CreateWeb] [presence:] If set to false, the online presence information MUST NOT be enabled for the subsite to be created. &lt;17&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] Implementation does be enabled for the subsite to be created, when presence set to omitted, and anonymous authentication is not allowed for the subsite.  &lt;17&gt; Section 3.1.4.9.2.1:  If anonymous authentication is not allowed for the subsite, the online presence information will be enabled on SharePoint Foundation 2010.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4592,6 +4588,10 @@
   </si>
   <si>
     <t>5.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does be enabled for the subsite to be created, when presence set to omitted, and anonymous authentication is not allowed for the subsite.  &lt;17&gt; Section 3.1.4.9.2.1:  If anonymous authentication is not allowed for the subsite, the online presence information will be enabled on SharePoint Foundation 2010 and Microsoft SharePoint Foundation 2013 Service Pack 1 (SP1).</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5101,6 +5101,27 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5163,27 +5184,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -16589,13 +16589,13 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M529"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A517" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C521" sqref="C521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="78" style="5" customWidth="1"/>
     <col min="4" max="4" width="17.1640625" customWidth="1"/>
@@ -16644,7 +16644,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E3" s="48" t="s">
         <v>993</v>
@@ -16658,49 +16658,49 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="19">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="109"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="88"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="112"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="91"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="15">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="92" t="s">
         <v>908</v>
       </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
       <c r="J6" s="47"/>
       <c r="K6" s="2"/>
     </row>
@@ -16708,32 +16708,32 @@
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="93" t="s">
         <v>909</v>
       </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="15">
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
       <c r="J8" s="47"/>
       <c r="K8" s="2"/>
     </row>
@@ -16741,16 +16741,16 @@
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="100" t="s">
         <v>915</v>
       </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="95"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="102"/>
       <c r="J9" s="47"/>
       <c r="K9" s="2"/>
     </row>
@@ -16758,16 +16758,16 @@
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="96" t="s">
+      <c r="B10" s="103" t="s">
         <v>916</v>
       </c>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="98"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="105"/>
       <c r="J10" s="47"/>
       <c r="K10" s="2"/>
     </row>
@@ -16775,16 +16775,16 @@
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="99" t="s">
         <v>910</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11">
@@ -16797,12 +16797,12 @@
       <c r="C12" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="99"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="101"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="108"/>
       <c r="J12" s="47"/>
       <c r="K12" s="2"/>
     </row>
@@ -16816,12 +16816,12 @@
       <c r="C13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="102"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="104"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="111"/>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="15">
@@ -16834,12 +16834,12 @@
       <c r="C14" s="9" t="s">
         <v>912</v>
       </c>
-      <c r="D14" s="102"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="104"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="111"/>
       <c r="J14" s="47"/>
       <c r="K14" s="2"/>
     </row>
@@ -16853,28 +16853,28 @@
       <c r="C15" s="9" t="s">
         <v>913</v>
       </c>
-      <c r="D15" s="105"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="107"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="114"/>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" ht="30" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="87" t="s">
+      <c r="B16" s="94" t="s">
         <v>917</v>
       </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
       <c r="J16" s="47"/>
       <c r="K16" s="2"/>
     </row>
@@ -16882,32 +16882,32 @@
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="89" t="s">
-        <v>1218</v>
-      </c>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="91"/>
+      <c r="B17" s="96" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C17" s="97"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="98"/>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:13" ht="30" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="92" t="s">
+      <c r="B18" s="99" t="s">
         <v>914</v>
       </c>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
       <c r="J18" s="47"/>
       <c r="K18" s="2"/>
       <c r="M18" s="2"/>
@@ -28959,7 +28959,7 @@
         <v>845</v>
       </c>
       <c r="C495" s="13" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="D495" s="53" t="s">
         <v>945</v>
@@ -29621,7 +29621,7 @@
         <v>845</v>
       </c>
       <c r="C519" s="13" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D519" s="7" t="s">
         <v>1108</v>
@@ -29650,7 +29650,7 @@
         <v>845</v>
       </c>
       <c r="C520" s="13" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D520" s="7" t="s">
         <v>1108</v>
@@ -29671,7 +29671,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="521" spans="1:10" ht="76" thickBot="1">
+    <row r="521" spans="1:10" ht="91" thickBot="1">
       <c r="A521" s="7" t="s">
         <v>1124</v>
       </c>
@@ -29679,7 +29679,7 @@
         <v>845</v>
       </c>
       <c r="C521" s="13" t="s">
-        <v>1215</v>
+        <v>1221</v>
       </c>
       <c r="D521" s="53" t="s">
         <v>1110</v>
@@ -29708,7 +29708,7 @@
         <v>845</v>
       </c>
       <c r="C522" s="13" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D522" s="53" t="s">
         <v>1110</v>
@@ -29923,11 +29923,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B18:I18"/>
@@ -29935,6 +29930,11 @@
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G406:G417 F415:F416 F374:F375 F330:F331 G318:G331 F297:F298 G294:G298 F279:F280 G271:G280 F213:F214 G194:G216 G186:G190 G156:G160 G111:G116 G23:G80 E316:G316 B137:B301 C20:G20 A480:E480 C486:E486 C481:E484 D485:E485 E23:E135 F28:F130 B23:B122 E317:E357 B305:B357 F348:G357 B486:B491 G487:G491 E487:E491 E137:E301 B495:B498 E495:E507 F495:F500 E402:E450 B402:B450 B359:B360 E359:G360 E362:E385 B362:B385 F362:F363 G362:G376">
@@ -37523,21 +37523,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -37586,10 +37571,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -37609,16 +37616,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SharePoint/Docs/MS-SITESS/MS-SITESS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-SITESS/MS-SITESS_RequirementSpecification.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBF4444-B878-42AE-8A36-AEF57C858085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDE1C39-9683-416A-B960-100CE81B550A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21450" yWindow="3075" windowWidth="21105" windowHeight="12480" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -5094,27 +5094,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5177,6 +5156,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -16583,7 +16583,7 @@
   <dimension ref="A1:M529"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -16643,7 +16643,7 @@
         <v>993</v>
       </c>
       <c r="F3" s="56">
-        <v>44397</v>
+        <v>44474</v>
       </c>
       <c r="G3" s="48"/>
       <c r="H3" s="2"/>
@@ -16651,49 +16651,49 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="20.25">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="88"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="109"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="91"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="112"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="113" t="s">
         <v>908</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
       <c r="J6" s="47"/>
       <c r="K6" s="2"/>
     </row>
@@ -16701,32 +16701,32 @@
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="114" t="s">
         <v>909</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
       <c r="J8" s="47"/>
       <c r="K8" s="2"/>
     </row>
@@ -16734,16 +16734,16 @@
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="93" t="s">
         <v>915</v>
       </c>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="102"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="95"/>
       <c r="J9" s="47"/>
       <c r="K9" s="2"/>
     </row>
@@ -16751,16 +16751,16 @@
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="103" t="s">
+      <c r="B10" s="96" t="s">
         <v>916</v>
       </c>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="105"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="98"/>
       <c r="J10" s="47"/>
       <c r="K10" s="2"/>
     </row>
@@ -16768,16 +16768,16 @@
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="92" t="s">
         <v>910</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11">
@@ -16790,12 +16790,12 @@
       <c r="C12" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="106"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="108"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="101"/>
       <c r="J12" s="47"/>
       <c r="K12" s="2"/>
     </row>
@@ -16809,12 +16809,12 @@
       <c r="C13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="109"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="111"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="104"/>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11">
@@ -16827,12 +16827,12 @@
       <c r="C14" s="9" t="s">
         <v>912</v>
       </c>
-      <c r="D14" s="109"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="111"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="104"/>
       <c r="J14" s="47"/>
       <c r="K14" s="2"/>
     </row>
@@ -16846,28 +16846,28 @@
       <c r="C15" s="9" t="s">
         <v>913</v>
       </c>
-      <c r="D15" s="112"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="114"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="107"/>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" ht="30" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="94" t="s">
+      <c r="B16" s="87" t="s">
         <v>917</v>
       </c>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
       <c r="J16" s="47"/>
       <c r="K16" s="2"/>
     </row>
@@ -16875,32 +16875,32 @@
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="89" t="s">
         <v>1211</v>
       </c>
-      <c r="C17" s="97"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="98"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="91"/>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:13" ht="30" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="99" t="s">
+      <c r="B18" s="92" t="s">
         <v>914</v>
       </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
       <c r="J18" s="47"/>
       <c r="K18" s="2"/>
       <c r="M18" s="2"/>
@@ -29916,6 +29916,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B18:I18"/>
@@ -29923,11 +29928,6 @@
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G406:G417 F415:F416 F374:F375 F330:F331 G318:G331 F297:F298 G294:G298 F279:F280 G271:G280 F213:F214 G194:G216 G186:G190 G156:G160 G111:G116 G23:G80 E316:G316 B137:B301 C20:G20 A480:E480 C486:E486 C481:E484 D485:E485 E23:E135 F28:F130 B23:B122 E317:E357 B305:B357 F348:G357 B486:B491 G487:G491 E487:E491 E137:E301 B495:B498 E495:E507 F495:F500 E402:E450 B402:B450 B359:B360 E359:G360 E362:E385 B362:B385 F362:F363 G362:G376">
@@ -37565,18 +37565,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -37595,6 +37595,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -37606,12 +37614,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>